--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="31620" windowHeight="12456" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
     <sheet name="Austria" sheetId="1" r:id="rId2"/>
     <sheet name="UK" sheetId="4" r:id="rId3"/>
     <sheet name="Italy" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Data (2)" sheetId="8" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -24,7 +25,7 @@
     <author>David Goddard</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0">
+    <comment ref="C16" authorId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C14" authorId="0">
+    <comment ref="C19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -178,8 +179,66 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Goddard</author>
+  </authors>
+  <commentList>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Goddard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://fullfact.org/health/coronavirus-testing-numbers-UK/</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Goddard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+https://ourworldindata.org/covid-testing</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -253,10 +312,10 @@
     <t>UK</t>
   </si>
   <si>
-    <t>Austria</t>
+    <t>AT</t>
   </si>
   <si>
-    <t>Italy</t>
+    <t>IT</t>
   </si>
 </sst>
 </file>
@@ -410,6 +469,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -417,12 +482,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -627,7 +686,7 @@
                   <c:v>8636</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>9377</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -644,8 +703,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69416064"/>
-        <c:axId val="67300736"/>
+        <c:axId val="64830464"/>
+        <c:axId val="64828928"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -790,17 +849,20 @@
                 <c:pt idx="20">
                   <c:v>0.12163600382986864</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11074094295756765</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67297664"/>
-        <c:axId val="67299200"/>
+        <c:axId val="64817408"/>
+        <c:axId val="64827392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67297664"/>
+        <c:axId val="64817408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,13 +880,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67299200"/>
+        <c:crossAx val="64827392"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67299200"/>
+        <c:axId val="64827392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -838,24 +900,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67297664"/>
+        <c:crossAx val="64817408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67300736"/>
+        <c:axId val="64828928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69416064"/>
+        <c:crossAx val="64830464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="69416064"/>
+        <c:axId val="64830464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -863,7 +925,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67300736"/>
+        <c:crossAx val="64828928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -878,7 +940,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1096,25 +1158,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78657408"/>
-        <c:axId val="78658944"/>
+        <c:axId val="178798592"/>
+        <c:axId val="178800128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78657408"/>
+        <c:axId val="178798592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78658944"/>
+        <c:crossAx val="178800128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78658944"/>
+        <c:axId val="178800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1128,7 +1190,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78657408"/>
+        <c:crossAx val="178798592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1137,7 +1199,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1410,7 +1472,7 @@
                   <c:v>92472</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>97689</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -1424,8 +1486,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78948608"/>
-        <c:axId val="78947072"/>
+        <c:axId val="178864512"/>
+        <c:axId val="178858624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1654,17 +1716,20 @@
                 <c:pt idx="33">
                   <c:v>7.6639155375319665E-2</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1500714715988428E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78931456"/>
-        <c:axId val="78932992"/>
+        <c:axId val="178855296"/>
+        <c:axId val="178857088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78931456"/>
+        <c:axId val="178855296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,13 +1737,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78932992"/>
+        <c:crossAx val="178857088"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78932992"/>
+        <c:axId val="178857088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1692,24 +1757,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78931456"/>
+        <c:crossAx val="178855296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78947072"/>
+        <c:axId val="178858624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78948608"/>
+        <c:crossAx val="178864512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="78948608"/>
+        <c:axId val="178864512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,7 +1782,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78947072"/>
+        <c:crossAx val="178858624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1732,7 +1797,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2025,31 +2090,34 @@
                 <c:pt idx="35">
                   <c:v>35447</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>24504</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="79104256"/>
-        <c:axId val="79106048"/>
+        <c:axId val="178880896"/>
+        <c:axId val="178882432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79104256"/>
+        <c:axId val="178880896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79106048"/>
+        <c:crossAx val="178882432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79106048"/>
+        <c:axId val="178882432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2063,7 +2131,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79104256"/>
+        <c:crossAx val="178880896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2072,7 +2140,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2361,31 +2429,34 @@
                 <c:pt idx="35">
                   <c:v>5974</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>5217</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="79121792"/>
-        <c:axId val="79127680"/>
+        <c:axId val="178906624"/>
+        <c:axId val="178908160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79121792"/>
+        <c:axId val="178906624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79127680"/>
+        <c:crossAx val="178908160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79127680"/>
+        <c:axId val="178908160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2399,7 +2470,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79121792"/>
+        <c:crossAx val="178906624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2408,7 +2479,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2677,8 +2748,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="79179776"/>
-        <c:axId val="79177984"/>
+        <c:axId val="189065088"/>
+        <c:axId val="189063552"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2913,11 +2984,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="79145984"/>
-        <c:axId val="79176448"/>
+        <c:axId val="189039744"/>
+        <c:axId val="189041280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="79145984"/>
+        <c:axId val="189039744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2925,13 +2996,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79176448"/>
+        <c:crossAx val="189041280"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79176448"/>
+        <c:axId val="189041280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2945,24 +3016,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79145984"/>
+        <c:crossAx val="189039744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79177984"/>
+        <c:axId val="189063552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79179776"/>
+        <c:crossAx val="189065088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="79179776"/>
+        <c:axId val="189065088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2970,7 +3041,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="79177984"/>
+        <c:crossAx val="189063552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2985,7 +3056,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3277,31 +3348,34 @@
                 <c:pt idx="35">
                   <c:v>889</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>756</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="79204352"/>
-        <c:axId val="79205888"/>
+        <c:axId val="188954496"/>
+        <c:axId val="188956032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="79204352"/>
+        <c:axId val="188954496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79205888"/>
+        <c:crossAx val="188956032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="79205888"/>
+        <c:axId val="188956032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3315,7 +3389,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="79204352"/>
+        <c:crossAx val="188954496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3324,7 +3398,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3532,31 +3606,34 @@
                 <c:pt idx="22">
                   <c:v>3691</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>3014</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69443968"/>
-        <c:axId val="69445504"/>
+        <c:axId val="64874752"/>
+        <c:axId val="68816896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69443968"/>
+        <c:axId val="64874752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69445504"/>
+        <c:crossAx val="68816896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69445504"/>
+        <c:axId val="68816896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3570,7 +3647,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69443968"/>
+        <c:crossAx val="64874752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3579,7 +3656,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000144" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000144" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3790,31 +3867,34 @@
                 <c:pt idx="22">
                   <c:v>641</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>741</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69465216"/>
-        <c:axId val="69466752"/>
+        <c:axId val="64781312"/>
+        <c:axId val="68825856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69465216"/>
+        <c:axId val="64781312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69466752"/>
+        <c:crossAx val="68825856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69466752"/>
+        <c:axId val="68825856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3828,7 +3908,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69465216"/>
+        <c:crossAx val="64781312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3837,7 +3917,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4035,7 +4115,7 @@
                   <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -4052,8 +4132,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78117120"/>
-        <c:axId val="78115584"/>
+        <c:axId val="176750976"/>
+        <c:axId val="68872832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4192,17 +4272,20 @@
                 <c:pt idx="20">
                   <c:v>0.26171623265546484</c:v>
                 </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.29145045192456781</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78091776"/>
-        <c:axId val="78093312"/>
+        <c:axId val="68861312"/>
+        <c:axId val="68871296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78091776"/>
+        <c:axId val="68861312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4220,13 +4303,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78093312"/>
+        <c:crossAx val="68871296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78093312"/>
+        <c:axId val="68871296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4240,24 +4323,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78091776"/>
+        <c:crossAx val="68861312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78115584"/>
+        <c:axId val="68872832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78117120"/>
+        <c:crossAx val="176750976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="78117120"/>
+        <c:axId val="176750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,7 +4348,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78115584"/>
+        <c:crossAx val="68872832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4280,7 +4363,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4488,31 +4571,34 @@
                 <c:pt idx="22">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78341248"/>
-        <c:axId val="78342784"/>
+        <c:axId val="176774144"/>
+        <c:axId val="176784128"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78341248"/>
+        <c:axId val="176774144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78342784"/>
+        <c:crossAx val="176784128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78342784"/>
+        <c:axId val="176784128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4526,7 +4612,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78341248"/>
+        <c:crossAx val="176774144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4535,7 +4621,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4750,8 +4836,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78736000"/>
-        <c:axId val="78734464"/>
+        <c:axId val="176984832"/>
+        <c:axId val="176983040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4920,11 +5006,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78710656"/>
-        <c:axId val="78712192"/>
+        <c:axId val="176979968"/>
+        <c:axId val="176981504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78710656"/>
+        <c:axId val="176979968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4942,13 +5028,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78712192"/>
+        <c:crossAx val="176981504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78712192"/>
+        <c:axId val="176981504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4962,24 +5048,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78710656"/>
+        <c:crossAx val="176979968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78734464"/>
+        <c:axId val="176983040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78736000"/>
+        <c:crossAx val="176984832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="78736000"/>
+        <c:axId val="176984832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +5073,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78734464"/>
+        <c:crossAx val="176983040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5002,7 +5088,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5220,25 +5306,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78738944"/>
-        <c:axId val="78740480"/>
+        <c:axId val="176990848"/>
+        <c:axId val="178738304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78738944"/>
+        <c:axId val="176990848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78740480"/>
+        <c:crossAx val="178738304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78740480"/>
+        <c:axId val="178738304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5252,7 +5338,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78738944"/>
+        <c:crossAx val="176990848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5261,7 +5347,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5478,25 +5564,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78763904"/>
-        <c:axId val="78765440"/>
+        <c:axId val="178679808"/>
+        <c:axId val="178681344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78763904"/>
+        <c:axId val="178679808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78765440"/>
+        <c:crossAx val="178681344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78765440"/>
+        <c:axId val="178681344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5510,7 +5596,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78763904"/>
+        <c:crossAx val="178679808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5519,7 +5605,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5734,8 +5820,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="78830592"/>
-        <c:axId val="78829056"/>
+        <c:axId val="178771072"/>
+        <c:axId val="178765184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5880,11 +5966,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="78813440"/>
-        <c:axId val="78827520"/>
+        <c:axId val="178762112"/>
+        <c:axId val="178763648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="78813440"/>
+        <c:axId val="178762112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5902,13 +5988,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78827520"/>
+        <c:crossAx val="178763648"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78827520"/>
+        <c:axId val="178763648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5922,24 +6008,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="78813440"/>
+        <c:crossAx val="178762112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78829056"/>
+        <c:axId val="178765184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="78830592"/>
+        <c:crossAx val="178771072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="78830592"/>
+        <c:axId val="178771072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5947,7 +6033,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="78829056"/>
+        <c:crossAx val="178765184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5962,7 +6048,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7031,24 +7117,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E106"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="14.77734375" style="24" customWidth="1"/>
-    <col min="3" max="6" width="14.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="21" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="9" t="s">
@@ -7068,1587 +7154,1716 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="24">
-        <v>43899</v>
+      <c r="B3" s="21">
+        <v>43894</v>
       </c>
       <c r="C3" s="2">
-        <v>24960</v>
+        <v>16659</v>
       </c>
       <c r="D3" s="2">
-        <v>321</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
+        <v>85</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="24">
-        <v>43900</v>
+      <c r="B4" s="21">
+        <v>43895</v>
       </c>
       <c r="C4" s="2">
-        <v>26261</v>
+        <v>19083</v>
       </c>
       <c r="D4" s="2">
-        <v>383</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
+        <v>115</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="24">
-        <v>43901</v>
+      <c r="B5" s="21">
+        <v>43896</v>
       </c>
       <c r="C5" s="2">
-        <v>27476</v>
+        <v>20338</v>
       </c>
       <c r="D5" s="2">
-        <v>460</v>
-      </c>
-      <c r="E5">
-        <v>8</v>
+        <v>163</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24">
-        <v>43902</v>
+      <c r="B6" s="21">
+        <v>43897</v>
       </c>
       <c r="C6" s="2">
-        <v>28764</v>
+        <v>21460</v>
       </c>
       <c r="D6" s="2">
-        <v>590</v>
-      </c>
-      <c r="E6">
-        <v>10</v>
+        <v>206</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="24">
-        <v>43903</v>
+      <c r="B7" s="21">
+        <v>43898</v>
       </c>
       <c r="C7" s="2">
-        <v>32771</v>
+        <v>23513</v>
       </c>
       <c r="D7" s="2">
-        <v>798</v>
-      </c>
-      <c r="E7">
-        <v>11</v>
+        <v>273</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="24">
-        <v>43904</v>
+      <c r="B8" s="21">
+        <v>43899</v>
       </c>
       <c r="C8" s="2">
-        <v>37746</v>
+        <v>24960</v>
       </c>
       <c r="D8" s="2">
-        <v>1140</v>
+        <v>321</v>
       </c>
       <c r="E8">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="24">
-        <v>43905</v>
+      <c r="B9" s="21">
+        <v>43900</v>
       </c>
       <c r="C9" s="2">
-        <v>40279</v>
+        <v>26261</v>
       </c>
       <c r="D9" s="2">
-        <v>1391</v>
+        <v>383</v>
       </c>
       <c r="E9">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="24">
-        <v>43906</v>
+      <c r="B10" s="21">
+        <v>43901</v>
       </c>
       <c r="C10" s="2">
-        <v>44105</v>
+        <v>27476</v>
       </c>
       <c r="D10" s="2">
-        <v>1543</v>
+        <v>460</v>
       </c>
       <c r="E10">
-        <v>55</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="24">
-        <v>43907</v>
+      <c r="B11" s="21">
+        <v>43902</v>
       </c>
       <c r="C11" s="2">
-        <v>50442</v>
+        <v>28764</v>
       </c>
       <c r="D11" s="2">
-        <v>1950</v>
+        <v>590</v>
       </c>
       <c r="E11">
-        <v>71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="24">
-        <v>43908</v>
+      <c r="B12" s="21">
+        <v>43903</v>
       </c>
       <c r="C12" s="2">
-        <v>56221</v>
+        <v>32771</v>
       </c>
       <c r="D12" s="2">
-        <v>2626</v>
+        <v>798</v>
       </c>
       <c r="E12">
-        <v>104</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="24">
-        <v>43909</v>
+      <c r="B13" s="21">
+        <v>43904</v>
       </c>
       <c r="C13" s="2">
-        <v>64621</v>
+        <v>37746</v>
       </c>
       <c r="D13" s="2">
-        <v>3269</v>
+        <v>1140</v>
       </c>
       <c r="E13">
-        <v>144</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="24">
-        <v>43910</v>
+      <c r="B14" s="21">
+        <v>43905</v>
       </c>
       <c r="C14" s="2">
-        <v>66976</v>
+        <v>40279</v>
       </c>
       <c r="D14" s="2">
-        <v>3983</v>
+        <v>1391</v>
       </c>
       <c r="E14">
-        <v>177</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="24">
-        <v>43911</v>
+      <c r="B15" s="21">
+        <v>43906</v>
       </c>
       <c r="C15" s="2">
-        <v>72818</v>
+        <v>44105</v>
       </c>
       <c r="D15" s="2">
-        <v>5018</v>
+        <v>1543</v>
       </c>
       <c r="E15">
-        <v>233</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="24">
-        <v>43912</v>
+      <c r="B16" s="21">
+        <v>43907</v>
       </c>
       <c r="C16" s="2">
-        <v>78340</v>
+        <v>50442</v>
       </c>
       <c r="D16" s="2">
-        <v>5683</v>
+        <v>1950</v>
       </c>
       <c r="E16">
-        <v>281</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="24">
-        <v>43913</v>
+      <c r="B17" s="21">
+        <v>43908</v>
       </c>
       <c r="C17" s="2">
-        <v>83945</v>
+        <v>56221</v>
       </c>
       <c r="D17" s="2">
-        <v>6650</v>
+        <v>2626</v>
       </c>
       <c r="E17">
-        <v>335</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="24">
-        <v>43914</v>
+      <c r="B18" s="21">
+        <v>43909</v>
       </c>
       <c r="C18" s="2">
-        <v>90436</v>
-      </c>
-      <c r="D18" s="3">
-        <v>8077</v>
+        <v>64621</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3269</v>
       </c>
       <c r="E18">
-        <v>422</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="24">
-        <v>43915</v>
+      <c r="B19" s="21">
+        <v>43910</v>
       </c>
       <c r="C19" s="2">
-        <v>97019</v>
+        <v>66976</v>
       </c>
       <c r="D19" s="2">
-        <v>9529</v>
+        <v>3983</v>
       </c>
       <c r="E19">
-        <v>465</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="24">
-        <v>43916</v>
+      <c r="B20" s="21">
+        <v>43911</v>
       </c>
       <c r="C20" s="2">
-        <v>104866</v>
+        <v>72818</v>
       </c>
       <c r="D20" s="2">
-        <v>11658</v>
+        <v>5018</v>
       </c>
       <c r="E20">
-        <v>578</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="24">
-        <v>43917</v>
+      <c r="B21" s="21">
+        <v>43912</v>
       </c>
       <c r="C21" s="2">
-        <v>113777</v>
+        <v>78340</v>
       </c>
       <c r="D21" s="2">
-        <v>14543</v>
+        <v>5683</v>
       </c>
       <c r="E21">
-        <v>759</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="24">
-        <v>43918</v>
+      <c r="B22" s="21">
+        <v>43913</v>
       </c>
       <c r="C22" s="2">
-        <v>120766</v>
+        <v>83945</v>
       </c>
       <c r="D22" s="2">
-        <v>17089</v>
+        <v>6650</v>
       </c>
       <c r="E22">
-        <v>1019</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="24">
-        <v>43919</v>
+      <c r="B23" s="21">
+        <v>43914</v>
       </c>
       <c r="C23" s="2">
-        <v>127737</v>
-      </c>
-      <c r="D23" s="2">
-        <v>19522</v>
+        <v>90436</v>
+      </c>
+      <c r="D23" s="3">
+        <v>8077</v>
       </c>
       <c r="E23">
-        <v>1228</v>
+        <v>422</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="24">
-        <v>43920</v>
+      <c r="B24" s="21">
+        <v>43915</v>
+      </c>
+      <c r="C24" s="2">
+        <v>97019</v>
+      </c>
+      <c r="D24" s="2">
+        <v>9529</v>
+      </c>
+      <c r="E24">
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-      <c r="B25" s="24">
-        <v>43921</v>
+      <c r="B25" s="21">
+        <v>43916</v>
+      </c>
+      <c r="C25" s="2">
+        <v>104866</v>
+      </c>
+      <c r="D25" s="2">
+        <v>11658</v>
+      </c>
+      <c r="E25">
+        <v>578</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="24">
-        <v>43922</v>
+      <c r="B26" s="21">
+        <v>43917</v>
+      </c>
+      <c r="C26" s="2">
+        <v>113777</v>
+      </c>
+      <c r="D26" s="2">
+        <v>14543</v>
+      </c>
+      <c r="E26">
+        <v>759</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="24">
-        <v>43923</v>
+      <c r="B27" s="21">
+        <v>43918</v>
+      </c>
+      <c r="C27" s="2">
+        <v>120766</v>
+      </c>
+      <c r="D27" s="2">
+        <v>17089</v>
+      </c>
+      <c r="E27">
+        <v>1019</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="24">
-        <v>43924</v>
+      <c r="B28" s="21">
+        <v>43919</v>
+      </c>
+      <c r="C28" s="2">
+        <v>127737</v>
+      </c>
+      <c r="D28" s="2">
+        <v>19522</v>
+      </c>
+      <c r="E28">
+        <v>1228</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="24">
-        <v>43925</v>
+      <c r="B29" s="21">
+        <v>43920</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>23</v>
       </c>
-      <c r="B30" s="24">
-        <v>43926</v>
+      <c r="B30" s="21">
+        <v>43921</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="24">
-        <v>43927</v>
+      <c r="B31" s="21">
+        <v>43922</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>23</v>
       </c>
-      <c r="B32" s="24">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="B32" s="21">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>23</v>
       </c>
-      <c r="B33" s="24">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="B33" s="21">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="24">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="B34" s="21">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>23</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="21">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="21">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B37" s="21">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B38" s="21">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="B39" s="21">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B40" s="21">
         <v>43931</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="24">
-        <v>43899</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4734</v>
-      </c>
-      <c r="D38" s="2">
-        <v>131</v>
-      </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="24">
-        <v>43900</v>
-      </c>
-      <c r="C39" s="2">
-        <v>5026</v>
-      </c>
-      <c r="D39" s="2">
-        <v>182</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="24">
-        <v>43901</v>
-      </c>
-      <c r="C40" s="2">
-        <v>5362</v>
-      </c>
-      <c r="D40" s="2">
-        <v>246</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="24">
-        <v>43902</v>
-      </c>
-      <c r="C41" s="2">
-        <v>5869</v>
-      </c>
-      <c r="D41" s="2">
-        <v>361</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="24">
-        <v>43903</v>
-      </c>
-      <c r="C42" s="2">
-        <v>6582</v>
-      </c>
-      <c r="D42" s="2">
-        <v>504</v>
-      </c>
-      <c r="E42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>24</v>
       </c>
-      <c r="B43" s="24">
-        <v>43904</v>
+      <c r="B43" s="21">
+        <v>43898</v>
       </c>
       <c r="C43" s="2">
-        <v>7467</v>
+        <v>4509</v>
       </c>
       <c r="D43" s="2">
-        <v>655</v>
-      </c>
-      <c r="E43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+      <c r="F43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="24">
-        <v>43905</v>
+      <c r="B44" s="21">
+        <v>43899</v>
       </c>
       <c r="C44" s="2">
-        <v>8167</v>
+        <v>4734</v>
       </c>
       <c r="D44" s="2">
-        <v>860</v>
+        <v>131</v>
       </c>
       <c r="E44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F44" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>24</v>
       </c>
-      <c r="B45" s="24">
-        <v>43906</v>
+      <c r="B45" s="21">
+        <v>43900</v>
       </c>
       <c r="C45" s="2">
-        <v>8490</v>
+        <v>5026</v>
       </c>
       <c r="D45" s="2">
-        <v>1016</v>
+        <v>182</v>
       </c>
       <c r="E45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>24</v>
       </c>
-      <c r="B46" s="24">
-        <v>43907</v>
+      <c r="B46" s="21">
+        <v>43901</v>
       </c>
       <c r="C46" s="2">
-        <v>10278</v>
+        <v>5362</v>
       </c>
       <c r="D46" s="2">
-        <v>1332</v>
+        <v>246</v>
       </c>
       <c r="E46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>24</v>
       </c>
-      <c r="B47" s="24">
-        <v>43908</v>
+      <c r="B47" s="21">
+        <v>43902</v>
       </c>
       <c r="C47" s="2">
-        <v>11977</v>
+        <v>5869</v>
       </c>
       <c r="D47" s="2">
-        <v>1646</v>
+        <v>361</v>
       </c>
       <c r="E47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="24">
-        <v>43909</v>
+      <c r="B48" s="21">
+        <v>43903</v>
       </c>
       <c r="C48" s="2">
-        <v>13724</v>
+        <v>6582</v>
       </c>
       <c r="D48" s="2">
-        <v>2013</v>
+        <v>504</v>
       </c>
       <c r="E48">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
         <v>24</v>
       </c>
-      <c r="B49" s="24">
-        <v>43910</v>
+      <c r="B49" s="21">
+        <v>43904</v>
       </c>
       <c r="C49" s="2">
-        <v>15613</v>
+        <v>7467</v>
       </c>
       <c r="D49" s="2">
-        <v>2388</v>
+        <v>655</v>
       </c>
       <c r="E49">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="24">
-        <v>43911</v>
+      <c r="B50" s="21">
+        <v>43905</v>
       </c>
       <c r="C50" s="2">
-        <v>18545</v>
+        <v>8167</v>
       </c>
       <c r="D50" s="2">
-        <v>2814</v>
+        <v>860</v>
       </c>
       <c r="E50">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="24">
-        <v>43912</v>
+      <c r="B51" s="21">
+        <v>43906</v>
       </c>
       <c r="C51" s="2">
-        <v>21368</v>
+        <v>8490</v>
       </c>
       <c r="D51" s="2">
-        <v>3244</v>
+        <v>1016</v>
       </c>
       <c r="E51">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
         <v>24</v>
       </c>
-      <c r="B52" s="24">
-        <v>43913</v>
+      <c r="B52" s="21">
+        <v>43907</v>
       </c>
       <c r="C52" s="2">
-        <v>23429</v>
+        <v>10278</v>
       </c>
       <c r="D52" s="2">
-        <v>3924</v>
+        <v>1332</v>
       </c>
       <c r="E52">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
         <v>24</v>
       </c>
-      <c r="B53" s="24">
-        <v>43914</v>
+      <c r="B53" s="21">
+        <v>43908</v>
       </c>
       <c r="C53" s="2">
-        <v>28391</v>
-      </c>
-      <c r="D53" s="3">
-        <v>4876</v>
+        <v>11977</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1646</v>
       </c>
       <c r="E53">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="24">
-        <v>43915</v>
+      <c r="B54" s="21">
+        <v>43909</v>
       </c>
       <c r="C54" s="2">
-        <v>32407</v>
+        <v>13724</v>
       </c>
       <c r="D54" s="2">
-        <v>5560</v>
+        <v>2013</v>
       </c>
       <c r="E54">
-        <v>31</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
         <v>24</v>
       </c>
-      <c r="B55" s="24">
-        <v>43916</v>
+      <c r="B55" s="21">
+        <v>43910</v>
       </c>
       <c r="C55" s="2">
-        <v>35995</v>
+        <v>15613</v>
       </c>
       <c r="D55" s="2">
-        <v>6398</v>
+        <v>2388</v>
       </c>
       <c r="E55">
-        <v>49</v>
+        <v>6</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
         <v>24</v>
       </c>
-      <c r="B56" s="24">
-        <v>43917</v>
+      <c r="B56" s="21">
+        <v>43911</v>
       </c>
       <c r="C56" s="2">
-        <v>39552</v>
+        <v>18545</v>
       </c>
       <c r="D56" s="2">
-        <v>7399</v>
+        <v>2814</v>
       </c>
       <c r="E56">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
         <v>24</v>
       </c>
-      <c r="B57" s="24">
-        <v>43918</v>
+      <c r="B57" s="21">
+        <v>43912</v>
       </c>
       <c r="C57" s="2">
-        <v>42750</v>
+        <v>21368</v>
       </c>
       <c r="D57" s="2">
-        <v>7995</v>
+        <v>3244</v>
       </c>
       <c r="E57">
-        <v>68</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
         <v>24</v>
       </c>
-      <c r="B58" s="24">
-        <v>43919</v>
+      <c r="B58" s="21">
+        <v>43913</v>
       </c>
       <c r="C58" s="2">
-        <v>46441</v>
+        <v>23429</v>
       </c>
       <c r="D58" s="2">
-        <v>8636</v>
+        <v>3924</v>
       </c>
       <c r="E58">
-        <v>86</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="24">
-        <v>43920</v>
+      <c r="B59" s="21">
+        <v>43914</v>
+      </c>
+      <c r="C59" s="2">
+        <v>28391</v>
+      </c>
+      <c r="D59" s="3">
+        <v>4876</v>
+      </c>
+      <c r="E59">
+        <v>28</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
         <v>24</v>
       </c>
-      <c r="B60" s="24">
-        <v>43921</v>
+      <c r="B60" s="21">
+        <v>43915</v>
+      </c>
+      <c r="C60" s="2">
+        <v>32407</v>
+      </c>
+      <c r="D60" s="2">
+        <v>5560</v>
+      </c>
+      <c r="E60">
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
         <v>24</v>
       </c>
-      <c r="B61" s="24">
-        <v>43922</v>
+      <c r="B61" s="21">
+        <v>43916</v>
+      </c>
+      <c r="C61" s="2">
+        <v>35995</v>
+      </c>
+      <c r="D61" s="2">
+        <v>6398</v>
+      </c>
+      <c r="E61">
+        <v>49</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
         <v>24</v>
       </c>
-      <c r="B62" s="24">
-        <v>43923</v>
+      <c r="B62" s="21">
+        <v>43917</v>
+      </c>
+      <c r="C62" s="2">
+        <v>39552</v>
+      </c>
+      <c r="D62" s="2">
+        <v>7399</v>
+      </c>
+      <c r="E62">
+        <v>58</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
         <v>24</v>
       </c>
-      <c r="B63" s="24">
-        <v>43924</v>
+      <c r="B63" s="21">
+        <v>43918</v>
+      </c>
+      <c r="C63" s="2">
+        <v>42750</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7995</v>
+      </c>
+      <c r="E63">
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
         <v>24</v>
       </c>
-      <c r="B64" s="24">
-        <v>43925</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="B64" s="21">
+        <v>43919</v>
+      </c>
+      <c r="C64" s="2">
+        <v>46441</v>
+      </c>
+      <c r="D64" s="2">
+        <v>8636</v>
+      </c>
+      <c r="E64">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="24">
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="B65" s="21">
+        <v>43920</v>
+      </c>
+      <c r="C65" s="2">
+        <v>49455</v>
+      </c>
+      <c r="D65" s="2">
+        <v>9377</v>
+      </c>
+      <c r="E65" s="2">
+        <v>108</v>
+      </c>
+      <c r="F65" s="2">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="24">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="B66" s="21">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>24</v>
       </c>
-      <c r="B67" s="24">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="B67" s="21">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>24</v>
       </c>
-      <c r="B68" s="24">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="B68" s="21">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>24</v>
       </c>
-      <c r="B69" s="24">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="B69" s="21">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>24</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="21">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B71" s="21">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>24</v>
+      </c>
+      <c r="B72" s="21">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B73" s="21">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>24</v>
+      </c>
+      <c r="B74" s="21">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>24</v>
+      </c>
+      <c r="B75" s="21">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>24</v>
+      </c>
+      <c r="B76" s="21">
         <v>43931</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="24">
-        <v>43885</v>
-      </c>
-      <c r="C73" s="2">
-        <v>4324</v>
-      </c>
-      <c r="D73" s="2">
-        <v>229</v>
-      </c>
-      <c r="E73" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="24">
-        <v>43886</v>
-      </c>
-      <c r="C74" s="2">
-        <v>8623</v>
-      </c>
-      <c r="D74" s="2">
-        <v>322</v>
-      </c>
-      <c r="E74" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="24">
-        <v>43887</v>
-      </c>
-      <c r="C75" s="2">
-        <v>9587</v>
-      </c>
-      <c r="D75" s="2">
-        <v>400</v>
-      </c>
-      <c r="E75" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="24">
-        <v>43888</v>
-      </c>
-      <c r="C76" s="2">
-        <v>12014</v>
-      </c>
-      <c r="D76" s="2">
-        <v>650</v>
-      </c>
-      <c r="E76" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="24">
-        <v>43889</v>
-      </c>
-      <c r="C77" s="2">
-        <v>15695</v>
-      </c>
-      <c r="D77" s="2">
-        <v>888</v>
-      </c>
-      <c r="E77" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="24">
-        <v>43890</v>
-      </c>
-      <c r="C78" s="2">
-        <v>18661</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1128</v>
-      </c>
-      <c r="E78" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>25</v>
       </c>
-      <c r="B79" s="24">
-        <v>43891</v>
+      <c r="B79" s="21">
+        <v>43885</v>
       </c>
       <c r="C79" s="2">
-        <v>21127</v>
+        <v>4324</v>
       </c>
       <c r="D79" s="2">
-        <v>1694</v>
+        <v>229</v>
       </c>
       <c r="E79" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="24">
-        <v>43892</v>
+      <c r="B80" s="21">
+        <v>43886</v>
       </c>
       <c r="C80" s="2">
-        <v>23345</v>
+        <v>8623</v>
       </c>
       <c r="D80" s="2">
-        <v>2036</v>
+        <v>322</v>
       </c>
       <c r="E80" s="2">
-        <v>52</v>
+        <v>10</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" t="s">
         <v>25</v>
       </c>
-      <c r="B81" s="24">
-        <v>43893</v>
+      <c r="B81" s="21">
+        <v>43887</v>
       </c>
       <c r="C81" s="2">
-        <v>25856</v>
+        <v>9587</v>
       </c>
       <c r="D81" s="2">
-        <v>2502</v>
+        <v>400</v>
       </c>
       <c r="E81" s="2">
-        <v>79</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" t="s">
         <v>25</v>
       </c>
-      <c r="B82" s="24">
-        <v>43894</v>
+      <c r="B82" s="21">
+        <v>43888</v>
       </c>
       <c r="C82" s="2">
-        <v>29837</v>
+        <v>12014</v>
       </c>
       <c r="D82" s="2">
-        <v>3089</v>
+        <v>650</v>
       </c>
       <c r="E82" s="2">
-        <v>107</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="24">
-        <v>43895</v>
+      <c r="B83" s="21">
+        <v>43889</v>
       </c>
       <c r="C83" s="2">
-        <v>32362</v>
+        <v>15695</v>
       </c>
       <c r="D83" s="2">
-        <v>3858</v>
+        <v>888</v>
       </c>
       <c r="E83" s="2">
-        <v>148</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="24">
-        <v>43896</v>
+      <c r="B84" s="21">
+        <v>43890</v>
       </c>
       <c r="C84" s="2">
-        <v>36359</v>
+        <v>18661</v>
       </c>
       <c r="D84" s="2">
-        <v>4636</v>
+        <v>1128</v>
       </c>
       <c r="E84" s="2">
-        <v>197</v>
+        <v>29</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" t="s">
         <v>25</v>
       </c>
-      <c r="B85" s="24">
-        <v>43897</v>
+      <c r="B85" s="21">
+        <v>43891</v>
       </c>
       <c r="C85" s="2">
-        <v>42062</v>
+        <v>21127</v>
       </c>
       <c r="D85" s="2">
-        <v>5883</v>
+        <v>1694</v>
       </c>
       <c r="E85" s="2">
-        <v>233</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="24">
-        <v>43898</v>
+      <c r="B86" s="21">
+        <v>43892</v>
       </c>
       <c r="C86" s="2">
-        <v>49937</v>
+        <v>23345</v>
       </c>
       <c r="D86" s="2">
-        <v>7375</v>
+        <v>2036</v>
       </c>
       <c r="E86" s="2">
-        <v>366</v>
+        <v>52</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" t="s">
         <v>25</v>
       </c>
-      <c r="B87" s="24">
-        <v>43899</v>
+      <c r="B87" s="21">
+        <v>43893</v>
       </c>
       <c r="C87" s="2">
-        <v>53826</v>
+        <v>25856</v>
       </c>
       <c r="D87" s="2">
-        <v>9172</v>
+        <v>2502</v>
       </c>
       <c r="E87" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" t="s">
         <v>25</v>
       </c>
-      <c r="B88" s="24">
-        <v>43900</v>
+      <c r="B88" s="21">
+        <v>43894</v>
       </c>
       <c r="C88" s="2">
-        <v>60761</v>
+        <v>29837</v>
       </c>
       <c r="D88" s="2">
-        <v>10149</v>
+        <v>3089</v>
       </c>
       <c r="E88" s="2">
-        <v>631</v>
+        <v>107</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" t="s">
         <v>25</v>
       </c>
-      <c r="B89" s="24">
-        <v>43901</v>
+      <c r="B89" s="21">
+        <v>43895</v>
       </c>
       <c r="C89" s="2">
-        <v>73154</v>
+        <v>32362</v>
       </c>
       <c r="D89" s="2">
-        <v>12462</v>
+        <v>3858</v>
       </c>
       <c r="E89" s="2">
-        <v>827</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="24">
-        <v>43902</v>
+      <c r="B90" s="21">
+        <v>43896</v>
       </c>
       <c r="C90" s="2">
-        <v>86011</v>
+        <v>36359</v>
       </c>
       <c r="D90" s="2">
-        <v>15113</v>
+        <v>4636</v>
       </c>
       <c r="E90" s="2">
-        <v>1016</v>
+        <v>197</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" t="s">
         <v>25</v>
       </c>
-      <c r="B91" s="24">
-        <v>43903</v>
+      <c r="B91" s="21">
+        <v>43897</v>
       </c>
       <c r="C91" s="2">
-        <v>97488</v>
+        <v>42062</v>
       </c>
       <c r="D91" s="2">
-        <v>17660</v>
+        <v>5883</v>
       </c>
       <c r="E91" s="2">
-        <v>1266</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" t="s">
         <v>25</v>
       </c>
-      <c r="B92" s="24">
-        <v>43904</v>
+      <c r="B92" s="21">
+        <v>43898</v>
       </c>
       <c r="C92" s="2">
-        <v>109170</v>
+        <v>49937</v>
       </c>
       <c r="D92" s="2">
-        <v>21157</v>
+        <v>7375</v>
       </c>
       <c r="E92" s="2">
-        <v>1441</v>
+        <v>366</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" t="s">
         <v>25</v>
       </c>
-      <c r="B93" s="24">
-        <v>43905</v>
+      <c r="B93" s="21">
+        <v>43899</v>
       </c>
       <c r="C93" s="2">
-        <v>124899</v>
+        <v>53826</v>
       </c>
       <c r="D93" s="2">
-        <v>24747</v>
+        <v>9172</v>
       </c>
       <c r="E93" s="2">
-        <v>1809</v>
+        <v>463</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" t="s">
         <v>25</v>
       </c>
-      <c r="B94" s="24">
-        <v>43906</v>
+      <c r="B94" s="21">
+        <v>43900</v>
       </c>
       <c r="C94" s="2">
-        <v>137962</v>
+        <v>60761</v>
       </c>
       <c r="D94" s="2">
-        <v>27980</v>
+        <v>10149</v>
       </c>
       <c r="E94" s="2">
-        <v>2158</v>
+        <v>631</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" t="s">
         <v>25</v>
       </c>
-      <c r="B95" s="24">
-        <v>43907</v>
+      <c r="B95" s="21">
+        <v>43901</v>
       </c>
       <c r="C95" s="2">
-        <v>148657</v>
+        <v>73154</v>
       </c>
       <c r="D95" s="2">
-        <v>31506</v>
+        <v>12462</v>
       </c>
       <c r="E95" s="2">
-        <v>2503</v>
+        <v>827</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" t="s">
         <v>25</v>
       </c>
-      <c r="B96" s="24">
-        <v>43908</v>
+      <c r="B96" s="21">
+        <v>43902</v>
       </c>
       <c r="C96" s="2">
-        <v>165541</v>
+        <v>86011</v>
       </c>
       <c r="D96" s="2">
-        <v>35713</v>
+        <v>15113</v>
       </c>
       <c r="E96" s="2">
-        <v>2978</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" t="s">
         <v>25</v>
       </c>
-      <c r="B97" s="24">
-        <v>43909</v>
+      <c r="B97" s="21">
+        <v>43903</v>
       </c>
       <c r="C97" s="2">
-        <v>182777</v>
+        <v>97488</v>
       </c>
       <c r="D97" s="2">
-        <v>41035</v>
+        <v>17660</v>
       </c>
       <c r="E97" s="2">
-        <v>3405</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" t="s">
         <v>25</v>
       </c>
-      <c r="B98" s="24">
-        <v>43910</v>
+      <c r="B98" s="21">
+        <v>43904</v>
       </c>
       <c r="C98" s="2">
-        <v>206886</v>
+        <v>109170</v>
       </c>
       <c r="D98" s="2">
-        <v>47021</v>
+        <v>21157</v>
       </c>
       <c r="E98" s="2">
-        <v>4032</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" t="s">
         <v>25</v>
       </c>
-      <c r="B99" s="24">
-        <v>43911</v>
+      <c r="B99" s="21">
+        <v>43905</v>
       </c>
       <c r="C99" s="2">
-        <v>233222</v>
+        <v>124899</v>
       </c>
       <c r="D99" s="2">
-        <v>53578</v>
+        <v>24747</v>
       </c>
       <c r="E99" s="2">
-        <v>4825</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" t="s">
         <v>25</v>
       </c>
-      <c r="B100" s="24">
-        <v>43912</v>
+      <c r="B100" s="21">
+        <v>43906</v>
       </c>
       <c r="C100" s="2">
-        <v>258402</v>
+        <v>137962</v>
       </c>
       <c r="D100" s="2">
-        <v>59138</v>
+        <v>27980</v>
       </c>
       <c r="E100" s="2">
-        <v>5476</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="24">
-        <v>43913</v>
+      <c r="B101" s="21">
+        <v>43907</v>
       </c>
       <c r="C101" s="2">
-        <v>275468</v>
+        <v>148657</v>
       </c>
       <c r="D101" s="2">
-        <v>63927</v>
+        <v>31506</v>
       </c>
       <c r="E101" s="2">
-        <v>6077</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" t="s">
         <v>25</v>
       </c>
-      <c r="B102" s="24">
-        <v>43914</v>
+      <c r="B102" s="21">
+        <v>43908</v>
       </c>
       <c r="C102" s="2">
-        <v>296964</v>
+        <v>165541</v>
       </c>
       <c r="D102" s="2">
-        <v>69176</v>
+        <v>35713</v>
       </c>
       <c r="E102" s="2">
-        <v>6820</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="24">
-        <v>43915</v>
+      <c r="B103" s="21">
+        <v>43909</v>
       </c>
       <c r="C103" s="2">
-        <v>324445</v>
+        <v>182777</v>
       </c>
       <c r="D103" s="2">
-        <v>74386</v>
+        <v>41035</v>
       </c>
       <c r="E103" s="2">
-        <v>7503</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" t="s">
         <v>25</v>
       </c>
-      <c r="B104" s="24">
-        <v>43916</v>
+      <c r="B104" s="21">
+        <v>43910</v>
       </c>
       <c r="C104" s="2">
-        <v>361060</v>
+        <v>206886</v>
       </c>
       <c r="D104" s="2">
-        <v>80539</v>
+        <v>47021</v>
       </c>
       <c r="E104" s="2">
-        <v>8165</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" t="s">
         <v>25</v>
       </c>
-      <c r="B105" s="24">
-        <v>43917</v>
+      <c r="B105" s="21">
+        <v>43911</v>
       </c>
       <c r="C105" s="2">
-        <v>394079</v>
+        <v>233222</v>
       </c>
       <c r="D105" s="2">
-        <v>86498</v>
+        <v>53578</v>
       </c>
       <c r="E105" s="2">
-        <v>9134</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" t="s">
         <v>25</v>
       </c>
-      <c r="B106" s="24">
-        <v>43918</v>
+      <c r="B106" s="21">
+        <v>43912</v>
       </c>
       <c r="C106" s="2">
-        <v>429526</v>
+        <v>258402</v>
       </c>
       <c r="D106" s="2">
-        <v>92472</v>
+        <v>59138</v>
       </c>
       <c r="E106" s="2">
-        <v>10023</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" t="s">
         <v>25</v>
       </c>
-      <c r="B107" s="24">
-        <v>43919</v>
+      <c r="B107" s="21">
+        <v>43913</v>
+      </c>
+      <c r="C107" s="2">
+        <v>275468</v>
+      </c>
+      <c r="D107" s="2">
+        <v>63927</v>
+      </c>
+      <c r="E107" s="2">
+        <v>6077</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" t="s">
         <v>25</v>
       </c>
-      <c r="B108" s="24">
-        <v>43920</v>
+      <c r="B108" s="21">
+        <v>43914</v>
+      </c>
+      <c r="C108" s="2">
+        <v>296964</v>
+      </c>
+      <c r="D108" s="2">
+        <v>69176</v>
+      </c>
+      <c r="E108" s="2">
+        <v>6820</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" t="s">
         <v>25</v>
       </c>
-      <c r="B109" s="24">
-        <v>43921</v>
+      <c r="B109" s="21">
+        <v>43915</v>
+      </c>
+      <c r="C109" s="2">
+        <v>324445</v>
+      </c>
+      <c r="D109" s="2">
+        <v>74386</v>
+      </c>
+      <c r="E109" s="2">
+        <v>7503</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" t="s">
         <v>25</v>
       </c>
-      <c r="B110" s="24">
-        <v>43922</v>
+      <c r="B110" s="21">
+        <v>43916</v>
+      </c>
+      <c r="C110" s="2">
+        <v>361060</v>
+      </c>
+      <c r="D110" s="2">
+        <v>80539</v>
+      </c>
+      <c r="E110" s="2">
+        <v>8165</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" t="s">
         <v>25</v>
       </c>
-      <c r="B111" s="24">
-        <v>43923</v>
+      <c r="B111" s="21">
+        <v>43917</v>
+      </c>
+      <c r="C111" s="2">
+        <v>394079</v>
+      </c>
+      <c r="D111" s="2">
+        <v>86498</v>
+      </c>
+      <c r="E111" s="2">
+        <v>9134</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" t="s">
         <v>25</v>
       </c>
-      <c r="B112" s="24">
-        <v>43924</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+      <c r="B112" s="21">
+        <v>43918</v>
+      </c>
+      <c r="C112" s="2">
+        <v>429526</v>
+      </c>
+      <c r="D112" s="2">
+        <v>92472</v>
+      </c>
+      <c r="E112" s="2">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="24">
-        <v>43925</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+      <c r="B113" s="21">
+        <v>43919</v>
+      </c>
+      <c r="C113" s="2">
+        <v>454030</v>
+      </c>
+      <c r="D113" s="2">
+        <v>97689</v>
+      </c>
+      <c r="E113" s="2">
+        <v>10779</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" t="s">
         <v>25</v>
       </c>
-      <c r="B114" s="24">
-        <v>43926</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+      <c r="B114" s="21">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" t="s">
         <v>25</v>
       </c>
-      <c r="B115" s="24">
-        <v>43927</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+      <c r="B115" s="21">
+        <v>43921</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" t="s">
         <v>25</v>
       </c>
-      <c r="B116" s="24">
-        <v>43928</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+      <c r="B116" s="21">
+        <v>43922</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" t="s">
         <v>25</v>
       </c>
-      <c r="B117" s="24">
-        <v>43929</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+      <c r="B117" s="21">
+        <v>43923</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" t="s">
         <v>25</v>
       </c>
-      <c r="B118" s="24">
-        <v>43930</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+      <c r="B118" s="21">
+        <v>43924</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" t="s">
         <v>25</v>
       </c>
-      <c r="B119" s="24">
+      <c r="B119" s="21">
+        <v>43925</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="21">
+        <v>43926</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="21">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="21">
+        <v>43928</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="21">
+        <v>43929</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="21">
+        <v>43930</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="21">
         <v>43931</v>
       </c>
     </row>
@@ -8664,68 +8879,68 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.21875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" ht="28.5">
+      <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
       <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="L3" s="22" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -8774,11 +8989,11 @@
         <v>43899</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C38</f>
+        <f>Data!C44</f>
         <v>4734</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D38</f>
+        <f>Data!D44</f>
         <v>131</v>
       </c>
       <c r="H6" s="3">
@@ -8786,7 +9001,7 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <f>Data!E38</f>
+        <f>Data!E44</f>
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
@@ -8797,7 +9012,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C39</f>
+        <f>Data!C45</f>
         <v>5026</v>
       </c>
       <c r="D7" s="2">
@@ -8809,7 +9024,7 @@
         <v>0.17465753424657535</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D39</f>
+        <f>Data!D45</f>
         <v>182</v>
       </c>
       <c r="H7" s="3">
@@ -8821,7 +9036,7 @@
         <v>0.38931297709923673</v>
       </c>
       <c r="L7">
-        <f>Data!E39</f>
+        <f>Data!E45</f>
         <v>0</v>
       </c>
       <c r="M7">
@@ -8836,7 +9051,7 @@
         <v>43901</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C40</f>
+        <f>Data!C46</f>
         <v>5362</v>
       </c>
       <c r="D8" s="2">
@@ -8848,7 +9063,7 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D40</f>
+        <f>Data!D46</f>
         <v>246</v>
       </c>
       <c r="H8" s="3">
@@ -8860,7 +9075,7 @@
         <v>0.35164835164835173</v>
       </c>
       <c r="L8">
-        <f>Data!E40</f>
+        <f>Data!E46</f>
         <v>0</v>
       </c>
       <c r="M8">
@@ -8875,7 +9090,7 @@
         <v>43902</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C41</f>
+        <f>Data!C47</f>
         <v>5869</v>
       </c>
       <c r="D9" s="2">
@@ -8887,7 +9102,7 @@
         <v>0.22682445759368836</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D41</f>
+        <f>Data!D47</f>
         <v>361</v>
       </c>
       <c r="H9" s="3">
@@ -8899,7 +9114,7 @@
         <v>0.46747967479674801</v>
       </c>
       <c r="L9">
-        <f>Data!E41</f>
+        <f>Data!E47</f>
         <v>1</v>
       </c>
       <c r="M9">
@@ -8916,7 +9131,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C42</f>
+        <f>Data!C48</f>
         <v>6582</v>
       </c>
       <c r="D10" s="2">
@@ -8928,7 +9143,7 @@
         <v>0.2005610098176718</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D42</f>
+        <f>Data!D48</f>
         <v>504</v>
       </c>
       <c r="H10" s="3">
@@ -8940,7 +9155,7 @@
         <v>0.39612188365650969</v>
       </c>
       <c r="L10">
-        <f>Data!E42</f>
+        <f>Data!E48</f>
         <v>1</v>
       </c>
       <c r="M10">
@@ -8958,7 +9173,7 @@
         <v>43904</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C43</f>
+        <f>Data!C49</f>
         <v>7467</v>
       </c>
       <c r="D11" s="2">
@@ -8970,7 +9185,7 @@
         <v>0.17062146892655367</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D43</f>
+        <f>Data!D49</f>
         <v>655</v>
       </c>
       <c r="H11" s="3">
@@ -8986,7 +9201,7 @@
         <v>0.38083321236080414</v>
       </c>
       <c r="L11">
-        <f>Data!E43</f>
+        <f>Data!E49</f>
         <v>1</v>
       </c>
       <c r="M11">
@@ -9004,7 +9219,7 @@
         <v>43905</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C44</f>
+        <f>Data!C50</f>
         <v>8167</v>
       </c>
       <c r="D12" s="2">
@@ -9016,7 +9231,7 @@
         <v>0.29285714285714287</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D44</f>
+        <f>Data!D50</f>
         <v>860</v>
       </c>
       <c r="H12" s="3">
@@ -9032,7 +9247,7 @@
         <v>0.36556603678828503</v>
       </c>
       <c r="L12">
-        <f>Data!E44</f>
+        <f>Data!E50</f>
         <v>1</v>
       </c>
       <c r="M12">
@@ -9053,7 +9268,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C45</f>
+        <f>Data!C51</f>
         <v>8490</v>
       </c>
       <c r="D13" s="2">
@@ -9065,7 +9280,7 @@
         <v>0.48297213622291024</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D45</f>
+        <f>Data!D51</f>
         <v>1016</v>
       </c>
       <c r="H13" s="3">
@@ -9081,7 +9296,7 @@
         <v>0.33151543622605656</v>
       </c>
       <c r="L13">
-        <f>Data!E45</f>
+        <f>Data!E51</f>
         <v>3</v>
       </c>
       <c r="M13">
@@ -9105,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C46</f>
+        <f>Data!C52</f>
         <v>10278</v>
       </c>
       <c r="D14" s="2">
@@ -9117,7 +9332,7 @@
         <v>0.1767337807606264</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D46</f>
+        <f>Data!D52</f>
         <v>1332</v>
       </c>
       <c r="H14" s="3">
@@ -9133,7 +9348,7 @@
         <v>0.30022422567615575</v>
       </c>
       <c r="L14">
-        <f>Data!E46</f>
+        <f>Data!E52</f>
         <v>3</v>
       </c>
       <c r="M14">
@@ -9157,7 +9372,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C47</f>
+        <f>Data!C53</f>
         <v>11977</v>
       </c>
       <c r="D15" s="2">
@@ -9169,7 +9384,7 @@
         <v>0.18481459682165979</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D47</f>
+        <f>Data!D53</f>
         <v>1646</v>
       </c>
       <c r="H15" s="3">
@@ -9185,7 +9400,7 @@
         <v>0.26814699609200099</v>
       </c>
       <c r="L15">
-        <f>Data!E47</f>
+        <f>Data!E53</f>
         <v>4</v>
       </c>
       <c r="M15">
@@ -9209,7 +9424,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C48</f>
+        <f>Data!C54</f>
         <v>13724</v>
       </c>
       <c r="D16" s="2">
@@ -9221,7 +9436,7 @@
         <v>0.21007441327990842</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D48</f>
+        <f>Data!D54</f>
         <v>2013</v>
       </c>
       <c r="H16" s="3">
@@ -9237,7 +9452,7 @@
         <v>0.25281931378375971</v>
       </c>
       <c r="L16">
-        <f>Data!E48</f>
+        <f>Data!E54</f>
         <v>6</v>
       </c>
       <c r="M16">
@@ -9261,7 +9476,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C49</f>
+        <f>Data!C55</f>
         <v>15613</v>
       </c>
       <c r="D17" s="2">
@@ -9273,7 +9488,7 @@
         <v>0.19851773425092642</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D49</f>
+        <f>Data!D55</f>
         <v>2388</v>
       </c>
       <c r="H17" s="3">
@@ -9289,7 +9504,7 @@
         <v>0.22748171807950154</v>
       </c>
       <c r="L17">
-        <f>Data!E49</f>
+        <f>Data!E55</f>
         <v>6</v>
       </c>
       <c r="M17">
@@ -9313,7 +9528,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C50</f>
+        <f>Data!C56</f>
         <v>18545</v>
       </c>
       <c r="D18" s="2">
@@ -9325,7 +9540,7 @@
         <v>0.14529331514324692</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D50</f>
+        <f>Data!D56</f>
         <v>2814</v>
       </c>
       <c r="H18" s="3">
@@ -9341,7 +9556,7 @@
         <v>0.22688104027185868</v>
       </c>
       <c r="L18">
-        <f>Data!E50</f>
+        <f>Data!E56</f>
         <v>8</v>
       </c>
       <c r="M18">
@@ -9365,7 +9580,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C51</f>
+        <f>Data!C57</f>
         <v>21368</v>
       </c>
       <c r="D19" s="2">
@@ -9377,7 +9592,7 @@
         <v>0.15232022670917464</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D51</f>
+        <f>Data!D57</f>
         <v>3244</v>
       </c>
       <c r="H19" s="3">
@@ -9393,7 +9608,7 @@
         <v>0.19523779418508219</v>
       </c>
       <c r="L19">
-        <f>Data!E51</f>
+        <f>Data!E57</f>
         <v>16</v>
       </c>
       <c r="M19">
@@ -9417,7 +9632,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C52</f>
+        <f>Data!C58</f>
         <v>23429</v>
       </c>
       <c r="D20" s="2">
@@ -9429,7 +9644,7 @@
         <v>0.32993692382338669</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D52</f>
+        <f>Data!D58</f>
         <v>3924</v>
       </c>
       <c r="H20" s="3">
@@ -9445,7 +9660,7 @@
         <v>0.19001419820932841</v>
       </c>
       <c r="L20">
-        <f>Data!E52</f>
+        <f>Data!E58</f>
         <v>21</v>
       </c>
       <c r="M20">
@@ -9469,7 +9684,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C53</f>
+        <f>Data!C59</f>
         <v>28391</v>
       </c>
       <c r="D21" s="2">
@@ -9481,7 +9696,7 @@
         <v>0.19185812172511085</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D53</f>
+        <f>Data!D59</f>
         <v>4876</v>
       </c>
       <c r="H21" s="3">
@@ -9497,7 +9712,7 @@
         <v>0.19394316200875941</v>
       </c>
       <c r="L21">
-        <f>Data!E53</f>
+        <f>Data!E59</f>
         <v>28</v>
       </c>
       <c r="M21">
@@ -9521,7 +9736,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C54</f>
+        <f>Data!C60</f>
         <v>32407</v>
       </c>
       <c r="D22" s="2">
@@ -9533,7 +9748,7 @@
         <v>0.17031872509960158</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D54</f>
+        <f>Data!D60</f>
         <v>5560</v>
       </c>
       <c r="H22" s="3">
@@ -9549,7 +9764,7 @@
         <v>0.18474112129472955</v>
       </c>
       <c r="L22">
-        <f>Data!E54</f>
+        <f>Data!E60</f>
         <v>31</v>
       </c>
       <c r="M22">
@@ -9573,7 +9788,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C55</f>
+        <f>Data!C61</f>
         <v>35995</v>
       </c>
       <c r="D23" s="2">
@@ -9585,7 +9800,7 @@
         <v>0.23355629877369008</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D55</f>
+        <f>Data!D61</f>
         <v>6398</v>
       </c>
       <c r="H23" s="3">
@@ -9601,7 +9816,7 @@
         <v>0.17920661422701692</v>
       </c>
       <c r="L23">
-        <f>Data!E55</f>
+        <f>Data!E61</f>
         <v>49</v>
       </c>
       <c r="M23">
@@ -9625,7 +9840,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C56</f>
+        <f>Data!C62</f>
         <v>39552</v>
       </c>
       <c r="D24" s="2">
@@ -9637,7 +9852,7 @@
         <v>0.28141692437447285</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D56</f>
+        <f>Data!D62</f>
         <v>7399</v>
       </c>
       <c r="H24" s="3">
@@ -9653,7 +9868,7 @@
         <v>0.17993616435073409</v>
       </c>
       <c r="L24">
-        <f>Data!E56</f>
+        <f>Data!E62</f>
         <v>58</v>
       </c>
       <c r="M24">
@@ -9677,7 +9892,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C57</f>
+        <f>Data!C63</f>
         <v>42750</v>
       </c>
       <c r="D25" s="2">
@@ -9689,7 +9904,7 @@
         <v>0.18636647904940587</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D57</f>
+        <f>Data!D63</f>
         <v>7995</v>
       </c>
       <c r="H25" s="3">
@@ -9705,7 +9920,7 @@
         <v>0.15412289835301288</v>
       </c>
       <c r="L25">
-        <f>Data!E57</f>
+        <f>Data!E63</f>
         <v>68</v>
       </c>
       <c r="M25">
@@ -9729,7 +9944,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C58</f>
+        <f>Data!C64</f>
         <v>46441</v>
       </c>
       <c r="D26" s="2">
@@ -9741,7 +9956,7 @@
         <v>0.17366567325927934</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D58</f>
+        <f>Data!D64</f>
         <v>8636</v>
       </c>
       <c r="H26" s="3">
@@ -9757,7 +9972,7 @@
         <v>0.12163600382986864</v>
       </c>
       <c r="L26">
-        <f>Data!E58</f>
+        <f>Data!E64</f>
         <v>86</v>
       </c>
       <c r="M26">
@@ -9781,16 +9996,48 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C59</f>
-        <v>0</v>
+        <f>Data!C65</f>
+        <v>49455</v>
+      </c>
+      <c r="D27" s="2">
+        <f>C27-C26</f>
+        <v>3014</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" ref="E27" si="24">H27/D27</f>
+        <v>0.24585268745852687</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D59</f>
-        <v>0</v>
+        <f>Data!D65</f>
+        <v>9377</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" ref="H27" si="25">G27-G26</f>
+        <v>741</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" ref="I27" si="26">G27/G26-1</f>
+        <v>8.5803612783696082E-2</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" ref="J27" si="27">SUM(I23:I27)/5</f>
+        <v>0.11074094295756765</v>
       </c>
       <c r="L27">
-        <f>Data!E59</f>
-        <v>0</v>
+        <f>Data!E65</f>
+        <v>108</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27" si="28">L27-L26</f>
+        <v>22</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" ref="N27" si="29">L27/L26-1</f>
+        <v>0.2558139534883721</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" ref="O27" si="30">SUM(N23:N27)/5</f>
+        <v>0.29145045192456781</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -9801,15 +10048,15 @@
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C60</f>
+        <f>Data!C66</f>
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D60</f>
+        <f>Data!D66</f>
         <v>0</v>
       </c>
       <c r="L28">
-        <f>Data!E60</f>
+        <f>Data!E66</f>
         <v>0</v>
       </c>
     </row>
@@ -9821,15 +10068,15 @@
         <v>16</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C61</f>
+        <f>Data!C67</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D61</f>
+        <f>Data!D67</f>
         <v>0</v>
       </c>
       <c r="L29">
-        <f>Data!E61</f>
+        <f>Data!E67</f>
         <v>0</v>
       </c>
     </row>
@@ -9841,15 +10088,15 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C62</f>
+        <f>Data!C68</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D62</f>
+        <f>Data!D68</f>
         <v>0</v>
       </c>
       <c r="L30">
-        <f>Data!E62</f>
+        <f>Data!E68</f>
         <v>0</v>
       </c>
     </row>
@@ -9861,15 +10108,15 @@
         <v>18</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C63</f>
+        <f>Data!C69</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D63</f>
+        <f>Data!D69</f>
         <v>0</v>
       </c>
       <c r="L31">
-        <f>Data!E63</f>
+        <f>Data!E69</f>
         <v>0</v>
       </c>
     </row>
@@ -9881,15 +10128,15 @@
         <v>19</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C64</f>
+        <f>Data!C70</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D64</f>
+        <f>Data!D70</f>
         <v>0</v>
       </c>
       <c r="L32">
-        <f>Data!E64</f>
+        <f>Data!E70</f>
         <v>0</v>
       </c>
     </row>
@@ -9901,21 +10148,21 @@
         <v>20</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C65</f>
+        <f>Data!C71</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D65</f>
+        <f>Data!D71</f>
         <v>0</v>
       </c>
       <c r="L33">
-        <f>Data!E65</f>
+        <f>Data!E71</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:12">
       <c r="L34">
-        <f>Data!E66</f>
+        <f>Data!E72</f>
         <v>0</v>
       </c>
     </row>
@@ -9941,68 +10188,68 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.21875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" ht="28.5">
+      <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
       <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="L3" s="22" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -10051,7 +10298,7 @@
         <v>43899</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C3</f>
+        <f>Data!C8</f>
         <v>24960</v>
       </c>
       <c r="D6" s="2">
@@ -10063,14 +10310,14 @@
         <v>2.9716655148583276E-2</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D3</f>
+        <f>Data!D8</f>
         <v>321</v>
       </c>
       <c r="H6" s="3">
         <v>43</v>
       </c>
       <c r="L6" s="2">
-        <f>Data!E3</f>
+        <f>Data!E8</f>
         <v>5</v>
       </c>
       <c r="M6">
@@ -10084,7 +10331,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C4</f>
+        <f>Data!C9</f>
         <v>26261</v>
       </c>
       <c r="D7" s="2">
@@ -10096,7 +10343,7 @@
         <v>4.7655649500384319E-2</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D4</f>
+        <f>Data!D9</f>
         <v>383</v>
       </c>
       <c r="H7" s="3">
@@ -10108,7 +10355,7 @@
         <v>0.19314641744548289</v>
       </c>
       <c r="L7" s="2">
-        <f>Data!E4</f>
+        <f>Data!E9</f>
         <v>6</v>
       </c>
       <c r="M7">
@@ -10126,7 +10373,7 @@
         <v>43901</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C5</f>
+        <f>Data!C10</f>
         <v>27476</v>
       </c>
       <c r="D8" s="2">
@@ -10138,7 +10385,7 @@
         <v>6.3374485596707816E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D5</f>
+        <f>Data!D10</f>
         <v>460</v>
       </c>
       <c r="H8" s="3">
@@ -10150,7 +10397,7 @@
         <v>0.20104438642297651</v>
       </c>
       <c r="L8" s="2">
-        <f>Data!E5</f>
+        <f>Data!E10</f>
         <v>8</v>
       </c>
       <c r="M8">
@@ -10168,7 +10415,7 @@
         <v>43902</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C6</f>
+        <f>Data!C11</f>
         <v>28764</v>
       </c>
       <c r="D9" s="2">
@@ -10180,7 +10427,7 @@
         <v>0.10093167701863354</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D6</f>
+        <f>Data!D11</f>
         <v>590</v>
       </c>
       <c r="H9" s="3">
@@ -10192,7 +10439,7 @@
         <v>0.28260869565217384</v>
       </c>
       <c r="L9" s="2">
-        <f>Data!E6</f>
+        <f>Data!E11</f>
         <v>10</v>
       </c>
       <c r="M9">
@@ -10210,7 +10457,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C7</f>
+        <f>Data!C12</f>
         <v>32771</v>
       </c>
       <c r="D10" s="2">
@@ -10222,7 +10469,7 @@
         <v>5.1909158971799353E-2</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D7</f>
+        <f>Data!D12</f>
         <v>798</v>
       </c>
       <c r="H10" s="3">
@@ -10234,7 +10481,7 @@
         <v>0.35254237288135593</v>
       </c>
       <c r="L10" s="2">
-        <f>Data!E7</f>
+        <f>Data!E12</f>
         <v>11</v>
       </c>
       <c r="M10">
@@ -10252,7 +10499,7 @@
         <v>43904</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C8</f>
+        <f>Data!C13</f>
         <v>37746</v>
       </c>
       <c r="D11" s="2">
@@ -10264,7 +10511,7 @@
         <v>6.8743718592964825E-2</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D8</f>
+        <f>Data!D13</f>
         <v>1140</v>
       </c>
       <c r="H11" s="3">
@@ -10280,7 +10527,7 @@
         <v>0.29158266019468354</v>
       </c>
       <c r="L11" s="2">
-        <f>Data!E8</f>
+        <f>Data!E13</f>
         <v>21</v>
       </c>
       <c r="M11">
@@ -10298,7 +10545,7 @@
         <v>43905</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C9</f>
+        <f>Data!C14</f>
         <v>40279</v>
       </c>
       <c r="D12" s="2">
@@ -10310,7 +10557,7 @@
         <v>9.9091985787603629E-2</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D9</f>
+        <f>Data!D14</f>
         <v>1391</v>
       </c>
       <c r="H12" s="3">
@@ -10326,7 +10573,7 @@
         <v>0.29698846442488519</v>
       </c>
       <c r="L12" s="2">
-        <f>Data!E9</f>
+        <f>Data!E14</f>
         <v>35</v>
       </c>
       <c r="M12">
@@ -10344,7 +10591,7 @@
         <v>43906</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C10</f>
+        <f>Data!C15</f>
         <v>44105</v>
       </c>
       <c r="D13" s="2">
@@ -10356,7 +10603,7 @@
         <v>3.9728175640355461E-2</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D10</f>
+        <f>Data!D15</f>
         <v>1543</v>
       </c>
       <c r="H13" s="3">
@@ -10372,7 +10619,7 @@
         <v>0.27863436787357532</v>
       </c>
       <c r="L13" s="2">
-        <f>Data!E10</f>
+        <f>Data!E15</f>
         <v>55</v>
       </c>
       <c r="M13">
@@ -10393,7 +10640,7 @@
         <v>43907</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C11</f>
+        <f>Data!C16</f>
         <v>50442</v>
       </c>
       <c r="D14" s="2">
@@ -10405,7 +10652,7 @@
         <v>6.4225974435852928E-2</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D11</f>
+        <f>Data!D16</f>
         <v>1950</v>
       </c>
       <c r="H14" s="3">
@@ -10421,7 +10668,7 @@
         <v>0.27486700333808545</v>
       </c>
       <c r="L14" s="2">
-        <f>Data!E11</f>
+        <f>Data!E16</f>
         <v>71</v>
       </c>
       <c r="M14">
@@ -10442,7 +10689,7 @@
         <v>43908</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C12</f>
+        <f>Data!C17</f>
         <v>56221</v>
       </c>
       <c r="D15" s="2">
@@ -10454,7 +10701,7 @@
         <v>0.11697525523446964</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D12</f>
+        <f>Data!D17</f>
         <v>2626</v>
       </c>
       <c r="H15" s="3">
@@ -10470,7 +10717,7 @@
         <v>0.27369186209514756</v>
       </c>
       <c r="L15" s="2">
-        <f>Data!E12</f>
+        <f>Data!E17</f>
         <v>104</v>
       </c>
       <c r="M15">
@@ -10491,7 +10738,7 @@
         <v>43909</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C13</f>
+        <f>Data!C18</f>
         <v>64621</v>
       </c>
       <c r="D16" s="2">
@@ -10503,7 +10750,7 @@
         <v>7.6547619047619045E-2</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D13</f>
+        <f>Data!D18</f>
         <v>3269</v>
       </c>
       <c r="H16" s="3">
@@ -10519,7 +10766,7 @@
         <v>0.23694939663981079</v>
       </c>
       <c r="L16" s="2">
-        <f>Data!E13</f>
+        <f>Data!E18</f>
         <v>144</v>
       </c>
       <c r="M16">
@@ -10540,7 +10787,7 @@
         <v>43910</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C14</f>
+        <f>Data!C19</f>
         <v>66976</v>
       </c>
       <c r="D17" s="2">
@@ -10552,7 +10799,7 @@
         <v>0.30318471337579617</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D14</f>
+        <f>Data!D19</f>
         <v>3983</v>
       </c>
       <c r="H17" s="3">
@@ -10568,7 +10815,7 @@
         <v>0.23659739243228989</v>
       </c>
       <c r="L17" s="2">
-        <f>Data!E14</f>
+        <f>Data!E19</f>
         <v>177</v>
       </c>
       <c r="M17">
@@ -10589,7 +10836,7 @@
         <v>43911</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C15</f>
+        <f>Data!C20</f>
         <v>72818</v>
       </c>
       <c r="D18" s="2">
@@ -10601,7 +10848,7 @@
         <v>0.17716535433070865</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D15</f>
+        <f>Data!D20</f>
         <v>5018</v>
       </c>
       <c r="H18" s="3">
@@ -10617,7 +10864,7 @@
         <v>0.26671348792295629</v>
       </c>
       <c r="L18" s="2">
-        <f>Data!E15</f>
+        <f>Data!E20</f>
         <v>233</v>
       </c>
       <c r="M18">
@@ -10638,7 +10885,7 @@
         <v>43912</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C16</f>
+        <f>Data!C21</f>
         <v>78340</v>
       </c>
       <c r="D19" s="2">
@@ -10650,7 +10897,7 @@
         <v>0.12042738138355669</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D16</f>
+        <f>Data!D21</f>
         <v>5683</v>
       </c>
       <c r="H19" s="3">
@@ -10666,7 +10913,7 @@
         <v>0.24046369682741356</v>
       </c>
       <c r="L19" s="2">
-        <f>Data!E16</f>
+        <f>Data!E21</f>
         <v>281</v>
       </c>
       <c r="M19">
@@ -10690,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C17</f>
+        <f>Data!C22</f>
         <v>83945</v>
       </c>
       <c r="D20" s="2">
@@ -10702,7 +10949,7 @@
         <v>0.17252453166815343</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D17</f>
+        <f>Data!D22</f>
         <v>6650</v>
       </c>
       <c r="H20" s="3">
@@ -10718,7 +10965,7 @@
         <v>0.20516168497921133</v>
       </c>
       <c r="L20" s="2">
-        <f>Data!E17</f>
+        <f>Data!E22</f>
         <v>335</v>
       </c>
       <c r="M20">
@@ -10743,7 +10990,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C18</f>
+        <f>Data!C23</f>
         <v>90436</v>
       </c>
       <c r="D21" s="2">
@@ -10755,7 +11002,7 @@
         <v>0.21984285934370668</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D18</f>
+        <f>Data!D23</f>
         <v>8077</v>
       </c>
       <c r="H21" s="3">
@@ -10771,7 +11018,7 @@
         <v>0.19910715795334508</v>
       </c>
       <c r="L21" s="2">
-        <f>Data!E18</f>
+        <f>Data!E23</f>
         <v>422</v>
       </c>
       <c r="M21">
@@ -10796,7 +11043,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C19</f>
+        <f>Data!C24</f>
         <v>97019</v>
       </c>
       <c r="D22" s="2">
@@ -10808,7 +11055,7 @@
         <v>0.22056813003190034</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D19</f>
+        <f>Data!D24</f>
         <v>9529</v>
       </c>
       <c r="H22" s="3">
@@ -10824,7 +11071,7 @@
         <v>0.19137801773734592</v>
       </c>
       <c r="L22" s="2">
-        <f>Data!E19</f>
+        <f>Data!E24</f>
         <v>465</v>
       </c>
       <c r="M22">
@@ -10849,7 +11096,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C20</f>
+        <f>Data!C25</f>
         <v>104866</v>
       </c>
       <c r="D23" s="2">
@@ -10861,7 +11108,7 @@
         <v>0.27131387791512679</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D20</f>
+        <f>Data!D25</f>
         <v>11658</v>
       </c>
       <c r="H23" s="3">
@@ -10877,7 +11124,7 @@
         <v>0.18409178838085136</v>
       </c>
       <c r="L23" s="2">
-        <f>Data!E20</f>
+        <f>Data!E25</f>
         <v>578</v>
       </c>
       <c r="M23">
@@ -10902,7 +11149,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C21</f>
+        <f>Data!C26</f>
         <v>113777</v>
       </c>
       <c r="D24" s="2">
@@ -10914,7 +11161,7 @@
         <v>0.32375715407922789</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D21</f>
+        <f>Data!D26</f>
         <v>14543</v>
       </c>
       <c r="H24" s="3">
@@ -10930,7 +11177,7 @@
         <v>0.20708111464298634</v>
       </c>
       <c r="L24" s="2">
-        <f>Data!E21</f>
+        <f>Data!E26</f>
         <v>759</v>
       </c>
       <c r="M24">
@@ -10955,7 +11202,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C22</f>
+        <f>Data!C27</f>
         <v>120766</v>
       </c>
       <c r="D25" s="2">
@@ -10967,7 +11214,7 @@
         <v>0.36428673629989983</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D22</f>
+        <f>Data!D27</f>
         <v>17089</v>
       </c>
       <c r="H25" s="3">
@@ -10983,7 +11230,7 @@
         <v>0.20806320167054176</v>
       </c>
       <c r="L25" s="2">
-        <f>Data!E22</f>
+        <f>Data!E27</f>
         <v>1019</v>
       </c>
       <c r="M25">
@@ -11008,7 +11255,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C23</f>
+        <f>Data!C28</f>
         <v>127737</v>
       </c>
       <c r="D26" s="2">
@@ -11020,7 +11267,7 @@
         <v>0.34901735762444414</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D23</f>
+        <f>Data!D28</f>
         <v>19522</v>
       </c>
       <c r="H26" s="3">
@@ -11036,7 +11283,7 @@
         <v>0.19362036569066285</v>
       </c>
       <c r="L26" s="2">
-        <f>Data!E23</f>
+        <f>Data!E28</f>
         <v>1228</v>
       </c>
       <c r="M26">
@@ -11061,15 +11308,15 @@
         <v>7</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C24</f>
+        <f>Data!C29</f>
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D24</f>
+        <f>Data!D29</f>
         <v>0</v>
       </c>
       <c r="L27" s="2">
-        <f>Data!E24</f>
+        <f>Data!E29</f>
         <v>0</v>
       </c>
     </row>
@@ -11082,15 +11329,15 @@
         <v>8</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C25</f>
+        <f>Data!C30</f>
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D25</f>
+        <f>Data!D30</f>
         <v>0</v>
       </c>
       <c r="L28" s="2">
-        <f>Data!E25</f>
+        <f>Data!E30</f>
         <v>0</v>
       </c>
     </row>
@@ -11103,15 +11350,15 @@
         <v>9</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C26</f>
+        <f>Data!C31</f>
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D26</f>
+        <f>Data!D31</f>
         <v>0</v>
       </c>
       <c r="L29" s="2">
-        <f>Data!E26</f>
+        <f>Data!E31</f>
         <v>0</v>
       </c>
     </row>
@@ -11124,15 +11371,15 @@
         <v>10</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C27</f>
+        <f>Data!C32</f>
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D27</f>
+        <f>Data!D32</f>
         <v>0</v>
       </c>
       <c r="L30" s="2">
-        <f>Data!E27</f>
+        <f>Data!E32</f>
         <v>0</v>
       </c>
     </row>
@@ -11145,15 +11392,15 @@
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C28</f>
+        <f>Data!C33</f>
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D28</f>
+        <f>Data!D33</f>
         <v>0</v>
       </c>
       <c r="L31" s="2">
-        <f>Data!E28</f>
+        <f>Data!E33</f>
         <v>0</v>
       </c>
     </row>
@@ -11166,15 +11413,15 @@
         <v>12</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C29</f>
+        <f>Data!C34</f>
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D29</f>
+        <f>Data!D34</f>
         <v>0</v>
       </c>
       <c r="L32" s="2">
-        <f>Data!E29</f>
+        <f>Data!E34</f>
         <v>0</v>
       </c>
     </row>
@@ -11187,15 +11434,15 @@
         <v>13</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C30</f>
+        <f>Data!C35</f>
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D30</f>
+        <f>Data!D35</f>
         <v>0</v>
       </c>
       <c r="L33" s="2">
-        <f>Data!E30</f>
+        <f>Data!E35</f>
         <v>0</v>
       </c>
     </row>
@@ -11220,70 +11467,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N50" sqref="N50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.21875" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.77734375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.21875" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.77734375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.77734375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="7.77734375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:16" ht="28.5">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
       <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="20" t="s">
+      <c r="G3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="L3" s="22" t="s">
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -11332,7 +11579,7 @@
         <v>43885</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C73</f>
+        <f>Data!C79</f>
         <v>4324</v>
       </c>
       <c r="D6" s="2">
@@ -11344,12 +11591,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D73</f>
+        <f>Data!D79</f>
         <v>229</v>
       </c>
       <c r="H6" s="3"/>
       <c r="L6" s="2">
-        <f>Data!E73</f>
+        <f>Data!E79</f>
         <v>7</v>
       </c>
       <c r="M6">
@@ -11363,7 +11610,7 @@
         <v>43886</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C74</f>
+        <f>Data!C80</f>
         <v>8623</v>
       </c>
       <c r="D7" s="2">
@@ -11375,7 +11622,7 @@
         <v>2.1632937892533146E-2</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D74</f>
+        <f>Data!D80</f>
         <v>322</v>
       </c>
       <c r="H7" s="3">
@@ -11387,7 +11634,7 @@
         <v>0.40611353711790388</v>
       </c>
       <c r="L7" s="2">
-        <f>Data!E74</f>
+        <f>Data!E80</f>
         <v>10</v>
       </c>
       <c r="M7">
@@ -11405,7 +11652,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C75</f>
+        <f>Data!C81</f>
         <v>9587</v>
       </c>
       <c r="D8" s="2">
@@ -11417,7 +11664,7 @@
         <v>8.0912863070539423E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D75</f>
+        <f>Data!D81</f>
         <v>400</v>
       </c>
       <c r="H8" s="3">
@@ -11429,7 +11676,7 @@
         <v>0.2422360248447204</v>
       </c>
       <c r="L8" s="2">
-        <f>Data!E75</f>
+        <f>Data!E81</f>
         <v>12</v>
       </c>
       <c r="M8">
@@ -11447,7 +11694,7 @@
         <v>43888</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C76</f>
+        <f>Data!C82</f>
         <v>12014</v>
       </c>
       <c r="D9" s="2">
@@ -11459,7 +11706,7 @@
         <v>0.10300782859497322</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D76</f>
+        <f>Data!D82</f>
         <v>650</v>
       </c>
       <c r="H9" s="3">
@@ -11471,7 +11718,7 @@
         <v>0.625</v>
       </c>
       <c r="L9" s="2">
-        <f>Data!E76</f>
+        <f>Data!E82</f>
         <v>17</v>
       </c>
       <c r="M9">
@@ -11489,7 +11736,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C77</f>
+        <f>Data!C83</f>
         <v>15695</v>
       </c>
       <c r="D10" s="2">
@@ -11501,7 +11748,7 @@
         <v>6.4656343384949744E-2</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D77</f>
+        <f>Data!D83</f>
         <v>888</v>
       </c>
       <c r="H10" s="3">
@@ -11517,7 +11764,7 @@
         <v>0.32790068162329405</v>
       </c>
       <c r="L10" s="2">
-        <f>Data!E77</f>
+        <f>Data!E83</f>
         <v>21</v>
       </c>
       <c r="M10">
@@ -11538,7 +11785,7 @@
         <v>43890</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C78</f>
+        <f>Data!C84</f>
         <v>18661</v>
       </c>
       <c r="D11" s="2">
@@ -11550,7 +11797,7 @@
         <v>8.0917060013486183E-2</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D78</f>
+        <f>Data!D84</f>
         <v>1128</v>
       </c>
       <c r="H11" s="3">
@@ -11566,7 +11813,7 @@
         <v>0.38195473567734811</v>
       </c>
       <c r="L11" s="2">
-        <f>Data!E78</f>
+        <f>Data!E84</f>
         <v>29</v>
       </c>
       <c r="M11">
@@ -11587,7 +11834,7 @@
         <v>43891</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C79</f>
+        <f>Data!C85</f>
         <v>21127</v>
       </c>
       <c r="D12" s="2">
@@ -11599,7 +11846,7 @@
         <v>0.22952149229521493</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D79</f>
+        <f>Data!D85</f>
         <v>1694</v>
       </c>
       <c r="H12" s="3">
@@ -11615,7 +11862,7 @@
         <v>0.40108663818284535</v>
       </c>
       <c r="L12" s="2">
-        <f>Data!E79</f>
+        <f>Data!E85</f>
         <v>34</v>
       </c>
       <c r="M12">
@@ -11636,7 +11883,7 @@
         <v>43892</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C80</f>
+        <f>Data!C86</f>
         <v>23345</v>
       </c>
       <c r="D13" s="2">
@@ -11648,7 +11895,7 @@
         <v>0.15419296663660956</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D80</f>
+        <f>Data!D86</f>
         <v>2036</v>
       </c>
       <c r="H13" s="3">
@@ -11664,7 +11911,7 @@
         <v>0.39301723722806892</v>
       </c>
       <c r="L13" s="2">
-        <f>Data!E80</f>
+        <f>Data!E86</f>
         <v>52</v>
       </c>
       <c r="M13">
@@ -11685,7 +11932,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C81</f>
+        <f>Data!C87</f>
         <v>25856</v>
       </c>
       <c r="D14" s="2">
@@ -11697,7 +11944,7 @@
         <v>0.18558343289526086</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D81</f>
+        <f>Data!D87</f>
         <v>2502</v>
       </c>
       <c r="H14" s="3">
@@ -11713,7 +11960,7 @@
         <v>0.3137932686622536</v>
       </c>
       <c r="L14" s="2">
-        <f>Data!E81</f>
+        <f>Data!E87</f>
         <v>79</v>
       </c>
       <c r="M14">
@@ -11734,7 +11981,7 @@
         <v>43894</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C82</f>
+        <f>Data!C88</f>
         <v>29837</v>
       </c>
       <c r="D15" s="2">
@@ -11746,7 +11993,7 @@
         <v>0.14745038934940968</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D82</f>
+        <f>Data!D88</f>
         <v>3089</v>
       </c>
       <c r="H15" s="3">
@@ -11762,7 +12009,7 @@
         <v>0.28748496146186009</v>
       </c>
       <c r="L15" s="2">
-        <f>Data!E82</f>
+        <f>Data!E88</f>
         <v>107</v>
       </c>
       <c r="M15">
@@ -11783,7 +12030,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C83</f>
+        <f>Data!C89</f>
         <v>32362</v>
       </c>
       <c r="D16" s="2">
@@ -11795,7 +12042,7 @@
         <v>0.30455445544554455</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D83</f>
+        <f>Data!D89</f>
         <v>3858</v>
       </c>
       <c r="H16" s="3">
@@ -11811,7 +12058,7 @@
         <v>0.28322048332234145</v>
       </c>
       <c r="L16" s="2">
-        <f>Data!E83</f>
+        <f>Data!E89</f>
         <v>148</v>
       </c>
       <c r="M16">
@@ -11832,7 +12079,7 @@
         <v>43896</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C84</f>
+        <f>Data!C90</f>
         <v>36359</v>
       </c>
       <c r="D17" s="2">
@@ -11844,7 +12091,7 @@
         <v>0.19464598448836629</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D84</f>
+        <f>Data!D90</f>
         <v>4636</v>
       </c>
       <c r="H17" s="3">
@@ -11860,7 +12107,7 @@
         <v>0.22319765151664345</v>
       </c>
       <c r="L17" s="2">
-        <f>Data!E84</f>
+        <f>Data!E90</f>
         <v>197</v>
       </c>
       <c r="M17">
@@ -11881,7 +12128,7 @@
         <v>43897</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C85</f>
+        <f>Data!C91</f>
         <v>42062</v>
       </c>
       <c r="D18" s="2">
@@ -11893,7 +12140,7 @@
         <v>0.2186568472733649</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D85</f>
+        <f>Data!D91</f>
         <v>5883</v>
       </c>
       <c r="H18" s="3">
@@ -11909,7 +12156,7 @@
         <v>0.23661622368884333</v>
       </c>
       <c r="L18" s="2">
-        <f>Data!E85</f>
+        <f>Data!E91</f>
         <v>233</v>
       </c>
       <c r="M18">
@@ -11930,7 +12177,7 @@
         <v>43898</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C86</f>
+        <f>Data!C92</f>
         <v>49937</v>
       </c>
       <c r="D19" s="2">
@@ -11942,7 +12189,7 @@
         <v>0.18946031746031747</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D86</f>
+        <f>Data!D92</f>
         <v>7375</v>
       </c>
       <c r="H19" s="3">
@@ -11958,7 +12205,7 @@
         <v>0.24156261278839994</v>
       </c>
       <c r="L19" s="2">
-        <f>Data!E86</f>
+        <f>Data!E92</f>
         <v>366</v>
       </c>
       <c r="M19">
@@ -11982,7 +12229,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C87</f>
+        <f>Data!C93</f>
         <v>53826</v>
       </c>
       <c r="D20" s="2">
@@ -11994,7 +12241,7 @@
         <v>0.46207251221393675</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D87</f>
+        <f>Data!D93</f>
         <v>9172</v>
       </c>
       <c r="H20" s="3">
@@ -12010,7 +12257,7 @@
         <v>0.2433723541478548</v>
       </c>
       <c r="L20" s="2">
-        <f>Data!E87</f>
+        <f>Data!E93</f>
         <v>463</v>
       </c>
       <c r="M20">
@@ -12034,7 +12281,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C88</f>
+        <f>Data!C94</f>
         <v>60761</v>
       </c>
       <c r="D21" s="2">
@@ -12046,7 +12293,7 @@
         <v>0.14087959625090121</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D88</f>
+        <f>Data!D94</f>
         <v>10149</v>
       </c>
       <c r="H21" s="3">
@@ -12062,7 +12309,7 @@
         <v>0.21488674683340658</v>
       </c>
       <c r="L21" s="2">
-        <f>Data!E88</f>
+        <f>Data!E94</f>
         <v>631</v>
       </c>
       <c r="M21">
@@ -12086,7 +12333,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C89</f>
+        <f>Data!C95</f>
         <v>73154</v>
       </c>
       <c r="D22" s="2">
@@ -12098,7 +12345,7 @@
         <v>0.18663761801016704</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D89</f>
+        <f>Data!D95</f>
         <v>12462</v>
       </c>
       <c r="H22" s="3">
@@ -12114,7 +12361,7 @@
         <v>0.22013581411351463</v>
       </c>
       <c r="L22" s="2">
-        <f>Data!E89</f>
+        <f>Data!E95</f>
         <v>827</v>
       </c>
       <c r="M22">
@@ -12138,7 +12385,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C90</f>
+        <f>Data!C96</f>
         <v>86011</v>
       </c>
       <c r="D23" s="2">
@@ -12150,7 +12397,7 @@
         <v>0.20619117990199892</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D90</f>
+        <f>Data!D96</f>
         <v>15113</v>
       </c>
       <c r="H23" s="3">
@@ -12166,7 +12413,7 @@
         <v>0.20888477575414113</v>
       </c>
       <c r="L23" s="2">
-        <f>Data!E90</f>
+        <f>Data!E96</f>
         <v>1016</v>
       </c>
       <c r="M23">
@@ -12190,7 +12437,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C91</f>
+        <f>Data!C97</f>
         <v>97488</v>
       </c>
       <c r="D24" s="2">
@@ -12202,7 +12449,7 @@
         <v>0.22192210507972468</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D91</f>
+        <f>Data!D97</f>
         <v>17660</v>
       </c>
       <c r="H24" s="3">
@@ -12218,7 +12465,7 @@
         <v>0.19186843607793974</v>
       </c>
       <c r="L24" s="2">
-        <f>Data!E91</f>
+        <f>Data!E97</f>
         <v>1266</v>
       </c>
       <c r="M24">
@@ -12242,7 +12489,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C92</f>
+        <f>Data!C98</f>
         <v>109170</v>
       </c>
       <c r="D25" s="2">
@@ -12254,7 +12501,7 @@
         <v>0.29934942646807056</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D92</f>
+        <f>Data!D98</f>
         <v>21157</v>
       </c>
       <c r="H25" s="3">
@@ -12270,7 +12517,7 @@
         <v>0.18273985669716925</v>
       </c>
       <c r="L25" s="2">
-        <f>Data!E92</f>
+        <f>Data!E98</f>
         <v>1441</v>
       </c>
       <c r="M25">
@@ -12294,7 +12541,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C93</f>
+        <f>Data!C99</f>
         <v>124899</v>
       </c>
       <c r="D26" s="2">
@@ -12306,7 +12553,7 @@
         <v>0.22824082904189713</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D93</f>
+        <f>Data!D99</f>
         <v>24747</v>
       </c>
       <c r="H26" s="3">
@@ -12322,7 +12569,7 @@
         <v>0.19537264661672088</v>
       </c>
       <c r="L26" s="2">
-        <f>Data!E93</f>
+        <f>Data!E99</f>
         <v>1809</v>
       </c>
       <c r="M26">
@@ -12346,7 +12593,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C94</f>
+        <f>Data!C100</f>
         <v>137962</v>
       </c>
       <c r="D27" s="2">
@@ -12358,7 +12605,7 @@
         <v>0.24749291893133277</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D94</f>
+        <f>Data!D100</f>
         <v>27980</v>
       </c>
       <c r="H27" s="3">
@@ -12374,7 +12621,7 @@
         <v>0.17592022081964981</v>
       </c>
       <c r="L27" s="2">
-        <f>Data!E94</f>
+        <f>Data!E100</f>
         <v>2158</v>
       </c>
       <c r="M27">
@@ -12398,7 +12645,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C95</f>
+        <f>Data!C101</f>
         <v>148657</v>
       </c>
       <c r="D28" s="2">
@@ -12410,7 +12657,7 @@
         <v>0.32968676951846659</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D95</f>
+        <f>Data!D101</f>
         <v>31506</v>
       </c>
       <c r="H28" s="3">
@@ -12426,7 +12673,7 @@
         <v>0.15857859993332762</v>
       </c>
       <c r="L28" s="2">
-        <f>Data!E95</f>
+        <f>Data!E101</f>
         <v>2503</v>
       </c>
       <c r="M28">
@@ -12450,7 +12697,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C96</f>
+        <f>Data!C102</f>
         <v>165541</v>
       </c>
       <c r="D29" s="2">
@@ -12462,7 +12709,7 @@
         <v>0.24917081260364843</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D96</f>
+        <f>Data!D102</f>
         <v>35713</v>
       </c>
       <c r="H29" s="3">
@@ -12478,7 +12725,7 @@
         <v>0.15157854332513704</v>
       </c>
       <c r="L29" s="2">
-        <f>Data!E96</f>
+        <f>Data!E102</f>
         <v>2978</v>
       </c>
       <c r="M29">
@@ -12502,7 +12749,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C97</f>
+        <f>Data!C103</f>
         <v>182777</v>
       </c>
       <c r="D30" s="2">
@@ -12514,7 +12761,7 @@
         <v>0.30877233696913436</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D97</f>
+        <f>Data!D103</f>
         <v>41035</v>
       </c>
       <c r="H30" s="3">
@@ -12530,7 +12777,7 @@
         <v>0.14177919226990335</v>
       </c>
       <c r="L30" s="2">
-        <f>Data!E97</f>
+        <f>Data!E103</f>
         <v>3405</v>
       </c>
       <c r="M30">
@@ -12554,7 +12801,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C98</f>
+        <f>Data!C104</f>
         <v>206886</v>
       </c>
       <c r="D31" s="2">
@@ -12566,7 +12813,7 @@
         <v>0.24828902069766479</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D98</f>
+        <f>Data!D104</f>
         <v>47021</v>
       </c>
       <c r="H31" s="3">
@@ -12582,7 +12829,7 @@
         <v>0.13701752818184726</v>
       </c>
       <c r="L31" s="2">
-        <f>Data!E98</f>
+        <f>Data!E104</f>
         <v>4032</v>
       </c>
       <c r="M31">
@@ -12606,7 +12853,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C99</f>
+        <f>Data!C105</f>
         <v>233222</v>
       </c>
       <c r="D32" s="2">
@@ -12618,7 +12865,7 @@
         <v>0.24897478736330497</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D99</f>
+        <f>Data!D105</f>
         <v>53578</v>
       </c>
       <c r="H32" s="3">
@@ -12634,7 +12881,7 @@
         <v>0.1387787748947345</v>
       </c>
       <c r="L32" s="2">
-        <f>Data!E99</f>
+        <f>Data!E105</f>
         <v>4825</v>
       </c>
       <c r="M32">
@@ -12658,7 +12905,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C100</f>
+        <f>Data!C106</f>
         <v>258402</v>
       </c>
       <c r="D33" s="2">
@@ -12670,7 +12917,7 @@
         <v>0.22081016679904686</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D100</f>
+        <f>Data!D106</f>
         <v>59138</v>
       </c>
       <c r="H33" s="3">
@@ -12686,7 +12933,7 @@
         <v>0.13432984536680664</v>
       </c>
       <c r="L33" s="2">
-        <f>Data!E100</f>
+        <f>Data!E106</f>
         <v>5476</v>
       </c>
       <c r="M33">
@@ -12710,7 +12957,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <f>Data!C101</f>
+        <f>Data!C107</f>
         <v>275468</v>
       </c>
       <c r="D34" s="2">
@@ -12722,7 +12969,7 @@
         <v>0.28061643032930972</v>
       </c>
       <c r="G34" s="2">
-        <f>Data!D101</f>
+        <f>Data!D107</f>
         <v>63927</v>
       </c>
       <c r="H34" s="3">
@@ -12738,7 +12985,7 @@
         <v>0.12381983721539776</v>
       </c>
       <c r="L34" s="2">
-        <f>Data!E101</f>
+        <f>Data!E107</f>
         <v>6077</v>
       </c>
       <c r="M34">
@@ -12762,7 +13009,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <f>Data!C102</f>
+        <f>Data!C108</f>
         <v>296964</v>
       </c>
       <c r="D35" s="2">
@@ -12774,7 +13021,7 @@
         <v>0.24418496464458503</v>
       </c>
       <c r="G35" s="2">
-        <f>Data!D102</f>
+        <f>Data!D108</f>
         <v>69176</v>
       </c>
       <c r="H35" s="3">
@@ -12790,7 +13037,7 @@
         <v>0.1104374204412764</v>
       </c>
       <c r="L35" s="2">
-        <f>Data!E102</f>
+        <f>Data!E108</f>
         <v>6820</v>
       </c>
       <c r="M35">
@@ -12814,7 +13061,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="2">
-        <f>Data!C103</f>
+        <f>Data!C109</f>
         <v>324445</v>
       </c>
       <c r="D36" s="2">
@@ -12826,7 +13073,7 @@
         <v>0.18958553182198609</v>
       </c>
       <c r="G36" s="2">
-        <f>Data!D103</f>
+        <f>Data!D109</f>
         <v>74386</v>
       </c>
       <c r="H36" s="3">
@@ -12842,7 +13089,7 @@
         <v>9.6325353649337406E-2</v>
       </c>
       <c r="L36" s="2">
-        <f>Data!E103</f>
+        <f>Data!E109</f>
         <v>7503</v>
       </c>
       <c r="M36">
@@ -12866,7 +13113,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <f>Data!C104</f>
+        <f>Data!C110</f>
         <v>361060</v>
       </c>
       <c r="D37" s="2">
@@ -12878,7 +13125,7 @@
         <v>0.16804588283490374</v>
       </c>
       <c r="G37" s="2">
-        <f>Data!D104</f>
+        <f>Data!D110</f>
         <v>80539</v>
       </c>
       <c r="H37" s="3">
@@ -12894,7 +13141,7 @@
         <v>8.4979122922752337E-2</v>
       </c>
       <c r="L37" s="2">
-        <f>Data!E104</f>
+        <f>Data!E110</f>
         <v>8165</v>
       </c>
       <c r="M37">
@@ -12918,7 +13165,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="2">
-        <f>Data!C105</f>
+        <f>Data!C111</f>
         <v>394079</v>
       </c>
       <c r="D38" s="2">
@@ -12930,7 +13177,7 @@
         <v>0.18047184954117326</v>
       </c>
       <c r="G38" s="2">
-        <f>Data!D105</f>
+        <f>Data!D111</f>
         <v>86498</v>
       </c>
       <c r="H38" s="3">
@@ -12946,7 +13193,7 @@
         <v>7.9022135333696175E-2</v>
       </c>
       <c r="L38" s="2">
-        <f>Data!E105</f>
+        <f>Data!E111</f>
         <v>9134</v>
       </c>
       <c r="M38">
@@ -12970,7 +13217,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="2">
-        <f>Data!C106</f>
+        <f>Data!C112</f>
         <v>429526</v>
       </c>
       <c r="D39" s="2">
@@ -12982,7 +13229,7 @@
         <v>0.16853330324145907</v>
       </c>
       <c r="G39" s="2">
-        <f>Data!D106</f>
+        <f>Data!D112</f>
         <v>92472</v>
       </c>
       <c r="H39" s="3">
@@ -12998,7 +13245,7 @@
         <v>7.6639155375319665E-2</v>
       </c>
       <c r="L39" s="2">
-        <f>Data!E106</f>
+        <f>Data!E112</f>
         <v>10023</v>
       </c>
       <c r="M39">
@@ -13022,20 +13269,49 @@
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <f>Data!C107</f>
-        <v>0</v>
+        <f>Data!C113</f>
+        <v>454030</v>
+      </c>
+      <c r="D40" s="2">
+        <f>C40-C39</f>
+        <v>24504</v>
+      </c>
+      <c r="E40" s="11">
+        <f>H40/D40</f>
+        <v>0.21290401567091088</v>
       </c>
       <c r="G40" s="2">
-        <f>Data!D107</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="3"/>
+        <f>Data!D113</f>
+        <v>97689</v>
+      </c>
+      <c r="H40" s="3">
+        <f>G40-G39</f>
+        <v>5217</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ref="I40" si="15">G40/G39-1</f>
+        <v>5.6417077601868648E-2</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" ref="J40" si="16">SUM(I36:I40)/5</f>
+        <v>7.1500714715988428E-2</v>
+      </c>
       <c r="L40" s="2">
-        <f>Data!E107</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="16"/>
+        <f>Data!E113</f>
+        <v>10779</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40" si="17">L40-L39</f>
+        <v>756</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" ref="N40" si="18">L40/L39-1</f>
+        <v>7.5426519006285497E-2</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" ref="O40" si="19">SUM(N36:N40)/5</f>
+        <v>9.5962092781701619E-2</v>
+      </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="8">
@@ -13045,15 +13321,15 @@
         <v>21</v>
       </c>
       <c r="C41" s="2">
-        <f>Data!C108</f>
+        <f>Data!C114</f>
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <f>Data!D108</f>
+        <f>Data!D114</f>
         <v>0</v>
       </c>
       <c r="L41" s="2">
-        <f>Data!E108</f>
+        <f>Data!E114</f>
         <v>0</v>
       </c>
     </row>
@@ -13065,15 +13341,15 @@
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <f>Data!C109</f>
+        <f>Data!C115</f>
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <f>Data!D109</f>
+        <f>Data!D115</f>
         <v>0</v>
       </c>
       <c r="L42" s="2">
-        <f>Data!E109</f>
+        <f>Data!E115</f>
         <v>0</v>
       </c>
     </row>
@@ -13085,15 +13361,15 @@
         <v>23</v>
       </c>
       <c r="C43" s="2">
-        <f>Data!C110</f>
+        <f>Data!C116</f>
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <f>Data!D110</f>
+        <f>Data!D116</f>
         <v>0</v>
       </c>
       <c r="L43" s="2">
-        <f>Data!E110</f>
+        <f>Data!E116</f>
         <v>0</v>
       </c>
     </row>
@@ -13105,15 +13381,15 @@
         <v>24</v>
       </c>
       <c r="C44" s="2">
-        <f>Data!C111</f>
+        <f>Data!C117</f>
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <f>Data!D111</f>
+        <f>Data!D117</f>
         <v>0</v>
       </c>
       <c r="L44" s="2">
-        <f>Data!E111</f>
+        <f>Data!E117</f>
         <v>0</v>
       </c>
     </row>
@@ -13125,15 +13401,15 @@
         <v>25</v>
       </c>
       <c r="C45" s="2">
-        <f>Data!C112</f>
+        <f>Data!C118</f>
         <v>0</v>
       </c>
       <c r="G45" s="2">
-        <f>Data!D112</f>
+        <f>Data!D118</f>
         <v>0</v>
       </c>
       <c r="L45" s="2">
-        <f>Data!E112</f>
+        <f>Data!E118</f>
         <v>0</v>
       </c>
     </row>
@@ -13145,15 +13421,15 @@
         <v>26</v>
       </c>
       <c r="C46" s="2">
-        <f>Data!C113</f>
+        <f>Data!C119</f>
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <f>Data!D113</f>
+        <f>Data!D119</f>
         <v>0</v>
       </c>
       <c r="L46" s="2">
-        <f>Data!E113</f>
+        <f>Data!E119</f>
         <v>0</v>
       </c>
     </row>
@@ -13165,19 +13441,19 @@
         <v>27</v>
       </c>
       <c r="C47" s="2">
-        <f>Data!C114</f>
+        <f>Data!C120</f>
         <v>0</v>
       </c>
       <c r="E47" s="11"/>
       <c r="G47" s="2">
-        <f>Data!D114</f>
+        <f>Data!D120</f>
         <v>0</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="16"/>
       <c r="K47"/>
       <c r="L47" s="2">
-        <f>Data!E114</f>
+        <f>Data!E120</f>
         <v>0</v>
       </c>
       <c r="M47"/>
@@ -13204,13 +13480,1443 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F83"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="21" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="7" customFormat="1">
+      <c r="A1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="21">
+        <v>43894</v>
+      </c>
+      <c r="C2" s="2">
+        <v>16659</v>
+      </c>
+      <c r="D2" s="2">
+        <v>85</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="21">
+        <v>43895</v>
+      </c>
+      <c r="C3" s="2">
+        <v>19083</v>
+      </c>
+      <c r="D3" s="2">
+        <v>115</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="21">
+        <v>43896</v>
+      </c>
+      <c r="C4" s="2">
+        <v>20338</v>
+      </c>
+      <c r="D4" s="2">
+        <v>163</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="21">
+        <v>43897</v>
+      </c>
+      <c r="C5" s="2">
+        <v>21460</v>
+      </c>
+      <c r="D5" s="2">
+        <v>206</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="21">
+        <v>43898</v>
+      </c>
+      <c r="C6" s="2">
+        <v>23513</v>
+      </c>
+      <c r="D6" s="2">
+        <v>273</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="21">
+        <v>43899</v>
+      </c>
+      <c r="C7" s="2">
+        <v>24960</v>
+      </c>
+      <c r="D7" s="2">
+        <v>321</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="21">
+        <v>43900</v>
+      </c>
+      <c r="C8" s="2">
+        <v>26261</v>
+      </c>
+      <c r="D8" s="2">
+        <v>383</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="21">
+        <v>43901</v>
+      </c>
+      <c r="C9" s="2">
+        <v>27476</v>
+      </c>
+      <c r="D9" s="2">
+        <v>460</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="21">
+        <v>43902</v>
+      </c>
+      <c r="C10" s="2">
+        <v>28764</v>
+      </c>
+      <c r="D10" s="2">
+        <v>590</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="21">
+        <v>43903</v>
+      </c>
+      <c r="C11" s="2">
+        <v>32771</v>
+      </c>
+      <c r="D11" s="2">
+        <v>798</v>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="21">
+        <v>43904</v>
+      </c>
+      <c r="C12" s="2">
+        <v>37746</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1140</v>
+      </c>
+      <c r="E12">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="21">
+        <v>43905</v>
+      </c>
+      <c r="C13" s="2">
+        <v>40279</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1391</v>
+      </c>
+      <c r="E13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="21">
+        <v>43906</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44105</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1543</v>
+      </c>
+      <c r="E14">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="21">
+        <v>43907</v>
+      </c>
+      <c r="C15" s="2">
+        <v>50442</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1950</v>
+      </c>
+      <c r="E15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="21">
+        <v>43908</v>
+      </c>
+      <c r="C16" s="2">
+        <v>56221</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2626</v>
+      </c>
+      <c r="E16">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="21">
+        <v>43909</v>
+      </c>
+      <c r="C17" s="2">
+        <v>64621</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3269</v>
+      </c>
+      <c r="E17">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="21">
+        <v>43910</v>
+      </c>
+      <c r="C18" s="2">
+        <v>66976</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3983</v>
+      </c>
+      <c r="E18">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="21">
+        <v>43911</v>
+      </c>
+      <c r="C19" s="2">
+        <v>72818</v>
+      </c>
+      <c r="D19" s="2">
+        <v>5018</v>
+      </c>
+      <c r="E19">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="2" customFormat="1">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="21">
+        <v>43912</v>
+      </c>
+      <c r="C20" s="2">
+        <v>78340</v>
+      </c>
+      <c r="D20" s="2">
+        <v>5683</v>
+      </c>
+      <c r="E20">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="2" customFormat="1">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="21">
+        <v>43913</v>
+      </c>
+      <c r="C21" s="2">
+        <v>83945</v>
+      </c>
+      <c r="D21" s="2">
+        <v>6650</v>
+      </c>
+      <c r="E21">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="2" customFormat="1">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="21">
+        <v>43914</v>
+      </c>
+      <c r="C22" s="2">
+        <v>90436</v>
+      </c>
+      <c r="D22" s="3">
+        <v>8077</v>
+      </c>
+      <c r="E22">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="2" customFormat="1">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="21">
+        <v>43915</v>
+      </c>
+      <c r="C23" s="2">
+        <v>97019</v>
+      </c>
+      <c r="D23" s="2">
+        <v>9529</v>
+      </c>
+      <c r="E23">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="2" customFormat="1">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="21">
+        <v>43916</v>
+      </c>
+      <c r="C24" s="2">
+        <v>104866</v>
+      </c>
+      <c r="D24" s="2">
+        <v>11658</v>
+      </c>
+      <c r="E24">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="2" customFormat="1">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="21">
+        <v>43917</v>
+      </c>
+      <c r="C25" s="2">
+        <v>113777</v>
+      </c>
+      <c r="D25" s="2">
+        <v>14543</v>
+      </c>
+      <c r="E25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1">
+      <c r="A26" t="s">
+        <v>23</v>
+      </c>
+      <c r="B26" s="21">
+        <v>43918</v>
+      </c>
+      <c r="C26" s="2">
+        <v>120766</v>
+      </c>
+      <c r="D26" s="2">
+        <v>17089</v>
+      </c>
+      <c r="E26">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1">
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="21">
+        <v>43919</v>
+      </c>
+      <c r="C27" s="2">
+        <v>127737</v>
+      </c>
+      <c r="D27" s="2">
+        <v>19522</v>
+      </c>
+      <c r="E27">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="21">
+        <v>43898</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4509</v>
+      </c>
+      <c r="D28" s="2">
+        <v>99</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" s="21">
+        <v>43899</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4734</v>
+      </c>
+      <c r="D29" s="2">
+        <v>131</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="21">
+        <v>43900</v>
+      </c>
+      <c r="C30" s="2">
+        <v>5026</v>
+      </c>
+      <c r="D30" s="2">
+        <v>182</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="21">
+        <v>43901</v>
+      </c>
+      <c r="C31" s="2">
+        <v>5362</v>
+      </c>
+      <c r="D31" s="2">
+        <v>246</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B32" s="21">
+        <v>43902</v>
+      </c>
+      <c r="C32" s="2">
+        <v>5869</v>
+      </c>
+      <c r="D32" s="2">
+        <v>361</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B33" s="21">
+        <v>43903</v>
+      </c>
+      <c r="C33" s="2">
+        <v>6582</v>
+      </c>
+      <c r="D33" s="2">
+        <v>504</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="2" customFormat="1">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34" s="21">
+        <v>43904</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7467</v>
+      </c>
+      <c r="D34" s="2">
+        <v>655</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="2" customFormat="1">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="21">
+        <v>43905</v>
+      </c>
+      <c r="C35" s="2">
+        <v>8167</v>
+      </c>
+      <c r="D35" s="2">
+        <v>860</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="2" customFormat="1">
+      <c r="A36" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="21">
+        <v>43906</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8490</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1016</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1">
+      <c r="A37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="21">
+        <v>43907</v>
+      </c>
+      <c r="C37" s="2">
+        <v>10278</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1332</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="2" customFormat="1">
+      <c r="A38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B38" s="21">
+        <v>43908</v>
+      </c>
+      <c r="C38" s="2">
+        <v>11977</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1646</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="2" customFormat="1">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="21">
+        <v>43909</v>
+      </c>
+      <c r="C39" s="2">
+        <v>13724</v>
+      </c>
+      <c r="D39" s="2">
+        <v>2013</v>
+      </c>
+      <c r="E39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="2" customFormat="1">
+      <c r="A40" t="s">
+        <v>24</v>
+      </c>
+      <c r="B40" s="21">
+        <v>43910</v>
+      </c>
+      <c r="C40" s="2">
+        <v>15613</v>
+      </c>
+      <c r="D40" s="2">
+        <v>2388</v>
+      </c>
+      <c r="E40">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="2" customFormat="1">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" s="21">
+        <v>43911</v>
+      </c>
+      <c r="C41" s="2">
+        <v>18545</v>
+      </c>
+      <c r="D41" s="2">
+        <v>2814</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="2" customFormat="1">
+      <c r="A42" t="s">
+        <v>24</v>
+      </c>
+      <c r="B42" s="21">
+        <v>43912</v>
+      </c>
+      <c r="C42" s="2">
+        <v>21368</v>
+      </c>
+      <c r="D42" s="2">
+        <v>3244</v>
+      </c>
+      <c r="E42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="2" customFormat="1">
+      <c r="A43" t="s">
+        <v>24</v>
+      </c>
+      <c r="B43" s="21">
+        <v>43913</v>
+      </c>
+      <c r="C43" s="2">
+        <v>23429</v>
+      </c>
+      <c r="D43" s="2">
+        <v>3924</v>
+      </c>
+      <c r="E43">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="2" customFormat="1">
+      <c r="A44" t="s">
+        <v>24</v>
+      </c>
+      <c r="B44" s="21">
+        <v>43914</v>
+      </c>
+      <c r="C44" s="2">
+        <v>28391</v>
+      </c>
+      <c r="D44" s="3">
+        <v>4876</v>
+      </c>
+      <c r="E44">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="2" customFormat="1">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="B45" s="21">
+        <v>43915</v>
+      </c>
+      <c r="C45" s="2">
+        <v>32407</v>
+      </c>
+      <c r="D45" s="2">
+        <v>5560</v>
+      </c>
+      <c r="E45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="2" customFormat="1">
+      <c r="A46" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="21">
+        <v>43916</v>
+      </c>
+      <c r="C46" s="2">
+        <v>35995</v>
+      </c>
+      <c r="D46" s="2">
+        <v>6398</v>
+      </c>
+      <c r="E46">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" s="2" customFormat="1">
+      <c r="A47" t="s">
+        <v>24</v>
+      </c>
+      <c r="B47" s="21">
+        <v>43917</v>
+      </c>
+      <c r="C47" s="2">
+        <v>39552</v>
+      </c>
+      <c r="D47" s="2">
+        <v>7399</v>
+      </c>
+      <c r="E47">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="2" customFormat="1">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" s="21">
+        <v>43918</v>
+      </c>
+      <c r="C48" s="2">
+        <v>42750</v>
+      </c>
+      <c r="D48" s="2">
+        <v>7995</v>
+      </c>
+      <c r="E48">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="2" customFormat="1">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" s="21">
+        <v>43919</v>
+      </c>
+      <c r="C49" s="2">
+        <v>46441</v>
+      </c>
+      <c r="D49" s="2">
+        <v>8636</v>
+      </c>
+      <c r="E49">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="2" customFormat="1">
+      <c r="A50" t="s">
+        <v>25</v>
+      </c>
+      <c r="B50" s="21">
+        <v>43885</v>
+      </c>
+      <c r="C50" s="2">
+        <v>4324</v>
+      </c>
+      <c r="D50" s="2">
+        <v>229</v>
+      </c>
+      <c r="E50" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" s="2" customFormat="1">
+      <c r="A51" t="s">
+        <v>25</v>
+      </c>
+      <c r="B51" s="21">
+        <v>43886</v>
+      </c>
+      <c r="C51" s="2">
+        <v>8623</v>
+      </c>
+      <c r="D51" s="2">
+        <v>322</v>
+      </c>
+      <c r="E51" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" s="2" customFormat="1">
+      <c r="A52" t="s">
+        <v>25</v>
+      </c>
+      <c r="B52" s="21">
+        <v>43887</v>
+      </c>
+      <c r="C52" s="2">
+        <v>9587</v>
+      </c>
+      <c r="D52" s="2">
+        <v>400</v>
+      </c>
+      <c r="E52" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="2" customFormat="1">
+      <c r="A53" t="s">
+        <v>25</v>
+      </c>
+      <c r="B53" s="21">
+        <v>43888</v>
+      </c>
+      <c r="C53" s="2">
+        <v>12014</v>
+      </c>
+      <c r="D53" s="2">
+        <v>650</v>
+      </c>
+      <c r="E53" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="2" customFormat="1">
+      <c r="A54" t="s">
+        <v>25</v>
+      </c>
+      <c r="B54" s="21">
+        <v>43889</v>
+      </c>
+      <c r="C54" s="2">
+        <v>15695</v>
+      </c>
+      <c r="D54" s="2">
+        <v>888</v>
+      </c>
+      <c r="E54" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="2" customFormat="1">
+      <c r="A55" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="21">
+        <v>43890</v>
+      </c>
+      <c r="C55" s="2">
+        <v>18661</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1128</v>
+      </c>
+      <c r="E55" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="2" customFormat="1">
+      <c r="A56" t="s">
+        <v>25</v>
+      </c>
+      <c r="B56" s="21">
+        <v>43891</v>
+      </c>
+      <c r="C56" s="2">
+        <v>21127</v>
+      </c>
+      <c r="D56" s="2">
+        <v>1694</v>
+      </c>
+      <c r="E56" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="2" customFormat="1">
+      <c r="A57" t="s">
+        <v>25</v>
+      </c>
+      <c r="B57" s="21">
+        <v>43892</v>
+      </c>
+      <c r="C57" s="2">
+        <v>23345</v>
+      </c>
+      <c r="D57" s="2">
+        <v>2036</v>
+      </c>
+      <c r="E57" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="2" customFormat="1">
+      <c r="A58" t="s">
+        <v>25</v>
+      </c>
+      <c r="B58" s="21">
+        <v>43893</v>
+      </c>
+      <c r="C58" s="2">
+        <v>25856</v>
+      </c>
+      <c r="D58" s="2">
+        <v>2502</v>
+      </c>
+      <c r="E58" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="2" customFormat="1">
+      <c r="A59" t="s">
+        <v>25</v>
+      </c>
+      <c r="B59" s="21">
+        <v>43894</v>
+      </c>
+      <c r="C59" s="2">
+        <v>29837</v>
+      </c>
+      <c r="D59" s="2">
+        <v>3089</v>
+      </c>
+      <c r="E59" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="2" customFormat="1">
+      <c r="A60" t="s">
+        <v>25</v>
+      </c>
+      <c r="B60" s="21">
+        <v>43895</v>
+      </c>
+      <c r="C60" s="2">
+        <v>32362</v>
+      </c>
+      <c r="D60" s="2">
+        <v>3858</v>
+      </c>
+      <c r="E60" s="2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="2" customFormat="1">
+      <c r="A61" t="s">
+        <v>25</v>
+      </c>
+      <c r="B61" s="21">
+        <v>43896</v>
+      </c>
+      <c r="C61" s="2">
+        <v>36359</v>
+      </c>
+      <c r="D61" s="2">
+        <v>4636</v>
+      </c>
+      <c r="E61" s="2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" s="2" customFormat="1">
+      <c r="A62" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="21">
+        <v>43897</v>
+      </c>
+      <c r="C62" s="2">
+        <v>42062</v>
+      </c>
+      <c r="D62" s="2">
+        <v>5883</v>
+      </c>
+      <c r="E62" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" s="2" customFormat="1">
+      <c r="A63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="21">
+        <v>43898</v>
+      </c>
+      <c r="C63" s="2">
+        <v>49937</v>
+      </c>
+      <c r="D63" s="2">
+        <v>7375</v>
+      </c>
+      <c r="E63" s="2">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" s="2" customFormat="1">
+      <c r="A64" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="21">
+        <v>43899</v>
+      </c>
+      <c r="C64" s="2">
+        <v>53826</v>
+      </c>
+      <c r="D64" s="2">
+        <v>9172</v>
+      </c>
+      <c r="E64" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" s="2" customFormat="1">
+      <c r="A65" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="21">
+        <v>43900</v>
+      </c>
+      <c r="C65" s="2">
+        <v>60761</v>
+      </c>
+      <c r="D65" s="2">
+        <v>10149</v>
+      </c>
+      <c r="E65" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" s="2" customFormat="1">
+      <c r="A66" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="21">
+        <v>43901</v>
+      </c>
+      <c r="C66" s="2">
+        <v>73154</v>
+      </c>
+      <c r="D66" s="2">
+        <v>12462</v>
+      </c>
+      <c r="E66" s="2">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="2" customFormat="1">
+      <c r="A67" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="21">
+        <v>43902</v>
+      </c>
+      <c r="C67" s="2">
+        <v>86011</v>
+      </c>
+      <c r="D67" s="2">
+        <v>15113</v>
+      </c>
+      <c r="E67" s="2">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="2" customFormat="1">
+      <c r="A68" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="21">
+        <v>43903</v>
+      </c>
+      <c r="C68" s="2">
+        <v>97488</v>
+      </c>
+      <c r="D68" s="2">
+        <v>17660</v>
+      </c>
+      <c r="E68" s="2">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="2" customFormat="1">
+      <c r="A69" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="21">
+        <v>43904</v>
+      </c>
+      <c r="C69" s="2">
+        <v>109170</v>
+      </c>
+      <c r="D69" s="2">
+        <v>21157</v>
+      </c>
+      <c r="E69" s="2">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="2" customFormat="1">
+      <c r="A70" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="21">
+        <v>43905</v>
+      </c>
+      <c r="C70" s="2">
+        <v>124899</v>
+      </c>
+      <c r="D70" s="2">
+        <v>24747</v>
+      </c>
+      <c r="E70" s="2">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" s="2" customFormat="1">
+      <c r="A71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="21">
+        <v>43906</v>
+      </c>
+      <c r="C71" s="2">
+        <v>137962</v>
+      </c>
+      <c r="D71" s="2">
+        <v>27980</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" s="2" customFormat="1">
+      <c r="A72" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="21">
+        <v>43907</v>
+      </c>
+      <c r="C72" s="2">
+        <v>148657</v>
+      </c>
+      <c r="D72" s="2">
+        <v>31506</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2503</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" s="2" customFormat="1">
+      <c r="A73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="21">
+        <v>43908</v>
+      </c>
+      <c r="C73" s="2">
+        <v>165541</v>
+      </c>
+      <c r="D73" s="2">
+        <v>35713</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2978</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" s="2" customFormat="1">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="21">
+        <v>43909</v>
+      </c>
+      <c r="C74" s="2">
+        <v>182777</v>
+      </c>
+      <c r="D74" s="2">
+        <v>41035</v>
+      </c>
+      <c r="E74" s="2">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" s="2" customFormat="1">
+      <c r="A75" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="21">
+        <v>43910</v>
+      </c>
+      <c r="C75" s="2">
+        <v>206886</v>
+      </c>
+      <c r="D75" s="2">
+        <v>47021</v>
+      </c>
+      <c r="E75" s="2">
+        <v>4032</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" s="2" customFormat="1">
+      <c r="A76" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="21">
+        <v>43911</v>
+      </c>
+      <c r="C76" s="2">
+        <v>233222</v>
+      </c>
+      <c r="D76" s="2">
+        <v>53578</v>
+      </c>
+      <c r="E76" s="2">
+        <v>4825</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" s="2" customFormat="1">
+      <c r="A77" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="21">
+        <v>43912</v>
+      </c>
+      <c r="C77" s="2">
+        <v>258402</v>
+      </c>
+      <c r="D77" s="2">
+        <v>59138</v>
+      </c>
+      <c r="E77" s="2">
+        <v>5476</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" s="2" customFormat="1">
+      <c r="A78" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="21">
+        <v>43913</v>
+      </c>
+      <c r="C78" s="2">
+        <v>275468</v>
+      </c>
+      <c r="D78" s="2">
+        <v>63927</v>
+      </c>
+      <c r="E78" s="2">
+        <v>6077</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="2" customFormat="1">
+      <c r="A79" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="21">
+        <v>43914</v>
+      </c>
+      <c r="C79" s="2">
+        <v>296964</v>
+      </c>
+      <c r="D79" s="2">
+        <v>69176</v>
+      </c>
+      <c r="E79" s="2">
+        <v>6820</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" s="2" customFormat="1">
+      <c r="A80" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="21">
+        <v>43915</v>
+      </c>
+      <c r="C80" s="2">
+        <v>324445</v>
+      </c>
+      <c r="D80" s="2">
+        <v>74386</v>
+      </c>
+      <c r="E80" s="2">
+        <v>7503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" s="2" customFormat="1">
+      <c r="A81" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="21">
+        <v>43916</v>
+      </c>
+      <c r="C81" s="2">
+        <v>361060</v>
+      </c>
+      <c r="D81" s="2">
+        <v>80539</v>
+      </c>
+      <c r="E81" s="2">
+        <v>8165</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" s="2" customFormat="1">
+      <c r="A82" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="21">
+        <v>43917</v>
+      </c>
+      <c r="C82" s="2">
+        <v>394079</v>
+      </c>
+      <c r="D82" s="2">
+        <v>86498</v>
+      </c>
+      <c r="E82" s="2">
+        <v>9134</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" s="2" customFormat="1">
+      <c r="A83" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="21">
+        <v>43918</v>
+      </c>
+      <c r="C83" s="2">
+        <v>429526</v>
+      </c>
+      <c r="D83" s="2">
+        <v>92472</v>
+      </c>
+      <c r="E83" s="2">
+        <v>10023</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -13220,7 +14926,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,16 +4,15 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
     <sheet name="Austria" sheetId="1" r:id="rId2"/>
     <sheet name="UK" sheetId="4" r:id="rId3"/>
     <sheet name="Italy" sheetId="5" r:id="rId4"/>
-    <sheet name="Data (2)" sheetId="8" r:id="rId5"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -179,66 +178,8 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>David Goddard</author>
-  </authors>
-  <commentList>
-    <comment ref="C15" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Goddard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://fullfact.org/health/coronavirus-testing-numbers-UK/</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C18" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>David Goddard:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-https://ourworldindata.org/covid-testing</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -519,7 +460,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -703,8 +643,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="64830464"/>
-        <c:axId val="64828928"/>
+        <c:axId val="67718528"/>
+        <c:axId val="67716992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -858,11 +798,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="64817408"/>
-        <c:axId val="64827392"/>
+        <c:axId val="67701376"/>
+        <c:axId val="67715456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64817408"/>
+        <c:axId val="67701376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -880,13 +820,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64827392"/>
+        <c:crossAx val="67715456"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64827392"/>
+        <c:axId val="67715456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -900,24 +840,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64817408"/>
+        <c:crossAx val="67701376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="64828928"/>
+        <c:axId val="67716992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64830464"/>
+        <c:crossAx val="67718528"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="64830464"/>
+        <c:axId val="67718528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -925,7 +865,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="64828928"/>
+        <c:crossAx val="67716992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -933,14 +873,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -987,94 +926,109 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>UK!$A$4:$A$33</c:f>
+              <c:f>UK!$A$4:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04-Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>05-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>06-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>07-Mar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>08-Mar</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>09-Mar</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>10-Mar</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>11-Mar</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>12-Mar</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>13-Mar</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>14-Mar</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>15-Mar</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>16-Mar</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>17-Mar</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>18-Mar</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>19-Mar</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>20-Mar</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>21-Mar</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>22-Mar</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>23-Mar</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>24-Mar</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>25-Mar</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>26-Mar</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>27-Mar</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>28-Mar</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>29-Mar</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>30-Mar</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>31-Mar</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>01-Apr</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>02-Apr</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>03-Apr</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>04-Apr</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>05-Apr</c:v>
                 </c:pt>
               </c:strCache>
@@ -1082,75 +1036,93 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$M$4:$M$33</c:f>
+              <c:f>UK!$M$4:$M$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>181</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>260</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>180</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1158,25 +1130,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178798592"/>
-        <c:axId val="178800128"/>
+        <c:axId val="71856512"/>
+        <c:axId val="71858048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178798592"/>
+        <c:axId val="71856512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178800128"/>
+        <c:crossAx val="71858048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178800128"/>
+        <c:axId val="71858048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1190,7 +1162,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178798592"/>
+        <c:crossAx val="71856512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1199,7 +1171,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1230,7 +1202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1486,8 +1457,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178864512"/>
-        <c:axId val="178858624"/>
+        <c:axId val="71910144"/>
+        <c:axId val="71908352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1725,11 +1696,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178855296"/>
-        <c:axId val="178857088"/>
+        <c:axId val="71905280"/>
+        <c:axId val="71906816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178855296"/>
+        <c:axId val="71905280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,13 +1708,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178857088"/>
+        <c:crossAx val="71906816"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178857088"/>
+        <c:axId val="71906816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,24 +1728,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178855296"/>
+        <c:crossAx val="71905280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178858624"/>
+        <c:axId val="71908352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178864512"/>
+        <c:crossAx val="71910144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="178864512"/>
+        <c:axId val="71910144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1782,7 +1753,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="178858624"/>
+        <c:crossAx val="71908352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1790,14 +1761,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1824,7 +1794,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2099,25 +2068,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178880896"/>
-        <c:axId val="178882432"/>
+        <c:axId val="71942912"/>
+        <c:axId val="71944448"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178880896"/>
+        <c:axId val="71942912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178882432"/>
+        <c:crossAx val="71944448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178882432"/>
+        <c:axId val="71944448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,7 +2100,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178880896"/>
+        <c:crossAx val="71942912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2140,7 +2109,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2166,7 +2135,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2438,25 +2406,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178906624"/>
-        <c:axId val="178908160"/>
+        <c:axId val="179050368"/>
+        <c:axId val="179051904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178906624"/>
+        <c:axId val="179050368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178908160"/>
+        <c:crossAx val="179051904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178908160"/>
+        <c:axId val="179051904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2438,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178906624"/>
+        <c:crossAx val="179050368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2479,7 +2447,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2510,7 +2478,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2748,8 +2715,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="189065088"/>
-        <c:axId val="189063552"/>
+        <c:axId val="180431104"/>
+        <c:axId val="180429568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2984,11 +2951,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189039744"/>
-        <c:axId val="189041280"/>
+        <c:axId val="179103232"/>
+        <c:axId val="179104768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189039744"/>
+        <c:axId val="179103232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2996,13 +2963,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189041280"/>
+        <c:crossAx val="179104768"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189041280"/>
+        <c:axId val="179104768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3016,24 +2983,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="189039744"/>
+        <c:crossAx val="179103232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189063552"/>
+        <c:axId val="180429568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189065088"/>
+        <c:crossAx val="180431104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="189065088"/>
+        <c:axId val="180431104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3008,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="189063552"/>
+        <c:crossAx val="180429568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3049,14 +3016,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3082,7 +3048,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3357,25 +3322,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="188954496"/>
-        <c:axId val="188956032"/>
+        <c:axId val="180447488"/>
+        <c:axId val="180453376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="188954496"/>
+        <c:axId val="180447488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188956032"/>
+        <c:crossAx val="180453376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="188956032"/>
+        <c:axId val="180453376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3389,7 +3354,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="188954496"/>
+        <c:crossAx val="180447488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3398,7 +3363,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3424,7 +3389,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3615,25 +3579,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="64874752"/>
-        <c:axId val="68816896"/>
+        <c:axId val="64273024"/>
+        <c:axId val="67760512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64874752"/>
+        <c:axId val="64273024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68816896"/>
+        <c:crossAx val="67760512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68816896"/>
+        <c:axId val="67760512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3647,7 +3611,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64874752"/>
+        <c:crossAx val="64273024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3656,7 +3620,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000155" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000155" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3682,7 +3646,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3876,25 +3839,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="64781312"/>
-        <c:axId val="68825856"/>
+        <c:axId val="67767680"/>
+        <c:axId val="67781760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64781312"/>
+        <c:axId val="67767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68825856"/>
+        <c:crossAx val="67781760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68825856"/>
+        <c:axId val="67781760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3908,7 +3871,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64781312"/>
+        <c:crossAx val="67767680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3917,7 +3880,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3948,7 +3911,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4132,8 +4094,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176750976"/>
-        <c:axId val="68872832"/>
+        <c:axId val="69939968"/>
+        <c:axId val="67820544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4281,11 +4243,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="68861312"/>
-        <c:axId val="68871296"/>
+        <c:axId val="67817472"/>
+        <c:axId val="67819008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="68861312"/>
+        <c:axId val="67817472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4303,13 +4265,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="68871296"/>
+        <c:crossAx val="67819008"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68871296"/>
+        <c:axId val="67819008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4323,24 +4285,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="68861312"/>
+        <c:crossAx val="67817472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="68872832"/>
+        <c:axId val="67820544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176750976"/>
+        <c:crossAx val="69939968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="176750976"/>
+        <c:axId val="69939968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,7 +4310,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="68872832"/>
+        <c:crossAx val="67820544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4356,14 +4318,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4389,7 +4350,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4580,25 +4540,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176774144"/>
-        <c:axId val="176784128"/>
+        <c:axId val="69959040"/>
+        <c:axId val="69964928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176774144"/>
+        <c:axId val="69959040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176784128"/>
+        <c:crossAx val="69964928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176784128"/>
+        <c:axId val="69964928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4612,7 +4572,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176774144"/>
+        <c:crossAx val="69959040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4621,7 +4581,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4667,83 +4627,98 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$30</c:f>
+              <c:f>UK!$A$6:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>43923</c:v>
                 </c:pt>
               </c:numCache>
@@ -4751,83 +4726,98 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$G$6:$G$30</c:f>
+              <c:f>UK!$G$6:$G$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>321</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="6">
                   <c:v>383</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="7">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>798</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>1140</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>1391</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>1543</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>1950</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>2626</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>3269</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>3983</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>5018</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>5683</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>6650</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>8077</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>9529</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>11658</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>14543</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>17089</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>19522</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
+                  <c:v>22141</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="28">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4836,8 +4826,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176984832"/>
-        <c:axId val="176983040"/>
+        <c:axId val="62956672"/>
+        <c:axId val="62954880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4864,7 +4854,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$30</c:f>
+              <c:f>UK!$A$11:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="25"/>
@@ -4948,57 +4938,75 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$J$6:$J$30</c:f>
+              <c:f>UK!$J$6:$J$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="5">
+                  <c:v>0.30704061121415749</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.27508165940913643</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23181227582416647</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.23557327875828221</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.241033209645233</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>0.29158266019468354</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>0.29698846442488519</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>0.27863436787357532</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>0.27486700333808545</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>0.27369186209514756</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>0.23694939663981079</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>0.23659739243228989</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>0.26671348792295629</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>0.24046369682741356</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>0.20516168497921133</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>0.19910715795334508</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>0.19137801773734592</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>0.18409178838085136</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>0.20708111464298634</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>0.20806320167054176</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>0.19362036569066285</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1844976896830724</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5006,11 +5014,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="176979968"/>
-        <c:axId val="176981504"/>
+        <c:axId val="62951808"/>
+        <c:axId val="62953344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176979968"/>
+        <c:axId val="62951808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5028,13 +5036,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176981504"/>
+        <c:crossAx val="62953344"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176981504"/>
+        <c:axId val="62953344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,24 +5056,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176979968"/>
+        <c:crossAx val="62951808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176983040"/>
+        <c:axId val="62954880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176984832"/>
+        <c:crossAx val="62956672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="176984832"/>
+        <c:axId val="62956672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5073,7 +5081,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="176983040"/>
+        <c:crossAx val="62954880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5088,7 +5096,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5135,94 +5143,109 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>UK!$A$4:$A$33</c:f>
+              <c:f>UK!$A$4:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04-Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>05-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>06-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>07-Mar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>08-Mar</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>09-Mar</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>10-Mar</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>11-Mar</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>12-Mar</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>13-Mar</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>14-Mar</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>15-Mar</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>16-Mar</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>17-Mar</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>18-Mar</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>19-Mar</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>20-Mar</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>21-Mar</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>22-Mar</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>23-Mar</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>24-Mar</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>25-Mar</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>26-Mar</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>27-Mar</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>28-Mar</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>29-Mar</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>30-Mar</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>31-Mar</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>01-Apr</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>02-Apr</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>03-Apr</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>04-Apr</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>05-Apr</c:v>
                 </c:pt>
               </c:strCache>
@@ -5230,75 +5253,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$D$4:$D$33</c:f>
+              <c:f>UK!$D$4:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>2424</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1122</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2053</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>1447</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>1301</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>1215</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>1288</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>4007</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>4975</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>2533</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>3826</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>6337</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>5779</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>8400</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>2355</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>5842</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>5522</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>5605</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>6491</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>6583</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>7847</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>8911</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>6989</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>6971</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7209</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5306,25 +5344,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176990848"/>
-        <c:axId val="178738304"/>
+        <c:axId val="62961920"/>
+        <c:axId val="71513600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="176990848"/>
+        <c:axId val="62961920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178738304"/>
+        <c:crossAx val="71513600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178738304"/>
+        <c:axId val="71513600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,7 +5376,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176990848"/>
+        <c:crossAx val="62961920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5347,7 +5385,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5393,94 +5431,109 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>UK!$A$4:$A$33</c:f>
+              <c:f>UK!$A$4:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>Date</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>04-Mar</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>05-Mar</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>06-Mar</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>07-Mar</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>08-Mar</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>09-Mar</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="8">
                   <c:v>10-Mar</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>11-Mar</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>12-Mar</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>13-Mar</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>14-Mar</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>15-Mar</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>16-Mar</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>17-Mar</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>18-Mar</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>19-Mar</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>20-Mar</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>21-Mar</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>22-Mar</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>23-Mar</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>24-Mar</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>25-Mar</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>26-Mar</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>27-Mar</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>28-Mar</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>29-Mar</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="28">
                   <c:v>30-Mar</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="29">
                   <c:v>31-Mar</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="30">
                   <c:v>01-Apr</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="31">
                   <c:v>02-Apr</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="32">
                   <c:v>03-Apr</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="33">
                   <c:v>04-Apr</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="34">
                   <c:v>05-Apr</c:v>
                 </c:pt>
               </c:strCache>
@@ -5488,75 +5541,90 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$H$4:$H$33</c:f>
+              <c:f>UK!$H$4:$H$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="9">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="10">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>251</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
                   <c:v>407</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="16">
                   <c:v>676</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="17">
                   <c:v>643</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="18">
                   <c:v>714</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="19">
                   <c:v>1035</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="20">
                   <c:v>665</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="21">
                   <c:v>967</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="22">
                   <c:v>1427</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="23">
                   <c:v>1452</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="24">
                   <c:v>2129</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="25">
                   <c:v>2885</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="26">
                   <c:v>2546</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="27">
                   <c:v>2433</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2619</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5564,25 +5632,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178679808"/>
-        <c:axId val="178681344"/>
+        <c:axId val="71467392"/>
+        <c:axId val="71468928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="178679808"/>
+        <c:axId val="71467392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178681344"/>
+        <c:crossAx val="71468928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178681344"/>
+        <c:axId val="71468928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5596,7 +5664,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178679808"/>
+        <c:crossAx val="71467392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5605,7 +5673,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5651,7 +5719,7 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$30</c:f>
+              <c:f>UK!$A$11:$A$35</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5735,7 +5803,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$L$6:$L$30</c:f>
+              <c:f>UK!$L$11:$L$35</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="25"/>
@@ -5803,7 +5871,7 @@
                   <c:v>1228</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="22">
                   <c:v>0</c:v>
@@ -5820,8 +5888,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178771072"/>
-        <c:axId val="178765184"/>
+        <c:axId val="71828992"/>
+        <c:axId val="71827456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5848,7 +5916,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$24</c:f>
+              <c:f>UK!$A$11:$A$29</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
                 <c:ptCount val="19"/>
@@ -5914,10 +5982,31 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$O$6:$O$30</c:f>
+              <c:f>UK!$O$11:$O$35</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.60666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.45666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.47666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.35848484848484852</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45181818181818184</c:v>
+                </c:pt>
                 <c:pt idx="7">
                   <c:v>0.49943722943722946</c:v>
                 </c:pt>
@@ -5959,6 +6048,9 @@
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>0.24114286262816109</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.2500796766207819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5966,11 +6058,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178762112"/>
-        <c:axId val="178763648"/>
+        <c:axId val="71557888"/>
+        <c:axId val="71559424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178762112"/>
+        <c:axId val="71557888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5988,13 +6080,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="178763648"/>
+        <c:crossAx val="71559424"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178763648"/>
+        <c:axId val="71559424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6008,24 +6100,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178762112"/>
+        <c:crossAx val="71557888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178765184"/>
+        <c:axId val="71827456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178771072"/>
+        <c:crossAx val="71828992"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="178771072"/>
+        <c:axId val="71828992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6033,7 +6125,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="178765184"/>
+        <c:crossAx val="71827456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6048,7 +6140,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6364,7 +6456,7 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6388,13 +6480,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6418,13 +6510,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6448,13 +6540,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6478,13 +6570,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7119,8 +7211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7598,6 +7690,15 @@
       </c>
       <c r="B29" s="21">
         <v>43920</v>
+      </c>
+      <c r="C29" s="2">
+        <v>134946</v>
+      </c>
+      <c r="D29" s="2">
+        <v>22141</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1408</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -10185,10 +10286,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10295,1153 +10396,1421 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" s="8">
+        <v>43894</v>
+      </c>
+      <c r="C6" s="2">
+        <f>Data!C3</f>
+        <v>16659</v>
+      </c>
+      <c r="G6" s="2">
+        <f>Data!D3</f>
+        <v>85</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="L6" s="2">
+        <f>Data!E3</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M14" si="0">L6-L5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="8">
+        <v>43895</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Data!C4</f>
+        <v>19083</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D6:D11" si="1">C7-C6</f>
+        <v>2424</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" ref="E6:E10" si="2">H7/D7</f>
+        <v>1.2376237623762377E-2</v>
+      </c>
+      <c r="G7" s="2">
+        <f>Data!D4</f>
+        <v>115</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H6:H15" si="3">G7-G6</f>
+        <v>30</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I6:I15" si="4">G7/G6-1</f>
+        <v>0.35294117647058831</v>
+      </c>
+      <c r="L7" s="2">
+        <f>Data!E4</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="8">
+        <v>43896</v>
+      </c>
+      <c r="C8" s="2">
+        <f>Data!C5</f>
+        <v>20338</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>1255</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="2"/>
+        <v>3.8247011952191233E-2</v>
+      </c>
+      <c r="G8" s="2">
+        <f>Data!D5</f>
+        <v>163</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="4"/>
+        <v>0.41739130434782612</v>
+      </c>
+      <c r="L8" s="2">
+        <f>Data!E5</f>
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="8">
+        <v>43897</v>
+      </c>
+      <c r="C9" s="2">
+        <f>Data!C6</f>
+        <v>21460</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>1122</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="2"/>
+        <v>3.8324420677361852E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f>Data!D6</f>
+        <v>206</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="4"/>
+        <v>0.26380368098159512</v>
+      </c>
+      <c r="L9" s="2">
+        <f>Data!E6</f>
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <f t="shared" ref="N6:N14" si="5">L9/L8-1</f>
+        <v>1</v>
+      </c>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="8">
+        <v>43898</v>
+      </c>
+      <c r="C10" s="2">
+        <f>Data!C7</f>
+        <v>23513</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>2053</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="2"/>
+        <v>3.2635168046760837E-2</v>
+      </c>
+      <c r="G10" s="2">
+        <f>Data!D7</f>
+        <v>273</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32524271844660202</v>
+      </c>
+      <c r="L10" s="2">
+        <f>Data!E7</f>
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="8">
         <v>43899</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C11" s="2">
         <f>Data!C8</f>
         <v>24960</v>
       </c>
-      <c r="D6" s="2">
-        <f>C6-23513</f>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
         <v>1447</v>
       </c>
-      <c r="E6" s="11">
-        <f t="shared" ref="E6:E20" si="0">H6/D6</f>
-        <v>2.9716655148583276E-2</v>
-      </c>
-      <c r="G6" s="2">
+      <c r="E11" s="11">
+        <f t="shared" ref="E11:E25" si="6">H11/D11</f>
+        <v>3.3172080165860401E-2</v>
+      </c>
+      <c r="G11" s="2">
         <f>Data!D8</f>
         <v>321</v>
       </c>
-      <c r="H6" s="3">
-        <v>43</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="H11" s="3">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="4"/>
+        <v>0.17582417582417587</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" ref="J6:J15" si="7">SUM(I7:I11)/5</f>
+        <v>0.30704061121415749</v>
+      </c>
+      <c r="L11" s="2">
         <f>Data!E8</f>
         <v>5</v>
       </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6" s="1"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="8">
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5</v>
+      </c>
+      <c r="O11" s="16">
+        <f t="shared" ref="O11:O17" si="8">SUM(N7:N11)/5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="8">
         <v>43900</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C12" s="2">
         <f>Data!C9</f>
         <v>26261</v>
       </c>
-      <c r="D7" s="2">
-        <f t="shared" ref="D7:D22" si="1">C7-C6</f>
+      <c r="D12" s="2">
+        <f t="shared" ref="D12:D27" si="9">C12-C11</f>
         <v>1301</v>
       </c>
-      <c r="E7" s="11">
-        <f t="shared" si="0"/>
+      <c r="E12" s="11">
+        <f t="shared" si="6"/>
         <v>4.7655649500384319E-2</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G12" s="2">
         <f>Data!D9</f>
         <v>383</v>
       </c>
-      <c r="H7" s="3">
-        <f t="shared" ref="H7:H20" si="2">G7-G6</f>
+      <c r="H12" s="3">
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
-      <c r="I7" s="1">
-        <f t="shared" ref="I7:I22" si="3">G7/G6-1</f>
+      <c r="I12" s="1">
+        <f t="shared" si="4"/>
         <v>0.19314641744548289</v>
       </c>
-      <c r="L7" s="2">
+      <c r="J12" s="16">
+        <f t="shared" si="7"/>
+        <v>0.27508165940913643</v>
+      </c>
+      <c r="L12" s="2">
         <f>Data!E9</f>
         <v>6</v>
       </c>
-      <c r="M7">
-        <f>L7-L6</f>
+      <c r="M12">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="N7" s="1">
-        <f t="shared" ref="N7:N9" si="4">L7/L6-1</f>
+      <c r="N12" s="1">
+        <f t="shared" si="5"/>
         <v>0.19999999999999996</v>
       </c>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="8">
+      <c r="O12" s="16">
+        <f t="shared" si="8"/>
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="8">
         <v>43901</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C13" s="2">
         <f>Data!C10</f>
         <v>27476</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="1"/>
+      <c r="D13" s="2">
+        <f t="shared" si="9"/>
         <v>1215</v>
       </c>
-      <c r="E8" s="11">
-        <f t="shared" si="0"/>
+      <c r="E13" s="11">
+        <f t="shared" si="6"/>
         <v>6.3374485596707816E-2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G13" s="2">
         <f>Data!D10</f>
         <v>460</v>
       </c>
-      <c r="H8" s="3">
-        <f t="shared" si="2"/>
+      <c r="H13" s="3">
+        <f t="shared" si="3"/>
         <v>77</v>
       </c>
-      <c r="I8" s="1">
-        <f t="shared" si="3"/>
+      <c r="I13" s="1">
+        <f t="shared" si="4"/>
         <v>0.20104438642297651</v>
       </c>
-      <c r="L8" s="2">
+      <c r="J13" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23181227582416647</v>
+      </c>
+      <c r="L13" s="2">
         <f>Data!E10</f>
         <v>8</v>
       </c>
-      <c r="M8">
-        <f t="shared" ref="M8:M22" si="5">L8-L7</f>
+      <c r="M13">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="N8" s="1">
-        <f t="shared" si="4"/>
+      <c r="N13" s="1">
+        <f t="shared" si="5"/>
         <v>0.33333333333333326</v>
       </c>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="8">
+      <c r="O13" s="16">
+        <f t="shared" si="8"/>
+        <v>0.60666666666666669</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="8">
         <v>43902</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C14" s="2">
         <f>Data!C11</f>
         <v>28764</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="1"/>
+      <c r="D14" s="2">
+        <f t="shared" si="9"/>
         <v>1288</v>
       </c>
-      <c r="E9" s="11">
-        <f t="shared" si="0"/>
+      <c r="E14" s="11">
+        <f t="shared" si="6"/>
         <v>0.10093167701863354</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G14" s="2">
         <f>Data!D11</f>
         <v>590</v>
       </c>
-      <c r="H9" s="3">
-        <f t="shared" si="2"/>
+      <c r="H14" s="3">
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-      <c r="I9" s="1">
-        <f t="shared" si="3"/>
+      <c r="I14" s="1">
+        <f t="shared" si="4"/>
         <v>0.28260869565217384</v>
       </c>
-      <c r="L9" s="2">
+      <c r="J14" s="16">
+        <f t="shared" si="7"/>
+        <v>0.23557327875828221</v>
+      </c>
+      <c r="L14" s="2">
         <f>Data!E11</f>
         <v>10</v>
       </c>
-      <c r="M9">
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
         <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="N9" s="1">
-        <f t="shared" si="4"/>
         <v>0.25</v>
       </c>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="8">
+      <c r="O14" s="16">
+        <f t="shared" si="8"/>
+        <v>0.45666666666666667</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="8">
         <v>43903</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C15" s="2">
         <f>Data!C12</f>
         <v>32771</v>
       </c>
-      <c r="D10" s="2">
-        <f t="shared" si="1"/>
+      <c r="D15" s="2">
+        <f t="shared" si="9"/>
         <v>4007</v>
       </c>
-      <c r="E10" s="11">
-        <f t="shared" si="0"/>
+      <c r="E15" s="11">
+        <f t="shared" si="6"/>
         <v>5.1909158971799353E-2</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G15" s="2">
         <f>Data!D12</f>
         <v>798</v>
       </c>
-      <c r="H10" s="3">
-        <f t="shared" si="2"/>
+      <c r="H15" s="3">
+        <f t="shared" si="3"/>
         <v>208</v>
       </c>
-      <c r="I10" s="1">
-        <f t="shared" si="3"/>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
         <v>0.35254237288135593</v>
       </c>
-      <c r="L10" s="2">
+      <c r="J15" s="16">
+        <f t="shared" si="7"/>
+        <v>0.241033209645233</v>
+      </c>
+      <c r="L15" s="2">
         <f>Data!E12</f>
         <v>11</v>
       </c>
-      <c r="M10">
-        <f t="shared" si="5"/>
+      <c r="M15">
+        <f t="shared" ref="M13:M27" si="10">L15-L14</f>
         <v>1</v>
       </c>
-      <c r="N10" s="1">
-        <f t="shared" ref="N10:N22" si="6">L10/L9-1</f>
+      <c r="N15" s="1">
+        <f t="shared" ref="N15:N27" si="11">L15/L14-1</f>
         <v>0.10000000000000009</v>
       </c>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="8">
+      <c r="O15" s="16">
+        <f t="shared" si="8"/>
+        <v>0.47666666666666668</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="8">
         <v>43904</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C16" s="2">
         <f>Data!C13</f>
         <v>37746</v>
       </c>
-      <c r="D11" s="2">
-        <f t="shared" si="1"/>
+      <c r="D16" s="2">
+        <f t="shared" si="9"/>
         <v>4975</v>
       </c>
-      <c r="E11" s="11">
-        <f t="shared" si="0"/>
+      <c r="E16" s="11">
+        <f t="shared" si="6"/>
         <v>6.8743718592964825E-2</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G16" s="2">
         <f>Data!D13</f>
         <v>1140</v>
       </c>
-      <c r="H11" s="3">
-        <f t="shared" si="2"/>
+      <c r="H16" s="3">
+        <f t="shared" ref="H12:H25" si="12">G16-G15</f>
         <v>342</v>
       </c>
-      <c r="I11" s="1">
-        <f t="shared" si="3"/>
+      <c r="I16" s="1">
+        <f t="shared" ref="I12:I27" si="13">G16/G15-1</f>
         <v>0.4285714285714286</v>
       </c>
-      <c r="J11" s="16">
-        <f>SUM(I7:I11)/5</f>
+      <c r="J16" s="16">
+        <f>SUM(I12:I16)/5</f>
         <v>0.29158266019468354</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L16" s="2">
         <f>Data!E13</f>
         <v>21</v>
       </c>
-      <c r="M11">
-        <f t="shared" si="5"/>
+      <c r="M16">
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
-      <c r="N11" s="1">
-        <f t="shared" si="6"/>
+      <c r="N16" s="1">
+        <f t="shared" si="11"/>
         <v>0.90909090909090917</v>
       </c>
-      <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="8">
+      <c r="O16" s="16">
+        <f t="shared" si="8"/>
+        <v>0.35848484848484852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8">
         <v>43905</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C17" s="2">
         <f>Data!C14</f>
         <v>40279</v>
       </c>
-      <c r="D12" s="2">
-        <f t="shared" si="1"/>
+      <c r="D17" s="2">
+        <f t="shared" si="9"/>
         <v>2533</v>
       </c>
-      <c r="E12" s="11">
-        <f t="shared" si="0"/>
+      <c r="E17" s="11">
+        <f t="shared" si="6"/>
         <v>9.9091985787603629E-2</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G17" s="2">
         <f>Data!D14</f>
         <v>1391</v>
       </c>
-      <c r="H12" s="3">
-        <f t="shared" si="2"/>
+      <c r="H17" s="3">
+        <f t="shared" si="12"/>
         <v>251</v>
       </c>
-      <c r="I12" s="1">
-        <f t="shared" si="3"/>
+      <c r="I17" s="1">
+        <f t="shared" si="13"/>
         <v>0.22017543859649114</v>
       </c>
-      <c r="J12" s="16">
-        <f t="shared" ref="J12:J26" si="7">SUM(I8:I12)/5</f>
+      <c r="J17" s="16">
+        <f t="shared" ref="J17:J31" si="14">SUM(I13:I17)/5</f>
         <v>0.29698846442488519</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L17" s="2">
         <f>Data!E14</f>
         <v>35</v>
       </c>
-      <c r="M12">
-        <f t="shared" si="5"/>
+      <c r="M17">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="N12" s="1">
-        <f t="shared" si="6"/>
+      <c r="N17" s="1">
+        <f t="shared" si="11"/>
         <v>0.66666666666666674</v>
       </c>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="8">
+      <c r="O17" s="16">
+        <f t="shared" si="8"/>
+        <v>0.45181818181818184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8">
         <v>43906</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C18" s="2">
         <f>Data!C15</f>
         <v>44105</v>
       </c>
-      <c r="D13" s="2">
-        <f t="shared" si="1"/>
+      <c r="D18" s="2">
+        <f t="shared" si="9"/>
         <v>3826</v>
       </c>
-      <c r="E13" s="11">
-        <f t="shared" si="0"/>
+      <c r="E18" s="11">
+        <f t="shared" si="6"/>
         <v>3.9728175640355461E-2</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G18" s="2">
         <f>Data!D15</f>
         <v>1543</v>
       </c>
-      <c r="H13" s="3">
-        <f t="shared" si="2"/>
+      <c r="H18" s="3">
+        <f t="shared" si="12"/>
         <v>152</v>
       </c>
-      <c r="I13" s="1">
-        <f t="shared" si="3"/>
+      <c r="I18" s="1">
+        <f t="shared" si="13"/>
         <v>0.10927390366642697</v>
       </c>
-      <c r="J13" s="16">
-        <f t="shared" si="7"/>
+      <c r="J18" s="16">
+        <f t="shared" si="14"/>
         <v>0.27863436787357532</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L18" s="2">
         <f>Data!E15</f>
         <v>55</v>
       </c>
-      <c r="M13">
-        <f t="shared" si="5"/>
+      <c r="M18">
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
-      <c r="N13" s="1">
-        <f t="shared" si="6"/>
+      <c r="N18" s="1">
+        <f t="shared" si="11"/>
         <v>0.5714285714285714</v>
       </c>
-      <c r="O13" s="16">
-        <f t="shared" ref="O13:O26" si="8">SUM(N9:N13)/5</f>
+      <c r="O18" s="16">
+        <f t="shared" ref="O18:O31" si="15">SUM(N14:N18)/5</f>
         <v>0.49943722943722946</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="8">
+    <row r="19" spans="1:15">
+      <c r="A19" s="8">
         <v>43907</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C19" s="2">
         <f>Data!C16</f>
         <v>50442</v>
       </c>
-      <c r="D14" s="2">
-        <f t="shared" si="1"/>
+      <c r="D19" s="2">
+        <f t="shared" si="9"/>
         <v>6337</v>
       </c>
-      <c r="E14" s="11">
-        <f t="shared" si="0"/>
+      <c r="E19" s="11">
+        <f t="shared" si="6"/>
         <v>6.4225974435852928E-2</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G19" s="2">
         <f>Data!D16</f>
         <v>1950</v>
       </c>
-      <c r="H14" s="3">
-        <f t="shared" si="2"/>
+      <c r="H19" s="3">
+        <f t="shared" si="12"/>
         <v>407</v>
       </c>
-      <c r="I14" s="1">
-        <f t="shared" si="3"/>
+      <c r="I19" s="1">
+        <f t="shared" si="13"/>
         <v>0.26377187297472449</v>
       </c>
-      <c r="J14" s="16">
-        <f t="shared" si="7"/>
+      <c r="J19" s="16">
+        <f t="shared" si="14"/>
         <v>0.27486700333808545</v>
       </c>
-      <c r="L14" s="2">
+      <c r="L19" s="2">
         <f>Data!E16</f>
         <v>71</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="5"/>
+      <c r="M19">
+        <f t="shared" si="10"/>
         <v>16</v>
       </c>
-      <c r="N14" s="1">
-        <f t="shared" si="6"/>
+      <c r="N19" s="1">
+        <f t="shared" si="11"/>
         <v>0.29090909090909101</v>
       </c>
-      <c r="O14" s="16">
-        <f t="shared" si="8"/>
+      <c r="O19" s="16">
+        <f t="shared" si="15"/>
         <v>0.50761904761904764</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="8">
+    <row r="20" spans="1:15">
+      <c r="A20" s="8">
         <v>43908</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C20" s="2">
         <f>Data!C17</f>
         <v>56221</v>
       </c>
-      <c r="D15" s="2">
-        <f t="shared" si="1"/>
+      <c r="D20" s="2">
+        <f t="shared" si="9"/>
         <v>5779</v>
       </c>
-      <c r="E15" s="11">
-        <f t="shared" si="0"/>
+      <c r="E20" s="11">
+        <f t="shared" si="6"/>
         <v>0.11697525523446964</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G20" s="2">
         <f>Data!D17</f>
         <v>2626</v>
       </c>
-      <c r="H15" s="3">
-        <f t="shared" si="2"/>
+      <c r="H20" s="3">
+        <f t="shared" si="12"/>
         <v>676</v>
       </c>
-      <c r="I15" s="1">
-        <f t="shared" si="3"/>
+      <c r="I20" s="1">
+        <f t="shared" si="13"/>
         <v>0.34666666666666668</v>
       </c>
-      <c r="J15" s="16">
-        <f t="shared" si="7"/>
+      <c r="J20" s="16">
+        <f t="shared" si="14"/>
         <v>0.27369186209514756</v>
       </c>
-      <c r="L15" s="2">
+      <c r="L20" s="2">
         <f>Data!E17</f>
         <v>104</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="5"/>
+      <c r="M20">
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="N15" s="1">
-        <f t="shared" si="6"/>
+      <c r="N20" s="1">
+        <f t="shared" si="11"/>
         <v>0.46478873239436624</v>
       </c>
-      <c r="O15" s="16">
-        <f t="shared" si="8"/>
+      <c r="O20" s="16">
+        <f t="shared" si="15"/>
         <v>0.58057679409792085</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="8">
+    <row r="21" spans="1:15">
+      <c r="A21" s="8">
         <v>43909</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C21" s="2">
         <f>Data!C18</f>
         <v>64621</v>
       </c>
-      <c r="D16" s="2">
-        <f t="shared" si="1"/>
+      <c r="D21" s="2">
+        <f t="shared" si="9"/>
         <v>8400</v>
       </c>
-      <c r="E16" s="11">
-        <f t="shared" si="0"/>
+      <c r="E21" s="11">
+        <f t="shared" si="6"/>
         <v>7.6547619047619045E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G21" s="2">
         <f>Data!D18</f>
         <v>3269</v>
       </c>
-      <c r="H16" s="3">
-        <f t="shared" si="2"/>
+      <c r="H21" s="3">
+        <f t="shared" si="12"/>
         <v>643</v>
       </c>
-      <c r="I16" s="1">
-        <f t="shared" si="3"/>
+      <c r="I21" s="1">
+        <f t="shared" si="13"/>
         <v>0.24485910129474475</v>
       </c>
-      <c r="J16" s="16">
-        <f t="shared" si="7"/>
+      <c r="J21" s="16">
+        <f t="shared" si="14"/>
         <v>0.23694939663981079</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L21" s="2">
         <f>Data!E18</f>
         <v>144</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="5"/>
+      <c r="M21">
+        <f t="shared" si="10"/>
         <v>40</v>
       </c>
-      <c r="N16" s="1">
-        <f t="shared" si="6"/>
+      <c r="N21" s="1">
+        <f t="shared" si="11"/>
         <v>0.38461538461538458</v>
       </c>
-      <c r="O16" s="16">
-        <f t="shared" si="8"/>
+      <c r="O21" s="16">
+        <f t="shared" si="15"/>
         <v>0.47568168920281606</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="8">
+    <row r="22" spans="1:15">
+      <c r="A22" s="8">
         <v>43910</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C22" s="2">
         <f>Data!C19</f>
         <v>66976</v>
       </c>
-      <c r="D17" s="2">
-        <f t="shared" si="1"/>
+      <c r="D22" s="2">
+        <f t="shared" si="9"/>
         <v>2355</v>
       </c>
-      <c r="E17" s="11">
-        <f t="shared" si="0"/>
+      <c r="E22" s="11">
+        <f t="shared" si="6"/>
         <v>0.30318471337579617</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G22" s="2">
         <f>Data!D19</f>
         <v>3983</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
+      <c r="H22" s="3">
+        <f t="shared" si="12"/>
         <v>714</v>
       </c>
-      <c r="I17" s="1">
-        <f t="shared" si="3"/>
+      <c r="I22" s="1">
+        <f t="shared" si="13"/>
         <v>0.2184154175588866</v>
       </c>
-      <c r="J17" s="16">
-        <f t="shared" si="7"/>
+      <c r="J22" s="16">
+        <f t="shared" si="14"/>
         <v>0.23659739243228989</v>
       </c>
-      <c r="L17" s="2">
+      <c r="L22" s="2">
         <f>Data!E19</f>
         <v>177</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="5"/>
+      <c r="M22">
+        <f t="shared" si="10"/>
         <v>33</v>
       </c>
-      <c r="N17" s="1">
-        <f t="shared" si="6"/>
+      <c r="N22" s="1">
+        <f t="shared" si="11"/>
         <v>0.22916666666666674</v>
       </c>
-      <c r="O17" s="16">
-        <f t="shared" si="8"/>
+      <c r="O22" s="16">
+        <f t="shared" si="15"/>
         <v>0.38818168920281598</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="8">
+    <row r="23" spans="1:15">
+      <c r="A23" s="8">
         <v>43911</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C23" s="2">
         <f>Data!C20</f>
         <v>72818</v>
       </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
+      <c r="D23" s="2">
+        <f t="shared" si="9"/>
         <v>5842</v>
       </c>
-      <c r="E18" s="11">
-        <f t="shared" si="0"/>
+      <c r="E23" s="11">
+        <f t="shared" si="6"/>
         <v>0.17716535433070865</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G23" s="2">
         <f>Data!D20</f>
         <v>5018</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
+      <c r="H23" s="3">
+        <f t="shared" si="12"/>
         <v>1035</v>
       </c>
-      <c r="I18" s="1">
-        <f t="shared" si="3"/>
+      <c r="I23" s="1">
+        <f t="shared" si="13"/>
         <v>0.25985438111975889</v>
       </c>
-      <c r="J18" s="16">
-        <f t="shared" si="7"/>
+      <c r="J23" s="16">
+        <f t="shared" si="14"/>
         <v>0.26671348792295629</v>
       </c>
-      <c r="L18" s="2">
+      <c r="L23" s="2">
         <f>Data!E20</f>
         <v>233</v>
       </c>
-      <c r="M18">
-        <f t="shared" si="5"/>
+      <c r="M23">
+        <f t="shared" si="10"/>
         <v>56</v>
       </c>
-      <c r="N18" s="1">
-        <f t="shared" si="6"/>
+      <c r="N23" s="1">
+        <f t="shared" si="11"/>
         <v>0.31638418079096042</v>
       </c>
-      <c r="O18" s="16">
-        <f t="shared" si="8"/>
+      <c r="O23" s="16">
+        <f t="shared" si="15"/>
         <v>0.33717281107529379</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="8">
+    <row r="24" spans="1:15">
+      <c r="A24" s="8">
         <v>43912</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C24" s="2">
         <f>Data!C21</f>
         <v>78340</v>
       </c>
-      <c r="D19" s="2">
-        <f t="shared" si="1"/>
+      <c r="D24" s="2">
+        <f t="shared" si="9"/>
         <v>5522</v>
       </c>
-      <c r="E19" s="11">
-        <f t="shared" si="0"/>
+      <c r="E24" s="11">
+        <f t="shared" si="6"/>
         <v>0.12042738138355669</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G24" s="2">
         <f>Data!D21</f>
         <v>5683</v>
       </c>
-      <c r="H19" s="3">
-        <f t="shared" si="2"/>
+      <c r="H24" s="3">
+        <f t="shared" si="12"/>
         <v>665</v>
       </c>
-      <c r="I19" s="1">
-        <f t="shared" si="3"/>
+      <c r="I24" s="1">
+        <f t="shared" si="13"/>
         <v>0.13252291749701084</v>
       </c>
-      <c r="J19" s="16">
-        <f t="shared" si="7"/>
+      <c r="J24" s="16">
+        <f t="shared" si="14"/>
         <v>0.24046369682741356</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L24" s="2">
         <f>Data!E21</f>
         <v>281</v>
       </c>
-      <c r="M19">
-        <f t="shared" si="5"/>
+      <c r="M24">
+        <f t="shared" si="10"/>
         <v>48</v>
       </c>
-      <c r="N19" s="1">
-        <f t="shared" si="6"/>
+      <c r="N24" s="1">
+        <f t="shared" si="11"/>
         <v>0.20600858369098707</v>
       </c>
-      <c r="O19" s="16">
-        <f t="shared" si="8"/>
+      <c r="O24" s="16">
+        <f t="shared" si="15"/>
         <v>0.32019270963167301</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="8">
+    <row r="25" spans="1:15">
+      <c r="A25" s="8">
         <v>43913</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B25" s="13">
         <v>0</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C25" s="2">
         <f>Data!C22</f>
         <v>83945</v>
       </c>
-      <c r="D20" s="2">
-        <f t="shared" si="1"/>
+      <c r="D25" s="2">
+        <f t="shared" si="9"/>
         <v>5605</v>
       </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
+      <c r="E25" s="11">
+        <f t="shared" si="6"/>
         <v>0.17252453166815343</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G25" s="2">
         <f>Data!D22</f>
         <v>6650</v>
       </c>
-      <c r="H20" s="3">
-        <f t="shared" si="2"/>
+      <c r="H25" s="3">
+        <f t="shared" si="12"/>
         <v>967</v>
       </c>
-      <c r="I20" s="1">
-        <f t="shared" si="3"/>
+      <c r="I25" s="1">
+        <f t="shared" si="13"/>
         <v>0.17015660742565553</v>
       </c>
-      <c r="J20" s="16">
-        <f t="shared" si="7"/>
+      <c r="J25" s="16">
+        <f t="shared" si="14"/>
         <v>0.20516168497921133</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L25" s="2">
         <f>Data!E22</f>
         <v>335</v>
       </c>
-      <c r="M20">
-        <f t="shared" si="5"/>
+      <c r="M25">
+        <f t="shared" si="10"/>
         <v>54</v>
       </c>
-      <c r="N20" s="1">
-        <f t="shared" si="6"/>
+      <c r="N25" s="1">
+        <f t="shared" si="11"/>
         <v>0.19217081850533813</v>
       </c>
-      <c r="O20" s="16">
-        <f t="shared" si="8"/>
+      <c r="O25" s="16">
+        <f t="shared" si="15"/>
         <v>0.2656691268538674</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="8">
+    <row r="26" spans="1:15">
+      <c r="A26" s="8">
         <v>43914</v>
       </c>
-      <c r="B21" s="13">
-        <f>B20+1</f>
+      <c r="B26" s="13">
+        <f>B25+1</f>
         <v>1</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C26" s="2">
         <f>Data!C23</f>
         <v>90436</v>
       </c>
-      <c r="D21" s="2">
-        <f t="shared" si="1"/>
+      <c r="D26" s="2">
+        <f t="shared" si="9"/>
         <v>6491</v>
       </c>
-      <c r="E21" s="11">
-        <f>H21/D21</f>
+      <c r="E26" s="11">
+        <f>H26/D26</f>
         <v>0.21984285934370668</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G26" s="2">
         <f>Data!D23</f>
         <v>8077</v>
       </c>
-      <c r="H21" s="3">
-        <f>G21-G20</f>
+      <c r="H26" s="3">
+        <f>G26-G25</f>
         <v>1427</v>
       </c>
-      <c r="I21" s="1">
-        <f t="shared" si="3"/>
+      <c r="I26" s="1">
+        <f t="shared" si="13"/>
         <v>0.21458646616541355</v>
       </c>
-      <c r="J21" s="16">
-        <f t="shared" si="7"/>
+      <c r="J26" s="16">
+        <f t="shared" si="14"/>
         <v>0.19910715795334508</v>
       </c>
-      <c r="L21" s="2">
+      <c r="L26" s="2">
         <f>Data!E23</f>
         <v>422</v>
       </c>
-      <c r="M21">
-        <f t="shared" si="5"/>
+      <c r="M26">
+        <f t="shared" si="10"/>
         <v>87</v>
       </c>
-      <c r="N21" s="1">
-        <f t="shared" si="6"/>
+      <c r="N26" s="1">
+        <f t="shared" si="11"/>
         <v>0.25970149253731334</v>
       </c>
-      <c r="O21" s="16">
-        <f t="shared" si="8"/>
+      <c r="O26" s="16">
+        <f t="shared" si="15"/>
         <v>0.24068634843825315</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="8">
+    <row r="27" spans="1:15">
+      <c r="A27" s="8">
         <v>43915</v>
       </c>
-      <c r="B22" s="13">
-        <f t="shared" ref="B22:B33" si="9">B21+1</f>
+      <c r="B27" s="13">
+        <f t="shared" ref="B27:B38" si="16">B26+1</f>
         <v>2</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C27" s="2">
         <f>Data!C24</f>
         <v>97019</v>
       </c>
-      <c r="D22" s="2">
-        <f t="shared" si="1"/>
+      <c r="D27" s="2">
+        <f t="shared" si="9"/>
         <v>6583</v>
       </c>
-      <c r="E22" s="11">
-        <f>H22/D22</f>
+      <c r="E27" s="11">
+        <f>H27/D27</f>
         <v>0.22056813003190034</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G27" s="2">
         <f>Data!D24</f>
         <v>9529</v>
       </c>
-      <c r="H22" s="3">
-        <f>G22-G21</f>
+      <c r="H27" s="3">
+        <f>G27-G26</f>
         <v>1452</v>
       </c>
-      <c r="I22" s="1">
-        <f t="shared" si="3"/>
+      <c r="I27" s="1">
+        <f t="shared" si="13"/>
         <v>0.17976971647889073</v>
       </c>
-      <c r="J22" s="16">
-        <f t="shared" si="7"/>
+      <c r="J27" s="16">
+        <f t="shared" si="14"/>
         <v>0.19137801773734592</v>
       </c>
-      <c r="L22" s="2">
+      <c r="L27" s="2">
         <f>Data!E24</f>
         <v>465</v>
       </c>
-      <c r="M22">
-        <f t="shared" si="5"/>
+      <c r="M27">
+        <f t="shared" si="10"/>
         <v>43</v>
       </c>
-      <c r="N22" s="1">
-        <f t="shared" si="6"/>
+      <c r="N27" s="1">
+        <f t="shared" si="11"/>
         <v>0.10189573459715651</v>
       </c>
-      <c r="O22" s="16">
-        <f t="shared" si="8"/>
+      <c r="O27" s="16">
+        <f t="shared" si="15"/>
         <v>0.21523216202435108</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="8">
+    <row r="28" spans="1:15">
+      <c r="A28" s="8">
         <v>43916</v>
       </c>
-      <c r="B23" s="13">
-        <f t="shared" si="9"/>
+      <c r="B28" s="13">
+        <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="C23" s="2">
+      <c r="C28" s="2">
         <f>Data!C25</f>
         <v>104866</v>
       </c>
-      <c r="D23" s="2">
-        <f t="shared" ref="D23" si="10">C23-C22</f>
+      <c r="D28" s="2">
+        <f t="shared" ref="D28" si="17">C28-C27</f>
         <v>7847</v>
       </c>
-      <c r="E23" s="11">
-        <f>H23/D23</f>
+      <c r="E28" s="11">
+        <f>H28/D28</f>
         <v>0.27131387791512679</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G28" s="2">
         <f>Data!D25</f>
         <v>11658</v>
       </c>
-      <c r="H23" s="3">
-        <f>G23-G22</f>
+      <c r="H28" s="3">
+        <f>G28-G27</f>
         <v>2129</v>
       </c>
-      <c r="I23" s="1">
-        <f t="shared" ref="I23" si="11">G23/G22-1</f>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28" si="18">G28/G27-1</f>
         <v>0.22342323433728617</v>
       </c>
-      <c r="J23" s="16">
-        <f t="shared" si="7"/>
+      <c r="J28" s="16">
+        <f t="shared" si="14"/>
         <v>0.18409178838085136</v>
       </c>
-      <c r="L23" s="2">
+      <c r="L28" s="2">
         <f>Data!E25</f>
         <v>578</v>
       </c>
-      <c r="M23">
-        <f t="shared" ref="M23" si="12">L23-L22</f>
+      <c r="M28">
+        <f t="shared" ref="M28" si="19">L28-L27</f>
         <v>113</v>
       </c>
-      <c r="N23" s="1">
-        <f t="shared" ref="N23" si="13">L23/L22-1</f>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28" si="20">L28/L27-1</f>
         <v>0.24301075268817196</v>
       </c>
-      <c r="O23" s="16">
-        <f t="shared" si="8"/>
+      <c r="O28" s="16">
+        <f t="shared" si="15"/>
         <v>0.2005574764037934</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="8">
+    <row r="29" spans="1:15">
+      <c r="A29" s="8">
         <v>43917</v>
       </c>
-      <c r="B24" s="13">
-        <f t="shared" si="9"/>
+      <c r="B29" s="13">
+        <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="C24" s="2">
+      <c r="C29" s="2">
         <f>Data!C26</f>
         <v>113777</v>
       </c>
-      <c r="D24" s="2">
-        <f t="shared" ref="D24:D25" si="14">C24-C23</f>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29:D30" si="21">C29-C28</f>
         <v>8911</v>
       </c>
-      <c r="E24" s="11">
-        <f t="shared" ref="E24:E25" si="15">H24/D24</f>
+      <c r="E29" s="11">
+        <f t="shared" ref="E29:E30" si="22">H29/D29</f>
         <v>0.32375715407922789</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G29" s="2">
         <f>Data!D26</f>
         <v>14543</v>
       </c>
-      <c r="H24" s="3">
-        <f t="shared" ref="H24:H25" si="16">G24-G23</f>
+      <c r="H29" s="3">
+        <f t="shared" ref="H29:H30" si="23">G29-G28</f>
         <v>2885</v>
       </c>
-      <c r="I24" s="1">
-        <f t="shared" ref="I24:I25" si="17">G24/G23-1</f>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29:I30" si="24">G29/G28-1</f>
         <v>0.24746954880768568</v>
       </c>
-      <c r="J24" s="16">
-        <f t="shared" si="7"/>
+      <c r="J29" s="16">
+        <f t="shared" si="14"/>
         <v>0.20708111464298634</v>
       </c>
-      <c r="L24" s="2">
+      <c r="L29" s="2">
         <f>Data!E26</f>
         <v>759</v>
       </c>
-      <c r="M24">
-        <f t="shared" ref="M24:M25" si="18">L24-L23</f>
+      <c r="M29">
+        <f t="shared" ref="M29:M30" si="25">L29-L28</f>
         <v>181</v>
       </c>
-      <c r="N24" s="1">
-        <f t="shared" ref="N24:N25" si="19">L24/L23-1</f>
+      <c r="N29" s="1">
+        <f t="shared" ref="N29:N30" si="26">L29/L28-1</f>
         <v>0.31314878892733566</v>
       </c>
-      <c r="O24" s="16">
-        <f t="shared" si="8"/>
+      <c r="O29" s="16">
+        <f t="shared" si="15"/>
         <v>0.22198551745106312</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="8">
+    <row r="30" spans="1:15">
+      <c r="A30" s="8">
         <v>43918</v>
       </c>
-      <c r="B25" s="13">
-        <f t="shared" si="9"/>
+      <c r="B30" s="13">
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
-      <c r="C25" s="2">
+      <c r="C30" s="2">
         <f>Data!C27</f>
         <v>120766</v>
       </c>
-      <c r="D25" s="2">
-        <f t="shared" si="14"/>
+      <c r="D30" s="2">
+        <f t="shared" si="21"/>
         <v>6989</v>
       </c>
-      <c r="E25" s="11">
-        <f t="shared" si="15"/>
+      <c r="E30" s="11">
+        <f t="shared" si="22"/>
         <v>0.36428673629989983</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G30" s="2">
         <f>Data!D27</f>
         <v>17089</v>
       </c>
-      <c r="H25" s="3">
-        <f t="shared" si="16"/>
+      <c r="H30" s="3">
+        <f t="shared" si="23"/>
         <v>2546</v>
       </c>
-      <c r="I25" s="1">
-        <f t="shared" si="17"/>
+      <c r="I30" s="1">
+        <f t="shared" si="24"/>
         <v>0.17506704256343264</v>
       </c>
-      <c r="J25" s="16">
-        <f t="shared" si="7"/>
+      <c r="J30" s="16">
+        <f t="shared" si="14"/>
         <v>0.20806320167054176</v>
       </c>
-      <c r="L25" s="2">
+      <c r="L30" s="2">
         <f>Data!E27</f>
         <v>1019</v>
       </c>
-      <c r="M25">
-        <f t="shared" si="18"/>
+      <c r="M30">
+        <f t="shared" si="25"/>
         <v>260</v>
       </c>
-      <c r="N25" s="1">
-        <f t="shared" si="19"/>
+      <c r="N30" s="1">
+        <f t="shared" si="26"/>
         <v>0.34255599472990772</v>
       </c>
-      <c r="O25" s="16">
-        <f t="shared" si="8"/>
+      <c r="O30" s="16">
+        <f t="shared" si="15"/>
         <v>0.25206255269597705</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="8">
+    <row r="31" spans="1:15">
+      <c r="A31" s="8">
         <v>43919</v>
       </c>
-      <c r="B26" s="13">
-        <f t="shared" si="9"/>
+      <c r="B31" s="13">
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
-      <c r="C26" s="2">
+      <c r="C31" s="2">
         <f>Data!C28</f>
         <v>127737</v>
       </c>
-      <c r="D26" s="2">
-        <f t="shared" ref="D26" si="20">C26-C25</f>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31" si="27">C31-C30</f>
         <v>6971</v>
       </c>
-      <c r="E26" s="11">
-        <f t="shared" ref="E26" si="21">H26/D26</f>
+      <c r="E31" s="11">
+        <f t="shared" ref="E31" si="28">H31/D31</f>
         <v>0.34901735762444414</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G31" s="2">
         <f>Data!D28</f>
         <v>19522</v>
       </c>
-      <c r="H26" s="3">
-        <f t="shared" ref="H26" si="22">G26-G25</f>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31" si="29">G31-G30</f>
         <v>2433</v>
       </c>
-      <c r="I26" s="1">
-        <f t="shared" ref="I26" si="23">G26/G25-1</f>
+      <c r="I31" s="1">
+        <f t="shared" ref="I31" si="30">G31/G30-1</f>
         <v>0.14237228626601905</v>
       </c>
-      <c r="J26" s="16">
-        <f t="shared" si="7"/>
+      <c r="J31" s="16">
+        <f t="shared" si="14"/>
         <v>0.19362036569066285</v>
       </c>
-      <c r="L26" s="2">
+      <c r="L31" s="2">
         <f>Data!E28</f>
         <v>1228</v>
       </c>
-      <c r="M26">
-        <f t="shared" ref="M26" si="24">L26-L25</f>
+      <c r="M31">
+        <f t="shared" ref="M31" si="31">L31-L30</f>
         <v>209</v>
       </c>
-      <c r="N26" s="1">
-        <f t="shared" ref="N26" si="25">L26/L25-1</f>
+      <c r="N31" s="1">
+        <f t="shared" ref="N31" si="32">L31/L30-1</f>
         <v>0.20510304219823361</v>
       </c>
-      <c r="O26" s="16">
-        <f t="shared" si="8"/>
+      <c r="O31" s="16">
+        <f t="shared" si="15"/>
         <v>0.24114286262816109</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="8">
+    <row r="32" spans="1:15">
+      <c r="A32" s="8">
         <v>43920</v>
       </c>
-      <c r="B27" s="13">
-        <f t="shared" si="9"/>
+      <c r="B32" s="13">
+        <f t="shared" si="16"/>
         <v>7</v>
       </c>
-      <c r="C27" s="2">
+      <c r="C32" s="2">
         <f>Data!C29</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="2">
+        <v>134946</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32" si="33">C32-C31</f>
+        <v>7209</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" ref="E32" si="34">H32/D32</f>
+        <v>0.36329588014981273</v>
+      </c>
+      <c r="G32" s="2">
         <f>Data!D29</f>
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
+        <v>22141</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ref="H32" si="35">G32-G31</f>
+        <v>2619</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ref="I32" si="36">G32/G31-1</f>
+        <v>0.13415633644093838</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" ref="J32" si="37">SUM(I28:I32)/5</f>
+        <v>0.1844976896830724</v>
+      </c>
+      <c r="L32" s="2">
         <f>Data!E29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="8">
+        <v>1408</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32" si="38">L32-L31</f>
+        <v>180</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" ref="N32" si="39">L32/L31-1</f>
+        <v>0.14657980456026065</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" ref="O32" si="40">SUM(N28:N32)/5</f>
+        <v>0.2500796766207819</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="8">
         <v>43921</v>
       </c>
-      <c r="B28" s="13">
-        <f t="shared" si="9"/>
+      <c r="B33" s="13">
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
-      <c r="C28" s="2">
+      <c r="C33" s="2">
         <f>Data!C30</f>
         <v>0</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G33" s="2">
         <f>Data!D30</f>
         <v>0</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L33" s="2">
         <f>Data!E30</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="8">
+    <row r="34" spans="1:12">
+      <c r="A34" s="8">
         <v>43922</v>
       </c>
-      <c r="B29" s="13">
-        <f t="shared" si="9"/>
+      <c r="B34" s="13">
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
-      <c r="C29" s="2">
+      <c r="C34" s="2">
         <f>Data!C31</f>
         <v>0</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G34" s="2">
         <f>Data!D31</f>
         <v>0</v>
       </c>
-      <c r="L29" s="2">
+      <c r="L34" s="2">
         <f>Data!E31</f>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="8">
+    <row r="35" spans="1:12">
+      <c r="A35" s="8">
         <v>43923</v>
       </c>
-      <c r="B30" s="13">
-        <f t="shared" si="9"/>
+      <c r="B35" s="13">
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
-      <c r="C30" s="2">
+      <c r="C35" s="2">
         <f>Data!C32</f>
         <v>0</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G35" s="2">
         <f>Data!D32</f>
         <v>0</v>
       </c>
-      <c r="L30" s="2">
+      <c r="L35" s="2">
         <f>Data!E32</f>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="8">
+    <row r="36" spans="1:12">
+      <c r="A36" s="8">
         <v>43924</v>
       </c>
-      <c r="B31" s="13">
-        <f t="shared" si="9"/>
+      <c r="B36" s="13">
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
-      <c r="C31" s="2">
+      <c r="C36" s="2">
         <f>Data!C33</f>
         <v>0</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G36" s="2">
         <f>Data!D33</f>
         <v>0</v>
       </c>
-      <c r="L31" s="2">
+      <c r="L36" s="2">
         <f>Data!E33</f>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="8">
+    <row r="37" spans="1:12">
+      <c r="A37" s="8">
         <v>43925</v>
       </c>
-      <c r="B32" s="13">
-        <f t="shared" si="9"/>
+      <c r="B37" s="13">
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
-      <c r="C32" s="2">
+      <c r="C37" s="2">
         <f>Data!C34</f>
         <v>0</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G37" s="2">
         <f>Data!D34</f>
         <v>0</v>
       </c>
-      <c r="L32" s="2">
+      <c r="L37" s="2">
         <f>Data!E34</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="8">
+    <row r="38" spans="1:12">
+      <c r="A38" s="8">
         <v>43926</v>
       </c>
-      <c r="B33" s="13">
-        <f t="shared" si="9"/>
+      <c r="B38" s="13">
+        <f t="shared" si="16"/>
         <v>13</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C38" s="2">
         <f>Data!C35</f>
         <v>0</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G38" s="2">
         <f>Data!D35</f>
         <v>0</v>
       </c>
-      <c r="L33" s="2">
+      <c r="L38" s="2">
         <f>Data!E35</f>
         <v>0</v>
       </c>
@@ -13017,7 +13386,7 @@
         <v>21496</v>
       </c>
       <c r="E35" s="11">
-        <f>H35/D35</f>
+        <f t="shared" ref="E35:E40" si="15">H35/D35</f>
         <v>0.24418496464458503</v>
       </c>
       <c r="G35" s="2">
@@ -13025,7 +13394,7 @@
         <v>69176</v>
       </c>
       <c r="H35" s="3">
-        <f>G35-G34</f>
+        <f t="shared" ref="H35:H40" si="16">G35-G34</f>
         <v>5249</v>
       </c>
       <c r="I35" s="1">
@@ -13069,7 +13438,7 @@
         <v>27481</v>
       </c>
       <c r="E36" s="11">
-        <f>H36/D36</f>
+        <f t="shared" si="15"/>
         <v>0.18958553182198609</v>
       </c>
       <c r="G36" s="2">
@@ -13077,7 +13446,7 @@
         <v>74386</v>
       </c>
       <c r="H36" s="3">
-        <f>G36-G35</f>
+        <f t="shared" si="16"/>
         <v>5210</v>
       </c>
       <c r="I36" s="1">
@@ -13121,7 +13490,7 @@
         <v>36615</v>
       </c>
       <c r="E37" s="11">
-        <f>H37/D37</f>
+        <f t="shared" si="15"/>
         <v>0.16804588283490374</v>
       </c>
       <c r="G37" s="2">
@@ -13129,7 +13498,7 @@
         <v>80539</v>
       </c>
       <c r="H37" s="3">
-        <f>G37-G36</f>
+        <f t="shared" si="16"/>
         <v>6153</v>
       </c>
       <c r="I37" s="1">
@@ -13173,7 +13542,7 @@
         <v>33019</v>
       </c>
       <c r="E38" s="11">
-        <f>H38/D38</f>
+        <f t="shared" si="15"/>
         <v>0.18047184954117326</v>
       </c>
       <c r="G38" s="2">
@@ -13181,7 +13550,7 @@
         <v>86498</v>
       </c>
       <c r="H38" s="3">
-        <f>G38-G37</f>
+        <f t="shared" si="16"/>
         <v>5959</v>
       </c>
       <c r="I38" s="1">
@@ -13225,7 +13594,7 @@
         <v>35447</v>
       </c>
       <c r="E39" s="11">
-        <f>H39/D39</f>
+        <f t="shared" si="15"/>
         <v>0.16853330324145907</v>
       </c>
       <c r="G39" s="2">
@@ -13233,7 +13602,7 @@
         <v>92472</v>
       </c>
       <c r="H39" s="3">
-        <f>G39-G38</f>
+        <f t="shared" si="16"/>
         <v>5974</v>
       </c>
       <c r="I39" s="1">
@@ -13277,7 +13646,7 @@
         <v>24504</v>
       </c>
       <c r="E40" s="11">
-        <f>H40/D40</f>
+        <f t="shared" si="15"/>
         <v>0.21290401567091088</v>
       </c>
       <c r="G40" s="2">
@@ -13285,15 +13654,15 @@
         <v>97689</v>
       </c>
       <c r="H40" s="3">
-        <f>G40-G39</f>
+        <f t="shared" si="16"/>
         <v>5217</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40" si="15">G40/G39-1</f>
+        <f t="shared" ref="I40" si="17">G40/G39-1</f>
         <v>5.6417077601868648E-2</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" ref="J40" si="16">SUM(I36:I40)/5</f>
+        <f t="shared" ref="J40" si="18">SUM(I36:I40)/5</f>
         <v>7.1500714715988428E-2</v>
       </c>
       <c r="L40" s="2">
@@ -13301,15 +13670,15 @@
         <v>10779</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40" si="17">L40-L39</f>
+        <f t="shared" ref="M40" si="19">L40-L39</f>
         <v>756</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40" si="18">L40/L39-1</f>
+        <f t="shared" ref="N40" si="20">L40/L39-1</f>
         <v>7.5426519006285497E-2</v>
       </c>
       <c r="O40" s="16">
-        <f t="shared" ref="O40" si="19">SUM(N36:N40)/5</f>
+        <f t="shared" ref="O40" si="21">SUM(N36:N40)/5</f>
         <v>9.5962092781701619E-2</v>
       </c>
     </row>
@@ -13480,1443 +13849,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="21" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="21">
-        <v>43894</v>
-      </c>
-      <c r="C2" s="2">
-        <v>16659</v>
-      </c>
-      <c r="D2" s="2">
-        <v>85</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="21">
-        <v>43895</v>
-      </c>
-      <c r="C3" s="2">
-        <v>19083</v>
-      </c>
-      <c r="D3" s="2">
-        <v>115</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="21">
-        <v>43896</v>
-      </c>
-      <c r="C4" s="2">
-        <v>20338</v>
-      </c>
-      <c r="D4" s="2">
-        <v>163</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="21">
-        <v>43897</v>
-      </c>
-      <c r="C5" s="2">
-        <v>21460</v>
-      </c>
-      <c r="D5" s="2">
-        <v>206</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="21">
-        <v>43898</v>
-      </c>
-      <c r="C6" s="2">
-        <v>23513</v>
-      </c>
-      <c r="D6" s="2">
-        <v>273</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="21">
-        <v>43899</v>
-      </c>
-      <c r="C7" s="2">
-        <v>24960</v>
-      </c>
-      <c r="D7" s="2">
-        <v>321</v>
-      </c>
-      <c r="E7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="21">
-        <v>43900</v>
-      </c>
-      <c r="C8" s="2">
-        <v>26261</v>
-      </c>
-      <c r="D8" s="2">
-        <v>383</v>
-      </c>
-      <c r="E8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="21">
-        <v>43901</v>
-      </c>
-      <c r="C9" s="2">
-        <v>27476</v>
-      </c>
-      <c r="D9" s="2">
-        <v>460</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="21">
-        <v>43902</v>
-      </c>
-      <c r="C10" s="2">
-        <v>28764</v>
-      </c>
-      <c r="D10" s="2">
-        <v>590</v>
-      </c>
-      <c r="E10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="21">
-        <v>43903</v>
-      </c>
-      <c r="C11" s="2">
-        <v>32771</v>
-      </c>
-      <c r="D11" s="2">
-        <v>798</v>
-      </c>
-      <c r="E11">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="21">
-        <v>43904</v>
-      </c>
-      <c r="C12" s="2">
-        <v>37746</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1140</v>
-      </c>
-      <c r="E12">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="21">
-        <v>43905</v>
-      </c>
-      <c r="C13" s="2">
-        <v>40279</v>
-      </c>
-      <c r="D13" s="2">
-        <v>1391</v>
-      </c>
-      <c r="E13">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="21">
-        <v>43906</v>
-      </c>
-      <c r="C14" s="2">
-        <v>44105</v>
-      </c>
-      <c r="D14" s="2">
-        <v>1543</v>
-      </c>
-      <c r="E14">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="21">
-        <v>43907</v>
-      </c>
-      <c r="C15" s="2">
-        <v>50442</v>
-      </c>
-      <c r="D15" s="2">
-        <v>1950</v>
-      </c>
-      <c r="E15">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="2" customFormat="1">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="21">
-        <v>43908</v>
-      </c>
-      <c r="C16" s="2">
-        <v>56221</v>
-      </c>
-      <c r="D16" s="2">
-        <v>2626</v>
-      </c>
-      <c r="E16">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="2" customFormat="1">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="21">
-        <v>43909</v>
-      </c>
-      <c r="C17" s="2">
-        <v>64621</v>
-      </c>
-      <c r="D17" s="2">
-        <v>3269</v>
-      </c>
-      <c r="E17">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="2" customFormat="1">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="21">
-        <v>43910</v>
-      </c>
-      <c r="C18" s="2">
-        <v>66976</v>
-      </c>
-      <c r="D18" s="2">
-        <v>3983</v>
-      </c>
-      <c r="E18">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="2" customFormat="1">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="21">
-        <v>43911</v>
-      </c>
-      <c r="C19" s="2">
-        <v>72818</v>
-      </c>
-      <c r="D19" s="2">
-        <v>5018</v>
-      </c>
-      <c r="E19">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="2" customFormat="1">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="21">
-        <v>43912</v>
-      </c>
-      <c r="C20" s="2">
-        <v>78340</v>
-      </c>
-      <c r="D20" s="2">
-        <v>5683</v>
-      </c>
-      <c r="E20">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="2" customFormat="1">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="21">
-        <v>43913</v>
-      </c>
-      <c r="C21" s="2">
-        <v>83945</v>
-      </c>
-      <c r="D21" s="2">
-        <v>6650</v>
-      </c>
-      <c r="E21">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="2" customFormat="1">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="21">
-        <v>43914</v>
-      </c>
-      <c r="C22" s="2">
-        <v>90436</v>
-      </c>
-      <c r="D22" s="3">
-        <v>8077</v>
-      </c>
-      <c r="E22">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="2" customFormat="1">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="21">
-        <v>43915</v>
-      </c>
-      <c r="C23" s="2">
-        <v>97019</v>
-      </c>
-      <c r="D23" s="2">
-        <v>9529</v>
-      </c>
-      <c r="E23">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="2" customFormat="1">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="21">
-        <v>43916</v>
-      </c>
-      <c r="C24" s="2">
-        <v>104866</v>
-      </c>
-      <c r="D24" s="2">
-        <v>11658</v>
-      </c>
-      <c r="E24">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="2" customFormat="1">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="21">
-        <v>43917</v>
-      </c>
-      <c r="C25" s="2">
-        <v>113777</v>
-      </c>
-      <c r="D25" s="2">
-        <v>14543</v>
-      </c>
-      <c r="E25">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="2" customFormat="1">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B26" s="21">
-        <v>43918</v>
-      </c>
-      <c r="C26" s="2">
-        <v>120766</v>
-      </c>
-      <c r="D26" s="2">
-        <v>17089</v>
-      </c>
-      <c r="E26">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="2" customFormat="1">
-      <c r="A27" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="21">
-        <v>43919</v>
-      </c>
-      <c r="C27" s="2">
-        <v>127737</v>
-      </c>
-      <c r="D27" s="2">
-        <v>19522</v>
-      </c>
-      <c r="E27">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="21">
-        <v>43898</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4509</v>
-      </c>
-      <c r="D28" s="2">
-        <v>99</v>
-      </c>
-      <c r="E28" s="2">
-        <v>0</v>
-      </c>
-      <c r="F28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" s="21">
-        <v>43899</v>
-      </c>
-      <c r="C29" s="2">
-        <v>4734</v>
-      </c>
-      <c r="D29" s="2">
-        <v>131</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" s="21">
-        <v>43900</v>
-      </c>
-      <c r="C30" s="2">
-        <v>5026</v>
-      </c>
-      <c r="D30" s="2">
-        <v>182</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" s="21">
-        <v>43901</v>
-      </c>
-      <c r="C31" s="2">
-        <v>5362</v>
-      </c>
-      <c r="D31" s="2">
-        <v>246</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B32" s="21">
-        <v>43902</v>
-      </c>
-      <c r="C32" s="2">
-        <v>5869</v>
-      </c>
-      <c r="D32" s="2">
-        <v>361</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="21">
-        <v>43903</v>
-      </c>
-      <c r="C33" s="2">
-        <v>6582</v>
-      </c>
-      <c r="D33" s="2">
-        <v>504</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="2" customFormat="1">
-      <c r="A34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B34" s="21">
-        <v>43904</v>
-      </c>
-      <c r="C34" s="2">
-        <v>7467</v>
-      </c>
-      <c r="D34" s="2">
-        <v>655</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="2" customFormat="1">
-      <c r="A35" t="s">
-        <v>24</v>
-      </c>
-      <c r="B35" s="21">
-        <v>43905</v>
-      </c>
-      <c r="C35" s="2">
-        <v>8167</v>
-      </c>
-      <c r="D35" s="2">
-        <v>860</v>
-      </c>
-      <c r="E35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1">
-      <c r="A36" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="21">
-        <v>43906</v>
-      </c>
-      <c r="C36" s="2">
-        <v>8490</v>
-      </c>
-      <c r="D36" s="2">
-        <v>1016</v>
-      </c>
-      <c r="E36">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="2" customFormat="1">
-      <c r="A37" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="21">
-        <v>43907</v>
-      </c>
-      <c r="C37" s="2">
-        <v>10278</v>
-      </c>
-      <c r="D37" s="2">
-        <v>1332</v>
-      </c>
-      <c r="E37">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="2" customFormat="1">
-      <c r="A38" t="s">
-        <v>24</v>
-      </c>
-      <c r="B38" s="21">
-        <v>43908</v>
-      </c>
-      <c r="C38" s="2">
-        <v>11977</v>
-      </c>
-      <c r="D38" s="2">
-        <v>1646</v>
-      </c>
-      <c r="E38">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="2" customFormat="1">
-      <c r="A39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B39" s="21">
-        <v>43909</v>
-      </c>
-      <c r="C39" s="2">
-        <v>13724</v>
-      </c>
-      <c r="D39" s="2">
-        <v>2013</v>
-      </c>
-      <c r="E39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="2" customFormat="1">
-      <c r="A40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B40" s="21">
-        <v>43910</v>
-      </c>
-      <c r="C40" s="2">
-        <v>15613</v>
-      </c>
-      <c r="D40" s="2">
-        <v>2388</v>
-      </c>
-      <c r="E40">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="2" customFormat="1">
-      <c r="A41" t="s">
-        <v>24</v>
-      </c>
-      <c r="B41" s="21">
-        <v>43911</v>
-      </c>
-      <c r="C41" s="2">
-        <v>18545</v>
-      </c>
-      <c r="D41" s="2">
-        <v>2814</v>
-      </c>
-      <c r="E41">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="2" customFormat="1">
-      <c r="A42" t="s">
-        <v>24</v>
-      </c>
-      <c r="B42" s="21">
-        <v>43912</v>
-      </c>
-      <c r="C42" s="2">
-        <v>21368</v>
-      </c>
-      <c r="D42" s="2">
-        <v>3244</v>
-      </c>
-      <c r="E42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="2" customFormat="1">
-      <c r="A43" t="s">
-        <v>24</v>
-      </c>
-      <c r="B43" s="21">
-        <v>43913</v>
-      </c>
-      <c r="C43" s="2">
-        <v>23429</v>
-      </c>
-      <c r="D43" s="2">
-        <v>3924</v>
-      </c>
-      <c r="E43">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="2" customFormat="1">
-      <c r="A44" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="21">
-        <v>43914</v>
-      </c>
-      <c r="C44" s="2">
-        <v>28391</v>
-      </c>
-      <c r="D44" s="3">
-        <v>4876</v>
-      </c>
-      <c r="E44">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="2" customFormat="1">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="21">
-        <v>43915</v>
-      </c>
-      <c r="C45" s="2">
-        <v>32407</v>
-      </c>
-      <c r="D45" s="2">
-        <v>5560</v>
-      </c>
-      <c r="E45">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="2" customFormat="1">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="21">
-        <v>43916</v>
-      </c>
-      <c r="C46" s="2">
-        <v>35995</v>
-      </c>
-      <c r="D46" s="2">
-        <v>6398</v>
-      </c>
-      <c r="E46">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="2" customFormat="1">
-      <c r="A47" t="s">
-        <v>24</v>
-      </c>
-      <c r="B47" s="21">
-        <v>43917</v>
-      </c>
-      <c r="C47" s="2">
-        <v>39552</v>
-      </c>
-      <c r="D47" s="2">
-        <v>7399</v>
-      </c>
-      <c r="E47">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="2" customFormat="1">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="21">
-        <v>43918</v>
-      </c>
-      <c r="C48" s="2">
-        <v>42750</v>
-      </c>
-      <c r="D48" s="2">
-        <v>7995</v>
-      </c>
-      <c r="E48">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="2" customFormat="1">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="21">
-        <v>43919</v>
-      </c>
-      <c r="C49" s="2">
-        <v>46441</v>
-      </c>
-      <c r="D49" s="2">
-        <v>8636</v>
-      </c>
-      <c r="E49">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="2" customFormat="1">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-      <c r="B50" s="21">
-        <v>43885</v>
-      </c>
-      <c r="C50" s="2">
-        <v>4324</v>
-      </c>
-      <c r="D50" s="2">
-        <v>229</v>
-      </c>
-      <c r="E50" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="2" customFormat="1">
-      <c r="A51" t="s">
-        <v>25</v>
-      </c>
-      <c r="B51" s="21">
-        <v>43886</v>
-      </c>
-      <c r="C51" s="2">
-        <v>8623</v>
-      </c>
-      <c r="D51" s="2">
-        <v>322</v>
-      </c>
-      <c r="E51" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="2" customFormat="1">
-      <c r="A52" t="s">
-        <v>25</v>
-      </c>
-      <c r="B52" s="21">
-        <v>43887</v>
-      </c>
-      <c r="C52" s="2">
-        <v>9587</v>
-      </c>
-      <c r="D52" s="2">
-        <v>400</v>
-      </c>
-      <c r="E52" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="2" customFormat="1">
-      <c r="A53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="21">
-        <v>43888</v>
-      </c>
-      <c r="C53" s="2">
-        <v>12014</v>
-      </c>
-      <c r="D53" s="2">
-        <v>650</v>
-      </c>
-      <c r="E53" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="2" customFormat="1">
-      <c r="A54" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="21">
-        <v>43889</v>
-      </c>
-      <c r="C54" s="2">
-        <v>15695</v>
-      </c>
-      <c r="D54" s="2">
-        <v>888</v>
-      </c>
-      <c r="E54" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="2" customFormat="1">
-      <c r="A55" t="s">
-        <v>25</v>
-      </c>
-      <c r="B55" s="21">
-        <v>43890</v>
-      </c>
-      <c r="C55" s="2">
-        <v>18661</v>
-      </c>
-      <c r="D55" s="2">
-        <v>1128</v>
-      </c>
-      <c r="E55" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="2" customFormat="1">
-      <c r="A56" t="s">
-        <v>25</v>
-      </c>
-      <c r="B56" s="21">
-        <v>43891</v>
-      </c>
-      <c r="C56" s="2">
-        <v>21127</v>
-      </c>
-      <c r="D56" s="2">
-        <v>1694</v>
-      </c>
-      <c r="E56" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="2" customFormat="1">
-      <c r="A57" t="s">
-        <v>25</v>
-      </c>
-      <c r="B57" s="21">
-        <v>43892</v>
-      </c>
-      <c r="C57" s="2">
-        <v>23345</v>
-      </c>
-      <c r="D57" s="2">
-        <v>2036</v>
-      </c>
-      <c r="E57" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="2" customFormat="1">
-      <c r="A58" t="s">
-        <v>25</v>
-      </c>
-      <c r="B58" s="21">
-        <v>43893</v>
-      </c>
-      <c r="C58" s="2">
-        <v>25856</v>
-      </c>
-      <c r="D58" s="2">
-        <v>2502</v>
-      </c>
-      <c r="E58" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="2" customFormat="1">
-      <c r="A59" t="s">
-        <v>25</v>
-      </c>
-      <c r="B59" s="21">
-        <v>43894</v>
-      </c>
-      <c r="C59" s="2">
-        <v>29837</v>
-      </c>
-      <c r="D59" s="2">
-        <v>3089</v>
-      </c>
-      <c r="E59" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" s="2" customFormat="1">
-      <c r="A60" t="s">
-        <v>25</v>
-      </c>
-      <c r="B60" s="21">
-        <v>43895</v>
-      </c>
-      <c r="C60" s="2">
-        <v>32362</v>
-      </c>
-      <c r="D60" s="2">
-        <v>3858</v>
-      </c>
-      <c r="E60" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" s="2" customFormat="1">
-      <c r="A61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B61" s="21">
-        <v>43896</v>
-      </c>
-      <c r="C61" s="2">
-        <v>36359</v>
-      </c>
-      <c r="D61" s="2">
-        <v>4636</v>
-      </c>
-      <c r="E61" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" s="2" customFormat="1">
-      <c r="A62" t="s">
-        <v>25</v>
-      </c>
-      <c r="B62" s="21">
-        <v>43897</v>
-      </c>
-      <c r="C62" s="2">
-        <v>42062</v>
-      </c>
-      <c r="D62" s="2">
-        <v>5883</v>
-      </c>
-      <c r="E62" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" s="2" customFormat="1">
-      <c r="A63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B63" s="21">
-        <v>43898</v>
-      </c>
-      <c r="C63" s="2">
-        <v>49937</v>
-      </c>
-      <c r="D63" s="2">
-        <v>7375</v>
-      </c>
-      <c r="E63" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" s="2" customFormat="1">
-      <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64" s="21">
-        <v>43899</v>
-      </c>
-      <c r="C64" s="2">
-        <v>53826</v>
-      </c>
-      <c r="D64" s="2">
-        <v>9172</v>
-      </c>
-      <c r="E64" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" s="2" customFormat="1">
-      <c r="A65" t="s">
-        <v>25</v>
-      </c>
-      <c r="B65" s="21">
-        <v>43900</v>
-      </c>
-      <c r="C65" s="2">
-        <v>60761</v>
-      </c>
-      <c r="D65" s="2">
-        <v>10149</v>
-      </c>
-      <c r="E65" s="2">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" s="2" customFormat="1">
-      <c r="A66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B66" s="21">
-        <v>43901</v>
-      </c>
-      <c r="C66" s="2">
-        <v>73154</v>
-      </c>
-      <c r="D66" s="2">
-        <v>12462</v>
-      </c>
-      <c r="E66" s="2">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" s="2" customFormat="1">
-      <c r="A67" t="s">
-        <v>25</v>
-      </c>
-      <c r="B67" s="21">
-        <v>43902</v>
-      </c>
-      <c r="C67" s="2">
-        <v>86011</v>
-      </c>
-      <c r="D67" s="2">
-        <v>15113</v>
-      </c>
-      <c r="E67" s="2">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" s="2" customFormat="1">
-      <c r="A68" t="s">
-        <v>25</v>
-      </c>
-      <c r="B68" s="21">
-        <v>43903</v>
-      </c>
-      <c r="C68" s="2">
-        <v>97488</v>
-      </c>
-      <c r="D68" s="2">
-        <v>17660</v>
-      </c>
-      <c r="E68" s="2">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" s="2" customFormat="1">
-      <c r="A69" t="s">
-        <v>25</v>
-      </c>
-      <c r="B69" s="21">
-        <v>43904</v>
-      </c>
-      <c r="C69" s="2">
-        <v>109170</v>
-      </c>
-      <c r="D69" s="2">
-        <v>21157</v>
-      </c>
-      <c r="E69" s="2">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" s="2" customFormat="1">
-      <c r="A70" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="21">
-        <v>43905</v>
-      </c>
-      <c r="C70" s="2">
-        <v>124899</v>
-      </c>
-      <c r="D70" s="2">
-        <v>24747</v>
-      </c>
-      <c r="E70" s="2">
-        <v>1809</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="2" customFormat="1">
-      <c r="A71" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="21">
-        <v>43906</v>
-      </c>
-      <c r="C71" s="2">
-        <v>137962</v>
-      </c>
-      <c r="D71" s="2">
-        <v>27980</v>
-      </c>
-      <c r="E71" s="2">
-        <v>2158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" s="2" customFormat="1">
-      <c r="A72" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="21">
-        <v>43907</v>
-      </c>
-      <c r="C72" s="2">
-        <v>148657</v>
-      </c>
-      <c r="D72" s="2">
-        <v>31506</v>
-      </c>
-      <c r="E72" s="2">
-        <v>2503</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" s="2" customFormat="1">
-      <c r="A73" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="21">
-        <v>43908</v>
-      </c>
-      <c r="C73" s="2">
-        <v>165541</v>
-      </c>
-      <c r="D73" s="2">
-        <v>35713</v>
-      </c>
-      <c r="E73" s="2">
-        <v>2978</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" s="2" customFormat="1">
-      <c r="A74" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="21">
-        <v>43909</v>
-      </c>
-      <c r="C74" s="2">
-        <v>182777</v>
-      </c>
-      <c r="D74" s="2">
-        <v>41035</v>
-      </c>
-      <c r="E74" s="2">
-        <v>3405</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" s="2" customFormat="1">
-      <c r="A75" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="21">
-        <v>43910</v>
-      </c>
-      <c r="C75" s="2">
-        <v>206886</v>
-      </c>
-      <c r="D75" s="2">
-        <v>47021</v>
-      </c>
-      <c r="E75" s="2">
-        <v>4032</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" s="2" customFormat="1">
-      <c r="A76" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="21">
-        <v>43911</v>
-      </c>
-      <c r="C76" s="2">
-        <v>233222</v>
-      </c>
-      <c r="D76" s="2">
-        <v>53578</v>
-      </c>
-      <c r="E76" s="2">
-        <v>4825</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" s="2" customFormat="1">
-      <c r="A77" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="21">
-        <v>43912</v>
-      </c>
-      <c r="C77" s="2">
-        <v>258402</v>
-      </c>
-      <c r="D77" s="2">
-        <v>59138</v>
-      </c>
-      <c r="E77" s="2">
-        <v>5476</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="2" customFormat="1">
-      <c r="A78" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="21">
-        <v>43913</v>
-      </c>
-      <c r="C78" s="2">
-        <v>275468</v>
-      </c>
-      <c r="D78" s="2">
-        <v>63927</v>
-      </c>
-      <c r="E78" s="2">
-        <v>6077</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" s="2" customFormat="1">
-      <c r="A79" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="21">
-        <v>43914</v>
-      </c>
-      <c r="C79" s="2">
-        <v>296964</v>
-      </c>
-      <c r="D79" s="2">
-        <v>69176</v>
-      </c>
-      <c r="E79" s="2">
-        <v>6820</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" s="2" customFormat="1">
-      <c r="A80" t="s">
-        <v>25</v>
-      </c>
-      <c r="B80" s="21">
-        <v>43915</v>
-      </c>
-      <c r="C80" s="2">
-        <v>324445</v>
-      </c>
-      <c r="D80" s="2">
-        <v>74386</v>
-      </c>
-      <c r="E80" s="2">
-        <v>7503</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" s="2" customFormat="1">
-      <c r="A81" t="s">
-        <v>25</v>
-      </c>
-      <c r="B81" s="21">
-        <v>43916</v>
-      </c>
-      <c r="C81" s="2">
-        <v>361060</v>
-      </c>
-      <c r="D81" s="2">
-        <v>80539</v>
-      </c>
-      <c r="E81" s="2">
-        <v>8165</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="2" customFormat="1">
-      <c r="A82" t="s">
-        <v>25</v>
-      </c>
-      <c r="B82" s="21">
-        <v>43917</v>
-      </c>
-      <c r="C82" s="2">
-        <v>394079</v>
-      </c>
-      <c r="D82" s="2">
-        <v>86498</v>
-      </c>
-      <c r="E82" s="2">
-        <v>9134</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="2" customFormat="1">
-      <c r="A83" t="s">
-        <v>25</v>
-      </c>
-      <c r="B83" s="21">
-        <v>43918</v>
-      </c>
-      <c r="C83" s="2">
-        <v>429526</v>
-      </c>
-      <c r="D83" s="2">
-        <v>92472</v>
-      </c>
-      <c r="E83" s="2">
-        <v>10023</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14930,16 +13869,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -10289,7 +10289,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -10289,7 +10289,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -460,6 +460,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -629,7 +630,7 @@
                   <c:v>9377</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>9974</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -643,8 +644,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="67718528"/>
-        <c:axId val="67716992"/>
+        <c:axId val="179519872"/>
+        <c:axId val="179518080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -792,17 +793,20 @@
                 <c:pt idx="21">
                   <c:v>0.11074094295756765</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3330341631653851E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67701376"/>
-        <c:axId val="67715456"/>
+        <c:axId val="179490176"/>
+        <c:axId val="179516544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67701376"/>
+        <c:axId val="179490176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -820,13 +824,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67715456"/>
+        <c:crossAx val="179516544"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67715456"/>
+        <c:axId val="179516544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -840,24 +844,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67701376"/>
+        <c:crossAx val="179490176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67716992"/>
+        <c:axId val="179518080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67718528"/>
+        <c:crossAx val="179519872"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="67718528"/>
+        <c:axId val="179519872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,7 +869,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67716992"/>
+        <c:crossAx val="179518080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -873,13 +877,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1130,25 +1135,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="71856512"/>
-        <c:axId val="71858048"/>
+        <c:axId val="192328448"/>
+        <c:axId val="192329984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71856512"/>
+        <c:axId val="192328448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71858048"/>
+        <c:crossAx val="192329984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71858048"/>
+        <c:axId val="192329984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1167,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71856512"/>
+        <c:crossAx val="192328448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1171,7 +1176,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1202,6 +1207,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -1446,7 +1452,7 @@
                   <c:v>97689</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>101739</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -1457,8 +1463,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="71910144"/>
-        <c:axId val="71908352"/>
+        <c:axId val="191948288"/>
+        <c:axId val="191946752"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1690,17 +1696,20 @@
                 <c:pt idx="34">
                   <c:v>7.1500714715988428E-2</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.4729306398888603E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71905280"/>
-        <c:axId val="71906816"/>
+        <c:axId val="191935232"/>
+        <c:axId val="191936768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71905280"/>
+        <c:axId val="191935232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,13 +1717,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71906816"/>
+        <c:crossAx val="191936768"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71906816"/>
+        <c:axId val="191936768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1728,24 +1737,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71905280"/>
+        <c:crossAx val="191935232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71908352"/>
+        <c:axId val="191946752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71910144"/>
+        <c:crossAx val="191948288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="71910144"/>
+        <c:axId val="191948288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,7 +1762,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="71908352"/>
+        <c:crossAx val="191946752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1761,13 +1770,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1794,6 +1804,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2062,31 +2073,34 @@
                 <c:pt idx="36">
                   <c:v>24504</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>23329</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="71942912"/>
-        <c:axId val="71944448"/>
+        <c:axId val="192562688"/>
+        <c:axId val="192564224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71942912"/>
+        <c:axId val="192562688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71944448"/>
+        <c:crossAx val="192564224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71944448"/>
+        <c:axId val="192564224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2114,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71942912"/>
+        <c:crossAx val="192562688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2109,7 +2123,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2135,6 +2149,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2400,31 +2415,34 @@
                 <c:pt idx="36">
                   <c:v>5217</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>4050</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179050368"/>
-        <c:axId val="179051904"/>
+        <c:axId val="192584320"/>
+        <c:axId val="192594304"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179050368"/>
+        <c:axId val="192584320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179051904"/>
+        <c:crossAx val="192594304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179051904"/>
+        <c:axId val="192594304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2438,7 +2456,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179050368"/>
+        <c:crossAx val="192584320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2447,7 +2465,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2478,6 +2496,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -2715,8 +2734,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180431104"/>
-        <c:axId val="180429568"/>
+        <c:axId val="192449536"/>
+        <c:axId val="192448000"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2951,11 +2970,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179103232"/>
-        <c:axId val="179104768"/>
+        <c:axId val="192436480"/>
+        <c:axId val="192446464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179103232"/>
+        <c:axId val="192436480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,13 +2982,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179104768"/>
+        <c:crossAx val="192446464"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179104768"/>
+        <c:axId val="192446464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,24 +3002,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179103232"/>
+        <c:crossAx val="192436480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180429568"/>
+        <c:axId val="192448000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180431104"/>
+        <c:crossAx val="192449536"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180431104"/>
+        <c:axId val="192449536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3008,7 +3027,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180429568"/>
+        <c:crossAx val="192448000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3016,13 +3035,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3048,6 +3068,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3316,31 +3337,34 @@
                 <c:pt idx="36">
                   <c:v>756</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180447488"/>
-        <c:axId val="180453376"/>
+        <c:axId val="192461824"/>
+        <c:axId val="192484096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180447488"/>
+        <c:axId val="192461824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180453376"/>
+        <c:crossAx val="192484096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180453376"/>
+        <c:axId val="192484096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3378,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180447488"/>
+        <c:crossAx val="192461824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3363,7 +3387,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3389,6 +3413,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3573,31 +3598,34 @@
                 <c:pt idx="23">
                   <c:v>3014</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>2889</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="64273024"/>
-        <c:axId val="67760512"/>
+        <c:axId val="179531136"/>
+        <c:axId val="179467392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="64273024"/>
+        <c:axId val="179531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67760512"/>
+        <c:crossAx val="179467392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67760512"/>
+        <c:axId val="179467392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3611,7 +3639,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="64273024"/>
+        <c:crossAx val="179531136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3620,7 +3648,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000167" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000167" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3646,6 +3674,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -3833,31 +3862,34 @@
                 <c:pt idx="23">
                   <c:v>741</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>597</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="67767680"/>
-        <c:axId val="67781760"/>
+        <c:axId val="180228480"/>
+        <c:axId val="180230016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="67767680"/>
+        <c:axId val="180228480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67781760"/>
+        <c:crossAx val="180230016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67781760"/>
+        <c:axId val="180230016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3871,7 +3903,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67767680"/>
+        <c:crossAx val="180228480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3880,7 +3912,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3911,6 +3943,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4080,7 +4113,7 @@
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -4094,8 +4127,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69939968"/>
-        <c:axId val="67820544"/>
+        <c:axId val="180286976"/>
+        <c:axId val="180285440"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4237,17 +4270,20 @@
                 <c:pt idx="21">
                   <c:v>0.29145045192456781</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.21235845670354031</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67817472"/>
-        <c:axId val="67819008"/>
+        <c:axId val="180273920"/>
+        <c:axId val="180275456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67817472"/>
+        <c:axId val="180273920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4265,13 +4301,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67819008"/>
+        <c:crossAx val="180275456"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67819008"/>
+        <c:axId val="180275456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4285,24 +4321,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67817472"/>
+        <c:crossAx val="180273920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67820544"/>
+        <c:axId val="180285440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69939968"/>
+        <c:crossAx val="180286976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="69939968"/>
+        <c:axId val="180286976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4310,7 +4346,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67820544"/>
+        <c:crossAx val="180285440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4318,13 +4354,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4350,6 +4387,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4534,31 +4572,34 @@
                 <c:pt idx="23">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69959040"/>
-        <c:axId val="69964928"/>
+        <c:axId val="180310400"/>
+        <c:axId val="180311936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="69959040"/>
+        <c:axId val="180310400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69964928"/>
+        <c:crossAx val="180311936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69964928"/>
+        <c:axId val="180311936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4572,7 +4613,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69959040"/>
+        <c:crossAx val="180310400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4581,7 +4622,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4826,8 +4867,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="62956672"/>
-        <c:axId val="62954880"/>
+        <c:axId val="180758400"/>
+        <c:axId val="180756864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5014,11 +5055,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="62951808"/>
-        <c:axId val="62953344"/>
+        <c:axId val="180749440"/>
+        <c:axId val="180750976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="62951808"/>
+        <c:axId val="180749440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5036,13 +5077,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="62953344"/>
+        <c:crossAx val="180750976"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="62953344"/>
+        <c:axId val="180750976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5056,24 +5097,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62951808"/>
+        <c:crossAx val="180749440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62954880"/>
+        <c:axId val="180756864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="62956672"/>
+        <c:crossAx val="180758400"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="62956672"/>
+        <c:axId val="180758400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5081,7 +5122,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="62954880"/>
+        <c:crossAx val="180756864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5096,7 +5137,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5344,25 +5385,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="62961920"/>
-        <c:axId val="71513600"/>
+        <c:axId val="180767744"/>
+        <c:axId val="191960960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="62961920"/>
+        <c:axId val="180767744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71513600"/>
+        <c:crossAx val="191960960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71513600"/>
+        <c:axId val="191960960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5376,7 +5417,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62961920"/>
+        <c:crossAx val="180767744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5385,7 +5426,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5632,25 +5673,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="71467392"/>
-        <c:axId val="71468928"/>
+        <c:axId val="191980288"/>
+        <c:axId val="191981824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71467392"/>
+        <c:axId val="191980288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71468928"/>
+        <c:crossAx val="191981824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71468928"/>
+        <c:axId val="191981824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5664,7 +5705,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71467392"/>
+        <c:crossAx val="191980288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5673,7 +5714,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5888,8 +5929,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="71828992"/>
-        <c:axId val="71827456"/>
+        <c:axId val="192313600"/>
+        <c:axId val="192312064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6058,11 +6099,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="71557888"/>
-        <c:axId val="71559424"/>
+        <c:axId val="192292352"/>
+        <c:axId val="192293888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="71557888"/>
+        <c:axId val="192292352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6080,13 +6121,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71559424"/>
+        <c:crossAx val="192293888"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71559424"/>
+        <c:axId val="192293888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6100,24 +6141,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="71557888"/>
+        <c:crossAx val="192292352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="71827456"/>
+        <c:axId val="192312064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71828992"/>
+        <c:crossAx val="192313600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="71828992"/>
+        <c:axId val="192313600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6125,7 +6166,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="71827456"/>
+        <c:crossAx val="192312064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6140,7 +6181,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7211,8 +7252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8196,6 +8237,18 @@
       <c r="B66" s="21">
         <v>43921</v>
       </c>
+      <c r="C66" s="2">
+        <v>52344</v>
+      </c>
+      <c r="D66" s="2">
+        <v>9974</v>
+      </c>
+      <c r="E66" s="2">
+        <v>128</v>
+      </c>
+      <c r="F66" s="2">
+        <v>1095</v>
+      </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
@@ -8878,6 +8931,15 @@
       </c>
       <c r="B114" s="21">
         <v>43920</v>
+      </c>
+      <c r="C114" s="2">
+        <v>477359</v>
+      </c>
+      <c r="D114" s="2">
+        <v>101739</v>
+      </c>
+      <c r="E114" s="2">
+        <v>11591</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -8980,7 +9042,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10150,15 +10212,47 @@
       </c>
       <c r="C28" s="2">
         <f>Data!C66</f>
-        <v>0</v>
+        <v>52344</v>
+      </c>
+      <c r="D28" s="2">
+        <f>C28-C27</f>
+        <v>2889</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" ref="E28" si="31">H28/D28</f>
+        <v>0.2066458982346833</v>
       </c>
       <c r="G28" s="2">
         <f>Data!D66</f>
-        <v>0</v>
+        <v>9974</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" ref="H28" si="32">G28-G27</f>
+        <v>597</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" ref="I28" si="33">G28/G27-1</f>
+        <v>6.3666417830862798E-2</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" ref="J28" si="34">SUM(I24:I28)/5</f>
+        <v>9.3330341631653851E-2</v>
       </c>
       <c r="L28">
         <f>Data!E66</f>
-        <v>0</v>
+        <v>128</v>
+      </c>
+      <c r="M28">
+        <f t="shared" ref="M28" si="35">L28-L27</f>
+        <v>20</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" ref="N28" si="36">L28/L27-1</f>
+        <v>0.18518518518518512</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" ref="O28" si="37">SUM(N24:N28)/5</f>
+        <v>0.21235845670354031</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -10289,7 +10383,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10427,11 +10521,11 @@
         <v>19083</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D6:D11" si="1">C7-C6</f>
+        <f t="shared" ref="D7:D11" si="1">C7-C6</f>
         <v>2424</v>
       </c>
       <c r="E7" s="11">
-        <f t="shared" ref="E6:E10" si="2">H7/D7</f>
+        <f t="shared" ref="E7:E10" si="2">H7/D7</f>
         <v>1.2376237623762377E-2</v>
       </c>
       <c r="G7" s="2">
@@ -10439,11 +10533,11 @@
         <v>115</v>
       </c>
       <c r="H7" s="3">
-        <f t="shared" ref="H6:H15" si="3">G7-G6</f>
+        <f t="shared" ref="H7:H15" si="3">G7-G6</f>
         <v>30</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I6:I15" si="4">G7/G6-1</f>
+        <f t="shared" ref="I7:I15" si="4">G7/G6-1</f>
         <v>0.35294117647058831</v>
       </c>
       <c r="L7" s="2">
@@ -10533,7 +10627,7 @@
         <v>1</v>
       </c>
       <c r="N9" s="1">
-        <f t="shared" ref="N6:N14" si="5">L9/L8-1</f>
+        <f t="shared" ref="N9:N14" si="5">L9/L8-1</f>
         <v>1</v>
       </c>
       <c r="O9" s="16"/>
@@ -10609,7 +10703,7 @@
         <v>0.17582417582417587</v>
       </c>
       <c r="J11" s="16">
-        <f t="shared" ref="J6:J15" si="7">SUM(I7:I11)/5</f>
+        <f t="shared" ref="J11:J15" si="7">SUM(I7:I11)/5</f>
         <v>0.30704061121415749</v>
       </c>
       <c r="L11" s="2">
@@ -10813,7 +10907,7 @@
         <v>11</v>
       </c>
       <c r="M15">
-        <f t="shared" ref="M13:M27" si="10">L15-L14</f>
+        <f t="shared" ref="M15:M27" si="10">L15-L14</f>
         <v>1</v>
       </c>
       <c r="N15" s="1">
@@ -10846,11 +10940,11 @@
         <v>1140</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" ref="H12:H25" si="12">G16-G15</f>
+        <f t="shared" ref="H16:H25" si="12">G16-G15</f>
         <v>342</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" ref="I12:I27" si="13">G16/G15-1</f>
+        <f t="shared" ref="I16:I27" si="13">G16/G15-1</f>
         <v>0.4285714285714286</v>
       </c>
       <c r="J16" s="16">
@@ -11837,7 +11931,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N50" sqref="N50"/>
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13691,15 +13785,47 @@
       </c>
       <c r="C41" s="2">
         <f>Data!C114</f>
-        <v>0</v>
+        <v>477359</v>
+      </c>
+      <c r="D41" s="2">
+        <f>C41-C40</f>
+        <v>23329</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" ref="E41" si="22">H41/D41</f>
+        <v>0.17360366925286125</v>
       </c>
       <c r="G41" s="2">
         <f>Data!D114</f>
-        <v>0</v>
+        <v>101739</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41" si="23">G41-G40</f>
+        <v>4050</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" ref="I41" si="24">G41/G40-1</f>
+        <v>4.1458096612720041E-2</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" ref="J41" si="25">SUM(I37:I41)/5</f>
+        <v>6.4729306398888603E-2</v>
       </c>
       <c r="L41" s="2">
         <f>Data!E114</f>
-        <v>0</v>
+        <v>11591</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41" si="26">L41-L40</f>
+        <v>812</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" ref="N41" si="27">L41/L40-1</f>
+        <v>7.5331663419612171E-2</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" ref="O41" si="28">SUM(N37:N41)/5</f>
+        <v>9.0999099952427581E-2</v>
       </c>
     </row>
     <row r="42" spans="1:16">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -179,7 +179,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -257,6 +257,9 @@
   </si>
   <si>
     <t>IT</t>
+  </si>
+  <si>
+    <t>Note that UK chanfed its death reporting from this date to include non-hospital deaths</t>
   </si>
 </sst>
 </file>
@@ -644,8 +647,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179519872"/>
-        <c:axId val="179518080"/>
+        <c:axId val="206848384"/>
+        <c:axId val="206846592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -802,11 +805,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179490176"/>
-        <c:axId val="179516544"/>
+        <c:axId val="206818688"/>
+        <c:axId val="206845056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179490176"/>
+        <c:axId val="206818688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -824,13 +827,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179516544"/>
+        <c:crossAx val="206845056"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179516544"/>
+        <c:axId val="206845056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,24 +847,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179490176"/>
+        <c:crossAx val="206818688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179518080"/>
+        <c:axId val="206846592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179519872"/>
+        <c:crossAx val="206848384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179519872"/>
+        <c:axId val="206848384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,7 +872,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179518080"/>
+        <c:crossAx val="206846592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -884,7 +887,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1135,25 +1138,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192328448"/>
-        <c:axId val="192329984"/>
+        <c:axId val="220906240"/>
+        <c:axId val="220907776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192328448"/>
+        <c:axId val="220906240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192329984"/>
+        <c:crossAx val="220907776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192329984"/>
+        <c:axId val="220907776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1170,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192328448"/>
+        <c:crossAx val="220906240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1176,7 +1179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1463,8 +1466,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="191948288"/>
-        <c:axId val="191946752"/>
+        <c:axId val="221046272"/>
+        <c:axId val="221044736"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1705,11 +1708,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="191935232"/>
-        <c:axId val="191936768"/>
+        <c:axId val="221033216"/>
+        <c:axId val="221034752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191935232"/>
+        <c:axId val="221033216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1717,13 +1720,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191936768"/>
+        <c:crossAx val="221034752"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191936768"/>
+        <c:axId val="221034752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,24 +1740,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="191935232"/>
+        <c:crossAx val="221033216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191946752"/>
+        <c:axId val="221044736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191948288"/>
+        <c:crossAx val="221046272"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="191948288"/>
+        <c:axId val="221046272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1762,7 +1765,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="191946752"/>
+        <c:crossAx val="221044736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1777,7 +1780,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2082,25 +2085,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192562688"/>
-        <c:axId val="192564224"/>
+        <c:axId val="221271552"/>
+        <c:axId val="221273088"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192562688"/>
+        <c:axId val="221271552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192564224"/>
+        <c:crossAx val="221273088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192564224"/>
+        <c:axId val="221273088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2114,7 +2117,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192562688"/>
+        <c:crossAx val="221271552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2123,7 +2126,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2424,25 +2427,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192584320"/>
-        <c:axId val="192594304"/>
+        <c:axId val="221293184"/>
+        <c:axId val="221299072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192584320"/>
+        <c:axId val="221293184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192594304"/>
+        <c:crossAx val="221299072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192594304"/>
+        <c:axId val="221299072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2456,7 +2459,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192584320"/>
+        <c:crossAx val="221293184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2465,7 +2468,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2734,8 +2737,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192449536"/>
-        <c:axId val="192448000"/>
+        <c:axId val="221154304"/>
+        <c:axId val="221152768"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2970,11 +2973,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="192436480"/>
-        <c:axId val="192446464"/>
+        <c:axId val="221145344"/>
+        <c:axId val="221151232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192436480"/>
+        <c:axId val="221145344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2982,13 +2985,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192446464"/>
+        <c:crossAx val="221151232"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192446464"/>
+        <c:axId val="221151232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,24 +3005,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192436480"/>
+        <c:crossAx val="221145344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192448000"/>
+        <c:axId val="221152768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192449536"/>
+        <c:crossAx val="221154304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="192449536"/>
+        <c:axId val="221154304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3027,7 +3030,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="192448000"/>
+        <c:crossAx val="221152768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3042,7 +3045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3346,25 +3349,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192461824"/>
-        <c:axId val="192484096"/>
+        <c:axId val="221166592"/>
+        <c:axId val="221188864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="192461824"/>
+        <c:axId val="221166592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192484096"/>
+        <c:crossAx val="221188864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192484096"/>
+        <c:axId val="221188864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3378,7 +3381,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192461824"/>
+        <c:crossAx val="221166592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3387,7 +3390,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3607,25 +3610,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179531136"/>
-        <c:axId val="179467392"/>
+        <c:axId val="206859648"/>
+        <c:axId val="206795904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="179531136"/>
+        <c:axId val="206859648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179467392"/>
+        <c:crossAx val="206795904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179467392"/>
+        <c:axId val="206795904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3639,7 +3642,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179531136"/>
+        <c:crossAx val="206859648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3648,7 +3651,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000178" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000178" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3871,25 +3874,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180228480"/>
-        <c:axId val="180230016"/>
+        <c:axId val="206901632"/>
+        <c:axId val="206903168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180228480"/>
+        <c:axId val="206901632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180230016"/>
+        <c:crossAx val="206903168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180230016"/>
+        <c:axId val="206903168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3903,7 +3906,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180228480"/>
+        <c:crossAx val="206901632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3912,7 +3915,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4127,8 +4130,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180286976"/>
-        <c:axId val="180285440"/>
+        <c:axId val="206960128"/>
+        <c:axId val="206958592"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4279,11 +4282,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180273920"/>
-        <c:axId val="180275456"/>
+        <c:axId val="206947072"/>
+        <c:axId val="206948608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180273920"/>
+        <c:axId val="206947072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4301,13 +4304,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180275456"/>
+        <c:crossAx val="206948608"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180275456"/>
+        <c:axId val="206948608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4321,24 +4324,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180273920"/>
+        <c:crossAx val="206947072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180285440"/>
+        <c:axId val="206958592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180286976"/>
+        <c:crossAx val="206960128"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180286976"/>
+        <c:axId val="206960128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4346,7 +4349,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180285440"/>
+        <c:crossAx val="206958592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4361,7 +4364,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4581,25 +4584,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180310400"/>
-        <c:axId val="180311936"/>
+        <c:axId val="207516032"/>
+        <c:axId val="207517568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180310400"/>
+        <c:axId val="207516032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180311936"/>
+        <c:crossAx val="207517568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180311936"/>
+        <c:axId val="207517568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4613,7 +4616,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180310400"/>
+        <c:crossAx val="207516032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4622,7 +4625,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4853,7 +4856,7 @@
                   <c:v>22141</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>25150</c:v>
                 </c:pt>
                 <c:pt idx="28">
                   <c:v>0</c:v>
@@ -4867,8 +4870,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180758400"/>
-        <c:axId val="180756864"/>
+        <c:axId val="214116224"/>
+        <c:axId val="214114688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5055,11 +5058,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180749440"/>
-        <c:axId val="180750976"/>
+        <c:axId val="214107264"/>
+        <c:axId val="214108800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180749440"/>
+        <c:axId val="214107264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5077,13 +5080,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180750976"/>
+        <c:crossAx val="214108800"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180750976"/>
+        <c:axId val="214108800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5097,24 +5100,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180749440"/>
+        <c:crossAx val="214107264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180756864"/>
+        <c:axId val="214114688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180758400"/>
+        <c:crossAx val="214116224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180758400"/>
+        <c:axId val="214116224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,7 +5125,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180756864"/>
+        <c:crossAx val="214114688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5137,7 +5140,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5385,25 +5388,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180767744"/>
-        <c:axId val="191960960"/>
+        <c:axId val="214125568"/>
+        <c:axId val="220931968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="180767744"/>
+        <c:axId val="214125568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191960960"/>
+        <c:crossAx val="220931968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191960960"/>
+        <c:axId val="220931968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5417,7 +5420,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180767744"/>
+        <c:crossAx val="214125568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5426,7 +5429,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5673,25 +5676,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="191980288"/>
-        <c:axId val="191981824"/>
+        <c:axId val="220951296"/>
+        <c:axId val="220952832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="191980288"/>
+        <c:axId val="220951296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191981824"/>
+        <c:crossAx val="220952832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191981824"/>
+        <c:axId val="220952832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5705,7 +5708,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="191980288"/>
+        <c:crossAx val="220951296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5714,7 +5717,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5915,7 +5918,7 @@
                   <c:v>1408</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>0</c:v>
@@ -5929,8 +5932,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192313600"/>
-        <c:axId val="192312064"/>
+        <c:axId val="220891392"/>
+        <c:axId val="220889856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6099,11 +6102,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="192292352"/>
-        <c:axId val="192293888"/>
+        <c:axId val="220870144"/>
+        <c:axId val="220871680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192292352"/>
+        <c:axId val="220870144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6121,13 +6124,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192293888"/>
+        <c:crossAx val="220871680"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192293888"/>
+        <c:axId val="220871680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6141,24 +6144,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192292352"/>
+        <c:crossAx val="220870144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192312064"/>
+        <c:axId val="220889856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192313600"/>
+        <c:crossAx val="220891392"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="192313600"/>
+        <c:axId val="220891392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6166,7 +6169,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="192312064"/>
+        <c:crossAx val="220889856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6181,7 +6184,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7250,10 +7253,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7521,7 +7524,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -7538,7 +7541,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -7555,7 +7558,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -7623,7 +7626,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -7640,7 +7643,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7657,7 +7660,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -7674,7 +7677,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7691,7 +7694,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -7708,7 +7711,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:8">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -7725,7 +7728,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:8">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -7742,15 +7745,27 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:8">
       <c r="A30" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="21">
         <v>43921</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="C30" s="2">
+        <v>143186</v>
+      </c>
+      <c r="D30" s="2">
+        <v>25150</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1789</v>
+      </c>
+      <c r="H30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -7758,7 +7773,7 @@
         <v>43922</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:8">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -9042,7 +9057,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9955,7 +9970,7 @@
         <v>35995</v>
       </c>
       <c r="D23" s="2">
-        <f>C23-C22</f>
+        <f t="shared" ref="D23:D28" si="13">C23-C22</f>
         <v>3588</v>
       </c>
       <c r="E23" s="11">
@@ -9971,7 +9986,7 @@
         <v>838</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" ref="I23" si="13">G23/G22-1</f>
+        <f t="shared" ref="I23" si="14">G23/G22-1</f>
         <v>0.15071942446043174</v>
       </c>
       <c r="J23" s="16">
@@ -9987,7 +10002,7 @@
         <v>18</v>
       </c>
       <c r="N23" s="1">
-        <f t="shared" ref="N23" si="14">L23/L22-1</f>
+        <f t="shared" ref="N23" si="15">L23/L22-1</f>
         <v>0.58064516129032251</v>
       </c>
       <c r="O23" s="16">
@@ -10007,7 +10022,7 @@
         <v>39552</v>
       </c>
       <c r="D24" s="2">
-        <f>C24-C23</f>
+        <f t="shared" si="13"/>
         <v>3557</v>
       </c>
       <c r="E24" s="11">
@@ -10023,7 +10038,7 @@
         <v>1001</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" ref="I24" si="15">G24/G23-1</f>
+        <f t="shared" ref="I24" si="16">G24/G23-1</f>
         <v>0.15645514223194756</v>
       </c>
       <c r="J24" s="16">
@@ -10035,11 +10050,11 @@
         <v>58</v>
       </c>
       <c r="M24">
-        <f t="shared" ref="M24" si="16">L24-L23</f>
+        <f t="shared" ref="M24" si="17">L24-L23</f>
         <v>9</v>
       </c>
       <c r="N24" s="1">
-        <f t="shared" ref="N24" si="17">L24/L23-1</f>
+        <f t="shared" ref="N24" si="18">L24/L23-1</f>
         <v>0.18367346938775508</v>
       </c>
       <c r="O24" s="16">
@@ -10059,7 +10074,7 @@
         <v>42750</v>
       </c>
       <c r="D25" s="2">
-        <f>C25-C24</f>
+        <f t="shared" si="13"/>
         <v>3198</v>
       </c>
       <c r="E25" s="11">
@@ -10075,7 +10090,7 @@
         <v>596</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" ref="I25" si="18">G25/G24-1</f>
+        <f t="shared" ref="I25" si="19">G25/G24-1</f>
         <v>8.0551425868360615E-2</v>
       </c>
       <c r="J25" s="16">
@@ -10087,11 +10102,11 @@
         <v>68</v>
       </c>
       <c r="M25">
-        <f t="shared" ref="M25" si="19">L25-L24</f>
+        <f t="shared" ref="M25" si="20">L25-L24</f>
         <v>10</v>
       </c>
       <c r="N25" s="1">
-        <f t="shared" ref="N25" si="20">L25/L24-1</f>
+        <f t="shared" ref="N25" si="21">L25/L24-1</f>
         <v>0.17241379310344818</v>
       </c>
       <c r="O25" s="16">
@@ -10111,7 +10126,7 @@
         <v>46441</v>
       </c>
       <c r="D26" s="2">
-        <f>C26-C25</f>
+        <f t="shared" si="13"/>
         <v>3691</v>
       </c>
       <c r="E26" s="11">
@@ -10127,7 +10142,7 @@
         <v>641</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" ref="I26" si="21">G26/G25-1</f>
+        <f t="shared" ref="I26" si="22">G26/G25-1</f>
         <v>8.0175109443402226E-2</v>
       </c>
       <c r="J26" s="16">
@@ -10139,11 +10154,11 @@
         <v>86</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26" si="22">L26-L25</f>
+        <f t="shared" ref="M26" si="23">L26-L25</f>
         <v>18</v>
       </c>
       <c r="N26" s="1">
-        <f t="shared" ref="N26" si="23">L26/L25-1</f>
+        <f t="shared" ref="N26" si="24">L26/L25-1</f>
         <v>0.26470588235294112</v>
       </c>
       <c r="O26" s="16">
@@ -10163,11 +10178,11 @@
         <v>49455</v>
       </c>
       <c r="D27" s="2">
-        <f>C27-C26</f>
+        <f t="shared" si="13"/>
         <v>3014</v>
       </c>
       <c r="E27" s="11">
-        <f t="shared" ref="E27" si="24">H27/D27</f>
+        <f t="shared" ref="E27" si="25">H27/D27</f>
         <v>0.24585268745852687</v>
       </c>
       <c r="G27" s="2">
@@ -10175,15 +10190,15 @@
         <v>9377</v>
       </c>
       <c r="H27" s="3">
-        <f t="shared" ref="H27" si="25">G27-G26</f>
+        <f t="shared" ref="H27" si="26">G27-G26</f>
         <v>741</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" ref="I27" si="26">G27/G26-1</f>
+        <f t="shared" ref="I27" si="27">G27/G26-1</f>
         <v>8.5803612783696082E-2</v>
       </c>
       <c r="J27" s="16">
-        <f t="shared" ref="J27" si="27">SUM(I23:I27)/5</f>
+        <f t="shared" ref="J27" si="28">SUM(I23:I27)/5</f>
         <v>0.11074094295756765</v>
       </c>
       <c r="L27">
@@ -10191,15 +10206,15 @@
         <v>108</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27" si="28">L27-L26</f>
+        <f t="shared" ref="M27" si="29">L27-L26</f>
         <v>22</v>
       </c>
       <c r="N27" s="1">
-        <f t="shared" ref="N27" si="29">L27/L26-1</f>
+        <f t="shared" ref="N27" si="30">L27/L26-1</f>
         <v>0.2558139534883721</v>
       </c>
       <c r="O27" s="16">
-        <f t="shared" ref="O27" si="30">SUM(N23:N27)/5</f>
+        <f t="shared" ref="O27" si="31">SUM(N23:N27)/5</f>
         <v>0.29145045192456781</v>
       </c>
     </row>
@@ -10215,11 +10230,11 @@
         <v>52344</v>
       </c>
       <c r="D28" s="2">
-        <f>C28-C27</f>
+        <f t="shared" si="13"/>
         <v>2889</v>
       </c>
       <c r="E28" s="11">
-        <f t="shared" ref="E28" si="31">H28/D28</f>
+        <f t="shared" ref="E28" si="32">H28/D28</f>
         <v>0.2066458982346833</v>
       </c>
       <c r="G28" s="2">
@@ -10227,15 +10242,15 @@
         <v>9974</v>
       </c>
       <c r="H28" s="3">
-        <f t="shared" ref="H28" si="32">G28-G27</f>
+        <f t="shared" ref="H28" si="33">G28-G27</f>
         <v>597</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" ref="I28" si="33">G28/G27-1</f>
+        <f t="shared" ref="I28" si="34">G28/G27-1</f>
         <v>6.3666417830862798E-2</v>
       </c>
       <c r="J28" s="16">
-        <f t="shared" ref="J28" si="34">SUM(I24:I28)/5</f>
+        <f t="shared" ref="J28" si="35">SUM(I24:I28)/5</f>
         <v>9.3330341631653851E-2</v>
       </c>
       <c r="L28">
@@ -10243,15 +10258,15 @@
         <v>128</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28" si="35">L28-L27</f>
+        <f t="shared" ref="M28" si="36">L28-L27</f>
         <v>20</v>
       </c>
       <c r="N28" s="1">
-        <f t="shared" ref="N28" si="36">L28/L27-1</f>
+        <f t="shared" ref="N28" si="37">L28/L27-1</f>
         <v>0.18518518518518512</v>
       </c>
       <c r="O28" s="16">
-        <f t="shared" ref="O28" si="37">SUM(N24:N28)/5</f>
+        <f t="shared" ref="O28" si="38">SUM(N24:N28)/5</f>
         <v>0.21235845670354031</v>
       </c>
     </row>
@@ -11793,15 +11808,15 @@
       </c>
       <c r="C33" s="2">
         <f>Data!C30</f>
-        <v>0</v>
+        <v>143186</v>
       </c>
       <c r="G33" s="2">
         <f>Data!D30</f>
-        <v>0</v>
+        <v>25150</v>
       </c>
       <c r="L33" s="2">
         <f>Data!E30</f>
-        <v>0</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -11930,8 +11945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -636,7 +636,7 @@
                   <c:v>9974</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>10482</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -647,8 +647,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="206848384"/>
-        <c:axId val="206846592"/>
+        <c:axId val="195445120"/>
+        <c:axId val="195443328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -799,17 +799,20 @@
                 <c:pt idx="22">
                   <c:v>9.3330341631653851E-2</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.2225798045902012E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="206818688"/>
-        <c:axId val="206845056"/>
+        <c:axId val="194891136"/>
+        <c:axId val="195441792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206818688"/>
+        <c:axId val="194891136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -827,13 +830,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206845056"/>
+        <c:crossAx val="195441792"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206845056"/>
+        <c:axId val="195441792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -847,24 +850,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="206818688"/>
+        <c:crossAx val="194891136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206846592"/>
+        <c:axId val="195443328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206848384"/>
+        <c:crossAx val="195445120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="206848384"/>
+        <c:axId val="195445120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -872,7 +875,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206846592"/>
+        <c:crossAx val="195443328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -887,7 +890,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1132,31 +1135,37 @@
                 <c:pt idx="28">
                   <c:v>180</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>563</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="220906240"/>
-        <c:axId val="220907776"/>
+        <c:axId val="196788992"/>
+        <c:axId val="196790528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220906240"/>
+        <c:axId val="196788992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220907776"/>
+        <c:crossAx val="196790528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220907776"/>
+        <c:axId val="196790528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1170,7 +1179,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220906240"/>
+        <c:crossAx val="196788992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1179,7 +1188,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1458,7 +1467,7 @@
                   <c:v>101739</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>105972</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1466,8 +1475,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="221046272"/>
-        <c:axId val="221044736"/>
+        <c:axId val="197060096"/>
+        <c:axId val="197058560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1702,17 +1711,20 @@
                 <c:pt idx="35">
                   <c:v>6.4729306398888603E-2</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.6507163525775582E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221033216"/>
-        <c:axId val="221034752"/>
+        <c:axId val="197047040"/>
+        <c:axId val="197048576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221033216"/>
+        <c:axId val="197047040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1720,13 +1732,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221034752"/>
+        <c:crossAx val="197048576"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221034752"/>
+        <c:axId val="197048576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,24 +1752,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="221033216"/>
+        <c:crossAx val="197047040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221044736"/>
+        <c:axId val="197058560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221046272"/>
+        <c:crossAx val="197060096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="221046272"/>
+        <c:axId val="197060096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1765,7 +1777,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="221044736"/>
+        <c:crossAx val="197058560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1780,7 +1792,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2079,31 +2091,34 @@
                 <c:pt idx="37">
                   <c:v>23329</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>29609</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="221271552"/>
-        <c:axId val="221273088"/>
+        <c:axId val="197219840"/>
+        <c:axId val="197221376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="221271552"/>
+        <c:axId val="197219840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221273088"/>
+        <c:crossAx val="197221376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221273088"/>
+        <c:axId val="197221376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2117,7 +2132,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="221271552"/>
+        <c:crossAx val="197219840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2126,7 +2141,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2421,31 +2436,34 @@
                 <c:pt idx="37">
                   <c:v>4050</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>4233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="221293184"/>
-        <c:axId val="221299072"/>
+        <c:axId val="197237376"/>
+        <c:axId val="197247360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="221293184"/>
+        <c:axId val="197237376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221299072"/>
+        <c:crossAx val="197247360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221299072"/>
+        <c:axId val="197247360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2459,7 +2477,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="221293184"/>
+        <c:crossAx val="197237376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2468,7 +2486,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2737,8 +2755,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="221154304"/>
-        <c:axId val="221152768"/>
+        <c:axId val="197102592"/>
+        <c:axId val="197101056"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2973,11 +2991,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="221145344"/>
-        <c:axId val="221151232"/>
+        <c:axId val="197093632"/>
+        <c:axId val="197099520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="221145344"/>
+        <c:axId val="197093632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2985,13 +3003,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221151232"/>
+        <c:crossAx val="197099520"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221151232"/>
+        <c:axId val="197099520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3005,24 +3023,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="221145344"/>
+        <c:crossAx val="197093632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221152768"/>
+        <c:axId val="197101056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221154304"/>
+        <c:crossAx val="197102592"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="221154304"/>
+        <c:axId val="197102592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3030,7 +3048,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="221152768"/>
+        <c:crossAx val="197101056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3045,7 +3063,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3343,31 +3361,34 @@
                 <c:pt idx="37">
                   <c:v>812</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>837</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="221166592"/>
-        <c:axId val="221188864"/>
+        <c:axId val="197114880"/>
+        <c:axId val="197137152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="221166592"/>
+        <c:axId val="197114880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="221188864"/>
+        <c:crossAx val="197137152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="221188864"/>
+        <c:axId val="197137152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3381,7 +3402,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="221166592"/>
+        <c:crossAx val="197114880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3390,7 +3411,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3604,31 +3625,34 @@
                 <c:pt idx="24">
                   <c:v>2889</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>3519</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="206859648"/>
-        <c:axId val="206795904"/>
+        <c:axId val="195456384"/>
+        <c:axId val="194868352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206859648"/>
+        <c:axId val="195456384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206795904"/>
+        <c:crossAx val="194868352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206795904"/>
+        <c:axId val="194868352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,7 +3666,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="206859648"/>
+        <c:crossAx val="195456384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3651,7 +3675,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3868,31 +3892,34 @@
                 <c:pt idx="24">
                   <c:v>597</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="206901632"/>
-        <c:axId val="206903168"/>
+        <c:axId val="195891584"/>
+        <c:axId val="195893120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="206901632"/>
+        <c:axId val="195891584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206903168"/>
+        <c:crossAx val="195893120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206903168"/>
+        <c:axId val="195893120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3906,7 +3933,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="206901632"/>
+        <c:crossAx val="195891584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3915,7 +3942,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4119,7 +4146,7 @@
                   <c:v>128</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -4130,8 +4157,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="206960128"/>
-        <c:axId val="206958592"/>
+        <c:axId val="195950080"/>
+        <c:axId val="195948544"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4276,17 +4303,20 @@
                 <c:pt idx="22">
                   <c:v>0.21235845670354031</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.2037487628259893</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="206947072"/>
-        <c:axId val="206948608"/>
+        <c:axId val="195937024"/>
+        <c:axId val="195938560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="206947072"/>
+        <c:axId val="195937024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4304,13 +4334,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206948608"/>
+        <c:crossAx val="195938560"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="206948608"/>
+        <c:axId val="195938560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4324,24 +4354,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="206947072"/>
+        <c:crossAx val="195937024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206958592"/>
+        <c:axId val="195948544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206960128"/>
+        <c:crossAx val="195950080"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="206960128"/>
+        <c:axId val="195950080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4349,7 +4379,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="206958592"/>
+        <c:crossAx val="195948544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4364,7 +4394,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4578,31 +4608,34 @@
                 <c:pt idx="24">
                   <c:v>20</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="207516032"/>
-        <c:axId val="207517568"/>
+        <c:axId val="195981696"/>
+        <c:axId val="195983232"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="207516032"/>
+        <c:axId val="195981696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="207517568"/>
+        <c:crossAx val="195983232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="207517568"/>
+        <c:axId val="195983232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4649,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="207516032"/>
+        <c:crossAx val="195981696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4625,7 +4658,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4859,7 +4892,7 @@
                   <c:v>25150</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>29474</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>0</c:v>
@@ -4870,8 +4903,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="214116224"/>
-        <c:axId val="214114688"/>
+        <c:axId val="196814720"/>
+        <c:axId val="196813184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5052,17 +5085,23 @@
                 <c:pt idx="26">
                   <c:v>0.1844976896830724</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.16699338697351224</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15188516309666697</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="214107264"/>
-        <c:axId val="214108800"/>
+        <c:axId val="196805760"/>
+        <c:axId val="196807296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214107264"/>
+        <c:axId val="196805760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5080,13 +5119,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="214108800"/>
+        <c:crossAx val="196807296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214108800"/>
+        <c:axId val="196807296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5100,24 +5139,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="214107264"/>
+        <c:crossAx val="196805760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="214114688"/>
+        <c:axId val="196813184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214116224"/>
+        <c:crossAx val="196814720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="214116224"/>
+        <c:axId val="196814720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5125,7 +5164,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="214114688"/>
+        <c:crossAx val="196813184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5140,7 +5179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5382,31 +5421,37 @@
                 <c:pt idx="28">
                   <c:v>7209</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>8240</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9793</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="214125568"/>
-        <c:axId val="220931968"/>
+        <c:axId val="196824064"/>
+        <c:axId val="196880256"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="214125568"/>
+        <c:axId val="196824064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220931968"/>
+        <c:crossAx val="196880256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220931968"/>
+        <c:axId val="196880256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5420,7 +5465,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="214125568"/>
+        <c:crossAx val="196824064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5429,7 +5474,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5670,31 +5715,37 @@
                 <c:pt idx="28">
                   <c:v>2619</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>3009</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4324</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="220951296"/>
-        <c:axId val="220952832"/>
+        <c:axId val="196899584"/>
+        <c:axId val="196901120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="220951296"/>
+        <c:axId val="196899584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220952832"/>
+        <c:crossAx val="196901120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220952832"/>
+        <c:axId val="196901120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5708,7 +5759,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220951296"/>
+        <c:crossAx val="196899584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5717,7 +5768,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5921,7 +5972,7 @@
                   <c:v>1789</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0</c:v>
@@ -5932,8 +5983,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="220891392"/>
-        <c:axId val="220889856"/>
+        <c:axId val="196770048"/>
+        <c:axId val="196768512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6096,17 +6147,23 @@
                 <c:pt idx="21">
                   <c:v>0.2500796766207819</c:v>
                 </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25559684426496571</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25590727652980599</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="220870144"/>
-        <c:axId val="220871680"/>
+        <c:axId val="196752896"/>
+        <c:axId val="196754432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220870144"/>
+        <c:axId val="196752896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6124,13 +6181,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="220871680"/>
+        <c:crossAx val="196754432"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="220871680"/>
+        <c:axId val="196754432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6144,24 +6201,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220870144"/>
+        <c:crossAx val="196752896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="220889856"/>
+        <c:axId val="196768512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220891392"/>
+        <c:crossAx val="196770048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="220891392"/>
+        <c:axId val="196770048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6169,7 +6226,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="220889856"/>
+        <c:crossAx val="196768512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6184,7 +6241,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7255,8 +7312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7772,6 +7829,15 @@
       <c r="B31" s="21">
         <v>43922</v>
       </c>
+      <c r="C31" s="2">
+        <v>152979</v>
+      </c>
+      <c r="D31" s="2">
+        <v>29474</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2352</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
@@ -8272,6 +8338,18 @@
       <c r="B67" s="21">
         <v>43922</v>
       </c>
+      <c r="C67" s="2">
+        <v>55863</v>
+      </c>
+      <c r="D67" s="2">
+        <v>10482</v>
+      </c>
+      <c r="E67" s="2">
+        <v>146</v>
+      </c>
+      <c r="F67" s="2">
+        <v>1436</v>
+      </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
@@ -8963,6 +9041,15 @@
       </c>
       <c r="B115" s="21">
         <v>43921</v>
+      </c>
+      <c r="C115" s="2">
+        <v>506968</v>
+      </c>
+      <c r="D115" s="2">
+        <v>105972</v>
+      </c>
+      <c r="E115" s="2">
+        <v>12428</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -9057,7 +9144,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="M28" sqref="M28:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10279,15 +10366,47 @@
       </c>
       <c r="C29" s="2">
         <f>Data!C67</f>
-        <v>0</v>
+        <v>55863</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" ref="D29" si="39">C29-C28</f>
+        <v>3519</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" ref="E29" si="40">H29/D29</f>
+        <v>0.14435919295254335</v>
       </c>
       <c r="G29" s="2">
         <f>Data!D67</f>
-        <v>0</v>
+        <v>10482</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ref="H29" si="41">G29-G28</f>
+        <v>508</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" ref="I29" si="42">G29/G28-1</f>
+        <v>5.0932424303188339E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" ref="J29" si="43">SUM(I25:I29)/5</f>
+        <v>7.2225798045902012E-2</v>
       </c>
       <c r="L29">
         <f>Data!E67</f>
-        <v>0</v>
+        <v>146</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29" si="44">L29-L28</f>
+        <v>18</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" ref="N29" si="45">L29/L28-1</f>
+        <v>0.140625</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" ref="O29" si="46">SUM(N25:N29)/5</f>
+        <v>0.2037487628259893</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -10397,8 +10516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11798,7 +11917,7 @@
         <v>0.2500796766207819</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:15">
       <c r="A33" s="8">
         <v>43921</v>
       </c>
@@ -11810,16 +11929,48 @@
         <f>Data!C30</f>
         <v>143186</v>
       </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33:D35" si="41">C33-C32</f>
+        <v>8240</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" ref="E33:E35" si="42">H33/D33</f>
+        <v>0.36516990291262136</v>
+      </c>
       <c r="G33" s="2">
         <f>Data!D30</f>
         <v>25150</v>
       </c>
+      <c r="H33" s="3">
+        <f t="shared" ref="H33:H34" si="43">G33-G32</f>
+        <v>3009</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" ref="I33:I34" si="44">G33/G32-1</f>
+        <v>0.13590172078948548</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" ref="J33:J34" si="45">SUM(I29:I33)/5</f>
+        <v>0.16699338697351224</v>
+      </c>
       <c r="L33" s="2">
         <f>Data!E30</f>
         <v>1789</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33">
+        <f t="shared" ref="M33:M34" si="46">L33-L32</f>
+        <v>381</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" ref="N33:N34" si="47">L33/L32-1</f>
+        <v>0.27059659090909083</v>
+      </c>
+      <c r="O33" s="16">
+        <f t="shared" ref="O33:O34" si="48">SUM(N29:N33)/5</f>
+        <v>0.25559684426496571</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="8">
         <v>43922</v>
       </c>
@@ -11829,18 +11980,50 @@
       </c>
       <c r="C34" s="2">
         <f>Data!C31</f>
-        <v>0</v>
+        <v>152979</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="41"/>
+        <v>9793</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" si="42"/>
+        <v>0.44153987542121925</v>
       </c>
       <c r="G34" s="2">
         <f>Data!D31</f>
-        <v>0</v>
+        <v>29474</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="43"/>
+        <v>4324</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="44"/>
+        <v>0.17192842942345932</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="45"/>
+        <v>0.15188516309666697</v>
       </c>
       <c r="L34" s="2">
         <f>Data!E31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12">
+        <v>2352</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="46"/>
+        <v>563</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="47"/>
+        <v>0.31470095025153721</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="48"/>
+        <v>0.25590727652980599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="8">
         <v>43923</v>
       </c>
@@ -11861,7 +12044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:15">
       <c r="A36" s="8">
         <v>43924</v>
       </c>
@@ -11882,7 +12065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:15">
       <c r="A37" s="8">
         <v>43925</v>
       </c>
@@ -11903,7 +12086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:15">
       <c r="A38" s="8">
         <v>43926</v>
       </c>
@@ -11945,8 +12128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13852,15 +14035,47 @@
       </c>
       <c r="C42" s="2">
         <f>Data!C115</f>
-        <v>0</v>
+        <v>506968</v>
+      </c>
+      <c r="D42" s="2">
+        <f>C42-C41</f>
+        <v>29609</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" ref="E42" si="29">H42/D42</f>
+        <v>0.14296328818940188</v>
       </c>
       <c r="G42" s="2">
         <f>Data!D115</f>
-        <v>0</v>
+        <v>105972</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" ref="H42" si="30">G42-G41</f>
+        <v>4233</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" ref="I42" si="31">G42/G41-1</f>
+        <v>4.1606463598030219E-2</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" ref="J42" si="32">SUM(I38:I42)/5</f>
+        <v>5.6507163525775582E-2</v>
       </c>
       <c r="L42" s="2">
         <f>Data!E115</f>
-        <v>0</v>
+        <v>12428</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42" si="33">L42-L41</f>
+        <v>837</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ref="N42" si="34">L42/L41-1</f>
+        <v>7.2211198343542504E-2</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" ref="O42" si="35">SUM(N38:N42)/5</f>
+        <v>8.7795064797732136E-2</v>
       </c>
     </row>
     <row r="43" spans="1:16">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -80,6 +80,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>David Goddard</author>
+    <author>Windows User</author>
   </authors>
   <commentList>
     <comment ref="O4" authorId="0">
@@ -103,6 +104,20 @@
           </rPr>
           <t xml:space="preserve">
 5 day moving average of the percentage *point* gain</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>This data is apparently the result of test numbers from local labs being added, but quite odd</t>
         </r>
       </text>
     </comment>
@@ -179,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -259,14 +274,17 @@
     <t>IT</t>
   </si>
   <si>
-    <t>Note that UK chanfed its death reporting from this date to include non-hospital deaths</t>
+    <t>Note that UK changed its death reporting from this date to include non-hospital deaths</t>
+  </si>
+  <si>
+    <t>WTAF with the testing stats Austria??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -333,6 +351,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -639,7 +664,7 @@
                   <c:v>10482</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>10967</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -647,8 +672,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195445120"/>
-        <c:axId val="195443328"/>
+        <c:axId val="195645824"/>
+        <c:axId val="195639936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -802,17 +827,20 @@
                 <c:pt idx="23">
                   <c:v>7.2225798045902012E-2</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.5369472040327586E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="194891136"/>
-        <c:axId val="195441792"/>
+        <c:axId val="195612032"/>
+        <c:axId val="195638400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194891136"/>
+        <c:axId val="195612032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -830,13 +858,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195441792"/>
+        <c:crossAx val="195638400"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195441792"/>
+        <c:axId val="195638400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -850,24 +878,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="194891136"/>
+        <c:crossAx val="195612032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195443328"/>
+        <c:axId val="195639936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195445120"/>
+        <c:crossAx val="195645824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195445120"/>
+        <c:axId val="195645824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,7 +903,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195443328"/>
+        <c:crossAx val="195639936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -890,7 +918,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1141,31 +1169,34 @@
                 <c:pt idx="30">
                   <c:v>563</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>569</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196788992"/>
-        <c:axId val="196790528"/>
+        <c:axId val="198427392"/>
+        <c:axId val="198428928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196788992"/>
+        <c:axId val="198427392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196790528"/>
+        <c:crossAx val="198428928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196790528"/>
+        <c:axId val="198428928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1179,7 +1210,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196788992"/>
+        <c:crossAx val="198427392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1188,7 +1219,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1475,8 +1506,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197060096"/>
-        <c:axId val="197058560"/>
+        <c:axId val="198571520"/>
+        <c:axId val="198569984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1720,11 +1751,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="197047040"/>
-        <c:axId val="197048576"/>
+        <c:axId val="198558464"/>
+        <c:axId val="198560000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197047040"/>
+        <c:axId val="198558464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,13 +1763,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197048576"/>
+        <c:crossAx val="198560000"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197048576"/>
+        <c:axId val="198560000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1752,24 +1783,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197047040"/>
+        <c:crossAx val="198558464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197058560"/>
+        <c:axId val="198569984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197060096"/>
+        <c:crossAx val="198571520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="197060096"/>
+        <c:axId val="198571520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1808,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="197058560"/>
+        <c:crossAx val="198569984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1792,7 +1823,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2094,31 +2125,34 @@
                 <c:pt idx="38">
                   <c:v>29609</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>34455</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197219840"/>
-        <c:axId val="197221376"/>
+        <c:axId val="198604288"/>
+        <c:axId val="198605824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197219840"/>
+        <c:axId val="198604288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197221376"/>
+        <c:crossAx val="198605824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197221376"/>
+        <c:axId val="198605824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2132,7 +2166,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197219840"/>
+        <c:crossAx val="198604288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2141,7 +2175,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2439,31 +2473,34 @@
                 <c:pt idx="38">
                   <c:v>4233</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>4602</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197237376"/>
-        <c:axId val="197247360"/>
+        <c:axId val="198625920"/>
+        <c:axId val="198631808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197237376"/>
+        <c:axId val="198625920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197247360"/>
+        <c:crossAx val="198631808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197247360"/>
+        <c:axId val="198631808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2477,7 +2514,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197237376"/>
+        <c:crossAx val="198625920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,7 +2523,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2755,8 +2792,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197102592"/>
-        <c:axId val="197101056"/>
+        <c:axId val="198937600"/>
+        <c:axId val="198936064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2991,11 +3028,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="197093632"/>
-        <c:axId val="197099520"/>
+        <c:axId val="198928640"/>
+        <c:axId val="198934528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197093632"/>
+        <c:axId val="198928640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3003,13 +3040,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197099520"/>
+        <c:crossAx val="198934528"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197099520"/>
+        <c:axId val="198934528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,24 +3060,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197093632"/>
+        <c:crossAx val="198928640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197101056"/>
+        <c:axId val="198936064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197102592"/>
+        <c:crossAx val="198937600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="197102592"/>
+        <c:axId val="198937600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3048,7 +3085,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="197101056"/>
+        <c:crossAx val="198936064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3063,7 +3100,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3364,31 +3401,34 @@
                 <c:pt idx="38">
                   <c:v>837</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197114880"/>
-        <c:axId val="197137152"/>
+        <c:axId val="198949888"/>
+        <c:axId val="198972160"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197114880"/>
+        <c:axId val="198949888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197137152"/>
+        <c:crossAx val="198972160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197137152"/>
+        <c:axId val="198972160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3402,7 +3442,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197114880"/>
+        <c:crossAx val="198949888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3411,7 +3451,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3628,31 +3668,34 @@
                 <c:pt idx="25">
                   <c:v>3519</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>36327</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195456384"/>
-        <c:axId val="194868352"/>
+        <c:axId val="195652992"/>
+        <c:axId val="195589248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195456384"/>
+        <c:axId val="195652992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194868352"/>
+        <c:crossAx val="195589248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194868352"/>
+        <c:axId val="195589248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3666,7 +3709,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195456384"/>
+        <c:crossAx val="195652992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3675,7 +3718,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3895,31 +3938,34 @@
                 <c:pt idx="25">
                   <c:v>508</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>485</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195891584"/>
-        <c:axId val="195893120"/>
+        <c:axId val="196088192"/>
+        <c:axId val="196089728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195891584"/>
+        <c:axId val="196088192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195893120"/>
+        <c:crossAx val="196089728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195893120"/>
+        <c:axId val="196089728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,7 +3979,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195891584"/>
+        <c:crossAx val="196088192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3942,7 +3988,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4149,7 +4195,7 @@
                   <c:v>146</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4157,8 +4203,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195950080"/>
-        <c:axId val="195948544"/>
+        <c:axId val="196150784"/>
+        <c:axId val="196149248"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4306,17 +4352,20 @@
                 <c:pt idx="23">
                   <c:v>0.2037487628259893</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.18570436036968324</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="195937024"/>
-        <c:axId val="195938560"/>
+        <c:axId val="196137728"/>
+        <c:axId val="196139264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195937024"/>
+        <c:axId val="196137728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4334,13 +4383,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195938560"/>
+        <c:crossAx val="196139264"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195938560"/>
+        <c:axId val="196139264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4354,24 +4403,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195937024"/>
+        <c:crossAx val="196137728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195948544"/>
+        <c:axId val="196149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195950080"/>
+        <c:crossAx val="196150784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195950080"/>
+        <c:axId val="196150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4379,7 +4428,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195948544"/>
+        <c:crossAx val="196149248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4394,7 +4443,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4611,31 +4660,34 @@
                 <c:pt idx="25">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195981696"/>
-        <c:axId val="195983232"/>
+        <c:axId val="196178304"/>
+        <c:axId val="196179840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195981696"/>
+        <c:axId val="196178304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195983232"/>
+        <c:crossAx val="196179840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195983232"/>
+        <c:axId val="196179840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4649,7 +4701,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195981696"/>
+        <c:crossAx val="196178304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4658,7 +4710,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4895,7 +4947,7 @@
                   <c:v>29474</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>33718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4903,8 +4955,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196814720"/>
-        <c:axId val="196813184"/>
+        <c:axId val="196818816"/>
+        <c:axId val="196817280"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5091,17 +5143,20 @@
                 <c:pt idx="28">
                   <c:v>0.15188516309666697</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.14567001745973535</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="196805760"/>
-        <c:axId val="196807296"/>
+        <c:axId val="196809856"/>
+        <c:axId val="196811392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196805760"/>
+        <c:axId val="196809856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5119,13 +5174,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196807296"/>
+        <c:crossAx val="196811392"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196807296"/>
+        <c:axId val="196811392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5139,24 +5194,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196805760"/>
+        <c:crossAx val="196809856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196813184"/>
+        <c:axId val="196817280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196814720"/>
+        <c:crossAx val="196818816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196814720"/>
+        <c:axId val="196818816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5164,7 +5219,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="196813184"/>
+        <c:crossAx val="196817280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5179,7 +5234,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5427,31 +5482,34 @@
                 <c:pt idx="30">
                   <c:v>9793</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>10215</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196824064"/>
-        <c:axId val="196880256"/>
+        <c:axId val="196828160"/>
+        <c:axId val="197273472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196824064"/>
+        <c:axId val="196828160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196880256"/>
+        <c:crossAx val="197273472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196880256"/>
+        <c:axId val="197273472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5465,7 +5523,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196824064"/>
+        <c:crossAx val="196828160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5474,7 +5532,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5721,31 +5779,34 @@
                 <c:pt idx="30">
                   <c:v>4324</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>4244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196899584"/>
-        <c:axId val="196901120"/>
+        <c:axId val="197292800"/>
+        <c:axId val="197294336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196899584"/>
+        <c:axId val="197292800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196901120"/>
+        <c:crossAx val="197294336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196901120"/>
+        <c:axId val="197294336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5759,7 +5820,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196899584"/>
+        <c:crossAx val="197292800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5768,7 +5829,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5975,7 +6036,7 @@
                   <c:v>2352</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>2921</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5983,8 +6044,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196770048"/>
-        <c:axId val="196768512"/>
+        <c:axId val="198408448"/>
+        <c:axId val="198406912"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6153,17 +6214,20 @@
                 <c:pt idx="23">
                   <c:v>0.25590727652980599</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.23578043132532106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="196752896"/>
-        <c:axId val="196754432"/>
+        <c:axId val="197305856"/>
+        <c:axId val="197307392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196752896"/>
+        <c:axId val="197305856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6181,13 +6245,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196754432"/>
+        <c:crossAx val="197307392"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196754432"/>
+        <c:axId val="197307392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6201,24 +6265,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196752896"/>
+        <c:crossAx val="197305856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196768512"/>
+        <c:axId val="198406912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196770048"/>
+        <c:crossAx val="198408448"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196770048"/>
+        <c:axId val="198408448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6226,7 +6290,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="196768512"/>
+        <c:crossAx val="198406912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6241,7 +6305,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6402,15 +6466,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>198120</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>165735</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179070</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6419,8 +6483,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2446020" y="5814060"/>
-          <a:ext cx="4732020" cy="1546860"/>
+          <a:off x="2626995" y="6442710"/>
+          <a:ext cx="4591050" cy="1615440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7312,8 +7376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7846,6 +7910,15 @@
       <c r="B32" s="21">
         <v>43923</v>
       </c>
+      <c r="C32" s="2">
+        <v>163194</v>
+      </c>
+      <c r="D32" s="2">
+        <v>33718</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2921</v>
+      </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
@@ -8291,7 +8364,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" spans="1:8">
       <c r="A65" t="s">
         <v>24</v>
       </c>
@@ -8311,7 +8384,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
+    <row r="66" spans="1:8">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -8331,7 +8404,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" spans="1:8">
       <c r="A67" t="s">
         <v>24</v>
       </c>
@@ -8351,15 +8424,30 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>24</v>
       </c>
       <c r="B68" s="21">
         <v>43923</v>
       </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="C68" s="2">
+        <v>92190</v>
+      </c>
+      <c r="D68" s="2">
+        <v>10967</v>
+      </c>
+      <c r="E68" s="2">
+        <v>158</v>
+      </c>
+      <c r="F68" s="2">
+        <v>1749</v>
+      </c>
+      <c r="H68" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" t="s">
         <v>24</v>
       </c>
@@ -8367,7 +8455,7 @@
         <v>43924</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:8">
       <c r="A70" t="s">
         <v>24</v>
       </c>
@@ -8375,7 +8463,7 @@
         <v>43925</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" spans="1:8">
       <c r="A71" t="s">
         <v>24</v>
       </c>
@@ -8383,7 +8471,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:8">
       <c r="A72" t="s">
         <v>24</v>
       </c>
@@ -8391,7 +8479,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:8">
       <c r="A73" t="s">
         <v>24</v>
       </c>
@@ -8399,7 +8487,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:8">
       <c r="A74" t="s">
         <v>24</v>
       </c>
@@ -8407,7 +8495,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" spans="1:8">
       <c r="A75" t="s">
         <v>24</v>
       </c>
@@ -8415,7 +8503,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" spans="1:8">
       <c r="A76" t="s">
         <v>24</v>
       </c>
@@ -8423,7 +8511,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" spans="1:8">
       <c r="A79" t="s">
         <v>25</v>
       </c>
@@ -8440,7 +8528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:6">
+    <row r="80" spans="1:8">
       <c r="A80" t="s">
         <v>25</v>
       </c>
@@ -9058,6 +9146,15 @@
       </c>
       <c r="B116" s="21">
         <v>43922</v>
+      </c>
+      <c r="C116" s="2">
+        <v>541423</v>
+      </c>
+      <c r="D116" s="2">
+        <v>110574</v>
+      </c>
+      <c r="E116" s="2">
+        <v>13155</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -9143,8 +9240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:O29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10418,15 +10515,47 @@
       </c>
       <c r="C30" s="2">
         <f>Data!C68</f>
-        <v>0</v>
+        <v>92190</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" ref="D30" si="47">C30-C29</f>
+        <v>36327</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" ref="E30" si="48">H30/D30</f>
+        <v>1.335095108321634E-2</v>
       </c>
       <c r="G30" s="2">
         <f>Data!D68</f>
-        <v>0</v>
+        <v>10967</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" ref="H30" si="49">G30-G29</f>
+        <v>485</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ref="I30" si="50">G30/G29-1</f>
+        <v>4.6269795840488515E-2</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" ref="J30" si="51">SUM(I26:I30)/5</f>
+        <v>6.5369472040327586E-2</v>
       </c>
       <c r="L30">
         <f>Data!E68</f>
-        <v>0</v>
+        <v>158</v>
+      </c>
+      <c r="M30">
+        <f t="shared" ref="M30" si="52">L30-L29</f>
+        <v>12</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" ref="N30" si="53">L30/L29-1</f>
+        <v>8.2191780821917915E-2</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" ref="O30" si="54">SUM(N26:N30)/5</f>
+        <v>0.18570436036968324</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -10517,7 +10646,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="M34" sqref="M34:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11930,11 +12059,11 @@
         <v>143186</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D33:D35" si="41">C33-C32</f>
+        <f t="shared" ref="D33:D34" si="41">C33-C32</f>
         <v>8240</v>
       </c>
       <c r="E33" s="11">
-        <f t="shared" ref="E33:E35" si="42">H33/D33</f>
+        <f t="shared" ref="E33:E34" si="42">H33/D33</f>
         <v>0.36516990291262136</v>
       </c>
       <c r="G33" s="2">
@@ -12033,15 +12162,47 @@
       </c>
       <c r="C35" s="2">
         <f>Data!C32</f>
-        <v>0</v>
+        <v>163194</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35" si="49">C35-C34</f>
+        <v>10215</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" ref="E35" si="50">H35/D35</f>
+        <v>0.41546744982868333</v>
       </c>
       <c r="G35" s="2">
         <f>Data!D32</f>
-        <v>0</v>
+        <v>33718</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ref="H35" si="51">G35-G34</f>
+        <v>4244</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" ref="I35" si="52">G35/G34-1</f>
+        <v>0.14399131437877455</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" ref="J35" si="53">SUM(I31:I35)/5</f>
+        <v>0.14567001745973535</v>
       </c>
       <c r="L35" s="2">
         <f>Data!E32</f>
-        <v>0</v>
+        <v>2921</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35" si="54">L35-L34</f>
+        <v>569</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" ref="N35" si="55">L35/L34-1</f>
+        <v>0.24192176870748305</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" ref="O35" si="56">SUM(N31:N35)/5</f>
+        <v>0.23578043132532106</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -12128,8 +12289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J46" sqref="J46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13778,7 +13939,7 @@
         <v>361060</v>
       </c>
       <c r="D37" s="2">
-        <f>C37-C36</f>
+        <f t="shared" ref="D37:D43" si="17">C37-C36</f>
         <v>36615</v>
       </c>
       <c r="E37" s="11">
@@ -13830,7 +13991,7 @@
         <v>394079</v>
       </c>
       <c r="D38" s="2">
-        <f>C38-C37</f>
+        <f t="shared" si="17"/>
         <v>33019</v>
       </c>
       <c r="E38" s="11">
@@ -13882,7 +14043,7 @@
         <v>429526</v>
       </c>
       <c r="D39" s="2">
-        <f>C39-C38</f>
+        <f t="shared" si="17"/>
         <v>35447</v>
       </c>
       <c r="E39" s="11">
@@ -13934,7 +14095,7 @@
         <v>454030</v>
       </c>
       <c r="D40" s="2">
-        <f>C40-C39</f>
+        <f t="shared" si="17"/>
         <v>24504</v>
       </c>
       <c r="E40" s="11">
@@ -13950,11 +14111,11 @@
         <v>5217</v>
       </c>
       <c r="I40" s="1">
-        <f t="shared" ref="I40" si="17">G40/G39-1</f>
+        <f t="shared" ref="I40" si="18">G40/G39-1</f>
         <v>5.6417077601868648E-2</v>
       </c>
       <c r="J40" s="16">
-        <f t="shared" ref="J40" si="18">SUM(I36:I40)/5</f>
+        <f t="shared" ref="J40" si="19">SUM(I36:I40)/5</f>
         <v>7.1500714715988428E-2</v>
       </c>
       <c r="L40" s="2">
@@ -13962,15 +14123,15 @@
         <v>10779</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40" si="19">L40-L39</f>
+        <f t="shared" ref="M40" si="20">L40-L39</f>
         <v>756</v>
       </c>
       <c r="N40" s="1">
-        <f t="shared" ref="N40" si="20">L40/L39-1</f>
+        <f t="shared" ref="N40" si="21">L40/L39-1</f>
         <v>7.5426519006285497E-2</v>
       </c>
       <c r="O40" s="16">
-        <f t="shared" ref="O40" si="21">SUM(N36:N40)/5</f>
+        <f t="shared" ref="O40" si="22">SUM(N36:N40)/5</f>
         <v>9.5962092781701619E-2</v>
       </c>
     </row>
@@ -13986,11 +14147,11 @@
         <v>477359</v>
       </c>
       <c r="D41" s="2">
-        <f>C41-C40</f>
+        <f t="shared" si="17"/>
         <v>23329</v>
       </c>
       <c r="E41" s="11">
-        <f t="shared" ref="E41" si="22">H41/D41</f>
+        <f t="shared" ref="E41" si="23">H41/D41</f>
         <v>0.17360366925286125</v>
       </c>
       <c r="G41" s="2">
@@ -13998,15 +14159,15 @@
         <v>101739</v>
       </c>
       <c r="H41" s="3">
-        <f t="shared" ref="H41" si="23">G41-G40</f>
+        <f t="shared" ref="H41" si="24">G41-G40</f>
         <v>4050</v>
       </c>
       <c r="I41" s="1">
-        <f t="shared" ref="I41" si="24">G41/G40-1</f>
+        <f t="shared" ref="I41" si="25">G41/G40-1</f>
         <v>4.1458096612720041E-2</v>
       </c>
       <c r="J41" s="16">
-        <f t="shared" ref="J41" si="25">SUM(I37:I41)/5</f>
+        <f t="shared" ref="J41" si="26">SUM(I37:I41)/5</f>
         <v>6.4729306398888603E-2</v>
       </c>
       <c r="L41" s="2">
@@ -14014,15 +14175,15 @@
         <v>11591</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41" si="26">L41-L40</f>
+        <f t="shared" ref="M41" si="27">L41-L40</f>
         <v>812</v>
       </c>
       <c r="N41" s="1">
-        <f t="shared" ref="N41" si="27">L41/L40-1</f>
+        <f t="shared" ref="N41" si="28">L41/L40-1</f>
         <v>7.5331663419612171E-2</v>
       </c>
       <c r="O41" s="16">
-        <f t="shared" ref="O41" si="28">SUM(N37:N41)/5</f>
+        <f t="shared" ref="O41" si="29">SUM(N37:N41)/5</f>
         <v>9.0999099952427581E-2</v>
       </c>
     </row>
@@ -14038,11 +14199,11 @@
         <v>506968</v>
       </c>
       <c r="D42" s="2">
-        <f>C42-C41</f>
+        <f t="shared" si="17"/>
         <v>29609</v>
       </c>
       <c r="E42" s="11">
-        <f t="shared" ref="E42" si="29">H42/D42</f>
+        <f t="shared" ref="E42" si="30">H42/D42</f>
         <v>0.14296328818940188</v>
       </c>
       <c r="G42" s="2">
@@ -14050,15 +14211,15 @@
         <v>105972</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" ref="H42" si="30">G42-G41</f>
+        <f t="shared" ref="H42" si="31">G42-G41</f>
         <v>4233</v>
       </c>
       <c r="I42" s="1">
-        <f t="shared" ref="I42" si="31">G42/G41-1</f>
+        <f t="shared" ref="I42" si="32">G42/G41-1</f>
         <v>4.1606463598030219E-2</v>
       </c>
       <c r="J42" s="16">
-        <f t="shared" ref="J42" si="32">SUM(I38:I42)/5</f>
+        <f t="shared" ref="J42" si="33">SUM(I38:I42)/5</f>
         <v>5.6507163525775582E-2</v>
       </c>
       <c r="L42" s="2">
@@ -14066,15 +14227,15 @@
         <v>12428</v>
       </c>
       <c r="M42">
-        <f t="shared" ref="M42" si="33">L42-L41</f>
+        <f t="shared" ref="M42" si="34">L42-L41</f>
         <v>837</v>
       </c>
       <c r="N42" s="1">
-        <f t="shared" ref="N42" si="34">L42/L41-1</f>
+        <f t="shared" ref="N42" si="35">L42/L41-1</f>
         <v>7.2211198343542504E-2</v>
       </c>
       <c r="O42" s="16">
-        <f t="shared" ref="O42" si="35">SUM(N38:N42)/5</f>
+        <f t="shared" ref="O42" si="36">SUM(N38:N42)/5</f>
         <v>8.7795064797732136E-2</v>
       </c>
     </row>
@@ -14087,15 +14248,47 @@
       </c>
       <c r="C43" s="2">
         <f>Data!C116</f>
-        <v>0</v>
+        <v>541423</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="17"/>
+        <v>34455</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" ref="E43" si="37">H43/D43</f>
+        <v>0.13356552024379625</v>
       </c>
       <c r="G43" s="2">
         <f>Data!D116</f>
-        <v>0</v>
+        <v>110574</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" ref="H43" si="38">G43-G42</f>
+        <v>4602</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" ref="I43" si="39">G43/G42-1</f>
+        <v>4.3426565507870052E-2</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" ref="J43" si="40">SUM(I39:I43)/5</f>
+        <v>5.0394676803661699E-2</v>
       </c>
       <c r="L43" s="2">
         <f>Data!E116</f>
-        <v>0</v>
+        <v>13155</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43" si="41">L43-L42</f>
+        <v>727</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ref="N43" si="42">L43/L42-1</f>
+        <v>5.8496942388155837E-2</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" ref="O43" si="43">SUM(N39:N43)/5</f>
+        <v>7.5758997059809111E-2</v>
       </c>
     </row>
     <row r="44" spans="1:16">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -503,10 +503,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$30</c:f>
+              <c:f>Austria!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -581,16 +581,25 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$G$6:$G$30</c:f>
+              <c:f>Austria!$G$6:$G$33</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
@@ -665,6 +674,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>10967</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -672,8 +690,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195645824"/>
-        <c:axId val="195639936"/>
+        <c:axId val="193679744"/>
+        <c:axId val="193677952"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -766,10 +784,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$J$6:$J$30</c:f>
+              <c:f>Austria!$J$6:$J$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="5">
                   <c:v>0.38083321236080414</c:v>
                 </c:pt>
@@ -836,11 +854,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="195612032"/>
-        <c:axId val="195638400"/>
+        <c:axId val="193645952"/>
+        <c:axId val="193676416"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195612032"/>
+        <c:axId val="193645952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,13 +876,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195638400"/>
+        <c:crossAx val="193676416"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195638400"/>
+        <c:axId val="193676416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,24 +896,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195612032"/>
+        <c:crossAx val="193645952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195639936"/>
+        <c:axId val="193677952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195645824"/>
+        <c:crossAx val="193679744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195645824"/>
+        <c:axId val="193679744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,7 +921,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195639936"/>
+        <c:crossAx val="193677952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -918,7 +936,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1178,25 +1196,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198427392"/>
-        <c:axId val="198428928"/>
+        <c:axId val="195318528"/>
+        <c:axId val="195320064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198427392"/>
+        <c:axId val="195318528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198428928"/>
+        <c:crossAx val="195320064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198428928"/>
+        <c:axId val="195320064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1228,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198427392"/>
+        <c:crossAx val="195318528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1219,7 +1237,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1265,10 +1283,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$42</c:f>
+              <c:f>Italy!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -1379,16 +1397,31 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$G$6:$G$42</c:f>
+              <c:f>Italy!$G$6:$G$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1499,6 +1532,21 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>105972</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>110574</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,8 +1554,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198571520"/>
-        <c:axId val="198569984"/>
+        <c:axId val="195491328"/>
+        <c:axId val="195489792"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1642,10 +1690,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$J$6:$J$42</c:f>
+              <c:f>Italy!$J$6:$J$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="4">
                   <c:v>0.32790068162329405</c:v>
                 </c:pt>
@@ -1744,6 +1792,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5.6507163525775582E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.0394676803661699E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,11 +1802,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="198558464"/>
-        <c:axId val="198560000"/>
+        <c:axId val="195478272"/>
+        <c:axId val="195479808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198558464"/>
+        <c:axId val="195478272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1763,13 +1814,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198560000"/>
+        <c:crossAx val="195479808"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198560000"/>
+        <c:axId val="195479808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1783,24 +1834,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198558464"/>
+        <c:crossAx val="195478272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198569984"/>
+        <c:axId val="195489792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198571520"/>
+        <c:crossAx val="195491328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="198571520"/>
+        <c:axId val="195491328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1859,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="198569984"/>
+        <c:crossAx val="195489792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1823,7 +1874,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2134,25 +2185,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198604288"/>
-        <c:axId val="198605824"/>
+        <c:axId val="195585536"/>
+        <c:axId val="195587072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198604288"/>
+        <c:axId val="195585536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198605824"/>
+        <c:crossAx val="195587072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198605824"/>
+        <c:axId val="195587072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2217,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198604288"/>
+        <c:crossAx val="195585536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2175,7 +2226,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2482,25 +2533,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198625920"/>
-        <c:axId val="198631808"/>
+        <c:axId val="195615360"/>
+        <c:axId val="196157824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198625920"/>
+        <c:axId val="195615360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198631808"/>
+        <c:crossAx val="196157824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198631808"/>
+        <c:axId val="196157824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2514,7 +2565,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198625920"/>
+        <c:crossAx val="195615360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2523,7 +2574,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2569,10 +2620,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$39</c:f>
+              <c:f>Italy!$A$6:$A$47</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -2674,16 +2725,40 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$L$6:$L$39</c:f>
+              <c:f>Italy!$L$6:$L$47</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2785,6 +2860,30 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>10023</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10779</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11591</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12428</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2792,8 +2891,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198937600"/>
-        <c:axId val="198936064"/>
+        <c:axId val="196189184"/>
+        <c:axId val="196187648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2928,10 +3027,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$O$6:$O$39</c:f>
+              <c:f>Italy!$O$6:$O$47</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="4">
                   <c:v>0.25610644257703086</c:v>
                 </c:pt>
@@ -3021,6 +3120,18 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.1053296440075961</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.5962092781701619E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.0999099952427581E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.7795064797732136E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5758997059809111E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,11 +3139,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="198928640"/>
-        <c:axId val="198934528"/>
+        <c:axId val="196180224"/>
+        <c:axId val="196186112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198928640"/>
+        <c:axId val="196180224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3040,13 +3151,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198934528"/>
+        <c:crossAx val="196186112"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198934528"/>
+        <c:axId val="196186112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3060,24 +3171,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198928640"/>
+        <c:crossAx val="196180224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198936064"/>
+        <c:axId val="196187648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198937600"/>
+        <c:crossAx val="196189184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="198937600"/>
+        <c:axId val="196189184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3085,7 +3196,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="198936064"/>
+        <c:crossAx val="196187648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3100,7 +3211,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3410,25 +3521,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198949888"/>
-        <c:axId val="198972160"/>
+        <c:axId val="196205568"/>
+        <c:axId val="196227840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="198949888"/>
+        <c:axId val="196205568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198972160"/>
+        <c:crossAx val="196227840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198972160"/>
+        <c:axId val="196227840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3442,7 +3553,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198949888"/>
+        <c:crossAx val="196205568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3451,7 +3562,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3677,25 +3788,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195652992"/>
-        <c:axId val="195589248"/>
+        <c:axId val="193686912"/>
+        <c:axId val="193623168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195652992"/>
+        <c:axId val="193686912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195589248"/>
+        <c:crossAx val="193623168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195589248"/>
+        <c:axId val="193623168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,7 +3820,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195652992"/>
+        <c:crossAx val="193686912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3718,7 +3829,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3947,25 +4058,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196088192"/>
-        <c:axId val="196089728"/>
+        <c:axId val="193732992"/>
+        <c:axId val="193734528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196088192"/>
+        <c:axId val="193732992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196089728"/>
+        <c:crossAx val="193734528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196089728"/>
+        <c:axId val="193734528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,7 +4090,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196088192"/>
+        <c:crossAx val="193732992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3988,7 +4099,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4034,10 +4145,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$30</c:f>
+              <c:f>Austria!$A$6:$A$33</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -4112,16 +4223,25 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$L$6:$L$30</c:f>
+              <c:f>Austria!$L$6:$L$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4196,6 +4316,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4203,8 +4332,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196150784"/>
-        <c:axId val="196149248"/>
+        <c:axId val="194057728"/>
+        <c:axId val="194056192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4297,10 +4426,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$O$6:$O$30</c:f>
+              <c:f>Austria!$O$6:$O$33</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -4361,11 +4490,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="196137728"/>
-        <c:axId val="196139264"/>
+        <c:axId val="193786624"/>
+        <c:axId val="193788160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196137728"/>
+        <c:axId val="193786624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4383,13 +4512,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196139264"/>
+        <c:crossAx val="193788160"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196139264"/>
+        <c:axId val="193788160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4403,24 +4532,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196137728"/>
+        <c:crossAx val="193786624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196149248"/>
+        <c:axId val="194056192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196150784"/>
+        <c:crossAx val="194057728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196150784"/>
+        <c:axId val="194057728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4557,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="196149248"/>
+        <c:crossAx val="194056192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4443,7 +4572,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4669,25 +4798,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196178304"/>
-        <c:axId val="196179840"/>
+        <c:axId val="194081152"/>
+        <c:axId val="194082688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196178304"/>
+        <c:axId val="194081152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196179840"/>
+        <c:crossAx val="194082688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196179840"/>
+        <c:axId val="194082688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4701,7 +4830,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196178304"/>
+        <c:crossAx val="194081152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4710,7 +4839,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4756,10 +4885,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$35</c:f>
+              <c:f>UK!$A$6:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -4849,16 +4978,25 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$G$6:$G$35</c:f>
+              <c:f>UK!$G$6:$G$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -4948,6 +5086,15 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>33718</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4955,8 +5102,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196818816"/>
-        <c:axId val="196817280"/>
+        <c:axId val="195213184"/>
+        <c:axId val="195211648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5067,10 +5214,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$J$6:$J$35</c:f>
+              <c:f>UK!$J$6:$J$38</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="5">
                   <c:v>0.30704061121415749</c:v>
                 </c:pt>
@@ -5152,11 +5299,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="196809856"/>
-        <c:axId val="196811392"/>
+        <c:axId val="195204224"/>
+        <c:axId val="195205760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196809856"/>
+        <c:axId val="195204224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5174,13 +5321,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196811392"/>
+        <c:crossAx val="195205760"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196811392"/>
+        <c:axId val="195205760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5194,24 +5341,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196809856"/>
+        <c:crossAx val="195204224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196817280"/>
+        <c:axId val="195211648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196818816"/>
+        <c:crossAx val="195213184"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196818816"/>
+        <c:axId val="195213184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5219,7 +5366,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="196817280"/>
+        <c:crossAx val="195211648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5234,7 +5381,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5491,25 +5638,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196828160"/>
-        <c:axId val="197273472"/>
+        <c:axId val="195222528"/>
+        <c:axId val="195405696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196828160"/>
+        <c:axId val="195222528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197273472"/>
+        <c:crossAx val="195405696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197273472"/>
+        <c:axId val="195405696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5523,7 +5670,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196828160"/>
+        <c:crossAx val="195222528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5532,7 +5679,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5788,25 +5935,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197292800"/>
-        <c:axId val="197294336"/>
+        <c:axId val="194867968"/>
+        <c:axId val="194869504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="197292800"/>
+        <c:axId val="194867968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197294336"/>
+        <c:crossAx val="194869504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197294336"/>
+        <c:axId val="194869504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,7 +5967,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197292800"/>
+        <c:crossAx val="194867968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5829,7 +5976,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5875,10 +6022,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$11:$A$35</c:f>
+              <c:f>UK!$A$11:$A$38</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -5953,16 +6100,25 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$L$11:$L$35</c:f>
+              <c:f>UK!$L$11:$L$38</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -6037,6 +6193,15 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>2921</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6044,8 +6209,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198408448"/>
-        <c:axId val="198406912"/>
+        <c:axId val="195299584"/>
+        <c:axId val="195298048"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6138,10 +6303,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$O$11:$O$35</c:f>
+              <c:f>UK!$O$11:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="25"/>
+                <c:ptCount val="28"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -6223,11 +6388,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="197305856"/>
-        <c:axId val="197307392"/>
+        <c:axId val="194848256"/>
+        <c:axId val="194849792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197305856"/>
+        <c:axId val="194848256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6245,13 +6410,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197307392"/>
+        <c:crossAx val="194849792"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197307392"/>
+        <c:axId val="194849792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6265,24 +6430,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197305856"/>
+        <c:crossAx val="194848256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198406912"/>
+        <c:axId val="195298048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198408448"/>
+        <c:crossAx val="195299584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="198408448"/>
+        <c:axId val="195299584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6290,7 +6455,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="198406912"/>
+        <c:crossAx val="195298048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6305,7 +6470,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6551,12 +6716,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30706</cdr:x>
-      <cdr:y>0.7023</cdr:y>
+      <cdr:x>0.27961</cdr:x>
+      <cdr:y>0.69972</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.32336</cdr:x>
-      <cdr:y>0.86667</cdr:y>
+      <cdr:x>0.29591</cdr:x>
+      <cdr:y>0.86409</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6565,8 +6730,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2344459" y="2488460"/>
-          <a:ext cx="124455" cy="582412"/>
+          <a:off x="2134927" y="2580614"/>
+          <a:ext cx="124454" cy="606209"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -6768,12 +6933,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.55089</cdr:x>
-      <cdr:y>0.66882</cdr:y>
+      <cdr:x>0.42739</cdr:x>
+      <cdr:y>0.69345</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.57085</cdr:x>
-      <cdr:y>0.7957</cdr:y>
+      <cdr:x>0.44735</cdr:x>
+      <cdr:y>0.82033</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -6782,8 +6947,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4206204" y="2369837"/>
-          <a:ext cx="152399" cy="449574"/>
+          <a:off x="3263202" y="3218013"/>
+          <a:ext cx="152400" cy="588797"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7031,12 +7196,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.3869</cdr:x>
-      <cdr:y>0.73226</cdr:y>
+      <cdr:x>0.34324</cdr:x>
+      <cdr:y>0.73376</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.4032</cdr:x>
-      <cdr:y>0.89663</cdr:y>
+      <cdr:x>0.35954</cdr:x>
+      <cdr:y>0.89813</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7045,8 +7210,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2954046" y="4469452"/>
-          <a:ext cx="124454" cy="1003252"/>
+          <a:off x="2620699" y="4663096"/>
+          <a:ext cx="124455" cy="1044584"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7376,7 +7541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
@@ -9241,7 +9406,7 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="AE47" sqref="AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12290,7 +12455,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+      <selection activeCell="AH31" sqref="AH31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="396" yWindow="60" windowWidth="31620" windowHeight="12456" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -690,8 +690,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="193679744"/>
-        <c:axId val="193677952"/>
+        <c:axId val="183059968"/>
+        <c:axId val="183058432"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -854,11 +854,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="193645952"/>
-        <c:axId val="193676416"/>
+        <c:axId val="184345344"/>
+        <c:axId val="184346880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193645952"/>
+        <c:axId val="184345344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,13 +876,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193676416"/>
+        <c:crossAx val="184346880"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193676416"/>
+        <c:axId val="184346880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,24 +896,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="193645952"/>
+        <c:crossAx val="184345344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="193677952"/>
+        <c:axId val="183058432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193679744"/>
+        <c:crossAx val="183059968"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="193679744"/>
+        <c:axId val="183059968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +921,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="193677952"/>
+        <c:crossAx val="183058432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -936,7 +936,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1196,25 +1196,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195318528"/>
-        <c:axId val="195320064"/>
+        <c:axId val="185481088"/>
+        <c:axId val="185482624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195318528"/>
+        <c:axId val="185481088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195320064"/>
+        <c:crossAx val="185482624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195320064"/>
+        <c:axId val="185482624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1228,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195318528"/>
+        <c:crossAx val="185481088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,7 +1237,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1554,8 +1554,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195491328"/>
-        <c:axId val="195489792"/>
+        <c:axId val="185593856"/>
+        <c:axId val="185592064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1802,11 +1802,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="195478272"/>
-        <c:axId val="195479808"/>
+        <c:axId val="185580544"/>
+        <c:axId val="185590528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195478272"/>
+        <c:axId val="185580544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,13 +1814,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195479808"/>
+        <c:crossAx val="185590528"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195479808"/>
+        <c:axId val="185590528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,24 +1834,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195478272"/>
+        <c:crossAx val="185580544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195489792"/>
+        <c:axId val="185592064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195491328"/>
+        <c:crossAx val="185593856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195491328"/>
+        <c:axId val="185593856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1859,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195489792"/>
+        <c:crossAx val="185592064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1874,7 +1874,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2185,25 +2185,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195585536"/>
-        <c:axId val="195587072"/>
+        <c:axId val="185823232"/>
+        <c:axId val="185824768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195585536"/>
+        <c:axId val="185823232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195587072"/>
+        <c:crossAx val="185824768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195587072"/>
+        <c:axId val="185824768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2217,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195585536"/>
+        <c:crossAx val="185823232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,7 +2226,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2533,25 +2533,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195615360"/>
-        <c:axId val="196157824"/>
+        <c:axId val="185853056"/>
+        <c:axId val="185854592"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195615360"/>
+        <c:axId val="185853056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196157824"/>
+        <c:crossAx val="185854592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196157824"/>
+        <c:axId val="185854592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2565,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195615360"/>
+        <c:crossAx val="185853056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2574,7 +2574,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2891,8 +2891,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196189184"/>
-        <c:axId val="196187648"/>
+        <c:axId val="185694848"/>
+        <c:axId val="185693312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3139,11 +3139,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="196180224"/>
-        <c:axId val="196186112"/>
+        <c:axId val="185685888"/>
+        <c:axId val="185687424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196180224"/>
+        <c:axId val="185685888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,13 +3151,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196186112"/>
+        <c:crossAx val="185687424"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196186112"/>
+        <c:axId val="185687424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,24 +3171,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196180224"/>
+        <c:crossAx val="185685888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196187648"/>
+        <c:axId val="185693312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196189184"/>
+        <c:crossAx val="185694848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196189184"/>
+        <c:axId val="185694848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +3196,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="196187648"/>
+        <c:crossAx val="185693312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3211,7 +3211,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3521,25 +3521,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196205568"/>
-        <c:axId val="196227840"/>
+        <c:axId val="185723520"/>
+        <c:axId val="185741696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196205568"/>
+        <c:axId val="185723520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196227840"/>
+        <c:crossAx val="185741696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196227840"/>
+        <c:axId val="185741696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3553,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196205568"/>
+        <c:crossAx val="185723520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,7 +3562,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3788,27 +3788,29 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="193686912"/>
-        <c:axId val="193623168"/>
+        <c:axId val="183096064"/>
+        <c:axId val="183097600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193686912"/>
+        <c:axId val="183096064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193623168"/>
+        <c:crossAx val="183097600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193623168"/>
+        <c:axId val="183097600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="12000"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3820,7 +3822,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="193686912"/>
+        <c:crossAx val="183096064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3829,7 +3831,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000222" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000222" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4058,25 +4060,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="193732992"/>
-        <c:axId val="193734528"/>
+        <c:axId val="184825344"/>
+        <c:axId val="184826880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="193732992"/>
+        <c:axId val="184825344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193734528"/>
+        <c:crossAx val="184826880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193734528"/>
+        <c:axId val="184826880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,7 +4092,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="193732992"/>
+        <c:crossAx val="184825344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4099,7 +4101,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4332,8 +4334,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="194057728"/>
-        <c:axId val="194056192"/>
+        <c:axId val="184883840"/>
+        <c:axId val="184882304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4490,11 +4492,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="193786624"/>
-        <c:axId val="193788160"/>
+        <c:axId val="184870784"/>
+        <c:axId val="184872320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="193786624"/>
+        <c:axId val="184870784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4512,13 +4514,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="193788160"/>
+        <c:crossAx val="184872320"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="193788160"/>
+        <c:axId val="184872320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4532,24 +4534,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="193786624"/>
+        <c:crossAx val="184870784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194056192"/>
+        <c:axId val="184882304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194057728"/>
+        <c:crossAx val="184883840"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="194057728"/>
+        <c:axId val="184883840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4557,7 +4559,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="194056192"/>
+        <c:crossAx val="184882304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4572,7 +4574,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4798,25 +4800,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="194081152"/>
-        <c:axId val="194082688"/>
+        <c:axId val="184894976"/>
+        <c:axId val="184896512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194081152"/>
+        <c:axId val="184894976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194082688"/>
+        <c:crossAx val="184896512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194082688"/>
+        <c:axId val="184896512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4830,7 +4832,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="194081152"/>
+        <c:crossAx val="184894976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4839,7 +4841,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5102,8 +5104,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195213184"/>
-        <c:axId val="195211648"/>
+        <c:axId val="185170944"/>
+        <c:axId val="185169408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5299,11 +5301,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="195204224"/>
-        <c:axId val="195205760"/>
+        <c:axId val="185161984"/>
+        <c:axId val="185167872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195204224"/>
+        <c:axId val="185161984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5321,13 +5323,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195205760"/>
+        <c:crossAx val="185167872"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195205760"/>
+        <c:axId val="185167872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5341,24 +5343,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195204224"/>
+        <c:crossAx val="185161984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195211648"/>
+        <c:axId val="185169408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195213184"/>
+        <c:crossAx val="185170944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195213184"/>
+        <c:axId val="185170944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5366,7 +5368,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195211648"/>
+        <c:crossAx val="185169408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5381,7 +5383,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5638,25 +5640,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195222528"/>
-        <c:axId val="195405696"/>
+        <c:axId val="185361152"/>
+        <c:axId val="185363456"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="195222528"/>
+        <c:axId val="185361152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195405696"/>
+        <c:crossAx val="185363456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195405696"/>
+        <c:axId val="185363456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5670,7 +5672,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195222528"/>
+        <c:crossAx val="185361152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5679,7 +5681,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5935,25 +5937,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="194867968"/>
-        <c:axId val="194869504"/>
+        <c:axId val="185382784"/>
+        <c:axId val="185384320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="194867968"/>
+        <c:axId val="185382784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194869504"/>
+        <c:crossAx val="185384320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194869504"/>
+        <c:axId val="185384320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +5969,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="194867968"/>
+        <c:crossAx val="185382784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5976,7 +5978,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6209,8 +6211,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195299584"/>
-        <c:axId val="195298048"/>
+        <c:axId val="185458048"/>
+        <c:axId val="185456512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6388,11 +6390,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="194848256"/>
-        <c:axId val="194849792"/>
+        <c:axId val="185440896"/>
+        <c:axId val="185454976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194848256"/>
+        <c:axId val="185440896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6410,13 +6412,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194849792"/>
+        <c:crossAx val="185454976"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194849792"/>
+        <c:axId val="185454976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6430,24 +6432,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="194848256"/>
+        <c:crossAx val="185440896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195298048"/>
+        <c:axId val="185456512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195299584"/>
+        <c:crossAx val="185458048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195299584"/>
+        <c:axId val="185458048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,7 +6457,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195298048"/>
+        <c:crossAx val="185456512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6470,7 +6472,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7545,11 +7547,11 @@
       <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="21" customWidth="1"/>
-    <col min="3" max="6" width="14.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="21" customWidth="1"/>
+    <col min="3" max="6" width="14.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="7" customFormat="1">
@@ -9409,22 +9411,22 @@
       <selection activeCell="AE47" sqref="AE47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.109375" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5">
+    <row r="1" spans="1:16" ht="28.8">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -9446,7 +9448,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -10810,26 +10812,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M34" sqref="M34:O35"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.109375" customWidth="1"/>
+    <col min="15" max="15" width="7.6640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5">
+    <row r="1" spans="1:16" ht="28.8">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -10851,7 +10853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -12454,27 +12456,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="AH31" sqref="AH31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.140625" customWidth="1"/>
-    <col min="12" max="12" width="8.85546875" style="2"/>
-    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.33203125" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="2"/>
+    <col min="15" max="15" width="7.6640625" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5">
+    <row r="1" spans="1:16" ht="28.8">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -12496,7 +12498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:16" ht="15" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -14567,7 +14569,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14579,7 +14581,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="396" yWindow="60" windowWidth="31620" windowHeight="12456" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>IT</t>
-  </si>
-  <si>
-    <t>Note that UK changed its death reporting from this date to include non-hospital deaths</t>
   </si>
   <si>
     <t>WTAF with the testing stats Austria??</t>
@@ -676,10 +673,10 @@
                   <c:v>10967</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>11383</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>11665</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -690,8 +687,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183059968"/>
-        <c:axId val="183058432"/>
+        <c:axId val="182141312"/>
+        <c:axId val="182139520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -848,17 +845,23 @@
                 <c:pt idx="24">
                   <c:v>6.5369472040327586E-2</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.6920845701934383E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.4714880239107122E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="184345344"/>
-        <c:axId val="184346880"/>
+        <c:axId val="181390720"/>
+        <c:axId val="182137984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184345344"/>
+        <c:axId val="181390720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,13 +879,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184346880"/>
+        <c:crossAx val="182137984"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184346880"/>
+        <c:axId val="182137984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -896,24 +899,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184345344"/>
+        <c:crossAx val="181390720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183058432"/>
+        <c:axId val="182139520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183059968"/>
+        <c:crossAx val="182141312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="183059968"/>
+        <c:axId val="182141312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -921,7 +924,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="183058432"/>
+        <c:crossAx val="182139520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -936,7 +939,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1190,31 +1193,37 @@
                 <c:pt idx="31">
                   <c:v>569</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>684</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>708</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185481088"/>
-        <c:axId val="185482624"/>
+        <c:axId val="183919360"/>
+        <c:axId val="183920896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185481088"/>
+        <c:axId val="183919360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185482624"/>
+        <c:crossAx val="183920896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185482624"/>
+        <c:axId val="183920896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1228,7 +1237,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185481088"/>
+        <c:crossAx val="183919360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1237,7 +1246,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1537,10 +1546,10 @@
                   <c:v>110574</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>115242</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>119827</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -1554,8 +1563,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185593856"/>
-        <c:axId val="185592064"/>
+        <c:axId val="184089216"/>
+        <c:axId val="184087680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1796,17 +1805,23 @@
                 <c:pt idx="37">
                   <c:v>5.0394676803661699E-2</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.5024855162985399E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.1698608036079318E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="185580544"/>
-        <c:axId val="185590528"/>
+        <c:axId val="184080256"/>
+        <c:axId val="184081792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185580544"/>
+        <c:axId val="184080256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,13 +1829,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185590528"/>
+        <c:crossAx val="184081792"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185590528"/>
+        <c:axId val="184081792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1834,24 +1849,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185580544"/>
+        <c:crossAx val="184080256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185592064"/>
+        <c:axId val="184087680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185593856"/>
+        <c:crossAx val="184089216"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="185593856"/>
+        <c:axId val="184089216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1859,7 +1874,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="185592064"/>
+        <c:crossAx val="184087680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1874,7 +1889,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2179,31 +2194,37 @@
                 <c:pt idx="39">
                   <c:v>34455</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>39809</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>38617</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185823232"/>
-        <c:axId val="185824768"/>
+        <c:axId val="184302208"/>
+        <c:axId val="184324480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185823232"/>
+        <c:axId val="184302208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185824768"/>
+        <c:crossAx val="184324480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185824768"/>
+        <c:axId val="184324480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2217,7 +2238,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185823232"/>
+        <c:crossAx val="184302208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2226,7 +2247,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2527,31 +2548,37 @@
                 <c:pt idx="39">
                   <c:v>4602</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4585</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185853056"/>
-        <c:axId val="185854592"/>
+        <c:axId val="184160256"/>
+        <c:axId val="184161792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185853056"/>
+        <c:axId val="184160256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185854592"/>
+        <c:crossAx val="184161792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185854592"/>
+        <c:axId val="184161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2565,7 +2592,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185853056"/>
+        <c:crossAx val="184160256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2574,7 +2601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2874,10 +2901,10 @@
                   <c:v>13155</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>13915</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>14681</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>0</c:v>
@@ -2891,8 +2918,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185694848"/>
-        <c:axId val="185693312"/>
+        <c:axId val="184202752"/>
+        <c:axId val="184201216"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3133,17 +3160,23 @@
                 <c:pt idx="37">
                   <c:v>7.5758997059809111E-2</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.7847806630759025E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.3772204590191839E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="185685888"/>
-        <c:axId val="185687424"/>
+        <c:axId val="184193792"/>
+        <c:axId val="184195328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185685888"/>
+        <c:axId val="184193792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,13 +3184,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185687424"/>
+        <c:crossAx val="184195328"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185687424"/>
+        <c:axId val="184195328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,24 +3204,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185685888"/>
+        <c:crossAx val="184193792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185693312"/>
+        <c:axId val="184201216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185694848"/>
+        <c:crossAx val="184202752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="185694848"/>
+        <c:axId val="184202752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +3229,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="185693312"/>
+        <c:crossAx val="184201216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3211,7 +3244,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3515,31 +3548,37 @@
                 <c:pt idx="39">
                   <c:v>727</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>766</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185723520"/>
-        <c:axId val="185741696"/>
+        <c:axId val="184219136"/>
+        <c:axId val="184220672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185723520"/>
+        <c:axId val="184219136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185741696"/>
+        <c:crossAx val="184220672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185741696"/>
+        <c:axId val="184220672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3592,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185723520"/>
+        <c:crossAx val="184219136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,7 +3601,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3782,31 +3821,37 @@
                 <c:pt idx="26">
                   <c:v>36327</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>6153</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5791</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183096064"/>
-        <c:axId val="183097600"/>
+        <c:axId val="182152576"/>
+        <c:axId val="181367936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183096064"/>
+        <c:axId val="182152576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183097600"/>
+        <c:crossAx val="181367936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183097600"/>
+        <c:axId val="181367936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -3822,7 +3867,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183096064"/>
+        <c:crossAx val="182152576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3831,7 +3876,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4054,31 +4099,37 @@
                 <c:pt idx="26">
                   <c:v>485</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184825344"/>
-        <c:axId val="184826880"/>
+        <c:axId val="183247232"/>
+        <c:axId val="183248768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184825344"/>
+        <c:axId val="183247232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184826880"/>
+        <c:crossAx val="183248768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184826880"/>
+        <c:axId val="183248768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +4143,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184825344"/>
+        <c:crossAx val="183247232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4101,7 +4152,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4320,10 +4371,10 @@
                   <c:v>158</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -4334,8 +4385,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184883840"/>
-        <c:axId val="184882304"/>
+        <c:axId val="183309824"/>
+        <c:axId val="183308288"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4486,17 +4537,23 @@
                 <c:pt idx="24">
                   <c:v>0.18570436036968324</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.14542141174719628</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1156871924780933</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="184870784"/>
-        <c:axId val="184872320"/>
+        <c:axId val="183296768"/>
+        <c:axId val="183298304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184870784"/>
+        <c:axId val="183296768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4514,13 +4571,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="184872320"/>
+        <c:crossAx val="183298304"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184872320"/>
+        <c:axId val="183298304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4534,24 +4591,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184870784"/>
+        <c:crossAx val="183296768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184882304"/>
+        <c:axId val="183308288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184883840"/>
+        <c:crossAx val="183309824"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="184883840"/>
+        <c:axId val="183309824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4559,7 +4616,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="184882304"/>
+        <c:crossAx val="183308288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4574,7 +4631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4794,31 +4851,37 @@
                 <c:pt idx="26">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184894976"/>
-        <c:axId val="184896512"/>
+        <c:axId val="183333248"/>
+        <c:axId val="183334784"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184894976"/>
+        <c:axId val="183333248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184896512"/>
+        <c:crossAx val="183334784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184896512"/>
+        <c:axId val="183334784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4832,7 +4895,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184894976"/>
+        <c:crossAx val="183333248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4841,7 +4904,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5090,10 +5153,10 @@
                   <c:v>33718</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>38168</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>41903</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -5104,8 +5167,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185170944"/>
-        <c:axId val="185169408"/>
+        <c:axId val="183809920"/>
+        <c:axId val="183808384"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5295,17 +5358,23 @@
                 <c:pt idx="29">
                   <c:v>0.14567001745973535</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14359095732379829</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13633105872142073</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="185161984"/>
-        <c:axId val="185167872"/>
+        <c:axId val="183800960"/>
+        <c:axId val="183802496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185161984"/>
+        <c:axId val="183800960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5323,13 +5392,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185167872"/>
+        <c:crossAx val="183802496"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185167872"/>
+        <c:axId val="183802496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5343,24 +5412,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185161984"/>
+        <c:crossAx val="183800960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185169408"/>
+        <c:axId val="183808384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185170944"/>
+        <c:crossAx val="183809920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="185170944"/>
+        <c:axId val="183809920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5368,7 +5437,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="185169408"/>
+        <c:crossAx val="183808384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5383,7 +5452,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5634,31 +5703,37 @@
                 <c:pt idx="31">
                   <c:v>10215</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>10590</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9406</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185361152"/>
-        <c:axId val="185363456"/>
+        <c:axId val="183819264"/>
+        <c:axId val="183994240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185361152"/>
+        <c:axId val="183819264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185363456"/>
+        <c:crossAx val="183994240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185363456"/>
+        <c:axId val="183994240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5672,7 +5747,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185361152"/>
+        <c:crossAx val="183819264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5681,7 +5756,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5931,31 +6006,37 @@
                 <c:pt idx="31">
                   <c:v>4244</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>4450</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3735</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185382784"/>
-        <c:axId val="185384320"/>
+        <c:axId val="183730944"/>
+        <c:axId val="183732480"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="185382784"/>
+        <c:axId val="183730944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185384320"/>
+        <c:crossAx val="183732480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185384320"/>
+        <c:axId val="183732480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5969,7 +6050,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185382784"/>
+        <c:crossAx val="183730944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5978,7 +6059,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6197,10 +6278,10 @@
                   <c:v>2921</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>3605</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0</c:v>
@@ -6211,8 +6292,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="185458048"/>
-        <c:axId val="185456512"/>
+        <c:axId val="183896320"/>
+        <c:axId val="183894784"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6384,17 +6465,23 @@
                 <c:pt idx="24">
                   <c:v>0.23578043132532106</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.24159309916092253</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.25155591772182462</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="185440896"/>
-        <c:axId val="185454976"/>
+        <c:axId val="183703040"/>
+        <c:axId val="183704576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="185440896"/>
+        <c:axId val="183703040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6412,13 +6499,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="185454976"/>
+        <c:crossAx val="183704576"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185454976"/>
+        <c:axId val="183704576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6432,24 +6519,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="185440896"/>
+        <c:crossAx val="183703040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="185456512"/>
+        <c:axId val="183894784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185458048"/>
+        <c:crossAx val="183896320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="185458048"/>
+        <c:axId val="183896320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6457,7 +6544,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="185456512"/>
+        <c:crossAx val="183894784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6472,7 +6559,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6634,14 +6721,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>165735</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>70485</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6650,7 +6737,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2626995" y="6442710"/>
+          <a:off x="2626995" y="6728460"/>
           <a:ext cx="4591050" cy="1615440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7543,18 +7630,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" style="21" customWidth="1"/>
-    <col min="3" max="6" width="14.6640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" style="21" customWidth="1"/>
+    <col min="3" max="6" width="14.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1">
+    <row r="1" spans="1:8" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>18</v>
       </c>
@@ -7574,7 +7661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -7590,8 +7677,11 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -7608,7 +7698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -7625,7 +7715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -7642,7 +7732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -7659,7 +7749,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -7676,7 +7766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -7693,7 +7783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -7710,7 +7800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -7727,7 +7817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7744,7 +7834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7761,7 +7851,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -7778,7 +7868,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -7795,7 +7885,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7812,7 +7902,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -7829,7 +7919,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -7846,7 +7936,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -7863,7 +7953,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -7880,7 +7970,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -7897,7 +7987,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -7914,7 +8004,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -7931,7 +8021,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -7948,7 +8038,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -7965,7 +8055,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -7982,7 +8072,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>23</v>
       </c>
@@ -7999,7 +8089,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -8016,7 +8106,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -8033,7 +8123,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>23</v>
       </c>
@@ -8049,11 +8139,8 @@
       <c r="E30" s="2">
         <v>1789</v>
       </c>
-      <c r="H30" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>23</v>
       </c>
@@ -8070,7 +8157,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>23</v>
       </c>
@@ -8087,23 +8174,41 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:8">
       <c r="A33" t="s">
         <v>23</v>
       </c>
       <c r="B33" s="21">
         <v>43924</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="C33" s="2">
+        <v>173784</v>
+      </c>
+      <c r="D33" s="2">
+        <v>38168</v>
+      </c>
+      <c r="E33" s="2">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" t="s">
         <v>23</v>
       </c>
       <c r="B34" s="21">
         <v>43925</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="C34" s="2">
+        <v>183190</v>
+      </c>
+      <c r="D34" s="2">
+        <v>41903</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -8111,7 +8216,7 @@
         <v>43926</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -8119,7 +8224,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -8127,7 +8232,7 @@
         <v>43928</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:8">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -8135,7 +8240,7 @@
         <v>43929</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:8">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -8143,7 +8248,7 @@
         <v>43930</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:8">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -8151,7 +8256,7 @@
         <v>43931</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" t="s">
         <v>24</v>
       </c>
@@ -8170,8 +8275,11 @@
       <c r="F43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="H43" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -8191,7 +8299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>24</v>
       </c>
@@ -8208,7 +8316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="A46" t="s">
         <v>24</v>
       </c>
@@ -8225,7 +8333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" t="s">
         <v>24</v>
       </c>
@@ -8242,7 +8350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:8">
       <c r="A48" t="s">
         <v>24</v>
       </c>
@@ -8611,7 +8719,7 @@
         <v>1749</v>
       </c>
       <c r="H68" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -8621,6 +8729,18 @@
       <c r="B69" s="21">
         <v>43924</v>
       </c>
+      <c r="C69" s="2">
+        <v>98343</v>
+      </c>
+      <c r="D69" s="2">
+        <v>11383</v>
+      </c>
+      <c r="E69" s="2">
+        <v>168</v>
+      </c>
+      <c r="F69" s="2">
+        <v>2022</v>
+      </c>
     </row>
     <row r="70" spans="1:8">
       <c r="A70" t="s">
@@ -8629,6 +8749,18 @@
       <c r="B70" s="21">
         <v>43925</v>
       </c>
+      <c r="C70" s="2">
+        <v>104134</v>
+      </c>
+      <c r="D70" s="2">
+        <v>11665</v>
+      </c>
+      <c r="E70" s="2">
+        <v>186</v>
+      </c>
+      <c r="F70" s="2">
+        <v>2507</v>
+      </c>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" t="s">
@@ -8694,6 +8826,9 @@
       <c r="E79" s="2">
         <v>7</v>
       </c>
+      <c r="H79" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
@@ -9331,6 +9466,15 @@
       <c r="B117" s="21">
         <v>43923</v>
       </c>
+      <c r="C117" s="2">
+        <v>581232</v>
+      </c>
+      <c r="D117" s="2">
+        <v>115242</v>
+      </c>
+      <c r="E117" s="2">
+        <v>13915</v>
+      </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" t="s">
@@ -9339,6 +9483,15 @@
       <c r="B118" s="21">
         <v>43924</v>
       </c>
+      <c r="C118" s="2">
+        <v>619849</v>
+      </c>
+      <c r="D118" s="2">
+        <v>119827</v>
+      </c>
+      <c r="E118" s="2">
+        <v>14681</v>
+      </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" t="s">
@@ -9397,9 +9550,14 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H43" r:id="rId1"/>
+    <hyperlink ref="H3" r:id="rId2"/>
+    <hyperlink ref="H79" r:id="rId3"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -9408,25 +9566,25 @@
   <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE47" sqref="AE47"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8">
+    <row r="1" spans="1:16" ht="28.5">
       <c r="A1" s="23" t="s">
         <v>9</v>
       </c>
@@ -9448,7 +9606,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -10734,15 +10892,47 @@
       </c>
       <c r="C31" s="2">
         <f>Data!C69</f>
-        <v>0</v>
+        <v>98343</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" ref="D31" si="55">C31-C30</f>
+        <v>6153</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" ref="E31" si="56">H31/D31</f>
+        <v>6.7609296278238251E-2</v>
       </c>
       <c r="G31" s="2">
         <f>Data!D69</f>
-        <v>0</v>
+        <v>11383</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" ref="H31" si="57">G31-G30</f>
+        <v>416</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ref="I31" si="58">G31/G30-1</f>
+        <v>3.7931977751436197E-2</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" ref="J31" si="59">SUM(I27:I31)/5</f>
+        <v>5.6920845701934383E-2</v>
       </c>
       <c r="L31">
         <f>Data!E69</f>
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="M31">
+        <f t="shared" ref="M31" si="60">L31-L30</f>
+        <v>10</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" ref="N31" si="61">L31/L30-1</f>
+        <v>6.3291139240506222E-2</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" ref="O31" si="62">SUM(N27:N31)/5</f>
+        <v>0.14542141174719628</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -10754,15 +10944,47 @@
       </c>
       <c r="C32" s="2">
         <f>Data!C70</f>
-        <v>0</v>
+        <v>104134</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" ref="D32" si="63">C32-C31</f>
+        <v>5791</v>
+      </c>
+      <c r="E32" s="11">
+        <f t="shared" ref="E32" si="64">H32/D32</f>
+        <v>4.8696252806078401E-2</v>
       </c>
       <c r="G32" s="2">
         <f>Data!D70</f>
-        <v>0</v>
+        <v>11665</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" ref="H32" si="65">G32-G31</f>
+        <v>282</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ref="I32" si="66">G32/G31-1</f>
+        <v>2.4773785469559773E-2</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" ref="J32" si="67">SUM(I28:I32)/5</f>
+        <v>4.4714880239107122E-2</v>
       </c>
       <c r="L32">
         <f>Data!E70</f>
-        <v>0</v>
+        <v>186</v>
+      </c>
+      <c r="M32">
+        <f t="shared" ref="M32" si="68">L32-L31</f>
+        <v>18</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" ref="N32" si="69">L32/L31-1</f>
+        <v>0.10714285714285721</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" ref="O32" si="70">SUM(N28:N32)/5</f>
+        <v>0.1156871924780933</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -10812,26 +11034,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36:O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="15" max="15" width="7.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8">
+    <row r="1" spans="1:16" ht="28.5">
       <c r="A1" s="23" t="s">
         <v>10</v>
       </c>
@@ -10853,7 +11075,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -12382,15 +12604,47 @@
       </c>
       <c r="C36" s="2">
         <f>Data!C33</f>
-        <v>0</v>
+        <v>173784</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36" si="57">C36-C35</f>
+        <v>10590</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" ref="E36" si="58">H36/D36</f>
+        <v>0.42020774315391879</v>
       </c>
       <c r="G36" s="2">
         <f>Data!D33</f>
-        <v>0</v>
+        <v>38168</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" ref="H36" si="59">G36-G35</f>
+        <v>4450</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" ref="I36" si="60">G36/G35-1</f>
+        <v>0.13197698558633375</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" ref="J36" si="61">SUM(I32:I36)/5</f>
+        <v>0.14359095732379829</v>
       </c>
       <c r="L36" s="2">
         <f>Data!E33</f>
-        <v>0</v>
+        <v>3605</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="62">L36-L35</f>
+        <v>684</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" ref="N36" si="63">L36/L35-1</f>
+        <v>0.23416638137624091</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" ref="O36" si="64">SUM(N32:N36)/5</f>
+        <v>0.24159309916092253</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -12403,15 +12657,47 @@
       </c>
       <c r="C37" s="2">
         <f>Data!C34</f>
-        <v>0</v>
+        <v>183190</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37" si="65">C37-C36</f>
+        <v>9406</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" ref="E37" si="66">H37/D37</f>
+        <v>0.39708696576653202</v>
       </c>
       <c r="G37" s="2">
         <f>Data!D34</f>
-        <v>0</v>
+        <v>41903</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" ref="H37" si="67">G37-G36</f>
+        <v>3735</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ref="I37" si="68">G37/G36-1</f>
+        <v>9.7856843429050544E-2</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" ref="J37" si="69">SUM(I33:I37)/5</f>
+        <v>0.13633105872142073</v>
       </c>
       <c r="L37" s="2">
         <f>Data!E34</f>
-        <v>0</v>
+        <v>4313</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37" si="70">L37-L36</f>
+        <v>708</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" ref="N37" si="71">L37/L36-1</f>
+        <v>0.1963938973647712</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" ref="O37" si="72">SUM(N33:N37)/5</f>
+        <v>0.25155591772182462</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -12456,27 +12742,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="AH31" sqref="AH31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="13" customWidth="1"/>
-    <col min="3" max="4" width="10.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="1.33203125" style="2" customWidth="1"/>
-    <col min="7" max="8" width="10.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="16" customWidth="1"/>
-    <col min="11" max="11" width="1.109375" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="2"/>
-    <col min="15" max="15" width="7.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16" width="3.6640625" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.85546875" style="2"/>
+    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.8">
+    <row r="1" spans="1:16" ht="28.5">
       <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
@@ -12498,7 +12784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -14467,15 +14753,47 @@
       </c>
       <c r="C44" s="2">
         <f>Data!C117</f>
-        <v>0</v>
+        <v>581232</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44:D45" si="44">C44-C43</f>
+        <v>39809</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" ref="E44:E45" si="45">H44/D44</f>
+        <v>0.11725991609937451</v>
       </c>
       <c r="G44" s="2">
         <f>Data!D117</f>
-        <v>0</v>
+        <v>115242</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" ref="H44:H45" si="46">G44-G43</f>
+        <v>4668</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ref="I44:I45" si="47">G44/G43-1</f>
+        <v>4.2216072494438039E-2</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" ref="J44:J45" si="48">SUM(I40:I44)/5</f>
+        <v>4.5024855162985399E-2</v>
       </c>
       <c r="L44" s="2">
         <f>Data!E117</f>
-        <v>0</v>
+        <v>13915</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44:M45" si="49">L44-L43</f>
+        <v>760</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44:N45" si="50">L44/L43-1</f>
+        <v>5.7772709996199101E-2</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" ref="O44:O45" si="51">SUM(N40:N44)/5</f>
+        <v>6.7847806630759025E-2</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -14487,15 +14805,47 @@
       </c>
       <c r="C45" s="2">
         <f>Data!C118</f>
-        <v>0</v>
+        <v>619849</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="44"/>
+        <v>38617</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="45"/>
+        <v>0.11873009296423855</v>
       </c>
       <c r="G45" s="2">
         <f>Data!D118</f>
-        <v>0</v>
+        <v>119827</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="46"/>
+        <v>4585</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="47"/>
+        <v>3.9785841967338254E-2</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="48"/>
+        <v>4.1698608036079318E-2</v>
       </c>
       <c r="L45" s="2">
         <f>Data!E118</f>
-        <v>0</v>
+        <v>14681</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="49"/>
+        <v>766</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="50"/>
+        <v>5.5048508803449581E-2</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" si="51"/>
+        <v>6.3772204590191839E-2</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -14569,7 +14919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14581,7 +14931,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -679,7 +679,7 @@
                   <c:v>11665</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>11907</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,8 +687,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182141312"/>
-        <c:axId val="182139520"/>
+        <c:axId val="195187072"/>
+        <c:axId val="195181184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -851,17 +851,20 @@
                 <c:pt idx="26">
                   <c:v>4.4714880239107122E-2</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.6130760839244047E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181390720"/>
-        <c:axId val="182137984"/>
+        <c:axId val="192531840"/>
+        <c:axId val="195179648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181390720"/>
+        <c:axId val="192531840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -879,13 +882,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182137984"/>
+        <c:crossAx val="195179648"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182137984"/>
+        <c:axId val="195179648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,24 +902,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181390720"/>
+        <c:crossAx val="192531840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182139520"/>
+        <c:axId val="195181184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182141312"/>
+        <c:crossAx val="195187072"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="182141312"/>
+        <c:axId val="195187072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +927,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="182139520"/>
+        <c:crossAx val="195181184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -939,7 +942,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1199,31 +1202,34 @@
                 <c:pt idx="33">
                   <c:v>708</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>619</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183919360"/>
-        <c:axId val="183920896"/>
+        <c:axId val="208429824"/>
+        <c:axId val="208431360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183919360"/>
+        <c:axId val="208429824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183920896"/>
+        <c:crossAx val="208431360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183920896"/>
+        <c:axId val="208431360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1237,7 +1243,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183919360"/>
+        <c:crossAx val="208429824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1246,7 +1252,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1552,7 +1558,7 @@
                   <c:v>119827</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>124632</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -1563,8 +1569,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184089216"/>
-        <c:axId val="184087680"/>
+        <c:axId val="209848960"/>
+        <c:axId val="209847424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1811,17 +1817,20 @@
                 <c:pt idx="39">
                   <c:v>4.1698608036079318E-2</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>4.1426884062663663E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="184080256"/>
-        <c:axId val="184081792"/>
+        <c:axId val="208598912"/>
+        <c:axId val="208600448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184080256"/>
+        <c:axId val="208598912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,13 +1838,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184081792"/>
+        <c:crossAx val="208600448"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184081792"/>
+        <c:axId val="208600448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,24 +1858,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184080256"/>
+        <c:crossAx val="208598912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184087680"/>
+        <c:axId val="209847424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184089216"/>
+        <c:crossAx val="209848960"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="184089216"/>
+        <c:axId val="209848960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +1883,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="184087680"/>
+        <c:crossAx val="209847424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1889,7 +1898,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2200,31 +2209,34 @@
                 <c:pt idx="41">
                   <c:v>38617</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>37375</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184302208"/>
-        <c:axId val="184324480"/>
+        <c:axId val="209865344"/>
+        <c:axId val="209891712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184302208"/>
+        <c:axId val="209865344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184324480"/>
+        <c:crossAx val="209891712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184324480"/>
+        <c:axId val="209891712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2250,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184302208"/>
+        <c:crossAx val="209865344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2247,7 +2259,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2554,31 +2566,34 @@
                 <c:pt idx="41">
                   <c:v>4585</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>4805</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184160256"/>
-        <c:axId val="184161792"/>
+        <c:axId val="209907712"/>
+        <c:axId val="209909248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184160256"/>
+        <c:axId val="209907712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184161792"/>
+        <c:crossAx val="209909248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184161792"/>
+        <c:axId val="209909248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2607,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184160256"/>
+        <c:crossAx val="209907712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2601,7 +2616,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2907,7 +2922,7 @@
                   <c:v>14681</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>15362</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>0</c:v>
@@ -2918,8 +2933,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184202752"/>
-        <c:axId val="184201216"/>
+        <c:axId val="208717312"/>
+        <c:axId val="208715776"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3166,17 +3181,20 @@
                 <c:pt idx="39">
                   <c:v>6.3772204590191839E-2</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.7983169093109542E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="184193792"/>
-        <c:axId val="184195328"/>
+        <c:axId val="208708352"/>
+        <c:axId val="208709888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="184193792"/>
+        <c:axId val="208708352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3184,13 +3202,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184195328"/>
+        <c:crossAx val="208709888"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184195328"/>
+        <c:axId val="208709888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3204,24 +3222,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184193792"/>
+        <c:crossAx val="208708352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="184201216"/>
+        <c:axId val="208715776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184202752"/>
+        <c:crossAx val="208717312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="184202752"/>
+        <c:axId val="208717312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3229,7 +3247,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="184201216"/>
+        <c:crossAx val="208715776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3244,7 +3262,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3554,31 +3572,34 @@
                 <c:pt idx="41">
                   <c:v>766</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>681</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="184219136"/>
-        <c:axId val="184220672"/>
+        <c:axId val="209917440"/>
+        <c:axId val="209918976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="184219136"/>
+        <c:axId val="209917440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="184220672"/>
+        <c:crossAx val="209918976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="184220672"/>
+        <c:axId val="209918976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3592,7 +3613,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="184219136"/>
+        <c:crossAx val="209917440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3601,7 +3622,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3827,31 +3848,34 @@
                 <c:pt idx="28">
                   <c:v>5791</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>4282</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182152576"/>
-        <c:axId val="181367936"/>
+        <c:axId val="195194240"/>
+        <c:axId val="192521344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="182152576"/>
+        <c:axId val="195194240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181367936"/>
+        <c:crossAx val="192521344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181367936"/>
+        <c:axId val="192521344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -3867,7 +3891,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182152576"/>
+        <c:crossAx val="195194240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3876,7 +3900,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4105,31 +4129,34 @@
                 <c:pt idx="28">
                   <c:v>282</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>242</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183247232"/>
-        <c:axId val="183248768"/>
+        <c:axId val="195506560"/>
+        <c:axId val="195508096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183247232"/>
+        <c:axId val="195506560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183248768"/>
+        <c:crossAx val="195508096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183248768"/>
+        <c:axId val="195508096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4143,7 +4170,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183247232"/>
+        <c:crossAx val="195506560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4152,7 +4179,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4377,7 +4404,7 @@
                   <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4385,8 +4412,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183309824"/>
-        <c:axId val="183308288"/>
+        <c:axId val="197547520"/>
+        <c:axId val="197545984"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4543,17 +4570,20 @@
                 <c:pt idx="26">
                   <c:v>0.1156871924780933</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.8004994150733674E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="183296768"/>
-        <c:axId val="183298304"/>
+        <c:axId val="197526272"/>
+        <c:axId val="197527808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183296768"/>
+        <c:axId val="197526272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4571,13 +4601,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183298304"/>
+        <c:crossAx val="197527808"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183298304"/>
+        <c:axId val="197527808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4591,24 +4621,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183296768"/>
+        <c:crossAx val="197526272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183308288"/>
+        <c:axId val="197545984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183309824"/>
+        <c:crossAx val="197547520"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="183309824"/>
+        <c:axId val="197547520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4646,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="183308288"/>
+        <c:crossAx val="197545984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4631,7 +4661,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4857,31 +4887,34 @@
                 <c:pt idx="28">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183333248"/>
-        <c:axId val="183334784"/>
+        <c:axId val="197562752"/>
+        <c:axId val="197564288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183333248"/>
+        <c:axId val="197562752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183334784"/>
+        <c:crossAx val="197564288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183334784"/>
+        <c:axId val="197564288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,7 +4928,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183333248"/>
+        <c:crossAx val="197562752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4904,7 +4937,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5159,7 +5192,7 @@
                   <c:v>41903</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>47806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5167,8 +5200,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183809920"/>
-        <c:axId val="183808384"/>
+        <c:axId val="199346048"/>
+        <c:axId val="199344512"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5364,17 +5397,20 @@
                 <c:pt idx="31">
                   <c:v>0.13633105872142073</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.13732530826803163</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="183800960"/>
-        <c:axId val="183802496"/>
+        <c:axId val="199337088"/>
+        <c:axId val="199338624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183800960"/>
+        <c:axId val="199337088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5392,13 +5428,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183802496"/>
+        <c:crossAx val="199338624"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183802496"/>
+        <c:axId val="199338624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5412,24 +5448,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183800960"/>
+        <c:crossAx val="199337088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183808384"/>
+        <c:axId val="199344512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183809920"/>
+        <c:crossAx val="199346048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="183809920"/>
+        <c:axId val="199346048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5437,7 +5473,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="183808384"/>
+        <c:crossAx val="199344512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5452,7 +5488,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5709,31 +5745,34 @@
                 <c:pt idx="33">
                   <c:v>9406</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>12334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183819264"/>
-        <c:axId val="183994240"/>
+        <c:axId val="199015808"/>
+        <c:axId val="199357952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183819264"/>
+        <c:axId val="199015808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183994240"/>
+        <c:crossAx val="199357952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183994240"/>
+        <c:axId val="199357952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5747,7 +5786,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183819264"/>
+        <c:crossAx val="199015808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5756,7 +5795,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6012,31 +6051,34 @@
                 <c:pt idx="33">
                   <c:v>3735</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>5903</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183730944"/>
-        <c:axId val="183732480"/>
+        <c:axId val="208474880"/>
+        <c:axId val="208476416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="183730944"/>
+        <c:axId val="208474880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183732480"/>
+        <c:crossAx val="208476416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183732480"/>
+        <c:axId val="208476416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6050,7 +6092,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183730944"/>
+        <c:crossAx val="208474880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6059,7 +6101,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6284,7 +6326,7 @@
                   <c:v>4313</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>4932</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6292,8 +6334,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="183896320"/>
-        <c:axId val="183894784"/>
+        <c:axId val="208410880"/>
+        <c:axId val="208409344"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6471,17 +6513,20 @@
                 <c:pt idx="26">
                   <c:v>0.25155591772182462</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.22614051792628054</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="183703040"/>
-        <c:axId val="183704576"/>
+        <c:axId val="208524800"/>
+        <c:axId val="208526336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="183703040"/>
+        <c:axId val="208524800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6499,13 +6544,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="183704576"/>
+        <c:crossAx val="208526336"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="183704576"/>
+        <c:axId val="208526336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6519,24 +6564,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="183703040"/>
+        <c:crossAx val="208524800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="183894784"/>
+        <c:axId val="208409344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="183896320"/>
+        <c:crossAx val="208410880"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="183896320"/>
+        <c:axId val="208410880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,7 +6589,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="183894784"/>
+        <c:crossAx val="208409344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6559,7 +6604,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7630,8 +7675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8215,6 +8260,15 @@
       <c r="B35" s="21">
         <v>43926</v>
       </c>
+      <c r="C35" s="2">
+        <v>195524</v>
+      </c>
+      <c r="D35" s="2">
+        <v>47806</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4932</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" t="s">
@@ -8769,6 +8823,18 @@
       <c r="B71" s="21">
         <v>43926</v>
       </c>
+      <c r="C71" s="2">
+        <v>108416</v>
+      </c>
+      <c r="D71" s="2">
+        <v>11907</v>
+      </c>
+      <c r="E71" s="2">
+        <v>204</v>
+      </c>
+      <c r="F71" s="2">
+        <v>2998</v>
+      </c>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" t="s">
@@ -9499,6 +9565,15 @@
       </c>
       <c r="B119" s="21">
         <v>43925</v>
+      </c>
+      <c r="C119" s="2">
+        <v>657224</v>
+      </c>
+      <c r="D119" s="2">
+        <v>124632</v>
+      </c>
+      <c r="E119" s="2">
+        <v>15362</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -9565,8 +9640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10987,7 +11062,7 @@
         <v>0.1156871924780933</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:15">
       <c r="A33" s="8">
         <v>43926</v>
       </c>
@@ -10996,18 +11071,50 @@
       </c>
       <c r="C33" s="2">
         <f>Data!C71</f>
-        <v>0</v>
+        <v>108416</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D33" si="71">C33-C32</f>
+        <v>4282</v>
+      </c>
+      <c r="E33" s="11">
+        <f t="shared" ref="E33" si="72">H33/D33</f>
+        <v>5.6515646893974779E-2</v>
       </c>
       <c r="G33" s="2">
         <f>Data!D71</f>
-        <v>0</v>
+        <v>11907</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ref="H33" si="73">G33-G32</f>
+        <v>242</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" ref="I33" si="74">G33/G32-1</f>
+        <v>2.0745820831547412E-2</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" ref="J33" si="75">SUM(I29:I33)/5</f>
+        <v>3.6130760839244047E-2</v>
       </c>
       <c r="L33">
         <f>Data!E71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12">
+        <v>204</v>
+      </c>
+      <c r="M33">
+        <f t="shared" ref="M33" si="76">L33-L32</f>
+        <v>18</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" ref="N33" si="77">L33/L32-1</f>
+        <v>9.6774193548387011E-2</v>
+      </c>
+      <c r="O33" s="16">
+        <f t="shared" ref="O33" si="78">SUM(N29:N33)/5</f>
+        <v>9.8004994150733674E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="L34">
         <f>Data!E72</f>
         <v>0</v>
@@ -11035,7 +11142,7 @@
   <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36:O37"/>
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12710,15 +12817,47 @@
       </c>
       <c r="C38" s="2">
         <f>Data!C35</f>
-        <v>0</v>
+        <v>195524</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38" si="73">C38-C37</f>
+        <v>12334</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" ref="E38" si="74">H38/D38</f>
+        <v>0.4785957515809956</v>
       </c>
       <c r="G38" s="2">
         <f>Data!D35</f>
-        <v>0</v>
+        <v>47806</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ref="H38" si="75">G38-G37</f>
+        <v>5903</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" ref="I38" si="76">G38/G37-1</f>
+        <v>0.14087296852254005</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" ref="J38" si="77">SUM(I34:I38)/5</f>
+        <v>0.13732530826803163</v>
       </c>
       <c r="L38" s="2">
         <f>Data!E35</f>
-        <v>0</v>
+        <v>4932</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38" si="78">L38-L37</f>
+        <v>619</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ref="N38" si="79">L38/L37-1</f>
+        <v>0.14351959193137032</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" ref="O38" si="80">SUM(N34:N38)/5</f>
+        <v>0.22614051792628054</v>
       </c>
     </row>
   </sheetData>
@@ -12743,7 +12882,7 @@
   <dimension ref="A1:P47"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="M52" sqref="M52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14857,15 +14996,47 @@
       </c>
       <c r="C46" s="2">
         <f>Data!C119</f>
-        <v>0</v>
+        <v>657224</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46" si="52">C46-C45</f>
+        <v>37375</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" ref="E46" si="53">H46/D46</f>
+        <v>0.128561872909699</v>
       </c>
       <c r="G46" s="2">
         <f>Data!D119</f>
-        <v>0</v>
+        <v>124632</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" ref="H46" si="54">G46-G45</f>
+        <v>4805</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" ref="I46" si="55">G46/G45-1</f>
+        <v>4.0099476745641738E-2</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" ref="J46" si="56">SUM(I42:I46)/5</f>
+        <v>4.1426884062663663E-2</v>
       </c>
       <c r="L46" s="2">
         <f>Data!E119</f>
-        <v>0</v>
+        <v>15362</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46" si="57">L46-L45</f>
+        <v>681</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ref="N46" si="58">L46/L45-1</f>
+        <v>4.6386485934200694E-2</v>
+      </c>
+      <c r="O46" s="16">
+        <f t="shared" ref="O46" si="59">SUM(N42:N46)/5</f>
+        <v>5.7983169093109542E-2</v>
       </c>
     </row>
     <row r="47" spans="1:16" s="2" customFormat="1">
@@ -14907,7 +15078,7 @@
     <hyperlink ref="P1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -500,10 +500,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$33</c:f>
+              <c:f>Austria!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -587,16 +587,37 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$G$6:$G$33</c:f>
+              <c:f>Austria!$G$6:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
@@ -680,6 +701,27 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>11907</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12206</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -687,8 +729,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195187072"/>
-        <c:axId val="195181184"/>
+        <c:axId val="191848832"/>
+        <c:axId val="191842944"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -781,10 +823,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$J$6:$J$33</c:f>
+              <c:f>Austria!$J$6:$J$40</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="5">
                   <c:v>0.38083321236080414</c:v>
                 </c:pt>
@@ -853,6 +895,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>3.6130760839244047E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.0966531794513009E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -860,11 +905,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="192531840"/>
-        <c:axId val="195179648"/>
+        <c:axId val="191556992"/>
+        <c:axId val="191841408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192531840"/>
+        <c:axId val="191556992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,13 +927,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195179648"/>
+        <c:crossAx val="191841408"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195179648"/>
+        <c:axId val="191841408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -902,24 +947,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192531840"/>
+        <c:crossAx val="191556992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195181184"/>
+        <c:axId val="191842944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195187072"/>
+        <c:crossAx val="191848832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195187072"/>
+        <c:axId val="191848832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +972,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195181184"/>
+        <c:crossAx val="191842944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -942,7 +987,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -988,222 +1033,241 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>UK!$A$4:$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="35"/>
+            <c:numRef>
+              <c:f>UK!$A$6:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04-Mar</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>05-Mar</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>06-Mar</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>07-Mar</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>08-Mar</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$M$4:$M$38</c:f>
+              <c:f>UK!$M$6:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
                 <c:pt idx="10">
-                  <c:v>2</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>33</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>56</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>54</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87</c:v>
+                  <c:v>113</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>113</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>181</c:v>
+                  <c:v>209</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>260</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>209</c:v>
+                  <c:v>381</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>180</c:v>
+                  <c:v>563</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>381</c:v>
+                  <c:v>569</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>563</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>569</c:v>
+                  <c:v>708</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>684</c:v>
+                  <c:v>619</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>708</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>619</c:v>
+                  <c:v>441</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1211,25 +1275,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="208429824"/>
-        <c:axId val="208431360"/>
+        <c:axId val="196371200"/>
+        <c:axId val="196372736"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="208429824"/>
+      <c:dateAx>
+        <c:axId val="196371200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208431360"/>
+        <c:crossAx val="196372736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="208431360"/>
+        <c:axId val="196372736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1243,7 +1307,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208429824"/>
+        <c:crossAx val="196371200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1252,7 +1316,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1298,10 +1362,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$47</c:f>
+              <c:f>Italy!$A$6:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -1427,16 +1491,37 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$G$6:$G$47</c:f>
+              <c:f>Italy!$G$6:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1561,6 +1646,27 @@
                   <c:v>124632</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>128948</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>132547</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1569,8 +1675,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="209848960"/>
-        <c:axId val="209847424"/>
+        <c:axId val="196512384"/>
+        <c:axId val="196510848"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1705,10 +1811,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$J$6:$J$47</c:f>
+              <c:f>Italy!$J$6:$J$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="4">
                   <c:v>0.32790068162329405</c:v>
                 </c:pt>
@@ -1819,6 +1925,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4.1426884062663663E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.0031581457955892E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1826,11 +1935,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="208598912"/>
-        <c:axId val="208600448"/>
+        <c:axId val="196507520"/>
+        <c:axId val="196509056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="208598912"/>
+        <c:axId val="196507520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,13 +1947,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208600448"/>
+        <c:crossAx val="196509056"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208600448"/>
+        <c:axId val="196509056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1858,24 +1967,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208598912"/>
+        <c:crossAx val="196507520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="209847424"/>
+        <c:axId val="196510848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209848960"/>
+        <c:crossAx val="196512384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="209848960"/>
+        <c:axId val="196512384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1883,7 +1992,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="209847424"/>
+        <c:crossAx val="196510848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1898,7 +2007,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1944,273 +2053,292 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Italy!$A$4:$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="44"/>
+            <c:numRef>
+              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24-Feb</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25-Feb</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26-Feb</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27-Feb</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28-Feb</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29-Feb</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>01-Mar</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>02-Mar</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>03-Mar</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>04-Mar</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>05-Mar</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06-Mar</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>07-Mar</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>08-Mar</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$D$4:$D$47</c:f>
+              <c:f>Italy!$D$6:$D$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4299</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4324</c:v>
+                  <c:v>964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4299</c:v>
+                  <c:v>2427</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>964</c:v>
+                  <c:v>3681</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2427</c:v>
+                  <c:v>2966</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3681</c:v>
+                  <c:v>2466</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2966</c:v>
+                  <c:v>2218</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2466</c:v>
+                  <c:v>2511</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2218</c:v>
+                  <c:v>3981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2511</c:v>
+                  <c:v>2525</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3981</c:v>
+                  <c:v>3997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2525</c:v>
+                  <c:v>5703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3997</c:v>
+                  <c:v>7875</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5703</c:v>
+                  <c:v>3889</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7875</c:v>
+                  <c:v>6935</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3889</c:v>
+                  <c:v>12393</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6935</c:v>
+                  <c:v>12857</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12393</c:v>
+                  <c:v>11477</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12857</c:v>
+                  <c:v>11682</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11477</c:v>
+                  <c:v>15729</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11682</c:v>
+                  <c:v>13063</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15729</c:v>
+                  <c:v>10695</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>13063</c:v>
+                  <c:v>16884</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>10695</c:v>
+                  <c:v>17236</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>16884</c:v>
+                  <c:v>24109</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>17236</c:v>
+                  <c:v>26336</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>24109</c:v>
+                  <c:v>25180</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26336</c:v>
+                  <c:v>17066</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>25180</c:v>
+                  <c:v>21496</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>17066</c:v>
+                  <c:v>27481</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>21496</c:v>
+                  <c:v>36615</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27481</c:v>
+                  <c:v>33019</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>36615</c:v>
+                  <c:v>35447</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>33019</c:v>
+                  <c:v>24504</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35447</c:v>
+                  <c:v>23329</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>24504</c:v>
+                  <c:v>29609</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>23329</c:v>
+                  <c:v>34455</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29609</c:v>
+                  <c:v>39809</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>34455</c:v>
+                  <c:v>38617</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>39809</c:v>
+                  <c:v>37375</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>38617</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>37375</c:v>
+                  <c:v>34237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2218,25 +2346,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="209865344"/>
-        <c:axId val="209891712"/>
+        <c:axId val="196528768"/>
+        <c:axId val="198193536"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="209865344"/>
+      <c:dateAx>
+        <c:axId val="196528768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209891712"/>
+        <c:crossAx val="198193536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="209891712"/>
+        <c:axId val="198193536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2250,7 +2378,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="209865344"/>
+        <c:crossAx val="196528768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2259,7 +2387,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2304,270 +2432,289 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Italy!$A$4:$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="44"/>
+            <c:numRef>
+              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24-Feb</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25-Feb</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26-Feb</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27-Feb</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28-Feb</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29-Feb</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>01-Mar</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>02-Mar</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>03-Mar</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>04-Mar</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>05-Mar</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06-Mar</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>07-Mar</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>08-Mar</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$H$4:$H$47</c:f>
+              <c:f>Italy!$H$6:$H$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="44"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="49"/>
+                <c:pt idx="1">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>93</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78</c:v>
+                  <c:v>238</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>238</c:v>
+                  <c:v>566</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>566</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>342</c:v>
+                  <c:v>587</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>466</c:v>
+                  <c:v>769</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>587</c:v>
+                  <c:v>778</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>769</c:v>
+                  <c:v>1247</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>778</c:v>
+                  <c:v>1492</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1247</c:v>
+                  <c:v>1797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1492</c:v>
+                  <c:v>977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1797</c:v>
+                  <c:v>2313</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>977</c:v>
+                  <c:v>2651</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2313</c:v>
+                  <c:v>2547</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2651</c:v>
+                  <c:v>3497</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2547</c:v>
+                  <c:v>3590</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3497</c:v>
+                  <c:v>3233</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3590</c:v>
+                  <c:v>3526</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3233</c:v>
+                  <c:v>4207</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3526</c:v>
+                  <c:v>5322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4207</c:v>
+                  <c:v>5986</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5322</c:v>
+                  <c:v>6557</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5986</c:v>
+                  <c:v>5560</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6557</c:v>
+                  <c:v>4789</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5560</c:v>
+                  <c:v>5249</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4789</c:v>
+                  <c:v>5210</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5249</c:v>
+                  <c:v>6153</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5210</c:v>
+                  <c:v>5959</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>6153</c:v>
+                  <c:v>5974</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5959</c:v>
+                  <c:v>5217</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5974</c:v>
+                  <c:v>4050</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5217</c:v>
+                  <c:v>4233</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>4050</c:v>
+                  <c:v>4602</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>4233</c:v>
+                  <c:v>4668</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>4602</c:v>
+                  <c:v>4585</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4668</c:v>
+                  <c:v>4805</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4585</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4805</c:v>
+                  <c:v>4316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2575,25 +2722,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="209907712"/>
-        <c:axId val="209909248"/>
+        <c:axId val="198221824"/>
+        <c:axId val="198223360"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="209907712"/>
+      <c:dateAx>
+        <c:axId val="198221824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209909248"/>
+        <c:crossAx val="198223360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="209909248"/>
+        <c:axId val="198223360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2607,7 +2754,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="209907712"/>
+        <c:crossAx val="198221824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2616,7 +2763,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2662,10 +2809,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$47</c:f>
+              <c:f>Italy!$A$6:$A$54</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -2791,16 +2938,37 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$L$6:$L$47</c:f>
+              <c:f>Italy!$L$6:$L$54</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -2925,6 +3093,27 @@
                   <c:v>15362</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>15887</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>16523</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2933,8 +3122,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="208717312"/>
-        <c:axId val="208715776"/>
+        <c:axId val="198333952"/>
+        <c:axId val="198332416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3069,10 +3258,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$O$6:$O$47</c:f>
+              <c:f>Italy!$O$6:$O$54</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="4">
                   <c:v>0.25610644257703086</c:v>
                 </c:pt>
@@ -3183,6 +3372,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>5.7983169093109542E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.0375976944255239E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3190,11 +3382,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="208708352"/>
-        <c:axId val="208709888"/>
+        <c:axId val="198329088"/>
+        <c:axId val="198330624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="208708352"/>
+        <c:axId val="198329088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3202,13 +3394,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208709888"/>
+        <c:crossAx val="198330624"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208709888"/>
+        <c:axId val="198330624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3222,24 +3414,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208708352"/>
+        <c:crossAx val="198329088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208715776"/>
+        <c:axId val="198332416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208717312"/>
+        <c:crossAx val="198333952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="208717312"/>
+        <c:axId val="198333952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3247,7 +3439,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="208715776"/>
+        <c:crossAx val="198332416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3262,7 +3454,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3307,273 +3499,292 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Italy!$A$4:$A$47</c:f>
-              <c:strCache>
-                <c:ptCount val="44"/>
+            <c:numRef>
+              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43885</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>24-Feb</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25-Feb</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>26-Feb</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27-Feb</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28-Feb</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29-Feb</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>01-Mar</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>02-Mar</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>03-Mar</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>04-Mar</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>05-Mar</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>06-Mar</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>07-Mar</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>08-Mar</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$M$4:$M$47</c:f>
+              <c:f>Italy!$M$6:$M$54</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="49"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>18</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>27</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>41</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49</c:v>
+                  <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>133</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97</c:v>
+                  <c:v>196</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>168</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>196</c:v>
+                  <c:v>250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>189</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>250</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>175</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>368</c:v>
+                  <c:v>345</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>349</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>345</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>475</c:v>
+                  <c:v>627</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>427</c:v>
+                  <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>627</c:v>
+                  <c:v>651</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>793</c:v>
+                  <c:v>601</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>651</c:v>
+                  <c:v>743</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>601</c:v>
+                  <c:v>683</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>743</c:v>
+                  <c:v>662</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>683</c:v>
+                  <c:v>969</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>662</c:v>
+                  <c:v>889</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>969</c:v>
+                  <c:v>756</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>889</c:v>
+                  <c:v>812</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>756</c:v>
+                  <c:v>837</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>812</c:v>
+                  <c:v>727</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>837</c:v>
+                  <c:v>760</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>727</c:v>
+                  <c:v>766</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>760</c:v>
+                  <c:v>681</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>766</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>681</c:v>
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3581,25 +3792,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="209917440"/>
-        <c:axId val="209918976"/>
+        <c:axId val="198358528"/>
+        <c:axId val="198360064"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="209917440"/>
+      <c:dateAx>
+        <c:axId val="198358528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="209918976"/>
+        <c:crossAx val="198360064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="209918976"/>
+        <c:axId val="198360064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3613,7 +3824,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="209917440"/>
+        <c:crossAx val="198358528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3622,7 +3833,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3667,189 +3878,208 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Austria!$A$4:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
+            <c:numRef>
+              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$D$4:$D$33</c:f>
+              <c:f>Austria!$D$6:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="35"/>
+                <c:pt idx="1">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>292</c:v>
+                  <c:v>507</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>336</c:v>
+                  <c:v>713</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>507</c:v>
+                  <c:v>885</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>713</c:v>
+                  <c:v>700</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>885</c:v>
+                  <c:v>323</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>700</c:v>
+                  <c:v>1788</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>323</c:v>
+                  <c:v>1699</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1788</c:v>
+                  <c:v>1747</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1699</c:v>
+                  <c:v>1889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1747</c:v>
+                  <c:v>2932</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1889</c:v>
+                  <c:v>2823</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2932</c:v>
+                  <c:v>2061</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2823</c:v>
+                  <c:v>4962</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2061</c:v>
+                  <c:v>4016</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4962</c:v>
+                  <c:v>3588</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4016</c:v>
+                  <c:v>3557</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3588</c:v>
+                  <c:v>3198</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>3557</c:v>
+                  <c:v>3691</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3198</c:v>
+                  <c:v>3014</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3691</c:v>
+                  <c:v>2889</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3014</c:v>
+                  <c:v>3519</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2889</c:v>
+                  <c:v>36327</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3519</c:v>
+                  <c:v>6153</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36327</c:v>
+                  <c:v>5791</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6153</c:v>
+                  <c:v>4282</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5791</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4282</c:v>
+                  <c:v>2880</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3857,25 +4087,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195194240"/>
-        <c:axId val="192521344"/>
+        <c:axId val="191856000"/>
+        <c:axId val="191865984"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="195194240"/>
+      <c:dateAx>
+        <c:axId val="191856000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192521344"/>
+        <c:crossAx val="191865984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="192521344"/>
+        <c:axId val="191865984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -3891,7 +4121,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195194240"/>
+        <c:crossAx val="191856000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3900,7 +4130,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3945,192 +4175,211 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Austria!$A$4:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
+            <c:numRef>
+              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$H$4:$H$33</c:f>
+              <c:f>Austria!$H$6:$H$40</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>131</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115</c:v>
+                  <c:v>151</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>143</c:v>
+                  <c:v>205</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>151</c:v>
+                  <c:v>156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>205</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156</c:v>
+                  <c:v>314</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>316</c:v>
+                  <c:v>367</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>314</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>367</c:v>
+                  <c:v>426</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>375</c:v>
+                  <c:v>430</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>426</c:v>
+                  <c:v>680</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>430</c:v>
+                  <c:v>952</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>680</c:v>
+                  <c:v>684</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>952</c:v>
+                  <c:v>838</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>684</c:v>
+                  <c:v>1001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>838</c:v>
+                  <c:v>596</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1001</c:v>
+                  <c:v>641</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>596</c:v>
+                  <c:v>741</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>641</c:v>
+                  <c:v>597</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>741</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>597</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>508</c:v>
+                  <c:v>416</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>485</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>416</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>242</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4138,25 +4387,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195506560"/>
-        <c:axId val="195508096"/>
+        <c:axId val="193610112"/>
+        <c:axId val="193611648"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="195506560"/>
+      <c:dateAx>
+        <c:axId val="193610112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195508096"/>
+        <c:crossAx val="193611648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="195508096"/>
+        <c:axId val="193611648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4170,7 +4419,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195506560"/>
+        <c:crossAx val="193610112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4179,7 +4428,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4225,10 +4474,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$33</c:f>
+              <c:f>Austria!$A$6:$A$40</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -4312,16 +4561,37 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$L$6:$L$33</c:f>
+              <c:f>Austria!$L$6:$L$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4405,6 +4675,27 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4412,8 +4703,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197547520"/>
-        <c:axId val="197545984"/>
+        <c:axId val="194991616"/>
+        <c:axId val="194990080"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4506,10 +4797,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$O$6:$O$33</c:f>
+              <c:f>Austria!$O$6:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -4572,6 +4863,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>9.8004994150733674E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.5566268660537584E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4579,11 +4873,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="197526272"/>
-        <c:axId val="197527808"/>
+        <c:axId val="194970368"/>
+        <c:axId val="194971904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="197526272"/>
+        <c:axId val="194970368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,13 +4895,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="197527808"/>
+        <c:crossAx val="194971904"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="197527808"/>
+        <c:axId val="194971904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4621,24 +4915,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197526272"/>
+        <c:crossAx val="194970368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="197545984"/>
+        <c:axId val="194990080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197547520"/>
+        <c:crossAx val="194991616"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="197547520"/>
+        <c:axId val="194991616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4646,7 +4940,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="197545984"/>
+        <c:crossAx val="194990080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4661,7 +4955,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4706,189 +5000,208 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>Austria!$A$4:$A$33</c:f>
-              <c:strCache>
-                <c:ptCount val="30"/>
+            <c:numRef>
+              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$M$4:$M$33</c:f>
+              <c:f>Austria!$M$6:$M$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
-                <c:pt idx="0">
+                <c:ptCount val="35"/>
+                <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="20">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="26">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="23">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="27">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="26">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>10</c:v>
-                </c:pt>
                 <c:pt idx="28">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4896,25 +5209,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="197562752"/>
-        <c:axId val="197564288"/>
+        <c:axId val="195006848"/>
+        <c:axId val="195008384"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="197562752"/>
+      <c:dateAx>
+        <c:axId val="195006848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197564288"/>
+        <c:crossAx val="195008384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="197564288"/>
+        <c:axId val="195008384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4928,7 +5241,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="197562752"/>
+        <c:crossAx val="195006848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4937,7 +5250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4983,10 +5296,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$38</c:f>
+              <c:f>UK!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -5085,16 +5398,37 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$G$6:$G$38</c:f>
+              <c:f>UK!$G$6:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -5193,6 +5527,27 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>47806</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5200,8 +5555,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="199346048"/>
-        <c:axId val="199344512"/>
+        <c:axId val="195217280"/>
+        <c:axId val="195215744"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5312,10 +5667,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$J$6:$J$38</c:f>
+              <c:f>UK!$J$6:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="33"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="5">
                   <c:v>0.30704061121415749</c:v>
                 </c:pt>
@@ -5399,6 +5754,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0.13732530826803163</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.11884557561096809</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5406,11 +5764,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="199337088"/>
-        <c:axId val="199338624"/>
+        <c:axId val="195208320"/>
+        <c:axId val="195209856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199337088"/>
+        <c:axId val="195208320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5428,13 +5786,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="199338624"/>
+        <c:crossAx val="195209856"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199338624"/>
+        <c:axId val="195209856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5448,24 +5806,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="199337088"/>
+        <c:crossAx val="195208320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="199344512"/>
+        <c:axId val="195215744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199346048"/>
+        <c:crossAx val="195217280"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="199346048"/>
+        <c:axId val="195217280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5473,7 +5831,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="199344512"/>
+        <c:crossAx val="195215744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5488,7 +5846,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -5534,219 +5892,238 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>UK!$A$4:$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="35"/>
+            <c:numRef>
+              <c:f>UK!$A$6:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04-Mar</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>05-Mar</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>06-Mar</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>07-Mar</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>08-Mar</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$D$4:$D$38</c:f>
+              <c:f>UK!$D$6:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="40"/>
+                <c:pt idx="1">
+                  <c:v>2424</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1255</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2424</c:v>
+                  <c:v>1122</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1255</c:v>
+                  <c:v>2053</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1122</c:v>
+                  <c:v>1447</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2053</c:v>
+                  <c:v>1301</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1447</c:v>
+                  <c:v>1215</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1301</c:v>
+                  <c:v>1288</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1215</c:v>
+                  <c:v>4007</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1288</c:v>
+                  <c:v>4975</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4007</c:v>
+                  <c:v>2533</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4975</c:v>
+                  <c:v>3826</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2533</c:v>
+                  <c:v>6337</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3826</c:v>
+                  <c:v>5779</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6337</c:v>
+                  <c:v>8400</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5779</c:v>
+                  <c:v>2355</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8400</c:v>
+                  <c:v>5842</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2355</c:v>
+                  <c:v>5522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5842</c:v>
+                  <c:v>5605</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5522</c:v>
+                  <c:v>6491</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5605</c:v>
+                  <c:v>6583</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>6491</c:v>
+                  <c:v>7847</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6583</c:v>
+                  <c:v>8911</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>7847</c:v>
+                  <c:v>6989</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8911</c:v>
+                  <c:v>6971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6989</c:v>
+                  <c:v>7209</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6971</c:v>
+                  <c:v>8240</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>7209</c:v>
+                  <c:v>9793</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>8240</c:v>
+                  <c:v>10215</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9793</c:v>
+                  <c:v>10590</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10215</c:v>
+                  <c:v>9406</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10590</c:v>
+                  <c:v>12334</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>9406</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12334</c:v>
+                  <c:v>13313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5754,25 +6131,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="199015808"/>
-        <c:axId val="199357952"/>
+        <c:axId val="195149184"/>
+        <c:axId val="195229184"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="199015808"/>
+      <c:dateAx>
+        <c:axId val="195149184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199357952"/>
+        <c:crossAx val="195229184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="199357952"/>
+        <c:axId val="195229184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,7 +6163,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="199015808"/>
+        <c:crossAx val="195149184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5795,7 +6172,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5840,219 +6217,238 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:strRef>
-              <c:f>UK!$A$4:$A$38</c:f>
-              <c:strCache>
-                <c:ptCount val="35"/>
+            <c:numRef>
+              <c:f>UK!$A$6:$A$45</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>Date</c:v>
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>04-Mar</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>05-Mar</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>06-Mar</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>07-Mar</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>08-Mar</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>09-Mar</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10-Mar</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11-Mar</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12-Mar</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>13-Mar</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14-Mar</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-Mar</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>16-Mar</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17-Mar</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18-Mar</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>19-Mar</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20-Mar</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21-Mar</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>22-Mar</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>23-Mar</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24-Mar</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>25-Mar</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>26-Mar</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>27-Mar</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28-Mar</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29-Mar</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>30-Mar</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>31-Mar</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>01-Apr</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>02-Apr</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>03-Apr</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>04-Apr</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>05-Apr</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$H$4:$H$38</c:f>
+              <c:f>UK!$H$6:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="40"/>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>43</c:v>
-                </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>77</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>130</c:v>
+                  <c:v>342</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>208</c:v>
+                  <c:v>251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>342</c:v>
+                  <c:v>152</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>251</c:v>
+                  <c:v>407</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>152</c:v>
+                  <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>407</c:v>
+                  <c:v>643</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>676</c:v>
+                  <c:v>714</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>643</c:v>
+                  <c:v>1035</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>714</c:v>
+                  <c:v>665</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1035</c:v>
+                  <c:v>967</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>665</c:v>
+                  <c:v>1427</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>967</c:v>
+                  <c:v>1452</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1427</c:v>
+                  <c:v>2129</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1452</c:v>
+                  <c:v>2885</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2129</c:v>
+                  <c:v>2546</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2885</c:v>
+                  <c:v>2433</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2546</c:v>
+                  <c:v>2619</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2433</c:v>
+                  <c:v>3009</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2619</c:v>
+                  <c:v>4324</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>3009</c:v>
+                  <c:v>4244</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4324</c:v>
+                  <c:v>4450</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4244</c:v>
+                  <c:v>3735</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4450</c:v>
+                  <c:v>5903</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>3735</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5903</c:v>
+                  <c:v>3802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6060,25 +6456,25 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="208474880"/>
-        <c:axId val="208476416"/>
+        <c:axId val="196412160"/>
+        <c:axId val="196413696"/>
       </c:barChart>
-      <c:catAx>
-        <c:axId val="208474880"/>
+      <c:dateAx>
+        <c:axId val="196412160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208476416"/>
+        <c:crossAx val="196413696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-      </c:catAx>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="208476416"/>
+        <c:axId val="196413696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6092,7 +6488,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208474880"/>
+        <c:crossAx val="196412160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6101,7 +6497,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6147,10 +6543,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$11:$A$38</c:f>
+              <c:f>UK!$A$11:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -6234,16 +6630,37 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$L$11:$L$38</c:f>
+              <c:f>UK!$L$11:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -6327,6 +6744,27 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>4932</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5373</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6334,8 +6772,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="208410880"/>
-        <c:axId val="208409344"/>
+        <c:axId val="196356352"/>
+        <c:axId val="196354816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6428,10 +6866,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$O$11:$O$38</c:f>
+              <c:f>UK!$O$11:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="28"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -6515,6 +6953,9 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>0.22614051792628054</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.18108353955480522</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6522,11 +6963,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="208524800"/>
-        <c:axId val="208526336"/>
+        <c:axId val="196429312"/>
+        <c:axId val="196430848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="208524800"/>
+        <c:axId val="196429312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6544,13 +6985,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="208526336"/>
+        <c:crossAx val="196430848"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="208526336"/>
+        <c:axId val="196430848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6564,24 +7005,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="208524800"/>
+        <c:crossAx val="196429312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="208409344"/>
+        <c:axId val="196354816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208410880"/>
+        <c:crossAx val="196356352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="208410880"/>
+        <c:axId val="196356352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6589,7 +7030,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="208409344"/>
+        <c:crossAx val="196354816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6604,7 +7045,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000003" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000003" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6646,13 +7087,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6676,13 +7117,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6736,13 +7177,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -6764,16 +7205,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>445770</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>70485</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>179070</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6782,8 +7223,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2626995" y="6728460"/>
-          <a:ext cx="4591050" cy="1615440"/>
+          <a:off x="76200" y="8928734"/>
+          <a:ext cx="1762125" cy="4444366"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7675,8 +8116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8277,6 +8718,15 @@
       <c r="B36" s="21">
         <v>43927</v>
       </c>
+      <c r="C36" s="2">
+        <v>208837</v>
+      </c>
+      <c r="D36" s="2">
+        <v>51608</v>
+      </c>
+      <c r="E36" s="2">
+        <v>5373</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
@@ -8843,6 +9293,18 @@
       <c r="B72" s="21">
         <v>43927</v>
       </c>
+      <c r="C72" s="2">
+        <v>111296</v>
+      </c>
+      <c r="D72" s="2">
+        <v>12206</v>
+      </c>
+      <c r="E72" s="2">
+        <v>220</v>
+      </c>
+      <c r="F72" s="2">
+        <v>3463</v>
+      </c>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" t="s">
@@ -9583,6 +10045,15 @@
       <c r="B120" s="21">
         <v>43926</v>
       </c>
+      <c r="C120" s="2">
+        <v>691461</v>
+      </c>
+      <c r="D120" s="2">
+        <v>128948</v>
+      </c>
+      <c r="E120" s="2">
+        <v>15887</v>
+      </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" t="s">
@@ -9590,6 +10061,15 @@
       </c>
       <c r="B121" s="21">
         <v>43927</v>
+      </c>
+      <c r="C121" s="2">
+        <v>721732</v>
+      </c>
+      <c r="D121" s="2">
+        <v>132547</v>
+      </c>
+      <c r="E121" s="2">
+        <v>16523</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -9638,10 +10118,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N39" sqref="N39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AE39" sqref="AE39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11115,8 +11595,174 @@
       </c>
     </row>
     <row r="34" spans="1:15">
+      <c r="A34" s="8">
+        <v>43927</v>
+      </c>
+      <c r="B34" s="13">
+        <v>21</v>
+      </c>
+      <c r="C34" s="2">
+        <f>Data!C72</f>
+        <v>111296</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" ref="D34" si="79">C34-C33</f>
+        <v>2880</v>
+      </c>
+      <c r="E34" s="11">
+        <f t="shared" ref="E34" si="80">H34/D34</f>
+        <v>0.10381944444444445</v>
+      </c>
+      <c r="G34" s="2">
+        <f>Data!D72</f>
+        <v>12206</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" ref="H34" si="81">G34-G33</f>
+        <v>299</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ref="I34" si="82">G34/G33-1</f>
+        <v>2.5111279079533144E-2</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" ref="J34" si="83">SUM(I30:I34)/5</f>
+        <v>3.0966531794513009E-2</v>
+      </c>
       <c r="L34">
         <f>Data!E72</f>
+        <v>220</v>
+      </c>
+      <c r="M34">
+        <f t="shared" ref="M34" si="84">L34-L33</f>
+        <v>16</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" ref="N34" si="85">L34/L33-1</f>
+        <v>7.8431372549019551E-2</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" ref="O34" si="86">SUM(N30:N34)/5</f>
+        <v>8.5566268660537584E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B35" s="13">
+        <v>22</v>
+      </c>
+      <c r="C35" s="2">
+        <f>Data!C73</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <f>Data!D73</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f>Data!E73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B36" s="13">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2">
+        <f>Data!C74</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <f>Data!D74</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f>Data!E74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B37" s="13">
+        <v>24</v>
+      </c>
+      <c r="C37" s="2">
+        <f>Data!C75</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <f>Data!D75</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f>Data!E75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B38" s="13">
+        <v>25</v>
+      </c>
+      <c r="C38" s="2">
+        <f>Data!C76</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <f>Data!D76</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f>Data!E76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="8">
+        <v>43932</v>
+      </c>
+      <c r="B39" s="13">
+        <v>26</v>
+      </c>
+      <c r="C39" s="2">
+        <f>Data!C77</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <f>Data!D77</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f>Data!E77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="8">
+        <v>43933</v>
+      </c>
+      <c r="B40" s="13">
+        <v>27</v>
+      </c>
+      <c r="C40" s="2">
+        <f>Data!C78</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <f>Data!D78</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f>Data!E78</f>
         <v>0</v>
       </c>
     </row>
@@ -11139,10 +11785,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12229,7 +12875,7 @@
         <v>43915</v>
       </c>
       <c r="B27" s="13">
-        <f t="shared" ref="B27:B38" si="16">B26+1</f>
+        <f t="shared" ref="B27:B45" si="16">B26+1</f>
         <v>2</v>
       </c>
       <c r="C27" s="2">
@@ -12858,6 +13504,185 @@
       <c r="O38" s="16">
         <f t="shared" ref="O38" si="80">SUM(N34:N38)/5</f>
         <v>0.22614051792628054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="8">
+        <v>43927</v>
+      </c>
+      <c r="B39" s="13">
+        <f t="shared" si="16"/>
+        <v>14</v>
+      </c>
+      <c r="C39" s="2">
+        <f>Data!C36</f>
+        <v>208837</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39" si="81">C39-C38</f>
+        <v>13313</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" ref="E39" si="82">H39/D39</f>
+        <v>0.28558551791482012</v>
+      </c>
+      <c r="G39" s="2">
+        <f>Data!D36</f>
+        <v>51608</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ref="H39" si="83">G39-G38</f>
+        <v>3802</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ref="I39" si="84">G39/G38-1</f>
+        <v>7.9529766138141555E-2</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" ref="J39" si="85">SUM(I35:I39)/5</f>
+        <v>0.11884557561096809</v>
+      </c>
+      <c r="L39" s="2">
+        <f>Data!E36</f>
+        <v>5373</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39" si="86">L39-L38</f>
+        <v>441</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" ref="N39" si="87">L39/L38-1</f>
+        <v>8.9416058394160558E-2</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" ref="O39" si="88">SUM(N35:N39)/5</f>
+        <v>0.18108353955480522</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B40" s="13">
+        <f t="shared" si="16"/>
+        <v>15</v>
+      </c>
+      <c r="C40" s="2">
+        <f>Data!C37</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <f>Data!D37</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="2">
+        <f>Data!E37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B41" s="13">
+        <f t="shared" si="16"/>
+        <v>16</v>
+      </c>
+      <c r="C41" s="2">
+        <f>Data!C38</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <f>Data!D38</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="2">
+        <f>Data!E38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B42" s="13">
+        <f t="shared" si="16"/>
+        <v>17</v>
+      </c>
+      <c r="C42" s="2">
+        <f>Data!C39</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <f>Data!D39</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="2">
+        <f>Data!E39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B43" s="13">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="C43" s="2">
+        <f>Data!C40</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <f>Data!D40</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="2">
+        <f>Data!E40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="8">
+        <v>43932</v>
+      </c>
+      <c r="B44" s="13">
+        <f t="shared" si="16"/>
+        <v>19</v>
+      </c>
+      <c r="C44" s="2">
+        <f>Data!C41</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <f>Data!D41</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="2">
+        <f>Data!E41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="8">
+        <v>43933</v>
+      </c>
+      <c r="B45" s="13">
+        <f t="shared" si="16"/>
+        <v>20</v>
+      </c>
+      <c r="C45" s="2">
+        <f>Data!C42</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <f>Data!D42</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="2">
+        <f>Data!E42</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -12879,10 +13704,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P47"/>
+  <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M52" sqref="M52"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15048,24 +15873,190 @@
       </c>
       <c r="C47" s="2">
         <f>Data!C120</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="11"/>
+        <v>691461</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47" si="60">C47-C46</f>
+        <v>34237</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" ref="E47" si="61">H47/D47</f>
+        <v>0.12606244706019804</v>
+      </c>
       <c r="G47" s="2">
         <f>Data!D120</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="16"/>
+        <v>128948</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47" si="62">G47-G46</f>
+        <v>4316</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ref="I47" si="63">G47/G46-1</f>
+        <v>3.4629950574491364E-2</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" ref="J47" si="64">SUM(I43:I47)/5</f>
+        <v>4.0031581457955892E-2</v>
+      </c>
       <c r="K47"/>
       <c r="L47" s="2">
         <f>Data!E120</f>
+        <v>15887</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47" si="65">L47-L46</f>
+        <v>525</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ref="N47" si="66">L47/L46-1</f>
+        <v>3.4175237599270991E-2</v>
+      </c>
+      <c r="O47" s="16">
+        <f t="shared" ref="O47" si="67">SUM(N43:N47)/5</f>
+        <v>5.0375976944255239E-2</v>
+      </c>
+      <c r="P47"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="8">
+        <v>43927</v>
+      </c>
+      <c r="B48" s="13">
+        <v>27</v>
+      </c>
+      <c r="C48" s="2">
+        <f>Data!C121</f>
+        <v>721732</v>
+      </c>
+      <c r="G48" s="2">
+        <f>Data!D121</f>
+        <v>132547</v>
+      </c>
+      <c r="L48" s="2">
+        <f>Data!E121</f>
+        <v>16523</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" s="8">
+        <v>43928</v>
+      </c>
+      <c r="B49" s="13">
+        <v>27</v>
+      </c>
+      <c r="C49" s="2">
+        <f>Data!C122</f>
         <v>0</v>
       </c>
-      <c r="M47"/>
-      <c r="N47"/>
-      <c r="O47" s="19"/>
-      <c r="P47"/>
+      <c r="G49" s="2">
+        <f>Data!D122</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="2">
+        <f>Data!E122</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" s="8">
+        <v>43929</v>
+      </c>
+      <c r="B50" s="13">
+        <v>27</v>
+      </c>
+      <c r="C50" s="2">
+        <f>Data!C123</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <f>Data!D123</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="2">
+        <f>Data!E123</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="A51" s="8">
+        <v>43930</v>
+      </c>
+      <c r="B51" s="13">
+        <v>27</v>
+      </c>
+      <c r="C51" s="2">
+        <f>Data!C124</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <f>Data!D124</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="2">
+        <f>Data!E124</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="8">
+        <v>43931</v>
+      </c>
+      <c r="B52" s="13">
+        <v>27</v>
+      </c>
+      <c r="C52" s="2">
+        <f>Data!C125</f>
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <f>Data!D125</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="2">
+        <f>Data!E125</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" s="8">
+        <v>43932</v>
+      </c>
+      <c r="B53" s="13">
+        <v>27</v>
+      </c>
+      <c r="C53" s="2">
+        <f>Data!C126</f>
+        <v>0</v>
+      </c>
+      <c r="G53" s="2">
+        <f>Data!D126</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="2">
+        <f>Data!E126</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" s="8">
+        <v>43933</v>
+      </c>
+      <c r="B54" s="13">
+        <v>27</v>
+      </c>
+      <c r="C54" s="2">
+        <f>Data!C127</f>
+        <v>0</v>
+      </c>
+      <c r="G54" s="2">
+        <f>Data!D127</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="2">
+        <f>Data!E127</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -706,7 +706,7 @@
                   <c:v>12206</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>12519</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -729,8 +729,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="191848832"/>
-        <c:axId val="191842944"/>
+        <c:axId val="174152704"/>
+        <c:axId val="174151168"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -899,17 +899,20 @@
                 <c:pt idx="28">
                   <c:v>3.0966531794513009E-2</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.6841197892677783E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="191556992"/>
-        <c:axId val="191841408"/>
+        <c:axId val="174135552"/>
+        <c:axId val="174149632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="191556992"/>
+        <c:axId val="174135552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,15 +930,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="191841408"/>
+        <c:crossAx val="174149632"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="191841408"/>
+        <c:axId val="174149632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -947,24 +951,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="191556992"/>
+        <c:crossAx val="174135552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="191842944"/>
+        <c:axId val="174151168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191848832"/>
+        <c:crossAx val="174152704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="191848832"/>
+        <c:axId val="174152704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -972,7 +976,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="191842944"/>
+        <c:crossAx val="174151168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -987,7 +991,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1269,17 +1273,20 @@
                 <c:pt idx="33">
                   <c:v>441</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>786</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196371200"/>
-        <c:axId val="196372736"/>
+        <c:axId val="179854720"/>
+        <c:axId val="179876992"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="196371200"/>
+        <c:axId val="179854720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,13 +1294,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196372736"/>
+        <c:crossAx val="179876992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="196372736"/>
+        <c:axId val="179876992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1314,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196371200"/>
+        <c:crossAx val="179854720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1316,7 +1323,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1652,7 +1659,7 @@
                   <c:v>132547</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>135586</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -1675,8 +1682,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196512384"/>
-        <c:axId val="196510848"/>
+        <c:axId val="180347264"/>
+        <c:axId val="180333184"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1929,17 +1936,23 @@
                 <c:pt idx="41">
                   <c:v>4.0031581457955892E-2</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.6928363464487468E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.3070692206865225E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="196507520"/>
-        <c:axId val="196509056"/>
+        <c:axId val="180329856"/>
+        <c:axId val="180331648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196507520"/>
+        <c:axId val="180329856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1947,13 +1960,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196509056"/>
+        <c:crossAx val="180331648"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196509056"/>
+        <c:axId val="180331648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,24 +1980,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196507520"/>
+        <c:crossAx val="180329856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196510848"/>
+        <c:axId val="180333184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196512384"/>
+        <c:crossAx val="180347264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196512384"/>
+        <c:axId val="180347264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1992,7 +2005,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="196510848"/>
+        <c:crossAx val="180333184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2007,7 +2020,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2340,17 +2353,23 @@
                 <c:pt idx="41">
                   <c:v>34237</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>30271</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33713</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196528768"/>
-        <c:axId val="198193536"/>
+        <c:axId val="180428800"/>
+        <c:axId val="180430336"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="196528768"/>
+        <c:axId val="180428800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2358,13 +2377,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198193536"/>
+        <c:crossAx val="180430336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="198193536"/>
+        <c:axId val="180430336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2378,7 +2397,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196528768"/>
+        <c:crossAx val="180428800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2387,7 +2406,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2716,17 +2735,23 @@
                 <c:pt idx="41">
                   <c:v>4316</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3039</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198221824"/>
-        <c:axId val="198223360"/>
+        <c:axId val="180458240"/>
+        <c:axId val="180459776"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="198221824"/>
+        <c:axId val="180458240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,13 +2759,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198223360"/>
+        <c:crossAx val="180459776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="198223360"/>
+        <c:axId val="180459776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2754,7 +2779,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198221824"/>
+        <c:crossAx val="180458240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2763,7 +2788,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3099,7 +3124,7 @@
                   <c:v>16523</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>17127</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>0</c:v>
@@ -3122,8 +3147,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198333952"/>
-        <c:axId val="198332416"/>
+        <c:axId val="180581504"/>
+        <c:axId val="180563328"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3376,17 +3401,23 @@
                 <c:pt idx="41">
                   <c:v>5.0375976944255239E-2</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.6683134699393003E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.243961370118203E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="198329088"/>
-        <c:axId val="198330624"/>
+        <c:axId val="180560256"/>
+        <c:axId val="180561792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="198329088"/>
+        <c:axId val="180560256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,13 +3425,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198330624"/>
+        <c:crossAx val="180561792"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198330624"/>
+        <c:axId val="180561792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3414,24 +3445,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198329088"/>
+        <c:crossAx val="180560256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198332416"/>
+        <c:axId val="180563328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198333952"/>
+        <c:crossAx val="180581504"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="198333952"/>
+        <c:axId val="180581504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3439,7 +3470,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="198332416"/>
+        <c:crossAx val="180563328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3454,7 +3485,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3786,17 +3817,23 @@
                 <c:pt idx="41">
                   <c:v>525</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>604</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="198358528"/>
-        <c:axId val="198360064"/>
+        <c:axId val="180601600"/>
+        <c:axId val="180603136"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="198358528"/>
+        <c:axId val="180601600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3804,13 +3841,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198360064"/>
+        <c:crossAx val="180603136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="198360064"/>
+        <c:axId val="180603136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,7 +3861,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="198358528"/>
+        <c:crossAx val="180601600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3833,7 +3870,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4081,17 +4118,20 @@
                 <c:pt idx="28">
                   <c:v>2880</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>3939</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="191856000"/>
-        <c:axId val="191865984"/>
+        <c:axId val="174188416"/>
+        <c:axId val="174189952"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="191856000"/>
+        <c:axId val="174188416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4099,13 +4139,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="191865984"/>
+        <c:crossAx val="174189952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="191865984"/>
+        <c:axId val="174189952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -4121,7 +4161,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="191856000"/>
+        <c:crossAx val="174188416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4130,7 +4170,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4381,17 +4421,20 @@
                 <c:pt idx="28">
                   <c:v>299</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>313</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="193610112"/>
-        <c:axId val="193611648"/>
+        <c:axId val="175651456"/>
+        <c:axId val="175657344"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="193610112"/>
+        <c:axId val="175651456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,13 +4442,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193611648"/>
+        <c:crossAx val="175657344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="193611648"/>
+        <c:axId val="175657344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4419,7 +4462,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="193610112"/>
+        <c:crossAx val="175651456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4428,7 +4471,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4680,7 +4723,7 @@
                   <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -4703,8 +4746,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="194991616"/>
-        <c:axId val="194990080"/>
+        <c:axId val="176247168"/>
+        <c:axId val="176233088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4867,17 +4910,20 @@
                 <c:pt idx="28">
                   <c:v>8.5566268660537584E-2</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.0037003405244898E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="194970368"/>
-        <c:axId val="194971904"/>
+        <c:axId val="175697280"/>
+        <c:axId val="176231552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194970368"/>
+        <c:axId val="175697280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4895,15 +4941,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194971904"/>
+        <c:crossAx val="176231552"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194971904"/>
+        <c:axId val="176231552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -4915,24 +4962,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="194970368"/>
+        <c:crossAx val="175697280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194990080"/>
+        <c:axId val="176233088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194991616"/>
+        <c:crossAx val="176247168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="194991616"/>
+        <c:axId val="176247168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4940,7 +4987,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="194990080"/>
+        <c:crossAx val="176233088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4955,7 +5002,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5203,17 +5250,20 @@
                 <c:pt idx="28">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>23</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195006848"/>
-        <c:axId val="195008384"/>
+        <c:axId val="176265856"/>
+        <c:axId val="176279936"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="195006848"/>
+        <c:axId val="176265856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5221,13 +5271,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195008384"/>
+        <c:crossAx val="176279936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="195008384"/>
+        <c:axId val="176279936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5241,7 +5291,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195006848"/>
+        <c:crossAx val="176265856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5250,7 +5300,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5532,7 +5582,7 @@
                   <c:v>51608</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>55242</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>0</c:v>
@@ -5555,8 +5605,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195217280"/>
-        <c:axId val="195215744"/>
+        <c:axId val="179761920"/>
+        <c:axId val="179751936"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5758,17 +5808,20 @@
                 <c:pt idx="33">
                   <c:v>0.11884557561096809</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.10413040062856305</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="195208320"/>
-        <c:axId val="195209856"/>
+        <c:axId val="179748864"/>
+        <c:axId val="179750400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="195208320"/>
+        <c:axId val="179748864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,13 +5839,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195209856"/>
+        <c:crossAx val="179750400"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="195209856"/>
+        <c:axId val="179750400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5806,24 +5859,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195208320"/>
+        <c:crossAx val="179748864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195215744"/>
+        <c:axId val="179751936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195217280"/>
+        <c:crossAx val="179761920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="195217280"/>
+        <c:axId val="179761920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,7 +5884,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="195215744"/>
+        <c:crossAx val="179751936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5846,7 +5899,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6125,17 +6178,20 @@
                 <c:pt idx="33">
                   <c:v>13313</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>4344</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="195149184"/>
-        <c:axId val="195229184"/>
+        <c:axId val="179898624"/>
+        <c:axId val="179938048"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="195149184"/>
+        <c:axId val="179898624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6143,13 +6199,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="195229184"/>
+        <c:crossAx val="179938048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="195229184"/>
+        <c:axId val="179938048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,7 +6219,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="195149184"/>
+        <c:crossAx val="179898624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6172,7 +6228,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6450,17 +6506,20 @@
                 <c:pt idx="33">
                   <c:v>3802</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>3634</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196412160"/>
-        <c:axId val="196413696"/>
+        <c:axId val="179948928"/>
+        <c:axId val="179979392"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="196412160"/>
+        <c:axId val="179948928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6468,13 +6527,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196413696"/>
+        <c:crossAx val="179979392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="196413696"/>
+        <c:axId val="179979392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6488,7 +6547,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196412160"/>
+        <c:crossAx val="179948928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6497,7 +6556,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6749,7 +6808,7 @@
                   <c:v>5373</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>6159</c:v>
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>0</c:v>
@@ -6772,8 +6831,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="196356352"/>
-        <c:axId val="196354816"/>
+        <c:axId val="179848320"/>
+        <c:axId val="179846528"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6957,17 +7016,20 @@
                 <c:pt idx="28">
                   <c:v>0.18108353955480522</c:v>
                 </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.16195658391492782</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="196429312"/>
-        <c:axId val="196430848"/>
+        <c:axId val="179843456"/>
+        <c:axId val="179844992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="196429312"/>
+        <c:axId val="179843456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6985,13 +7047,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196430848"/>
+        <c:crossAx val="179844992"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196430848"/>
+        <c:axId val="179844992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7005,24 +7067,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="196429312"/>
+        <c:crossAx val="179843456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196354816"/>
+        <c:axId val="179846528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="196356352"/>
+        <c:crossAx val="179848320"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="196356352"/>
+        <c:axId val="179848320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7030,7 +7092,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="196354816"/>
+        <c:crossAx val="179846528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7045,7 +7107,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7291,12 +7353,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.27961</cdr:x>
-      <cdr:y>0.69972</cdr:y>
+      <cdr:x>0.2322</cdr:x>
+      <cdr:y>0.65323</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.29591</cdr:x>
-      <cdr:y>0.86409</cdr:y>
+      <cdr:x>0.2485</cdr:x>
+      <cdr:y>0.8176</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7305,8 +7367,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2134927" y="2580614"/>
-          <a:ext cx="124454" cy="606209"/>
+          <a:off x="1772939" y="2409173"/>
+          <a:ext cx="124455" cy="606210"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7508,12 +7570,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.42739</cdr:x>
-      <cdr:y>0.69345</cdr:y>
+      <cdr:x>0.36002</cdr:x>
+      <cdr:y>0.72629</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.44735</cdr:x>
-      <cdr:y>0.82033</cdr:y>
+      <cdr:x>0.37998</cdr:x>
+      <cdr:y>0.85317</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7522,7 +7584,7 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="3263202" y="3218013"/>
+          <a:off x="2748875" y="3370410"/>
           <a:ext cx="152400" cy="588797"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
@@ -7771,12 +7833,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.34324</cdr:x>
-      <cdr:y>0.73376</cdr:y>
+      <cdr:x>0.30082</cdr:x>
+      <cdr:y>0.74125</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.35954</cdr:x>
-      <cdr:y>0.89813</cdr:y>
+      <cdr:x>0.31712</cdr:x>
+      <cdr:y>0.90562</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7785,8 +7847,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2620699" y="4663096"/>
-          <a:ext cx="124455" cy="1044584"/>
+          <a:off x="2296870" y="4710729"/>
+          <a:ext cx="124454" cy="1044584"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8116,8 +8178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E123" sqref="E123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8735,6 +8797,15 @@
       <c r="B37" s="21">
         <v>43928</v>
       </c>
+      <c r="C37" s="2">
+        <v>213181</v>
+      </c>
+      <c r="D37" s="2">
+        <v>55242</v>
+      </c>
+      <c r="E37" s="2">
+        <v>6159</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
@@ -9313,6 +9384,18 @@
       <c r="B73" s="21">
         <v>43928</v>
       </c>
+      <c r="C73" s="2">
+        <v>115235</v>
+      </c>
+      <c r="D73" s="2">
+        <v>12519</v>
+      </c>
+      <c r="E73" s="2">
+        <v>243</v>
+      </c>
+      <c r="F73" s="2">
+        <v>4046</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -10078,6 +10161,15 @@
       </c>
       <c r="B122" s="21">
         <v>43928</v>
+      </c>
+      <c r="C122" s="2">
+        <v>755445</v>
+      </c>
+      <c r="D122" s="2">
+        <v>135586</v>
+      </c>
+      <c r="E122" s="2">
+        <v>17127</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -10121,7 +10213,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE39" sqref="AE39"/>
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11655,15 +11747,47 @@
       </c>
       <c r="C35" s="2">
         <f>Data!C73</f>
-        <v>0</v>
+        <v>115235</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" ref="D35" si="87">C35-C34</f>
+        <v>3939</v>
+      </c>
+      <c r="E35" s="11">
+        <f t="shared" ref="E35" si="88">H35/D35</f>
+        <v>7.9461792333079456E-2</v>
       </c>
       <c r="G35" s="2">
         <f>Data!D73</f>
-        <v>0</v>
+        <v>12519</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" ref="H35" si="89">G35-G34</f>
+        <v>313</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" ref="I35" si="90">G35/G34-1</f>
+        <v>2.5643126331312383E-2</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" ref="J35" si="91">SUM(I31:I35)/5</f>
+        <v>2.6841197892677783E-2</v>
       </c>
       <c r="L35">
         <f>Data!E73</f>
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="M35">
+        <f t="shared" ref="M35" si="92">L35-L34</f>
+        <v>23</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" ref="N35" si="93">L35/L34-1</f>
+        <v>0.1045454545454545</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" ref="O35" si="94">SUM(N31:N35)/5</f>
+        <v>9.0037003405244898E-2</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -11788,7 +11912,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O43" sqref="O43"/>
+      <selection activeCell="M39" sqref="M39:O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13569,15 +13693,47 @@
       </c>
       <c r="C40" s="2">
         <f>Data!C37</f>
-        <v>0</v>
+        <v>213181</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="89">C40-C39</f>
+        <v>4344</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" ref="E40" si="90">H40/D40</f>
+        <v>0.83655616942909761</v>
       </c>
       <c r="G40" s="2">
         <f>Data!D37</f>
-        <v>0</v>
+        <v>55242</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40" si="91">G40-G39</f>
+        <v>3634</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ref="I40" si="92">G40/G39-1</f>
+        <v>7.041543946674933E-2</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" ref="J40" si="93">SUM(I36:I40)/5</f>
+        <v>0.10413040062856305</v>
       </c>
       <c r="L40" s="2">
         <f>Data!E37</f>
-        <v>0</v>
+        <v>6159</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40" si="94">L40-L39</f>
+        <v>786</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" ref="N40" si="95">L40/L39-1</f>
+        <v>0.14628699050809613</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" ref="O40" si="96">SUM(N36:N40)/5</f>
+        <v>0.16195658391492782</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -13706,8 +13862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15929,16 +16085,48 @@
         <f>Data!C121</f>
         <v>721732</v>
       </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48:D49" si="68">C48-C47</f>
+        <v>30271</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" ref="E48:E49" si="69">H48/D48</f>
+        <v>0.11889266955171617</v>
+      </c>
       <c r="G48" s="2">
         <f>Data!D121</f>
         <v>132547</v>
       </c>
+      <c r="H48" s="3">
+        <f t="shared" ref="H48:H49" si="70">G48-G47</f>
+        <v>3599</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" ref="I48:I49" si="71">G48/G47-1</f>
+        <v>2.7910475540527946E-2</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" ref="J48:J49" si="72">SUM(I44:I48)/5</f>
+        <v>3.6928363464487468E-2</v>
+      </c>
       <c r="L48" s="2">
         <f>Data!E121</f>
         <v>16523</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48">
+        <f t="shared" ref="M48:M49" si="73">L48-L47</f>
+        <v>636</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" ref="N48:N49" si="74">L48/L47-1</f>
+        <v>4.0032731163844648E-2</v>
+      </c>
+      <c r="O48" s="16">
+        <f t="shared" ref="O48:O49" si="75">SUM(N44:N48)/5</f>
+        <v>4.6683134699393003E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="8">
         <v>43928</v>
       </c>
@@ -15947,18 +16135,50 @@
       </c>
       <c r="C49" s="2">
         <f>Data!C122</f>
-        <v>0</v>
+        <v>755445</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="68"/>
+        <v>33713</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="69"/>
+        <v>9.0143268175481267E-2</v>
       </c>
       <c r="G49" s="2">
         <f>Data!D122</f>
-        <v>0</v>
+        <v>135586</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="70"/>
+        <v>3039</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="71"/>
+        <v>2.2927716206326831E-2</v>
+      </c>
+      <c r="J49" s="16">
+        <f t="shared" si="72"/>
+        <v>3.3070692206865225E-2</v>
       </c>
       <c r="L49" s="2">
         <f>Data!E122</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12">
+        <v>17127</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="73"/>
+        <v>604</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="74"/>
+        <v>3.6555105005144251E-2</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" si="75"/>
+        <v>4.243961370118203E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="8">
         <v>43929</v>
       </c>
@@ -15978,7 +16198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:15">
       <c r="A51" s="8">
         <v>43930</v>
       </c>
@@ -15998,7 +16218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:15">
       <c r="A52" s="8">
         <v>43931</v>
       </c>
@@ -16018,7 +16238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:15">
       <c r="A53" s="8">
         <v>43932</v>
       </c>
@@ -16038,7 +16258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:15">
       <c r="A54" s="8">
         <v>43933</v>
       </c>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -709,7 +709,7 @@
                   <c:v>12519</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>12852</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -729,8 +729,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="174152704"/>
-        <c:axId val="174151168"/>
+        <c:axId val="177691648"/>
+        <c:axId val="177690112"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -902,17 +902,20 @@
                 <c:pt idx="29">
                   <c:v>2.6841197892677783E-2</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4574716073519243E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="174135552"/>
-        <c:axId val="174149632"/>
+        <c:axId val="177670400"/>
+        <c:axId val="177688576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="174135552"/>
+        <c:axId val="177670400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,13 +933,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="174149632"/>
+        <c:crossAx val="177688576"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="174149632"/>
+        <c:axId val="177688576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -951,24 +954,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="174135552"/>
+        <c:crossAx val="177670400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="174151168"/>
+        <c:axId val="177690112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174152704"/>
+        <c:crossAx val="177691648"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="174152704"/>
+        <c:axId val="177691648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -976,7 +979,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="174151168"/>
+        <c:crossAx val="177690112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -991,7 +994,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1276,17 +1279,20 @@
                 <c:pt idx="34">
                   <c:v>786</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>938</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179854720"/>
-        <c:axId val="179876992"/>
+        <c:axId val="179723648"/>
+        <c:axId val="179741824"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179854720"/>
+        <c:axId val="179723648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1294,13 +1300,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179876992"/>
+        <c:crossAx val="179741824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179876992"/>
+        <c:axId val="179741824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1320,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179854720"/>
+        <c:crossAx val="179723648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1323,7 +1329,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1662,7 +1668,7 @@
                   <c:v>135586</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>139422</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -1682,8 +1688,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180347264"/>
-        <c:axId val="180333184"/>
+        <c:axId val="179954048"/>
+        <c:axId val="179939968"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1942,17 +1948,20 @@
                 <c:pt idx="43">
                   <c:v>3.3070692206865225E-2</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.0771925123267339E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180329856"/>
-        <c:axId val="180331648"/>
+        <c:axId val="179936640"/>
+        <c:axId val="179938432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180329856"/>
+        <c:axId val="179936640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,13 +1969,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180331648"/>
+        <c:crossAx val="179938432"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180331648"/>
+        <c:axId val="179938432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,24 +1989,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180329856"/>
+        <c:crossAx val="179936640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180333184"/>
+        <c:axId val="179939968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180347264"/>
+        <c:crossAx val="179954048"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180347264"/>
+        <c:axId val="179954048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2005,7 +2014,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180333184"/>
+        <c:crossAx val="179939968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2020,7 +2029,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2359,17 +2368,20 @@
                 <c:pt idx="43">
                   <c:v>33713</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>51680</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180428800"/>
-        <c:axId val="180430336"/>
+        <c:axId val="180039680"/>
+        <c:axId val="180041216"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180428800"/>
+        <c:axId val="180039680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2377,13 +2389,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180430336"/>
+        <c:crossAx val="180041216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180430336"/>
+        <c:axId val="180041216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2397,7 +2409,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180428800"/>
+        <c:crossAx val="180039680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2406,7 +2418,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2741,17 +2753,20 @@
                 <c:pt idx="43">
                   <c:v>3039</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>3836</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180458240"/>
-        <c:axId val="180459776"/>
+        <c:axId val="180065024"/>
+        <c:axId val="180066560"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180458240"/>
+        <c:axId val="180065024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,13 +2774,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180459776"/>
+        <c:crossAx val="180066560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180459776"/>
+        <c:axId val="180066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2794,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180458240"/>
+        <c:crossAx val="180065024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2788,7 +2803,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3127,7 +3142,7 @@
                   <c:v>17127</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>17669</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>0</c:v>
@@ -3147,8 +3162,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180581504"/>
-        <c:axId val="180563328"/>
+        <c:axId val="190940288"/>
+        <c:axId val="190930304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3407,17 +3422,20 @@
                 <c:pt idx="43">
                   <c:v>4.243961370118203E-2</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.7759099772570123E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180560256"/>
-        <c:axId val="180561792"/>
+        <c:axId val="190927232"/>
+        <c:axId val="190928768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180560256"/>
+        <c:axId val="190927232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3425,15 +3443,16 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180561792"/>
+        <c:crossAx val="190928768"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180561792"/>
+        <c:axId val="190928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -3445,24 +3464,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180560256"/>
+        <c:crossAx val="190927232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180563328"/>
+        <c:axId val="190930304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180581504"/>
+        <c:crossAx val="190940288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180581504"/>
+        <c:axId val="190940288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3470,7 +3489,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180563328"/>
+        <c:crossAx val="190930304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3485,7 +3504,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3823,17 +3842,20 @@
                 <c:pt idx="43">
                   <c:v>604</c:v>
                 </c:pt>
+                <c:pt idx="44">
+                  <c:v>542</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180601600"/>
-        <c:axId val="180603136"/>
+        <c:axId val="190964480"/>
+        <c:axId val="190966016"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180601600"/>
+        <c:axId val="190964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,13 +3863,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180603136"/>
+        <c:crossAx val="190966016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180603136"/>
+        <c:axId val="190966016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3861,7 +3883,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180601600"/>
+        <c:crossAx val="190964480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3870,7 +3892,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4121,17 +4143,20 @@
                 <c:pt idx="29">
                   <c:v>3939</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>5520</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="174188416"/>
-        <c:axId val="174189952"/>
+        <c:axId val="176465792"/>
+        <c:axId val="176467328"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="174188416"/>
+        <c:axId val="176465792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4139,13 +4164,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="174189952"/>
+        <c:crossAx val="176467328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="174189952"/>
+        <c:axId val="176467328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -4161,7 +4186,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="174188416"/>
+        <c:crossAx val="176465792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4170,7 +4195,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000289" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000289" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4424,17 +4449,20 @@
                 <c:pt idx="29">
                   <c:v>313</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175651456"/>
-        <c:axId val="175657344"/>
+        <c:axId val="177998464"/>
+        <c:axId val="178008448"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="175651456"/>
+        <c:axId val="177998464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4442,13 +4470,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175657344"/>
+        <c:crossAx val="178008448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175657344"/>
+        <c:axId val="178008448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4462,7 +4490,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175651456"/>
+        <c:crossAx val="177998464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4471,7 +4499,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4726,7 +4754,7 @@
                   <c:v>243</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -4746,8 +4774,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176247168"/>
-        <c:axId val="176233088"/>
+        <c:axId val="179122560"/>
+        <c:axId val="179112576"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4913,17 +4941,20 @@
                 <c:pt idx="29">
                   <c:v>9.0037003405244898E-2</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10207013358183503</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="175697280"/>
-        <c:axId val="176231552"/>
+        <c:axId val="178052480"/>
+        <c:axId val="179111040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175697280"/>
+        <c:axId val="178052480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4941,13 +4972,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176231552"/>
+        <c:crossAx val="179111040"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176231552"/>
+        <c:axId val="179111040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4962,24 +4993,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175697280"/>
+        <c:crossAx val="178052480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176233088"/>
+        <c:axId val="179112576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176247168"/>
+        <c:crossAx val="179122560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="176247168"/>
+        <c:axId val="179122560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4987,7 +5018,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="176233088"/>
+        <c:crossAx val="179112576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5002,7 +5033,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5253,17 +5284,20 @@
                 <c:pt idx="29">
                   <c:v>23</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176265856"/>
-        <c:axId val="176279936"/>
+        <c:axId val="179145344"/>
+        <c:axId val="179159424"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176265856"/>
+        <c:axId val="179145344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5271,13 +5305,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176279936"/>
+        <c:crossAx val="179159424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176279936"/>
+        <c:axId val="179159424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5291,7 +5325,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176265856"/>
+        <c:crossAx val="179145344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5300,7 +5334,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5585,7 +5619,7 @@
                   <c:v>55242</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>60773</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>0</c:v>
@@ -5605,8 +5639,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179761920"/>
-        <c:axId val="179751936"/>
+        <c:axId val="179766016"/>
+        <c:axId val="179624960"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5811,17 +5845,20 @@
                 <c:pt idx="34">
                   <c:v>0.10413040062856305</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.7759622460646428E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179748864"/>
-        <c:axId val="179750400"/>
+        <c:axId val="179621888"/>
+        <c:axId val="179623424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179748864"/>
+        <c:axId val="179621888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5839,13 +5876,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179750400"/>
+        <c:crossAx val="179623424"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179750400"/>
+        <c:axId val="179623424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5859,24 +5896,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179748864"/>
+        <c:crossAx val="179621888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179751936"/>
+        <c:axId val="179624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179761920"/>
+        <c:crossAx val="179766016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179761920"/>
+        <c:axId val="179766016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5884,7 +5921,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179751936"/>
+        <c:crossAx val="179624960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5899,7 +5936,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6181,17 +6218,20 @@
                 <c:pt idx="34">
                   <c:v>4344</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>19527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179898624"/>
-        <c:axId val="179938048"/>
+        <c:axId val="179771648"/>
+        <c:axId val="179811072"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179898624"/>
+        <c:axId val="179771648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6199,13 +6239,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179938048"/>
+        <c:crossAx val="179811072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179938048"/>
+        <c:axId val="179811072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6219,7 +6259,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179898624"/>
+        <c:crossAx val="179771648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6228,7 +6268,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6509,17 +6549,20 @@
                 <c:pt idx="34">
                   <c:v>3634</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>5531</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179948928"/>
-        <c:axId val="179979392"/>
+        <c:axId val="179821952"/>
+        <c:axId val="179852416"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179948928"/>
+        <c:axId val="179821952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6527,13 +6570,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179979392"/>
+        <c:crossAx val="179852416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179979392"/>
+        <c:axId val="179852416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6547,7 +6590,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179948928"/>
+        <c:crossAx val="179821952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6556,7 +6599,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6811,7 +6854,7 @@
                   <c:v>6159</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>7097</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>0</c:v>
@@ -6831,8 +6874,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179848320"/>
-        <c:axId val="179846528"/>
+        <c:axId val="179717248"/>
+        <c:axId val="179715456"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7019,17 +7062,20 @@
                 <c:pt idx="29">
                   <c:v>0.16195658391492782</c:v>
                 </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14558279781665645</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179843456"/>
-        <c:axId val="179844992"/>
+        <c:axId val="179712384"/>
+        <c:axId val="179713920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179843456"/>
+        <c:axId val="179712384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7047,13 +7093,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179844992"/>
+        <c:crossAx val="179713920"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179844992"/>
+        <c:axId val="179713920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7067,24 +7113,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179843456"/>
+        <c:crossAx val="179712384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179846528"/>
+        <c:axId val="179715456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179848320"/>
+        <c:crossAx val="179717248"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179848320"/>
+        <c:axId val="179717248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7092,7 +7138,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179846528"/>
+        <c:crossAx val="179715456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7107,7 +7153,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8178,8 +8224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E123" sqref="E123"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8814,6 +8860,15 @@
       <c r="B38" s="21">
         <v>43929</v>
       </c>
+      <c r="C38" s="2">
+        <v>232708</v>
+      </c>
+      <c r="D38" s="2">
+        <v>60773</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7097</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -9404,6 +9459,18 @@
       <c r="B74" s="21">
         <v>43929</v>
       </c>
+      <c r="C74" s="2">
+        <v>120755</v>
+      </c>
+      <c r="D74" s="2">
+        <v>12852</v>
+      </c>
+      <c r="E74" s="2">
+        <v>273</v>
+      </c>
+      <c r="F74" s="2">
+        <v>4512</v>
+      </c>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" t="s">
@@ -10178,6 +10245,15 @@
       </c>
       <c r="B123" s="21">
         <v>43929</v>
+      </c>
+      <c r="C123" s="2">
+        <v>807125</v>
+      </c>
+      <c r="D123" s="2">
+        <v>139422</v>
+      </c>
+      <c r="E123" s="2">
+        <v>17669</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -10213,7 +10289,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11799,15 +11875,47 @@
       </c>
       <c r="C36" s="2">
         <f>Data!C74</f>
-        <v>0</v>
+        <v>120755</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" ref="D36" si="95">C36-C35</f>
+        <v>5520</v>
+      </c>
+      <c r="E36" s="11">
+        <f t="shared" ref="E36" si="96">H36/D36</f>
+        <v>6.0326086956521738E-2</v>
       </c>
       <c r="G36" s="2">
         <f>Data!D74</f>
-        <v>0</v>
+        <v>12852</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" ref="H36" si="97">G36-G35</f>
+        <v>333</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" ref="I36" si="98">G36/G35-1</f>
+        <v>2.6599568655643502E-2</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" ref="J36" si="99">SUM(I32:I36)/5</f>
+        <v>2.4574716073519243E-2</v>
       </c>
       <c r="L36">
         <f>Data!E74</f>
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="M36">
+        <f t="shared" ref="M36" si="100">L36-L35</f>
+        <v>30</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" ref="N36" si="101">L36/L35-1</f>
+        <v>0.12345679012345689</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" ref="O36" si="102">SUM(N32:N36)/5</f>
+        <v>0.10207013358183503</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -11912,7 +12020,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M39" sqref="M39:O40"/>
+      <selection activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13746,15 +13854,47 @@
       </c>
       <c r="C41" s="2">
         <f>Data!C38</f>
-        <v>0</v>
+        <v>232708</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="97">C41-C40</f>
+        <v>19527</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" ref="E41" si="98">H41/D41</f>
+        <v>0.28324883494648434</v>
       </c>
       <c r="G41" s="2">
         <f>Data!D38</f>
-        <v>0</v>
+        <v>60773</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41" si="99">G41-G40</f>
+        <v>5531</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" ref="I41" si="100">G41/G40-1</f>
+        <v>0.10012309474675063</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" ref="J41" si="101">SUM(I37:I41)/5</f>
+        <v>9.7759622460646428E-2</v>
       </c>
       <c r="L41" s="2">
         <f>Data!E38</f>
-        <v>0</v>
+        <v>7097</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41" si="102">L41-L40</f>
+        <v>938</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" ref="N41" si="103">L41/L40-1</f>
+        <v>0.152297450884884</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" ref="O41" si="104">SUM(N37:N41)/5</f>
+        <v>0.14558279781665645</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -13863,7 +14003,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+      <selection activeCell="AF55" sqref="AF55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16187,15 +16327,47 @@
       </c>
       <c r="C50" s="2">
         <f>Data!C123</f>
-        <v>0</v>
+        <v>807125</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" ref="D50" si="76">C50-C49</f>
+        <v>51680</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" ref="E50" si="77">H50/D50</f>
+        <v>7.4226006191950467E-2</v>
       </c>
       <c r="G50" s="2">
         <f>Data!D123</f>
-        <v>0</v>
+        <v>139422</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" ref="H50" si="78">G50-G49</f>
+        <v>3836</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" ref="I50" si="79">G50/G49-1</f>
+        <v>2.8292006549348825E-2</v>
+      </c>
+      <c r="J50" s="16">
+        <f t="shared" ref="J50" si="80">SUM(I46:I50)/5</f>
+        <v>3.0771925123267339E-2</v>
       </c>
       <c r="L50" s="2">
         <f>Data!E123</f>
-        <v>0</v>
+        <v>17669</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50" si="81">L50-L49</f>
+        <v>542</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" ref="N50" si="82">L50/L49-1</f>
+        <v>3.1645939160390046E-2</v>
+      </c>
+      <c r="O50" s="16">
+        <f t="shared" ref="O50" si="83">SUM(N46:N50)/5</f>
+        <v>3.7759099772570123E-2</v>
       </c>
     </row>
     <row r="51" spans="1:15">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -712,7 +712,7 @@
                   <c:v>12852</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>13138</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -729,8 +729,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177691648"/>
-        <c:axId val="177690112"/>
+        <c:axId val="67132416"/>
+        <c:axId val="67130880"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -905,17 +905,20 @@
                 <c:pt idx="30">
                   <c:v>2.4574716073519243E-2</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.407062813615881E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="177670400"/>
-        <c:axId val="177688576"/>
+        <c:axId val="67115264"/>
+        <c:axId val="67129344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177670400"/>
+        <c:axId val="67115264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -933,13 +936,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177688576"/>
+        <c:crossAx val="67129344"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177688576"/>
+        <c:axId val="67129344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -954,24 +957,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177670400"/>
+        <c:crossAx val="67115264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177690112"/>
+        <c:axId val="67130880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177691648"/>
+        <c:crossAx val="67132416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="177691648"/>
+        <c:axId val="67132416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -979,7 +982,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="177690112"/>
+        <c:crossAx val="67130880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -994,7 +997,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1282,17 +1285,20 @@
                 <c:pt idx="35">
                   <c:v>938</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>881</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179723648"/>
-        <c:axId val="179741824"/>
+        <c:axId val="180448640"/>
+        <c:axId val="180470912"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179723648"/>
+        <c:axId val="180448640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1300,13 +1306,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179741824"/>
+        <c:crossAx val="180470912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179741824"/>
+        <c:axId val="180470912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1320,7 +1326,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179723648"/>
+        <c:crossAx val="180448640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,7 +1335,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1671,7 +1677,7 @@
                   <c:v>139422</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>143626</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -1688,8 +1694,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179954048"/>
-        <c:axId val="179939968"/>
+        <c:axId val="181989760"/>
+        <c:axId val="181975680"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1951,17 +1957,20 @@
                 <c:pt idx="44">
                   <c:v>3.0771925123267339E-2</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.8782641872660043E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179936640"/>
-        <c:axId val="179938432"/>
+        <c:axId val="181968256"/>
+        <c:axId val="181974144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179936640"/>
+        <c:axId val="181968256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1969,13 +1978,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179938432"/>
+        <c:crossAx val="181974144"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179938432"/>
+        <c:axId val="181974144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1989,24 +1998,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179936640"/>
+        <c:crossAx val="181968256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179939968"/>
+        <c:axId val="181975680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179954048"/>
+        <c:crossAx val="181989760"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179954048"/>
+        <c:axId val="181989760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2014,7 +2023,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179939968"/>
+        <c:crossAx val="181975680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2029,7 +2038,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2371,17 +2380,20 @@
                 <c:pt idx="44">
                   <c:v>51680</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>46244</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180039680"/>
-        <c:axId val="180041216"/>
+        <c:axId val="182337536"/>
+        <c:axId val="182339072"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180039680"/>
+        <c:axId val="182337536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,13 +2401,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180041216"/>
+        <c:crossAx val="182339072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180041216"/>
+        <c:axId val="182339072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2409,7 +2421,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180039680"/>
+        <c:crossAx val="182337536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2418,7 +2430,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2756,17 +2768,20 @@
                 <c:pt idx="44">
                   <c:v>3836</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>4204</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180065024"/>
-        <c:axId val="180066560"/>
+        <c:axId val="182366976"/>
+        <c:axId val="182368512"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180065024"/>
+        <c:axId val="182366976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2774,13 +2789,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180066560"/>
+        <c:crossAx val="182368512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180066560"/>
+        <c:axId val="182368512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2794,7 +2809,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180065024"/>
+        <c:crossAx val="182366976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2803,7 +2818,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3145,7 +3160,7 @@
                   <c:v>17669</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>18279</c:v>
                 </c:pt>
                 <c:pt idx="46">
                   <c:v>0</c:v>
@@ -3162,8 +3177,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190940288"/>
-        <c:axId val="190930304"/>
+        <c:axId val="182486144"/>
+        <c:axId val="182472064"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3425,17 +3440,20 @@
                 <c:pt idx="44">
                   <c:v>3.7759099772570123E-2</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.5386551015182691E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="190927232"/>
-        <c:axId val="190928768"/>
+        <c:axId val="182468992"/>
+        <c:axId val="182470528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190927232"/>
+        <c:axId val="182468992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3443,13 +3461,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190928768"/>
+        <c:crossAx val="182470528"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190928768"/>
+        <c:axId val="182470528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3464,24 +3482,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190927232"/>
+        <c:crossAx val="182468992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190930304"/>
+        <c:axId val="182472064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190940288"/>
+        <c:crossAx val="182486144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="190940288"/>
+        <c:axId val="182486144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3489,7 +3507,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190930304"/>
+        <c:crossAx val="182472064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3504,7 +3522,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3845,17 +3863,20 @@
                 <c:pt idx="44">
                   <c:v>542</c:v>
                 </c:pt>
+                <c:pt idx="45">
+                  <c:v>610</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190964480"/>
-        <c:axId val="190966016"/>
+        <c:axId val="182506240"/>
+        <c:axId val="182507776"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="190964480"/>
+        <c:axId val="182506240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3863,13 +3884,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190966016"/>
+        <c:crossAx val="182507776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190966016"/>
+        <c:axId val="182507776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3883,7 +3904,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190964480"/>
+        <c:crossAx val="182506240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3892,7 +3913,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4146,17 +4167,20 @@
                 <c:pt idx="30">
                   <c:v>5520</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>5532</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176465792"/>
-        <c:axId val="176467328"/>
+        <c:axId val="67168128"/>
+        <c:axId val="67169664"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176465792"/>
+        <c:axId val="67168128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4164,13 +4188,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176467328"/>
+        <c:crossAx val="67169664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176467328"/>
+        <c:axId val="67169664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -4186,7 +4210,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176465792"/>
+        <c:crossAx val="67168128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4195,7 +4219,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000311" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000311" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4452,17 +4476,20 @@
                 <c:pt idx="30">
                   <c:v>333</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>286</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177998464"/>
-        <c:axId val="178008448"/>
+        <c:axId val="67779200"/>
+        <c:axId val="67785088"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="177998464"/>
+        <c:axId val="67779200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4470,13 +4497,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178008448"/>
+        <c:crossAx val="67785088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178008448"/>
+        <c:axId val="67785088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4490,7 +4517,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177998464"/>
+        <c:crossAx val="67779200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4499,7 +4526,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4757,7 +4784,7 @@
                   <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -4774,8 +4801,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179122560"/>
-        <c:axId val="179112576"/>
+        <c:axId val="175919488"/>
+        <c:axId val="175905408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4944,17 +4971,20 @@
                 <c:pt idx="30">
                   <c:v>0.10207013358183503</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6758778270479698E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178052480"/>
-        <c:axId val="179111040"/>
+        <c:axId val="67820928"/>
+        <c:axId val="175903872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178052480"/>
+        <c:axId val="67820928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4972,13 +5002,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179111040"/>
+        <c:crossAx val="175903872"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179111040"/>
+        <c:axId val="175903872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -4993,24 +5023,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178052480"/>
+        <c:crossAx val="67820928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179112576"/>
+        <c:axId val="175905408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179122560"/>
+        <c:crossAx val="175919488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179122560"/>
+        <c:axId val="175919488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5018,7 +5048,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179112576"/>
+        <c:crossAx val="175905408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5033,7 +5063,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5287,17 +5317,20 @@
                 <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>22</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179145344"/>
-        <c:axId val="179159424"/>
+        <c:axId val="175934080"/>
+        <c:axId val="175948160"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179145344"/>
+        <c:axId val="175934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5305,13 +5338,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179159424"/>
+        <c:crossAx val="175948160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179159424"/>
+        <c:axId val="175948160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5325,7 +5358,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179145344"/>
+        <c:crossAx val="175934080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5334,7 +5367,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5622,7 +5655,7 @@
                   <c:v>60773</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>65077</c:v>
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>0</c:v>
@@ -5639,8 +5672,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179766016"/>
-        <c:axId val="179624960"/>
+        <c:axId val="180486912"/>
+        <c:axId val="180345856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5848,17 +5881,20 @@
                 <c:pt idx="35">
                   <c:v>9.7759622460646428E-2</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.2352438527933914E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179621888"/>
-        <c:axId val="179623424"/>
+        <c:axId val="180342784"/>
+        <c:axId val="180344320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179621888"/>
+        <c:axId val="180342784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5876,13 +5912,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179623424"/>
+        <c:crossAx val="180344320"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179623424"/>
+        <c:axId val="180344320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5896,24 +5932,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179621888"/>
+        <c:crossAx val="180342784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179624960"/>
+        <c:axId val="180345856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179766016"/>
+        <c:crossAx val="180486912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179766016"/>
+        <c:axId val="180486912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5921,7 +5957,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179624960"/>
+        <c:crossAx val="180345856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5936,7 +5972,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6221,17 +6257,20 @@
                 <c:pt idx="35">
                   <c:v>19527</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>10313</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179771648"/>
-        <c:axId val="179811072"/>
+        <c:axId val="180492544"/>
+        <c:axId val="180531968"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179771648"/>
+        <c:axId val="180492544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6239,13 +6278,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179811072"/>
+        <c:crossAx val="180531968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179811072"/>
+        <c:axId val="180531968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6259,7 +6298,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179771648"/>
+        <c:crossAx val="180492544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6268,7 +6307,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6552,17 +6591,20 @@
                 <c:pt idx="35">
                   <c:v>5531</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>4304</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179821952"/>
-        <c:axId val="179852416"/>
+        <c:axId val="180542848"/>
+        <c:axId val="181884032"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179821952"/>
+        <c:axId val="180542848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6570,13 +6612,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179852416"/>
+        <c:crossAx val="181884032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179852416"/>
+        <c:axId val="181884032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6590,7 +6632,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179821952"/>
+        <c:crossAx val="180542848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6599,7 +6641,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6857,7 +6899,7 @@
                   <c:v>7097</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>7978</c:v>
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>0</c:v>
@@ -6874,8 +6916,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179717248"/>
-        <c:axId val="179715456"/>
+        <c:axId val="180438144"/>
+        <c:axId val="180436352"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7065,17 +7107,20 @@
                 <c:pt idx="30">
                   <c:v>0.14558279781665645</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.13113141019941588</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179712384"/>
-        <c:axId val="179713920"/>
+        <c:axId val="180433280"/>
+        <c:axId val="180434816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179712384"/>
+        <c:axId val="180433280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7093,13 +7138,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179713920"/>
+        <c:crossAx val="180434816"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179713920"/>
+        <c:axId val="180434816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7113,24 +7158,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179712384"/>
+        <c:crossAx val="180433280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179715456"/>
+        <c:axId val="180436352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179717248"/>
+        <c:crossAx val="180438144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179717248"/>
+        <c:axId val="180438144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7138,7 +7183,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179715456"/>
+        <c:crossAx val="180436352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7153,7 +7198,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8224,8 +8269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F123" sqref="F123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8877,6 +8922,15 @@
       <c r="B39" s="21">
         <v>43930</v>
       </c>
+      <c r="C39" s="2">
+        <v>243021</v>
+      </c>
+      <c r="D39" s="2">
+        <v>65077</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7978</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
@@ -9479,6 +9533,18 @@
       <c r="B75" s="21">
         <v>43930</v>
       </c>
+      <c r="C75" s="2">
+        <v>126287</v>
+      </c>
+      <c r="D75" s="2">
+        <v>13138</v>
+      </c>
+      <c r="E75" s="2">
+        <v>295</v>
+      </c>
+      <c r="F75" s="2">
+        <v>5240</v>
+      </c>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" t="s">
@@ -10262,6 +10328,15 @@
       </c>
       <c r="B124" s="21">
         <v>43930</v>
+      </c>
+      <c r="C124" s="2">
+        <v>853369</v>
+      </c>
+      <c r="D124" s="2">
+        <v>143626</v>
+      </c>
+      <c r="E124" s="2">
+        <v>18279</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -10288,8 +10363,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M36" sqref="M36:O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11927,15 +12002,47 @@
       </c>
       <c r="C37" s="2">
         <f>Data!C75</f>
-        <v>0</v>
+        <v>126287</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" ref="D37" si="103">C37-C36</f>
+        <v>5532</v>
+      </c>
+      <c r="E37" s="11">
+        <f t="shared" ref="E37" si="104">H37/D37</f>
+        <v>5.1699204627621113E-2</v>
       </c>
       <c r="G37" s="2">
         <f>Data!D75</f>
-        <v>0</v>
+        <v>13138</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" ref="H37" si="105">G37-G36</f>
+        <v>286</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ref="I37" si="106">G37/G36-1</f>
+        <v>2.2253345782757616E-2</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" ref="J37" si="107">SUM(I33:I37)/5</f>
+        <v>2.407062813615881E-2</v>
       </c>
       <c r="L37">
         <f>Data!E75</f>
-        <v>0</v>
+        <v>295</v>
+      </c>
+      <c r="M37">
+        <f t="shared" ref="M37" si="108">L37-L36</f>
+        <v>22</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" ref="N37" si="109">L37/L36-1</f>
+        <v>8.0586080586080522E-2</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" ref="O37" si="110">SUM(N33:N37)/5</f>
+        <v>9.6758778270479698E-2</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -12019,8 +12126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N44" sqref="N44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13907,15 +14014,47 @@
       </c>
       <c r="C42" s="2">
         <f>Data!C39</f>
-        <v>0</v>
+        <v>243021</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="105">C42-C41</f>
+        <v>10313</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" ref="E42" si="106">H42/D42</f>
+        <v>0.41733734121981964</v>
       </c>
       <c r="G42" s="2">
         <f>Data!D39</f>
-        <v>0</v>
+        <v>65077</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" ref="H42" si="107">G42-G41</f>
+        <v>4304</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" ref="I42" si="108">G42/G41-1</f>
+        <v>7.0820923765487986E-2</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" ref="J42" si="109">SUM(I38:I42)/5</f>
+        <v>9.2352438527933914E-2</v>
       </c>
       <c r="L42" s="2">
         <f>Data!E39</f>
-        <v>0</v>
+        <v>7978</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42" si="110">L42-L41</f>
+        <v>881</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ref="N42" si="111">L42/L41-1</f>
+        <v>0.12413695927856838</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" ref="O42" si="112">SUM(N38:N42)/5</f>
+        <v>0.13113141019941588</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -14003,7 +14142,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="AF55" sqref="AF55"/>
+      <selection activeCell="M50" sqref="M50:O51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16379,15 +16518,47 @@
       </c>
       <c r="C51" s="2">
         <f>Data!C124</f>
-        <v>0</v>
+        <v>853369</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" ref="D51" si="84">C51-C50</f>
+        <v>46244</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" ref="E51" si="85">H51/D51</f>
+        <v>9.0909090909090912E-2</v>
       </c>
       <c r="G51" s="2">
         <f>Data!D124</f>
-        <v>0</v>
+        <v>143626</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" ref="H51" si="86">G51-G50</f>
+        <v>4204</v>
+      </c>
+      <c r="I51" s="1">
+        <f t="shared" ref="I51" si="87">G51/G50-1</f>
+        <v>3.0153060492605244E-2</v>
+      </c>
+      <c r="J51" s="16">
+        <f t="shared" ref="J51" si="88">SUM(I47:I51)/5</f>
+        <v>2.8782641872660043E-2</v>
       </c>
       <c r="L51" s="2">
         <f>Data!E124</f>
-        <v>0</v>
+        <v>18279</v>
+      </c>
+      <c r="M51">
+        <f t="shared" ref="M51" si="89">L51-L50</f>
+        <v>610</v>
+      </c>
+      <c r="N51" s="1">
+        <f t="shared" ref="N51" si="90">L51/L50-1</f>
+        <v>3.4523742147263503E-2</v>
+      </c>
+      <c r="O51" s="16">
+        <f t="shared" ref="O51" si="91">SUM(N47:N51)/5</f>
+        <v>3.5386551015182691E-2</v>
       </c>
     </row>
     <row r="52" spans="1:15">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -715,7 +715,7 @@
                   <c:v>13138</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>13492</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -729,8 +729,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="67132416"/>
-        <c:axId val="67130880"/>
+        <c:axId val="66673664"/>
+        <c:axId val="66672128"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -908,17 +908,20 @@
                 <c:pt idx="31">
                   <c:v>2.407062813615881E-2</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.5310412059360667E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67115264"/>
-        <c:axId val="67129344"/>
+        <c:axId val="66656512"/>
+        <c:axId val="66670592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67115264"/>
+        <c:axId val="66656512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -936,13 +939,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67129344"/>
+        <c:crossAx val="66670592"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67129344"/>
+        <c:axId val="66670592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -957,24 +960,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67115264"/>
+        <c:crossAx val="66656512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67130880"/>
+        <c:axId val="66672128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67132416"/>
+        <c:crossAx val="66673664"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="67132416"/>
+        <c:axId val="66673664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,7 +985,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="67130880"/>
+        <c:crossAx val="66672128"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -997,7 +1000,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1288,17 +1291,20 @@
                 <c:pt idx="36">
                   <c:v>881</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>980</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180448640"/>
-        <c:axId val="180470912"/>
+        <c:axId val="175930752"/>
+        <c:axId val="175948928"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180448640"/>
+        <c:axId val="175930752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,13 +1312,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180470912"/>
+        <c:crossAx val="175948928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180470912"/>
+        <c:axId val="175948928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1326,7 +1332,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180448640"/>
+        <c:crossAx val="175930752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1335,7 +1341,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1680,7 +1686,7 @@
                   <c:v>143626</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>147577</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -1694,8 +1700,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181989760"/>
-        <c:axId val="181975680"/>
+        <c:axId val="177660288"/>
+        <c:axId val="177646208"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1960,17 +1966,20 @@
                 <c:pt idx="45">
                   <c:v>2.8782641872660043E-2</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.7358441127374532E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181968256"/>
-        <c:axId val="181974144"/>
+        <c:axId val="177642880"/>
+        <c:axId val="177644672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181968256"/>
+        <c:axId val="177642880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1978,13 +1987,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181974144"/>
+        <c:crossAx val="177644672"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181974144"/>
+        <c:axId val="177644672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,24 +2007,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181968256"/>
+        <c:crossAx val="177642880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181975680"/>
+        <c:axId val="177646208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181989760"/>
+        <c:crossAx val="177660288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="181989760"/>
+        <c:axId val="177660288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2023,7 +2032,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="181975680"/>
+        <c:crossAx val="177646208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2038,7 +2047,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2383,17 +2392,20 @@
                 <c:pt idx="45">
                   <c:v>46244</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>53495</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182337536"/>
-        <c:axId val="182339072"/>
+        <c:axId val="178274304"/>
+        <c:axId val="178275840"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="182337536"/>
+        <c:axId val="178274304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2401,13 +2413,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182339072"/>
+        <c:crossAx val="178275840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="182339072"/>
+        <c:axId val="178275840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2421,7 +2433,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182337536"/>
+        <c:crossAx val="178274304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2430,7 +2442,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2771,17 +2783,20 @@
                 <c:pt idx="45">
                   <c:v>4204</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>3951</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182366976"/>
-        <c:axId val="182368512"/>
+        <c:axId val="178303744"/>
+        <c:axId val="178305280"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="182366976"/>
+        <c:axId val="178303744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2789,13 +2804,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182368512"/>
+        <c:crossAx val="178305280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="182368512"/>
+        <c:axId val="178305280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2809,7 +2824,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182366976"/>
+        <c:crossAx val="178303744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2818,7 +2833,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3163,7 +3178,7 @@
                   <c:v>18279</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>18849</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0</c:v>
@@ -3177,8 +3192,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182486144"/>
-        <c:axId val="182472064"/>
+        <c:axId val="178685056"/>
+        <c:axId val="178670976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3443,17 +3458,20 @@
                 <c:pt idx="45">
                   <c:v>3.5386551015182691E-2</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4788168520767514E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="182468992"/>
-        <c:axId val="182470528"/>
+        <c:axId val="178667904"/>
+        <c:axId val="178669440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182468992"/>
+        <c:axId val="178667904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,13 +3479,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182470528"/>
+        <c:crossAx val="178669440"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182470528"/>
+        <c:axId val="178669440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3482,24 +3500,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182468992"/>
+        <c:crossAx val="178667904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182472064"/>
+        <c:axId val="178670976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182486144"/>
+        <c:crossAx val="178685056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="182486144"/>
+        <c:axId val="178685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3507,7 +3525,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="182472064"/>
+        <c:crossAx val="178670976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3522,7 +3540,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3866,17 +3884,20 @@
                 <c:pt idx="45">
                   <c:v>610</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>570</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182506240"/>
-        <c:axId val="182507776"/>
+        <c:axId val="178709248"/>
+        <c:axId val="178710784"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="182506240"/>
+        <c:axId val="178709248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3884,13 +3905,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182507776"/>
+        <c:crossAx val="178710784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="182507776"/>
+        <c:axId val="178710784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3904,7 +3925,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182506240"/>
+        <c:crossAx val="178709248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3913,7 +3934,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4170,17 +4191,20 @@
                 <c:pt idx="31">
                   <c:v>5532</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>8456</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="67168128"/>
-        <c:axId val="67169664"/>
+        <c:axId val="66709376"/>
+        <c:axId val="66710912"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="67168128"/>
+        <c:axId val="66709376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4188,13 +4212,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67169664"/>
+        <c:crossAx val="66710912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67169664"/>
+        <c:axId val="66710912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -4210,7 +4234,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67168128"/>
+        <c:crossAx val="66709376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4219,7 +4243,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000322" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000322" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4479,17 +4503,20 @@
                 <c:pt idx="31">
                   <c:v>286</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>354</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="67779200"/>
-        <c:axId val="67785088"/>
+        <c:axId val="66861696"/>
+        <c:axId val="66867584"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="67779200"/>
+        <c:axId val="66861696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4497,13 +4524,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67785088"/>
+        <c:crossAx val="66867584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="67785088"/>
+        <c:axId val="66867584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4517,7 +4544,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67779200"/>
+        <c:crossAx val="66861696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4526,7 +4553,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4787,7 +4814,7 @@
                   <c:v>295</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -4801,8 +4828,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175919488"/>
-        <c:axId val="175905408"/>
+        <c:axId val="173822336"/>
+        <c:axId val="173808256"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4974,17 +5001,20 @@
                 <c:pt idx="31">
                   <c:v>9.6758778270479698E-2</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.3675126001480272E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="67820928"/>
-        <c:axId val="175903872"/>
+        <c:axId val="66907520"/>
+        <c:axId val="173806720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="67820928"/>
+        <c:axId val="66907520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,13 +5032,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175903872"/>
+        <c:crossAx val="173806720"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175903872"/>
+        <c:axId val="173806720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5023,24 +5053,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="67820928"/>
+        <c:crossAx val="66907520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175905408"/>
+        <c:axId val="173808256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175919488"/>
+        <c:crossAx val="173822336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="175919488"/>
+        <c:axId val="173822336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5048,7 +5078,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="175905408"/>
+        <c:crossAx val="173808256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5063,7 +5093,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5320,17 +5350,20 @@
                 <c:pt idx="31">
                   <c:v>22</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175934080"/>
-        <c:axId val="175948160"/>
+        <c:axId val="173845120"/>
+        <c:axId val="173855104"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="175934080"/>
+        <c:axId val="173845120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5338,13 +5371,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175948160"/>
+        <c:crossAx val="173855104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175948160"/>
+        <c:axId val="173855104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,7 +5391,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175934080"/>
+        <c:crossAx val="173845120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5367,7 +5400,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5658,7 +5691,7 @@
                   <c:v>65077</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>73758</c:v>
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
@@ -5672,8 +5705,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180486912"/>
-        <c:axId val="180345856"/>
+        <c:axId val="175506176"/>
+        <c:axId val="175496192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5884,17 +5917,20 @@
                 <c:pt idx="36">
                   <c:v>9.2352438527933914E-2</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.0857009505264319E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180342784"/>
-        <c:axId val="180344320"/>
+        <c:axId val="175493120"/>
+        <c:axId val="175494656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180342784"/>
+        <c:axId val="175493120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5912,13 +5948,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180344320"/>
+        <c:crossAx val="175494656"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180344320"/>
+        <c:axId val="175494656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5932,24 +5968,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180342784"/>
+        <c:crossAx val="175493120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180345856"/>
+        <c:axId val="175496192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180486912"/>
+        <c:crossAx val="175506176"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180486912"/>
+        <c:axId val="175506176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5957,7 +5993,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180345856"/>
+        <c:crossAx val="175496192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5972,7 +6008,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6260,17 +6296,20 @@
                 <c:pt idx="36">
                   <c:v>10313</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>13584</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180492544"/>
-        <c:axId val="180531968"/>
+        <c:axId val="175511808"/>
+        <c:axId val="175551232"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180492544"/>
+        <c:axId val="175511808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6278,13 +6317,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180531968"/>
+        <c:crossAx val="175551232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180531968"/>
+        <c:axId val="175551232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6298,7 +6337,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180492544"/>
+        <c:crossAx val="175511808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6307,7 +6346,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6594,17 +6633,20 @@
                 <c:pt idx="36">
                   <c:v>4304</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>8681</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180542848"/>
-        <c:axId val="181884032"/>
+        <c:axId val="175562112"/>
+        <c:axId val="177570944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180542848"/>
+        <c:axId val="175562112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6612,13 +6654,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181884032"/>
+        <c:crossAx val="177570944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181884032"/>
+        <c:axId val="177570944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6632,7 +6674,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180542848"/>
+        <c:crossAx val="175562112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6641,7 +6683,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6902,7 +6944,7 @@
                   <c:v>7978</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>8958</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
@@ -6916,8 +6958,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180438144"/>
-        <c:axId val="180436352"/>
+        <c:axId val="175924352"/>
+        <c:axId val="175922560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7110,17 +7152,20 @@
                 <c:pt idx="31">
                   <c:v>0.13113141019941588</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.12699505260532029</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180433280"/>
-        <c:axId val="180434816"/>
+        <c:axId val="175919488"/>
+        <c:axId val="175921024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180433280"/>
+        <c:axId val="175919488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7138,13 +7183,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180434816"/>
+        <c:crossAx val="175921024"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180434816"/>
+        <c:axId val="175921024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7158,24 +7203,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180433280"/>
+        <c:crossAx val="175919488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180436352"/>
+        <c:axId val="175922560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180438144"/>
+        <c:crossAx val="175924352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180438144"/>
+        <c:axId val="175924352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,7 +7228,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180436352"/>
+        <c:crossAx val="175922560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7198,7 +7243,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8269,8 +8314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E126" sqref="E126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8939,6 +8984,15 @@
       <c r="B40" s="21">
         <v>43931</v>
       </c>
+      <c r="C40" s="2">
+        <v>256605</v>
+      </c>
+      <c r="D40" s="2">
+        <v>73758</v>
+      </c>
+      <c r="E40" s="2">
+        <v>8958</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
@@ -9553,6 +9607,18 @@
       <c r="B76" s="21">
         <v>43931</v>
       </c>
+      <c r="C76" s="2">
+        <v>134743</v>
+      </c>
+      <c r="D76" s="2">
+        <v>13492</v>
+      </c>
+      <c r="E76" s="2">
+        <v>319</v>
+      </c>
+      <c r="F76" s="2">
+        <v>5064</v>
+      </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
@@ -10345,6 +10411,15 @@
       </c>
       <c r="B125" s="21">
         <v>43931</v>
+      </c>
+      <c r="C125" s="2">
+        <v>906864</v>
+      </c>
+      <c r="D125" s="2">
+        <v>147577</v>
+      </c>
+      <c r="E125" s="2">
+        <v>18849</v>
       </c>
     </row>
   </sheetData>
@@ -10364,7 +10439,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M36" sqref="M36:O37"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12054,15 +12129,47 @@
       </c>
       <c r="C38" s="2">
         <f>Data!C76</f>
-        <v>0</v>
+        <v>134743</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" ref="D38" si="111">C38-C37</f>
+        <v>8456</v>
+      </c>
+      <c r="E38" s="11">
+        <f t="shared" ref="E38" si="112">H38/D38</f>
+        <v>4.1863765373699145E-2</v>
       </c>
       <c r="G38" s="2">
         <f>Data!D76</f>
-        <v>0</v>
+        <v>13492</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" ref="H38" si="113">G38-G37</f>
+        <v>354</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" ref="I38" si="114">G38/G37-1</f>
+        <v>2.6944740447556681E-2</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" ref="J38" si="115">SUM(I34:I38)/5</f>
+        <v>2.5310412059360667E-2</v>
       </c>
       <c r="L38">
         <f>Data!E76</f>
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="M38">
+        <f t="shared" ref="M38" si="116">L38-L37</f>
+        <v>24</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ref="N38" si="117">L38/L37-1</f>
+        <v>8.135593220338988E-2</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" ref="O38" si="118">SUM(N34:N38)/5</f>
+        <v>9.3675126001480272E-2</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -12126,8 +12233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14067,15 +14174,47 @@
       </c>
       <c r="C43" s="2">
         <f>Data!C40</f>
-        <v>0</v>
+        <v>256605</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43" si="113">C43-C42</f>
+        <v>13584</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" ref="E43" si="114">H43/D43</f>
+        <v>0.63906065959952885</v>
       </c>
       <c r="G43" s="2">
         <f>Data!D40</f>
-        <v>0</v>
+        <v>73758</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" ref="H43" si="115">G43-G42</f>
+        <v>8681</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" ref="I43" si="116">G43/G42-1</f>
+        <v>0.13339582340919209</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" ref="J43" si="117">SUM(I39:I43)/5</f>
+        <v>9.0857009505264319E-2</v>
       </c>
       <c r="L43" s="2">
         <f>Data!E40</f>
-        <v>0</v>
+        <v>8958</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43" si="118">L43-L42</f>
+        <v>980</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ref="N43" si="119">L43/L42-1</f>
+        <v>0.12283780396089239</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" ref="O43" si="120">SUM(N39:N43)/5</f>
+        <v>0.12699505260532029</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -14141,8 +14280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M50" sqref="M50:O51"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="AG50" sqref="AG50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16570,15 +16709,47 @@
       </c>
       <c r="C52" s="2">
         <f>Data!C125</f>
-        <v>0</v>
+        <v>906864</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52" si="92">C52-C51</f>
+        <v>53495</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" ref="E52" si="93">H52/D52</f>
+        <v>7.3857369847649318E-2</v>
       </c>
       <c r="G52" s="2">
         <f>Data!D125</f>
-        <v>0</v>
+        <v>147577</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" ref="H52" si="94">G52-G51</f>
+        <v>3951</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" ref="I52" si="95">G52/G51-1</f>
+        <v>2.750894684806382E-2</v>
+      </c>
+      <c r="J52" s="16">
+        <f t="shared" ref="J52" si="96">SUM(I48:I52)/5</f>
+        <v>2.7358441127374532E-2</v>
       </c>
       <c r="L52" s="2">
         <f>Data!E125</f>
-        <v>0</v>
+        <v>18849</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52" si="97">L52-L51</f>
+        <v>570</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" ref="N52" si="98">L52/L51-1</f>
+        <v>3.1183325127195127E-2</v>
+      </c>
+      <c r="O52" s="16">
+        <f t="shared" ref="O52" si="99">SUM(N48:N52)/5</f>
+        <v>3.4788168520767514E-2</v>
       </c>
     </row>
     <row r="53" spans="1:15">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="27">
   <si>
     <t>Date</t>
   </si>
@@ -718,7 +718,7 @@
                   <c:v>13492</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>13776</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -729,8 +729,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="66673664"/>
-        <c:axId val="66672128"/>
+        <c:axId val="69229568"/>
+        <c:axId val="69228032"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -911,17 +911,23 @@
                 <c:pt idx="32">
                   <c:v>2.5310412059360667E-2</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.449805840769952E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.9369433141437041E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66656512"/>
-        <c:axId val="66670592"/>
+        <c:axId val="69212416"/>
+        <c:axId val="69226496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66656512"/>
+        <c:axId val="69212416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -939,13 +945,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="66670592"/>
+        <c:crossAx val="69226496"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="66670592"/>
+        <c:axId val="69226496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -960,24 +966,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66656512"/>
+        <c:crossAx val="69212416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="66672128"/>
+        <c:axId val="69228032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66673664"/>
+        <c:crossAx val="69229568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="66673664"/>
+        <c:axId val="69229568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -985,7 +991,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="66672128"/>
+        <c:crossAx val="69228032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1000,7 +1006,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1294,17 +1300,20 @@
                 <c:pt idx="37">
                   <c:v>980</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>917</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175930752"/>
-        <c:axId val="175948928"/>
+        <c:axId val="176717184"/>
+        <c:axId val="176735360"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="175930752"/>
+        <c:axId val="176717184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1312,13 +1321,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175948928"/>
+        <c:crossAx val="176735360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175948928"/>
+        <c:axId val="176735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1332,7 +1341,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175930752"/>
+        <c:crossAx val="176717184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1341,7 +1350,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1689,7 +1698,7 @@
                   <c:v>147577</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>152271</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -1700,8 +1709,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177660288"/>
-        <c:axId val="177646208"/>
+        <c:axId val="177193344"/>
+        <c:axId val="177126016"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1969,17 +1978,20 @@
                 <c:pt idx="46">
                   <c:v>2.7358441127374532E-2</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.8137770902550228E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="177642880"/>
-        <c:axId val="177644672"/>
+        <c:axId val="177122688"/>
+        <c:axId val="177124480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177642880"/>
+        <c:axId val="177122688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1987,13 +1999,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177644672"/>
+        <c:crossAx val="177124480"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177644672"/>
+        <c:axId val="177124480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2007,24 +2019,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177642880"/>
+        <c:crossAx val="177122688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177646208"/>
+        <c:axId val="177126016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177660288"/>
+        <c:crossAx val="177193344"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="177660288"/>
+        <c:axId val="177193344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2044,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="177646208"/>
+        <c:crossAx val="177126016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2047,7 +2059,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2395,17 +2407,20 @@
                 <c:pt idx="46">
                   <c:v>53495</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>56609</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178274304"/>
-        <c:axId val="178275840"/>
+        <c:axId val="177496064"/>
+        <c:axId val="177497600"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="178274304"/>
+        <c:axId val="177496064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2413,13 +2428,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178275840"/>
+        <c:crossAx val="177497600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178275840"/>
+        <c:axId val="177497600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2448,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178274304"/>
+        <c:crossAx val="177496064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2442,7 +2457,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2786,17 +2801,20 @@
                 <c:pt idx="46">
                   <c:v>3951</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>4694</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178303744"/>
-        <c:axId val="178305280"/>
+        <c:axId val="177521408"/>
+        <c:axId val="177522944"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="178303744"/>
+        <c:axId val="177521408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2804,13 +2822,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178305280"/>
+        <c:crossAx val="177522944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178305280"/>
+        <c:axId val="177522944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2842,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178303744"/>
+        <c:crossAx val="177521408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2833,7 +2851,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3181,7 +3199,7 @@
                   <c:v>18849</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>19468</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>0</c:v>
@@ -3192,8 +3210,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178685056"/>
-        <c:axId val="178670976"/>
+        <c:axId val="177640576"/>
+        <c:axId val="177626496"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3461,17 +3479,20 @@
                 <c:pt idx="46">
                   <c:v>3.4788168520767514E-2</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.3349609979653305E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="178667904"/>
-        <c:axId val="178669440"/>
+        <c:axId val="177623424"/>
+        <c:axId val="177624960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="178667904"/>
+        <c:axId val="177623424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,13 +3500,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178669440"/>
+        <c:crossAx val="177624960"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="178669440"/>
+        <c:axId val="177624960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3500,24 +3521,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178667904"/>
+        <c:crossAx val="177623424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="178670976"/>
+        <c:axId val="177626496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178685056"/>
+        <c:crossAx val="177640576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="178685056"/>
+        <c:axId val="177640576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3525,7 +3546,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="178670976"/>
+        <c:crossAx val="177626496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3540,7 +3561,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3887,17 +3908,20 @@
                 <c:pt idx="46">
                   <c:v>570</c:v>
                 </c:pt>
+                <c:pt idx="47">
+                  <c:v>619</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="178709248"/>
-        <c:axId val="178710784"/>
+        <c:axId val="177664768"/>
+        <c:axId val="177666304"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="178709248"/>
+        <c:axId val="177664768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,13 +3929,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="178710784"/>
+        <c:crossAx val="177666304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="178710784"/>
+        <c:axId val="177666304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3925,7 +3949,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="178709248"/>
+        <c:crossAx val="177664768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3934,7 +3958,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4194,17 +4218,20 @@
                 <c:pt idx="32">
                   <c:v>8456</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>6232</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="66709376"/>
-        <c:axId val="66710912"/>
+        <c:axId val="69265280"/>
+        <c:axId val="69266816"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="66709376"/>
+        <c:axId val="69265280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4212,13 +4239,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66710912"/>
+        <c:crossAx val="69266816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66710912"/>
+        <c:axId val="69266816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -4234,7 +4261,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66709376"/>
+        <c:crossAx val="69265280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4243,7 +4270,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000333" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000333" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4506,17 +4533,20 @@
                 <c:pt idx="32">
                   <c:v>354</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>284</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="66861696"/>
-        <c:axId val="66867584"/>
+        <c:axId val="176241280"/>
+        <c:axId val="176251264"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="66861696"/>
+        <c:axId val="176241280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4524,13 +4554,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="66867584"/>
+        <c:crossAx val="176251264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="66867584"/>
+        <c:axId val="176251264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4544,7 +4574,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66861696"/>
+        <c:crossAx val="176241280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4553,7 +4583,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4817,7 +4847,7 @@
                   <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -4828,8 +4858,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="173822336"/>
-        <c:axId val="173808256"/>
+        <c:axId val="176312704"/>
+        <c:axId val="176298624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5004,17 +5034,20 @@
                 <c:pt idx="32">
                   <c:v>9.3675126001480272E-2</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.9274117949356621E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="66907520"/>
-        <c:axId val="173806720"/>
+        <c:axId val="176287104"/>
+        <c:axId val="176297088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="66907520"/>
+        <c:axId val="176287104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5032,13 +5065,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="173806720"/>
+        <c:crossAx val="176297088"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="173806720"/>
+        <c:axId val="176297088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5053,24 +5086,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="66907520"/>
+        <c:crossAx val="176287104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173808256"/>
+        <c:axId val="176298624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173822336"/>
+        <c:crossAx val="176312704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="173822336"/>
+        <c:axId val="176312704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5078,7 +5111,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="173808256"/>
+        <c:crossAx val="176298624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5093,7 +5126,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5353,17 +5386,20 @@
                 <c:pt idx="32">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="173845120"/>
-        <c:axId val="173855104"/>
+        <c:axId val="176339584"/>
+        <c:axId val="176349568"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="173845120"/>
+        <c:axId val="176339584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5371,13 +5407,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173855104"/>
+        <c:crossAx val="176349568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="173855104"/>
+        <c:axId val="176349568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5391,7 +5427,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="173845120"/>
+        <c:crossAx val="176339584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5400,7 +5436,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5694,7 +5730,7 @@
                   <c:v>73758</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>78991</c:v>
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>0</c:v>
@@ -5705,8 +5741,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175506176"/>
-        <c:axId val="175496192"/>
+        <c:axId val="176558848"/>
+        <c:axId val="176548864"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5920,17 +5956,20 @@
                 <c:pt idx="37">
                   <c:v>9.0857009505264319E-2</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.9140703502343849E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="175493120"/>
-        <c:axId val="175494656"/>
+        <c:axId val="176545792"/>
+        <c:axId val="176547328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175493120"/>
+        <c:axId val="176545792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5948,13 +5987,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175494656"/>
+        <c:crossAx val="176547328"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175494656"/>
+        <c:axId val="176547328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,24 +6007,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175493120"/>
+        <c:crossAx val="176545792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175496192"/>
+        <c:axId val="176548864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175506176"/>
+        <c:crossAx val="176558848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="175506176"/>
+        <c:axId val="176558848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5993,7 +6032,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="175496192"/>
+        <c:crossAx val="176548864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6008,7 +6047,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6299,17 +6338,20 @@
                 <c:pt idx="37">
                   <c:v>13584</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>12993</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175511808"/>
-        <c:axId val="175551232"/>
+        <c:axId val="176564480"/>
+        <c:axId val="176603904"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="175511808"/>
+        <c:axId val="176564480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6317,13 +6359,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175551232"/>
+        <c:crossAx val="176603904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175551232"/>
+        <c:axId val="176603904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6337,7 +6379,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175511808"/>
+        <c:crossAx val="176564480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6346,7 +6388,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6636,17 +6678,20 @@
                 <c:pt idx="37">
                   <c:v>8681</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>5233</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175562112"/>
-        <c:axId val="177570944"/>
+        <c:axId val="176614784"/>
+        <c:axId val="176776320"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="175562112"/>
+        <c:axId val="176614784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6654,13 +6699,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177570944"/>
+        <c:crossAx val="176776320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="177570944"/>
+        <c:axId val="176776320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6674,7 +6719,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175562112"/>
+        <c:crossAx val="176614784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6683,7 +6728,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6947,7 +6992,7 @@
                   <c:v>8958</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>9875</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -6958,8 +7003,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175924352"/>
-        <c:axId val="175922560"/>
+        <c:axId val="176710784"/>
+        <c:axId val="176708992"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7155,17 +7200,20 @@
                 <c:pt idx="32">
                   <c:v>0.12699505260532029</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.12958516086397426</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="175919488"/>
-        <c:axId val="175921024"/>
+        <c:axId val="176705920"/>
+        <c:axId val="176707456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="175919488"/>
+        <c:axId val="176705920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7183,13 +7231,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="175921024"/>
+        <c:crossAx val="176707456"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="175921024"/>
+        <c:axId val="176707456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7203,24 +7251,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175919488"/>
+        <c:crossAx val="176705920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="175922560"/>
+        <c:axId val="176708992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175924352"/>
+        <c:crossAx val="176710784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="175924352"/>
+        <c:axId val="176710784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7228,7 +7276,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="175922560"/>
+        <c:crossAx val="176708992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7243,7 +7291,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8312,10 +8360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H125"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E126" sqref="E126"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E135" sqref="E135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8994,81 +9042,45 @@
         <v>8958</v>
       </c>
     </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="21">
+        <v>43932</v>
+      </c>
+      <c r="C41" s="2">
+        <v>269598</v>
+      </c>
+      <c r="D41" s="2">
+        <v>78991</v>
+      </c>
+      <c r="E41" s="2">
+        <v>9875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>23</v>
+      </c>
+      <c r="B42" s="21">
+        <v>43933</v>
+      </c>
+    </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B43" s="21">
-        <v>43898</v>
-      </c>
-      <c r="C43" s="2">
-        <v>4509</v>
-      </c>
-      <c r="D43" s="2">
-        <v>99</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2">
-        <v>0</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>12</v>
+        <v>43934</v>
       </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B44" s="21">
-        <v>43899</v>
-      </c>
-      <c r="C44" s="2">
-        <v>4734</v>
-      </c>
-      <c r="D44" s="2">
-        <v>131</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" t="s">
-        <v>24</v>
-      </c>
-      <c r="B45" s="21">
-        <v>43900</v>
-      </c>
-      <c r="C45" s="2">
-        <v>5026</v>
-      </c>
-      <c r="D45" s="2">
-        <v>182</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" t="s">
-        <v>24</v>
-      </c>
-      <c r="B46" s="21">
-        <v>43901</v>
-      </c>
-      <c r="C46" s="2">
-        <v>5362</v>
-      </c>
-      <c r="D46" s="2">
-        <v>246</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
+        <v>43935</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -9076,16 +9088,22 @@
         <v>24</v>
       </c>
       <c r="B47" s="21">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="C47" s="2">
-        <v>5869</v>
+        <v>4509</v>
       </c>
       <c r="D47" s="2">
-        <v>361</v>
-      </c>
-      <c r="E47">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+      <c r="F47" s="2">
+        <v>0</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -9093,16 +9111,19 @@
         <v>24</v>
       </c>
       <c r="B48" s="21">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="C48" s="2">
-        <v>6582</v>
+        <v>4734</v>
       </c>
       <c r="D48" s="2">
-        <v>504</v>
+        <v>131</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="F48" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -9110,16 +9131,16 @@
         <v>24</v>
       </c>
       <c r="B49" s="21">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="C49" s="2">
-        <v>7467</v>
+        <v>5026</v>
       </c>
       <c r="D49" s="2">
-        <v>655</v>
+        <v>182</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -9127,16 +9148,16 @@
         <v>24</v>
       </c>
       <c r="B50" s="21">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="C50" s="2">
-        <v>8167</v>
+        <v>5362</v>
       </c>
       <c r="D50" s="2">
-        <v>860</v>
+        <v>246</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -9144,16 +9165,16 @@
         <v>24</v>
       </c>
       <c r="B51" s="21">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="C51" s="2">
-        <v>8490</v>
+        <v>5869</v>
       </c>
       <c r="D51" s="2">
-        <v>1016</v>
+        <v>361</v>
       </c>
       <c r="E51">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -9161,16 +9182,16 @@
         <v>24</v>
       </c>
       <c r="B52" s="21">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="C52" s="2">
-        <v>10278</v>
+        <v>6582</v>
       </c>
       <c r="D52" s="2">
-        <v>1332</v>
+        <v>504</v>
       </c>
       <c r="E52">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -9178,16 +9199,16 @@
         <v>24</v>
       </c>
       <c r="B53" s="21">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="C53" s="2">
-        <v>11977</v>
+        <v>7467</v>
       </c>
       <c r="D53" s="2">
-        <v>1646</v>
+        <v>655</v>
       </c>
       <c r="E53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -9195,16 +9216,16 @@
         <v>24</v>
       </c>
       <c r="B54" s="21">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="C54" s="2">
-        <v>13724</v>
+        <v>8167</v>
       </c>
       <c r="D54" s="2">
-        <v>2013</v>
+        <v>860</v>
       </c>
       <c r="E54">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -9212,16 +9233,16 @@
         <v>24</v>
       </c>
       <c r="B55" s="21">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="C55" s="2">
-        <v>15613</v>
+        <v>8490</v>
       </c>
       <c r="D55" s="2">
-        <v>2388</v>
+        <v>1016</v>
       </c>
       <c r="E55">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -9229,16 +9250,16 @@
         <v>24</v>
       </c>
       <c r="B56" s="21">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="C56" s="2">
-        <v>18545</v>
+        <v>10278</v>
       </c>
       <c r="D56" s="2">
-        <v>2814</v>
+        <v>1332</v>
       </c>
       <c r="E56">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -9246,16 +9267,16 @@
         <v>24</v>
       </c>
       <c r="B57" s="21">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="C57" s="2">
-        <v>21368</v>
+        <v>11977</v>
       </c>
       <c r="D57" s="2">
-        <v>3244</v>
+        <v>1646</v>
       </c>
       <c r="E57">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -9263,16 +9284,16 @@
         <v>24</v>
       </c>
       <c r="B58" s="21">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="C58" s="2">
-        <v>23429</v>
+        <v>13724</v>
       </c>
       <c r="D58" s="2">
-        <v>3924</v>
+        <v>2013</v>
       </c>
       <c r="E58">
-        <v>21</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -9280,16 +9301,16 @@
         <v>24</v>
       </c>
       <c r="B59" s="21">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C59" s="2">
-        <v>28391</v>
-      </c>
-      <c r="D59" s="3">
-        <v>4876</v>
+        <v>15613</v>
+      </c>
+      <c r="D59" s="2">
+        <v>2388</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -9297,16 +9318,16 @@
         <v>24</v>
       </c>
       <c r="B60" s="21">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="C60" s="2">
-        <v>32407</v>
+        <v>18545</v>
       </c>
       <c r="D60" s="2">
-        <v>5560</v>
+        <v>2814</v>
       </c>
       <c r="E60">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -9314,16 +9335,16 @@
         <v>24</v>
       </c>
       <c r="B61" s="21">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="C61" s="2">
-        <v>35995</v>
+        <v>21368</v>
       </c>
       <c r="D61" s="2">
-        <v>6398</v>
+        <v>3244</v>
       </c>
       <c r="E61">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -9331,16 +9352,16 @@
         <v>24</v>
       </c>
       <c r="B62" s="21">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="C62" s="2">
-        <v>39552</v>
+        <v>23429</v>
       </c>
       <c r="D62" s="2">
-        <v>7399</v>
+        <v>3924</v>
       </c>
       <c r="E62">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -9348,16 +9369,16 @@
         <v>24</v>
       </c>
       <c r="B63" s="21">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="C63" s="2">
-        <v>42750</v>
-      </c>
-      <c r="D63" s="2">
-        <v>7995</v>
+        <v>28391</v>
+      </c>
+      <c r="D63" s="3">
+        <v>4876</v>
       </c>
       <c r="E63">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -9365,16 +9386,16 @@
         <v>24</v>
       </c>
       <c r="B64" s="21">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="C64" s="2">
-        <v>46441</v>
+        <v>32407</v>
       </c>
       <c r="D64" s="2">
-        <v>8636</v>
+        <v>5560</v>
       </c>
       <c r="E64">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -9382,19 +9403,16 @@
         <v>24</v>
       </c>
       <c r="B65" s="21">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="C65" s="2">
-        <v>49455</v>
+        <v>35995</v>
       </c>
       <c r="D65" s="2">
-        <v>9377</v>
-      </c>
-      <c r="E65" s="2">
-        <v>108</v>
-      </c>
-      <c r="F65" s="2">
-        <v>636</v>
+        <v>6398</v>
+      </c>
+      <c r="E65">
+        <v>49</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -9402,19 +9420,16 @@
         <v>24</v>
       </c>
       <c r="B66" s="21">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="C66" s="2">
-        <v>52344</v>
+        <v>39552</v>
       </c>
       <c r="D66" s="2">
-        <v>9974</v>
-      </c>
-      <c r="E66" s="2">
-        <v>128</v>
-      </c>
-      <c r="F66" s="2">
-        <v>1095</v>
+        <v>7399</v>
+      </c>
+      <c r="E66">
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -9422,19 +9437,16 @@
         <v>24</v>
       </c>
       <c r="B67" s="21">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="C67" s="2">
-        <v>55863</v>
+        <v>42750</v>
       </c>
       <c r="D67" s="2">
-        <v>10482</v>
-      </c>
-      <c r="E67" s="2">
-        <v>146</v>
-      </c>
-      <c r="F67" s="2">
-        <v>1436</v>
+        <v>7995</v>
+      </c>
+      <c r="E67">
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -9442,22 +9454,16 @@
         <v>24</v>
       </c>
       <c r="B68" s="21">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="C68" s="2">
-        <v>92190</v>
+        <v>46441</v>
       </c>
       <c r="D68" s="2">
-        <v>10967</v>
-      </c>
-      <c r="E68" s="2">
-        <v>158</v>
-      </c>
-      <c r="F68" s="2">
-        <v>1749</v>
-      </c>
-      <c r="H68" t="s">
-        <v>26</v>
+        <v>8636</v>
+      </c>
+      <c r="E68">
+        <v>86</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -9465,19 +9471,19 @@
         <v>24</v>
       </c>
       <c r="B69" s="21">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="C69" s="2">
-        <v>98343</v>
+        <v>49455</v>
       </c>
       <c r="D69" s="2">
-        <v>11383</v>
+        <v>9377</v>
       </c>
       <c r="E69" s="2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="F69" s="2">
-        <v>2022</v>
+        <v>636</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -9485,19 +9491,19 @@
         <v>24</v>
       </c>
       <c r="B70" s="21">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="C70" s="2">
-        <v>104134</v>
+        <v>52344</v>
       </c>
       <c r="D70" s="2">
-        <v>11665</v>
+        <v>9974</v>
       </c>
       <c r="E70" s="2">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="F70" s="2">
-        <v>2507</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -9505,19 +9511,19 @@
         <v>24</v>
       </c>
       <c r="B71" s="21">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="C71" s="2">
-        <v>108416</v>
+        <v>55863</v>
       </c>
       <c r="D71" s="2">
-        <v>11907</v>
+        <v>10482</v>
       </c>
       <c r="E71" s="2">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="F71" s="2">
-        <v>2998</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -9525,19 +9531,22 @@
         <v>24</v>
       </c>
       <c r="B72" s="21">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="C72" s="2">
-        <v>111296</v>
+        <v>92190</v>
       </c>
       <c r="D72" s="2">
-        <v>12206</v>
+        <v>10967</v>
       </c>
       <c r="E72" s="2">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="F72" s="2">
-        <v>3463</v>
+        <v>1749</v>
+      </c>
+      <c r="H72" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -9545,19 +9554,19 @@
         <v>24</v>
       </c>
       <c r="B73" s="21">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C73" s="2">
-        <v>115235</v>
+        <v>98343</v>
       </c>
       <c r="D73" s="2">
-        <v>12519</v>
+        <v>11383</v>
       </c>
       <c r="E73" s="2">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="F73" s="2">
-        <v>4046</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -9565,19 +9574,19 @@
         <v>24</v>
       </c>
       <c r="B74" s="21">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="C74" s="2">
-        <v>120755</v>
+        <v>104134</v>
       </c>
       <c r="D74" s="2">
-        <v>12852</v>
+        <v>11665</v>
       </c>
       <c r="E74" s="2">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="F74" s="2">
-        <v>4512</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -9585,19 +9594,19 @@
         <v>24</v>
       </c>
       <c r="B75" s="21">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="C75" s="2">
-        <v>126287</v>
+        <v>108416</v>
       </c>
       <c r="D75" s="2">
-        <v>13138</v>
+        <v>11907</v>
       </c>
       <c r="E75" s="2">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="F75" s="2">
-        <v>5240</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -9605,328 +9614,316 @@
         <v>24</v>
       </c>
       <c r="B76" s="21">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C76" s="2">
-        <v>134743</v>
+        <v>111296</v>
       </c>
       <c r="D76" s="2">
-        <v>13492</v>
+        <v>12206</v>
       </c>
       <c r="E76" s="2">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="F76" s="2">
-        <v>5064</v>
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" t="s">
+        <v>24</v>
+      </c>
+      <c r="B77" s="21">
+        <v>43928</v>
+      </c>
+      <c r="C77" s="2">
+        <v>115235</v>
+      </c>
+      <c r="D77" s="2">
+        <v>12519</v>
+      </c>
+      <c r="E77" s="2">
+        <v>243</v>
+      </c>
+      <c r="F77" s="2">
+        <v>4046</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" t="s">
+        <v>24</v>
+      </c>
+      <c r="B78" s="21">
+        <v>43929</v>
+      </c>
+      <c r="C78" s="2">
+        <v>120755</v>
+      </c>
+      <c r="D78" s="2">
+        <v>12852</v>
+      </c>
+      <c r="E78" s="2">
+        <v>273</v>
+      </c>
+      <c r="F78" s="2">
+        <v>4512</v>
       </c>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B79" s="21">
-        <v>43885</v>
+        <v>43930</v>
       </c>
       <c r="C79" s="2">
-        <v>4324</v>
+        <v>126287</v>
       </c>
       <c r="D79" s="2">
-        <v>229</v>
+        <v>13138</v>
       </c>
       <c r="E79" s="2">
-        <v>7</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>17</v>
+        <v>295</v>
+      </c>
+      <c r="F79" s="2">
+        <v>5240</v>
       </c>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B80" s="21">
-        <v>43886</v>
+        <v>43931</v>
       </c>
       <c r="C80" s="2">
-        <v>8623</v>
+        <v>134743</v>
       </c>
       <c r="D80" s="2">
-        <v>322</v>
+        <v>13492</v>
       </c>
       <c r="E80" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>319</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B81" s="21">
-        <v>43887</v>
+        <v>43932</v>
       </c>
       <c r="C81" s="2">
-        <v>9587</v>
+        <v>140975</v>
       </c>
       <c r="D81" s="2">
-        <v>400</v>
+        <v>13776</v>
       </c>
       <c r="E81" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>337</v>
+      </c>
+      <c r="F81" s="2">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="21">
-        <v>43888</v>
-      </c>
-      <c r="C82" s="2">
-        <v>12014</v>
-      </c>
-      <c r="D82" s="2">
-        <v>650</v>
-      </c>
-      <c r="E82" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" s="21">
-        <v>43889</v>
-      </c>
-      <c r="C83" s="2">
-        <v>15695</v>
-      </c>
-      <c r="D83" s="2">
-        <v>888</v>
-      </c>
-      <c r="E83" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" s="21">
-        <v>43890</v>
-      </c>
-      <c r="C84" s="2">
-        <v>18661</v>
-      </c>
-      <c r="D84" s="2">
-        <v>1128</v>
-      </c>
-      <c r="E84" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B85" s="21">
-        <v>43891</v>
-      </c>
-      <c r="C85" s="2">
-        <v>21127</v>
-      </c>
-      <c r="D85" s="2">
-        <v>1694</v>
-      </c>
-      <c r="E85" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="21">
-        <v>43892</v>
-      </c>
-      <c r="C86" s="2">
-        <v>23345</v>
-      </c>
-      <c r="D86" s="2">
-        <v>2036</v>
-      </c>
-      <c r="E86" s="2">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>43935</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" t="s">
         <v>25</v>
       </c>
       <c r="B87" s="21">
-        <v>43893</v>
+        <v>43885</v>
       </c>
       <c r="C87" s="2">
-        <v>25856</v>
+        <v>4324</v>
       </c>
       <c r="D87" s="2">
-        <v>2502</v>
+        <v>229</v>
       </c>
       <c r="E87" s="2">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>7</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" t="s">
         <v>25</v>
       </c>
       <c r="B88" s="21">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="C88" s="2">
-        <v>29837</v>
+        <v>8623</v>
       </c>
       <c r="D88" s="2">
-        <v>3089</v>
+        <v>322</v>
       </c>
       <c r="E88" s="2">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" t="s">
         <v>25</v>
       </c>
       <c r="B89" s="21">
-        <v>43895</v>
+        <v>43887</v>
       </c>
       <c r="C89" s="2">
-        <v>32362</v>
+        <v>9587</v>
       </c>
       <c r="D89" s="2">
-        <v>3858</v>
+        <v>400</v>
       </c>
       <c r="E89" s="2">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" t="s">
         <v>25</v>
       </c>
       <c r="B90" s="21">
-        <v>43896</v>
+        <v>43888</v>
       </c>
       <c r="C90" s="2">
-        <v>36359</v>
+        <v>12014</v>
       </c>
       <c r="D90" s="2">
-        <v>4636</v>
+        <v>650</v>
       </c>
       <c r="E90" s="2">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" t="s">
         <v>25</v>
       </c>
       <c r="B91" s="21">
-        <v>43897</v>
+        <v>43889</v>
       </c>
       <c r="C91" s="2">
-        <v>42062</v>
+        <v>15695</v>
       </c>
       <c r="D91" s="2">
-        <v>5883</v>
+        <v>888</v>
       </c>
       <c r="E91" s="2">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" t="s">
         <v>25</v>
       </c>
       <c r="B92" s="21">
-        <v>43898</v>
+        <v>43890</v>
       </c>
       <c r="C92" s="2">
-        <v>49937</v>
+        <v>18661</v>
       </c>
       <c r="D92" s="2">
-        <v>7375</v>
+        <v>1128</v>
       </c>
       <c r="E92" s="2">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" t="s">
         <v>25</v>
       </c>
       <c r="B93" s="21">
-        <v>43899</v>
+        <v>43891</v>
       </c>
       <c r="C93" s="2">
-        <v>53826</v>
+        <v>21127</v>
       </c>
       <c r="D93" s="2">
-        <v>9172</v>
+        <v>1694</v>
       </c>
       <c r="E93" s="2">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" t="s">
         <v>25</v>
       </c>
       <c r="B94" s="21">
-        <v>43900</v>
+        <v>43892</v>
       </c>
       <c r="C94" s="2">
-        <v>60761</v>
+        <v>23345</v>
       </c>
       <c r="D94" s="2">
-        <v>10149</v>
+        <v>2036</v>
       </c>
       <c r="E94" s="2">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" t="s">
         <v>25</v>
       </c>
       <c r="B95" s="21">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="C95" s="2">
-        <v>73154</v>
+        <v>25856</v>
       </c>
       <c r="D95" s="2">
-        <v>12462</v>
+        <v>2502</v>
       </c>
       <c r="E95" s="2">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" t="s">
         <v>25</v>
       </c>
       <c r="B96" s="21">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="C96" s="2">
-        <v>86011</v>
+        <v>29837</v>
       </c>
       <c r="D96" s="2">
-        <v>15113</v>
+        <v>3089</v>
       </c>
       <c r="E96" s="2">
-        <v>1016</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -9934,16 +9931,16 @@
         <v>25</v>
       </c>
       <c r="B97" s="21">
-        <v>43903</v>
+        <v>43895</v>
       </c>
       <c r="C97" s="2">
-        <v>97488</v>
+        <v>32362</v>
       </c>
       <c r="D97" s="2">
-        <v>17660</v>
+        <v>3858</v>
       </c>
       <c r="E97" s="2">
-        <v>1266</v>
+        <v>148</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -9951,16 +9948,16 @@
         <v>25</v>
       </c>
       <c r="B98" s="21">
-        <v>43904</v>
+        <v>43896</v>
       </c>
       <c r="C98" s="2">
-        <v>109170</v>
+        <v>36359</v>
       </c>
       <c r="D98" s="2">
-        <v>21157</v>
+        <v>4636</v>
       </c>
       <c r="E98" s="2">
-        <v>1441</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -9968,16 +9965,16 @@
         <v>25</v>
       </c>
       <c r="B99" s="21">
-        <v>43905</v>
+        <v>43897</v>
       </c>
       <c r="C99" s="2">
-        <v>124899</v>
+        <v>42062</v>
       </c>
       <c r="D99" s="2">
-        <v>24747</v>
+        <v>5883</v>
       </c>
       <c r="E99" s="2">
-        <v>1809</v>
+        <v>233</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -9985,16 +9982,16 @@
         <v>25</v>
       </c>
       <c r="B100" s="21">
-        <v>43906</v>
+        <v>43898</v>
       </c>
       <c r="C100" s="2">
-        <v>137962</v>
+        <v>49937</v>
       </c>
       <c r="D100" s="2">
-        <v>27980</v>
+        <v>7375</v>
       </c>
       <c r="E100" s="2">
-        <v>2158</v>
+        <v>366</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -10002,16 +9999,16 @@
         <v>25</v>
       </c>
       <c r="B101" s="21">
-        <v>43907</v>
+        <v>43899</v>
       </c>
       <c r="C101" s="2">
-        <v>148657</v>
+        <v>53826</v>
       </c>
       <c r="D101" s="2">
-        <v>31506</v>
+        <v>9172</v>
       </c>
       <c r="E101" s="2">
-        <v>2503</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -10019,16 +10016,16 @@
         <v>25</v>
       </c>
       <c r="B102" s="21">
-        <v>43908</v>
+        <v>43900</v>
       </c>
       <c r="C102" s="2">
-        <v>165541</v>
+        <v>60761</v>
       </c>
       <c r="D102" s="2">
-        <v>35713</v>
+        <v>10149</v>
       </c>
       <c r="E102" s="2">
-        <v>2978</v>
+        <v>631</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -10036,16 +10033,16 @@
         <v>25</v>
       </c>
       <c r="B103" s="21">
-        <v>43909</v>
+        <v>43901</v>
       </c>
       <c r="C103" s="2">
-        <v>182777</v>
+        <v>73154</v>
       </c>
       <c r="D103" s="2">
-        <v>41035</v>
+        <v>12462</v>
       </c>
       <c r="E103" s="2">
-        <v>3405</v>
+        <v>827</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -10053,16 +10050,16 @@
         <v>25</v>
       </c>
       <c r="B104" s="21">
-        <v>43910</v>
+        <v>43902</v>
       </c>
       <c r="C104" s="2">
-        <v>206886</v>
+        <v>86011</v>
       </c>
       <c r="D104" s="2">
-        <v>47021</v>
+        <v>15113</v>
       </c>
       <c r="E104" s="2">
-        <v>4032</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -10070,16 +10067,16 @@
         <v>25</v>
       </c>
       <c r="B105" s="21">
-        <v>43911</v>
+        <v>43903</v>
       </c>
       <c r="C105" s="2">
-        <v>233222</v>
+        <v>97488</v>
       </c>
       <c r="D105" s="2">
-        <v>53578</v>
+        <v>17660</v>
       </c>
       <c r="E105" s="2">
-        <v>4825</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -10087,16 +10084,16 @@
         <v>25</v>
       </c>
       <c r="B106" s="21">
-        <v>43912</v>
+        <v>43904</v>
       </c>
       <c r="C106" s="2">
-        <v>258402</v>
+        <v>109170</v>
       </c>
       <c r="D106" s="2">
-        <v>59138</v>
+        <v>21157</v>
       </c>
       <c r="E106" s="2">
-        <v>5476</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -10104,16 +10101,16 @@
         <v>25</v>
       </c>
       <c r="B107" s="21">
-        <v>43913</v>
+        <v>43905</v>
       </c>
       <c r="C107" s="2">
-        <v>275468</v>
+        <v>124899</v>
       </c>
       <c r="D107" s="2">
-        <v>63927</v>
+        <v>24747</v>
       </c>
       <c r="E107" s="2">
-        <v>6077</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -10121,16 +10118,16 @@
         <v>25</v>
       </c>
       <c r="B108" s="21">
-        <v>43914</v>
+        <v>43906</v>
       </c>
       <c r="C108" s="2">
-        <v>296964</v>
+        <v>137962</v>
       </c>
       <c r="D108" s="2">
-        <v>69176</v>
+        <v>27980</v>
       </c>
       <c r="E108" s="2">
-        <v>6820</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -10138,16 +10135,16 @@
         <v>25</v>
       </c>
       <c r="B109" s="21">
-        <v>43915</v>
+        <v>43907</v>
       </c>
       <c r="C109" s="2">
-        <v>324445</v>
+        <v>148657</v>
       </c>
       <c r="D109" s="2">
-        <v>74386</v>
+        <v>31506</v>
       </c>
       <c r="E109" s="2">
-        <v>7503</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -10155,16 +10152,16 @@
         <v>25</v>
       </c>
       <c r="B110" s="21">
-        <v>43916</v>
+        <v>43908</v>
       </c>
       <c r="C110" s="2">
-        <v>361060</v>
+        <v>165541</v>
       </c>
       <c r="D110" s="2">
-        <v>80539</v>
+        <v>35713</v>
       </c>
       <c r="E110" s="2">
-        <v>8165</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -10172,16 +10169,16 @@
         <v>25</v>
       </c>
       <c r="B111" s="21">
-        <v>43917</v>
+        <v>43909</v>
       </c>
       <c r="C111" s="2">
-        <v>394079</v>
+        <v>182777</v>
       </c>
       <c r="D111" s="2">
-        <v>86498</v>
+        <v>41035</v>
       </c>
       <c r="E111" s="2">
-        <v>9134</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -10189,16 +10186,16 @@
         <v>25</v>
       </c>
       <c r="B112" s="21">
-        <v>43918</v>
+        <v>43910</v>
       </c>
       <c r="C112" s="2">
-        <v>429526</v>
+        <v>206886</v>
       </c>
       <c r="D112" s="2">
-        <v>92472</v>
+        <v>47021</v>
       </c>
       <c r="E112" s="2">
-        <v>10023</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -10206,16 +10203,16 @@
         <v>25</v>
       </c>
       <c r="B113" s="21">
-        <v>43919</v>
+        <v>43911</v>
       </c>
       <c r="C113" s="2">
-        <v>454030</v>
+        <v>233222</v>
       </c>
       <c r="D113" s="2">
-        <v>97689</v>
+        <v>53578</v>
       </c>
       <c r="E113" s="2">
-        <v>10779</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -10223,16 +10220,16 @@
         <v>25</v>
       </c>
       <c r="B114" s="21">
-        <v>43920</v>
+        <v>43912</v>
       </c>
       <c r="C114" s="2">
-        <v>477359</v>
+        <v>258402</v>
       </c>
       <c r="D114" s="2">
-        <v>101739</v>
+        <v>59138</v>
       </c>
       <c r="E114" s="2">
-        <v>11591</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -10240,16 +10237,16 @@
         <v>25</v>
       </c>
       <c r="B115" s="21">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="C115" s="2">
-        <v>506968</v>
+        <v>275468</v>
       </c>
       <c r="D115" s="2">
-        <v>105972</v>
+        <v>63927</v>
       </c>
       <c r="E115" s="2">
-        <v>12428</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -10257,16 +10254,16 @@
         <v>25</v>
       </c>
       <c r="B116" s="21">
-        <v>43922</v>
+        <v>43914</v>
       </c>
       <c r="C116" s="2">
-        <v>541423</v>
+        <v>296964</v>
       </c>
       <c r="D116" s="2">
-        <v>110574</v>
+        <v>69176</v>
       </c>
       <c r="E116" s="2">
-        <v>13155</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -10274,16 +10271,16 @@
         <v>25</v>
       </c>
       <c r="B117" s="21">
-        <v>43923</v>
+        <v>43915</v>
       </c>
       <c r="C117" s="2">
-        <v>581232</v>
+        <v>324445</v>
       </c>
       <c r="D117" s="2">
-        <v>115242</v>
+        <v>74386</v>
       </c>
       <c r="E117" s="2">
-        <v>13915</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -10291,16 +10288,16 @@
         <v>25</v>
       </c>
       <c r="B118" s="21">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="C118" s="2">
-        <v>619849</v>
+        <v>361060</v>
       </c>
       <c r="D118" s="2">
-        <v>119827</v>
+        <v>80539</v>
       </c>
       <c r="E118" s="2">
-        <v>14681</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -10308,16 +10305,16 @@
         <v>25</v>
       </c>
       <c r="B119" s="21">
-        <v>43925</v>
+        <v>43917</v>
       </c>
       <c r="C119" s="2">
-        <v>657224</v>
+        <v>394079</v>
       </c>
       <c r="D119" s="2">
-        <v>124632</v>
+        <v>86498</v>
       </c>
       <c r="E119" s="2">
-        <v>15362</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -10325,16 +10322,16 @@
         <v>25</v>
       </c>
       <c r="B120" s="21">
-        <v>43926</v>
+        <v>43918</v>
       </c>
       <c r="C120" s="2">
-        <v>691461</v>
+        <v>429526</v>
       </c>
       <c r="D120" s="2">
-        <v>128948</v>
+        <v>92472</v>
       </c>
       <c r="E120" s="2">
-        <v>15887</v>
+        <v>10023</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -10342,16 +10339,16 @@
         <v>25</v>
       </c>
       <c r="B121" s="21">
-        <v>43927</v>
+        <v>43919</v>
       </c>
       <c r="C121" s="2">
-        <v>721732</v>
+        <v>454030</v>
       </c>
       <c r="D121" s="2">
-        <v>132547</v>
+        <v>97689</v>
       </c>
       <c r="E121" s="2">
-        <v>16523</v>
+        <v>10779</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -10359,16 +10356,16 @@
         <v>25</v>
       </c>
       <c r="B122" s="21">
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="C122" s="2">
-        <v>755445</v>
+        <v>477359</v>
       </c>
       <c r="D122" s="2">
-        <v>135586</v>
+        <v>101739</v>
       </c>
       <c r="E122" s="2">
-        <v>17127</v>
+        <v>11591</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -10376,16 +10373,16 @@
         <v>25</v>
       </c>
       <c r="B123" s="21">
-        <v>43929</v>
+        <v>43921</v>
       </c>
       <c r="C123" s="2">
-        <v>807125</v>
+        <v>506968</v>
       </c>
       <c r="D123" s="2">
-        <v>139422</v>
+        <v>105972</v>
       </c>
       <c r="E123" s="2">
-        <v>17669</v>
+        <v>12428</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -10393,16 +10390,16 @@
         <v>25</v>
       </c>
       <c r="B124" s="21">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="C124" s="2">
-        <v>853369</v>
+        <v>541423</v>
       </c>
       <c r="D124" s="2">
-        <v>143626</v>
+        <v>110574</v>
       </c>
       <c r="E124" s="2">
-        <v>18279</v>
+        <v>13155</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -10410,23 +10407,200 @@
         <v>25</v>
       </c>
       <c r="B125" s="21">
+        <v>43923</v>
+      </c>
+      <c r="C125" s="2">
+        <v>581232</v>
+      </c>
+      <c r="D125" s="2">
+        <v>115242</v>
+      </c>
+      <c r="E125" s="2">
+        <v>13915</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="21">
+        <v>43924</v>
+      </c>
+      <c r="C126" s="2">
+        <v>619849</v>
+      </c>
+      <c r="D126" s="2">
+        <v>119827</v>
+      </c>
+      <c r="E126" s="2">
+        <v>14681</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="21">
+        <v>43925</v>
+      </c>
+      <c r="C127" s="2">
+        <v>657224</v>
+      </c>
+      <c r="D127" s="2">
+        <v>124632</v>
+      </c>
+      <c r="E127" s="2">
+        <v>15362</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="21">
+        <v>43926</v>
+      </c>
+      <c r="C128" s="2">
+        <v>691461</v>
+      </c>
+      <c r="D128" s="2">
+        <v>128948</v>
+      </c>
+      <c r="E128" s="2">
+        <v>15887</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="21">
+        <v>43927</v>
+      </c>
+      <c r="C129" s="2">
+        <v>721732</v>
+      </c>
+      <c r="D129" s="2">
+        <v>132547</v>
+      </c>
+      <c r="E129" s="2">
+        <v>16523</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="21">
+        <v>43928</v>
+      </c>
+      <c r="C130" s="2">
+        <v>755445</v>
+      </c>
+      <c r="D130" s="2">
+        <v>135586</v>
+      </c>
+      <c r="E130" s="2">
+        <v>17127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" t="s">
+        <v>25</v>
+      </c>
+      <c r="B131" s="21">
+        <v>43929</v>
+      </c>
+      <c r="C131" s="2">
+        <v>807125</v>
+      </c>
+      <c r="D131" s="2">
+        <v>139422</v>
+      </c>
+      <c r="E131" s="2">
+        <v>17669</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" t="s">
+        <v>25</v>
+      </c>
+      <c r="B132" s="21">
+        <v>43930</v>
+      </c>
+      <c r="C132" s="2">
+        <v>853369</v>
+      </c>
+      <c r="D132" s="2">
+        <v>143626</v>
+      </c>
+      <c r="E132" s="2">
+        <v>18279</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" t="s">
+        <v>25</v>
+      </c>
+      <c r="B133" s="21">
         <v>43931</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C133" s="2">
         <v>906864</v>
       </c>
-      <c r="D125" s="2">
+      <c r="D133" s="2">
         <v>147577</v>
       </c>
-      <c r="E125" s="2">
+      <c r="E133" s="2">
         <v>18849</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" t="s">
+        <v>25</v>
+      </c>
+      <c r="B134" s="21">
+        <v>43932</v>
+      </c>
+      <c r="C134" s="2">
+        <v>963473</v>
+      </c>
+      <c r="D134" s="2">
+        <v>152271</v>
+      </c>
+      <c r="E134" s="2">
+        <v>19468</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" t="s">
+        <v>25</v>
+      </c>
+      <c r="B135" s="21">
+        <v>43933</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" t="s">
+        <v>25</v>
+      </c>
+      <c r="B136" s="21">
+        <v>43934</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" t="s">
+        <v>25</v>
+      </c>
+      <c r="B137" s="21">
+        <v>43935</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H43" r:id="rId1"/>
+    <hyperlink ref="H47" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H79" r:id="rId3"/>
+    <hyperlink ref="H87" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -10439,7 +10613,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10549,11 +10723,11 @@
         <v>43899</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C44</f>
+        <f>Data!C48</f>
         <v>4734</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D44</f>
+        <f>Data!D48</f>
         <v>131</v>
       </c>
       <c r="H6" s="3">
@@ -10561,7 +10735,7 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <f>Data!E44</f>
+        <f>Data!E48</f>
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
@@ -10572,7 +10746,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C45</f>
+        <f>Data!C49</f>
         <v>5026</v>
       </c>
       <c r="D7" s="2">
@@ -10584,7 +10758,7 @@
         <v>0.17465753424657535</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D45</f>
+        <f>Data!D49</f>
         <v>182</v>
       </c>
       <c r="H7" s="3">
@@ -10596,7 +10770,7 @@
         <v>0.38931297709923673</v>
       </c>
       <c r="L7">
-        <f>Data!E45</f>
+        <f>Data!E49</f>
         <v>0</v>
       </c>
       <c r="M7">
@@ -10611,7 +10785,7 @@
         <v>43901</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C46</f>
+        <f>Data!C50</f>
         <v>5362</v>
       </c>
       <c r="D8" s="2">
@@ -10623,7 +10797,7 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D46</f>
+        <f>Data!D50</f>
         <v>246</v>
       </c>
       <c r="H8" s="3">
@@ -10635,7 +10809,7 @@
         <v>0.35164835164835173</v>
       </c>
       <c r="L8">
-        <f>Data!E46</f>
+        <f>Data!E50</f>
         <v>0</v>
       </c>
       <c r="M8">
@@ -10650,7 +10824,7 @@
         <v>43902</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C47</f>
+        <f>Data!C51</f>
         <v>5869</v>
       </c>
       <c r="D9" s="2">
@@ -10662,7 +10836,7 @@
         <v>0.22682445759368836</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D47</f>
+        <f>Data!D51</f>
         <v>361</v>
       </c>
       <c r="H9" s="3">
@@ -10674,7 +10848,7 @@
         <v>0.46747967479674801</v>
       </c>
       <c r="L9">
-        <f>Data!E47</f>
+        <f>Data!E51</f>
         <v>1</v>
       </c>
       <c r="M9">
@@ -10691,7 +10865,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C48</f>
+        <f>Data!C52</f>
         <v>6582</v>
       </c>
       <c r="D10" s="2">
@@ -10703,7 +10877,7 @@
         <v>0.2005610098176718</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D48</f>
+        <f>Data!D52</f>
         <v>504</v>
       </c>
       <c r="H10" s="3">
@@ -10715,7 +10889,7 @@
         <v>0.39612188365650969</v>
       </c>
       <c r="L10">
-        <f>Data!E48</f>
+        <f>Data!E52</f>
         <v>1</v>
       </c>
       <c r="M10">
@@ -10733,7 +10907,7 @@
         <v>43904</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C49</f>
+        <f>Data!C53</f>
         <v>7467</v>
       </c>
       <c r="D11" s="2">
@@ -10745,7 +10919,7 @@
         <v>0.17062146892655367</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D49</f>
+        <f>Data!D53</f>
         <v>655</v>
       </c>
       <c r="H11" s="3">
@@ -10761,7 +10935,7 @@
         <v>0.38083321236080414</v>
       </c>
       <c r="L11">
-        <f>Data!E49</f>
+        <f>Data!E53</f>
         <v>1</v>
       </c>
       <c r="M11">
@@ -10779,7 +10953,7 @@
         <v>43905</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C50</f>
+        <f>Data!C54</f>
         <v>8167</v>
       </c>
       <c r="D12" s="2">
@@ -10791,7 +10965,7 @@
         <v>0.29285714285714287</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D50</f>
+        <f>Data!D54</f>
         <v>860</v>
       </c>
       <c r="H12" s="3">
@@ -10807,7 +10981,7 @@
         <v>0.36556603678828503</v>
       </c>
       <c r="L12">
-        <f>Data!E50</f>
+        <f>Data!E54</f>
         <v>1</v>
       </c>
       <c r="M12">
@@ -10828,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C51</f>
+        <f>Data!C55</f>
         <v>8490</v>
       </c>
       <c r="D13" s="2">
@@ -10840,7 +11014,7 @@
         <v>0.48297213622291024</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D51</f>
+        <f>Data!D55</f>
         <v>1016</v>
       </c>
       <c r="H13" s="3">
@@ -10856,7 +11030,7 @@
         <v>0.33151543622605656</v>
       </c>
       <c r="L13">
-        <f>Data!E51</f>
+        <f>Data!E55</f>
         <v>3</v>
       </c>
       <c r="M13">
@@ -10880,7 +11054,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C52</f>
+        <f>Data!C56</f>
         <v>10278</v>
       </c>
       <c r="D14" s="2">
@@ -10892,7 +11066,7 @@
         <v>0.1767337807606264</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D52</f>
+        <f>Data!D56</f>
         <v>1332</v>
       </c>
       <c r="H14" s="3">
@@ -10908,7 +11082,7 @@
         <v>0.30022422567615575</v>
       </c>
       <c r="L14">
-        <f>Data!E52</f>
+        <f>Data!E56</f>
         <v>3</v>
       </c>
       <c r="M14">
@@ -10932,7 +11106,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C53</f>
+        <f>Data!C57</f>
         <v>11977</v>
       </c>
       <c r="D15" s="2">
@@ -10944,7 +11118,7 @@
         <v>0.18481459682165979</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D53</f>
+        <f>Data!D57</f>
         <v>1646</v>
       </c>
       <c r="H15" s="3">
@@ -10960,7 +11134,7 @@
         <v>0.26814699609200099</v>
       </c>
       <c r="L15">
-        <f>Data!E53</f>
+        <f>Data!E57</f>
         <v>4</v>
       </c>
       <c r="M15">
@@ -10984,7 +11158,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C54</f>
+        <f>Data!C58</f>
         <v>13724</v>
       </c>
       <c r="D16" s="2">
@@ -10996,7 +11170,7 @@
         <v>0.21007441327990842</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D54</f>
+        <f>Data!D58</f>
         <v>2013</v>
       </c>
       <c r="H16" s="3">
@@ -11012,7 +11186,7 @@
         <v>0.25281931378375971</v>
       </c>
       <c r="L16">
-        <f>Data!E54</f>
+        <f>Data!E58</f>
         <v>6</v>
       </c>
       <c r="M16">
@@ -11036,7 +11210,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C55</f>
+        <f>Data!C59</f>
         <v>15613</v>
       </c>
       <c r="D17" s="2">
@@ -11048,7 +11222,7 @@
         <v>0.19851773425092642</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D55</f>
+        <f>Data!D59</f>
         <v>2388</v>
       </c>
       <c r="H17" s="3">
@@ -11064,7 +11238,7 @@
         <v>0.22748171807950154</v>
       </c>
       <c r="L17">
-        <f>Data!E55</f>
+        <f>Data!E59</f>
         <v>6</v>
       </c>
       <c r="M17">
@@ -11088,7 +11262,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C56</f>
+        <f>Data!C60</f>
         <v>18545</v>
       </c>
       <c r="D18" s="2">
@@ -11100,7 +11274,7 @@
         <v>0.14529331514324692</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D56</f>
+        <f>Data!D60</f>
         <v>2814</v>
       </c>
       <c r="H18" s="3">
@@ -11116,7 +11290,7 @@
         <v>0.22688104027185868</v>
       </c>
       <c r="L18">
-        <f>Data!E56</f>
+        <f>Data!E60</f>
         <v>8</v>
       </c>
       <c r="M18">
@@ -11140,7 +11314,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C57</f>
+        <f>Data!C61</f>
         <v>21368</v>
       </c>
       <c r="D19" s="2">
@@ -11152,7 +11326,7 @@
         <v>0.15232022670917464</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D57</f>
+        <f>Data!D61</f>
         <v>3244</v>
       </c>
       <c r="H19" s="3">
@@ -11168,7 +11342,7 @@
         <v>0.19523779418508219</v>
       </c>
       <c r="L19">
-        <f>Data!E57</f>
+        <f>Data!E61</f>
         <v>16</v>
       </c>
       <c r="M19">
@@ -11192,7 +11366,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C58</f>
+        <f>Data!C62</f>
         <v>23429</v>
       </c>
       <c r="D20" s="2">
@@ -11204,7 +11378,7 @@
         <v>0.32993692382338669</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D58</f>
+        <f>Data!D62</f>
         <v>3924</v>
       </c>
       <c r="H20" s="3">
@@ -11220,7 +11394,7 @@
         <v>0.19001419820932841</v>
       </c>
       <c r="L20">
-        <f>Data!E58</f>
+        <f>Data!E62</f>
         <v>21</v>
       </c>
       <c r="M20">
@@ -11244,7 +11418,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C59</f>
+        <f>Data!C63</f>
         <v>28391</v>
       </c>
       <c r="D21" s="2">
@@ -11256,7 +11430,7 @@
         <v>0.19185812172511085</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D59</f>
+        <f>Data!D63</f>
         <v>4876</v>
       </c>
       <c r="H21" s="3">
@@ -11272,7 +11446,7 @@
         <v>0.19394316200875941</v>
       </c>
       <c r="L21">
-        <f>Data!E59</f>
+        <f>Data!E63</f>
         <v>28</v>
       </c>
       <c r="M21">
@@ -11296,7 +11470,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C60</f>
+        <f>Data!C64</f>
         <v>32407</v>
       </c>
       <c r="D22" s="2">
@@ -11308,7 +11482,7 @@
         <v>0.17031872509960158</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D60</f>
+        <f>Data!D64</f>
         <v>5560</v>
       </c>
       <c r="H22" s="3">
@@ -11324,7 +11498,7 @@
         <v>0.18474112129472955</v>
       </c>
       <c r="L22">
-        <f>Data!E60</f>
+        <f>Data!E64</f>
         <v>31</v>
       </c>
       <c r="M22">
@@ -11348,7 +11522,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C61</f>
+        <f>Data!C65</f>
         <v>35995</v>
       </c>
       <c r="D23" s="2">
@@ -11360,7 +11534,7 @@
         <v>0.23355629877369008</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D61</f>
+        <f>Data!D65</f>
         <v>6398</v>
       </c>
       <c r="H23" s="3">
@@ -11376,7 +11550,7 @@
         <v>0.17920661422701692</v>
       </c>
       <c r="L23">
-        <f>Data!E61</f>
+        <f>Data!E65</f>
         <v>49</v>
       </c>
       <c r="M23">
@@ -11400,7 +11574,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C62</f>
+        <f>Data!C66</f>
         <v>39552</v>
       </c>
       <c r="D24" s="2">
@@ -11412,7 +11586,7 @@
         <v>0.28141692437447285</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D62</f>
+        <f>Data!D66</f>
         <v>7399</v>
       </c>
       <c r="H24" s="3">
@@ -11428,7 +11602,7 @@
         <v>0.17993616435073409</v>
       </c>
       <c r="L24">
-        <f>Data!E62</f>
+        <f>Data!E66</f>
         <v>58</v>
       </c>
       <c r="M24">
@@ -11452,7 +11626,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C63</f>
+        <f>Data!C67</f>
         <v>42750</v>
       </c>
       <c r="D25" s="2">
@@ -11464,7 +11638,7 @@
         <v>0.18636647904940587</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D63</f>
+        <f>Data!D67</f>
         <v>7995</v>
       </c>
       <c r="H25" s="3">
@@ -11480,7 +11654,7 @@
         <v>0.15412289835301288</v>
       </c>
       <c r="L25">
-        <f>Data!E63</f>
+        <f>Data!E67</f>
         <v>68</v>
       </c>
       <c r="M25">
@@ -11504,7 +11678,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C64</f>
+        <f>Data!C68</f>
         <v>46441</v>
       </c>
       <c r="D26" s="2">
@@ -11516,7 +11690,7 @@
         <v>0.17366567325927934</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D64</f>
+        <f>Data!D68</f>
         <v>8636</v>
       </c>
       <c r="H26" s="3">
@@ -11532,7 +11706,7 @@
         <v>0.12163600382986864</v>
       </c>
       <c r="L26">
-        <f>Data!E64</f>
+        <f>Data!E68</f>
         <v>86</v>
       </c>
       <c r="M26">
@@ -11556,7 +11730,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C65</f>
+        <f>Data!C69</f>
         <v>49455</v>
       </c>
       <c r="D27" s="2">
@@ -11568,7 +11742,7 @@
         <v>0.24585268745852687</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D65</f>
+        <f>Data!D69</f>
         <v>9377</v>
       </c>
       <c r="H27" s="3">
@@ -11584,7 +11758,7 @@
         <v>0.11074094295756765</v>
       </c>
       <c r="L27">
-        <f>Data!E65</f>
+        <f>Data!E69</f>
         <v>108</v>
       </c>
       <c r="M27">
@@ -11608,7 +11782,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C66</f>
+        <f>Data!C70</f>
         <v>52344</v>
       </c>
       <c r="D28" s="2">
@@ -11620,7 +11794,7 @@
         <v>0.2066458982346833</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D66</f>
+        <f>Data!D70</f>
         <v>9974</v>
       </c>
       <c r="H28" s="3">
@@ -11636,7 +11810,7 @@
         <v>9.3330341631653851E-2</v>
       </c>
       <c r="L28">
-        <f>Data!E66</f>
+        <f>Data!E70</f>
         <v>128</v>
       </c>
       <c r="M28">
@@ -11660,7 +11834,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C67</f>
+        <f>Data!C71</f>
         <v>55863</v>
       </c>
       <c r="D29" s="2">
@@ -11672,7 +11846,7 @@
         <v>0.14435919295254335</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D67</f>
+        <f>Data!D71</f>
         <v>10482</v>
       </c>
       <c r="H29" s="3">
@@ -11688,7 +11862,7 @@
         <v>7.2225798045902012E-2</v>
       </c>
       <c r="L29">
-        <f>Data!E67</f>
+        <f>Data!E71</f>
         <v>146</v>
       </c>
       <c r="M29">
@@ -11712,7 +11886,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C68</f>
+        <f>Data!C72</f>
         <v>92190</v>
       </c>
       <c r="D30" s="2">
@@ -11724,7 +11898,7 @@
         <v>1.335095108321634E-2</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D68</f>
+        <f>Data!D72</f>
         <v>10967</v>
       </c>
       <c r="H30" s="3">
@@ -11740,7 +11914,7 @@
         <v>6.5369472040327586E-2</v>
       </c>
       <c r="L30">
-        <f>Data!E68</f>
+        <f>Data!E72</f>
         <v>158</v>
       </c>
       <c r="M30">
@@ -11764,7 +11938,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C69</f>
+        <f>Data!C73</f>
         <v>98343</v>
       </c>
       <c r="D31" s="2">
@@ -11776,7 +11950,7 @@
         <v>6.7609296278238251E-2</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D69</f>
+        <f>Data!D73</f>
         <v>11383</v>
       </c>
       <c r="H31" s="3">
@@ -11792,7 +11966,7 @@
         <v>5.6920845701934383E-2</v>
       </c>
       <c r="L31">
-        <f>Data!E69</f>
+        <f>Data!E73</f>
         <v>168</v>
       </c>
       <c r="M31">
@@ -11816,7 +11990,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C70</f>
+        <f>Data!C74</f>
         <v>104134</v>
       </c>
       <c r="D32" s="2">
@@ -11828,7 +12002,7 @@
         <v>4.8696252806078401E-2</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D70</f>
+        <f>Data!D74</f>
         <v>11665</v>
       </c>
       <c r="H32" s="3">
@@ -11844,7 +12018,7 @@
         <v>4.4714880239107122E-2</v>
       </c>
       <c r="L32">
-        <f>Data!E70</f>
+        <f>Data!E74</f>
         <v>186</v>
       </c>
       <c r="M32">
@@ -11868,7 +12042,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C71</f>
+        <f>Data!C75</f>
         <v>108416</v>
       </c>
       <c r="D33" s="2">
@@ -11880,7 +12054,7 @@
         <v>5.6515646893974779E-2</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D71</f>
+        <f>Data!D75</f>
         <v>11907</v>
       </c>
       <c r="H33" s="3">
@@ -11896,7 +12070,7 @@
         <v>3.6130760839244047E-2</v>
       </c>
       <c r="L33">
-        <f>Data!E71</f>
+        <f>Data!E75</f>
         <v>204</v>
       </c>
       <c r="M33">
@@ -11920,7 +12094,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="2">
-        <f>Data!C72</f>
+        <f>Data!C76</f>
         <v>111296</v>
       </c>
       <c r="D34" s="2">
@@ -11932,7 +12106,7 @@
         <v>0.10381944444444445</v>
       </c>
       <c r="G34" s="2">
-        <f>Data!D72</f>
+        <f>Data!D76</f>
         <v>12206</v>
       </c>
       <c r="H34" s="3">
@@ -11948,7 +12122,7 @@
         <v>3.0966531794513009E-2</v>
       </c>
       <c r="L34">
-        <f>Data!E72</f>
+        <f>Data!E76</f>
         <v>220</v>
       </c>
       <c r="M34">
@@ -11972,7 +12146,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <f>Data!C73</f>
+        <f>Data!C77</f>
         <v>115235</v>
       </c>
       <c r="D35" s="2">
@@ -11984,7 +12158,7 @@
         <v>7.9461792333079456E-2</v>
       </c>
       <c r="G35" s="2">
-        <f>Data!D73</f>
+        <f>Data!D77</f>
         <v>12519</v>
       </c>
       <c r="H35" s="3">
@@ -12000,7 +12174,7 @@
         <v>2.6841197892677783E-2</v>
       </c>
       <c r="L35">
-        <f>Data!E73</f>
+        <f>Data!E77</f>
         <v>243</v>
       </c>
       <c r="M35">
@@ -12024,7 +12198,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="2">
-        <f>Data!C74</f>
+        <f>Data!C78</f>
         <v>120755</v>
       </c>
       <c r="D36" s="2">
@@ -12036,7 +12210,7 @@
         <v>6.0326086956521738E-2</v>
       </c>
       <c r="G36" s="2">
-        <f>Data!D74</f>
+        <f>Data!D78</f>
         <v>12852</v>
       </c>
       <c r="H36" s="3">
@@ -12052,7 +12226,7 @@
         <v>2.4574716073519243E-2</v>
       </c>
       <c r="L36">
-        <f>Data!E74</f>
+        <f>Data!E78</f>
         <v>273</v>
       </c>
       <c r="M36">
@@ -12076,7 +12250,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="2">
-        <f>Data!C75</f>
+        <f>Data!C79</f>
         <v>126287</v>
       </c>
       <c r="D37" s="2">
@@ -12088,7 +12262,7 @@
         <v>5.1699204627621113E-2</v>
       </c>
       <c r="G37" s="2">
-        <f>Data!D75</f>
+        <f>Data!D79</f>
         <v>13138</v>
       </c>
       <c r="H37" s="3">
@@ -12104,7 +12278,7 @@
         <v>2.407062813615881E-2</v>
       </c>
       <c r="L37">
-        <f>Data!E75</f>
+        <f>Data!E79</f>
         <v>295</v>
       </c>
       <c r="M37">
@@ -12128,7 +12302,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="2">
-        <f>Data!C76</f>
+        <f>Data!C80</f>
         <v>134743</v>
       </c>
       <c r="D38" s="2">
@@ -12140,7 +12314,7 @@
         <v>4.1863765373699145E-2</v>
       </c>
       <c r="G38" s="2">
-        <f>Data!D76</f>
+        <f>Data!D80</f>
         <v>13492</v>
       </c>
       <c r="H38" s="3">
@@ -12156,7 +12330,7 @@
         <v>2.5310412059360667E-2</v>
       </c>
       <c r="L38">
-        <f>Data!E76</f>
+        <f>Data!E80</f>
         <v>319</v>
       </c>
       <c r="M38">
@@ -12180,16 +12354,48 @@
         <v>26</v>
       </c>
       <c r="C39" s="2">
-        <f>Data!C77</f>
-        <v>0</v>
+        <f>Data!C81</f>
+        <v>140975</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" ref="D39:D40" si="119">C39-C38</f>
+        <v>6232</v>
+      </c>
+      <c r="E39" s="11">
+        <f t="shared" ref="E39:E40" si="120">H39/D39</f>
+        <v>4.5571245186136075E-2</v>
       </c>
       <c r="G39" s="2">
-        <f>Data!D77</f>
-        <v>0</v>
+        <f>Data!D81</f>
+        <v>13776</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" ref="H39:H40" si="121">G39-G38</f>
+        <v>284</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ref="I39:I40" si="122">G39/G38-1</f>
+        <v>2.1049510821227413E-2</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" ref="J39:J40" si="123">SUM(I35:I39)/5</f>
+        <v>2.449805840769952E-2</v>
       </c>
       <c r="L39">
-        <f>Data!E77</f>
-        <v>0</v>
+        <f>Data!E81</f>
+        <v>337</v>
+      </c>
+      <c r="M39">
+        <f t="shared" ref="M39:M40" si="124">L39-L38</f>
+        <v>18</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" ref="N39:N40" si="125">L39/L38-1</f>
+        <v>5.6426332288401326E-2</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" ref="O39:O40" si="126">SUM(N35:N39)/5</f>
+        <v>8.9274117949356621E-2</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -12200,17 +12406,24 @@
         <v>27</v>
       </c>
       <c r="C40" s="2">
-        <f>Data!C78</f>
+        <f>Data!C82</f>
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <f>Data!D78</f>
+        <f>Data!D82</f>
         <v>0</v>
       </c>
+      <c r="H40" s="3"/>
+      <c r="J40" s="16">
+        <f t="shared" si="123"/>
+        <v>1.9369433141437041E-2</v>
+      </c>
       <c r="L40">
-        <f>Data!E78</f>
+        <f>Data!E82</f>
         <v>0</v>
       </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -14227,15 +14440,47 @@
       </c>
       <c r="C44" s="2">
         <f>Data!C41</f>
-        <v>0</v>
+        <v>269598</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44" si="121">C44-C43</f>
+        <v>12993</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" ref="E44" si="122">H44/D44</f>
+        <v>0.40275532979296547</v>
       </c>
       <c r="G44" s="2">
         <f>Data!D41</f>
-        <v>0</v>
+        <v>78991</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" ref="H44" si="123">G44-G43</f>
+        <v>5233</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ref="I44" si="124">G44/G43-1</f>
+        <v>7.0948236123539177E-2</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" ref="J44" si="125">SUM(I40:I44)/5</f>
+        <v>8.9140703502343849E-2</v>
       </c>
       <c r="L44" s="2">
         <f>Data!E41</f>
-        <v>0</v>
+        <v>9875</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44" si="126">L44-L43</f>
+        <v>917</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44" si="127">L44/L43-1</f>
+        <v>0.10236659968743034</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" ref="O44" si="128">SUM(N40:N44)/5</f>
+        <v>0.12958516086397426</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -14280,8 +14525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="AG50" sqref="AG50"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O55" sqref="O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14392,7 +14637,7 @@
         <v>43885</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C79</f>
+        <f>Data!C87</f>
         <v>4324</v>
       </c>
       <c r="D6" s="2">
@@ -14404,12 +14649,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D79</f>
+        <f>Data!D87</f>
         <v>229</v>
       </c>
       <c r="H6" s="3"/>
       <c r="L6" s="2">
-        <f>Data!E79</f>
+        <f>Data!E87</f>
         <v>7</v>
       </c>
       <c r="M6">
@@ -14423,7 +14668,7 @@
         <v>43886</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C80</f>
+        <f>Data!C88</f>
         <v>8623</v>
       </c>
       <c r="D7" s="2">
@@ -14435,7 +14680,7 @@
         <v>2.1632937892533146E-2</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D80</f>
+        <f>Data!D88</f>
         <v>322</v>
       </c>
       <c r="H7" s="3">
@@ -14447,7 +14692,7 @@
         <v>0.40611353711790388</v>
       </c>
       <c r="L7" s="2">
-        <f>Data!E80</f>
+        <f>Data!E88</f>
         <v>10</v>
       </c>
       <c r="M7">
@@ -14465,7 +14710,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C81</f>
+        <f>Data!C89</f>
         <v>9587</v>
       </c>
       <c r="D8" s="2">
@@ -14477,7 +14722,7 @@
         <v>8.0912863070539423E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D81</f>
+        <f>Data!D89</f>
         <v>400</v>
       </c>
       <c r="H8" s="3">
@@ -14489,7 +14734,7 @@
         <v>0.2422360248447204</v>
       </c>
       <c r="L8" s="2">
-        <f>Data!E81</f>
+        <f>Data!E89</f>
         <v>12</v>
       </c>
       <c r="M8">
@@ -14507,7 +14752,7 @@
         <v>43888</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C82</f>
+        <f>Data!C90</f>
         <v>12014</v>
       </c>
       <c r="D9" s="2">
@@ -14519,7 +14764,7 @@
         <v>0.10300782859497322</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D82</f>
+        <f>Data!D90</f>
         <v>650</v>
       </c>
       <c r="H9" s="3">
@@ -14531,7 +14776,7 @@
         <v>0.625</v>
       </c>
       <c r="L9" s="2">
-        <f>Data!E82</f>
+        <f>Data!E90</f>
         <v>17</v>
       </c>
       <c r="M9">
@@ -14549,7 +14794,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C83</f>
+        <f>Data!C91</f>
         <v>15695</v>
       </c>
       <c r="D10" s="2">
@@ -14561,7 +14806,7 @@
         <v>6.4656343384949744E-2</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D83</f>
+        <f>Data!D91</f>
         <v>888</v>
       </c>
       <c r="H10" s="3">
@@ -14577,7 +14822,7 @@
         <v>0.32790068162329405</v>
       </c>
       <c r="L10" s="2">
-        <f>Data!E83</f>
+        <f>Data!E91</f>
         <v>21</v>
       </c>
       <c r="M10">
@@ -14598,7 +14843,7 @@
         <v>43890</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C84</f>
+        <f>Data!C92</f>
         <v>18661</v>
       </c>
       <c r="D11" s="2">
@@ -14610,7 +14855,7 @@
         <v>8.0917060013486183E-2</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D84</f>
+        <f>Data!D92</f>
         <v>1128</v>
       </c>
       <c r="H11" s="3">
@@ -14626,7 +14871,7 @@
         <v>0.38195473567734811</v>
       </c>
       <c r="L11" s="2">
-        <f>Data!E84</f>
+        <f>Data!E92</f>
         <v>29</v>
       </c>
       <c r="M11">
@@ -14647,7 +14892,7 @@
         <v>43891</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C85</f>
+        <f>Data!C93</f>
         <v>21127</v>
       </c>
       <c r="D12" s="2">
@@ -14659,7 +14904,7 @@
         <v>0.22952149229521493</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D85</f>
+        <f>Data!D93</f>
         <v>1694</v>
       </c>
       <c r="H12" s="3">
@@ -14675,7 +14920,7 @@
         <v>0.40108663818284535</v>
       </c>
       <c r="L12" s="2">
-        <f>Data!E85</f>
+        <f>Data!E93</f>
         <v>34</v>
       </c>
       <c r="M12">
@@ -14696,7 +14941,7 @@
         <v>43892</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C86</f>
+        <f>Data!C94</f>
         <v>23345</v>
       </c>
       <c r="D13" s="2">
@@ -14708,7 +14953,7 @@
         <v>0.15419296663660956</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D86</f>
+        <f>Data!D94</f>
         <v>2036</v>
       </c>
       <c r="H13" s="3">
@@ -14724,7 +14969,7 @@
         <v>0.39301723722806892</v>
       </c>
       <c r="L13" s="2">
-        <f>Data!E86</f>
+        <f>Data!E94</f>
         <v>52</v>
       </c>
       <c r="M13">
@@ -14745,7 +14990,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C87</f>
+        <f>Data!C95</f>
         <v>25856</v>
       </c>
       <c r="D14" s="2">
@@ -14757,7 +15002,7 @@
         <v>0.18558343289526086</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D87</f>
+        <f>Data!D95</f>
         <v>2502</v>
       </c>
       <c r="H14" s="3">
@@ -14773,7 +15018,7 @@
         <v>0.3137932686622536</v>
       </c>
       <c r="L14" s="2">
-        <f>Data!E87</f>
+        <f>Data!E95</f>
         <v>79</v>
       </c>
       <c r="M14">
@@ -14794,7 +15039,7 @@
         <v>43894</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C88</f>
+        <f>Data!C96</f>
         <v>29837</v>
       </c>
       <c r="D15" s="2">
@@ -14806,7 +15051,7 @@
         <v>0.14745038934940968</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D88</f>
+        <f>Data!D96</f>
         <v>3089</v>
       </c>
       <c r="H15" s="3">
@@ -14822,7 +15067,7 @@
         <v>0.28748496146186009</v>
       </c>
       <c r="L15" s="2">
-        <f>Data!E88</f>
+        <f>Data!E96</f>
         <v>107</v>
       </c>
       <c r="M15">
@@ -14843,7 +15088,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C89</f>
+        <f>Data!C97</f>
         <v>32362</v>
       </c>
       <c r="D16" s="2">
@@ -14855,7 +15100,7 @@
         <v>0.30455445544554455</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D89</f>
+        <f>Data!D97</f>
         <v>3858</v>
       </c>
       <c r="H16" s="3">
@@ -14871,7 +15116,7 @@
         <v>0.28322048332234145</v>
       </c>
       <c r="L16" s="2">
-        <f>Data!E89</f>
+        <f>Data!E97</f>
         <v>148</v>
       </c>
       <c r="M16">
@@ -14892,7 +15137,7 @@
         <v>43896</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C90</f>
+        <f>Data!C98</f>
         <v>36359</v>
       </c>
       <c r="D17" s="2">
@@ -14904,7 +15149,7 @@
         <v>0.19464598448836629</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D90</f>
+        <f>Data!D98</f>
         <v>4636</v>
       </c>
       <c r="H17" s="3">
@@ -14920,7 +15165,7 @@
         <v>0.22319765151664345</v>
       </c>
       <c r="L17" s="2">
-        <f>Data!E90</f>
+        <f>Data!E98</f>
         <v>197</v>
       </c>
       <c r="M17">
@@ -14941,7 +15186,7 @@
         <v>43897</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C91</f>
+        <f>Data!C99</f>
         <v>42062</v>
       </c>
       <c r="D18" s="2">
@@ -14953,7 +15198,7 @@
         <v>0.2186568472733649</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D91</f>
+        <f>Data!D99</f>
         <v>5883</v>
       </c>
       <c r="H18" s="3">
@@ -14969,7 +15214,7 @@
         <v>0.23661622368884333</v>
       </c>
       <c r="L18" s="2">
-        <f>Data!E91</f>
+        <f>Data!E99</f>
         <v>233</v>
       </c>
       <c r="M18">
@@ -14990,7 +15235,7 @@
         <v>43898</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C92</f>
+        <f>Data!C100</f>
         <v>49937</v>
       </c>
       <c r="D19" s="2">
@@ -15002,7 +15247,7 @@
         <v>0.18946031746031747</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D92</f>
+        <f>Data!D100</f>
         <v>7375</v>
       </c>
       <c r="H19" s="3">
@@ -15018,7 +15263,7 @@
         <v>0.24156261278839994</v>
       </c>
       <c r="L19" s="2">
-        <f>Data!E92</f>
+        <f>Data!E100</f>
         <v>366</v>
       </c>
       <c r="M19">
@@ -15042,7 +15287,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C93</f>
+        <f>Data!C101</f>
         <v>53826</v>
       </c>
       <c r="D20" s="2">
@@ -15054,7 +15299,7 @@
         <v>0.46207251221393675</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D93</f>
+        <f>Data!D101</f>
         <v>9172</v>
       </c>
       <c r="H20" s="3">
@@ -15070,7 +15315,7 @@
         <v>0.2433723541478548</v>
       </c>
       <c r="L20" s="2">
-        <f>Data!E93</f>
+        <f>Data!E101</f>
         <v>463</v>
       </c>
       <c r="M20">
@@ -15094,7 +15339,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C94</f>
+        <f>Data!C102</f>
         <v>60761</v>
       </c>
       <c r="D21" s="2">
@@ -15106,7 +15351,7 @@
         <v>0.14087959625090121</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D94</f>
+        <f>Data!D102</f>
         <v>10149</v>
       </c>
       <c r="H21" s="3">
@@ -15122,7 +15367,7 @@
         <v>0.21488674683340658</v>
       </c>
       <c r="L21" s="2">
-        <f>Data!E94</f>
+        <f>Data!E102</f>
         <v>631</v>
       </c>
       <c r="M21">
@@ -15146,7 +15391,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C95</f>
+        <f>Data!C103</f>
         <v>73154</v>
       </c>
       <c r="D22" s="2">
@@ -15158,7 +15403,7 @@
         <v>0.18663761801016704</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D95</f>
+        <f>Data!D103</f>
         <v>12462</v>
       </c>
       <c r="H22" s="3">
@@ -15174,7 +15419,7 @@
         <v>0.22013581411351463</v>
       </c>
       <c r="L22" s="2">
-        <f>Data!E95</f>
+        <f>Data!E103</f>
         <v>827</v>
       </c>
       <c r="M22">
@@ -15198,7 +15443,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C96</f>
+        <f>Data!C104</f>
         <v>86011</v>
       </c>
       <c r="D23" s="2">
@@ -15210,7 +15455,7 @@
         <v>0.20619117990199892</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D96</f>
+        <f>Data!D104</f>
         <v>15113</v>
       </c>
       <c r="H23" s="3">
@@ -15226,7 +15471,7 @@
         <v>0.20888477575414113</v>
       </c>
       <c r="L23" s="2">
-        <f>Data!E96</f>
+        <f>Data!E104</f>
         <v>1016</v>
       </c>
       <c r="M23">
@@ -15250,7 +15495,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C97</f>
+        <f>Data!C105</f>
         <v>97488</v>
       </c>
       <c r="D24" s="2">
@@ -15262,7 +15507,7 @@
         <v>0.22192210507972468</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D97</f>
+        <f>Data!D105</f>
         <v>17660</v>
       </c>
       <c r="H24" s="3">
@@ -15278,7 +15523,7 @@
         <v>0.19186843607793974</v>
       </c>
       <c r="L24" s="2">
-        <f>Data!E97</f>
+        <f>Data!E105</f>
         <v>1266</v>
       </c>
       <c r="M24">
@@ -15302,7 +15547,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C98</f>
+        <f>Data!C106</f>
         <v>109170</v>
       </c>
       <c r="D25" s="2">
@@ -15314,7 +15559,7 @@
         <v>0.29934942646807056</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D98</f>
+        <f>Data!D106</f>
         <v>21157</v>
       </c>
       <c r="H25" s="3">
@@ -15330,7 +15575,7 @@
         <v>0.18273985669716925</v>
       </c>
       <c r="L25" s="2">
-        <f>Data!E98</f>
+        <f>Data!E106</f>
         <v>1441</v>
       </c>
       <c r="M25">
@@ -15354,7 +15599,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C99</f>
+        <f>Data!C107</f>
         <v>124899</v>
       </c>
       <c r="D26" s="2">
@@ -15366,7 +15611,7 @@
         <v>0.22824082904189713</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D99</f>
+        <f>Data!D107</f>
         <v>24747</v>
       </c>
       <c r="H26" s="3">
@@ -15382,7 +15627,7 @@
         <v>0.19537264661672088</v>
       </c>
       <c r="L26" s="2">
-        <f>Data!E99</f>
+        <f>Data!E107</f>
         <v>1809</v>
       </c>
       <c r="M26">
@@ -15406,7 +15651,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C100</f>
+        <f>Data!C108</f>
         <v>137962</v>
       </c>
       <c r="D27" s="2">
@@ -15418,7 +15663,7 @@
         <v>0.24749291893133277</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D100</f>
+        <f>Data!D108</f>
         <v>27980</v>
       </c>
       <c r="H27" s="3">
@@ -15434,7 +15679,7 @@
         <v>0.17592022081964981</v>
       </c>
       <c r="L27" s="2">
-        <f>Data!E100</f>
+        <f>Data!E108</f>
         <v>2158</v>
       </c>
       <c r="M27">
@@ -15458,7 +15703,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C101</f>
+        <f>Data!C109</f>
         <v>148657</v>
       </c>
       <c r="D28" s="2">
@@ -15470,7 +15715,7 @@
         <v>0.32968676951846659</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D101</f>
+        <f>Data!D109</f>
         <v>31506</v>
       </c>
       <c r="H28" s="3">
@@ -15486,7 +15731,7 @@
         <v>0.15857859993332762</v>
       </c>
       <c r="L28" s="2">
-        <f>Data!E101</f>
+        <f>Data!E109</f>
         <v>2503</v>
       </c>
       <c r="M28">
@@ -15510,7 +15755,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C102</f>
+        <f>Data!C110</f>
         <v>165541</v>
       </c>
       <c r="D29" s="2">
@@ -15522,7 +15767,7 @@
         <v>0.24917081260364843</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D102</f>
+        <f>Data!D110</f>
         <v>35713</v>
       </c>
       <c r="H29" s="3">
@@ -15538,7 +15783,7 @@
         <v>0.15157854332513704</v>
       </c>
       <c r="L29" s="2">
-        <f>Data!E102</f>
+        <f>Data!E110</f>
         <v>2978</v>
       </c>
       <c r="M29">
@@ -15562,7 +15807,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C103</f>
+        <f>Data!C111</f>
         <v>182777</v>
       </c>
       <c r="D30" s="2">
@@ -15574,7 +15819,7 @@
         <v>0.30877233696913436</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D103</f>
+        <f>Data!D111</f>
         <v>41035</v>
       </c>
       <c r="H30" s="3">
@@ -15590,7 +15835,7 @@
         <v>0.14177919226990335</v>
       </c>
       <c r="L30" s="2">
-        <f>Data!E103</f>
+        <f>Data!E111</f>
         <v>3405</v>
       </c>
       <c r="M30">
@@ -15614,7 +15859,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C104</f>
+        <f>Data!C112</f>
         <v>206886</v>
       </c>
       <c r="D31" s="2">
@@ -15626,7 +15871,7 @@
         <v>0.24828902069766479</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D104</f>
+        <f>Data!D112</f>
         <v>47021</v>
       </c>
       <c r="H31" s="3">
@@ -15642,7 +15887,7 @@
         <v>0.13701752818184726</v>
       </c>
       <c r="L31" s="2">
-        <f>Data!E104</f>
+        <f>Data!E112</f>
         <v>4032</v>
       </c>
       <c r="M31">
@@ -15666,7 +15911,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C105</f>
+        <f>Data!C113</f>
         <v>233222</v>
       </c>
       <c r="D32" s="2">
@@ -15678,7 +15923,7 @@
         <v>0.24897478736330497</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D105</f>
+        <f>Data!D113</f>
         <v>53578</v>
       </c>
       <c r="H32" s="3">
@@ -15694,7 +15939,7 @@
         <v>0.1387787748947345</v>
       </c>
       <c r="L32" s="2">
-        <f>Data!E105</f>
+        <f>Data!E113</f>
         <v>4825</v>
       </c>
       <c r="M32">
@@ -15718,7 +15963,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C106</f>
+        <f>Data!C114</f>
         <v>258402</v>
       </c>
       <c r="D33" s="2">
@@ -15730,7 +15975,7 @@
         <v>0.22081016679904686</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D106</f>
+        <f>Data!D114</f>
         <v>59138</v>
       </c>
       <c r="H33" s="3">
@@ -15746,7 +15991,7 @@
         <v>0.13432984536680664</v>
       </c>
       <c r="L33" s="2">
-        <f>Data!E106</f>
+        <f>Data!E114</f>
         <v>5476</v>
       </c>
       <c r="M33">
@@ -15770,7 +16015,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <f>Data!C107</f>
+        <f>Data!C115</f>
         <v>275468</v>
       </c>
       <c r="D34" s="2">
@@ -15782,7 +16027,7 @@
         <v>0.28061643032930972</v>
       </c>
       <c r="G34" s="2">
-        <f>Data!D107</f>
+        <f>Data!D115</f>
         <v>63927</v>
       </c>
       <c r="H34" s="3">
@@ -15798,7 +16043,7 @@
         <v>0.12381983721539776</v>
       </c>
       <c r="L34" s="2">
-        <f>Data!E107</f>
+        <f>Data!E115</f>
         <v>6077</v>
       </c>
       <c r="M34">
@@ -15822,7 +16067,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <f>Data!C108</f>
+        <f>Data!C116</f>
         <v>296964</v>
       </c>
       <c r="D35" s="2">
@@ -15834,7 +16079,7 @@
         <v>0.24418496464458503</v>
       </c>
       <c r="G35" s="2">
-        <f>Data!D108</f>
+        <f>Data!D116</f>
         <v>69176</v>
       </c>
       <c r="H35" s="3">
@@ -15850,7 +16095,7 @@
         <v>0.1104374204412764</v>
       </c>
       <c r="L35" s="2">
-        <f>Data!E108</f>
+        <f>Data!E116</f>
         <v>6820</v>
       </c>
       <c r="M35">
@@ -15874,7 +16119,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="2">
-        <f>Data!C109</f>
+        <f>Data!C117</f>
         <v>324445</v>
       </c>
       <c r="D36" s="2">
@@ -15886,7 +16131,7 @@
         <v>0.18958553182198609</v>
       </c>
       <c r="G36" s="2">
-        <f>Data!D109</f>
+        <f>Data!D117</f>
         <v>74386</v>
       </c>
       <c r="H36" s="3">
@@ -15902,7 +16147,7 @@
         <v>9.6325353649337406E-2</v>
       </c>
       <c r="L36" s="2">
-        <f>Data!E109</f>
+        <f>Data!E117</f>
         <v>7503</v>
       </c>
       <c r="M36">
@@ -15926,7 +16171,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <f>Data!C110</f>
+        <f>Data!C118</f>
         <v>361060</v>
       </c>
       <c r="D37" s="2">
@@ -15938,7 +16183,7 @@
         <v>0.16804588283490374</v>
       </c>
       <c r="G37" s="2">
-        <f>Data!D110</f>
+        <f>Data!D118</f>
         <v>80539</v>
       </c>
       <c r="H37" s="3">
@@ -15954,7 +16199,7 @@
         <v>8.4979122922752337E-2</v>
       </c>
       <c r="L37" s="2">
-        <f>Data!E110</f>
+        <f>Data!E118</f>
         <v>8165</v>
       </c>
       <c r="M37">
@@ -15978,7 +16223,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="2">
-        <f>Data!C111</f>
+        <f>Data!C119</f>
         <v>394079</v>
       </c>
       <c r="D38" s="2">
@@ -15990,7 +16235,7 @@
         <v>0.18047184954117326</v>
       </c>
       <c r="G38" s="2">
-        <f>Data!D111</f>
+        <f>Data!D119</f>
         <v>86498</v>
       </c>
       <c r="H38" s="3">
@@ -16006,7 +16251,7 @@
         <v>7.9022135333696175E-2</v>
       </c>
       <c r="L38" s="2">
-        <f>Data!E111</f>
+        <f>Data!E119</f>
         <v>9134</v>
       </c>
       <c r="M38">
@@ -16030,7 +16275,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="2">
-        <f>Data!C112</f>
+        <f>Data!C120</f>
         <v>429526</v>
       </c>
       <c r="D39" s="2">
@@ -16042,7 +16287,7 @@
         <v>0.16853330324145907</v>
       </c>
       <c r="G39" s="2">
-        <f>Data!D112</f>
+        <f>Data!D120</f>
         <v>92472</v>
       </c>
       <c r="H39" s="3">
@@ -16058,7 +16303,7 @@
         <v>7.6639155375319665E-2</v>
       </c>
       <c r="L39" s="2">
-        <f>Data!E112</f>
+        <f>Data!E120</f>
         <v>10023</v>
       </c>
       <c r="M39">
@@ -16082,7 +16327,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <f>Data!C113</f>
+        <f>Data!C121</f>
         <v>454030</v>
       </c>
       <c r="D40" s="2">
@@ -16094,7 +16339,7 @@
         <v>0.21290401567091088</v>
       </c>
       <c r="G40" s="2">
-        <f>Data!D113</f>
+        <f>Data!D121</f>
         <v>97689</v>
       </c>
       <c r="H40" s="3">
@@ -16110,7 +16355,7 @@
         <v>7.1500714715988428E-2</v>
       </c>
       <c r="L40" s="2">
-        <f>Data!E113</f>
+        <f>Data!E121</f>
         <v>10779</v>
       </c>
       <c r="M40">
@@ -16134,7 +16379,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="2">
-        <f>Data!C114</f>
+        <f>Data!C122</f>
         <v>477359</v>
       </c>
       <c r="D41" s="2">
@@ -16146,7 +16391,7 @@
         <v>0.17360366925286125</v>
       </c>
       <c r="G41" s="2">
-        <f>Data!D114</f>
+        <f>Data!D122</f>
         <v>101739</v>
       </c>
       <c r="H41" s="3">
@@ -16162,7 +16407,7 @@
         <v>6.4729306398888603E-2</v>
       </c>
       <c r="L41" s="2">
-        <f>Data!E114</f>
+        <f>Data!E122</f>
         <v>11591</v>
       </c>
       <c r="M41">
@@ -16186,7 +16431,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <f>Data!C115</f>
+        <f>Data!C123</f>
         <v>506968</v>
       </c>
       <c r="D42" s="2">
@@ -16198,7 +16443,7 @@
         <v>0.14296328818940188</v>
       </c>
       <c r="G42" s="2">
-        <f>Data!D115</f>
+        <f>Data!D123</f>
         <v>105972</v>
       </c>
       <c r="H42" s="3">
@@ -16214,7 +16459,7 @@
         <v>5.6507163525775582E-2</v>
       </c>
       <c r="L42" s="2">
-        <f>Data!E115</f>
+        <f>Data!E123</f>
         <v>12428</v>
       </c>
       <c r="M42">
@@ -16238,7 +16483,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="2">
-        <f>Data!C116</f>
+        <f>Data!C124</f>
         <v>541423</v>
       </c>
       <c r="D43" s="2">
@@ -16250,7 +16495,7 @@
         <v>0.13356552024379625</v>
       </c>
       <c r="G43" s="2">
-        <f>Data!D116</f>
+        <f>Data!D124</f>
         <v>110574</v>
       </c>
       <c r="H43" s="3">
@@ -16266,7 +16511,7 @@
         <v>5.0394676803661699E-2</v>
       </c>
       <c r="L43" s="2">
-        <f>Data!E116</f>
+        <f>Data!E124</f>
         <v>13155</v>
       </c>
       <c r="M43">
@@ -16290,7 +16535,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="2">
-        <f>Data!C117</f>
+        <f>Data!C125</f>
         <v>581232</v>
       </c>
       <c r="D44" s="2">
@@ -16302,7 +16547,7 @@
         <v>0.11725991609937451</v>
       </c>
       <c r="G44" s="2">
-        <f>Data!D117</f>
+        <f>Data!D125</f>
         <v>115242</v>
       </c>
       <c r="H44" s="3">
@@ -16318,7 +16563,7 @@
         <v>4.5024855162985399E-2</v>
       </c>
       <c r="L44" s="2">
-        <f>Data!E117</f>
+        <f>Data!E125</f>
         <v>13915</v>
       </c>
       <c r="M44">
@@ -16342,7 +16587,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="2">
-        <f>Data!C118</f>
+        <f>Data!C126</f>
         <v>619849</v>
       </c>
       <c r="D45" s="2">
@@ -16354,7 +16599,7 @@
         <v>0.11873009296423855</v>
       </c>
       <c r="G45" s="2">
-        <f>Data!D118</f>
+        <f>Data!D126</f>
         <v>119827</v>
       </c>
       <c r="H45" s="3">
@@ -16370,7 +16615,7 @@
         <v>4.1698608036079318E-2</v>
       </c>
       <c r="L45" s="2">
-        <f>Data!E118</f>
+        <f>Data!E126</f>
         <v>14681</v>
       </c>
       <c r="M45">
@@ -16394,7 +16639,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="2">
-        <f>Data!C119</f>
+        <f>Data!C127</f>
         <v>657224</v>
       </c>
       <c r="D46" s="2">
@@ -16406,7 +16651,7 @@
         <v>0.128561872909699</v>
       </c>
       <c r="G46" s="2">
-        <f>Data!D119</f>
+        <f>Data!D127</f>
         <v>124632</v>
       </c>
       <c r="H46" s="3">
@@ -16422,7 +16667,7 @@
         <v>4.1426884062663663E-2</v>
       </c>
       <c r="L46" s="2">
-        <f>Data!E119</f>
+        <f>Data!E127</f>
         <v>15362</v>
       </c>
       <c r="M46">
@@ -16446,7 +16691,7 @@
         <v>27</v>
       </c>
       <c r="C47" s="2">
-        <f>Data!C120</f>
+        <f>Data!C128</f>
         <v>691461</v>
       </c>
       <c r="D47" s="2">
@@ -16458,7 +16703,7 @@
         <v>0.12606244706019804</v>
       </c>
       <c r="G47" s="2">
-        <f>Data!D120</f>
+        <f>Data!D128</f>
         <v>128948</v>
       </c>
       <c r="H47" s="3">
@@ -16475,7 +16720,7 @@
       </c>
       <c r="K47"/>
       <c r="L47" s="2">
-        <f>Data!E120</f>
+        <f>Data!E128</f>
         <v>15887</v>
       </c>
       <c r="M47">
@@ -16500,7 +16745,7 @@
         <v>27</v>
       </c>
       <c r="C48" s="2">
-        <f>Data!C121</f>
+        <f>Data!C129</f>
         <v>721732</v>
       </c>
       <c r="D48" s="2">
@@ -16512,7 +16757,7 @@
         <v>0.11889266955171617</v>
       </c>
       <c r="G48" s="2">
-        <f>Data!D121</f>
+        <f>Data!D129</f>
         <v>132547</v>
       </c>
       <c r="H48" s="3">
@@ -16528,7 +16773,7 @@
         <v>3.6928363464487468E-2</v>
       </c>
       <c r="L48" s="2">
-        <f>Data!E121</f>
+        <f>Data!E129</f>
         <v>16523</v>
       </c>
       <c r="M48">
@@ -16552,7 +16797,7 @@
         <v>27</v>
       </c>
       <c r="C49" s="2">
-        <f>Data!C122</f>
+        <f>Data!C130</f>
         <v>755445</v>
       </c>
       <c r="D49" s="2">
@@ -16564,7 +16809,7 @@
         <v>9.0143268175481267E-2</v>
       </c>
       <c r="G49" s="2">
-        <f>Data!D122</f>
+        <f>Data!D130</f>
         <v>135586</v>
       </c>
       <c r="H49" s="3">
@@ -16580,7 +16825,7 @@
         <v>3.3070692206865225E-2</v>
       </c>
       <c r="L49" s="2">
-        <f>Data!E122</f>
+        <f>Data!E130</f>
         <v>17127</v>
       </c>
       <c r="M49">
@@ -16604,7 +16849,7 @@
         <v>27</v>
       </c>
       <c r="C50" s="2">
-        <f>Data!C123</f>
+        <f>Data!C131</f>
         <v>807125</v>
       </c>
       <c r="D50" s="2">
@@ -16616,7 +16861,7 @@
         <v>7.4226006191950467E-2</v>
       </c>
       <c r="G50" s="2">
-        <f>Data!D123</f>
+        <f>Data!D131</f>
         <v>139422</v>
       </c>
       <c r="H50" s="3">
@@ -16632,7 +16877,7 @@
         <v>3.0771925123267339E-2</v>
       </c>
       <c r="L50" s="2">
-        <f>Data!E123</f>
+        <f>Data!E131</f>
         <v>17669</v>
       </c>
       <c r="M50">
@@ -16656,7 +16901,7 @@
         <v>27</v>
       </c>
       <c r="C51" s="2">
-        <f>Data!C124</f>
+        <f>Data!C132</f>
         <v>853369</v>
       </c>
       <c r="D51" s="2">
@@ -16668,7 +16913,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="G51" s="2">
-        <f>Data!D124</f>
+        <f>Data!D132</f>
         <v>143626</v>
       </c>
       <c r="H51" s="3">
@@ -16684,7 +16929,7 @@
         <v>2.8782641872660043E-2</v>
       </c>
       <c r="L51" s="2">
-        <f>Data!E124</f>
+        <f>Data!E132</f>
         <v>18279</v>
       </c>
       <c r="M51">
@@ -16708,7 +16953,7 @@
         <v>27</v>
       </c>
       <c r="C52" s="2">
-        <f>Data!C125</f>
+        <f>Data!C133</f>
         <v>906864</v>
       </c>
       <c r="D52" s="2">
@@ -16720,7 +16965,7 @@
         <v>7.3857369847649318E-2</v>
       </c>
       <c r="G52" s="2">
-        <f>Data!D125</f>
+        <f>Data!D133</f>
         <v>147577</v>
       </c>
       <c r="H52" s="3">
@@ -16736,7 +16981,7 @@
         <v>2.7358441127374532E-2</v>
       </c>
       <c r="L52" s="2">
-        <f>Data!E125</f>
+        <f>Data!E133</f>
         <v>18849</v>
       </c>
       <c r="M52">
@@ -16760,16 +17005,48 @@
         <v>27</v>
       </c>
       <c r="C53" s="2">
-        <f>Data!C126</f>
-        <v>0</v>
+        <f>Data!C134</f>
+        <v>963473</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:D54" si="100">C53-C52</f>
+        <v>56609</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" ref="E53:E54" si="101">H53/D53</f>
+        <v>8.2919677083149318E-2</v>
       </c>
       <c r="G53" s="2">
-        <f>Data!D126</f>
-        <v>0</v>
+        <f>Data!D134</f>
+        <v>152271</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" ref="H53:H54" si="102">G53-G52</f>
+        <v>4694</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" ref="I53:I54" si="103">G53/G52-1</f>
+        <v>3.1807124416406429E-2</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" ref="J53:J54" si="104">SUM(I49:I53)/5</f>
+        <v>2.8137770902550228E-2</v>
       </c>
       <c r="L53" s="2">
-        <f>Data!E126</f>
-        <v>0</v>
+        <f>Data!E134</f>
+        <v>19468</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M54" si="105">L53-L52</f>
+        <v>619</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" ref="N53:N54" si="106">L53/L52-1</f>
+        <v>3.2839938458273599E-2</v>
+      </c>
+      <c r="O53" s="16">
+        <f t="shared" ref="O53:O54" si="107">SUM(N49:N53)/5</f>
+        <v>3.3349609979653305E-2</v>
       </c>
     </row>
     <row r="54" spans="1:15">
@@ -16780,17 +17057,20 @@
         <v>27</v>
       </c>
       <c r="C54" s="2">
-        <f>Data!C127</f>
+        <f>Data!C135</f>
         <v>0</v>
       </c>
       <c r="G54" s="2">
-        <f>Data!D127</f>
+        <f>Data!D135</f>
         <v>0</v>
       </c>
+      <c r="H54" s="3"/>
       <c r="L54" s="2">
-        <f>Data!E127</f>
+        <f>Data!E135</f>
         <v>0</v>
       </c>
+      <c r="N54" s="1"/>
+      <c r="O54" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -194,7 +194,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>WTAF with the testing stats Austria??</t>
+  </si>
+  <si>
+    <t>09:30 figures</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
                   <c:v>13776</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>13945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -915,7 +918,7 @@
                   <c:v>2.449805840769952E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.9369433141437041E-2</c:v>
+                  <c:v>2.1822975534003808E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1303,6 +1306,9 @@
                 <c:pt idx="38">
                   <c:v>917</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>737</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1701,7 +1707,7 @@
                   <c:v>152271</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>156363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,6 +1986,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>2.8137770902550228E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8926855791394999E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2410,6 +2419,9 @@
                 <c:pt idx="47">
                   <c:v>56609</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>46720</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2804,6 +2816,9 @@
                 <c:pt idx="47">
                   <c:v>4694</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>4092</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3202,7 +3217,7 @@
                   <c:v>19468</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>19899</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3481,6 +3496,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>3.3349609979653305E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.046636789787658E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3911,6 +3929,9 @@
                 <c:pt idx="47">
                   <c:v>619</c:v>
                 </c:pt>
+                <c:pt idx="48">
+                  <c:v>431</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4220,6 +4241,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6232</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4536,6 +4560,9 @@
                 <c:pt idx="33">
                   <c:v>284</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>169</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4850,7 +4877,7 @@
                   <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5036,6 +5063,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>8.9274117949356621E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.6080160571423014E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5389,6 +5419,9 @@
                 <c:pt idx="33">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>13</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5733,7 +5766,7 @@
                   <c:v>78991</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>84279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5958,6 +5991,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8.9140703502343849E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.844648269511772E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6341,6 +6377,9 @@
                 <c:pt idx="38">
                   <c:v>12993</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>12776</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6681,6 +6720,9 @@
                 <c:pt idx="38">
                   <c:v>5233</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>5288</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6995,7 +7037,7 @@
                   <c:v>9875</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>10612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7202,6 +7244,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0.12958516086397426</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.11525434504083605</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8362,8 +8407,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E135" sqref="E135"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9066,6 +9111,15 @@
       <c r="B42" s="21">
         <v>43933</v>
       </c>
+      <c r="C42" s="2">
+        <v>282374</v>
+      </c>
+      <c r="D42" s="2">
+        <v>84279</v>
+      </c>
+      <c r="E42" s="2">
+        <v>10612</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" t="s">
@@ -9736,6 +9790,21 @@
       <c r="B82" s="21">
         <v>43933</v>
       </c>
+      <c r="C82" s="2">
+        <v>144877</v>
+      </c>
+      <c r="D82" s="2">
+        <v>13945</v>
+      </c>
+      <c r="E82" s="2">
+        <v>350</v>
+      </c>
+      <c r="F82" s="2">
+        <v>6987</v>
+      </c>
+      <c r="H82" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" t="s">
@@ -10578,6 +10647,15 @@
       </c>
       <c r="B135" s="21">
         <v>43933</v>
+      </c>
+      <c r="C135" s="2">
+        <v>1010193</v>
+      </c>
+      <c r="D135" s="2">
+        <v>156363</v>
+      </c>
+      <c r="E135" s="2">
+        <v>19899</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -10613,7 +10691,7 @@
   <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12407,23 +12485,48 @@
       </c>
       <c r="C40" s="2">
         <f>Data!C82</f>
-        <v>0</v>
+        <v>144877</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" ref="D40" si="127">C40-C39</f>
+        <v>3902</v>
+      </c>
+      <c r="E40" s="11">
+        <f t="shared" ref="E40" si="128">H40/D40</f>
+        <v>4.3311122501281392E-2</v>
       </c>
       <c r="G40" s="2">
         <f>Data!D82</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="3"/>
+        <v>13945</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" ref="H40" si="129">G40-G39</f>
+        <v>169</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ref="I40" si="130">G40/G39-1</f>
+        <v>1.2267711962833827E-2</v>
+      </c>
       <c r="J40" s="16">
         <f t="shared" si="123"/>
-        <v>1.9369433141437041E-2</v>
+        <v>2.1822975534003808E-2</v>
       </c>
       <c r="L40">
         <f>Data!E82</f>
-        <v>0</v>
-      </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="16"/>
+        <v>350</v>
+      </c>
+      <c r="M40">
+        <f t="shared" ref="M40" si="131">L40-L39</f>
+        <v>13</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" ref="N40" si="132">L40/L39-1</f>
+        <v>3.8575667655786461E-2</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" ref="O40" si="133">SUM(N36:N40)/5</f>
+        <v>7.6080160571423014E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -12447,7 +12550,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M47" sqref="M47"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14493,15 +14596,47 @@
       </c>
       <c r="C45" s="2">
         <f>Data!C42</f>
-        <v>0</v>
+        <v>282374</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45" si="129">C45-C44</f>
+        <v>12776</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" ref="E45" si="130">H45/D45</f>
+        <v>0.41390106449592989</v>
       </c>
       <c r="G45" s="2">
         <f>Data!D42</f>
-        <v>0</v>
+        <v>84279</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" ref="H45" si="131">G45-G44</f>
+        <v>5288</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" ref="I45" si="132">G45/G44-1</f>
+        <v>6.6944335430618729E-2</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" ref="J45" si="133">SUM(I41:I45)/5</f>
+        <v>8.844648269511772E-2</v>
       </c>
       <c r="L45" s="2">
         <f>Data!E42</f>
-        <v>0</v>
+        <v>10612</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45" si="134">L45-L44</f>
+        <v>737</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" ref="N45" si="135">L45/L44-1</f>
+        <v>7.4632911392405132E-2</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" ref="O45" si="136">SUM(N41:N45)/5</f>
+        <v>0.11525434504083605</v>
       </c>
     </row>
   </sheetData>
@@ -14526,7 +14661,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="O55" sqref="O55"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16742,7 +16877,7 @@
         <v>43927</v>
       </c>
       <c r="B48" s="13">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C48" s="2">
         <f>Data!C129</f>
@@ -16794,7 +16929,7 @@
         <v>43928</v>
       </c>
       <c r="B49" s="13">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C49" s="2">
         <f>Data!C130</f>
@@ -16846,7 +16981,7 @@
         <v>43929</v>
       </c>
       <c r="B50" s="13">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C50" s="2">
         <f>Data!C131</f>
@@ -16898,7 +17033,7 @@
         <v>43930</v>
       </c>
       <c r="B51" s="13">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C51" s="2">
         <f>Data!C132</f>
@@ -16950,7 +17085,7 @@
         <v>43931</v>
       </c>
       <c r="B52" s="13">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C52" s="2">
         <f>Data!C133</f>
@@ -17002,7 +17137,7 @@
         <v>43932</v>
       </c>
       <c r="B53" s="13">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C53" s="2">
         <f>Data!C134</f>
@@ -17054,23 +17189,52 @@
         <v>43933</v>
       </c>
       <c r="B54" s="13">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C54" s="2">
         <f>Data!C135</f>
-        <v>0</v>
+        <v>1010193</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" ref="D54" si="108">C54-C53</f>
+        <v>46720</v>
+      </c>
+      <c r="E54" s="11">
+        <f t="shared" ref="E54" si="109">H54/D54</f>
+        <v>8.7585616438356162E-2</v>
       </c>
       <c r="G54" s="2">
         <f>Data!D135</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="3"/>
+        <v>156363</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" ref="H54" si="110">G54-G53</f>
+        <v>4092</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" ref="I54" si="111">G54/G53-1</f>
+        <v>2.6873140650550686E-2</v>
+      </c>
+      <c r="J54" s="16">
+        <f t="shared" ref="J54" si="112">SUM(I50:I54)/5</f>
+        <v>2.8926855791394999E-2</v>
+      </c>
       <c r="L54" s="2">
         <f>Data!E135</f>
-        <v>0</v>
-      </c>
-      <c r="N54" s="1"/>
-      <c r="O54" s="16"/>
+        <v>19899</v>
+      </c>
+      <c r="M54">
+        <f t="shared" ref="M54" si="113">L54-L53</f>
+        <v>431</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" ref="N54" si="114">L54/L53-1</f>
+        <v>2.2138894596260617E-2</v>
+      </c>
+      <c r="O54" s="16">
+        <f t="shared" ref="O54" si="115">SUM(N50:N54)/5</f>
+        <v>3.046636789787658E-2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -503,10 +503,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:f>Austria!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -611,16 +611,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$G$6:$G$40</c:f>
+              <c:f>Austria!$G$6:$G$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
@@ -725,6 +740,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>13945</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,10 +844,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$J$6:$J$40</c:f>
+              <c:f>Austria!$J$6:$J$45</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="5">
                   <c:v>0.38083321236080414</c:v>
                 </c:pt>
@@ -919,6 +937,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>2.1822975534003808E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7277532939483198E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1056,10 +1077,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$45</c:f>
+              <c:f>UK!$A$6:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -1179,16 +1200,31 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$M$6:$M$45</c:f>
+              <c:f>UK!$M$6:$M$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1308,6 +1344,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>737</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1402,10 +1441,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:f>Italy!$A$6:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -1552,16 +1591,31 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$G$6:$G$54</c:f>
+              <c:f>Italy!$G$6:$G$59</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -1708,6 +1762,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>156363</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>159516</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1851,10 +1908,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$J$6:$J$54</c:f>
+              <c:f>Italy!$J$6:$J$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="4">
                   <c:v>0.32790068162329405</c:v>
                 </c:pt>
@@ -1989,6 +2046,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>2.8926855791394999E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.7301377871329711E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2115,10 +2175,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:f>Italy!$A$6:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -2265,16 +2325,31 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$D$6:$D$54</c:f>
+              <c:f>Italy!$D$6:$D$59</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2421,6 +2496,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>46720</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>36717</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2515,10 +2593,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:f>Italy!$A$6:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -2665,16 +2743,31 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$H$6:$H$54</c:f>
+              <c:f>Italy!$H$6:$H$59</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="1">
                   <c:v>93</c:v>
                 </c:pt>
@@ -2818,6 +2911,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>4092</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2912,10 +3008,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:f>Italy!$A$6:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -3062,16 +3158,31 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$L$6:$L$54</c:f>
+              <c:f>Italy!$L$6:$L$59</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -3218,6 +3329,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>19899</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20465</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3361,10 +3475,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$O$6:$O$54</c:f>
+              <c:f>Italy!$O$6:$O$59</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="4">
                   <c:v>0.25610644257703086</c:v>
                 </c:pt>
@@ -3499,6 +3613,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>3.046636789787658E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.9825908142586365E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3625,10 +3742,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Italy!$A$6:$A$54</c:f>
+              <c:f>Italy!$A$6:$A$59</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -3775,16 +3892,31 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Italy!$M$6:$M$54</c:f>
+              <c:f>Italy!$M$6:$M$59</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="49"/>
+                <c:ptCount val="54"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3931,6 +4063,9 @@
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>566</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4025,10 +4160,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:f>Austria!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -4133,16 +4268,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$D$6:$D$40</c:f>
+              <c:f>Austria!$D$6:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>292</c:v>
                 </c:pt>
@@ -4244,6 +4394,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3902</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3535</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4340,10 +4493,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:f>Austria!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -4448,16 +4601,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$H$6:$H$40</c:f>
+              <c:f>Austria!$H$6:$H$45</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>131</c:v>
                 </c:pt>
@@ -4562,6 +4730,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4656,10 +4827,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:f>Austria!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -4764,16 +4935,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$L$6:$L$40</c:f>
+              <c:f>Austria!$L$6:$L$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4878,6 +5064,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4979,10 +5168,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$O$6:$O$40</c:f>
+              <c:f>Austria!$O$6:$O$45</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="7">
                   <c:v>0.6</c:v>
                 </c:pt>
@@ -5066,6 +5255,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>7.6080160571423014E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1674516832445916E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5202,10 +5394,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>Austria!$A$6:$A$40</c:f>
+              <c:f>Austria!$A$6:$A$45</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -5310,16 +5502,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Austria!$M$6:$M$40</c:f>
+              <c:f>Austria!$M$6:$M$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
@@ -5421,6 +5628,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5515,10 +5725,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$45</c:f>
+              <c:f>UK!$A$6:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -5638,16 +5848,31 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$G$6:$G$45</c:f>
+              <c:f>UK!$G$6:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>85</c:v>
                 </c:pt>
@@ -5767,6 +5992,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>84279</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>88621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5886,10 +6114,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$J$6:$J$45</c:f>
+              <c:f>UK!$J$6:$J$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="5">
                   <c:v>0.30704061121415749</c:v>
                 </c:pt>
@@ -5994,6 +6222,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>8.844648269511772E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>7.8725735410120512E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6130,10 +6361,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$45</c:f>
+              <c:f>UK!$A$6:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -6253,16 +6484,31 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$D$6:$D$45</c:f>
+              <c:f>UK!$D$6:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>2424</c:v>
                 </c:pt>
@@ -6379,6 +6625,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>12776</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8346</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6473,10 +6722,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$6:$A$45</c:f>
+              <c:f>UK!$A$6:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43894</c:v>
                 </c:pt>
@@ -6596,16 +6845,31 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$H$6:$H$45</c:f>
+              <c:f>UK!$H$6:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>30</c:v>
                 </c:pt>
@@ -6722,6 +6986,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>5288</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4342</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6816,10 +7083,10 @@
           </c:tx>
           <c:cat>
             <c:numRef>
-              <c:f>UK!$A$11:$A$45</c:f>
+              <c:f>UK!$A$11:$A$50</c:f>
               <c:numCache>
                 <c:formatCode>dd\-mmm</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>43899</c:v>
                 </c:pt>
@@ -6924,16 +7191,31 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$L$11:$L$45</c:f>
+              <c:f>UK!$L$11:$L$50</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>5</c:v>
                 </c:pt>
@@ -7038,6 +7320,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>10612</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11329</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7139,10 +7424,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>UK!$O$11:$O$45</c:f>
+              <c:f>UK!$O$11:$O$50</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>0.5</c:v>
                 </c:pt>
@@ -7247,6 +7532,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0.11525434504083605</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.8307859010108786E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7582,11 +7870,11 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.2322</cdr:x>
+      <cdr:x>0.20974</cdr:x>
       <cdr:y>0.65323</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.2485</cdr:x>
+      <cdr:x>0.22604</cdr:x>
       <cdr:y>0.8176</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
@@ -7596,8 +7884,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1772939" y="2409173"/>
-          <a:ext cx="124455" cy="606210"/>
+          <a:off x="1601453" y="2409164"/>
+          <a:ext cx="124454" cy="606210"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7676,14 +7964,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7706,14 +7994,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7766,14 +8054,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7799,12 +8087,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.36002</cdr:x>
-      <cdr:y>0.72629</cdr:y>
+      <cdr:x>0.32634</cdr:x>
+      <cdr:y>0.73245</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.37998</cdr:x>
-      <cdr:y>0.85317</cdr:y>
+      <cdr:x>0.3463</cdr:x>
+      <cdr:y>0.85933</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -7813,8 +8101,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2748875" y="3370410"/>
-          <a:ext cx="152400" cy="588797"/>
+          <a:off x="2491664" y="3398982"/>
+          <a:ext cx="152399" cy="588797"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -7939,14 +8227,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>120015</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7969,14 +8257,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>112395</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>434340</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>91440</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>158115</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8029,14 +8317,14 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>150495</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8062,12 +8350,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.30082</cdr:x>
-      <cdr:y>0.74125</cdr:y>
+      <cdr:x>0.27587</cdr:x>
+      <cdr:y>0.74874</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.31712</cdr:x>
-      <cdr:y>0.90562</cdr:y>
+      <cdr:x>0.29217</cdr:x>
+      <cdr:y>0.91311</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -8076,8 +8364,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="2296870" y="4710729"/>
-          <a:ext cx="124454" cy="1044584"/>
+          <a:off x="2106333" y="4758328"/>
+          <a:ext cx="124454" cy="1044585"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -8407,8 +8695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9128,6 +9416,15 @@
       <c r="B43" s="21">
         <v>43934</v>
       </c>
+      <c r="C43" s="2">
+        <v>290720</v>
+      </c>
+      <c r="D43" s="2">
+        <v>88621</v>
+      </c>
+      <c r="E43" s="2">
+        <v>11329</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
@@ -9813,6 +10110,18 @@
       <c r="B83" s="21">
         <v>43934</v>
       </c>
+      <c r="C83" s="2">
+        <v>148412</v>
+      </c>
+      <c r="D83" s="2">
+        <v>13999</v>
+      </c>
+      <c r="E83" s="2">
+        <v>368</v>
+      </c>
+      <c r="F83" s="2">
+        <v>7343</v>
+      </c>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" t="s">
@@ -10664,6 +10973,15 @@
       </c>
       <c r="B136" s="21">
         <v>43934</v>
+      </c>
+      <c r="C136" s="2">
+        <v>1046910</v>
+      </c>
+      <c r="D136" s="2">
+        <v>159516</v>
+      </c>
+      <c r="E136" s="2">
+        <v>20465</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -10688,10 +11006,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG50" sqref="AG50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12528,6 +12846,90 @@
         <v>7.6080160571423014E-2</v>
       </c>
     </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B41" s="13">
+        <v>28</v>
+      </c>
+      <c r="C41" s="2">
+        <f>Data!C83</f>
+        <v>148412</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41" si="134">C41-C40</f>
+        <v>3535</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" ref="E41" si="135">H41/D41</f>
+        <v>1.5275813295615276E-2</v>
+      </c>
+      <c r="G41" s="2">
+        <f>Data!D83</f>
+        <v>13999</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" ref="H41" si="136">G41-G40</f>
+        <v>54</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" ref="I41" si="137">G41/G40-1</f>
+        <v>3.8723556830404515E-3</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" ref="J41" si="138">SUM(I37:I41)/5</f>
+        <v>1.7277532939483198E-2</v>
+      </c>
+      <c r="L41">
+        <f>Data!E83</f>
+        <v>368</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41" si="139">L41-L40</f>
+        <v>18</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" ref="N41" si="140">L41/L40-1</f>
+        <v>5.1428571428571379E-2</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" ref="O41" si="141">SUM(N37:N41)/5</f>
+        <v>6.1674516832445916E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B42" s="13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="8">
+        <v>43936</v>
+      </c>
+      <c r="B43" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="8">
+        <v>43937</v>
+      </c>
+      <c r="B44" s="13">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="8">
+        <v>43938</v>
+      </c>
+      <c r="B45" s="13">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C3:E3"/>
@@ -12547,10 +12949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P45"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13637,7 +14039,7 @@
         <v>43915</v>
       </c>
       <c r="B27" s="13">
-        <f t="shared" ref="B27:B45" si="16">B26+1</f>
+        <f t="shared" ref="B27:B50" si="16">B26+1</f>
         <v>2</v>
       </c>
       <c r="C27" s="2">
@@ -14637,6 +15039,95 @@
       <c r="O45" s="16">
         <f t="shared" ref="O45" si="136">SUM(N41:N45)/5</f>
         <v>0.11525434504083605</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B46" s="13">
+        <f t="shared" si="16"/>
+        <v>21</v>
+      </c>
+      <c r="C46" s="2">
+        <f>Data!C43</f>
+        <v>290720</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" ref="D46" si="137">C46-C45</f>
+        <v>8346</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" ref="E46" si="138">H46/D46</f>
+        <v>0.52024922118380057</v>
+      </c>
+      <c r="G46" s="2">
+        <f>Data!D43</f>
+        <v>88621</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" ref="H46" si="139">G46-G45</f>
+        <v>4342</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" ref="I46" si="140">G46/G45-1</f>
+        <v>5.1519358321764575E-2</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" ref="J46" si="141">SUM(I42:I46)/5</f>
+        <v>7.8725735410120512E-2</v>
+      </c>
+      <c r="L46" s="2">
+        <f>Data!E43</f>
+        <v>11329</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46" si="142">L46-L45</f>
+        <v>717</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ref="N46" si="143">L46/L45-1</f>
+        <v>6.7565020731247705E-2</v>
+      </c>
+      <c r="O46" s="16">
+        <f t="shared" ref="O46" si="144">SUM(N42:N46)/5</f>
+        <v>9.8307859010108786E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B47" s="13">
+        <f t="shared" si="16"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="8">
+        <v>43936</v>
+      </c>
+      <c r="B48" s="13">
+        <f t="shared" si="16"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="8">
+        <v>43937</v>
+      </c>
+      <c r="B49" s="13">
+        <f t="shared" si="16"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="8">
+        <v>43938</v>
+      </c>
+      <c r="B50" s="13">
+        <f t="shared" si="16"/>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -14658,10 +15149,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17234,6 +17725,90 @@
       <c r="O54" s="16">
         <f t="shared" ref="O54" si="115">SUM(N50:N54)/5</f>
         <v>3.046636789787658E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="8">
+        <v>43934</v>
+      </c>
+      <c r="B55" s="13">
+        <v>35</v>
+      </c>
+      <c r="C55" s="2">
+        <f>Data!C136</f>
+        <v>1046910</v>
+      </c>
+      <c r="D55" s="2">
+        <f t="shared" ref="D55" si="116">C55-C54</f>
+        <v>36717</v>
+      </c>
+      <c r="E55" s="11">
+        <f t="shared" ref="E55" si="117">H55/D55</f>
+        <v>8.5873028842225668E-2</v>
+      </c>
+      <c r="G55" s="2">
+        <f>Data!D136</f>
+        <v>159516</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" ref="H55" si="118">G55-G54</f>
+        <v>3153</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" ref="I55" si="119">G55/G54-1</f>
+        <v>2.0164616949022385E-2</v>
+      </c>
+      <c r="J55" s="16">
+        <f t="shared" ref="J55" si="120">SUM(I51:I55)/5</f>
+        <v>2.7301377871329711E-2</v>
+      </c>
+      <c r="L55" s="2">
+        <f>Data!E136</f>
+        <v>20465</v>
+      </c>
+      <c r="M55">
+        <f t="shared" ref="M55" si="121">L55-L54</f>
+        <v>566</v>
+      </c>
+      <c r="N55" s="1">
+        <f t="shared" ref="N55" si="122">L55/L54-1</f>
+        <v>2.8443640383938984E-2</v>
+      </c>
+      <c r="O55" s="16">
+        <f t="shared" ref="O55" si="123">SUM(N51:N55)/5</f>
+        <v>2.9825908142586365E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="8">
+        <v>43935</v>
+      </c>
+      <c r="B56" s="13">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="8">
+        <v>43936</v>
+      </c>
+      <c r="B57" s="13">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="8">
+        <v>43937</v>
+      </c>
+      <c r="B58" s="13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="8">
+        <v>43938</v>
+      </c>
+      <c r="B59" s="13">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -744,14 +744,17 @@
                 <c:pt idx="35">
                   <c:v>13999</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>14159</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69229568"/>
-        <c:axId val="69228032"/>
+        <c:axId val="177048576"/>
+        <c:axId val="177047040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -941,17 +944,20 @@
                 <c:pt idx="35">
                   <c:v>1.7277532939483198E-2</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5112741345614734E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69212416"/>
-        <c:axId val="69226496"/>
+        <c:axId val="177035520"/>
+        <c:axId val="177045504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69212416"/>
+        <c:axId val="177035520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -969,13 +975,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69226496"/>
+        <c:crossAx val="177045504"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69226496"/>
+        <c:axId val="177045504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -990,24 +996,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69212416"/>
+        <c:crossAx val="177035520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69228032"/>
+        <c:axId val="177047040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69229568"/>
+        <c:crossAx val="177048576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="69229568"/>
+        <c:axId val="177048576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1015,7 +1021,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69228032"/>
+        <c:crossAx val="177047040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1030,7 +1036,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1348,17 +1354,20 @@
                 <c:pt idx="40">
                   <c:v>717</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>778</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176717184"/>
-        <c:axId val="176735360"/>
+        <c:axId val="190757888"/>
+        <c:axId val="190579456"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176717184"/>
+        <c:axId val="190757888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1366,13 +1375,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176735360"/>
+        <c:crossAx val="190579456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176735360"/>
+        <c:axId val="190579456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,7 +1395,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176717184"/>
+        <c:crossAx val="190757888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1395,7 +1404,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1766,14 +1775,17 @@
                 <c:pt idx="49">
                   <c:v>159516</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>162488</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177193344"/>
-        <c:axId val="177126016"/>
+        <c:axId val="190840832"/>
+        <c:axId val="190822656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2050,17 +2062,20 @@
                 <c:pt idx="49">
                   <c:v>2.7301377871329711E-2</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4997037745526151E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="177122688"/>
-        <c:axId val="177124480"/>
+        <c:axId val="190819328"/>
+        <c:axId val="190821120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177122688"/>
+        <c:axId val="190819328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,13 +2083,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177124480"/>
+        <c:crossAx val="190821120"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177124480"/>
+        <c:axId val="190821120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2088,24 +2103,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177122688"/>
+        <c:crossAx val="190819328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177126016"/>
+        <c:axId val="190822656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177193344"/>
+        <c:crossAx val="190840832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="177193344"/>
+        <c:axId val="190840832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2113,7 +2128,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="177126016"/>
+        <c:crossAx val="190822656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2128,7 +2143,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2500,17 +2515,20 @@
                 <c:pt idx="49">
                   <c:v>36717</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>26779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177496064"/>
-        <c:axId val="177497600"/>
+        <c:axId val="190860672"/>
+        <c:axId val="190878848"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="177496064"/>
+        <c:axId val="190860672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2518,13 +2536,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177497600"/>
+        <c:crossAx val="190878848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="177497600"/>
+        <c:axId val="190878848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2538,7 +2556,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177496064"/>
+        <c:crossAx val="190860672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2547,7 +2565,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2915,17 +2933,20 @@
                 <c:pt idx="49">
                   <c:v>3153</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>2972</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177521408"/>
-        <c:axId val="177522944"/>
+        <c:axId val="190906752"/>
+        <c:axId val="190908288"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="177521408"/>
+        <c:axId val="190906752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2933,13 +2954,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177522944"/>
+        <c:crossAx val="190908288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="177522944"/>
+        <c:axId val="190908288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +2974,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177521408"/>
+        <c:crossAx val="190906752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2962,7 +2983,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3333,14 +3354,17 @@
                 <c:pt idx="49">
                   <c:v>20465</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>21067</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177640576"/>
-        <c:axId val="177626496"/>
+        <c:axId val="190964480"/>
+        <c:axId val="190946304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3617,17 +3641,20 @@
                 <c:pt idx="49">
                   <c:v>2.9825908142586365E-2</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.8804374958674828E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="177623424"/>
-        <c:axId val="177624960"/>
+        <c:axId val="190943232"/>
+        <c:axId val="190944768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177623424"/>
+        <c:axId val="190943232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3635,13 +3662,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177624960"/>
+        <c:crossAx val="190944768"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177624960"/>
+        <c:axId val="190944768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3656,24 +3683,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177623424"/>
+        <c:crossAx val="190943232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177626496"/>
+        <c:axId val="190946304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177640576"/>
+        <c:crossAx val="190964480"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="177640576"/>
+        <c:axId val="190964480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,7 +3708,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="177626496"/>
+        <c:crossAx val="190946304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3696,7 +3723,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4067,17 +4094,20 @@
                 <c:pt idx="49">
                   <c:v>566</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>602</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177664768"/>
-        <c:axId val="177666304"/>
+        <c:axId val="190980480"/>
+        <c:axId val="190982016"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="177664768"/>
+        <c:axId val="190980480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4085,13 +4115,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177666304"/>
+        <c:crossAx val="190982016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="177666304"/>
+        <c:axId val="190982016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +4135,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177664768"/>
+        <c:crossAx val="190980480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4114,7 +4144,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4398,17 +4428,20 @@
                 <c:pt idx="35">
                   <c:v>3535</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>3384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="69265280"/>
-        <c:axId val="69266816"/>
+        <c:axId val="175990656"/>
+        <c:axId val="175992192"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="69265280"/>
+        <c:axId val="175990656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4416,13 +4449,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="69266816"/>
+        <c:crossAx val="175992192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="69266816"/>
+        <c:axId val="175992192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -4438,7 +4471,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69265280"/>
+        <c:crossAx val="175990656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4447,7 +4480,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000344" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000344" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4734,17 +4767,20 @@
                 <c:pt idx="35">
                   <c:v>54</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>160</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176241280"/>
-        <c:axId val="176251264"/>
+        <c:axId val="176003712"/>
+        <c:axId val="176013696"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176241280"/>
+        <c:axId val="176003712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4752,13 +4788,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176251264"/>
+        <c:crossAx val="176013696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176251264"/>
+        <c:axId val="176013696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,7 +4808,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176241280"/>
+        <c:crossAx val="176003712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4781,7 +4817,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5068,14 +5104,17 @@
                 <c:pt idx="35">
                   <c:v>368</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>384</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176312704"/>
-        <c:axId val="176298624"/>
+        <c:axId val="177373568"/>
+        <c:axId val="177359488"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5259,17 +5298,20 @@
                 <c:pt idx="35">
                   <c:v>6.1674516832445916E-2</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.425295288914285E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="176287104"/>
-        <c:axId val="176297088"/>
+        <c:axId val="177347968"/>
+        <c:axId val="177357952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176287104"/>
+        <c:axId val="177347968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5287,13 +5329,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176297088"/>
+        <c:crossAx val="177357952"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176297088"/>
+        <c:axId val="177357952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5308,24 +5350,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176287104"/>
+        <c:crossAx val="177347968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176298624"/>
+        <c:axId val="177359488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176312704"/>
+        <c:crossAx val="177373568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="176312704"/>
+        <c:axId val="177373568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5333,7 +5375,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="176298624"/>
+        <c:crossAx val="177359488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5348,7 +5390,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5632,17 +5674,20 @@
                 <c:pt idx="35">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176339584"/>
-        <c:axId val="176349568"/>
+        <c:axId val="177392256"/>
+        <c:axId val="177402240"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176339584"/>
+        <c:axId val="177392256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5650,13 +5695,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176349568"/>
+        <c:crossAx val="177402240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176349568"/>
+        <c:axId val="177402240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5670,7 +5715,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176339584"/>
+        <c:crossAx val="177392256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5679,7 +5724,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5996,14 +6041,17 @@
                 <c:pt idx="40">
                   <c:v>88621</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>93873</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176558848"/>
-        <c:axId val="176548864"/>
+        <c:axId val="189151104"/>
+        <c:axId val="189149568"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6226,17 +6274,20 @@
                 <c:pt idx="40">
                   <c:v>7.8725735410120512E-2</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.6414271795353539E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="176545792"/>
-        <c:axId val="176547328"/>
+        <c:axId val="189133952"/>
+        <c:axId val="189135488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176545792"/>
+        <c:axId val="189133952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6254,13 +6305,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176547328"/>
+        <c:crossAx val="189135488"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176547328"/>
+        <c:axId val="189135488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6274,24 +6325,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176545792"/>
+        <c:crossAx val="189133952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176548864"/>
+        <c:axId val="189149568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176558848"/>
+        <c:crossAx val="189151104"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="176558848"/>
+        <c:axId val="189151104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6299,7 +6350,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="176548864"/>
+        <c:crossAx val="189149568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6314,7 +6365,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -6629,17 +6680,20 @@
                 <c:pt idx="40">
                   <c:v>8346</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>11879</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176564480"/>
-        <c:axId val="176603904"/>
+        <c:axId val="189156736"/>
+        <c:axId val="189175680"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176564480"/>
+        <c:axId val="189156736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6647,13 +6701,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176603904"/>
+        <c:crossAx val="189175680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176603904"/>
+        <c:axId val="189175680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6667,7 +6721,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176564480"/>
+        <c:crossAx val="189156736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6676,7 +6730,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6990,17 +7044,20 @@
                 <c:pt idx="40">
                   <c:v>4342</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>5252</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176614784"/>
-        <c:axId val="176776320"/>
+        <c:axId val="190662912"/>
+        <c:axId val="190672896"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176614784"/>
+        <c:axId val="190662912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7008,13 +7065,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176776320"/>
+        <c:crossAx val="190672896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176776320"/>
+        <c:axId val="190672896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7028,7 +7085,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176614784"/>
+        <c:crossAx val="190662912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7037,7 +7094,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7324,14 +7381,17 @@
                 <c:pt idx="35">
                   <c:v>11329</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>12107</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176710784"/>
-        <c:axId val="176708992"/>
+        <c:axId val="190746624"/>
+        <c:axId val="190744832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7536,17 +7596,20 @@
                 <c:pt idx="35">
                   <c:v>9.8307859010108786E-2</c:v>
                 </c:pt>
+                <c:pt idx="36">
+                  <c:v>8.7215130407992086E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="176705920"/>
-        <c:axId val="176707456"/>
+        <c:axId val="190729216"/>
+        <c:axId val="190743296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="176705920"/>
+        <c:axId val="190729216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7564,13 +7627,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="176707456"/>
+        <c:crossAx val="190743296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="176707456"/>
+        <c:axId val="190743296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7584,24 +7647,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176705920"/>
+        <c:crossAx val="190729216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="176708992"/>
+        <c:axId val="190744832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176710784"/>
+        <c:crossAx val="190746624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="176710784"/>
+        <c:axId val="190746624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7609,7 +7672,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="176708992"/>
+        <c:crossAx val="190744832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7624,7 +7687,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8695,8 +8758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9433,6 +9496,15 @@
       <c r="B44" s="21">
         <v>43935</v>
       </c>
+      <c r="C44" s="2">
+        <v>302599</v>
+      </c>
+      <c r="D44" s="2">
+        <v>93873</v>
+      </c>
+      <c r="E44" s="2">
+        <v>12107</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
@@ -10130,6 +10202,18 @@
       <c r="B84" s="21">
         <v>43935</v>
       </c>
+      <c r="C84" s="2">
+        <v>151796</v>
+      </c>
+      <c r="D84" s="2">
+        <v>14159</v>
+      </c>
+      <c r="E84" s="2">
+        <v>384</v>
+      </c>
+      <c r="F84" s="2">
+        <v>7633</v>
+      </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
@@ -10990,6 +11074,15 @@
       </c>
       <c r="B137" s="21">
         <v>43935</v>
+      </c>
+      <c r="C137" s="2">
+        <v>1073689</v>
+      </c>
+      <c r="D137" s="2">
+        <v>162488</v>
+      </c>
+      <c r="E137" s="2">
+        <v>21067</v>
       </c>
     </row>
   </sheetData>
@@ -11009,7 +11102,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG50" sqref="AG50"/>
+      <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12754,11 +12847,11 @@
         <v>140975</v>
       </c>
       <c r="D39" s="2">
-        <f t="shared" ref="D39:D40" si="119">C39-C38</f>
+        <f t="shared" ref="D39" si="119">C39-C38</f>
         <v>6232</v>
       </c>
       <c r="E39" s="11">
-        <f t="shared" ref="E39:E40" si="120">H39/D39</f>
+        <f t="shared" ref="E39" si="120">H39/D39</f>
         <v>4.5571245186136075E-2</v>
       </c>
       <c r="G39" s="2">
@@ -12766,11 +12859,11 @@
         <v>13776</v>
       </c>
       <c r="H39" s="3">
-        <f t="shared" ref="H39:H40" si="121">G39-G38</f>
+        <f t="shared" ref="H39" si="121">G39-G38</f>
         <v>284</v>
       </c>
       <c r="I39" s="1">
-        <f t="shared" ref="I39:I40" si="122">G39/G38-1</f>
+        <f t="shared" ref="I39" si="122">G39/G38-1</f>
         <v>2.1049510821227413E-2</v>
       </c>
       <c r="J39" s="16">
@@ -12782,15 +12875,15 @@
         <v>337</v>
       </c>
       <c r="M39">
-        <f t="shared" ref="M39:M40" si="124">L39-L38</f>
+        <f t="shared" ref="M39" si="124">L39-L38</f>
         <v>18</v>
       </c>
       <c r="N39" s="1">
-        <f t="shared" ref="N39:N40" si="125">L39/L38-1</f>
+        <f t="shared" ref="N39" si="125">L39/L38-1</f>
         <v>5.6426332288401326E-2</v>
       </c>
       <c r="O39" s="16">
-        <f t="shared" ref="O39:O40" si="126">SUM(N35:N39)/5</f>
+        <f t="shared" ref="O39" si="126">SUM(N35:N39)/5</f>
         <v>8.9274117949356621E-2</v>
       </c>
     </row>
@@ -12904,6 +12997,50 @@
       </c>
       <c r="B42" s="13">
         <v>29</v>
+      </c>
+      <c r="C42" s="2">
+        <f>Data!C84</f>
+        <v>151796</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" ref="D42" si="142">C42-C41</f>
+        <v>3384</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" ref="E42" si="143">H42/D42</f>
+        <v>4.7281323877068557E-2</v>
+      </c>
+      <c r="G42" s="2">
+        <f>Data!D84</f>
+        <v>14159</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" ref="H42" si="144">G42-G41</f>
+        <v>160</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" ref="I42" si="145">G42/G41-1</f>
+        <v>1.1429387813415293E-2</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" ref="J42" si="146">SUM(I38:I42)/5</f>
+        <v>1.5112741345614734E-2</v>
+      </c>
+      <c r="L42">
+        <f>Data!E84</f>
+        <v>384</v>
+      </c>
+      <c r="M42">
+        <f t="shared" ref="M42" si="147">L42-L41</f>
+        <v>16</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ref="N42" si="148">L42/L41-1</f>
+        <v>4.3478260869565188E-2</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" ref="O42" si="149">SUM(N38:N42)/5</f>
+        <v>5.425295288914285E-2</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -12952,7 +13089,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+      <selection activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15101,6 +15238,50 @@
       <c r="B47" s="13">
         <f t="shared" si="16"/>
         <v>22</v>
+      </c>
+      <c r="C47" s="2">
+        <f>Data!C44</f>
+        <v>302599</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47" si="145">C47-C46</f>
+        <v>11879</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" ref="E47" si="146">H47/D47</f>
+        <v>0.44212475797626061</v>
+      </c>
+      <c r="G47" s="2">
+        <f>Data!D44</f>
+        <v>93873</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47" si="147">G47-G46</f>
+        <v>5252</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ref="I47" si="148">G47/G46-1</f>
+        <v>5.9263605691653121E-2</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" ref="J47" si="149">SUM(I43:I47)/5</f>
+        <v>7.6414271795353539E-2</v>
+      </c>
+      <c r="L47" s="2">
+        <f>Data!E44</f>
+        <v>12107</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47" si="150">L47-L46</f>
+        <v>778</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ref="N47" si="151">L47/L46-1</f>
+        <v>6.8673316267984896E-2</v>
+      </c>
+      <c r="O47" s="16">
+        <f t="shared" ref="O47" si="152">SUM(N43:N47)/5</f>
+        <v>8.7215130407992086E-2</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -15152,7 +15333,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I58" sqref="I58"/>
+      <selection activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17635,11 +17816,11 @@
         <v>963473</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" ref="D53:D54" si="100">C53-C52</f>
+        <f t="shared" ref="D53" si="100">C53-C52</f>
         <v>56609</v>
       </c>
       <c r="E53" s="11">
-        <f t="shared" ref="E53:E54" si="101">H53/D53</f>
+        <f t="shared" ref="E53" si="101">H53/D53</f>
         <v>8.2919677083149318E-2</v>
       </c>
       <c r="G53" s="2">
@@ -17647,15 +17828,15 @@
         <v>152271</v>
       </c>
       <c r="H53" s="3">
-        <f t="shared" ref="H53:H54" si="102">G53-G52</f>
+        <f t="shared" ref="H53" si="102">G53-G52</f>
         <v>4694</v>
       </c>
       <c r="I53" s="1">
-        <f t="shared" ref="I53:I54" si="103">G53/G52-1</f>
+        <f t="shared" ref="I53" si="103">G53/G52-1</f>
         <v>3.1807124416406429E-2</v>
       </c>
       <c r="J53" s="16">
-        <f t="shared" ref="J53:J54" si="104">SUM(I49:I53)/5</f>
+        <f t="shared" ref="J53" si="104">SUM(I49:I53)/5</f>
         <v>2.8137770902550228E-2</v>
       </c>
       <c r="L53" s="2">
@@ -17663,15 +17844,15 @@
         <v>19468</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M54" si="105">L53-L52</f>
+        <f t="shared" ref="M53" si="105">L53-L52</f>
         <v>619</v>
       </c>
       <c r="N53" s="1">
-        <f t="shared" ref="N53:N54" si="106">L53/L52-1</f>
+        <f t="shared" ref="N53" si="106">L53/L52-1</f>
         <v>3.2839938458273599E-2</v>
       </c>
       <c r="O53" s="16">
-        <f t="shared" ref="O53:O54" si="107">SUM(N49:N53)/5</f>
+        <f t="shared" ref="O53" si="107">SUM(N49:N53)/5</f>
         <v>3.3349609979653305E-2</v>
       </c>
     </row>
@@ -17785,6 +17966,50 @@
       </c>
       <c r="B56" s="13">
         <v>36</v>
+      </c>
+      <c r="C56" s="2">
+        <f>Data!C137</f>
+        <v>1073689</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56" si="124">C56-C55</f>
+        <v>26779</v>
+      </c>
+      <c r="E56" s="11">
+        <f t="shared" ref="E56" si="125">H56/D56</f>
+        <v>0.11098248627655999</v>
+      </c>
+      <c r="G56" s="2">
+        <f>Data!D137</f>
+        <v>162488</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" ref="H56" si="126">G56-G55</f>
+        <v>2972</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" ref="I56" si="127">G56/G55-1</f>
+        <v>1.8631359863587438E-2</v>
+      </c>
+      <c r="J56" s="16">
+        <f t="shared" ref="J56" si="128">SUM(I52:I56)/5</f>
+        <v>2.4997037745526151E-2</v>
+      </c>
+      <c r="L56" s="2">
+        <f>Data!E137</f>
+        <v>21067</v>
+      </c>
+      <c r="M56">
+        <f t="shared" ref="M56" si="129">L56-L55</f>
+        <v>602</v>
+      </c>
+      <c r="N56" s="1">
+        <f t="shared" ref="N56" si="130">L56/L55-1</f>
+        <v>2.9416076227705812E-2</v>
+      </c>
+      <c r="O56" s="16">
+        <f t="shared" ref="O56" si="131">SUM(N52:N56)/5</f>
+        <v>2.8804374958674828E-2</v>
       </c>
     </row>
     <row r="57" spans="1:15">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
     <sheet name="Austria" sheetId="1" r:id="rId2"/>
     <sheet name="UK" sheetId="4" r:id="rId3"/>
     <sheet name="Italy" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sweden" sheetId="7" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -193,8 +194,42 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>David Goddard</author>
+  </authors>
+  <commentList>
+    <comment ref="O4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>David Goddard:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5 day moving average of the percentage *point* gain</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -278,6 +313,18 @@
   </si>
   <si>
     <t>09:30 figures</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>https://data.humdata.org/dataset/novel-coronavirus-2019-ncov-cases</t>
+  </si>
+  <si>
+    <t>SWEDEN</t>
+  </si>
+  <si>
+    <t>https://experience.arcgis.com/experience/09f821667ce64bf7be6f9f87457ed9aa</t>
   </si>
 </sst>
 </file>
@@ -393,7 +440,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -453,6 +500,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4150,6 +4198,1953 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total Cases/Daily</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Increase %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cases</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sweden!$A$6:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sweden!$G$6:$G$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>814</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>961</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1103</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1190</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1279</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1439</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1639</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1763</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2286</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2526</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2840</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3069</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3447</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3700</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4028</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4435</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4947</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5568</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6131</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6443</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6830</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7206</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7693</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>8419</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9141</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9685</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>10151</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>10483</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>10948</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>11445</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="219387392"/>
+        <c:axId val="219385856"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sweden!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5DMA%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sweden!$A$11:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="25"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43923</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sweden!$J$6:$J$50</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="5">
+                  <c:v>0.56735724376518903</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.31650470920297702</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.38330123302677077</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30408935183865193</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.3237017493127029</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.31548471006118084</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.24188949674172194</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17605062791230713</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.15222578657051203</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5397459246260127E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4299069649043323E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9401041694319889E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.868094722594925E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.10230454069480052</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.8928770531512902E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.7369634567978341E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0569928589599516E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.10030019205577459</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.7028200492098676E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.11007941854715297</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.10129843937958238</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.8030793781228101E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3377892986238817E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.10034019668441437</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.10081289052356687</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.10635616028337802</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.8804215580560711E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.0608712767025604E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>7.852989740737315E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.6940286499274346E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.5591886662730928E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.2565782357994518E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.2455162631649861E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.1068042279049545E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.4092755728226217E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4089960663555738E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.6017563828847766E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="210957056"/>
+        <c:axId val="210958592"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="210957056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d/m" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210958592"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210958592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="210957056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="219385856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="219387392"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="219387392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="219385856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily Tests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sweden!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sweden!$A$6:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sweden!$D$6:$D$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="220611328"/>
+        <c:axId val="220612864"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="220611328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="220612864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="220612864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="220611328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily New Cases</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sweden!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sweden!$A$6:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sweden!$H$6:$H$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="1">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>621</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>563</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>487</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>726</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>722</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>544</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>466</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>465</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="220618752"/>
+        <c:axId val="220620288"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="220618752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="220620288"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="220620288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="220618752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total Deaths/Daily</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Increase %</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Deaths</c:v>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sweden!$A$11:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sweden!$L$11:$L$50</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>591</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>687</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>793</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>870</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>887</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>919</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1033</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="210994688"/>
+        <c:axId val="210993152"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sweden!$O$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5DMA%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sweden!$A$11:$A$29</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43917</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sweden!$O$11:$O$50</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="5">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53333333333333344</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.61904761904761918</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.43904761904761908</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42995670995670998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.27995670995671001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.25662337662337664</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.20900432900432903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27700432900432903</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.33053968253968258</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.32892677931387609</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.39165405204114878</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.35355881394591071</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.27508262346972023</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.19609272447982126</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.19428097017138116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.18710925299966399</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.24484983877372257</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.26779356171744551</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.21071890453105646</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.1791569668910403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15150664824321541</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.1415648046075216</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.14158458178465919</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.1640634999211607</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.16847001943338058</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.13447282850266143</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>8.9379836082447733E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.1341914646898935E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5292683867921077E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="210989824"/>
+        <c:axId val="210991360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="210989824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="d/m" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="210991360"/>
+        <c:crosses val="autoZero"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="210991360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="210989824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="210993152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="210994688"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dateAx>
+        <c:axId val="210994688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
+        <c:tickLblPos val="none"/>
+        <c:crossAx val="210993152"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-GB"/>
@@ -4481,6 +6476,373 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-GB"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Daily New Deaths</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sweden!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sweden!$A$6:$A$50</c:f>
+              <c:numCache>
+                <c:formatCode>dd\-mmm</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>43894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43896</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43897</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43902</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43903</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43904</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43905</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43906</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43908</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43909</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43910</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43911</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43912</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43913</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43914</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43915</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43916</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43917</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43918</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43919</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43920</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43921</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43924</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43926</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43927</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43932</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43933</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43938</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sweden!$M$6:$M$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="211027456"/>
+        <c:axId val="211028992"/>
+      </c:barChart>
+      <c:dateAx>
+        <c:axId val="211027456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="211028992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="211028992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="211027456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8471,6 +10833,161 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>131445</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>177165</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>169545</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -8756,10 +11273,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H181"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F181" sqref="F181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10932,7 +13449,7 @@
         <v>15887</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:8">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -10949,7 +13466,7 @@
         <v>16523</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:8">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -10966,7 +13483,7 @@
         <v>17127</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:8">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -10983,7 +13500,7 @@
         <v>17669</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:8">
       <c r="A132" t="s">
         <v>25</v>
       </c>
@@ -11000,7 +13517,7 @@
         <v>18279</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:8">
       <c r="A133" t="s">
         <v>25</v>
       </c>
@@ -11017,7 +13534,7 @@
         <v>18849</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:8">
       <c r="A134" t="s">
         <v>25</v>
       </c>
@@ -11034,7 +13551,7 @@
         <v>19468</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:8">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -11051,7 +13568,7 @@
         <v>19899</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:8">
       <c r="A136" t="s">
         <v>25</v>
       </c>
@@ -11068,7 +13585,7 @@
         <v>20465</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:8">
       <c r="A137" t="s">
         <v>25</v>
       </c>
@@ -11083,6 +13600,720 @@
       </c>
       <c r="E137" s="2">
         <v>21067</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
+      <c r="A140" t="s">
+        <v>28</v>
+      </c>
+      <c r="B140" s="21">
+        <v>43894</v>
+      </c>
+      <c r="D140" s="2">
+        <v>35</v>
+      </c>
+      <c r="E140" s="2">
+        <v>0</v>
+      </c>
+      <c r="F140" s="2">
+        <v>0</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
+      <c r="A141" t="s">
+        <v>28</v>
+      </c>
+      <c r="B141" s="21">
+        <v>43895</v>
+      </c>
+      <c r="D141" s="2">
+        <v>94</v>
+      </c>
+      <c r="E141" s="2">
+        <v>0</v>
+      </c>
+      <c r="F141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" t="s">
+        <v>28</v>
+      </c>
+      <c r="B142" s="21">
+        <v>43896</v>
+      </c>
+      <c r="D142" s="2">
+        <v>101</v>
+      </c>
+      <c r="E142" s="2">
+        <v>0</v>
+      </c>
+      <c r="F142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B143" s="21">
+        <v>43897</v>
+      </c>
+      <c r="D143" s="2">
+        <v>161</v>
+      </c>
+      <c r="E143" s="2">
+        <v>0</v>
+      </c>
+      <c r="F143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
+      <c r="A144" t="s">
+        <v>28</v>
+      </c>
+      <c r="B144" s="21">
+        <v>43898</v>
+      </c>
+      <c r="D144" s="2">
+        <v>203</v>
+      </c>
+      <c r="E144" s="2">
+        <v>0</v>
+      </c>
+      <c r="F144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" s="21">
+        <v>43899</v>
+      </c>
+      <c r="D145" s="2">
+        <v>248</v>
+      </c>
+      <c r="E145" s="2">
+        <v>0</v>
+      </c>
+      <c r="F145" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" t="s">
+        <v>28</v>
+      </c>
+      <c r="B146" s="21">
+        <v>43900</v>
+      </c>
+      <c r="D146" s="2">
+        <v>355</v>
+      </c>
+      <c r="E146" s="2">
+        <v>0</v>
+      </c>
+      <c r="F146" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" t="s">
+        <v>28</v>
+      </c>
+      <c r="B147" s="21">
+        <v>43901</v>
+      </c>
+      <c r="D147" s="2">
+        <v>500</v>
+      </c>
+      <c r="E147" s="2">
+        <v>1</v>
+      </c>
+      <c r="F147" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" t="s">
+        <v>28</v>
+      </c>
+      <c r="B148" s="21">
+        <v>43902</v>
+      </c>
+      <c r="D148" s="2">
+        <v>599</v>
+      </c>
+      <c r="E148" s="2">
+        <v>1</v>
+      </c>
+      <c r="F148" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" t="s">
+        <v>28</v>
+      </c>
+      <c r="B149" s="21">
+        <v>43903</v>
+      </c>
+      <c r="D149" s="2">
+        <v>814</v>
+      </c>
+      <c r="E149" s="2">
+        <v>1</v>
+      </c>
+      <c r="F149" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>28</v>
+      </c>
+      <c r="B150" s="21">
+        <v>43904</v>
+      </c>
+      <c r="D150" s="2">
+        <v>961</v>
+      </c>
+      <c r="E150" s="2">
+        <v>2</v>
+      </c>
+      <c r="F150" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>28</v>
+      </c>
+      <c r="B151" s="21">
+        <v>43905</v>
+      </c>
+      <c r="D151" s="2">
+        <v>1022</v>
+      </c>
+      <c r="E151" s="2">
+        <v>3</v>
+      </c>
+      <c r="F151" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>28</v>
+      </c>
+      <c r="B152" s="21">
+        <v>43906</v>
+      </c>
+      <c r="D152" s="2">
+        <v>1103</v>
+      </c>
+      <c r="E152" s="2">
+        <v>6</v>
+      </c>
+      <c r="F152" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>28</v>
+      </c>
+      <c r="B153" s="21">
+        <v>43907</v>
+      </c>
+      <c r="D153" s="2">
+        <v>1190</v>
+      </c>
+      <c r="E153" s="2">
+        <v>7</v>
+      </c>
+      <c r="F153" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>28</v>
+      </c>
+      <c r="B154" s="21">
+        <v>43908</v>
+      </c>
+      <c r="D154" s="2">
+        <v>1279</v>
+      </c>
+      <c r="E154" s="2">
+        <v>10</v>
+      </c>
+      <c r="F154" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>28</v>
+      </c>
+      <c r="B155" s="21">
+        <v>43909</v>
+      </c>
+      <c r="D155" s="2">
+        <v>1439</v>
+      </c>
+      <c r="E155" s="2">
+        <v>11</v>
+      </c>
+      <c r="F155" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>28</v>
+      </c>
+      <c r="B156" s="21">
+        <v>43910</v>
+      </c>
+      <c r="D156" s="2">
+        <v>1639</v>
+      </c>
+      <c r="E156" s="2">
+        <v>16</v>
+      </c>
+      <c r="F156" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157" s="21">
+        <v>43911</v>
+      </c>
+      <c r="D157" s="2">
+        <v>1763</v>
+      </c>
+      <c r="E157" s="2">
+        <v>20</v>
+      </c>
+      <c r="F157" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>28</v>
+      </c>
+      <c r="B158" s="21">
+        <v>43912</v>
+      </c>
+      <c r="D158" s="2">
+        <v>1934</v>
+      </c>
+      <c r="E158" s="2">
+        <v>21</v>
+      </c>
+      <c r="F158" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>28</v>
+      </c>
+      <c r="B159" s="21">
+        <v>43913</v>
+      </c>
+      <c r="D159" s="2">
+        <v>2046</v>
+      </c>
+      <c r="E159" s="2">
+        <v>25</v>
+      </c>
+      <c r="F159" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>28</v>
+      </c>
+      <c r="B160" s="21">
+        <v>43914</v>
+      </c>
+      <c r="D160" s="2">
+        <v>2286</v>
+      </c>
+      <c r="E160" s="2">
+        <v>36</v>
+      </c>
+      <c r="F160" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>28</v>
+      </c>
+      <c r="B161" s="21">
+        <v>43915</v>
+      </c>
+      <c r="D161" s="2">
+        <v>2526</v>
+      </c>
+      <c r="E161" s="2">
+        <v>62</v>
+      </c>
+      <c r="F161" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>28</v>
+      </c>
+      <c r="B162" s="21">
+        <v>43916</v>
+      </c>
+      <c r="D162" s="2">
+        <v>2840</v>
+      </c>
+      <c r="E162" s="2">
+        <v>77</v>
+      </c>
+      <c r="F162" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>28</v>
+      </c>
+      <c r="B163" s="21">
+        <v>43917</v>
+      </c>
+      <c r="D163" s="2">
+        <v>3069</v>
+      </c>
+      <c r="E163" s="2">
+        <v>105</v>
+      </c>
+      <c r="F163" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>28</v>
+      </c>
+      <c r="B164" s="21">
+        <v>43918</v>
+      </c>
+      <c r="D164" s="2">
+        <v>3447</v>
+      </c>
+      <c r="E164" s="2">
+        <v>105</v>
+      </c>
+      <c r="F164" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>28</v>
+      </c>
+      <c r="B165" s="21">
+        <v>43919</v>
+      </c>
+      <c r="D165" s="2">
+        <v>3700</v>
+      </c>
+      <c r="E165" s="2">
+        <v>110</v>
+      </c>
+      <c r="F165" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>28</v>
+      </c>
+      <c r="B166" s="21">
+        <v>43920</v>
+      </c>
+      <c r="D166" s="2">
+        <v>4028</v>
+      </c>
+      <c r="E166" s="2">
+        <v>146</v>
+      </c>
+      <c r="F166" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>28</v>
+      </c>
+      <c r="B167" s="21">
+        <v>43921</v>
+      </c>
+      <c r="D167" s="2">
+        <v>4435</v>
+      </c>
+      <c r="E167" s="2">
+        <v>180</v>
+      </c>
+      <c r="F167" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>28</v>
+      </c>
+      <c r="B168" s="21">
+        <v>43922</v>
+      </c>
+      <c r="D168" s="2">
+        <v>4947</v>
+      </c>
+      <c r="E168" s="2">
+        <v>239</v>
+      </c>
+      <c r="F168" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>28</v>
+      </c>
+      <c r="B169" s="21">
+        <v>43923</v>
+      </c>
+      <c r="D169" s="2">
+        <v>5568</v>
+      </c>
+      <c r="E169" s="2">
+        <v>308</v>
+      </c>
+      <c r="F169" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>28</v>
+      </c>
+      <c r="B170" s="21">
+        <v>43924</v>
+      </c>
+      <c r="D170" s="2">
+        <v>6131</v>
+      </c>
+      <c r="E170" s="2">
+        <v>358</v>
+      </c>
+      <c r="F170" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>28</v>
+      </c>
+      <c r="B171" s="21">
+        <v>43925</v>
+      </c>
+      <c r="D171" s="2">
+        <v>6443</v>
+      </c>
+      <c r="E171" s="2">
+        <v>373</v>
+      </c>
+      <c r="F171" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>28</v>
+      </c>
+      <c r="B172" s="21">
+        <v>43926</v>
+      </c>
+      <c r="D172" s="2">
+        <v>6830</v>
+      </c>
+      <c r="E172" s="2">
+        <v>401</v>
+      </c>
+      <c r="F172" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>28</v>
+      </c>
+      <c r="B173" s="21">
+        <v>43927</v>
+      </c>
+      <c r="D173" s="2">
+        <v>7206</v>
+      </c>
+      <c r="E173" s="2">
+        <v>477</v>
+      </c>
+      <c r="F173" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>28</v>
+      </c>
+      <c r="B174" s="21">
+        <v>43928</v>
+      </c>
+      <c r="D174" s="2">
+        <v>7693</v>
+      </c>
+      <c r="E174" s="2">
+        <v>591</v>
+      </c>
+      <c r="F174" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>28</v>
+      </c>
+      <c r="B175" s="21">
+        <v>43929</v>
+      </c>
+      <c r="D175" s="2">
+        <v>8419</v>
+      </c>
+      <c r="E175" s="2">
+        <v>687</v>
+      </c>
+      <c r="F175" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>28</v>
+      </c>
+      <c r="B176" s="21">
+        <v>43930</v>
+      </c>
+      <c r="D176" s="2">
+        <v>9141</v>
+      </c>
+      <c r="E176" s="2">
+        <v>793</v>
+      </c>
+      <c r="F176" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>28</v>
+      </c>
+      <c r="B177" s="21">
+        <v>43931</v>
+      </c>
+      <c r="D177" s="2">
+        <v>9685</v>
+      </c>
+      <c r="E177" s="2">
+        <v>870</v>
+      </c>
+      <c r="F177" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>28</v>
+      </c>
+      <c r="B178" s="21">
+        <v>43932</v>
+      </c>
+      <c r="D178" s="2">
+        <v>10151</v>
+      </c>
+      <c r="E178" s="2">
+        <v>887</v>
+      </c>
+      <c r="F178" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>28</v>
+      </c>
+      <c r="B179" s="21">
+        <v>43933</v>
+      </c>
+      <c r="D179" s="2">
+        <v>10483</v>
+      </c>
+      <c r="E179" s="2">
+        <v>899</v>
+      </c>
+      <c r="F179" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>28</v>
+      </c>
+      <c r="B180" s="21">
+        <v>43934</v>
+      </c>
+      <c r="D180" s="2">
+        <v>10948</v>
+      </c>
+      <c r="E180" s="2">
+        <v>919</v>
+      </c>
+      <c r="F180" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>28</v>
+      </c>
+      <c r="B181" s="21">
+        <v>43935</v>
+      </c>
+      <c r="D181" s="2">
+        <v>11445</v>
+      </c>
+      <c r="E181" s="2">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
@@ -11090,10 +14321,11 @@
     <hyperlink ref="H47" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
     <hyperlink ref="H87" r:id="rId3"/>
+    <hyperlink ref="H140" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
-  <legacyDrawing r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
+  <legacyDrawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -11101,7 +14333,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
@@ -13089,7 +16321,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M50" sqref="M50"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18055,13 +21287,1948 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N49" sqref="N49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="13" customWidth="1"/>
+    <col min="3" max="4" width="10.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="1.28515625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="10.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="16" customWidth="1"/>
+    <col min="11" max="11" width="1.140625" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="3.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="28.5">
+      <c r="A1" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+      <c r="B3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="L3" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+    </row>
+    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="A4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="8">
+        <v>43894</v>
+      </c>
+      <c r="C6" s="2">
+        <f>Data!C140</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f>Data!D140</f>
+        <v>35</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="L6" s="2">
+        <f>Data!E140</f>
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M47" si="0">L6-L5</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="8">
+        <v>43895</v>
+      </c>
+      <c r="C7" s="2">
+        <f>Data!C141</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D47" si="1">C7-C6</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <f>Data!D141</f>
+        <v>94</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" ref="H7:H25" si="2">G7-G6</f>
+        <v>59</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" ref="I7:I47" si="3">G7/G6-1</f>
+        <v>1.6857142857142855</v>
+      </c>
+      <c r="L7" s="2">
+        <f>Data!E141</f>
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="16"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="8">
+        <v>43896</v>
+      </c>
+      <c r="C8" s="2">
+        <f>Data!C142</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <f>Data!D142</f>
+        <v>101</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4468085106383031E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <f>Data!E142</f>
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="16"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="8">
+        <v>43897</v>
+      </c>
+      <c r="C9" s="2">
+        <f>Data!C143</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <f>Data!D143</f>
+        <v>161</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="3"/>
+        <v>0.59405940594059414</v>
+      </c>
+      <c r="L9" s="2">
+        <f>Data!E143</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="16"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="8">
+        <v>43898</v>
+      </c>
+      <c r="C10" s="2">
+        <f>Data!C144</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f>Data!D144</f>
+        <v>203</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="3"/>
+        <v>0.26086956521739135</v>
+      </c>
+      <c r="L10" s="2">
+        <f>Data!E144</f>
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="8">
+        <v>43899</v>
+      </c>
+      <c r="C11" s="2">
+        <f>Data!C145</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2">
+        <f>Data!D145</f>
+        <v>248</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2216748768472907</v>
+      </c>
+      <c r="J11" s="16">
+        <f t="shared" ref="J11:J15" si="4">SUM(I7:I11)/5</f>
+        <v>0.56735724376518903</v>
+      </c>
+      <c r="L11" s="2">
+        <f>Data!E145</f>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="16"/>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="8">
+        <v>43900</v>
+      </c>
+      <c r="C12" s="2">
+        <f>Data!C146</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f>Data!D146</f>
+        <v>355</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.43145161290322576</v>
+      </c>
+      <c r="J12" s="16">
+        <f t="shared" si="4"/>
+        <v>0.31650470920297702</v>
+      </c>
+      <c r="L12" s="2">
+        <f>Data!E146</f>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="16"/>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="8">
+        <v>43901</v>
+      </c>
+      <c r="C13" s="2">
+        <f>Data!C147</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="2">
+        <f>Data!D147</f>
+        <v>500</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="3"/>
+        <v>0.40845070422535201</v>
+      </c>
+      <c r="J13" s="16">
+        <f t="shared" si="4"/>
+        <v>0.38330123302677077</v>
+      </c>
+      <c r="L13" s="2">
+        <f>Data!E147</f>
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="16"/>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="8">
+        <v>43902</v>
+      </c>
+      <c r="C14" s="2">
+        <f>Data!C148</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="2">
+        <f>Data!D148</f>
+        <v>599</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="3"/>
+        <v>0.19799999999999995</v>
+      </c>
+      <c r="J14" s="16">
+        <f t="shared" si="4"/>
+        <v>0.30408935183865193</v>
+      </c>
+      <c r="L14" s="2">
+        <f>Data!E148</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" ref="N9:N47" si="5">L14/L13-1</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="16"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="8">
+        <v>43903</v>
+      </c>
+      <c r="C15" s="2">
+        <f>Data!C149</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="2">
+        <f>Data!D149</f>
+        <v>814</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="2"/>
+        <v>215</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.35893155258764597</v>
+      </c>
+      <c r="J15" s="16">
+        <f t="shared" si="4"/>
+        <v>0.3237017493127029</v>
+      </c>
+      <c r="L15" s="2">
+        <f>Data!E149</f>
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="16"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="8">
+        <v>43904</v>
+      </c>
+      <c r="C16" s="2">
+        <f>Data!C150</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2">
+        <f>Data!D150</f>
+        <v>961</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="2"/>
+        <v>147</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.1805896805896805</v>
+      </c>
+      <c r="J16" s="16">
+        <f>SUM(I12:I16)/5</f>
+        <v>0.31548471006118084</v>
+      </c>
+      <c r="L16" s="2">
+        <f>Data!E150</f>
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O16" s="16">
+        <f t="shared" ref="O11:O17" si="6">SUM(N12:N16)/5</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="8">
+        <v>43905</v>
+      </c>
+      <c r="C17" s="2">
+        <f>Data!C151</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="2">
+        <f>Data!D151</f>
+        <v>1022</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="2"/>
+        <v>61</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="3"/>
+        <v>6.347554630593133E-2</v>
+      </c>
+      <c r="J17" s="16">
+        <f t="shared" ref="J17:J31" si="7">SUM(I13:I17)/5</f>
+        <v>0.24188949674172194</v>
+      </c>
+      <c r="L17" s="2">
+        <f>Data!E151</f>
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="16">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="8">
+        <v>43906</v>
+      </c>
+      <c r="C18" s="2">
+        <f>Data!C152</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="2">
+        <f>Data!D152</f>
+        <v>1103</v>
+      </c>
+      <c r="H18" s="3">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="3"/>
+        <v>7.9256360078277854E-2</v>
+      </c>
+      <c r="J18" s="16">
+        <f t="shared" si="7"/>
+        <v>0.17605062791230713</v>
+      </c>
+      <c r="L18" s="2">
+        <f>Data!E152</f>
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N18" s="1">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="O18" s="16">
+        <f t="shared" ref="O18:O31" si="8">SUM(N14:N18)/5</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="8">
+        <v>43907</v>
+      </c>
+      <c r="C19" s="2">
+        <f>Data!C153</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="2">
+        <f>Data!D153</f>
+        <v>1190</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="3"/>
+        <v>7.8875793291024454E-2</v>
+      </c>
+      <c r="J19" s="16">
+        <f t="shared" si="7"/>
+        <v>0.15222578657051203</v>
+      </c>
+      <c r="L19" s="2">
+        <f>Data!E153</f>
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <f t="shared" si="5"/>
+        <v>0.16666666666666674</v>
+      </c>
+      <c r="O19" s="16">
+        <f t="shared" si="8"/>
+        <v>0.53333333333333344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="8">
+        <v>43908</v>
+      </c>
+      <c r="C20" s="2">
+        <f>Data!C154</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="2">
+        <f>Data!D154</f>
+        <v>1279</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="3"/>
+        <v>7.4789915966386511E-2</v>
+      </c>
+      <c r="J20" s="16">
+        <f t="shared" si="7"/>
+        <v>9.5397459246260127E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <f>Data!E154</f>
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="O20" s="16">
+        <f t="shared" si="8"/>
+        <v>0.61904761904761918</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="8">
+        <v>43909</v>
+      </c>
+      <c r="C21" s="2">
+        <f>Data!C155</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="2">
+        <f>Data!D155</f>
+        <v>1439</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12509773260359647</v>
+      </c>
+      <c r="J21" s="16">
+        <f t="shared" si="7"/>
+        <v>8.4299069649043323E-2</v>
+      </c>
+      <c r="L21" s="2">
+        <f>Data!E155</f>
+        <v>11</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N21" s="1">
+        <f t="shared" si="5"/>
+        <v>0.10000000000000009</v>
+      </c>
+      <c r="O21" s="16">
+        <f t="shared" si="8"/>
+        <v>0.43904761904761908</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="8">
+        <v>43910</v>
+      </c>
+      <c r="C22" s="2">
+        <f>Data!C156</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="2">
+        <f>Data!D156</f>
+        <v>1639</v>
+      </c>
+      <c r="H22" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="3"/>
+        <v>0.13898540653231417</v>
+      </c>
+      <c r="J22" s="16">
+        <f t="shared" si="7"/>
+        <v>9.9401041694319889E-2</v>
+      </c>
+      <c r="L22" s="2">
+        <f>Data!E156</f>
+        <v>16</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N22" s="1">
+        <f t="shared" si="5"/>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="O22" s="16">
+        <f t="shared" si="8"/>
+        <v>0.42995670995670998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="8">
+        <v>43911</v>
+      </c>
+      <c r="C23" s="2">
+        <f>Data!C157</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="2">
+        <f>Data!D157</f>
+        <v>1763</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5655887736424621E-2</v>
+      </c>
+      <c r="J23" s="16">
+        <f t="shared" si="7"/>
+        <v>9.868094722594925E-2</v>
+      </c>
+      <c r="L23" s="2">
+        <f>Data!E157</f>
+        <v>20</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="O23" s="16">
+        <f t="shared" si="8"/>
+        <v>0.27995670995671001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="8">
+        <v>43912</v>
+      </c>
+      <c r="C24" s="2">
+        <f>Data!C158</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="2">
+        <f>Data!D158</f>
+        <v>1934</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="2"/>
+        <v>171</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="3"/>
+        <v>9.6993760635280868E-2</v>
+      </c>
+      <c r="J24" s="16">
+        <f t="shared" si="7"/>
+        <v>0.10230454069480052</v>
+      </c>
+      <c r="L24" s="2">
+        <f>Data!E158</f>
+        <v>21</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N24" s="1">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000044E-2</v>
+      </c>
+      <c r="O24" s="16">
+        <f t="shared" si="8"/>
+        <v>0.25662337662337664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="8">
+        <v>43913</v>
+      </c>
+      <c r="C25" s="2">
+        <f>Data!C159</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="2">
+        <f>Data!D159</f>
+        <v>2046</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7911065149948371E-2</v>
+      </c>
+      <c r="J25" s="16">
+        <f t="shared" si="7"/>
+        <v>9.8928770531512902E-2</v>
+      </c>
+      <c r="L25" s="2">
+        <f>Data!E159</f>
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="N25" s="1">
+        <f t="shared" si="5"/>
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="O25" s="16">
+        <f t="shared" si="8"/>
+        <v>0.20900432900432903</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="8">
+        <v>43914</v>
+      </c>
+      <c r="C26" s="2">
+        <f>Data!C160</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="2">
+        <f>Data!D160</f>
+        <v>2286</v>
+      </c>
+      <c r="H26" s="3">
+        <f>G26-G25</f>
+        <v>240</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11730205278592365</v>
+      </c>
+      <c r="J26" s="16">
+        <f t="shared" si="7"/>
+        <v>9.7369634567978341E-2</v>
+      </c>
+      <c r="L26" s="2">
+        <f>Data!E160</f>
+        <v>36</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="5"/>
+        <v>0.43999999999999995</v>
+      </c>
+      <c r="O26" s="16">
+        <f t="shared" si="8"/>
+        <v>0.27700432900432903</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="8">
+        <v>43915</v>
+      </c>
+      <c r="C27" s="2">
+        <f>Data!C161</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="2">
+        <f>Data!D161</f>
+        <v>2526</v>
+      </c>
+      <c r="H27" s="3">
+        <f>G27-G26</f>
+        <v>240</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10498687664042006</v>
+      </c>
+      <c r="J27" s="16">
+        <f t="shared" si="7"/>
+        <v>9.0569928589599516E-2</v>
+      </c>
+      <c r="L27" s="2">
+        <f>Data!E161</f>
+        <v>62</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="N27" s="1">
+        <f t="shared" si="5"/>
+        <v>0.72222222222222232</v>
+      </c>
+      <c r="O27" s="16">
+        <f t="shared" si="8"/>
+        <v>0.33053968253968258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="8">
+        <v>43916</v>
+      </c>
+      <c r="C28" s="2">
+        <f>Data!C162</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="2">
+        <f>Data!D162</f>
+        <v>2840</v>
+      </c>
+      <c r="H28" s="3">
+        <f>G28-G27</f>
+        <v>314</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12430720506729998</v>
+      </c>
+      <c r="J28" s="16">
+        <f t="shared" si="7"/>
+        <v>0.10030019205577459</v>
+      </c>
+      <c r="L28" s="2">
+        <f>Data!E162</f>
+        <v>77</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N28" s="1">
+        <f t="shared" si="5"/>
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="O28" s="16">
+        <f t="shared" si="8"/>
+        <v>0.32892677931387609</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="8">
+        <v>43917</v>
+      </c>
+      <c r="C29" s="2">
+        <f>Data!C163</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29" s="2">
+        <f>Data!D163</f>
+        <v>3069</v>
+      </c>
+      <c r="H29" s="3">
+        <f t="shared" ref="H29:H47" si="9">G29-G28</f>
+        <v>229</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="3"/>
+        <v>8.0633802816901357E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <f t="shared" si="7"/>
+        <v>9.7028200492098676E-2</v>
+      </c>
+      <c r="L29" s="2">
+        <f>Data!E163</f>
+        <v>105</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="5"/>
+        <v>0.36363636363636354</v>
+      </c>
+      <c r="O29" s="16">
+        <f t="shared" si="8"/>
+        <v>0.39165405204114878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="8">
+        <v>43918</v>
+      </c>
+      <c r="C30" s="2">
+        <f>Data!C164</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30" s="2">
+        <f>Data!D164</f>
+        <v>3447</v>
+      </c>
+      <c r="H30" s="3">
+        <f t="shared" si="9"/>
+        <v>378</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12316715542521983</v>
+      </c>
+      <c r="J30" s="16">
+        <f t="shared" si="7"/>
+        <v>0.11007941854715297</v>
+      </c>
+      <c r="L30" s="2">
+        <f>Data!E164</f>
+        <v>105</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O30" s="16">
+        <f t="shared" si="8"/>
+        <v>0.35355881394591071</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="8">
+        <v>43919</v>
+      </c>
+      <c r="C31" s="2">
+        <f>Data!C165</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="2">
+        <f>Data!D165</f>
+        <v>3700</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="9"/>
+        <v>253</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>7.3397156948070696E-2</v>
+      </c>
+      <c r="J31" s="16">
+        <f t="shared" si="7"/>
+        <v>0.10129843937958238</v>
+      </c>
+      <c r="L31" s="2">
+        <f>Data!E165</f>
+        <v>110</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" si="5"/>
+        <v>4.7619047619047672E-2</v>
+      </c>
+      <c r="O31" s="16">
+        <f t="shared" si="8"/>
+        <v>0.27508262346972023</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="8">
+        <v>43920</v>
+      </c>
+      <c r="C32" s="2">
+        <f>Data!C166</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="2">
+        <f>Data!D166</f>
+        <v>4028</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="9"/>
+        <v>328</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="3"/>
+        <v>8.8648648648648631E-2</v>
+      </c>
+      <c r="J32" s="16">
+        <f t="shared" ref="J32:J47" si="10">SUM(I28:I32)/5</f>
+        <v>9.8030793781228101E-2</v>
+      </c>
+      <c r="L32" s="2">
+        <f>Data!E166</f>
+        <v>146</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" si="5"/>
+        <v>0.32727272727272738</v>
+      </c>
+      <c r="O32" s="16">
+        <f t="shared" ref="O32:O47" si="11">SUM(N28:N32)/5</f>
+        <v>0.19609272447982126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="8">
+        <v>43921</v>
+      </c>
+      <c r="C33" s="2">
+        <f>Data!C167</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="2">
+        <f>Data!D167</f>
+        <v>4435</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" si="9"/>
+        <v>407</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10104270109235358</v>
+      </c>
+      <c r="J33" s="16">
+        <f t="shared" si="10"/>
+        <v>9.3377892986238817E-2</v>
+      </c>
+      <c r="L33" s="2">
+        <f>Data!E167</f>
+        <v>180</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23287671232876717</v>
+      </c>
+      <c r="O33" s="16">
+        <f t="shared" si="11"/>
+        <v>0.19428097017138116</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="8">
+        <v>43922</v>
+      </c>
+      <c r="C34" s="2">
+        <f>Data!C168</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="2">
+        <f>Data!D168</f>
+        <v>4947</v>
+      </c>
+      <c r="H34" s="3">
+        <f t="shared" si="9"/>
+        <v>512</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="3"/>
+        <v>0.11544532130777907</v>
+      </c>
+      <c r="J34" s="16">
+        <f t="shared" si="10"/>
+        <v>0.10034019668441437</v>
+      </c>
+      <c r="L34" s="2">
+        <f>Data!E168</f>
+        <v>239</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.32777777777777772</v>
+      </c>
+      <c r="O34" s="16">
+        <f t="shared" si="11"/>
+        <v>0.18710925299966399</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="8">
+        <v>43923</v>
+      </c>
+      <c r="C35" s="2">
+        <f>Data!C169</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="2">
+        <f>Data!D169</f>
+        <v>5568</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="9"/>
+        <v>621</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="3"/>
+        <v>0.12553062462098241</v>
+      </c>
+      <c r="J35" s="16">
+        <f t="shared" si="10"/>
+        <v>0.10081289052356687</v>
+      </c>
+      <c r="L35" s="2">
+        <f>Data!E169</f>
+        <v>308</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" si="5"/>
+        <v>0.28870292887029292</v>
+      </c>
+      <c r="O35" s="16">
+        <f t="shared" si="11"/>
+        <v>0.24484983877372257</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="8">
+        <v>43924</v>
+      </c>
+      <c r="C36" s="2">
+        <f>Data!C170</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <f>Data!D170</f>
+        <v>6131</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="9"/>
+        <v>563</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" si="3"/>
+        <v>0.10111350574712641</v>
+      </c>
+      <c r="J36" s="16">
+        <f t="shared" si="10"/>
+        <v>0.10635616028337802</v>
+      </c>
+      <c r="L36" s="2">
+        <f>Data!E170</f>
+        <v>358</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" si="5"/>
+        <v>0.16233766233766245</v>
+      </c>
+      <c r="O36" s="16">
+        <f t="shared" si="11"/>
+        <v>0.26779356171744551</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="8">
+        <v>43925</v>
+      </c>
+      <c r="C37" s="2">
+        <f>Data!C171</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="2">
+        <f>Data!D171</f>
+        <v>6443</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="9"/>
+        <v>312</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" si="3"/>
+        <v>5.0888925134562113E-2</v>
+      </c>
+      <c r="J37" s="16">
+        <f t="shared" si="10"/>
+        <v>9.8804215580560711E-2</v>
+      </c>
+      <c r="L37" s="2">
+        <f>Data!E171</f>
+        <v>373</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" si="5"/>
+        <v>4.1899441340782051E-2</v>
+      </c>
+      <c r="O37" s="16">
+        <f t="shared" si="11"/>
+        <v>0.21071890453105646</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="8">
+        <v>43926</v>
+      </c>
+      <c r="C38" s="2">
+        <f>Data!C172</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="2">
+        <f>Data!D172</f>
+        <v>6830</v>
+      </c>
+      <c r="H38" s="3">
+        <f t="shared" si="9"/>
+        <v>387</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="3"/>
+        <v>6.0065187024678002E-2</v>
+      </c>
+      <c r="J38" s="16">
+        <f t="shared" si="10"/>
+        <v>9.0608712767025604E-2</v>
+      </c>
+      <c r="L38" s="2">
+        <f>Data!E172</f>
+        <v>401</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" si="5"/>
+        <v>7.5067024128686377E-2</v>
+      </c>
+      <c r="O38" s="16">
+        <f t="shared" si="11"/>
+        <v>0.1791569668910403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="8">
+        <v>43927</v>
+      </c>
+      <c r="C39" s="2">
+        <f>Data!C173</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39" s="2">
+        <f>Data!D173</f>
+        <v>7206</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="9"/>
+        <v>376</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5051244509516817E-2</v>
+      </c>
+      <c r="J39" s="16">
+        <f t="shared" si="10"/>
+        <v>7.852989740737315E-2</v>
+      </c>
+      <c r="L39" s="2">
+        <f>Data!E173</f>
+        <v>477</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" si="5"/>
+        <v>0.18952618453865333</v>
+      </c>
+      <c r="O39" s="16">
+        <f t="shared" si="11"/>
+        <v>0.15150664824321541</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="8">
+        <v>43928</v>
+      </c>
+      <c r="C40" s="2">
+        <f>Data!C174</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40" s="2">
+        <f>Data!D174</f>
+        <v>7693</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="9"/>
+        <v>487</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" si="3"/>
+        <v>6.7582570080488402E-2</v>
+      </c>
+      <c r="J40" s="16">
+        <f t="shared" si="10"/>
+        <v>6.6940286499274346E-2</v>
+      </c>
+      <c r="L40" s="2">
+        <f>Data!E174</f>
+        <v>591</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>114</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" si="5"/>
+        <v>0.23899371069182385</v>
+      </c>
+      <c r="O40" s="16">
+        <f t="shared" si="11"/>
+        <v>0.1415648046075216</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="8">
+        <v>43929</v>
+      </c>
+      <c r="C41" s="2">
+        <f>Data!C175</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41" s="2">
+        <f>Data!D175</f>
+        <v>8419</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="9"/>
+        <v>726</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="3"/>
+        <v>9.4371506564409291E-2</v>
+      </c>
+      <c r="J41" s="16">
+        <f t="shared" si="10"/>
+        <v>6.5591886662730928E-2</v>
+      </c>
+      <c r="L41" s="2">
+        <f>Data!E175</f>
+        <v>687</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" si="5"/>
+        <v>0.1624365482233503</v>
+      </c>
+      <c r="O41" s="16">
+        <f t="shared" si="11"/>
+        <v>0.14158458178465919</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="8">
+        <v>43930</v>
+      </c>
+      <c r="C42" s="2">
+        <f>Data!C176</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="2">
+        <f>Data!D176</f>
+        <v>9141</v>
+      </c>
+      <c r="H42" s="3">
+        <f t="shared" si="9"/>
+        <v>722</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" si="3"/>
+        <v>8.5758403610880052E-2</v>
+      </c>
+      <c r="J42" s="16">
+        <f t="shared" si="10"/>
+        <v>7.2565782357994518E-2</v>
+      </c>
+      <c r="L42" s="2">
+        <f>Data!E176</f>
+        <v>793</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" si="5"/>
+        <v>0.15429403202328973</v>
+      </c>
+      <c r="O42" s="16">
+        <f t="shared" si="11"/>
+        <v>0.1640634999211607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="8">
+        <v>43931</v>
+      </c>
+      <c r="C43" s="2">
+        <f>Data!C177</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="2">
+        <f>Data!D177</f>
+        <v>9685</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="9"/>
+        <v>544</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9512088392954743E-2</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" si="10"/>
+        <v>7.2455162631649861E-2</v>
+      </c>
+      <c r="L43" s="2">
+        <f>Data!E177</f>
+        <v>870</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" si="5"/>
+        <v>9.7099621689785698E-2</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" si="11"/>
+        <v>0.16847001943338058</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="8">
+        <v>43932</v>
+      </c>
+      <c r="C44" s="2">
+        <f>Data!C178</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <f>Data!D178</f>
+        <v>10151</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="9"/>
+        <v>466</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" si="3"/>
+        <v>4.8115642746515253E-2</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" si="10"/>
+        <v>7.1068042279049545E-2</v>
+      </c>
+      <c r="L44" s="2">
+        <f>Data!E178</f>
+        <v>887</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" si="5"/>
+        <v>1.9540229885057547E-2</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" si="11"/>
+        <v>0.13447282850266143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="8">
+        <v>43933</v>
+      </c>
+      <c r="C45" s="2">
+        <f>Data!C179</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <f>Data!D179</f>
+        <v>10483</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="9"/>
+        <v>332</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" si="3"/>
+        <v>3.2706137326371731E-2</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" si="10"/>
+        <v>6.4092755728226217E-2</v>
+      </c>
+      <c r="L45" s="2">
+        <f>Data!E179</f>
+        <v>899</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" si="5"/>
+        <v>1.3528748590755368E-2</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" si="11"/>
+        <v>8.9379836082447733E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="8">
+        <v>43934</v>
+      </c>
+      <c r="C46" s="2">
+        <f>Data!C180</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46" s="2">
+        <f>Data!D180</f>
+        <v>10948</v>
+      </c>
+      <c r="H46" s="3">
+        <f t="shared" si="9"/>
+        <v>465</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="3"/>
+        <v>4.4357531241056902E-2</v>
+      </c>
+      <c r="J46" s="16">
+        <f t="shared" si="10"/>
+        <v>5.4089960663555738E-2</v>
+      </c>
+      <c r="L46" s="2">
+        <f>Data!E180</f>
+        <v>919</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" si="5"/>
+        <v>2.2246941045606317E-2</v>
+      </c>
+      <c r="O46" s="16">
+        <f t="shared" si="11"/>
+        <v>6.1341914646898935E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="8">
+        <v>43935</v>
+      </c>
+      <c r="C47" s="2">
+        <f>Data!C181</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47" si="12">C47-C46</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="2">
+        <f>Data!D181</f>
+        <v>11445</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" ref="H47" si="13">G47-G46</f>
+        <v>497</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" ref="I47" si="14">G47/G46-1</f>
+        <v>4.5396419437340185E-2</v>
+      </c>
+      <c r="J47" s="16">
+        <f t="shared" ref="J47" si="15">SUM(I43:I47)/5</f>
+        <v>4.6017563828847766E-2</v>
+      </c>
+      <c r="L47" s="2">
+        <f>Data!E181</f>
+        <v>1033</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47" si="16">L47-L46</f>
+        <v>114</v>
+      </c>
+      <c r="N47" s="1">
+        <f t="shared" ref="N47" si="17">L47/L46-1</f>
+        <v>0.12404787812840046</v>
+      </c>
+      <c r="O47" s="16">
+        <f t="shared" ref="O47" si="18">SUM(N43:N47)/5</f>
+        <v>5.5292683867921077E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="8">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="8">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="8">
+        <v>43938</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="L3:O3"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="P1" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -18075,4 +23242,722 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="25">
+        <v>43894</v>
+      </c>
+      <c r="C1">
+        <v>35</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="25">
+        <v>43895</v>
+      </c>
+      <c r="C2">
+        <v>94</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="25">
+        <v>43896</v>
+      </c>
+      <c r="C3">
+        <v>101</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="25">
+        <v>43897</v>
+      </c>
+      <c r="C4">
+        <v>161</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="25">
+        <v>43898</v>
+      </c>
+      <c r="C5">
+        <v>203</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="25">
+        <v>43899</v>
+      </c>
+      <c r="C6">
+        <v>248</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="25">
+        <v>43900</v>
+      </c>
+      <c r="C7">
+        <v>355</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="25">
+        <v>43901</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="25">
+        <v>43902</v>
+      </c>
+      <c r="C9">
+        <v>599</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="25">
+        <v>43903</v>
+      </c>
+      <c r="C10">
+        <v>814</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="25">
+        <v>43904</v>
+      </c>
+      <c r="C11">
+        <v>961</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="25">
+        <v>43905</v>
+      </c>
+      <c r="C12">
+        <v>1022</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="25">
+        <v>43906</v>
+      </c>
+      <c r="C13">
+        <v>1103</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="25">
+        <v>43907</v>
+      </c>
+      <c r="C14">
+        <v>1190</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="25">
+        <v>43908</v>
+      </c>
+      <c r="C15">
+        <v>1279</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="25">
+        <v>43909</v>
+      </c>
+      <c r="C16">
+        <v>1439</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="25">
+        <v>43910</v>
+      </c>
+      <c r="C17">
+        <v>1639</v>
+      </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="25">
+        <v>43911</v>
+      </c>
+      <c r="C18">
+        <v>1763</v>
+      </c>
+      <c r="D18">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="25">
+        <v>43912</v>
+      </c>
+      <c r="C19">
+        <v>1934</v>
+      </c>
+      <c r="D19">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="25">
+        <v>43913</v>
+      </c>
+      <c r="C20">
+        <v>2046</v>
+      </c>
+      <c r="D20">
+        <v>25</v>
+      </c>
+      <c r="E20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="25">
+        <v>43914</v>
+      </c>
+      <c r="C21">
+        <v>2286</v>
+      </c>
+      <c r="D21">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="25">
+        <v>43915</v>
+      </c>
+      <c r="C22">
+        <v>2526</v>
+      </c>
+      <c r="D22">
+        <v>62</v>
+      </c>
+      <c r="E22">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="25">
+        <v>43916</v>
+      </c>
+      <c r="C23">
+        <v>2840</v>
+      </c>
+      <c r="D23">
+        <v>77</v>
+      </c>
+      <c r="E23">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="25">
+        <v>43917</v>
+      </c>
+      <c r="C24">
+        <v>3069</v>
+      </c>
+      <c r="D24">
+        <v>105</v>
+      </c>
+      <c r="E24">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="25">
+        <v>43918</v>
+      </c>
+      <c r="C25">
+        <v>3447</v>
+      </c>
+      <c r="D25">
+        <v>105</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="25">
+        <v>43919</v>
+      </c>
+      <c r="C26">
+        <v>3700</v>
+      </c>
+      <c r="D26">
+        <v>110</v>
+      </c>
+      <c r="E26">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="25">
+        <v>43920</v>
+      </c>
+      <c r="C27">
+        <v>4028</v>
+      </c>
+      <c r="D27">
+        <v>146</v>
+      </c>
+      <c r="E27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="25">
+        <v>43921</v>
+      </c>
+      <c r="C28">
+        <v>4435</v>
+      </c>
+      <c r="D28">
+        <v>180</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="25">
+        <v>43922</v>
+      </c>
+      <c r="C29">
+        <v>4947</v>
+      </c>
+      <c r="D29">
+        <v>239</v>
+      </c>
+      <c r="E29">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="25">
+        <v>43923</v>
+      </c>
+      <c r="C30">
+        <v>5568</v>
+      </c>
+      <c r="D30">
+        <v>308</v>
+      </c>
+      <c r="E30">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+      <c r="B31" s="25">
+        <v>43924</v>
+      </c>
+      <c r="C31">
+        <v>6131</v>
+      </c>
+      <c r="D31">
+        <v>358</v>
+      </c>
+      <c r="E31">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="25">
+        <v>43925</v>
+      </c>
+      <c r="C32">
+        <v>6443</v>
+      </c>
+      <c r="D32">
+        <v>373</v>
+      </c>
+      <c r="E32">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="25">
+        <v>43926</v>
+      </c>
+      <c r="C33">
+        <v>6830</v>
+      </c>
+      <c r="D33">
+        <v>401</v>
+      </c>
+      <c r="E33">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="25">
+        <v>43927</v>
+      </c>
+      <c r="C34">
+        <v>7206</v>
+      </c>
+      <c r="D34">
+        <v>477</v>
+      </c>
+      <c r="E34">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="25">
+        <v>43928</v>
+      </c>
+      <c r="C35">
+        <v>7693</v>
+      </c>
+      <c r="D35">
+        <v>591</v>
+      </c>
+      <c r="E35">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="25">
+        <v>43929</v>
+      </c>
+      <c r="C36">
+        <v>8419</v>
+      </c>
+      <c r="D36">
+        <v>687</v>
+      </c>
+      <c r="E36">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="25">
+        <v>43930</v>
+      </c>
+      <c r="C37">
+        <v>9141</v>
+      </c>
+      <c r="D37">
+        <v>793</v>
+      </c>
+      <c r="E37">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" s="25">
+        <v>43931</v>
+      </c>
+      <c r="C38">
+        <v>9685</v>
+      </c>
+      <c r="D38">
+        <v>870</v>
+      </c>
+      <c r="E38">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39" s="25">
+        <v>43932</v>
+      </c>
+      <c r="C39">
+        <v>10151</v>
+      </c>
+      <c r="D39">
+        <v>887</v>
+      </c>
+      <c r="E39">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>28</v>
+      </c>
+      <c r="B40" s="25">
+        <v>43933</v>
+      </c>
+      <c r="C40">
+        <v>10483</v>
+      </c>
+      <c r="D40">
+        <v>899</v>
+      </c>
+      <c r="E40">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>28</v>
+      </c>
+      <c r="B41" s="25">
+        <v>43934</v>
+      </c>
+      <c r="C41">
+        <v>10948</v>
+      </c>
+      <c r="D41">
+        <v>919</v>
+      </c>
+      <c r="E41">
+        <v>381</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="E1:H41">
+    <sortCondition ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -491,6 +491,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -500,7 +501,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -795,14 +795,17 @@
                 <c:pt idx="36">
                   <c:v>14159</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>14321</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177048576"/>
-        <c:axId val="177047040"/>
+        <c:axId val="174444544"/>
+        <c:axId val="174426368"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -995,17 +998,20 @@
                 <c:pt idx="36">
                   <c:v>1.5112741345614734E-2</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2012090452233082E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="177035520"/>
-        <c:axId val="177045504"/>
+        <c:axId val="174414848"/>
+        <c:axId val="174424832"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177035520"/>
+        <c:axId val="174414848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1023,13 +1029,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177045504"/>
+        <c:crossAx val="174424832"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177045504"/>
+        <c:axId val="174424832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1044,24 +1050,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177035520"/>
+        <c:crossAx val="174414848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177047040"/>
+        <c:axId val="174426368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177048576"/>
+        <c:crossAx val="174444544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="177048576"/>
+        <c:axId val="174444544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,7 +1075,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="177047040"/>
+        <c:crossAx val="174426368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1084,7 +1090,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1405,17 +1411,20 @@
                 <c:pt idx="41">
                   <c:v>778</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>761</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190757888"/>
-        <c:axId val="190579456"/>
+        <c:axId val="178139136"/>
+        <c:axId val="178140672"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="190757888"/>
+        <c:axId val="178139136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1423,13 +1432,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190579456"/>
+        <c:crossAx val="178140672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190579456"/>
+        <c:axId val="178140672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1443,7 +1452,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190757888"/>
+        <c:crossAx val="178139136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1452,7 +1461,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1826,14 +1835,17 @@
                 <c:pt idx="50">
                   <c:v>162488</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>165155</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190840832"/>
-        <c:axId val="190822656"/>
+        <c:axId val="178352896"/>
+        <c:axId val="178338816"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2113,17 +2125,20 @@
                 <c:pt idx="50">
                   <c:v>2.4997037745526151E-2</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.2777952329436114E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="190819328"/>
-        <c:axId val="190821120"/>
+        <c:axId val="178335744"/>
+        <c:axId val="178337280"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190819328"/>
+        <c:axId val="178335744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2131,13 +2146,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190821120"/>
+        <c:crossAx val="178337280"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190821120"/>
+        <c:axId val="178337280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2151,24 +2166,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190819328"/>
+        <c:crossAx val="178335744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190822656"/>
+        <c:axId val="178338816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190840832"/>
+        <c:crossAx val="178352896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="190840832"/>
+        <c:axId val="178352896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2191,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190822656"/>
+        <c:crossAx val="178338816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2191,7 +2206,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2566,17 +2581,20 @@
                 <c:pt idx="50">
                   <c:v>26779</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>43715</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190860672"/>
-        <c:axId val="190878848"/>
+        <c:axId val="178377088"/>
+        <c:axId val="178378624"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="190860672"/>
+        <c:axId val="178377088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,13 +2602,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190878848"/>
+        <c:crossAx val="178378624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190878848"/>
+        <c:axId val="178378624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2604,7 +2622,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190860672"/>
+        <c:crossAx val="178377088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2613,7 +2631,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2984,17 +3002,20 @@
                 <c:pt idx="50">
                   <c:v>2972</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>2667</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190906752"/>
-        <c:axId val="190908288"/>
+        <c:axId val="178275456"/>
+        <c:axId val="178276992"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="190906752"/>
+        <c:axId val="178275456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,13 +3023,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190908288"/>
+        <c:crossAx val="178276992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190908288"/>
+        <c:axId val="178276992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3022,7 +3043,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190906752"/>
+        <c:crossAx val="178275456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3031,7 +3052,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3405,14 +3426,17 @@
                 <c:pt idx="50">
                   <c:v>21067</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>21645</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190964480"/>
-        <c:axId val="190946304"/>
+        <c:axId val="178394624"/>
+        <c:axId val="178393088"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3692,17 +3716,20 @@
                 <c:pt idx="50">
                   <c:v>2.8804374958674828E-2</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.8054964881733469E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="190943232"/>
-        <c:axId val="190944768"/>
+        <c:axId val="178307840"/>
+        <c:axId val="178309376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190943232"/>
+        <c:axId val="178307840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3710,13 +3737,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190944768"/>
+        <c:crossAx val="178309376"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190944768"/>
+        <c:axId val="178309376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3731,24 +3758,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190943232"/>
+        <c:crossAx val="178307840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190946304"/>
+        <c:axId val="178393088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190964480"/>
+        <c:crossAx val="178394624"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="190964480"/>
+        <c:axId val="178394624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3756,7 +3783,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190946304"/>
+        <c:crossAx val="178393088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3771,7 +3798,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4145,17 +4172,20 @@
                 <c:pt idx="50">
                   <c:v>602</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>578</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190980480"/>
-        <c:axId val="190982016"/>
+        <c:axId val="178402432"/>
+        <c:axId val="178403968"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="190980480"/>
+        <c:axId val="178402432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4163,13 +4193,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190982016"/>
+        <c:crossAx val="178403968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190982016"/>
+        <c:axId val="178403968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,7 +4213,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190980480"/>
+        <c:crossAx val="178402432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4192,7 +4222,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4223,7 +4253,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4518,8 +4547,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="219387392"/>
-        <c:axId val="219385856"/>
+        <c:axId val="179073408"/>
+        <c:axId val="179067520"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4751,11 +4780,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="210957056"/>
-        <c:axId val="210958592"/>
+        <c:axId val="179060096"/>
+        <c:axId val="179065984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210957056"/>
+        <c:axId val="179060096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4773,13 +4802,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210958592"/>
+        <c:crossAx val="179065984"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210958592"/>
+        <c:axId val="179065984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4793,24 +4822,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="210957056"/>
+        <c:crossAx val="179060096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219385856"/>
+        <c:axId val="179067520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219387392"/>
+        <c:crossAx val="179073408"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="219387392"/>
+        <c:axId val="179073408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,7 +4847,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="219385856"/>
+        <c:crossAx val="179067520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4826,14 +4855,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4859,7 +4887,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5156,11 +5183,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="220611328"/>
-        <c:axId val="220612864"/>
+        <c:axId val="179088768"/>
+        <c:axId val="179090560"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="220611328"/>
+        <c:axId val="179088768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5168,13 +5195,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220612864"/>
+        <c:crossAx val="179090560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="220612864"/>
+        <c:axId val="179090560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5188,7 +5215,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220611328"/>
+        <c:crossAx val="179088768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5197,7 +5224,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5223,7 +5250,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5520,11 +5546,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="220618752"/>
-        <c:axId val="220620288"/>
+        <c:axId val="179184768"/>
+        <c:axId val="179186304"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="220618752"/>
+        <c:axId val="179184768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5532,13 +5558,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220620288"/>
+        <c:crossAx val="179186304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="220620288"/>
+        <c:axId val="179186304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5552,7 +5578,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="220618752"/>
+        <c:crossAx val="179184768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5561,7 +5587,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5592,7 +5618,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5857,8 +5882,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="210994688"/>
-        <c:axId val="210993152"/>
+        <c:axId val="179112576"/>
+        <c:axId val="179111040"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6057,11 +6082,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="210989824"/>
-        <c:axId val="210991360"/>
+        <c:axId val="179234688"/>
+        <c:axId val="179236224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="210989824"/>
+        <c:axId val="179234688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6079,13 +6104,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="210991360"/>
+        <c:crossAx val="179236224"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="210991360"/>
+        <c:axId val="179236224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,24 +6124,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="210989824"/>
+        <c:crossAx val="179234688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="210993152"/>
+        <c:axId val="179111040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="210994688"/>
+        <c:crossAx val="179112576"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="210994688"/>
+        <c:axId val="179112576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6124,7 +6149,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="210993152"/>
+        <c:crossAx val="179111040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6132,14 +6157,13 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6426,17 +6450,20 @@
                 <c:pt idx="36">
                   <c:v>3384</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>5005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175990656"/>
-        <c:axId val="175992192"/>
+        <c:axId val="66742912"/>
+        <c:axId val="66748800"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="175990656"/>
+        <c:axId val="66742912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6444,13 +6471,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175992192"/>
+        <c:crossAx val="66748800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="175992192"/>
+        <c:axId val="66748800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -6466,7 +6493,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="175990656"/>
+        <c:crossAx val="66742912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6475,7 +6502,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000355" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000355" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000366" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000366" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6501,7 +6528,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6801,11 +6827,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="211027456"/>
-        <c:axId val="211028992"/>
+        <c:axId val="179124096"/>
+        <c:axId val="179125632"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="211027456"/>
+        <c:axId val="179124096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6813,13 +6839,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="211028992"/>
+        <c:crossAx val="179125632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="211028992"/>
+        <c:axId val="179125632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6833,7 +6859,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="211027456"/>
+        <c:crossAx val="179124096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6842,7 +6868,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7132,17 +7158,20 @@
                 <c:pt idx="36">
                   <c:v>160</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>162</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="176003712"/>
-        <c:axId val="176013696"/>
+        <c:axId val="66755968"/>
+        <c:axId val="66774144"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="176003712"/>
+        <c:axId val="66755968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7150,13 +7179,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="176013696"/>
+        <c:crossAx val="66774144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="176013696"/>
+        <c:axId val="66774144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7170,7 +7199,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="176003712"/>
+        <c:crossAx val="66755968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7179,7 +7208,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7469,14 +7498,17 @@
                 <c:pt idx="36">
                   <c:v>384</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>393</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177373568"/>
-        <c:axId val="177359488"/>
+        <c:axId val="176399488"/>
+        <c:axId val="176381312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -7663,17 +7695,20 @@
                 <c:pt idx="36">
                   <c:v>5.425295288914285E-2</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.2669266448464874E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="177347968"/>
-        <c:axId val="177357952"/>
+        <c:axId val="176378240"/>
+        <c:axId val="176379776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="177347968"/>
+        <c:axId val="176378240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7691,13 +7726,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="177357952"/>
+        <c:crossAx val="176379776"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="177357952"/>
+        <c:axId val="176379776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -7712,24 +7747,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177347968"/>
+        <c:crossAx val="176378240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="177359488"/>
+        <c:axId val="176381312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177373568"/>
+        <c:crossAx val="176399488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="177373568"/>
+        <c:axId val="176399488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7737,7 +7772,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="177359488"/>
+        <c:crossAx val="176381312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -7752,7 +7787,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8039,17 +8074,20 @@
                 <c:pt idx="36">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="177392256"/>
-        <c:axId val="177402240"/>
+        <c:axId val="176688512"/>
+        <c:axId val="176690304"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="177392256"/>
+        <c:axId val="176688512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8057,13 +8095,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="177402240"/>
+        <c:crossAx val="176690304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="177402240"/>
+        <c:axId val="176690304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8077,7 +8115,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="177392256"/>
+        <c:crossAx val="176688512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8086,7 +8124,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8406,14 +8444,17 @@
                 <c:pt idx="41">
                   <c:v>93873</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>98476</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="189151104"/>
-        <c:axId val="189149568"/>
+        <c:axId val="178023040"/>
+        <c:axId val="178021504"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8639,17 +8680,20 @@
                 <c:pt idx="41">
                   <c:v>7.6414271795353539E-2</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.9541973837706319E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="189133952"/>
-        <c:axId val="189135488"/>
+        <c:axId val="178014080"/>
+        <c:axId val="178015616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="189133952"/>
+        <c:axId val="178014080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8667,13 +8711,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="189135488"/>
+        <c:crossAx val="178015616"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="189135488"/>
+        <c:axId val="178015616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8687,24 +8731,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="189133952"/>
+        <c:crossAx val="178014080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="189149568"/>
+        <c:axId val="178021504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189151104"/>
+        <c:crossAx val="178023040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="189151104"/>
+        <c:axId val="178023040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8712,7 +8756,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="189149568"/>
+        <c:crossAx val="178021504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8727,7 +8771,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -9045,17 +9089,20 @@
                 <c:pt idx="41">
                   <c:v>11879</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>11170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="189156736"/>
-        <c:axId val="189175680"/>
+        <c:axId val="178036736"/>
+        <c:axId val="178040192"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="189156736"/>
+        <c:axId val="178036736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9063,13 +9110,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="189175680"/>
+        <c:crossAx val="178040192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="189175680"/>
+        <c:axId val="178040192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9083,7 +9130,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="189156736"/>
+        <c:crossAx val="178036736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9092,7 +9139,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000377" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000377" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000389" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000389" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9409,17 +9456,20 @@
                 <c:pt idx="41">
                   <c:v>5252</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>4603</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190662912"/>
-        <c:axId val="190672896"/>
+        <c:axId val="178088960"/>
+        <c:axId val="178123520"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="190662912"/>
+        <c:axId val="178088960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9427,13 +9477,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190672896"/>
+        <c:crossAx val="178123520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="190672896"/>
+        <c:axId val="178123520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9447,7 +9497,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190662912"/>
+        <c:crossAx val="178088960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9456,7 +9506,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9746,14 +9796,17 @@
                 <c:pt idx="36">
                   <c:v>12107</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>12868</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="190746624"/>
-        <c:axId val="190744832"/>
+        <c:axId val="177517312"/>
+        <c:axId val="177511424"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9961,17 +10014,20 @@
                 <c:pt idx="36">
                   <c:v>8.7215130407992086E-2</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.5218809394454092E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="190729216"/>
-        <c:axId val="190743296"/>
+        <c:axId val="177508352"/>
+        <c:axId val="177509888"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="190729216"/>
+        <c:axId val="177508352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9989,13 +10045,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="190743296"/>
+        <c:crossAx val="177509888"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="190743296"/>
+        <c:axId val="177509888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10009,24 +10065,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="190729216"/>
+        <c:crossAx val="177508352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="190744832"/>
+        <c:axId val="177511424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="190746624"/>
+        <c:crossAx val="177517312"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="190746624"/>
+        <c:axId val="177517312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10034,7 +10090,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="190744832"/>
+        <c:crossAx val="177511424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10049,7 +10105,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11273,10 +11329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H181"/>
+  <dimension ref="A1:H193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F146" sqref="F146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11819,7 +11875,7 @@
         <v>2921</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -11836,7 +11892,7 @@
         <v>3605</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -11853,7 +11909,7 @@
         <v>4313</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -11870,7 +11926,7 @@
         <v>4932</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -11887,7 +11943,7 @@
         <v>5373</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -11904,7 +11960,7 @@
         <v>6159</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
         <v>23</v>
       </c>
@@ -11921,7 +11977,7 @@
         <v>7097</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -11938,7 +11994,7 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -11955,7 +12011,7 @@
         <v>8958</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -11972,7 +12028,7 @@
         <v>9875</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -11989,7 +12045,7 @@
         <v>10612</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -12006,7 +12062,7 @@
         <v>11329</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -12023,319 +12079,284 @@
         <v>12107</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B45" s="21">
+        <v>43936</v>
+      </c>
+      <c r="C45" s="2">
+        <v>313769</v>
+      </c>
+      <c r="D45" s="2">
+        <v>98476</v>
+      </c>
+      <c r="E45" s="2">
+        <v>12868</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B46" s="21">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B47" s="21">
-        <v>43898</v>
-      </c>
-      <c r="C47" s="2">
-        <v>4509</v>
-      </c>
-      <c r="D47" s="2">
-        <v>99</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2">
-        <v>0</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" s="21">
-        <v>43899</v>
-      </c>
-      <c r="C48" s="2">
-        <v>4734</v>
-      </c>
-      <c r="D48" s="2">
-        <v>131</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" s="21">
-        <v>43900</v>
-      </c>
-      <c r="C49" s="2">
-        <v>5026</v>
-      </c>
-      <c r="D49" s="2">
-        <v>182</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" s="21">
-        <v>43901</v>
-      </c>
-      <c r="C50" s="2">
-        <v>5362</v>
-      </c>
-      <c r="D50" s="2">
-        <v>246</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>24</v>
       </c>
       <c r="B51" s="21">
-        <v>43902</v>
+        <v>43898</v>
       </c>
       <c r="C51" s="2">
-        <v>5869</v>
+        <v>4509</v>
       </c>
       <c r="D51" s="2">
-        <v>361</v>
-      </c>
-      <c r="E51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>24</v>
       </c>
       <c r="B52" s="21">
-        <v>43903</v>
+        <v>43899</v>
       </c>
       <c r="C52" s="2">
-        <v>6582</v>
+        <v>4734</v>
       </c>
       <c r="D52" s="2">
-        <v>504</v>
+        <v>131</v>
       </c>
       <c r="E52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0</v>
+      </c>
+      <c r="F52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>24</v>
       </c>
       <c r="B53" s="21">
-        <v>43904</v>
+        <v>43900</v>
       </c>
       <c r="C53" s="2">
-        <v>7467</v>
+        <v>5026</v>
       </c>
       <c r="D53" s="2">
-        <v>655</v>
+        <v>182</v>
       </c>
       <c r="E53">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>24</v>
       </c>
       <c r="B54" s="21">
-        <v>43905</v>
+        <v>43901</v>
       </c>
       <c r="C54" s="2">
-        <v>8167</v>
+        <v>5362</v>
       </c>
       <c r="D54" s="2">
-        <v>860</v>
+        <v>246</v>
       </c>
       <c r="E54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>24</v>
       </c>
       <c r="B55" s="21">
-        <v>43906</v>
+        <v>43902</v>
       </c>
       <c r="C55" s="2">
-        <v>8490</v>
+        <v>5869</v>
       </c>
       <c r="D55" s="2">
-        <v>1016</v>
+        <v>361</v>
       </c>
       <c r="E55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>24</v>
       </c>
       <c r="B56" s="21">
-        <v>43907</v>
+        <v>43903</v>
       </c>
       <c r="C56" s="2">
-        <v>10278</v>
+        <v>6582</v>
       </c>
       <c r="D56" s="2">
-        <v>1332</v>
+        <v>504</v>
       </c>
       <c r="E56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>24</v>
       </c>
       <c r="B57" s="21">
-        <v>43908</v>
+        <v>43904</v>
       </c>
       <c r="C57" s="2">
-        <v>11977</v>
+        <v>7467</v>
       </c>
       <c r="D57" s="2">
-        <v>1646</v>
+        <v>655</v>
       </c>
       <c r="E57">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" t="s">
         <v>24</v>
       </c>
       <c r="B58" s="21">
-        <v>43909</v>
+        <v>43905</v>
       </c>
       <c r="C58" s="2">
-        <v>13724</v>
+        <v>8167</v>
       </c>
       <c r="D58" s="2">
-        <v>2013</v>
+        <v>860</v>
       </c>
       <c r="E58">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" t="s">
         <v>24</v>
       </c>
       <c r="B59" s="21">
-        <v>43910</v>
+        <v>43906</v>
       </c>
       <c r="C59" s="2">
-        <v>15613</v>
+        <v>8490</v>
       </c>
       <c r="D59" s="2">
-        <v>2388</v>
+        <v>1016</v>
       </c>
       <c r="E59">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" t="s">
         <v>24</v>
       </c>
       <c r="B60" s="21">
-        <v>43911</v>
+        <v>43907</v>
       </c>
       <c r="C60" s="2">
-        <v>18545</v>
+        <v>10278</v>
       </c>
       <c r="D60" s="2">
-        <v>2814</v>
+        <v>1332</v>
       </c>
       <c r="E60">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="21">
-        <v>43912</v>
+        <v>43908</v>
       </c>
       <c r="C61" s="2">
-        <v>21368</v>
+        <v>11977</v>
       </c>
       <c r="D61" s="2">
-        <v>3244</v>
+        <v>1646</v>
       </c>
       <c r="E61">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="21">
-        <v>43913</v>
+        <v>43909</v>
       </c>
       <c r="C62" s="2">
-        <v>23429</v>
+        <v>13724</v>
       </c>
       <c r="D62" s="2">
-        <v>3924</v>
+        <v>2013</v>
       </c>
       <c r="E62">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" t="s">
         <v>24</v>
       </c>
       <c r="B63" s="21">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C63" s="2">
-        <v>28391</v>
-      </c>
-      <c r="D63" s="3">
-        <v>4876</v>
+        <v>15613</v>
+      </c>
+      <c r="D63" s="2">
+        <v>2388</v>
       </c>
       <c r="E63">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" t="s">
         <v>24</v>
       </c>
       <c r="B64" s="21">
-        <v>43915</v>
+        <v>43911</v>
       </c>
       <c r="C64" s="2">
-        <v>32407</v>
+        <v>18545</v>
       </c>
       <c r="D64" s="2">
-        <v>5560</v>
+        <v>2814</v>
       </c>
       <c r="E64">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -12343,16 +12364,16 @@
         <v>24</v>
       </c>
       <c r="B65" s="21">
-        <v>43916</v>
+        <v>43912</v>
       </c>
       <c r="C65" s="2">
-        <v>35995</v>
+        <v>21368</v>
       </c>
       <c r="D65" s="2">
-        <v>6398</v>
+        <v>3244</v>
       </c>
       <c r="E65">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -12360,16 +12381,16 @@
         <v>24</v>
       </c>
       <c r="B66" s="21">
-        <v>43917</v>
+        <v>43913</v>
       </c>
       <c r="C66" s="2">
-        <v>39552</v>
+        <v>23429</v>
       </c>
       <c r="D66" s="2">
-        <v>7399</v>
+        <v>3924</v>
       </c>
       <c r="E66">
-        <v>58</v>
+        <v>21</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -12377,16 +12398,16 @@
         <v>24</v>
       </c>
       <c r="B67" s="21">
-        <v>43918</v>
+        <v>43914</v>
       </c>
       <c r="C67" s="2">
-        <v>42750</v>
-      </c>
-      <c r="D67" s="2">
-        <v>7995</v>
+        <v>28391</v>
+      </c>
+      <c r="D67" s="3">
+        <v>4876</v>
       </c>
       <c r="E67">
-        <v>68</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -12394,16 +12415,16 @@
         <v>24</v>
       </c>
       <c r="B68" s="21">
-        <v>43919</v>
+        <v>43915</v>
       </c>
       <c r="C68" s="2">
-        <v>46441</v>
+        <v>32407</v>
       </c>
       <c r="D68" s="2">
-        <v>8636</v>
+        <v>5560</v>
       </c>
       <c r="E68">
-        <v>86</v>
+        <v>31</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -12411,19 +12432,16 @@
         <v>24</v>
       </c>
       <c r="B69" s="21">
-        <v>43920</v>
+        <v>43916</v>
       </c>
       <c r="C69" s="2">
-        <v>49455</v>
+        <v>35995</v>
       </c>
       <c r="D69" s="2">
-        <v>9377</v>
-      </c>
-      <c r="E69" s="2">
-        <v>108</v>
-      </c>
-      <c r="F69" s="2">
-        <v>636</v>
+        <v>6398</v>
+      </c>
+      <c r="E69">
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -12431,19 +12449,16 @@
         <v>24</v>
       </c>
       <c r="B70" s="21">
-        <v>43921</v>
+        <v>43917</v>
       </c>
       <c r="C70" s="2">
-        <v>52344</v>
+        <v>39552</v>
       </c>
       <c r="D70" s="2">
-        <v>9974</v>
-      </c>
-      <c r="E70" s="2">
-        <v>128</v>
-      </c>
-      <c r="F70" s="2">
-        <v>1095</v>
+        <v>7399</v>
+      </c>
+      <c r="E70">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -12451,19 +12466,16 @@
         <v>24</v>
       </c>
       <c r="B71" s="21">
-        <v>43922</v>
+        <v>43918</v>
       </c>
       <c r="C71" s="2">
-        <v>55863</v>
+        <v>42750</v>
       </c>
       <c r="D71" s="2">
-        <v>10482</v>
-      </c>
-      <c r="E71" s="2">
-        <v>146</v>
-      </c>
-      <c r="F71" s="2">
-        <v>1436</v>
+        <v>7995</v>
+      </c>
+      <c r="E71">
+        <v>68</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -12471,22 +12483,16 @@
         <v>24</v>
       </c>
       <c r="B72" s="21">
-        <v>43923</v>
+        <v>43919</v>
       </c>
       <c r="C72" s="2">
-        <v>92190</v>
+        <v>46441</v>
       </c>
       <c r="D72" s="2">
-        <v>10967</v>
-      </c>
-      <c r="E72" s="2">
-        <v>158</v>
-      </c>
-      <c r="F72" s="2">
-        <v>1749</v>
-      </c>
-      <c r="H72" t="s">
-        <v>26</v>
+        <v>8636</v>
+      </c>
+      <c r="E72">
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -12494,19 +12500,19 @@
         <v>24</v>
       </c>
       <c r="B73" s="21">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="C73" s="2">
-        <v>98343</v>
+        <v>49455</v>
       </c>
       <c r="D73" s="2">
-        <v>11383</v>
+        <v>9377</v>
       </c>
       <c r="E73" s="2">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="F73" s="2">
-        <v>2022</v>
+        <v>636</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -12514,19 +12520,19 @@
         <v>24</v>
       </c>
       <c r="B74" s="21">
-        <v>43925</v>
+        <v>43921</v>
       </c>
       <c r="C74" s="2">
-        <v>104134</v>
+        <v>52344</v>
       </c>
       <c r="D74" s="2">
-        <v>11665</v>
+        <v>9974</v>
       </c>
       <c r="E74" s="2">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="F74" s="2">
-        <v>2507</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -12534,19 +12540,19 @@
         <v>24</v>
       </c>
       <c r="B75" s="21">
-        <v>43926</v>
+        <v>43922</v>
       </c>
       <c r="C75" s="2">
-        <v>108416</v>
+        <v>55863</v>
       </c>
       <c r="D75" s="2">
-        <v>11907</v>
+        <v>10482</v>
       </c>
       <c r="E75" s="2">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="F75" s="2">
-        <v>2998</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -12554,19 +12560,22 @@
         <v>24</v>
       </c>
       <c r="B76" s="21">
-        <v>43927</v>
+        <v>43923</v>
       </c>
       <c r="C76" s="2">
-        <v>111296</v>
+        <v>92190</v>
       </c>
       <c r="D76" s="2">
-        <v>12206</v>
+        <v>10967</v>
       </c>
       <c r="E76" s="2">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="F76" s="2">
-        <v>3463</v>
+        <v>1749</v>
+      </c>
+      <c r="H76" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -12574,19 +12583,19 @@
         <v>24</v>
       </c>
       <c r="B77" s="21">
-        <v>43928</v>
+        <v>43924</v>
       </c>
       <c r="C77" s="2">
-        <v>115235</v>
+        <v>98343</v>
       </c>
       <c r="D77" s="2">
-        <v>12519</v>
+        <v>11383</v>
       </c>
       <c r="E77" s="2">
-        <v>243</v>
+        <v>168</v>
       </c>
       <c r="F77" s="2">
-        <v>4046</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -12594,19 +12603,19 @@
         <v>24</v>
       </c>
       <c r="B78" s="21">
-        <v>43929</v>
+        <v>43925</v>
       </c>
       <c r="C78" s="2">
-        <v>120755</v>
+        <v>104134</v>
       </c>
       <c r="D78" s="2">
-        <v>12852</v>
+        <v>11665</v>
       </c>
       <c r="E78" s="2">
-        <v>273</v>
+        <v>186</v>
       </c>
       <c r="F78" s="2">
-        <v>4512</v>
+        <v>2507</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -12614,19 +12623,19 @@
         <v>24</v>
       </c>
       <c r="B79" s="21">
-        <v>43930</v>
+        <v>43926</v>
       </c>
       <c r="C79" s="2">
-        <v>126287</v>
+        <v>108416</v>
       </c>
       <c r="D79" s="2">
-        <v>13138</v>
+        <v>11907</v>
       </c>
       <c r="E79" s="2">
-        <v>295</v>
+        <v>204</v>
       </c>
       <c r="F79" s="2">
-        <v>5240</v>
+        <v>2998</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -12634,19 +12643,19 @@
         <v>24</v>
       </c>
       <c r="B80" s="21">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C80" s="2">
-        <v>134743</v>
+        <v>111296</v>
       </c>
       <c r="D80" s="2">
-        <v>13492</v>
+        <v>12206</v>
       </c>
       <c r="E80" s="2">
-        <v>319</v>
+        <v>220</v>
       </c>
       <c r="F80" s="2">
-        <v>5064</v>
+        <v>3463</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -12654,19 +12663,19 @@
         <v>24</v>
       </c>
       <c r="B81" s="21">
-        <v>43932</v>
+        <v>43928</v>
       </c>
       <c r="C81" s="2">
-        <v>140975</v>
+        <v>115235</v>
       </c>
       <c r="D81" s="2">
-        <v>13776</v>
+        <v>12519</v>
       </c>
       <c r="E81" s="2">
-        <v>337</v>
+        <v>243</v>
       </c>
       <c r="F81" s="2">
-        <v>6604</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -12674,22 +12683,19 @@
         <v>24</v>
       </c>
       <c r="B82" s="21">
-        <v>43933</v>
+        <v>43929</v>
       </c>
       <c r="C82" s="2">
-        <v>144877</v>
+        <v>120755</v>
       </c>
       <c r="D82" s="2">
-        <v>13945</v>
+        <v>12852</v>
       </c>
       <c r="E82" s="2">
-        <v>350</v>
+        <v>273</v>
       </c>
       <c r="F82" s="2">
-        <v>6987</v>
-      </c>
-      <c r="H82" t="s">
-        <v>27</v>
+        <v>4512</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -12697,19 +12703,19 @@
         <v>24</v>
       </c>
       <c r="B83" s="21">
-        <v>43934</v>
+        <v>43930</v>
       </c>
       <c r="C83" s="2">
-        <v>148412</v>
+        <v>126287</v>
       </c>
       <c r="D83" s="2">
-        <v>13999</v>
+        <v>13138</v>
       </c>
       <c r="E83" s="2">
-        <v>368</v>
+        <v>295</v>
       </c>
       <c r="F83" s="2">
-        <v>7343</v>
+        <v>5240</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -12717,158 +12723,138 @@
         <v>24</v>
       </c>
       <c r="B84" s="21">
-        <v>43935</v>
+        <v>43931</v>
       </c>
       <c r="C84" s="2">
-        <v>151796</v>
+        <v>134743</v>
       </c>
       <c r="D84" s="2">
-        <v>14159</v>
+        <v>13492</v>
       </c>
       <c r="E84" s="2">
-        <v>384</v>
+        <v>319</v>
       </c>
       <c r="F84" s="2">
-        <v>7633</v>
+        <v>5064</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" t="s">
+        <v>24</v>
+      </c>
+      <c r="B85" s="21">
+        <v>43932</v>
+      </c>
+      <c r="C85" s="2">
+        <v>140975</v>
+      </c>
+      <c r="D85" s="2">
+        <v>13776</v>
+      </c>
+      <c r="E85" s="2">
+        <v>337</v>
+      </c>
+      <c r="F85" s="2">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" t="s">
+        <v>24</v>
+      </c>
+      <c r="B86" s="21">
+        <v>43933</v>
+      </c>
+      <c r="C86" s="2">
+        <v>144877</v>
+      </c>
+      <c r="D86" s="2">
+        <v>13945</v>
+      </c>
+      <c r="E86" s="2">
+        <v>350</v>
+      </c>
+      <c r="F86" s="2">
+        <v>6987</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87" s="21">
-        <v>43885</v>
+        <v>43934</v>
       </c>
       <c r="C87" s="2">
-        <v>4324</v>
+        <v>148412</v>
       </c>
       <c r="D87" s="2">
-        <v>229</v>
+        <v>13999</v>
       </c>
       <c r="E87" s="2">
-        <v>7</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>17</v>
+        <v>368</v>
+      </c>
+      <c r="F87" s="2">
+        <v>7343</v>
       </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88" s="21">
-        <v>43886</v>
+        <v>43935</v>
       </c>
       <c r="C88" s="2">
-        <v>8623</v>
+        <v>151796</v>
       </c>
       <c r="D88" s="2">
-        <v>322</v>
+        <v>14159</v>
       </c>
       <c r="E88" s="2">
-        <v>10</v>
+        <v>384</v>
+      </c>
+      <c r="F88" s="2">
+        <v>7633</v>
       </c>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" s="21">
-        <v>43887</v>
+        <v>43936</v>
       </c>
       <c r="C89" s="2">
-        <v>9587</v>
+        <v>156801</v>
       </c>
       <c r="D89" s="2">
-        <v>400</v>
+        <v>14321</v>
       </c>
       <c r="E89" s="2">
-        <v>12</v>
+        <v>393</v>
+      </c>
+      <c r="F89" s="2">
+        <v>8098</v>
       </c>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B90" s="21">
-        <v>43888</v>
-      </c>
-      <c r="C90" s="2">
-        <v>12014</v>
-      </c>
-      <c r="D90" s="2">
-        <v>650</v>
-      </c>
-      <c r="E90" s="2">
-        <v>17</v>
+        <v>43937</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B91" s="21">
-        <v>43889</v>
-      </c>
-      <c r="C91" s="2">
-        <v>15695</v>
-      </c>
-      <c r="D91" s="2">
-        <v>888</v>
-      </c>
-      <c r="E91" s="2">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92" s="21">
-        <v>43890</v>
-      </c>
-      <c r="C92" s="2">
-        <v>18661</v>
-      </c>
-      <c r="D92" s="2">
-        <v>1128</v>
-      </c>
-      <c r="E92" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" t="s">
-        <v>25</v>
-      </c>
-      <c r="B93" s="21">
-        <v>43891</v>
-      </c>
-      <c r="C93" s="2">
-        <v>21127</v>
-      </c>
-      <c r="D93" s="2">
-        <v>1694</v>
-      </c>
-      <c r="E93" s="2">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" t="s">
-        <v>25</v>
-      </c>
-      <c r="B94" s="21">
-        <v>43892</v>
-      </c>
-      <c r="C94" s="2">
-        <v>23345</v>
-      </c>
-      <c r="D94" s="2">
-        <v>2036</v>
-      </c>
-      <c r="E94" s="2">
-        <v>52</v>
+        <v>43938</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -12876,16 +12862,19 @@
         <v>25</v>
       </c>
       <c r="B95" s="21">
-        <v>43893</v>
+        <v>43885</v>
       </c>
       <c r="C95" s="2">
-        <v>25856</v>
+        <v>4324</v>
       </c>
       <c r="D95" s="2">
-        <v>2502</v>
+        <v>229</v>
       </c>
       <c r="E95" s="2">
-        <v>79</v>
+        <v>7</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -12893,16 +12882,16 @@
         <v>25</v>
       </c>
       <c r="B96" s="21">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="C96" s="2">
-        <v>29837</v>
+        <v>8623</v>
       </c>
       <c r="D96" s="2">
-        <v>3089</v>
+        <v>322</v>
       </c>
       <c r="E96" s="2">
-        <v>107</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -12910,16 +12899,16 @@
         <v>25</v>
       </c>
       <c r="B97" s="21">
-        <v>43895</v>
+        <v>43887</v>
       </c>
       <c r="C97" s="2">
-        <v>32362</v>
+        <v>9587</v>
       </c>
       <c r="D97" s="2">
-        <v>3858</v>
+        <v>400</v>
       </c>
       <c r="E97" s="2">
-        <v>148</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -12927,16 +12916,16 @@
         <v>25</v>
       </c>
       <c r="B98" s="21">
-        <v>43896</v>
+        <v>43888</v>
       </c>
       <c r="C98" s="2">
-        <v>36359</v>
+        <v>12014</v>
       </c>
       <c r="D98" s="2">
-        <v>4636</v>
+        <v>650</v>
       </c>
       <c r="E98" s="2">
-        <v>197</v>
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -12944,16 +12933,16 @@
         <v>25</v>
       </c>
       <c r="B99" s="21">
-        <v>43897</v>
+        <v>43889</v>
       </c>
       <c r="C99" s="2">
-        <v>42062</v>
+        <v>15695</v>
       </c>
       <c r="D99" s="2">
-        <v>5883</v>
+        <v>888</v>
       </c>
       <c r="E99" s="2">
-        <v>233</v>
+        <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -12961,16 +12950,16 @@
         <v>25</v>
       </c>
       <c r="B100" s="21">
-        <v>43898</v>
+        <v>43890</v>
       </c>
       <c r="C100" s="2">
-        <v>49937</v>
+        <v>18661</v>
       </c>
       <c r="D100" s="2">
-        <v>7375</v>
+        <v>1128</v>
       </c>
       <c r="E100" s="2">
-        <v>366</v>
+        <v>29</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -12978,16 +12967,16 @@
         <v>25</v>
       </c>
       <c r="B101" s="21">
-        <v>43899</v>
+        <v>43891</v>
       </c>
       <c r="C101" s="2">
-        <v>53826</v>
+        <v>21127</v>
       </c>
       <c r="D101" s="2">
-        <v>9172</v>
+        <v>1694</v>
       </c>
       <c r="E101" s="2">
-        <v>463</v>
+        <v>34</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -12995,16 +12984,16 @@
         <v>25</v>
       </c>
       <c r="B102" s="21">
-        <v>43900</v>
+        <v>43892</v>
       </c>
       <c r="C102" s="2">
-        <v>60761</v>
+        <v>23345</v>
       </c>
       <c r="D102" s="2">
-        <v>10149</v>
+        <v>2036</v>
       </c>
       <c r="E102" s="2">
-        <v>631</v>
+        <v>52</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -13012,16 +13001,16 @@
         <v>25</v>
       </c>
       <c r="B103" s="21">
-        <v>43901</v>
+        <v>43893</v>
       </c>
       <c r="C103" s="2">
-        <v>73154</v>
+        <v>25856</v>
       </c>
       <c r="D103" s="2">
-        <v>12462</v>
+        <v>2502</v>
       </c>
       <c r="E103" s="2">
-        <v>827</v>
+        <v>79</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -13029,16 +13018,16 @@
         <v>25</v>
       </c>
       <c r="B104" s="21">
-        <v>43902</v>
+        <v>43894</v>
       </c>
       <c r="C104" s="2">
-        <v>86011</v>
+        <v>29837</v>
       </c>
       <c r="D104" s="2">
-        <v>15113</v>
+        <v>3089</v>
       </c>
       <c r="E104" s="2">
-        <v>1016</v>
+        <v>107</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -13046,16 +13035,16 @@
         <v>25</v>
       </c>
       <c r="B105" s="21">
-        <v>43903</v>
+        <v>43895</v>
       </c>
       <c r="C105" s="2">
-        <v>97488</v>
+        <v>32362</v>
       </c>
       <c r="D105" s="2">
-        <v>17660</v>
+        <v>3858</v>
       </c>
       <c r="E105" s="2">
-        <v>1266</v>
+        <v>148</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -13063,16 +13052,16 @@
         <v>25</v>
       </c>
       <c r="B106" s="21">
-        <v>43904</v>
+        <v>43896</v>
       </c>
       <c r="C106" s="2">
-        <v>109170</v>
+        <v>36359</v>
       </c>
       <c r="D106" s="2">
-        <v>21157</v>
+        <v>4636</v>
       </c>
       <c r="E106" s="2">
-        <v>1441</v>
+        <v>197</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -13080,16 +13069,16 @@
         <v>25</v>
       </c>
       <c r="B107" s="21">
-        <v>43905</v>
+        <v>43897</v>
       </c>
       <c r="C107" s="2">
-        <v>124899</v>
+        <v>42062</v>
       </c>
       <c r="D107" s="2">
-        <v>24747</v>
+        <v>5883</v>
       </c>
       <c r="E107" s="2">
-        <v>1809</v>
+        <v>233</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -13097,16 +13086,16 @@
         <v>25</v>
       </c>
       <c r="B108" s="21">
-        <v>43906</v>
+        <v>43898</v>
       </c>
       <c r="C108" s="2">
-        <v>137962</v>
+        <v>49937</v>
       </c>
       <c r="D108" s="2">
-        <v>27980</v>
+        <v>7375</v>
       </c>
       <c r="E108" s="2">
-        <v>2158</v>
+        <v>366</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -13114,16 +13103,16 @@
         <v>25</v>
       </c>
       <c r="B109" s="21">
-        <v>43907</v>
+        <v>43899</v>
       </c>
       <c r="C109" s="2">
-        <v>148657</v>
+        <v>53826</v>
       </c>
       <c r="D109" s="2">
-        <v>31506</v>
+        <v>9172</v>
       </c>
       <c r="E109" s="2">
-        <v>2503</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -13131,16 +13120,16 @@
         <v>25</v>
       </c>
       <c r="B110" s="21">
-        <v>43908</v>
+        <v>43900</v>
       </c>
       <c r="C110" s="2">
-        <v>165541</v>
+        <v>60761</v>
       </c>
       <c r="D110" s="2">
-        <v>35713</v>
+        <v>10149</v>
       </c>
       <c r="E110" s="2">
-        <v>2978</v>
+        <v>631</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -13148,16 +13137,16 @@
         <v>25</v>
       </c>
       <c r="B111" s="21">
-        <v>43909</v>
+        <v>43901</v>
       </c>
       <c r="C111" s="2">
-        <v>182777</v>
+        <v>73154</v>
       </c>
       <c r="D111" s="2">
-        <v>41035</v>
+        <v>12462</v>
       </c>
       <c r="E111" s="2">
-        <v>3405</v>
+        <v>827</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -13165,16 +13154,16 @@
         <v>25</v>
       </c>
       <c r="B112" s="21">
-        <v>43910</v>
+        <v>43902</v>
       </c>
       <c r="C112" s="2">
-        <v>206886</v>
+        <v>86011</v>
       </c>
       <c r="D112" s="2">
-        <v>47021</v>
+        <v>15113</v>
       </c>
       <c r="E112" s="2">
-        <v>4032</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -13182,16 +13171,16 @@
         <v>25</v>
       </c>
       <c r="B113" s="21">
-        <v>43911</v>
+        <v>43903</v>
       </c>
       <c r="C113" s="2">
-        <v>233222</v>
+        <v>97488</v>
       </c>
       <c r="D113" s="2">
-        <v>53578</v>
+        <v>17660</v>
       </c>
       <c r="E113" s="2">
-        <v>4825</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -13199,16 +13188,16 @@
         <v>25</v>
       </c>
       <c r="B114" s="21">
-        <v>43912</v>
+        <v>43904</v>
       </c>
       <c r="C114" s="2">
-        <v>258402</v>
+        <v>109170</v>
       </c>
       <c r="D114" s="2">
-        <v>59138</v>
+        <v>21157</v>
       </c>
       <c r="E114" s="2">
-        <v>5476</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -13216,16 +13205,16 @@
         <v>25</v>
       </c>
       <c r="B115" s="21">
-        <v>43913</v>
+        <v>43905</v>
       </c>
       <c r="C115" s="2">
-        <v>275468</v>
+        <v>124899</v>
       </c>
       <c r="D115" s="2">
-        <v>63927</v>
+        <v>24747</v>
       </c>
       <c r="E115" s="2">
-        <v>6077</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -13233,16 +13222,16 @@
         <v>25</v>
       </c>
       <c r="B116" s="21">
-        <v>43914</v>
+        <v>43906</v>
       </c>
       <c r="C116" s="2">
-        <v>296964</v>
+        <v>137962</v>
       </c>
       <c r="D116" s="2">
-        <v>69176</v>
+        <v>27980</v>
       </c>
       <c r="E116" s="2">
-        <v>6820</v>
+        <v>2158</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -13250,16 +13239,16 @@
         <v>25</v>
       </c>
       <c r="B117" s="21">
-        <v>43915</v>
+        <v>43907</v>
       </c>
       <c r="C117" s="2">
-        <v>324445</v>
+        <v>148657</v>
       </c>
       <c r="D117" s="2">
-        <v>74386</v>
+        <v>31506</v>
       </c>
       <c r="E117" s="2">
-        <v>7503</v>
+        <v>2503</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -13267,16 +13256,16 @@
         <v>25</v>
       </c>
       <c r="B118" s="21">
-        <v>43916</v>
+        <v>43908</v>
       </c>
       <c r="C118" s="2">
-        <v>361060</v>
+        <v>165541</v>
       </c>
       <c r="D118" s="2">
-        <v>80539</v>
+        <v>35713</v>
       </c>
       <c r="E118" s="2">
-        <v>8165</v>
+        <v>2978</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -13284,16 +13273,16 @@
         <v>25</v>
       </c>
       <c r="B119" s="21">
-        <v>43917</v>
+        <v>43909</v>
       </c>
       <c r="C119" s="2">
-        <v>394079</v>
+        <v>182777</v>
       </c>
       <c r="D119" s="2">
-        <v>86498</v>
+        <v>41035</v>
       </c>
       <c r="E119" s="2">
-        <v>9134</v>
+        <v>3405</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -13301,16 +13290,16 @@
         <v>25</v>
       </c>
       <c r="B120" s="21">
-        <v>43918</v>
+        <v>43910</v>
       </c>
       <c r="C120" s="2">
-        <v>429526</v>
+        <v>206886</v>
       </c>
       <c r="D120" s="2">
-        <v>92472</v>
+        <v>47021</v>
       </c>
       <c r="E120" s="2">
-        <v>10023</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -13318,16 +13307,16 @@
         <v>25</v>
       </c>
       <c r="B121" s="21">
-        <v>43919</v>
+        <v>43911</v>
       </c>
       <c r="C121" s="2">
-        <v>454030</v>
+        <v>233222</v>
       </c>
       <c r="D121" s="2">
-        <v>97689</v>
+        <v>53578</v>
       </c>
       <c r="E121" s="2">
-        <v>10779</v>
+        <v>4825</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -13335,16 +13324,16 @@
         <v>25</v>
       </c>
       <c r="B122" s="21">
-        <v>43920</v>
+        <v>43912</v>
       </c>
       <c r="C122" s="2">
-        <v>477359</v>
+        <v>258402</v>
       </c>
       <c r="D122" s="2">
-        <v>101739</v>
+        <v>59138</v>
       </c>
       <c r="E122" s="2">
-        <v>11591</v>
+        <v>5476</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -13352,16 +13341,16 @@
         <v>25</v>
       </c>
       <c r="B123" s="21">
-        <v>43921</v>
+        <v>43913</v>
       </c>
       <c r="C123" s="2">
-        <v>506968</v>
+        <v>275468</v>
       </c>
       <c r="D123" s="2">
-        <v>105972</v>
+        <v>63927</v>
       </c>
       <c r="E123" s="2">
-        <v>12428</v>
+        <v>6077</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -13369,16 +13358,16 @@
         <v>25</v>
       </c>
       <c r="B124" s="21">
-        <v>43922</v>
+        <v>43914</v>
       </c>
       <c r="C124" s="2">
-        <v>541423</v>
+        <v>296964</v>
       </c>
       <c r="D124" s="2">
-        <v>110574</v>
+        <v>69176</v>
       </c>
       <c r="E124" s="2">
-        <v>13155</v>
+        <v>6820</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -13386,16 +13375,16 @@
         <v>25</v>
       </c>
       <c r="B125" s="21">
-        <v>43923</v>
+        <v>43915</v>
       </c>
       <c r="C125" s="2">
-        <v>581232</v>
+        <v>324445</v>
       </c>
       <c r="D125" s="2">
-        <v>115242</v>
+        <v>74386</v>
       </c>
       <c r="E125" s="2">
-        <v>13915</v>
+        <v>7503</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -13403,16 +13392,16 @@
         <v>25</v>
       </c>
       <c r="B126" s="21">
-        <v>43924</v>
+        <v>43916</v>
       </c>
       <c r="C126" s="2">
-        <v>619849</v>
+        <v>361060</v>
       </c>
       <c r="D126" s="2">
-        <v>119827</v>
+        <v>80539</v>
       </c>
       <c r="E126" s="2">
-        <v>14681</v>
+        <v>8165</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -13420,16 +13409,16 @@
         <v>25</v>
       </c>
       <c r="B127" s="21">
-        <v>43925</v>
+        <v>43917</v>
       </c>
       <c r="C127" s="2">
-        <v>657224</v>
+        <v>394079</v>
       </c>
       <c r="D127" s="2">
-        <v>124632</v>
+        <v>86498</v>
       </c>
       <c r="E127" s="2">
-        <v>15362</v>
+        <v>9134</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -13437,529 +13426,494 @@
         <v>25</v>
       </c>
       <c r="B128" s="21">
-        <v>43926</v>
+        <v>43918</v>
       </c>
       <c r="C128" s="2">
-        <v>691461</v>
+        <v>429526</v>
       </c>
       <c r="D128" s="2">
-        <v>128948</v>
+        <v>92472</v>
       </c>
       <c r="E128" s="2">
-        <v>15887</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>10023</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" t="s">
         <v>25</v>
       </c>
       <c r="B129" s="21">
-        <v>43927</v>
+        <v>43919</v>
       </c>
       <c r="C129" s="2">
-        <v>721732</v>
+        <v>454030</v>
       </c>
       <c r="D129" s="2">
-        <v>132547</v>
+        <v>97689</v>
       </c>
       <c r="E129" s="2">
-        <v>16523</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>10779</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" t="s">
         <v>25</v>
       </c>
       <c r="B130" s="21">
-        <v>43928</v>
+        <v>43920</v>
       </c>
       <c r="C130" s="2">
-        <v>755445</v>
+        <v>477359</v>
       </c>
       <c r="D130" s="2">
-        <v>135586</v>
+        <v>101739</v>
       </c>
       <c r="E130" s="2">
-        <v>17127</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>11591</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" t="s">
         <v>25</v>
       </c>
       <c r="B131" s="21">
-        <v>43929</v>
+        <v>43921</v>
       </c>
       <c r="C131" s="2">
-        <v>807125</v>
+        <v>506968</v>
       </c>
       <c r="D131" s="2">
-        <v>139422</v>
+        <v>105972</v>
       </c>
       <c r="E131" s="2">
-        <v>17669</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>12428</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" t="s">
         <v>25</v>
       </c>
       <c r="B132" s="21">
-        <v>43930</v>
+        <v>43922</v>
       </c>
       <c r="C132" s="2">
-        <v>853369</v>
+        <v>541423</v>
       </c>
       <c r="D132" s="2">
-        <v>143626</v>
+        <v>110574</v>
       </c>
       <c r="E132" s="2">
-        <v>18279</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>13155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" t="s">
         <v>25</v>
       </c>
       <c r="B133" s="21">
-        <v>43931</v>
+        <v>43923</v>
       </c>
       <c r="C133" s="2">
-        <v>906864</v>
+        <v>581232</v>
       </c>
       <c r="D133" s="2">
-        <v>147577</v>
+        <v>115242</v>
       </c>
       <c r="E133" s="2">
-        <v>18849</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>13915</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" t="s">
         <v>25</v>
       </c>
       <c r="B134" s="21">
-        <v>43932</v>
+        <v>43924</v>
       </c>
       <c r="C134" s="2">
-        <v>963473</v>
+        <v>619849</v>
       </c>
       <c r="D134" s="2">
-        <v>152271</v>
+        <v>119827</v>
       </c>
       <c r="E134" s="2">
-        <v>19468</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14681</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" t="s">
         <v>25</v>
       </c>
       <c r="B135" s="21">
-        <v>43933</v>
+        <v>43925</v>
       </c>
       <c r="C135" s="2">
-        <v>1010193</v>
+        <v>657224</v>
       </c>
       <c r="D135" s="2">
-        <v>156363</v>
+        <v>124632</v>
       </c>
       <c r="E135" s="2">
-        <v>19899</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>15362</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" t="s">
         <v>25</v>
       </c>
       <c r="B136" s="21">
-        <v>43934</v>
+        <v>43926</v>
       </c>
       <c r="C136" s="2">
-        <v>1046910</v>
+        <v>691461</v>
       </c>
       <c r="D136" s="2">
-        <v>159516</v>
+        <v>128948</v>
       </c>
       <c r="E136" s="2">
-        <v>20465</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>15887</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
       <c r="A137" t="s">
         <v>25</v>
       </c>
       <c r="B137" s="21">
+        <v>43927</v>
+      </c>
+      <c r="C137" s="2">
+        <v>721732</v>
+      </c>
+      <c r="D137" s="2">
+        <v>132547</v>
+      </c>
+      <c r="E137" s="2">
+        <v>16523</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" t="s">
+        <v>25</v>
+      </c>
+      <c r="B138" s="21">
+        <v>43928</v>
+      </c>
+      <c r="C138" s="2">
+        <v>755445</v>
+      </c>
+      <c r="D138" s="2">
+        <v>135586</v>
+      </c>
+      <c r="E138" s="2">
+        <v>17127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" t="s">
+        <v>25</v>
+      </c>
+      <c r="B139" s="21">
+        <v>43929</v>
+      </c>
+      <c r="C139" s="2">
+        <v>807125</v>
+      </c>
+      <c r="D139" s="2">
+        <v>139422</v>
+      </c>
+      <c r="E139" s="2">
+        <v>17669</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" t="s">
+        <v>25</v>
+      </c>
+      <c r="B140" s="21">
+        <v>43930</v>
+      </c>
+      <c r="C140" s="2">
+        <v>853369</v>
+      </c>
+      <c r="D140" s="2">
+        <v>143626</v>
+      </c>
+      <c r="E140" s="2">
+        <v>18279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="21">
+        <v>43931</v>
+      </c>
+      <c r="C141" s="2">
+        <v>906864</v>
+      </c>
+      <c r="D141" s="2">
+        <v>147577</v>
+      </c>
+      <c r="E141" s="2">
+        <v>18849</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" t="s">
+        <v>25</v>
+      </c>
+      <c r="B142" s="21">
+        <v>43932</v>
+      </c>
+      <c r="C142" s="2">
+        <v>963473</v>
+      </c>
+      <c r="D142" s="2">
+        <v>152271</v>
+      </c>
+      <c r="E142" s="2">
+        <v>19468</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="21">
+        <v>43933</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1010193</v>
+      </c>
+      <c r="D143" s="2">
+        <v>156363</v>
+      </c>
+      <c r="E143" s="2">
+        <v>19899</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" t="s">
+        <v>25</v>
+      </c>
+      <c r="B144" s="21">
+        <v>43934</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1046910</v>
+      </c>
+      <c r="D144" s="2">
+        <v>159516</v>
+      </c>
+      <c r="E144" s="2">
+        <v>20465</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
+      <c r="A145" t="s">
+        <v>25</v>
+      </c>
+      <c r="B145" s="21">
         <v>43935</v>
       </c>
-      <c r="C137" s="2">
+      <c r="C145" s="2">
         <v>1073689</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D145" s="2">
         <v>162488</v>
       </c>
-      <c r="E137" s="2">
+      <c r="E145" s="2">
         <v>21067</v>
       </c>
     </row>
-    <row r="140" spans="1:8">
-      <c r="A140" t="s">
-        <v>28</v>
-      </c>
-      <c r="B140" s="21">
-        <v>43894</v>
-      </c>
-      <c r="D140" s="2">
-        <v>35</v>
-      </c>
-      <c r="E140" s="2">
-        <v>0</v>
-      </c>
-      <c r="F140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" t="s">
-        <v>28</v>
-      </c>
-      <c r="B141" s="21">
-        <v>43895</v>
-      </c>
-      <c r="D141" s="2">
-        <v>94</v>
-      </c>
-      <c r="E141" s="2">
-        <v>0</v>
-      </c>
-      <c r="F141" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" t="s">
-        <v>28</v>
-      </c>
-      <c r="B142" s="21">
-        <v>43896</v>
-      </c>
-      <c r="D142" s="2">
-        <v>101</v>
-      </c>
-      <c r="E142" s="2">
-        <v>0</v>
-      </c>
-      <c r="F142" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" t="s">
-        <v>28</v>
-      </c>
-      <c r="B143" s="21">
-        <v>43897</v>
-      </c>
-      <c r="D143" s="2">
-        <v>161</v>
-      </c>
-      <c r="E143" s="2">
-        <v>0</v>
-      </c>
-      <c r="F143" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" t="s">
-        <v>28</v>
-      </c>
-      <c r="B144" s="21">
-        <v>43898</v>
-      </c>
-      <c r="D144" s="2">
-        <v>203</v>
-      </c>
-      <c r="E144" s="2">
-        <v>0</v>
-      </c>
-      <c r="F144" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" t="s">
-        <v>28</v>
-      </c>
-      <c r="B145" s="21">
-        <v>43899</v>
-      </c>
-      <c r="D145" s="2">
-        <v>248</v>
-      </c>
-      <c r="E145" s="2">
-        <v>0</v>
-      </c>
-      <c r="F145" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+    <row r="146" spans="1:8">
       <c r="A146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B146" s="21">
-        <v>43900</v>
+        <v>43936</v>
+      </c>
+      <c r="C146" s="2">
+        <v>1117404</v>
       </c>
       <c r="D146" s="2">
-        <v>355</v>
+        <v>165155</v>
       </c>
       <c r="E146" s="2">
-        <v>0</v>
-      </c>
-      <c r="F146" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>21645</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B147" s="21">
-        <v>43901</v>
-      </c>
-      <c r="D147" s="2">
-        <v>500</v>
-      </c>
-      <c r="E147" s="2">
-        <v>1</v>
-      </c>
-      <c r="F147" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B148" s="21">
-        <v>43902</v>
-      </c>
-      <c r="D148" s="2">
-        <v>599</v>
-      </c>
-      <c r="E148" s="2">
-        <v>1</v>
-      </c>
-      <c r="F148" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" t="s">
-        <v>28</v>
-      </c>
-      <c r="B149" s="21">
-        <v>43903</v>
-      </c>
-      <c r="D149" s="2">
-        <v>814</v>
-      </c>
-      <c r="E149" s="2">
-        <v>1</v>
-      </c>
-      <c r="F149" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" t="s">
-        <v>28</v>
-      </c>
-      <c r="B150" s="21">
-        <v>43904</v>
-      </c>
-      <c r="D150" s="2">
-        <v>961</v>
-      </c>
-      <c r="E150" s="2">
-        <v>2</v>
-      </c>
-      <c r="F150" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" t="s">
-        <v>28</v>
-      </c>
-      <c r="B151" s="21">
-        <v>43905</v>
-      </c>
-      <c r="D151" s="2">
-        <v>1022</v>
-      </c>
-      <c r="E151" s="2">
-        <v>3</v>
-      </c>
-      <c r="F151" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
+        <v>43938</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" t="s">
         <v>28</v>
       </c>
       <c r="B152" s="21">
-        <v>43906</v>
+        <v>43894</v>
       </c>
       <c r="D152" s="2">
-        <v>1103</v>
+        <v>35</v>
       </c>
       <c r="E152" s="2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F152" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="H152" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" t="s">
         <v>28</v>
       </c>
       <c r="B153" s="21">
-        <v>43907</v>
+        <v>43895</v>
       </c>
       <c r="D153" s="2">
-        <v>1190</v>
+        <v>94</v>
       </c>
       <c r="E153" s="2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F153" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" t="s">
         <v>28</v>
       </c>
       <c r="B154" s="21">
-        <v>43908</v>
+        <v>43896</v>
       </c>
       <c r="D154" s="2">
-        <v>1279</v>
+        <v>101</v>
       </c>
       <c r="E154" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F154" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" t="s">
         <v>28</v>
       </c>
       <c r="B155" s="21">
-        <v>43909</v>
+        <v>43897</v>
       </c>
       <c r="D155" s="2">
-        <v>1439</v>
+        <v>161</v>
       </c>
       <c r="E155" s="2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="F155" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" t="s">
         <v>28</v>
       </c>
       <c r="B156" s="21">
-        <v>43910</v>
+        <v>43898</v>
       </c>
       <c r="D156" s="2">
-        <v>1639</v>
+        <v>203</v>
       </c>
       <c r="E156" s="2">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="F156" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" t="s">
         <v>28</v>
       </c>
       <c r="B157" s="21">
-        <v>43911</v>
+        <v>43899</v>
       </c>
       <c r="D157" s="2">
-        <v>1763</v>
+        <v>248</v>
       </c>
       <c r="E157" s="2">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F157" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" t="s">
         <v>28</v>
       </c>
       <c r="B158" s="21">
-        <v>43912</v>
+        <v>43900</v>
       </c>
       <c r="D158" s="2">
-        <v>1934</v>
+        <v>355</v>
       </c>
       <c r="E158" s="2">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F158" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" t="s">
         <v>28</v>
       </c>
       <c r="B159" s="21">
-        <v>43913</v>
+        <v>43901</v>
       </c>
       <c r="D159" s="2">
-        <v>2046</v>
+        <v>500</v>
       </c>
       <c r="E159" s="2">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="F159" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" t="s">
         <v>28</v>
       </c>
       <c r="B160" s="21">
-        <v>43914</v>
+        <v>43902</v>
       </c>
       <c r="D160" s="2">
-        <v>2286</v>
+        <v>599</v>
       </c>
       <c r="E160" s="2">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="F160" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -13967,16 +13921,16 @@
         <v>28</v>
       </c>
       <c r="B161" s="21">
-        <v>43915</v>
+        <v>43903</v>
       </c>
       <c r="D161" s="2">
-        <v>2526</v>
+        <v>814</v>
       </c>
       <c r="E161" s="2">
-        <v>62</v>
+        <v>1</v>
       </c>
       <c r="F161" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -13984,16 +13938,16 @@
         <v>28</v>
       </c>
       <c r="B162" s="21">
-        <v>43916</v>
+        <v>43904</v>
       </c>
       <c r="D162" s="2">
-        <v>2840</v>
+        <v>961</v>
       </c>
       <c r="E162" s="2">
-        <v>77</v>
+        <v>2</v>
       </c>
       <c r="F162" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -14001,16 +13955,16 @@
         <v>28</v>
       </c>
       <c r="B163" s="21">
-        <v>43917</v>
+        <v>43905</v>
       </c>
       <c r="D163" s="2">
-        <v>3069</v>
+        <v>1022</v>
       </c>
       <c r="E163" s="2">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="F163" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -14018,16 +13972,16 @@
         <v>28</v>
       </c>
       <c r="B164" s="21">
-        <v>43918</v>
+        <v>43906</v>
       </c>
       <c r="D164" s="2">
-        <v>3447</v>
+        <v>1103</v>
       </c>
       <c r="E164" s="2">
-        <v>105</v>
+        <v>6</v>
       </c>
       <c r="F164" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -14035,16 +13989,16 @@
         <v>28</v>
       </c>
       <c r="B165" s="21">
-        <v>43919</v>
+        <v>43907</v>
       </c>
       <c r="D165" s="2">
-        <v>3700</v>
+        <v>1190</v>
       </c>
       <c r="E165" s="2">
-        <v>110</v>
+        <v>7</v>
       </c>
       <c r="F165" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -14052,16 +14006,16 @@
         <v>28</v>
       </c>
       <c r="B166" s="21">
-        <v>43920</v>
+        <v>43908</v>
       </c>
       <c r="D166" s="2">
-        <v>4028</v>
+        <v>1279</v>
       </c>
       <c r="E166" s="2">
-        <v>146</v>
+        <v>10</v>
       </c>
       <c r="F166" s="2">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -14069,13 +14023,13 @@
         <v>28</v>
       </c>
       <c r="B167" s="21">
-        <v>43921</v>
+        <v>43909</v>
       </c>
       <c r="D167" s="2">
-        <v>4435</v>
+        <v>1439</v>
       </c>
       <c r="E167" s="2">
-        <v>180</v>
+        <v>11</v>
       </c>
       <c r="F167" s="2">
         <v>16</v>
@@ -14086,16 +14040,16 @@
         <v>28</v>
       </c>
       <c r="B168" s="21">
-        <v>43922</v>
+        <v>43910</v>
       </c>
       <c r="D168" s="2">
-        <v>4947</v>
+        <v>1639</v>
       </c>
       <c r="E168" s="2">
-        <v>239</v>
+        <v>16</v>
       </c>
       <c r="F168" s="2">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -14103,16 +14057,16 @@
         <v>28</v>
       </c>
       <c r="B169" s="21">
-        <v>43923</v>
+        <v>43911</v>
       </c>
       <c r="D169" s="2">
-        <v>5568</v>
+        <v>1763</v>
       </c>
       <c r="E169" s="2">
-        <v>308</v>
+        <v>20</v>
       </c>
       <c r="F169" s="2">
-        <v>103</v>
+        <v>16</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -14120,16 +14074,16 @@
         <v>28</v>
       </c>
       <c r="B170" s="21">
-        <v>43924</v>
+        <v>43912</v>
       </c>
       <c r="D170" s="2">
-        <v>6131</v>
+        <v>1934</v>
       </c>
       <c r="E170" s="2">
-        <v>358</v>
+        <v>21</v>
       </c>
       <c r="F170" s="2">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -14137,16 +14091,16 @@
         <v>28</v>
       </c>
       <c r="B171" s="21">
-        <v>43925</v>
+        <v>43913</v>
       </c>
       <c r="D171" s="2">
-        <v>6443</v>
+        <v>2046</v>
       </c>
       <c r="E171" s="2">
-        <v>373</v>
+        <v>25</v>
       </c>
       <c r="F171" s="2">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -14154,16 +14108,16 @@
         <v>28</v>
       </c>
       <c r="B172" s="21">
-        <v>43926</v>
+        <v>43914</v>
       </c>
       <c r="D172" s="2">
-        <v>6830</v>
+        <v>2286</v>
       </c>
       <c r="E172" s="2">
-        <v>401</v>
+        <v>36</v>
       </c>
       <c r="F172" s="2">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -14171,16 +14125,16 @@
         <v>28</v>
       </c>
       <c r="B173" s="21">
-        <v>43927</v>
+        <v>43915</v>
       </c>
       <c r="D173" s="2">
-        <v>7206</v>
+        <v>2526</v>
       </c>
       <c r="E173" s="2">
-        <v>477</v>
+        <v>62</v>
       </c>
       <c r="F173" s="2">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -14188,16 +14142,16 @@
         <v>28</v>
       </c>
       <c r="B174" s="21">
-        <v>43928</v>
+        <v>43916</v>
       </c>
       <c r="D174" s="2">
-        <v>7693</v>
+        <v>2840</v>
       </c>
       <c r="E174" s="2">
-        <v>591</v>
+        <v>77</v>
       </c>
       <c r="F174" s="2">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -14205,16 +14159,16 @@
         <v>28</v>
       </c>
       <c r="B175" s="21">
-        <v>43929</v>
+        <v>43917</v>
       </c>
       <c r="D175" s="2">
-        <v>8419</v>
+        <v>3069</v>
       </c>
       <c r="E175" s="2">
-        <v>687</v>
+        <v>105</v>
       </c>
       <c r="F175" s="2">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -14222,16 +14176,16 @@
         <v>28</v>
       </c>
       <c r="B176" s="21">
-        <v>43930</v>
+        <v>43918</v>
       </c>
       <c r="D176" s="2">
-        <v>9141</v>
+        <v>3447</v>
       </c>
       <c r="E176" s="2">
-        <v>793</v>
+        <v>105</v>
       </c>
       <c r="F176" s="2">
-        <v>205</v>
+        <v>16</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -14239,16 +14193,16 @@
         <v>28</v>
       </c>
       <c r="B177" s="21">
-        <v>43931</v>
+        <v>43919</v>
       </c>
       <c r="D177" s="2">
-        <v>9685</v>
+        <v>3700</v>
       </c>
       <c r="E177" s="2">
-        <v>870</v>
+        <v>110</v>
       </c>
       <c r="F177" s="2">
-        <v>381</v>
+        <v>16</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -14256,16 +14210,16 @@
         <v>28</v>
       </c>
       <c r="B178" s="21">
-        <v>43932</v>
+        <v>43920</v>
       </c>
       <c r="D178" s="2">
-        <v>10151</v>
+        <v>4028</v>
       </c>
       <c r="E178" s="2">
-        <v>887</v>
+        <v>146</v>
       </c>
       <c r="F178" s="2">
-        <v>381</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -14273,16 +14227,16 @@
         <v>28</v>
       </c>
       <c r="B179" s="21">
-        <v>43933</v>
+        <v>43921</v>
       </c>
       <c r="D179" s="2">
-        <v>10483</v>
+        <v>4435</v>
       </c>
       <c r="E179" s="2">
-        <v>899</v>
+        <v>180</v>
       </c>
       <c r="F179" s="2">
-        <v>381</v>
+        <v>16</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -14290,16 +14244,16 @@
         <v>28</v>
       </c>
       <c r="B180" s="21">
-        <v>43934</v>
+        <v>43922</v>
       </c>
       <c r="D180" s="2">
-        <v>10948</v>
+        <v>4947</v>
       </c>
       <c r="E180" s="2">
-        <v>919</v>
+        <v>239</v>
       </c>
       <c r="F180" s="2">
-        <v>381</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -14307,21 +14261,225 @@
         <v>28</v>
       </c>
       <c r="B181" s="21">
+        <v>43923</v>
+      </c>
+      <c r="D181" s="2">
+        <v>5568</v>
+      </c>
+      <c r="E181" s="2">
+        <v>308</v>
+      </c>
+      <c r="F181" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>28</v>
+      </c>
+      <c r="B182" s="21">
+        <v>43924</v>
+      </c>
+      <c r="D182" s="2">
+        <v>6131</v>
+      </c>
+      <c r="E182" s="2">
+        <v>358</v>
+      </c>
+      <c r="F182" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>28</v>
+      </c>
+      <c r="B183" s="21">
+        <v>43925</v>
+      </c>
+      <c r="D183" s="2">
+        <v>6443</v>
+      </c>
+      <c r="E183" s="2">
+        <v>373</v>
+      </c>
+      <c r="F183" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184" s="21">
+        <v>43926</v>
+      </c>
+      <c r="D184" s="2">
+        <v>6830</v>
+      </c>
+      <c r="E184" s="2">
+        <v>401</v>
+      </c>
+      <c r="F184" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>28</v>
+      </c>
+      <c r="B185" s="21">
+        <v>43927</v>
+      </c>
+      <c r="D185" s="2">
+        <v>7206</v>
+      </c>
+      <c r="E185" s="2">
+        <v>477</v>
+      </c>
+      <c r="F185" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>28</v>
+      </c>
+      <c r="B186" s="21">
+        <v>43928</v>
+      </c>
+      <c r="D186" s="2">
+        <v>7693</v>
+      </c>
+      <c r="E186" s="2">
+        <v>591</v>
+      </c>
+      <c r="F186" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>28</v>
+      </c>
+      <c r="B187" s="21">
+        <v>43929</v>
+      </c>
+      <c r="D187" s="2">
+        <v>8419</v>
+      </c>
+      <c r="E187" s="2">
+        <v>687</v>
+      </c>
+      <c r="F187" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>28</v>
+      </c>
+      <c r="B188" s="21">
+        <v>43930</v>
+      </c>
+      <c r="D188" s="2">
+        <v>9141</v>
+      </c>
+      <c r="E188" s="2">
+        <v>793</v>
+      </c>
+      <c r="F188" s="2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>28</v>
+      </c>
+      <c r="B189" s="21">
+        <v>43931</v>
+      </c>
+      <c r="D189" s="2">
+        <v>9685</v>
+      </c>
+      <c r="E189" s="2">
+        <v>870</v>
+      </c>
+      <c r="F189" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>28</v>
+      </c>
+      <c r="B190" s="21">
+        <v>43932</v>
+      </c>
+      <c r="D190" s="2">
+        <v>10151</v>
+      </c>
+      <c r="E190" s="2">
+        <v>887</v>
+      </c>
+      <c r="F190" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>28</v>
+      </c>
+      <c r="B191" s="21">
+        <v>43933</v>
+      </c>
+      <c r="D191" s="2">
+        <v>10483</v>
+      </c>
+      <c r="E191" s="2">
+        <v>899</v>
+      </c>
+      <c r="F191" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>28</v>
+      </c>
+      <c r="B192" s="21">
+        <v>43934</v>
+      </c>
+      <c r="D192" s="2">
+        <v>10948</v>
+      </c>
+      <c r="E192" s="2">
+        <v>919</v>
+      </c>
+      <c r="F192" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" t="s">
+        <v>28</v>
+      </c>
+      <c r="B193" s="21">
         <v>43935</v>
       </c>
-      <c r="D181" s="2">
+      <c r="D193" s="2">
         <v>11445</v>
       </c>
-      <c r="E181" s="2">
+      <c r="E193" s="2">
         <v>1033</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H47" r:id="rId1"/>
+    <hyperlink ref="H51" r:id="rId1"/>
     <hyperlink ref="H3" r:id="rId2"/>
-    <hyperlink ref="H87" r:id="rId3"/>
-    <hyperlink ref="H140" r:id="rId4"/>
+    <hyperlink ref="H95" r:id="rId3"/>
+    <hyperlink ref="H152" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId5"/>
@@ -14333,8 +14491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14353,22 +14511,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>12</v>
@@ -14378,24 +14536,24 @@
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="24" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -14444,11 +14602,11 @@
         <v>43899</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C48</f>
+        <f>Data!C52</f>
         <v>4734</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D48</f>
+        <f>Data!D52</f>
         <v>131</v>
       </c>
       <c r="H6" s="3">
@@ -14456,7 +14614,7 @@
         <v>131</v>
       </c>
       <c r="L6">
-        <f>Data!E48</f>
+        <f>Data!E52</f>
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
@@ -14467,7 +14625,7 @@
         <v>43900</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C49</f>
+        <f>Data!C53</f>
         <v>5026</v>
       </c>
       <c r="D7" s="2">
@@ -14479,7 +14637,7 @@
         <v>0.17465753424657535</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D49</f>
+        <f>Data!D53</f>
         <v>182</v>
       </c>
       <c r="H7" s="3">
@@ -14491,7 +14649,7 @@
         <v>0.38931297709923673</v>
       </c>
       <c r="L7">
-        <f>Data!E49</f>
+        <f>Data!E53</f>
         <v>0</v>
       </c>
       <c r="M7">
@@ -14506,7 +14664,7 @@
         <v>43901</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C50</f>
+        <f>Data!C54</f>
         <v>5362</v>
       </c>
       <c r="D8" s="2">
@@ -14518,7 +14676,7 @@
         <v>0.19047619047619047</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D50</f>
+        <f>Data!D54</f>
         <v>246</v>
       </c>
       <c r="H8" s="3">
@@ -14530,7 +14688,7 @@
         <v>0.35164835164835173</v>
       </c>
       <c r="L8">
-        <f>Data!E50</f>
+        <f>Data!E54</f>
         <v>0</v>
       </c>
       <c r="M8">
@@ -14545,7 +14703,7 @@
         <v>43902</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C51</f>
+        <f>Data!C55</f>
         <v>5869</v>
       </c>
       <c r="D9" s="2">
@@ -14557,7 +14715,7 @@
         <v>0.22682445759368836</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D51</f>
+        <f>Data!D55</f>
         <v>361</v>
       </c>
       <c r="H9" s="3">
@@ -14569,7 +14727,7 @@
         <v>0.46747967479674801</v>
       </c>
       <c r="L9">
-        <f>Data!E51</f>
+        <f>Data!E55</f>
         <v>1</v>
       </c>
       <c r="M9">
@@ -14586,7 +14744,7 @@
         <v>43903</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C52</f>
+        <f>Data!C56</f>
         <v>6582</v>
       </c>
       <c r="D10" s="2">
@@ -14598,7 +14756,7 @@
         <v>0.2005610098176718</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D52</f>
+        <f>Data!D56</f>
         <v>504</v>
       </c>
       <c r="H10" s="3">
@@ -14610,7 +14768,7 @@
         <v>0.39612188365650969</v>
       </c>
       <c r="L10">
-        <f>Data!E52</f>
+        <f>Data!E56</f>
         <v>1</v>
       </c>
       <c r="M10">
@@ -14628,7 +14786,7 @@
         <v>43904</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C53</f>
+        <f>Data!C57</f>
         <v>7467</v>
       </c>
       <c r="D11" s="2">
@@ -14640,7 +14798,7 @@
         <v>0.17062146892655367</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D53</f>
+        <f>Data!D57</f>
         <v>655</v>
       </c>
       <c r="H11" s="3">
@@ -14656,7 +14814,7 @@
         <v>0.38083321236080414</v>
       </c>
       <c r="L11">
-        <f>Data!E53</f>
+        <f>Data!E57</f>
         <v>1</v>
       </c>
       <c r="M11">
@@ -14674,7 +14832,7 @@
         <v>43905</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C54</f>
+        <f>Data!C58</f>
         <v>8167</v>
       </c>
       <c r="D12" s="2">
@@ -14686,7 +14844,7 @@
         <v>0.29285714285714287</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D54</f>
+        <f>Data!D58</f>
         <v>860</v>
       </c>
       <c r="H12" s="3">
@@ -14702,7 +14860,7 @@
         <v>0.36556603678828503</v>
       </c>
       <c r="L12">
-        <f>Data!E54</f>
+        <f>Data!E58</f>
         <v>1</v>
       </c>
       <c r="M12">
@@ -14723,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C55</f>
+        <f>Data!C59</f>
         <v>8490</v>
       </c>
       <c r="D13" s="2">
@@ -14735,7 +14893,7 @@
         <v>0.48297213622291024</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D55</f>
+        <f>Data!D59</f>
         <v>1016</v>
       </c>
       <c r="H13" s="3">
@@ -14751,7 +14909,7 @@
         <v>0.33151543622605656</v>
       </c>
       <c r="L13">
-        <f>Data!E55</f>
+        <f>Data!E59</f>
         <v>3</v>
       </c>
       <c r="M13">
@@ -14775,7 +14933,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C56</f>
+        <f>Data!C60</f>
         <v>10278</v>
       </c>
       <c r="D14" s="2">
@@ -14787,7 +14945,7 @@
         <v>0.1767337807606264</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D56</f>
+        <f>Data!D60</f>
         <v>1332</v>
       </c>
       <c r="H14" s="3">
@@ -14803,7 +14961,7 @@
         <v>0.30022422567615575</v>
       </c>
       <c r="L14">
-        <f>Data!E56</f>
+        <f>Data!E60</f>
         <v>3</v>
       </c>
       <c r="M14">
@@ -14827,7 +14985,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C57</f>
+        <f>Data!C61</f>
         <v>11977</v>
       </c>
       <c r="D15" s="2">
@@ -14839,7 +14997,7 @@
         <v>0.18481459682165979</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D57</f>
+        <f>Data!D61</f>
         <v>1646</v>
       </c>
       <c r="H15" s="3">
@@ -14855,7 +15013,7 @@
         <v>0.26814699609200099</v>
       </c>
       <c r="L15">
-        <f>Data!E57</f>
+        <f>Data!E61</f>
         <v>4</v>
       </c>
       <c r="M15">
@@ -14879,7 +15037,7 @@
         <v>3</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C58</f>
+        <f>Data!C62</f>
         <v>13724</v>
       </c>
       <c r="D16" s="2">
@@ -14891,7 +15049,7 @@
         <v>0.21007441327990842</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D58</f>
+        <f>Data!D62</f>
         <v>2013</v>
       </c>
       <c r="H16" s="3">
@@ -14907,7 +15065,7 @@
         <v>0.25281931378375971</v>
       </c>
       <c r="L16">
-        <f>Data!E58</f>
+        <f>Data!E62</f>
         <v>6</v>
       </c>
       <c r="M16">
@@ -14931,7 +15089,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C59</f>
+        <f>Data!C63</f>
         <v>15613</v>
       </c>
       <c r="D17" s="2">
@@ -14943,7 +15101,7 @@
         <v>0.19851773425092642</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D59</f>
+        <f>Data!D63</f>
         <v>2388</v>
       </c>
       <c r="H17" s="3">
@@ -14959,7 +15117,7 @@
         <v>0.22748171807950154</v>
       </c>
       <c r="L17">
-        <f>Data!E59</f>
+        <f>Data!E63</f>
         <v>6</v>
       </c>
       <c r="M17">
@@ -14983,7 +15141,7 @@
         <v>5</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C60</f>
+        <f>Data!C64</f>
         <v>18545</v>
       </c>
       <c r="D18" s="2">
@@ -14995,7 +15153,7 @@
         <v>0.14529331514324692</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D60</f>
+        <f>Data!D64</f>
         <v>2814</v>
       </c>
       <c r="H18" s="3">
@@ -15011,7 +15169,7 @@
         <v>0.22688104027185868</v>
       </c>
       <c r="L18">
-        <f>Data!E60</f>
+        <f>Data!E64</f>
         <v>8</v>
       </c>
       <c r="M18">
@@ -15035,7 +15193,7 @@
         <v>6</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C61</f>
+        <f>Data!C65</f>
         <v>21368</v>
       </c>
       <c r="D19" s="2">
@@ -15047,7 +15205,7 @@
         <v>0.15232022670917464</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D61</f>
+        <f>Data!D65</f>
         <v>3244</v>
       </c>
       <c r="H19" s="3">
@@ -15063,7 +15221,7 @@
         <v>0.19523779418508219</v>
       </c>
       <c r="L19">
-        <f>Data!E61</f>
+        <f>Data!E65</f>
         <v>16</v>
       </c>
       <c r="M19">
@@ -15087,7 +15245,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C62</f>
+        <f>Data!C66</f>
         <v>23429</v>
       </c>
       <c r="D20" s="2">
@@ -15099,7 +15257,7 @@
         <v>0.32993692382338669</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D62</f>
+        <f>Data!D66</f>
         <v>3924</v>
       </c>
       <c r="H20" s="3">
@@ -15115,7 +15273,7 @@
         <v>0.19001419820932841</v>
       </c>
       <c r="L20">
-        <f>Data!E62</f>
+        <f>Data!E66</f>
         <v>21</v>
       </c>
       <c r="M20">
@@ -15139,7 +15297,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C63</f>
+        <f>Data!C67</f>
         <v>28391</v>
       </c>
       <c r="D21" s="2">
@@ -15151,7 +15309,7 @@
         <v>0.19185812172511085</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D63</f>
+        <f>Data!D67</f>
         <v>4876</v>
       </c>
       <c r="H21" s="3">
@@ -15167,7 +15325,7 @@
         <v>0.19394316200875941</v>
       </c>
       <c r="L21">
-        <f>Data!E63</f>
+        <f>Data!E67</f>
         <v>28</v>
       </c>
       <c r="M21">
@@ -15191,7 +15349,7 @@
         <v>9</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C64</f>
+        <f>Data!C68</f>
         <v>32407</v>
       </c>
       <c r="D22" s="2">
@@ -15203,7 +15361,7 @@
         <v>0.17031872509960158</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D64</f>
+        <f>Data!D68</f>
         <v>5560</v>
       </c>
       <c r="H22" s="3">
@@ -15219,7 +15377,7 @@
         <v>0.18474112129472955</v>
       </c>
       <c r="L22">
-        <f>Data!E64</f>
+        <f>Data!E68</f>
         <v>31</v>
       </c>
       <c r="M22">
@@ -15243,7 +15401,7 @@
         <v>10</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C65</f>
+        <f>Data!C69</f>
         <v>35995</v>
       </c>
       <c r="D23" s="2">
@@ -15255,7 +15413,7 @@
         <v>0.23355629877369008</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D65</f>
+        <f>Data!D69</f>
         <v>6398</v>
       </c>
       <c r="H23" s="3">
@@ -15271,7 +15429,7 @@
         <v>0.17920661422701692</v>
       </c>
       <c r="L23">
-        <f>Data!E65</f>
+        <f>Data!E69</f>
         <v>49</v>
       </c>
       <c r="M23">
@@ -15295,7 +15453,7 @@
         <v>11</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C66</f>
+        <f>Data!C70</f>
         <v>39552</v>
       </c>
       <c r="D24" s="2">
@@ -15307,7 +15465,7 @@
         <v>0.28141692437447285</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D66</f>
+        <f>Data!D70</f>
         <v>7399</v>
       </c>
       <c r="H24" s="3">
@@ -15323,7 +15481,7 @@
         <v>0.17993616435073409</v>
       </c>
       <c r="L24">
-        <f>Data!E66</f>
+        <f>Data!E70</f>
         <v>58</v>
       </c>
       <c r="M24">
@@ -15347,7 +15505,7 @@
         <v>12</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C67</f>
+        <f>Data!C71</f>
         <v>42750</v>
       </c>
       <c r="D25" s="2">
@@ -15359,7 +15517,7 @@
         <v>0.18636647904940587</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D67</f>
+        <f>Data!D71</f>
         <v>7995</v>
       </c>
       <c r="H25" s="3">
@@ -15375,7 +15533,7 @@
         <v>0.15412289835301288</v>
       </c>
       <c r="L25">
-        <f>Data!E67</f>
+        <f>Data!E71</f>
         <v>68</v>
       </c>
       <c r="M25">
@@ -15399,7 +15557,7 @@
         <v>13</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C68</f>
+        <f>Data!C72</f>
         <v>46441</v>
       </c>
       <c r="D26" s="2">
@@ -15411,7 +15569,7 @@
         <v>0.17366567325927934</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D68</f>
+        <f>Data!D72</f>
         <v>8636</v>
       </c>
       <c r="H26" s="3">
@@ -15427,7 +15585,7 @@
         <v>0.12163600382986864</v>
       </c>
       <c r="L26">
-        <f>Data!E68</f>
+        <f>Data!E72</f>
         <v>86</v>
       </c>
       <c r="M26">
@@ -15451,7 +15609,7 @@
         <v>14</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C69</f>
+        <f>Data!C73</f>
         <v>49455</v>
       </c>
       <c r="D27" s="2">
@@ -15463,7 +15621,7 @@
         <v>0.24585268745852687</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D69</f>
+        <f>Data!D73</f>
         <v>9377</v>
       </c>
       <c r="H27" s="3">
@@ -15479,7 +15637,7 @@
         <v>0.11074094295756765</v>
       </c>
       <c r="L27">
-        <f>Data!E69</f>
+        <f>Data!E73</f>
         <v>108</v>
       </c>
       <c r="M27">
@@ -15503,7 +15661,7 @@
         <v>15</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C70</f>
+        <f>Data!C74</f>
         <v>52344</v>
       </c>
       <c r="D28" s="2">
@@ -15515,7 +15673,7 @@
         <v>0.2066458982346833</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D70</f>
+        <f>Data!D74</f>
         <v>9974</v>
       </c>
       <c r="H28" s="3">
@@ -15531,7 +15689,7 @@
         <v>9.3330341631653851E-2</v>
       </c>
       <c r="L28">
-        <f>Data!E70</f>
+        <f>Data!E74</f>
         <v>128</v>
       </c>
       <c r="M28">
@@ -15555,7 +15713,7 @@
         <v>16</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C71</f>
+        <f>Data!C75</f>
         <v>55863</v>
       </c>
       <c r="D29" s="2">
@@ -15567,7 +15725,7 @@
         <v>0.14435919295254335</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D71</f>
+        <f>Data!D75</f>
         <v>10482</v>
       </c>
       <c r="H29" s="3">
@@ -15583,7 +15741,7 @@
         <v>7.2225798045902012E-2</v>
       </c>
       <c r="L29">
-        <f>Data!E71</f>
+        <f>Data!E75</f>
         <v>146</v>
       </c>
       <c r="M29">
@@ -15607,7 +15765,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C72</f>
+        <f>Data!C76</f>
         <v>92190</v>
       </c>
       <c r="D30" s="2">
@@ -15619,7 +15777,7 @@
         <v>1.335095108321634E-2</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D72</f>
+        <f>Data!D76</f>
         <v>10967</v>
       </c>
       <c r="H30" s="3">
@@ -15635,7 +15793,7 @@
         <v>6.5369472040327586E-2</v>
       </c>
       <c r="L30">
-        <f>Data!E72</f>
+        <f>Data!E76</f>
         <v>158</v>
       </c>
       <c r="M30">
@@ -15659,7 +15817,7 @@
         <v>18</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C73</f>
+        <f>Data!C77</f>
         <v>98343</v>
       </c>
       <c r="D31" s="2">
@@ -15671,7 +15829,7 @@
         <v>6.7609296278238251E-2</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D73</f>
+        <f>Data!D77</f>
         <v>11383</v>
       </c>
       <c r="H31" s="3">
@@ -15687,7 +15845,7 @@
         <v>5.6920845701934383E-2</v>
       </c>
       <c r="L31">
-        <f>Data!E73</f>
+        <f>Data!E77</f>
         <v>168</v>
       </c>
       <c r="M31">
@@ -15711,7 +15869,7 @@
         <v>19</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C74</f>
+        <f>Data!C78</f>
         <v>104134</v>
       </c>
       <c r="D32" s="2">
@@ -15723,7 +15881,7 @@
         <v>4.8696252806078401E-2</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D74</f>
+        <f>Data!D78</f>
         <v>11665</v>
       </c>
       <c r="H32" s="3">
@@ -15739,7 +15897,7 @@
         <v>4.4714880239107122E-2</v>
       </c>
       <c r="L32">
-        <f>Data!E74</f>
+        <f>Data!E78</f>
         <v>186</v>
       </c>
       <c r="M32">
@@ -15763,7 +15921,7 @@
         <v>20</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C75</f>
+        <f>Data!C79</f>
         <v>108416</v>
       </c>
       <c r="D33" s="2">
@@ -15775,7 +15933,7 @@
         <v>5.6515646893974779E-2</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D75</f>
+        <f>Data!D79</f>
         <v>11907</v>
       </c>
       <c r="H33" s="3">
@@ -15791,7 +15949,7 @@
         <v>3.6130760839244047E-2</v>
       </c>
       <c r="L33">
-        <f>Data!E75</f>
+        <f>Data!E79</f>
         <v>204</v>
       </c>
       <c r="M33">
@@ -15815,7 +15973,7 @@
         <v>21</v>
       </c>
       <c r="C34" s="2">
-        <f>Data!C76</f>
+        <f>Data!C80</f>
         <v>111296</v>
       </c>
       <c r="D34" s="2">
@@ -15827,7 +15985,7 @@
         <v>0.10381944444444445</v>
       </c>
       <c r="G34" s="2">
-        <f>Data!D76</f>
+        <f>Data!D80</f>
         <v>12206</v>
       </c>
       <c r="H34" s="3">
@@ -15843,7 +16001,7 @@
         <v>3.0966531794513009E-2</v>
       </c>
       <c r="L34">
-        <f>Data!E76</f>
+        <f>Data!E80</f>
         <v>220</v>
       </c>
       <c r="M34">
@@ -15867,7 +16025,7 @@
         <v>22</v>
       </c>
       <c r="C35" s="2">
-        <f>Data!C77</f>
+        <f>Data!C81</f>
         <v>115235</v>
       </c>
       <c r="D35" s="2">
@@ -15879,7 +16037,7 @@
         <v>7.9461792333079456E-2</v>
       </c>
       <c r="G35" s="2">
-        <f>Data!D77</f>
+        <f>Data!D81</f>
         <v>12519</v>
       </c>
       <c r="H35" s="3">
@@ -15895,7 +16053,7 @@
         <v>2.6841197892677783E-2</v>
       </c>
       <c r="L35">
-        <f>Data!E77</f>
+        <f>Data!E81</f>
         <v>243</v>
       </c>
       <c r="M35">
@@ -15919,7 +16077,7 @@
         <v>23</v>
       </c>
       <c r="C36" s="2">
-        <f>Data!C78</f>
+        <f>Data!C82</f>
         <v>120755</v>
       </c>
       <c r="D36" s="2">
@@ -15931,7 +16089,7 @@
         <v>6.0326086956521738E-2</v>
       </c>
       <c r="G36" s="2">
-        <f>Data!D78</f>
+        <f>Data!D82</f>
         <v>12852</v>
       </c>
       <c r="H36" s="3">
@@ -15947,7 +16105,7 @@
         <v>2.4574716073519243E-2</v>
       </c>
       <c r="L36">
-        <f>Data!E78</f>
+        <f>Data!E82</f>
         <v>273</v>
       </c>
       <c r="M36">
@@ -15971,7 +16129,7 @@
         <v>24</v>
       </c>
       <c r="C37" s="2">
-        <f>Data!C79</f>
+        <f>Data!C83</f>
         <v>126287</v>
       </c>
       <c r="D37" s="2">
@@ -15983,7 +16141,7 @@
         <v>5.1699204627621113E-2</v>
       </c>
       <c r="G37" s="2">
-        <f>Data!D79</f>
+        <f>Data!D83</f>
         <v>13138</v>
       </c>
       <c r="H37" s="3">
@@ -15999,7 +16157,7 @@
         <v>2.407062813615881E-2</v>
       </c>
       <c r="L37">
-        <f>Data!E79</f>
+        <f>Data!E83</f>
         <v>295</v>
       </c>
       <c r="M37">
@@ -16023,7 +16181,7 @@
         <v>25</v>
       </c>
       <c r="C38" s="2">
-        <f>Data!C80</f>
+        <f>Data!C84</f>
         <v>134743</v>
       </c>
       <c r="D38" s="2">
@@ -16035,7 +16193,7 @@
         <v>4.1863765373699145E-2</v>
       </c>
       <c r="G38" s="2">
-        <f>Data!D80</f>
+        <f>Data!D84</f>
         <v>13492</v>
       </c>
       <c r="H38" s="3">
@@ -16051,7 +16209,7 @@
         <v>2.5310412059360667E-2</v>
       </c>
       <c r="L38">
-        <f>Data!E80</f>
+        <f>Data!E84</f>
         <v>319</v>
       </c>
       <c r="M38">
@@ -16075,7 +16233,7 @@
         <v>26</v>
       </c>
       <c r="C39" s="2">
-        <f>Data!C81</f>
+        <f>Data!C85</f>
         <v>140975</v>
       </c>
       <c r="D39" s="2">
@@ -16087,7 +16245,7 @@
         <v>4.5571245186136075E-2</v>
       </c>
       <c r="G39" s="2">
-        <f>Data!D81</f>
+        <f>Data!D85</f>
         <v>13776</v>
       </c>
       <c r="H39" s="3">
@@ -16103,7 +16261,7 @@
         <v>2.449805840769952E-2</v>
       </c>
       <c r="L39">
-        <f>Data!E81</f>
+        <f>Data!E85</f>
         <v>337</v>
       </c>
       <c r="M39">
@@ -16127,7 +16285,7 @@
         <v>27</v>
       </c>
       <c r="C40" s="2">
-        <f>Data!C82</f>
+        <f>Data!C86</f>
         <v>144877</v>
       </c>
       <c r="D40" s="2">
@@ -16139,7 +16297,7 @@
         <v>4.3311122501281392E-2</v>
       </c>
       <c r="G40" s="2">
-        <f>Data!D82</f>
+        <f>Data!D86</f>
         <v>13945</v>
       </c>
       <c r="H40" s="3">
@@ -16155,7 +16313,7 @@
         <v>2.1822975534003808E-2</v>
       </c>
       <c r="L40">
-        <f>Data!E82</f>
+        <f>Data!E86</f>
         <v>350</v>
       </c>
       <c r="M40">
@@ -16179,7 +16337,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="2">
-        <f>Data!C83</f>
+        <f>Data!C87</f>
         <v>148412</v>
       </c>
       <c r="D41" s="2">
@@ -16191,7 +16349,7 @@
         <v>1.5275813295615276E-2</v>
       </c>
       <c r="G41" s="2">
-        <f>Data!D83</f>
+        <f>Data!D87</f>
         <v>13999</v>
       </c>
       <c r="H41" s="3">
@@ -16207,7 +16365,7 @@
         <v>1.7277532939483198E-2</v>
       </c>
       <c r="L41">
-        <f>Data!E83</f>
+        <f>Data!E87</f>
         <v>368</v>
       </c>
       <c r="M41">
@@ -16231,7 +16389,7 @@
         <v>29</v>
       </c>
       <c r="C42" s="2">
-        <f>Data!C84</f>
+        <f>Data!C88</f>
         <v>151796</v>
       </c>
       <c r="D42" s="2">
@@ -16243,7 +16401,7 @@
         <v>4.7281323877068557E-2</v>
       </c>
       <c r="G42" s="2">
-        <f>Data!D84</f>
+        <f>Data!D88</f>
         <v>14159</v>
       </c>
       <c r="H42" s="3">
@@ -16259,7 +16417,7 @@
         <v>1.5112741345614734E-2</v>
       </c>
       <c r="L42">
-        <f>Data!E84</f>
+        <f>Data!E88</f>
         <v>384</v>
       </c>
       <c r="M42">
@@ -16281,6 +16439,50 @@
       </c>
       <c r="B43" s="13">
         <v>30</v>
+      </c>
+      <c r="C43" s="2">
+        <f>Data!C89</f>
+        <v>156801</v>
+      </c>
+      <c r="D43" s="2">
+        <f t="shared" ref="D43" si="150">C43-C42</f>
+        <v>5005</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" ref="E43" si="151">H43/D43</f>
+        <v>3.2367632367632369E-2</v>
+      </c>
+      <c r="G43" s="2">
+        <f>Data!D89</f>
+        <v>14321</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" ref="H43" si="152">G43-G42</f>
+        <v>162</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" ref="I43" si="153">G43/G42-1</f>
+        <v>1.1441485980648425E-2</v>
+      </c>
+      <c r="J43" s="16">
+        <f t="shared" ref="J43" si="154">SUM(I39:I43)/5</f>
+        <v>1.2012090452233082E-2</v>
+      </c>
+      <c r="L43">
+        <f>Data!E89</f>
+        <v>393</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43" si="155">L43-L42</f>
+        <v>9</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ref="N43" si="156">L43/L42-1</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="O43" s="16">
+        <f t="shared" ref="O43" si="157">SUM(N39:N43)/5</f>
+        <v>4.2669266448464874E-2</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -16321,7 +16523,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16340,22 +16542,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>11</v>
@@ -16365,24 +16567,24 @@
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="24" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -18523,6 +18725,50 @@
       <c r="B48" s="13">
         <f t="shared" si="16"/>
         <v>23</v>
+      </c>
+      <c r="C48" s="2">
+        <f>Data!C45</f>
+        <v>313769</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48" si="153">C48-C47</f>
+        <v>11170</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" ref="E48" si="154">H48/D48</f>
+        <v>0.41208594449418084</v>
+      </c>
+      <c r="G48" s="2">
+        <f>Data!D45</f>
+        <v>98476</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" ref="H48" si="155">G48-G47</f>
+        <v>4603</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" ref="I48" si="156">G48/G47-1</f>
+        <v>4.9034333620955994E-2</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" ref="J48" si="157">SUM(I44:I48)/5</f>
+        <v>5.9541973837706319E-2</v>
+      </c>
+      <c r="L48" s="2">
+        <f>Data!E45</f>
+        <v>12868</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48" si="158">L48-L47</f>
+        <v>761</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" ref="N48" si="159">L48/L47-1</f>
+        <v>6.2856198893202375E-2</v>
+      </c>
+      <c r="O48" s="16">
+        <f t="shared" ref="O48" si="160">SUM(N44:N48)/5</f>
+        <v>7.5218809394454092E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -18565,7 +18811,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="X59" sqref="X59"/>
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18585,22 +18831,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>17</v>
@@ -18610,24 +18856,24 @@
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="24" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -18676,7 +18922,7 @@
         <v>43885</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C87</f>
+        <f>Data!C95</f>
         <v>4324</v>
       </c>
       <c r="D6" s="2">
@@ -18688,12 +18934,12 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D87</f>
+        <f>Data!D95</f>
         <v>229</v>
       </c>
       <c r="H6" s="3"/>
       <c r="L6" s="2">
-        <f>Data!E87</f>
+        <f>Data!E95</f>
         <v>7</v>
       </c>
       <c r="M6">
@@ -18707,7 +18953,7 @@
         <v>43886</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C88</f>
+        <f>Data!C96</f>
         <v>8623</v>
       </c>
       <c r="D7" s="2">
@@ -18719,7 +18965,7 @@
         <v>2.1632937892533146E-2</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D88</f>
+        <f>Data!D96</f>
         <v>322</v>
       </c>
       <c r="H7" s="3">
@@ -18731,7 +18977,7 @@
         <v>0.40611353711790388</v>
       </c>
       <c r="L7" s="2">
-        <f>Data!E88</f>
+        <f>Data!E96</f>
         <v>10</v>
       </c>
       <c r="M7">
@@ -18749,7 +18995,7 @@
         <v>43887</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C89</f>
+        <f>Data!C97</f>
         <v>9587</v>
       </c>
       <c r="D8" s="2">
@@ -18761,7 +19007,7 @@
         <v>8.0912863070539423E-2</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D89</f>
+        <f>Data!D97</f>
         <v>400</v>
       </c>
       <c r="H8" s="3">
@@ -18773,7 +19019,7 @@
         <v>0.2422360248447204</v>
       </c>
       <c r="L8" s="2">
-        <f>Data!E89</f>
+        <f>Data!E97</f>
         <v>12</v>
       </c>
       <c r="M8">
@@ -18791,7 +19037,7 @@
         <v>43888</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C90</f>
+        <f>Data!C98</f>
         <v>12014</v>
       </c>
       <c r="D9" s="2">
@@ -18803,7 +19049,7 @@
         <v>0.10300782859497322</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D90</f>
+        <f>Data!D98</f>
         <v>650</v>
       </c>
       <c r="H9" s="3">
@@ -18815,7 +19061,7 @@
         <v>0.625</v>
       </c>
       <c r="L9" s="2">
-        <f>Data!E90</f>
+        <f>Data!E98</f>
         <v>17</v>
       </c>
       <c r="M9">
@@ -18833,7 +19079,7 @@
         <v>43889</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C91</f>
+        <f>Data!C99</f>
         <v>15695</v>
       </c>
       <c r="D10" s="2">
@@ -18845,7 +19091,7 @@
         <v>6.4656343384949744E-2</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D91</f>
+        <f>Data!D99</f>
         <v>888</v>
       </c>
       <c r="H10" s="3">
@@ -18861,7 +19107,7 @@
         <v>0.32790068162329405</v>
       </c>
       <c r="L10" s="2">
-        <f>Data!E91</f>
+        <f>Data!E99</f>
         <v>21</v>
       </c>
       <c r="M10">
@@ -18882,7 +19128,7 @@
         <v>43890</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C92</f>
+        <f>Data!C100</f>
         <v>18661</v>
       </c>
       <c r="D11" s="2">
@@ -18894,7 +19140,7 @@
         <v>8.0917060013486183E-2</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D92</f>
+        <f>Data!D100</f>
         <v>1128</v>
       </c>
       <c r="H11" s="3">
@@ -18910,7 +19156,7 @@
         <v>0.38195473567734811</v>
       </c>
       <c r="L11" s="2">
-        <f>Data!E92</f>
+        <f>Data!E100</f>
         <v>29</v>
       </c>
       <c r="M11">
@@ -18931,7 +19177,7 @@
         <v>43891</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C93</f>
+        <f>Data!C101</f>
         <v>21127</v>
       </c>
       <c r="D12" s="2">
@@ -18943,7 +19189,7 @@
         <v>0.22952149229521493</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D93</f>
+        <f>Data!D101</f>
         <v>1694</v>
       </c>
       <c r="H12" s="3">
@@ -18959,7 +19205,7 @@
         <v>0.40108663818284535</v>
       </c>
       <c r="L12" s="2">
-        <f>Data!E93</f>
+        <f>Data!E101</f>
         <v>34</v>
       </c>
       <c r="M12">
@@ -18980,7 +19226,7 @@
         <v>43892</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C94</f>
+        <f>Data!C102</f>
         <v>23345</v>
       </c>
       <c r="D13" s="2">
@@ -18992,7 +19238,7 @@
         <v>0.15419296663660956</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D94</f>
+        <f>Data!D102</f>
         <v>2036</v>
       </c>
       <c r="H13" s="3">
@@ -19008,7 +19254,7 @@
         <v>0.39301723722806892</v>
       </c>
       <c r="L13" s="2">
-        <f>Data!E94</f>
+        <f>Data!E102</f>
         <v>52</v>
       </c>
       <c r="M13">
@@ -19029,7 +19275,7 @@
         <v>43893</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C95</f>
+        <f>Data!C103</f>
         <v>25856</v>
       </c>
       <c r="D14" s="2">
@@ -19041,7 +19287,7 @@
         <v>0.18558343289526086</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D95</f>
+        <f>Data!D103</f>
         <v>2502</v>
       </c>
       <c r="H14" s="3">
@@ -19057,7 +19303,7 @@
         <v>0.3137932686622536</v>
       </c>
       <c r="L14" s="2">
-        <f>Data!E95</f>
+        <f>Data!E103</f>
         <v>79</v>
       </c>
       <c r="M14">
@@ -19078,7 +19324,7 @@
         <v>43894</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C96</f>
+        <f>Data!C104</f>
         <v>29837</v>
       </c>
       <c r="D15" s="2">
@@ -19090,7 +19336,7 @@
         <v>0.14745038934940968</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D96</f>
+        <f>Data!D104</f>
         <v>3089</v>
       </c>
       <c r="H15" s="3">
@@ -19106,7 +19352,7 @@
         <v>0.28748496146186009</v>
       </c>
       <c r="L15" s="2">
-        <f>Data!E96</f>
+        <f>Data!E104</f>
         <v>107</v>
       </c>
       <c r="M15">
@@ -19127,7 +19373,7 @@
         <v>43895</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C97</f>
+        <f>Data!C105</f>
         <v>32362</v>
       </c>
       <c r="D16" s="2">
@@ -19139,7 +19385,7 @@
         <v>0.30455445544554455</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D97</f>
+        <f>Data!D105</f>
         <v>3858</v>
       </c>
       <c r="H16" s="3">
@@ -19155,7 +19401,7 @@
         <v>0.28322048332234145</v>
       </c>
       <c r="L16" s="2">
-        <f>Data!E97</f>
+        <f>Data!E105</f>
         <v>148</v>
       </c>
       <c r="M16">
@@ -19176,7 +19422,7 @@
         <v>43896</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C98</f>
+        <f>Data!C106</f>
         <v>36359</v>
       </c>
       <c r="D17" s="2">
@@ -19188,7 +19434,7 @@
         <v>0.19464598448836629</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D98</f>
+        <f>Data!D106</f>
         <v>4636</v>
       </c>
       <c r="H17" s="3">
@@ -19204,7 +19450,7 @@
         <v>0.22319765151664345</v>
       </c>
       <c r="L17" s="2">
-        <f>Data!E98</f>
+        <f>Data!E106</f>
         <v>197</v>
       </c>
       <c r="M17">
@@ -19225,7 +19471,7 @@
         <v>43897</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C99</f>
+        <f>Data!C107</f>
         <v>42062</v>
       </c>
       <c r="D18" s="2">
@@ -19237,7 +19483,7 @@
         <v>0.2186568472733649</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D99</f>
+        <f>Data!D107</f>
         <v>5883</v>
       </c>
       <c r="H18" s="3">
@@ -19253,7 +19499,7 @@
         <v>0.23661622368884333</v>
       </c>
       <c r="L18" s="2">
-        <f>Data!E99</f>
+        <f>Data!E107</f>
         <v>233</v>
       </c>
       <c r="M18">
@@ -19274,7 +19520,7 @@
         <v>43898</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C100</f>
+        <f>Data!C108</f>
         <v>49937</v>
       </c>
       <c r="D19" s="2">
@@ -19286,7 +19532,7 @@
         <v>0.18946031746031747</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D100</f>
+        <f>Data!D108</f>
         <v>7375</v>
       </c>
       <c r="H19" s="3">
@@ -19302,7 +19548,7 @@
         <v>0.24156261278839994</v>
       </c>
       <c r="L19" s="2">
-        <f>Data!E100</f>
+        <f>Data!E108</f>
         <v>366</v>
       </c>
       <c r="M19">
@@ -19326,7 +19572,7 @@
         <v>0</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C101</f>
+        <f>Data!C109</f>
         <v>53826</v>
       </c>
       <c r="D20" s="2">
@@ -19338,7 +19584,7 @@
         <v>0.46207251221393675</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D101</f>
+        <f>Data!D109</f>
         <v>9172</v>
       </c>
       <c r="H20" s="3">
@@ -19354,7 +19600,7 @@
         <v>0.2433723541478548</v>
       </c>
       <c r="L20" s="2">
-        <f>Data!E101</f>
+        <f>Data!E109</f>
         <v>463</v>
       </c>
       <c r="M20">
@@ -19378,7 +19624,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C102</f>
+        <f>Data!C110</f>
         <v>60761</v>
       </c>
       <c r="D21" s="2">
@@ -19390,7 +19636,7 @@
         <v>0.14087959625090121</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D102</f>
+        <f>Data!D110</f>
         <v>10149</v>
       </c>
       <c r="H21" s="3">
@@ -19406,7 +19652,7 @@
         <v>0.21488674683340658</v>
       </c>
       <c r="L21" s="2">
-        <f>Data!E102</f>
+        <f>Data!E110</f>
         <v>631</v>
       </c>
       <c r="M21">
@@ -19430,7 +19676,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C103</f>
+        <f>Data!C111</f>
         <v>73154</v>
       </c>
       <c r="D22" s="2">
@@ -19442,7 +19688,7 @@
         <v>0.18663761801016704</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D103</f>
+        <f>Data!D111</f>
         <v>12462</v>
       </c>
       <c r="H22" s="3">
@@ -19458,7 +19704,7 @@
         <v>0.22013581411351463</v>
       </c>
       <c r="L22" s="2">
-        <f>Data!E103</f>
+        <f>Data!E111</f>
         <v>827</v>
       </c>
       <c r="M22">
@@ -19482,7 +19728,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C104</f>
+        <f>Data!C112</f>
         <v>86011</v>
       </c>
       <c r="D23" s="2">
@@ -19494,7 +19740,7 @@
         <v>0.20619117990199892</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D104</f>
+        <f>Data!D112</f>
         <v>15113</v>
       </c>
       <c r="H23" s="3">
@@ -19510,7 +19756,7 @@
         <v>0.20888477575414113</v>
       </c>
       <c r="L23" s="2">
-        <f>Data!E104</f>
+        <f>Data!E112</f>
         <v>1016</v>
       </c>
       <c r="M23">
@@ -19534,7 +19780,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C105</f>
+        <f>Data!C113</f>
         <v>97488</v>
       </c>
       <c r="D24" s="2">
@@ -19546,7 +19792,7 @@
         <v>0.22192210507972468</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D105</f>
+        <f>Data!D113</f>
         <v>17660</v>
       </c>
       <c r="H24" s="3">
@@ -19562,7 +19808,7 @@
         <v>0.19186843607793974</v>
       </c>
       <c r="L24" s="2">
-        <f>Data!E105</f>
+        <f>Data!E113</f>
         <v>1266</v>
       </c>
       <c r="M24">
@@ -19586,7 +19832,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C106</f>
+        <f>Data!C114</f>
         <v>109170</v>
       </c>
       <c r="D25" s="2">
@@ -19598,7 +19844,7 @@
         <v>0.29934942646807056</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D106</f>
+        <f>Data!D114</f>
         <v>21157</v>
       </c>
       <c r="H25" s="3">
@@ -19614,7 +19860,7 @@
         <v>0.18273985669716925</v>
       </c>
       <c r="L25" s="2">
-        <f>Data!E106</f>
+        <f>Data!E114</f>
         <v>1441</v>
       </c>
       <c r="M25">
@@ -19638,7 +19884,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C107</f>
+        <f>Data!C115</f>
         <v>124899</v>
       </c>
       <c r="D26" s="2">
@@ -19650,7 +19896,7 @@
         <v>0.22824082904189713</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D107</f>
+        <f>Data!D115</f>
         <v>24747</v>
       </c>
       <c r="H26" s="3">
@@ -19666,7 +19912,7 @@
         <v>0.19537264661672088</v>
       </c>
       <c r="L26" s="2">
-        <f>Data!E107</f>
+        <f>Data!E115</f>
         <v>1809</v>
       </c>
       <c r="M26">
@@ -19690,7 +19936,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C108</f>
+        <f>Data!C116</f>
         <v>137962</v>
       </c>
       <c r="D27" s="2">
@@ -19702,7 +19948,7 @@
         <v>0.24749291893133277</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D108</f>
+        <f>Data!D116</f>
         <v>27980</v>
       </c>
       <c r="H27" s="3">
@@ -19718,7 +19964,7 @@
         <v>0.17592022081964981</v>
       </c>
       <c r="L27" s="2">
-        <f>Data!E108</f>
+        <f>Data!E116</f>
         <v>2158</v>
       </c>
       <c r="M27">
@@ -19742,7 +19988,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C109</f>
+        <f>Data!C117</f>
         <v>148657</v>
       </c>
       <c r="D28" s="2">
@@ -19754,7 +20000,7 @@
         <v>0.32968676951846659</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D109</f>
+        <f>Data!D117</f>
         <v>31506</v>
       </c>
       <c r="H28" s="3">
@@ -19770,7 +20016,7 @@
         <v>0.15857859993332762</v>
       </c>
       <c r="L28" s="2">
-        <f>Data!E109</f>
+        <f>Data!E117</f>
         <v>2503</v>
       </c>
       <c r="M28">
@@ -19794,7 +20040,7 @@
         <v>9</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C110</f>
+        <f>Data!C118</f>
         <v>165541</v>
       </c>
       <c r="D29" s="2">
@@ -19806,7 +20052,7 @@
         <v>0.24917081260364843</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D110</f>
+        <f>Data!D118</f>
         <v>35713</v>
       </c>
       <c r="H29" s="3">
@@ -19822,7 +20068,7 @@
         <v>0.15157854332513704</v>
       </c>
       <c r="L29" s="2">
-        <f>Data!E110</f>
+        <f>Data!E118</f>
         <v>2978</v>
       </c>
       <c r="M29">
@@ -19846,7 +20092,7 @@
         <v>10</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C111</f>
+        <f>Data!C119</f>
         <v>182777</v>
       </c>
       <c r="D30" s="2">
@@ -19858,7 +20104,7 @@
         <v>0.30877233696913436</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D111</f>
+        <f>Data!D119</f>
         <v>41035</v>
       </c>
       <c r="H30" s="3">
@@ -19874,7 +20120,7 @@
         <v>0.14177919226990335</v>
       </c>
       <c r="L30" s="2">
-        <f>Data!E111</f>
+        <f>Data!E119</f>
         <v>3405</v>
       </c>
       <c r="M30">
@@ -19898,7 +20144,7 @@
         <v>11</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C112</f>
+        <f>Data!C120</f>
         <v>206886</v>
       </c>
       <c r="D31" s="2">
@@ -19910,7 +20156,7 @@
         <v>0.24828902069766479</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D112</f>
+        <f>Data!D120</f>
         <v>47021</v>
       </c>
       <c r="H31" s="3">
@@ -19926,7 +20172,7 @@
         <v>0.13701752818184726</v>
       </c>
       <c r="L31" s="2">
-        <f>Data!E112</f>
+        <f>Data!E120</f>
         <v>4032</v>
       </c>
       <c r="M31">
@@ -19950,7 +20196,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C113</f>
+        <f>Data!C121</f>
         <v>233222</v>
       </c>
       <c r="D32" s="2">
@@ -19962,7 +20208,7 @@
         <v>0.24897478736330497</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D113</f>
+        <f>Data!D121</f>
         <v>53578</v>
       </c>
       <c r="H32" s="3">
@@ -19978,7 +20224,7 @@
         <v>0.1387787748947345</v>
       </c>
       <c r="L32" s="2">
-        <f>Data!E113</f>
+        <f>Data!E121</f>
         <v>4825</v>
       </c>
       <c r="M32">
@@ -20002,7 +20248,7 @@
         <v>13</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C114</f>
+        <f>Data!C122</f>
         <v>258402</v>
       </c>
       <c r="D33" s="2">
@@ -20014,7 +20260,7 @@
         <v>0.22081016679904686</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D114</f>
+        <f>Data!D122</f>
         <v>59138</v>
       </c>
       <c r="H33" s="3">
@@ -20030,7 +20276,7 @@
         <v>0.13432984536680664</v>
       </c>
       <c r="L33" s="2">
-        <f>Data!E114</f>
+        <f>Data!E122</f>
         <v>5476</v>
       </c>
       <c r="M33">
@@ -20054,7 +20300,7 @@
         <v>14</v>
       </c>
       <c r="C34" s="2">
-        <f>Data!C115</f>
+        <f>Data!C123</f>
         <v>275468</v>
       </c>
       <c r="D34" s="2">
@@ -20066,7 +20312,7 @@
         <v>0.28061643032930972</v>
       </c>
       <c r="G34" s="2">
-        <f>Data!D115</f>
+        <f>Data!D123</f>
         <v>63927</v>
       </c>
       <c r="H34" s="3">
@@ -20082,7 +20328,7 @@
         <v>0.12381983721539776</v>
       </c>
       <c r="L34" s="2">
-        <f>Data!E115</f>
+        <f>Data!E123</f>
         <v>6077</v>
       </c>
       <c r="M34">
@@ -20106,7 +20352,7 @@
         <v>15</v>
       </c>
       <c r="C35" s="2">
-        <f>Data!C116</f>
+        <f>Data!C124</f>
         <v>296964</v>
       </c>
       <c r="D35" s="2">
@@ -20118,7 +20364,7 @@
         <v>0.24418496464458503</v>
       </c>
       <c r="G35" s="2">
-        <f>Data!D116</f>
+        <f>Data!D124</f>
         <v>69176</v>
       </c>
       <c r="H35" s="3">
@@ -20134,7 +20380,7 @@
         <v>0.1104374204412764</v>
       </c>
       <c r="L35" s="2">
-        <f>Data!E116</f>
+        <f>Data!E124</f>
         <v>6820</v>
       </c>
       <c r="M35">
@@ -20158,7 +20404,7 @@
         <v>16</v>
       </c>
       <c r="C36" s="2">
-        <f>Data!C117</f>
+        <f>Data!C125</f>
         <v>324445</v>
       </c>
       <c r="D36" s="2">
@@ -20170,7 +20416,7 @@
         <v>0.18958553182198609</v>
       </c>
       <c r="G36" s="2">
-        <f>Data!D117</f>
+        <f>Data!D125</f>
         <v>74386</v>
       </c>
       <c r="H36" s="3">
@@ -20186,7 +20432,7 @@
         <v>9.6325353649337406E-2</v>
       </c>
       <c r="L36" s="2">
-        <f>Data!E117</f>
+        <f>Data!E125</f>
         <v>7503</v>
       </c>
       <c r="M36">
@@ -20210,7 +20456,7 @@
         <v>17</v>
       </c>
       <c r="C37" s="2">
-        <f>Data!C118</f>
+        <f>Data!C126</f>
         <v>361060</v>
       </c>
       <c r="D37" s="2">
@@ -20222,7 +20468,7 @@
         <v>0.16804588283490374</v>
       </c>
       <c r="G37" s="2">
-        <f>Data!D118</f>
+        <f>Data!D126</f>
         <v>80539</v>
       </c>
       <c r="H37" s="3">
@@ -20238,7 +20484,7 @@
         <v>8.4979122922752337E-2</v>
       </c>
       <c r="L37" s="2">
-        <f>Data!E118</f>
+        <f>Data!E126</f>
         <v>8165</v>
       </c>
       <c r="M37">
@@ -20262,7 +20508,7 @@
         <v>18</v>
       </c>
       <c r="C38" s="2">
-        <f>Data!C119</f>
+        <f>Data!C127</f>
         <v>394079</v>
       </c>
       <c r="D38" s="2">
@@ -20274,7 +20520,7 @@
         <v>0.18047184954117326</v>
       </c>
       <c r="G38" s="2">
-        <f>Data!D119</f>
+        <f>Data!D127</f>
         <v>86498</v>
       </c>
       <c r="H38" s="3">
@@ -20290,7 +20536,7 @@
         <v>7.9022135333696175E-2</v>
       </c>
       <c r="L38" s="2">
-        <f>Data!E119</f>
+        <f>Data!E127</f>
         <v>9134</v>
       </c>
       <c r="M38">
@@ -20314,7 +20560,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="2">
-        <f>Data!C120</f>
+        <f>Data!C128</f>
         <v>429526</v>
       </c>
       <c r="D39" s="2">
@@ -20326,7 +20572,7 @@
         <v>0.16853330324145907</v>
       </c>
       <c r="G39" s="2">
-        <f>Data!D120</f>
+        <f>Data!D128</f>
         <v>92472</v>
       </c>
       <c r="H39" s="3">
@@ -20342,7 +20588,7 @@
         <v>7.6639155375319665E-2</v>
       </c>
       <c r="L39" s="2">
-        <f>Data!E120</f>
+        <f>Data!E128</f>
         <v>10023</v>
       </c>
       <c r="M39">
@@ -20366,7 +20612,7 @@
         <v>20</v>
       </c>
       <c r="C40" s="2">
-        <f>Data!C121</f>
+        <f>Data!C129</f>
         <v>454030</v>
       </c>
       <c r="D40" s="2">
@@ -20378,7 +20624,7 @@
         <v>0.21290401567091088</v>
       </c>
       <c r="G40" s="2">
-        <f>Data!D121</f>
+        <f>Data!D129</f>
         <v>97689</v>
       </c>
       <c r="H40" s="3">
@@ -20394,7 +20640,7 @@
         <v>7.1500714715988428E-2</v>
       </c>
       <c r="L40" s="2">
-        <f>Data!E121</f>
+        <f>Data!E129</f>
         <v>10779</v>
       </c>
       <c r="M40">
@@ -20418,7 +20664,7 @@
         <v>21</v>
       </c>
       <c r="C41" s="2">
-        <f>Data!C122</f>
+        <f>Data!C130</f>
         <v>477359</v>
       </c>
       <c r="D41" s="2">
@@ -20430,7 +20676,7 @@
         <v>0.17360366925286125</v>
       </c>
       <c r="G41" s="2">
-        <f>Data!D122</f>
+        <f>Data!D130</f>
         <v>101739</v>
       </c>
       <c r="H41" s="3">
@@ -20446,7 +20692,7 @@
         <v>6.4729306398888603E-2</v>
       </c>
       <c r="L41" s="2">
-        <f>Data!E122</f>
+        <f>Data!E130</f>
         <v>11591</v>
       </c>
       <c r="M41">
@@ -20470,7 +20716,7 @@
         <v>22</v>
       </c>
       <c r="C42" s="2">
-        <f>Data!C123</f>
+        <f>Data!C131</f>
         <v>506968</v>
       </c>
       <c r="D42" s="2">
@@ -20482,7 +20728,7 @@
         <v>0.14296328818940188</v>
       </c>
       <c r="G42" s="2">
-        <f>Data!D123</f>
+        <f>Data!D131</f>
         <v>105972</v>
       </c>
       <c r="H42" s="3">
@@ -20498,7 +20744,7 @@
         <v>5.6507163525775582E-2</v>
       </c>
       <c r="L42" s="2">
-        <f>Data!E123</f>
+        <f>Data!E131</f>
         <v>12428</v>
       </c>
       <c r="M42">
@@ -20522,7 +20768,7 @@
         <v>23</v>
       </c>
       <c r="C43" s="2">
-        <f>Data!C124</f>
+        <f>Data!C132</f>
         <v>541423</v>
       </c>
       <c r="D43" s="2">
@@ -20534,7 +20780,7 @@
         <v>0.13356552024379625</v>
       </c>
       <c r="G43" s="2">
-        <f>Data!D124</f>
+        <f>Data!D132</f>
         <v>110574</v>
       </c>
       <c r="H43" s="3">
@@ -20550,7 +20796,7 @@
         <v>5.0394676803661699E-2</v>
       </c>
       <c r="L43" s="2">
-        <f>Data!E124</f>
+        <f>Data!E132</f>
         <v>13155</v>
       </c>
       <c r="M43">
@@ -20574,7 +20820,7 @@
         <v>24</v>
       </c>
       <c r="C44" s="2">
-        <f>Data!C125</f>
+        <f>Data!C133</f>
         <v>581232</v>
       </c>
       <c r="D44" s="2">
@@ -20586,7 +20832,7 @@
         <v>0.11725991609937451</v>
       </c>
       <c r="G44" s="2">
-        <f>Data!D125</f>
+        <f>Data!D133</f>
         <v>115242</v>
       </c>
       <c r="H44" s="3">
@@ -20602,7 +20848,7 @@
         <v>4.5024855162985399E-2</v>
       </c>
       <c r="L44" s="2">
-        <f>Data!E125</f>
+        <f>Data!E133</f>
         <v>13915</v>
       </c>
       <c r="M44">
@@ -20626,7 +20872,7 @@
         <v>25</v>
       </c>
       <c r="C45" s="2">
-        <f>Data!C126</f>
+        <f>Data!C134</f>
         <v>619849</v>
       </c>
       <c r="D45" s="2">
@@ -20638,7 +20884,7 @@
         <v>0.11873009296423855</v>
       </c>
       <c r="G45" s="2">
-        <f>Data!D126</f>
+        <f>Data!D134</f>
         <v>119827</v>
       </c>
       <c r="H45" s="3">
@@ -20654,7 +20900,7 @@
         <v>4.1698608036079318E-2</v>
       </c>
       <c r="L45" s="2">
-        <f>Data!E126</f>
+        <f>Data!E134</f>
         <v>14681</v>
       </c>
       <c r="M45">
@@ -20678,7 +20924,7 @@
         <v>26</v>
       </c>
       <c r="C46" s="2">
-        <f>Data!C127</f>
+        <f>Data!C135</f>
         <v>657224</v>
       </c>
       <c r="D46" s="2">
@@ -20690,7 +20936,7 @@
         <v>0.128561872909699</v>
       </c>
       <c r="G46" s="2">
-        <f>Data!D127</f>
+        <f>Data!D135</f>
         <v>124632</v>
       </c>
       <c r="H46" s="3">
@@ -20706,7 +20952,7 @@
         <v>4.1426884062663663E-2</v>
       </c>
       <c r="L46" s="2">
-        <f>Data!E127</f>
+        <f>Data!E135</f>
         <v>15362</v>
       </c>
       <c r="M46">
@@ -20730,7 +20976,7 @@
         <v>27</v>
       </c>
       <c r="C47" s="2">
-        <f>Data!C128</f>
+        <f>Data!C136</f>
         <v>691461</v>
       </c>
       <c r="D47" s="2">
@@ -20742,7 +20988,7 @@
         <v>0.12606244706019804</v>
       </c>
       <c r="G47" s="2">
-        <f>Data!D128</f>
+        <f>Data!D136</f>
         <v>128948</v>
       </c>
       <c r="H47" s="3">
@@ -20759,7 +21005,7 @@
       </c>
       <c r="K47"/>
       <c r="L47" s="2">
-        <f>Data!E128</f>
+        <f>Data!E136</f>
         <v>15887</v>
       </c>
       <c r="M47">
@@ -20784,7 +21030,7 @@
         <v>28</v>
       </c>
       <c r="C48" s="2">
-        <f>Data!C129</f>
+        <f>Data!C137</f>
         <v>721732</v>
       </c>
       <c r="D48" s="2">
@@ -20796,7 +21042,7 @@
         <v>0.11889266955171617</v>
       </c>
       <c r="G48" s="2">
-        <f>Data!D129</f>
+        <f>Data!D137</f>
         <v>132547</v>
       </c>
       <c r="H48" s="3">
@@ -20812,7 +21058,7 @@
         <v>3.6928363464487468E-2</v>
       </c>
       <c r="L48" s="2">
-        <f>Data!E129</f>
+        <f>Data!E137</f>
         <v>16523</v>
       </c>
       <c r="M48">
@@ -20836,7 +21082,7 @@
         <v>29</v>
       </c>
       <c r="C49" s="2">
-        <f>Data!C130</f>
+        <f>Data!C138</f>
         <v>755445</v>
       </c>
       <c r="D49" s="2">
@@ -20848,7 +21094,7 @@
         <v>9.0143268175481267E-2</v>
       </c>
       <c r="G49" s="2">
-        <f>Data!D130</f>
+        <f>Data!D138</f>
         <v>135586</v>
       </c>
       <c r="H49" s="3">
@@ -20864,7 +21110,7 @@
         <v>3.3070692206865225E-2</v>
       </c>
       <c r="L49" s="2">
-        <f>Data!E130</f>
+        <f>Data!E138</f>
         <v>17127</v>
       </c>
       <c r="M49">
@@ -20888,7 +21134,7 @@
         <v>30</v>
       </c>
       <c r="C50" s="2">
-        <f>Data!C131</f>
+        <f>Data!C139</f>
         <v>807125</v>
       </c>
       <c r="D50" s="2">
@@ -20900,7 +21146,7 @@
         <v>7.4226006191950467E-2</v>
       </c>
       <c r="G50" s="2">
-        <f>Data!D131</f>
+        <f>Data!D139</f>
         <v>139422</v>
       </c>
       <c r="H50" s="3">
@@ -20916,7 +21162,7 @@
         <v>3.0771925123267339E-2</v>
       </c>
       <c r="L50" s="2">
-        <f>Data!E131</f>
+        <f>Data!E139</f>
         <v>17669</v>
       </c>
       <c r="M50">
@@ -20940,7 +21186,7 @@
         <v>31</v>
       </c>
       <c r="C51" s="2">
-        <f>Data!C132</f>
+        <f>Data!C140</f>
         <v>853369</v>
       </c>
       <c r="D51" s="2">
@@ -20952,7 +21198,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="G51" s="2">
-        <f>Data!D132</f>
+        <f>Data!D140</f>
         <v>143626</v>
       </c>
       <c r="H51" s="3">
@@ -20968,7 +21214,7 @@
         <v>2.8782641872660043E-2</v>
       </c>
       <c r="L51" s="2">
-        <f>Data!E132</f>
+        <f>Data!E140</f>
         <v>18279</v>
       </c>
       <c r="M51">
@@ -20992,7 +21238,7 @@
         <v>32</v>
       </c>
       <c r="C52" s="2">
-        <f>Data!C133</f>
+        <f>Data!C141</f>
         <v>906864</v>
       </c>
       <c r="D52" s="2">
@@ -21004,7 +21250,7 @@
         <v>7.3857369847649318E-2</v>
       </c>
       <c r="G52" s="2">
-        <f>Data!D133</f>
+        <f>Data!D141</f>
         <v>147577</v>
       </c>
       <c r="H52" s="3">
@@ -21020,7 +21266,7 @@
         <v>2.7358441127374532E-2</v>
       </c>
       <c r="L52" s="2">
-        <f>Data!E133</f>
+        <f>Data!E141</f>
         <v>18849</v>
       </c>
       <c r="M52">
@@ -21044,7 +21290,7 @@
         <v>33</v>
       </c>
       <c r="C53" s="2">
-        <f>Data!C134</f>
+        <f>Data!C142</f>
         <v>963473</v>
       </c>
       <c r="D53" s="2">
@@ -21056,7 +21302,7 @@
         <v>8.2919677083149318E-2</v>
       </c>
       <c r="G53" s="2">
-        <f>Data!D134</f>
+        <f>Data!D142</f>
         <v>152271</v>
       </c>
       <c r="H53" s="3">
@@ -21072,7 +21318,7 @@
         <v>2.8137770902550228E-2</v>
       </c>
       <c r="L53" s="2">
-        <f>Data!E134</f>
+        <f>Data!E142</f>
         <v>19468</v>
       </c>
       <c r="M53">
@@ -21096,7 +21342,7 @@
         <v>34</v>
       </c>
       <c r="C54" s="2">
-        <f>Data!C135</f>
+        <f>Data!C143</f>
         <v>1010193</v>
       </c>
       <c r="D54" s="2">
@@ -21108,7 +21354,7 @@
         <v>8.7585616438356162E-2</v>
       </c>
       <c r="G54" s="2">
-        <f>Data!D135</f>
+        <f>Data!D143</f>
         <v>156363</v>
       </c>
       <c r="H54" s="3">
@@ -21124,7 +21370,7 @@
         <v>2.8926855791394999E-2</v>
       </c>
       <c r="L54" s="2">
-        <f>Data!E135</f>
+        <f>Data!E143</f>
         <v>19899</v>
       </c>
       <c r="M54">
@@ -21148,7 +21394,7 @@
         <v>35</v>
       </c>
       <c r="C55" s="2">
-        <f>Data!C136</f>
+        <f>Data!C144</f>
         <v>1046910</v>
       </c>
       <c r="D55" s="2">
@@ -21160,7 +21406,7 @@
         <v>8.5873028842225668E-2</v>
       </c>
       <c r="G55" s="2">
-        <f>Data!D136</f>
+        <f>Data!D144</f>
         <v>159516</v>
       </c>
       <c r="H55" s="3">
@@ -21176,7 +21422,7 @@
         <v>2.7301377871329711E-2</v>
       </c>
       <c r="L55" s="2">
-        <f>Data!E136</f>
+        <f>Data!E144</f>
         <v>20465</v>
       </c>
       <c r="M55">
@@ -21200,7 +21446,7 @@
         <v>36</v>
       </c>
       <c r="C56" s="2">
-        <f>Data!C137</f>
+        <f>Data!C145</f>
         <v>1073689</v>
       </c>
       <c r="D56" s="2">
@@ -21212,7 +21458,7 @@
         <v>0.11098248627655999</v>
       </c>
       <c r="G56" s="2">
-        <f>Data!D137</f>
+        <f>Data!D145</f>
         <v>162488</v>
       </c>
       <c r="H56" s="3">
@@ -21228,7 +21474,7 @@
         <v>2.4997037745526151E-2</v>
       </c>
       <c r="L56" s="2">
-        <f>Data!E137</f>
+        <f>Data!E145</f>
         <v>21067</v>
       </c>
       <c r="M56">
@@ -21250,6 +21496,50 @@
       </c>
       <c r="B57" s="13">
         <v>37</v>
+      </c>
+      <c r="C57" s="2">
+        <f>Data!C146</f>
+        <v>1117404</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" ref="D57" si="132">C57-C56</f>
+        <v>43715</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" ref="E57" si="133">H57/D57</f>
+        <v>6.1008807045636507E-2</v>
+      </c>
+      <c r="G57" s="2">
+        <f>Data!D146</f>
+        <v>165155</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" ref="H57" si="134">G57-G56</f>
+        <v>2667</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" ref="I57" si="135">G57/G56-1</f>
+        <v>1.6413519767613627E-2</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" ref="J57" si="136">SUM(I53:I57)/5</f>
+        <v>2.2777952329436114E-2</v>
+      </c>
+      <c r="L57" s="2">
+        <f>Data!E146</f>
+        <v>21645</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57" si="137">L57-L56</f>
+        <v>578</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" ref="N57" si="138">L57/L56-1</f>
+        <v>2.7436274742488331E-2</v>
+      </c>
+      <c r="O57" s="16">
+        <f t="shared" ref="O57" si="139">SUM(N53:N57)/5</f>
+        <v>2.8054964881733469E-2</v>
       </c>
     </row>
     <row r="58" spans="1:15">
@@ -21309,22 +21599,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="28.5">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="17"/>
       <c r="P1" s="12" t="s">
         <v>31</v>
@@ -21334,24 +21624,24 @@
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="22" t="s">
+      <c r="G3" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="L3" s="24" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="L3" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
     </row>
     <row r="4" spans="1:16" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
@@ -21400,20 +21690,20 @@
         <v>43894</v>
       </c>
       <c r="C6" s="2">
-        <f>Data!C140</f>
+        <f>Data!C152</f>
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f>Data!D140</f>
+        <f>Data!D152</f>
         <v>35</v>
       </c>
       <c r="H6" s="3"/>
       <c r="L6" s="2">
-        <f>Data!E140</f>
+        <f>Data!E152</f>
         <v>0</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M47" si="0">L6-L5</f>
+        <f t="shared" ref="M6:M46" si="0">L6-L5</f>
         <v>0</v>
       </c>
       <c r="N6" s="1"/>
@@ -21424,15 +21714,15 @@
         <v>43895</v>
       </c>
       <c r="C7" s="2">
-        <f>Data!C141</f>
+        <f>Data!C153</f>
         <v>0</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" ref="D7:D47" si="1">C7-C6</f>
+        <f t="shared" ref="D7:D46" si="1">C7-C6</f>
         <v>0</v>
       </c>
       <c r="G7" s="2">
-        <f>Data!D141</f>
+        <f>Data!D153</f>
         <v>94</v>
       </c>
       <c r="H7" s="3">
@@ -21440,11 +21730,11 @@
         <v>59</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" ref="I7:I47" si="3">G7/G6-1</f>
+        <f t="shared" ref="I7:I46" si="3">G7/G6-1</f>
         <v>1.6857142857142855</v>
       </c>
       <c r="L7" s="2">
-        <f>Data!E141</f>
+        <f>Data!E153</f>
         <v>0</v>
       </c>
       <c r="M7">
@@ -21459,7 +21749,7 @@
         <v>43896</v>
       </c>
       <c r="C8" s="2">
-        <f>Data!C142</f>
+        <f>Data!C154</f>
         <v>0</v>
       </c>
       <c r="D8" s="2">
@@ -21467,7 +21757,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2">
-        <f>Data!D142</f>
+        <f>Data!D154</f>
         <v>101</v>
       </c>
       <c r="H8" s="3">
@@ -21479,7 +21769,7 @@
         <v>7.4468085106383031E-2</v>
       </c>
       <c r="L8" s="2">
-        <f>Data!E142</f>
+        <f>Data!E154</f>
         <v>0</v>
       </c>
       <c r="M8">
@@ -21494,7 +21784,7 @@
         <v>43897</v>
       </c>
       <c r="C9" s="2">
-        <f>Data!C143</f>
+        <f>Data!C155</f>
         <v>0</v>
       </c>
       <c r="D9" s="2">
@@ -21502,7 +21792,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="2">
-        <f>Data!D143</f>
+        <f>Data!D155</f>
         <v>161</v>
       </c>
       <c r="H9" s="3">
@@ -21514,7 +21804,7 @@
         <v>0.59405940594059414</v>
       </c>
       <c r="L9" s="2">
-        <f>Data!E143</f>
+        <f>Data!E155</f>
         <v>0</v>
       </c>
       <c r="M9">
@@ -21529,7 +21819,7 @@
         <v>43898</v>
       </c>
       <c r="C10" s="2">
-        <f>Data!C144</f>
+        <f>Data!C156</f>
         <v>0</v>
       </c>
       <c r="D10" s="2">
@@ -21537,7 +21827,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f>Data!D144</f>
+        <f>Data!D156</f>
         <v>203</v>
       </c>
       <c r="H10" s="3">
@@ -21549,7 +21839,7 @@
         <v>0.26086956521739135</v>
       </c>
       <c r="L10" s="2">
-        <f>Data!E144</f>
+        <f>Data!E156</f>
         <v>0</v>
       </c>
       <c r="M10">
@@ -21564,7 +21854,7 @@
         <v>43899</v>
       </c>
       <c r="C11" s="2">
-        <f>Data!C145</f>
+        <f>Data!C157</f>
         <v>0</v>
       </c>
       <c r="D11" s="2">
@@ -21572,7 +21862,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="2">
-        <f>Data!D145</f>
+        <f>Data!D157</f>
         <v>248</v>
       </c>
       <c r="H11" s="3">
@@ -21588,7 +21878,7 @@
         <v>0.56735724376518903</v>
       </c>
       <c r="L11" s="2">
-        <f>Data!E145</f>
+        <f>Data!E157</f>
         <v>0</v>
       </c>
       <c r="M11">
@@ -21603,7 +21893,7 @@
         <v>43900</v>
       </c>
       <c r="C12" s="2">
-        <f>Data!C146</f>
+        <f>Data!C158</f>
         <v>0</v>
       </c>
       <c r="D12" s="2">
@@ -21611,7 +21901,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f>Data!D146</f>
+        <f>Data!D158</f>
         <v>355</v>
       </c>
       <c r="H12" s="3">
@@ -21627,7 +21917,7 @@
         <v>0.31650470920297702</v>
       </c>
       <c r="L12" s="2">
-        <f>Data!E146</f>
+        <f>Data!E158</f>
         <v>0</v>
       </c>
       <c r="M12">
@@ -21642,7 +21932,7 @@
         <v>43901</v>
       </c>
       <c r="C13" s="2">
-        <f>Data!C147</f>
+        <f>Data!C159</f>
         <v>0</v>
       </c>
       <c r="D13" s="2">
@@ -21650,7 +21940,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="2">
-        <f>Data!D147</f>
+        <f>Data!D159</f>
         <v>500</v>
       </c>
       <c r="H13" s="3">
@@ -21666,7 +21956,7 @@
         <v>0.38330123302677077</v>
       </c>
       <c r="L13" s="2">
-        <f>Data!E147</f>
+        <f>Data!E159</f>
         <v>1</v>
       </c>
       <c r="M13">
@@ -21681,7 +21971,7 @@
         <v>43902</v>
       </c>
       <c r="C14" s="2">
-        <f>Data!C148</f>
+        <f>Data!C160</f>
         <v>0</v>
       </c>
       <c r="D14" s="2">
@@ -21689,7 +21979,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="2">
-        <f>Data!D148</f>
+        <f>Data!D160</f>
         <v>599</v>
       </c>
       <c r="H14" s="3">
@@ -21705,7 +21995,7 @@
         <v>0.30408935183865193</v>
       </c>
       <c r="L14" s="2">
-        <f>Data!E148</f>
+        <f>Data!E160</f>
         <v>1</v>
       </c>
       <c r="M14">
@@ -21713,7 +22003,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <f t="shared" ref="N9:N47" si="5">L14/L13-1</f>
+        <f t="shared" ref="N14:N46" si="5">L14/L13-1</f>
         <v>0</v>
       </c>
       <c r="O14" s="16"/>
@@ -21723,7 +22013,7 @@
         <v>43903</v>
       </c>
       <c r="C15" s="2">
-        <f>Data!C149</f>
+        <f>Data!C161</f>
         <v>0</v>
       </c>
       <c r="D15" s="2">
@@ -21731,7 +22021,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="2">
-        <f>Data!D149</f>
+        <f>Data!D161</f>
         <v>814</v>
       </c>
       <c r="H15" s="3">
@@ -21747,7 +22037,7 @@
         <v>0.3237017493127029</v>
       </c>
       <c r="L15" s="2">
-        <f>Data!E149</f>
+        <f>Data!E161</f>
         <v>1</v>
       </c>
       <c r="M15">
@@ -21765,7 +22055,7 @@
         <v>43904</v>
       </c>
       <c r="C16" s="2">
-        <f>Data!C150</f>
+        <f>Data!C162</f>
         <v>0</v>
       </c>
       <c r="D16" s="2">
@@ -21773,7 +22063,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2">
-        <f>Data!D150</f>
+        <f>Data!D162</f>
         <v>961</v>
       </c>
       <c r="H16" s="3">
@@ -21789,7 +22079,7 @@
         <v>0.31548471006118084</v>
       </c>
       <c r="L16" s="2">
-        <f>Data!E150</f>
+        <f>Data!E162</f>
         <v>2</v>
       </c>
       <c r="M16">
@@ -21801,7 +22091,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="16">
-        <f t="shared" ref="O11:O17" si="6">SUM(N12:N16)/5</f>
+        <f t="shared" ref="O16:O17" si="6">SUM(N12:N16)/5</f>
         <v>0.2</v>
       </c>
     </row>
@@ -21810,7 +22100,7 @@
         <v>43905</v>
       </c>
       <c r="C17" s="2">
-        <f>Data!C151</f>
+        <f>Data!C163</f>
         <v>0</v>
       </c>
       <c r="D17" s="2">
@@ -21818,7 +22108,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2">
-        <f>Data!D151</f>
+        <f>Data!D163</f>
         <v>1022</v>
       </c>
       <c r="H17" s="3">
@@ -21834,7 +22124,7 @@
         <v>0.24188949674172194</v>
       </c>
       <c r="L17" s="2">
-        <f>Data!E151</f>
+        <f>Data!E163</f>
         <v>3</v>
       </c>
       <c r="M17">
@@ -21855,7 +22145,7 @@
         <v>43906</v>
       </c>
       <c r="C18" s="2">
-        <f>Data!C152</f>
+        <f>Data!C164</f>
         <v>0</v>
       </c>
       <c r="D18" s="2">
@@ -21863,7 +22153,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2">
-        <f>Data!D152</f>
+        <f>Data!D164</f>
         <v>1103</v>
       </c>
       <c r="H18" s="3">
@@ -21879,7 +22169,7 @@
         <v>0.17605062791230713</v>
       </c>
       <c r="L18" s="2">
-        <f>Data!E152</f>
+        <f>Data!E164</f>
         <v>6</v>
       </c>
       <c r="M18">
@@ -21900,7 +22190,7 @@
         <v>43907</v>
       </c>
       <c r="C19" s="2">
-        <f>Data!C153</f>
+        <f>Data!C165</f>
         <v>0</v>
       </c>
       <c r="D19" s="2">
@@ -21908,7 +22198,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="2">
-        <f>Data!D153</f>
+        <f>Data!D165</f>
         <v>1190</v>
       </c>
       <c r="H19" s="3">
@@ -21924,7 +22214,7 @@
         <v>0.15222578657051203</v>
       </c>
       <c r="L19" s="2">
-        <f>Data!E153</f>
+        <f>Data!E165</f>
         <v>7</v>
       </c>
       <c r="M19">
@@ -21945,7 +22235,7 @@
         <v>43908</v>
       </c>
       <c r="C20" s="2">
-        <f>Data!C154</f>
+        <f>Data!C166</f>
         <v>0</v>
       </c>
       <c r="D20" s="2">
@@ -21953,7 +22243,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2">
-        <f>Data!D154</f>
+        <f>Data!D166</f>
         <v>1279</v>
       </c>
       <c r="H20" s="3">
@@ -21969,7 +22259,7 @@
         <v>9.5397459246260127E-2</v>
       </c>
       <c r="L20" s="2">
-        <f>Data!E154</f>
+        <f>Data!E166</f>
         <v>10</v>
       </c>
       <c r="M20">
@@ -21990,7 +22280,7 @@
         <v>43909</v>
       </c>
       <c r="C21" s="2">
-        <f>Data!C155</f>
+        <f>Data!C167</f>
         <v>0</v>
       </c>
       <c r="D21" s="2">
@@ -21998,7 +22288,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="2">
-        <f>Data!D155</f>
+        <f>Data!D167</f>
         <v>1439</v>
       </c>
       <c r="H21" s="3">
@@ -22014,7 +22304,7 @@
         <v>8.4299069649043323E-2</v>
       </c>
       <c r="L21" s="2">
-        <f>Data!E155</f>
+        <f>Data!E167</f>
         <v>11</v>
       </c>
       <c r="M21">
@@ -22035,7 +22325,7 @@
         <v>43910</v>
       </c>
       <c r="C22" s="2">
-        <f>Data!C156</f>
+        <f>Data!C168</f>
         <v>0</v>
       </c>
       <c r="D22" s="2">
@@ -22043,7 +22333,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="2">
-        <f>Data!D156</f>
+        <f>Data!D168</f>
         <v>1639</v>
       </c>
       <c r="H22" s="3">
@@ -22059,7 +22349,7 @@
         <v>9.9401041694319889E-2</v>
       </c>
       <c r="L22" s="2">
-        <f>Data!E156</f>
+        <f>Data!E168</f>
         <v>16</v>
       </c>
       <c r="M22">
@@ -22080,7 +22370,7 @@
         <v>43911</v>
       </c>
       <c r="C23" s="2">
-        <f>Data!C157</f>
+        <f>Data!C169</f>
         <v>0</v>
       </c>
       <c r="D23" s="2">
@@ -22088,7 +22378,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="2">
-        <f>Data!D157</f>
+        <f>Data!D169</f>
         <v>1763</v>
       </c>
       <c r="H23" s="3">
@@ -22104,7 +22394,7 @@
         <v>9.868094722594925E-2</v>
       </c>
       <c r="L23" s="2">
-        <f>Data!E157</f>
+        <f>Data!E169</f>
         <v>20</v>
       </c>
       <c r="M23">
@@ -22125,7 +22415,7 @@
         <v>43912</v>
       </c>
       <c r="C24" s="2">
-        <f>Data!C158</f>
+        <f>Data!C170</f>
         <v>0</v>
       </c>
       <c r="D24" s="2">
@@ -22133,7 +22423,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="2">
-        <f>Data!D158</f>
+        <f>Data!D170</f>
         <v>1934</v>
       </c>
       <c r="H24" s="3">
@@ -22149,7 +22439,7 @@
         <v>0.10230454069480052</v>
       </c>
       <c r="L24" s="2">
-        <f>Data!E158</f>
+        <f>Data!E170</f>
         <v>21</v>
       </c>
       <c r="M24">
@@ -22170,7 +22460,7 @@
         <v>43913</v>
       </c>
       <c r="C25" s="2">
-        <f>Data!C159</f>
+        <f>Data!C171</f>
         <v>0</v>
       </c>
       <c r="D25" s="2">
@@ -22178,7 +22468,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="2">
-        <f>Data!D159</f>
+        <f>Data!D171</f>
         <v>2046</v>
       </c>
       <c r="H25" s="3">
@@ -22194,7 +22484,7 @@
         <v>9.8928770531512902E-2</v>
       </c>
       <c r="L25" s="2">
-        <f>Data!E159</f>
+        <f>Data!E171</f>
         <v>25</v>
       </c>
       <c r="M25">
@@ -22215,7 +22505,7 @@
         <v>43914</v>
       </c>
       <c r="C26" s="2">
-        <f>Data!C160</f>
+        <f>Data!C172</f>
         <v>0</v>
       </c>
       <c r="D26" s="2">
@@ -22223,7 +22513,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="2">
-        <f>Data!D160</f>
+        <f>Data!D172</f>
         <v>2286</v>
       </c>
       <c r="H26" s="3">
@@ -22239,7 +22529,7 @@
         <v>9.7369634567978341E-2</v>
       </c>
       <c r="L26" s="2">
-        <f>Data!E160</f>
+        <f>Data!E172</f>
         <v>36</v>
       </c>
       <c r="M26">
@@ -22260,7 +22550,7 @@
         <v>43915</v>
       </c>
       <c r="C27" s="2">
-        <f>Data!C161</f>
+        <f>Data!C173</f>
         <v>0</v>
       </c>
       <c r="D27" s="2">
@@ -22268,7 +22558,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="2">
-        <f>Data!D161</f>
+        <f>Data!D173</f>
         <v>2526</v>
       </c>
       <c r="H27" s="3">
@@ -22284,7 +22574,7 @@
         <v>9.0569928589599516E-2</v>
       </c>
       <c r="L27" s="2">
-        <f>Data!E161</f>
+        <f>Data!E173</f>
         <v>62</v>
       </c>
       <c r="M27">
@@ -22305,7 +22595,7 @@
         <v>43916</v>
       </c>
       <c r="C28" s="2">
-        <f>Data!C162</f>
+        <f>Data!C174</f>
         <v>0</v>
       </c>
       <c r="D28" s="2">
@@ -22313,7 +22603,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="2">
-        <f>Data!D162</f>
+        <f>Data!D174</f>
         <v>2840</v>
       </c>
       <c r="H28" s="3">
@@ -22329,7 +22619,7 @@
         <v>0.10030019205577459</v>
       </c>
       <c r="L28" s="2">
-        <f>Data!E162</f>
+        <f>Data!E174</f>
         <v>77</v>
       </c>
       <c r="M28">
@@ -22350,7 +22640,7 @@
         <v>43917</v>
       </c>
       <c r="C29" s="2">
-        <f>Data!C163</f>
+        <f>Data!C175</f>
         <v>0</v>
       </c>
       <c r="D29" s="2">
@@ -22358,11 +22648,11 @@
         <v>0</v>
       </c>
       <c r="G29" s="2">
-        <f>Data!D163</f>
+        <f>Data!D175</f>
         <v>3069</v>
       </c>
       <c r="H29" s="3">
-        <f t="shared" ref="H29:H47" si="9">G29-G28</f>
+        <f t="shared" ref="H29:H46" si="9">G29-G28</f>
         <v>229</v>
       </c>
       <c r="I29" s="1">
@@ -22374,7 +22664,7 @@
         <v>9.7028200492098676E-2</v>
       </c>
       <c r="L29" s="2">
-        <f>Data!E163</f>
+        <f>Data!E175</f>
         <v>105</v>
       </c>
       <c r="M29">
@@ -22395,7 +22685,7 @@
         <v>43918</v>
       </c>
       <c r="C30" s="2">
-        <f>Data!C164</f>
+        <f>Data!C176</f>
         <v>0</v>
       </c>
       <c r="D30" s="2">
@@ -22403,7 +22693,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="2">
-        <f>Data!D164</f>
+        <f>Data!D176</f>
         <v>3447</v>
       </c>
       <c r="H30" s="3">
@@ -22419,7 +22709,7 @@
         <v>0.11007941854715297</v>
       </c>
       <c r="L30" s="2">
-        <f>Data!E164</f>
+        <f>Data!E176</f>
         <v>105</v>
       </c>
       <c r="M30">
@@ -22440,7 +22730,7 @@
         <v>43919</v>
       </c>
       <c r="C31" s="2">
-        <f>Data!C165</f>
+        <f>Data!C177</f>
         <v>0</v>
       </c>
       <c r="D31" s="2">
@@ -22448,7 +22738,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="2">
-        <f>Data!D165</f>
+        <f>Data!D177</f>
         <v>3700</v>
       </c>
       <c r="H31" s="3">
@@ -22464,7 +22754,7 @@
         <v>0.10129843937958238</v>
       </c>
       <c r="L31" s="2">
-        <f>Data!E165</f>
+        <f>Data!E177</f>
         <v>110</v>
       </c>
       <c r="M31">
@@ -22485,7 +22775,7 @@
         <v>43920</v>
       </c>
       <c r="C32" s="2">
-        <f>Data!C166</f>
+        <f>Data!C178</f>
         <v>0</v>
       </c>
       <c r="D32" s="2">
@@ -22493,7 +22783,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="2">
-        <f>Data!D166</f>
+        <f>Data!D178</f>
         <v>4028</v>
       </c>
       <c r="H32" s="3">
@@ -22505,11 +22795,11 @@
         <v>8.8648648648648631E-2</v>
       </c>
       <c r="J32" s="16">
-        <f t="shared" ref="J32:J47" si="10">SUM(I28:I32)/5</f>
+        <f t="shared" ref="J32:J46" si="10">SUM(I28:I32)/5</f>
         <v>9.8030793781228101E-2</v>
       </c>
       <c r="L32" s="2">
-        <f>Data!E166</f>
+        <f>Data!E178</f>
         <v>146</v>
       </c>
       <c r="M32">
@@ -22521,7 +22811,7 @@
         <v>0.32727272727272738</v>
       </c>
       <c r="O32" s="16">
-        <f t="shared" ref="O32:O47" si="11">SUM(N28:N32)/5</f>
+        <f t="shared" ref="O32:O46" si="11">SUM(N28:N32)/5</f>
         <v>0.19609272447982126</v>
       </c>
     </row>
@@ -22530,7 +22820,7 @@
         <v>43921</v>
       </c>
       <c r="C33" s="2">
-        <f>Data!C167</f>
+        <f>Data!C179</f>
         <v>0</v>
       </c>
       <c r="D33" s="2">
@@ -22538,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="2">
-        <f>Data!D167</f>
+        <f>Data!D179</f>
         <v>4435</v>
       </c>
       <c r="H33" s="3">
@@ -22554,7 +22844,7 @@
         <v>9.3377892986238817E-2</v>
       </c>
       <c r="L33" s="2">
-        <f>Data!E167</f>
+        <f>Data!E179</f>
         <v>180</v>
       </c>
       <c r="M33">
@@ -22575,7 +22865,7 @@
         <v>43922</v>
       </c>
       <c r="C34" s="2">
-        <f>Data!C168</f>
+        <f>Data!C180</f>
         <v>0</v>
       </c>
       <c r="D34" s="2">
@@ -22583,7 +22873,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="2">
-        <f>Data!D168</f>
+        <f>Data!D180</f>
         <v>4947</v>
       </c>
       <c r="H34" s="3">
@@ -22599,7 +22889,7 @@
         <v>0.10034019668441437</v>
       </c>
       <c r="L34" s="2">
-        <f>Data!E168</f>
+        <f>Data!E180</f>
         <v>239</v>
       </c>
       <c r="M34">
@@ -22620,7 +22910,7 @@
         <v>43923</v>
       </c>
       <c r="C35" s="2">
-        <f>Data!C169</f>
+        <f>Data!C181</f>
         <v>0</v>
       </c>
       <c r="D35" s="2">
@@ -22628,7 +22918,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="2">
-        <f>Data!D169</f>
+        <f>Data!D181</f>
         <v>5568</v>
       </c>
       <c r="H35" s="3">
@@ -22644,7 +22934,7 @@
         <v>0.10081289052356687</v>
       </c>
       <c r="L35" s="2">
-        <f>Data!E169</f>
+        <f>Data!E181</f>
         <v>308</v>
       </c>
       <c r="M35">
@@ -22665,7 +22955,7 @@
         <v>43924</v>
       </c>
       <c r="C36" s="2">
-        <f>Data!C170</f>
+        <f>Data!C182</f>
         <v>0</v>
       </c>
       <c r="D36" s="2">
@@ -22673,7 +22963,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="2">
-        <f>Data!D170</f>
+        <f>Data!D182</f>
         <v>6131</v>
       </c>
       <c r="H36" s="3">
@@ -22689,7 +22979,7 @@
         <v>0.10635616028337802</v>
       </c>
       <c r="L36" s="2">
-        <f>Data!E170</f>
+        <f>Data!E182</f>
         <v>358</v>
       </c>
       <c r="M36">
@@ -22710,7 +23000,7 @@
         <v>43925</v>
       </c>
       <c r="C37" s="2">
-        <f>Data!C171</f>
+        <f>Data!C183</f>
         <v>0</v>
       </c>
       <c r="D37" s="2">
@@ -22718,7 +23008,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="2">
-        <f>Data!D171</f>
+        <f>Data!D183</f>
         <v>6443</v>
       </c>
       <c r="H37" s="3">
@@ -22734,7 +23024,7 @@
         <v>9.8804215580560711E-2</v>
       </c>
       <c r="L37" s="2">
-        <f>Data!E171</f>
+        <f>Data!E183</f>
         <v>373</v>
       </c>
       <c r="M37">
@@ -22755,7 +23045,7 @@
         <v>43926</v>
       </c>
       <c r="C38" s="2">
-        <f>Data!C172</f>
+        <f>Data!C184</f>
         <v>0</v>
       </c>
       <c r="D38" s="2">
@@ -22763,7 +23053,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="2">
-        <f>Data!D172</f>
+        <f>Data!D184</f>
         <v>6830</v>
       </c>
       <c r="H38" s="3">
@@ -22779,7 +23069,7 @@
         <v>9.0608712767025604E-2</v>
       </c>
       <c r="L38" s="2">
-        <f>Data!E172</f>
+        <f>Data!E184</f>
         <v>401</v>
       </c>
       <c r="M38">
@@ -22800,7 +23090,7 @@
         <v>43927</v>
       </c>
       <c r="C39" s="2">
-        <f>Data!C173</f>
+        <f>Data!C185</f>
         <v>0</v>
       </c>
       <c r="D39" s="2">
@@ -22808,7 +23098,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="2">
-        <f>Data!D173</f>
+        <f>Data!D185</f>
         <v>7206</v>
       </c>
       <c r="H39" s="3">
@@ -22824,7 +23114,7 @@
         <v>7.852989740737315E-2</v>
       </c>
       <c r="L39" s="2">
-        <f>Data!E173</f>
+        <f>Data!E185</f>
         <v>477</v>
       </c>
       <c r="M39">
@@ -22845,7 +23135,7 @@
         <v>43928</v>
       </c>
       <c r="C40" s="2">
-        <f>Data!C174</f>
+        <f>Data!C186</f>
         <v>0</v>
       </c>
       <c r="D40" s="2">
@@ -22853,7 +23143,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="2">
-        <f>Data!D174</f>
+        <f>Data!D186</f>
         <v>7693</v>
       </c>
       <c r="H40" s="3">
@@ -22869,7 +23159,7 @@
         <v>6.6940286499274346E-2</v>
       </c>
       <c r="L40" s="2">
-        <f>Data!E174</f>
+        <f>Data!E186</f>
         <v>591</v>
       </c>
       <c r="M40">
@@ -22890,7 +23180,7 @@
         <v>43929</v>
       </c>
       <c r="C41" s="2">
-        <f>Data!C175</f>
+        <f>Data!C187</f>
         <v>0</v>
       </c>
       <c r="D41" s="2">
@@ -22898,7 +23188,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="2">
-        <f>Data!D175</f>
+        <f>Data!D187</f>
         <v>8419</v>
       </c>
       <c r="H41" s="3">
@@ -22914,7 +23204,7 @@
         <v>6.5591886662730928E-2</v>
       </c>
       <c r="L41" s="2">
-        <f>Data!E175</f>
+        <f>Data!E187</f>
         <v>687</v>
       </c>
       <c r="M41">
@@ -22935,7 +23225,7 @@
         <v>43930</v>
       </c>
       <c r="C42" s="2">
-        <f>Data!C176</f>
+        <f>Data!C188</f>
         <v>0</v>
       </c>
       <c r="D42" s="2">
@@ -22943,7 +23233,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="2">
-        <f>Data!D176</f>
+        <f>Data!D188</f>
         <v>9141</v>
       </c>
       <c r="H42" s="3">
@@ -22959,7 +23249,7 @@
         <v>7.2565782357994518E-2</v>
       </c>
       <c r="L42" s="2">
-        <f>Data!E176</f>
+        <f>Data!E188</f>
         <v>793</v>
       </c>
       <c r="M42">
@@ -22980,7 +23270,7 @@
         <v>43931</v>
       </c>
       <c r="C43" s="2">
-        <f>Data!C177</f>
+        <f>Data!C189</f>
         <v>0</v>
       </c>
       <c r="D43" s="2">
@@ -22988,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="2">
-        <f>Data!D177</f>
+        <f>Data!D189</f>
         <v>9685</v>
       </c>
       <c r="H43" s="3">
@@ -23004,7 +23294,7 @@
         <v>7.2455162631649861E-2</v>
       </c>
       <c r="L43" s="2">
-        <f>Data!E177</f>
+        <f>Data!E189</f>
         <v>870</v>
       </c>
       <c r="M43">
@@ -23025,7 +23315,7 @@
         <v>43932</v>
       </c>
       <c r="C44" s="2">
-        <f>Data!C178</f>
+        <f>Data!C190</f>
         <v>0</v>
       </c>
       <c r="D44" s="2">
@@ -23033,7 +23323,7 @@
         <v>0</v>
       </c>
       <c r="G44" s="2">
-        <f>Data!D178</f>
+        <f>Data!D190</f>
         <v>10151</v>
       </c>
       <c r="H44" s="3">
@@ -23049,7 +23339,7 @@
         <v>7.1068042279049545E-2</v>
       </c>
       <c r="L44" s="2">
-        <f>Data!E178</f>
+        <f>Data!E190</f>
         <v>887</v>
       </c>
       <c r="M44">
@@ -23070,7 +23360,7 @@
         <v>43933</v>
       </c>
       <c r="C45" s="2">
-        <f>Data!C179</f>
+        <f>Data!C191</f>
         <v>0</v>
       </c>
       <c r="D45" s="2">
@@ -23078,7 +23368,7 @@
         <v>0</v>
       </c>
       <c r="G45" s="2">
-        <f>Data!D179</f>
+        <f>Data!D191</f>
         <v>10483</v>
       </c>
       <c r="H45" s="3">
@@ -23094,7 +23384,7 @@
         <v>6.4092755728226217E-2</v>
       </c>
       <c r="L45" s="2">
-        <f>Data!E179</f>
+        <f>Data!E191</f>
         <v>899</v>
       </c>
       <c r="M45">
@@ -23115,7 +23405,7 @@
         <v>43934</v>
       </c>
       <c r="C46" s="2">
-        <f>Data!C180</f>
+        <f>Data!C192</f>
         <v>0</v>
       </c>
       <c r="D46" s="2">
@@ -23123,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="G46" s="2">
-        <f>Data!D180</f>
+        <f>Data!D192</f>
         <v>10948</v>
       </c>
       <c r="H46" s="3">
@@ -23139,7 +23429,7 @@
         <v>5.4089960663555738E-2</v>
       </c>
       <c r="L46" s="2">
-        <f>Data!E180</f>
+        <f>Data!E192</f>
         <v>919</v>
       </c>
       <c r="M46">
@@ -23160,7 +23450,7 @@
         <v>43935</v>
       </c>
       <c r="C47" s="2">
-        <f>Data!C181</f>
+        <f>Data!C193</f>
         <v>0</v>
       </c>
       <c r="D47" s="2">
@@ -23168,7 +23458,7 @@
         <v>0</v>
       </c>
       <c r="G47" s="2">
-        <f>Data!D181</f>
+        <f>Data!D193</f>
         <v>11445</v>
       </c>
       <c r="H47" s="3">
@@ -23184,7 +23474,7 @@
         <v>4.6017563828847766E-2</v>
       </c>
       <c r="L47" s="2">
-        <f>Data!E181</f>
+        <f>Data!E193</f>
         <v>1033</v>
       </c>
       <c r="M47">
@@ -23261,7 +23551,7 @@
       <c r="A1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="25">
+      <c r="B1" s="22">
         <v>43894</v>
       </c>
       <c r="C1">
@@ -23278,7 +23568,7 @@
       <c r="A2" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="22">
         <v>43895</v>
       </c>
       <c r="C2">
@@ -23295,7 +23585,7 @@
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="25">
+      <c r="B3" s="22">
         <v>43896</v>
       </c>
       <c r="C3">
@@ -23312,7 +23602,7 @@
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="22">
         <v>43897</v>
       </c>
       <c r="C4">
@@ -23329,7 +23619,7 @@
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="22">
         <v>43898</v>
       </c>
       <c r="C5">
@@ -23346,7 +23636,7 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>43899</v>
       </c>
       <c r="C6">
@@ -23363,7 +23653,7 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>43900</v>
       </c>
       <c r="C7">
@@ -23380,7 +23670,7 @@
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="22">
         <v>43901</v>
       </c>
       <c r="C8">
@@ -23397,7 +23687,7 @@
       <c r="A9" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="22">
         <v>43902</v>
       </c>
       <c r="C9">
@@ -23414,7 +23704,7 @@
       <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="22">
         <v>43903</v>
       </c>
       <c r="C10">
@@ -23431,7 +23721,7 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="22">
         <v>43904</v>
       </c>
       <c r="C11">
@@ -23448,7 +23738,7 @@
       <c r="A12" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="22">
         <v>43905</v>
       </c>
       <c r="C12">
@@ -23465,7 +23755,7 @@
       <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="22">
         <v>43906</v>
       </c>
       <c r="C13">
@@ -23482,7 +23772,7 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="22">
         <v>43907</v>
       </c>
       <c r="C14">
@@ -23499,7 +23789,7 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="22">
         <v>43908</v>
       </c>
       <c r="C15">
@@ -23516,7 +23806,7 @@
       <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="22">
         <v>43909</v>
       </c>
       <c r="C16">
@@ -23533,7 +23823,7 @@
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="22">
         <v>43910</v>
       </c>
       <c r="C17">
@@ -23550,7 +23840,7 @@
       <c r="A18" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="22">
         <v>43911</v>
       </c>
       <c r="C18">
@@ -23567,7 +23857,7 @@
       <c r="A19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="22">
         <v>43912</v>
       </c>
       <c r="C19">
@@ -23584,7 +23874,7 @@
       <c r="A20" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="22">
         <v>43913</v>
       </c>
       <c r="C20">
@@ -23601,7 +23891,7 @@
       <c r="A21" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="22">
         <v>43914</v>
       </c>
       <c r="C21">
@@ -23618,7 +23908,7 @@
       <c r="A22" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="22">
         <v>43915</v>
       </c>
       <c r="C22">
@@ -23635,7 +23925,7 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="22">
         <v>43916</v>
       </c>
       <c r="C23">
@@ -23652,7 +23942,7 @@
       <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="22">
         <v>43917</v>
       </c>
       <c r="C24">
@@ -23669,7 +23959,7 @@
       <c r="A25" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="22">
         <v>43918</v>
       </c>
       <c r="C25">
@@ -23686,7 +23976,7 @@
       <c r="A26" t="s">
         <v>28</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="22">
         <v>43919</v>
       </c>
       <c r="C26">
@@ -23703,7 +23993,7 @@
       <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="22">
         <v>43920</v>
       </c>
       <c r="C27">
@@ -23720,7 +24010,7 @@
       <c r="A28" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="22">
         <v>43921</v>
       </c>
       <c r="C28">
@@ -23737,7 +24027,7 @@
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="22">
         <v>43922</v>
       </c>
       <c r="C29">
@@ -23754,7 +24044,7 @@
       <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="22">
         <v>43923</v>
       </c>
       <c r="C30">
@@ -23771,7 +24061,7 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="22">
         <v>43924</v>
       </c>
       <c r="C31">
@@ -23788,7 +24078,7 @@
       <c r="A32" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="22">
         <v>43925</v>
       </c>
       <c r="C32">
@@ -23805,7 +24095,7 @@
       <c r="A33" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="22">
         <v>43926</v>
       </c>
       <c r="C33">
@@ -23822,7 +24112,7 @@
       <c r="A34" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="22">
         <v>43927</v>
       </c>
       <c r="C34">
@@ -23839,7 +24129,7 @@
       <c r="A35" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="22">
         <v>43928</v>
       </c>
       <c r="C35">
@@ -23856,7 +24146,7 @@
       <c r="A36" t="s">
         <v>28</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="22">
         <v>43929</v>
       </c>
       <c r="C36">
@@ -23873,7 +24163,7 @@
       <c r="A37" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="22">
         <v>43930</v>
       </c>
       <c r="C37">
@@ -23890,7 +24180,7 @@
       <c r="A38" t="s">
         <v>28</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="22">
         <v>43931</v>
       </c>
       <c r="C38">
@@ -23907,7 +24197,7 @@
       <c r="A39" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="22">
         <v>43932</v>
       </c>
       <c r="C39">
@@ -23924,7 +24214,7 @@
       <c r="A40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="22">
         <v>43933</v>
       </c>
       <c r="C40">
@@ -23941,7 +24231,7 @@
       <c r="A41" t="s">
         <v>28</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="22">
         <v>43934</v>
       </c>
       <c r="C41">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -229,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="32">
   <si>
     <t>Date</t>
   </si>
@@ -798,6 +798,12 @@
                 <c:pt idx="37">
                   <c:v>14321</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>14451</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14553</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1000,6 +1006,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>1.2012090452233082E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.6177039642671765E-3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.5758285843638756E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1414,6 +1426,12 @@
                 <c:pt idx="42">
                   <c:v>761</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>861</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>847</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1838,6 +1856,12 @@
                 <c:pt idx="51">
                   <c:v>165155</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>168941</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>172434</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2127,6 +2151,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2.2777952329436114E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.1001311436951341E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9761854757229226E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2584,6 +2614,12 @@
                 <c:pt idx="51">
                   <c:v>43715</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>60999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>65705</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3005,6 +3041,12 @@
                 <c:pt idx="51">
                   <c:v>2667</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>3786</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3493</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3429,6 +3471,12 @@
                 <c:pt idx="51">
                   <c:v>21645</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>22170</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>22745</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3718,6 +3766,12 @@
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>2.8054964881733469E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.6337982041083619E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.7097393018087688E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4175,6 +4229,12 @@
                 <c:pt idx="51">
                   <c:v>578</c:v>
                 </c:pt>
+                <c:pt idx="52">
+                  <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>575</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4253,6 +4313,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4540,6 +4601,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>11445</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>11927</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>12540</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4773,6 +4840,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4.6017563828847766E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.253803824287368E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.3194108150852409E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4855,6 +4928,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4887,6 +4961,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5175,6 +5250,12 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -5250,6 +5331,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5539,6 +5621,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>497</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>482</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>613</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5618,6 +5706,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5875,6 +5964,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1033</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1203</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6075,6 +6170,12 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>5.5292683867921077E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.8786602705181735E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6491191807139461E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6157,6 +6258,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -6452,6 +6554,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>5005</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6015</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6456</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6528,6 +6636,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6820,6 +6929,12 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7161,6 +7276,12 @@
                 <c:pt idx="37">
                   <c:v>162</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>102</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7501,6 +7622,12 @@
                 <c:pt idx="37">
                   <c:v>393</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>431</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -7697,6 +7824,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>4.2669266448464874E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.0035399481878772E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>4.2564168389745881E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8077,6 +8210,12 @@
                 <c:pt idx="37">
                   <c:v>9</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>21</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8447,6 +8586,12 @@
                 <c:pt idx="42">
                   <c:v>98476</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>103093</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>108692</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -8682,6 +8827,12 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>5.9541973837706319E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.4729230630220949E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.2202400733819099E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9092,6 +9243,12 @@
                 <c:pt idx="42">
                   <c:v>11170</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>13839</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>13943</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9459,6 +9616,12 @@
                 <c:pt idx="42">
                   <c:v>4603</c:v>
                 </c:pt>
+                <c:pt idx="43">
+                  <c:v>4617</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5599</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9799,6 +9962,12 @@
                 <c:pt idx="37">
                   <c:v>12868</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>13729</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14576</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10016,6 +10185,12 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>7.5218809394454092E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.8127522406921409E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.5539784909560653E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11329,10 +11504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:H196"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F146" sqref="F146"/>
+    <sheetView topLeftCell="A148" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D196" sqref="D196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12103,6 +12278,15 @@
       <c r="B46" s="21">
         <v>43937</v>
       </c>
+      <c r="C46" s="2">
+        <v>327608</v>
+      </c>
+      <c r="D46" s="2">
+        <v>103093</v>
+      </c>
+      <c r="E46" s="2">
+        <v>13729</v>
+      </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
@@ -12111,6 +12295,15 @@
       <c r="B47" s="21">
         <v>43938</v>
       </c>
+      <c r="C47" s="2">
+        <v>341551</v>
+      </c>
+      <c r="D47" s="2">
+        <v>108692</v>
+      </c>
+      <c r="E47" s="2">
+        <v>14576</v>
+      </c>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" t="s">
@@ -12848,6 +13041,18 @@
       <c r="B90" s="21">
         <v>43937</v>
       </c>
+      <c r="C90" s="2">
+        <v>162816</v>
+      </c>
+      <c r="D90" s="2">
+        <v>14451</v>
+      </c>
+      <c r="E90" s="2">
+        <v>410</v>
+      </c>
+      <c r="F90" s="2">
+        <v>8986</v>
+      </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
@@ -12856,6 +13061,18 @@
       <c r="B91" s="21">
         <v>43938</v>
       </c>
+      <c r="C91" s="2">
+        <v>169272</v>
+      </c>
+      <c r="D91" s="2">
+        <v>14553</v>
+      </c>
+      <c r="E91" s="2">
+        <v>431</v>
+      </c>
+      <c r="F91" s="2">
+        <v>9704</v>
+      </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
@@ -13751,6 +13968,15 @@
       <c r="B147" s="21">
         <v>43937</v>
       </c>
+      <c r="C147" s="2">
+        <v>1178403</v>
+      </c>
+      <c r="D147" s="2">
+        <v>168941</v>
+      </c>
+      <c r="E147" s="2">
+        <v>22170</v>
+      </c>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
@@ -13759,6 +13985,15 @@
       <c r="B148" s="21">
         <v>43938</v>
       </c>
+      <c r="C148" s="2">
+        <v>1244108</v>
+      </c>
+      <c r="D148" s="2">
+        <v>172434</v>
+      </c>
+      <c r="E148" s="2">
+        <v>22745</v>
+      </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
@@ -14460,7 +14695,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -14472,6 +14707,51 @@
       </c>
       <c r="E193" s="2">
         <v>1033</v>
+      </c>
+      <c r="F193" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>28</v>
+      </c>
+      <c r="B194" s="21">
+        <v>43936</v>
+      </c>
+      <c r="D194" s="2">
+        <v>11927</v>
+      </c>
+      <c r="E194" s="2">
+        <v>1203</v>
+      </c>
+      <c r="F194" s="2">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>28</v>
+      </c>
+      <c r="B195" s="21">
+        <v>43937</v>
+      </c>
+      <c r="D195" s="2">
+        <v>12540</v>
+      </c>
+      <c r="E195" s="2">
+        <v>1333</v>
+      </c>
+      <c r="F195" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>28</v>
+      </c>
+      <c r="B196" s="21">
+        <v>43938</v>
       </c>
     </row>
   </sheetData>
@@ -14492,7 +14772,7 @@
   <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="AF41" sqref="AF41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16492,6 +16772,50 @@
       <c r="B44" s="13">
         <v>31</v>
       </c>
+      <c r="C44" s="2">
+        <f>Data!C90</f>
+        <v>162816</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44:D45" si="158">C44-C43</f>
+        <v>6015</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" ref="E44:E45" si="159">H44/D44</f>
+        <v>2.1612635078969242E-2</v>
+      </c>
+      <c r="G44" s="2">
+        <f>Data!D90</f>
+        <v>14451</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" ref="H44:H45" si="160">G44-G43</f>
+        <v>130</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ref="I44:I45" si="161">G44/G43-1</f>
+        <v>9.0775783813978883E-3</v>
+      </c>
+      <c r="J44" s="16">
+        <f t="shared" ref="J44:J45" si="162">SUM(I40:I44)/5</f>
+        <v>9.6177039642671765E-3</v>
+      </c>
+      <c r="L44">
+        <f>Data!E90</f>
+        <v>410</v>
+      </c>
+      <c r="M44">
+        <f t="shared" ref="M44:M45" si="163">L44-L43</f>
+        <v>17</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ref="N44:N45" si="164">L44/L43-1</f>
+        <v>4.3256997455470847E-2</v>
+      </c>
+      <c r="O44" s="16">
+        <f t="shared" ref="O44:O45" si="165">SUM(N40:N44)/5</f>
+        <v>4.0035399481878772E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="8">
@@ -16499,6 +16823,50 @@
       </c>
       <c r="B45" s="13">
         <v>32</v>
+      </c>
+      <c r="C45" s="2">
+        <f>Data!C91</f>
+        <v>169272</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45" si="166">C45-C44</f>
+        <v>6456</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" ref="E45" si="167">H45/D45</f>
+        <v>1.5799256505576207E-2</v>
+      </c>
+      <c r="G45" s="2">
+        <f>Data!D91</f>
+        <v>14553</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" ref="H45" si="168">G45-G44</f>
+        <v>102</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" ref="I45" si="169">G45/G44-1</f>
+        <v>7.0583350633173225E-3</v>
+      </c>
+      <c r="J45" s="16">
+        <f t="shared" ref="J45" si="170">SUM(I41:I45)/5</f>
+        <v>8.5758285843638756E-3</v>
+      </c>
+      <c r="L45">
+        <f>Data!E91</f>
+        <v>431</v>
+      </c>
+      <c r="M45">
+        <f t="shared" ref="M45" si="171">L45-L44</f>
+        <v>21</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" ref="N45" si="172">L45/L44-1</f>
+        <v>5.1219512195121997E-2</v>
+      </c>
+      <c r="O45" s="16">
+        <f t="shared" ref="O45" si="173">SUM(N41:N45)/5</f>
+        <v>4.2564168389745881E-2</v>
       </c>
     </row>
   </sheetData>
@@ -16523,7 +16891,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R50" sqref="R50"/>
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -18771,7 +19139,7 @@
         <v>7.5218809394454092E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:15">
       <c r="A49" s="8">
         <v>43937</v>
       </c>
@@ -18779,14 +19147,102 @@
         <f t="shared" si="16"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49" s="2">
+        <f>Data!C46</f>
+        <v>327608</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" ref="D49" si="161">C49-C48</f>
+        <v>13839</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" ref="E49" si="162">H49/D49</f>
+        <v>0.33362237155863861</v>
+      </c>
+      <c r="G49" s="2">
+        <f>Data!D46</f>
+        <v>103093</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" ref="H49" si="163">G49-G48</f>
+        <v>4617</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" ref="I49" si="164">G49/G48-1</f>
+        <v>4.6884520086112325E-2</v>
+      </c>
+      <c r="J49" s="16">
+        <f t="shared" ref="J49" si="165">SUM(I45:I49)/5</f>
+        <v>5.4729230630220949E-2</v>
+      </c>
+      <c r="L49" s="2">
+        <f>Data!E46</f>
+        <v>13729</v>
+      </c>
+      <c r="M49">
+        <f t="shared" ref="M49" si="166">L49-L48</f>
+        <v>861</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" ref="N49" si="167">L49/L48-1</f>
+        <v>6.6910164749766965E-2</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" ref="O49" si="168">SUM(N45:N49)/5</f>
+        <v>6.8127522406921409E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="8">
         <v>43938</v>
       </c>
       <c r="B50" s="13">
         <f t="shared" si="16"/>
         <v>25</v>
+      </c>
+      <c r="C50" s="2">
+        <f>Data!C47</f>
+        <v>341551</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" ref="D50" si="169">C50-C49</f>
+        <v>13943</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" ref="E50" si="170">H50/D50</f>
+        <v>0.40156350857060891</v>
+      </c>
+      <c r="G50" s="2">
+        <f>Data!D47</f>
+        <v>108692</v>
+      </c>
+      <c r="H50" s="3">
+        <f t="shared" ref="H50" si="171">G50-G49</f>
+        <v>5599</v>
+      </c>
+      <c r="I50" s="1">
+        <f t="shared" ref="I50" si="172">G50/G49-1</f>
+        <v>5.431018594860948E-2</v>
+      </c>
+      <c r="J50" s="16">
+        <f t="shared" ref="J50" si="173">SUM(I46:I50)/5</f>
+        <v>5.2202400733819099E-2</v>
+      </c>
+      <c r="L50" s="2">
+        <f>Data!E47</f>
+        <v>14576</v>
+      </c>
+      <c r="M50">
+        <f t="shared" ref="M50" si="174">L50-L49</f>
+        <v>847</v>
+      </c>
+      <c r="N50" s="1">
+        <f t="shared" ref="N50" si="175">L50/L49-1</f>
+        <v>6.1694223905601309E-2</v>
+      </c>
+      <c r="O50" s="16">
+        <f t="shared" ref="O50" si="176">SUM(N46:N50)/5</f>
+        <v>6.5539784909560653E-2</v>
       </c>
     </row>
   </sheetData>
@@ -18811,7 +19267,7 @@
   <dimension ref="A1:P59"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="N59" sqref="N59"/>
+      <selection activeCell="T58" sqref="T58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -21549,6 +22005,50 @@
       <c r="B58" s="13">
         <v>38</v>
       </c>
+      <c r="C58" s="2">
+        <f>Data!C147</f>
+        <v>1178403</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" ref="D58:D59" si="140">C58-C57</f>
+        <v>60999</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" ref="E58:E59" si="141">H58/D58</f>
+        <v>6.2066591255594356E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <f>Data!D147</f>
+        <v>168941</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" ref="H58:H59" si="142">G58-G57</f>
+        <v>3786</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" ref="I58:I59" si="143">G58/G57-1</f>
+        <v>2.2923919953982574E-2</v>
+      </c>
+      <c r="J58" s="16">
+        <f t="shared" ref="J58:J59" si="144">SUM(I54:I58)/5</f>
+        <v>2.1001311436951341E-2</v>
+      </c>
+      <c r="L58" s="2">
+        <f>Data!E147</f>
+        <v>22170</v>
+      </c>
+      <c r="M58">
+        <f t="shared" ref="M58:M59" si="145">L58-L57</f>
+        <v>525</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" ref="N58:N59" si="146">L58/L57-1</f>
+        <v>2.4255024255024349E-2</v>
+      </c>
+      <c r="O58" s="16">
+        <f t="shared" ref="O58:O59" si="147">SUM(N54:N58)/5</f>
+        <v>2.6337982041083619E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="8">
@@ -21556,6 +22056,50 @@
       </c>
       <c r="B59" s="13">
         <v>39</v>
+      </c>
+      <c r="C59" s="2">
+        <f>Data!C148</f>
+        <v>1244108</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="140"/>
+        <v>65705</v>
+      </c>
+      <c r="E59" s="11">
+        <f t="shared" si="141"/>
+        <v>5.316185982801918E-2</v>
+      </c>
+      <c r="G59" s="2">
+        <f>Data!D148</f>
+        <v>172434</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="142"/>
+        <v>3493</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="143"/>
+        <v>2.06758572519401E-2</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" si="144"/>
+        <v>1.9761854757229226E-2</v>
+      </c>
+      <c r="L59" s="2">
+        <f>Data!E148</f>
+        <v>22745</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="145"/>
+        <v>575</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="146"/>
+        <v>2.5935949481280973E-2</v>
+      </c>
+      <c r="O59" s="16">
+        <f t="shared" si="147"/>
+        <v>2.7097393018087688E-2</v>
       </c>
     </row>
   </sheetData>
@@ -21579,8 +22123,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y51" sqref="Y51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23494,13 +24038,93 @@
       <c r="A48" s="8">
         <v>43936</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
+      <c r="C48" s="2">
+        <f>Data!C194</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48:D49" si="19">C48-C47</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <f>Data!D194</f>
+        <v>11927</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" ref="H48:H49" si="20">G48-G47</f>
+        <v>482</v>
+      </c>
+      <c r="I48" s="1">
+        <f t="shared" ref="I48:I49" si="21">G48/G47-1</f>
+        <v>4.2114460463084313E-2</v>
+      </c>
+      <c r="J48" s="16">
+        <f t="shared" ref="J48:J49" si="22">SUM(I44:I48)/5</f>
+        <v>4.253803824287368E-2</v>
+      </c>
+      <c r="L48" s="2">
+        <f>Data!E194</f>
+        <v>1203</v>
+      </c>
+      <c r="M48">
+        <f t="shared" ref="M48:M49" si="23">L48-L47</f>
+        <v>170</v>
+      </c>
+      <c r="N48" s="1">
+        <f t="shared" ref="N48:N49" si="24">L48/L47-1</f>
+        <v>0.16456921587608897</v>
+      </c>
+      <c r="O48" s="16">
+        <f t="shared" ref="O48:O49" si="25">SUM(N44:N48)/5</f>
+        <v>6.8786602705181735E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="8">
         <v>43937</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
+      <c r="C49" s="2">
+        <f>Data!C195</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="2">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <f>Data!D195</f>
+        <v>12540</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="20"/>
+        <v>613</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="21"/>
+        <v>5.1395992286408898E-2</v>
+      </c>
+      <c r="J49" s="16">
+        <f t="shared" si="22"/>
+        <v>4.3194108150852409E-2</v>
+      </c>
+      <c r="L49" s="2">
+        <f>Data!E195</f>
+        <v>1333</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="23"/>
+        <v>130</v>
+      </c>
+      <c r="N49" s="1">
+        <f t="shared" si="24"/>
+        <v>0.10806317539484622</v>
+      </c>
+      <c r="O49" s="16">
+        <f t="shared" si="25"/>
+        <v>8.6491191807139461E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="8">
         <v>43938</v>
       </c>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -15,6 +15,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="PEAK_CASES">Italy!$H$32</definedName>
+    <definedName name="PEAK_CASES_AT">Austria!$H$24</definedName>
+    <definedName name="PEAK_CASES_IT">Italy!$H$32</definedName>
+    <definedName name="PEAK_CASES_UK">UK!$H$43</definedName>
+    <definedName name="PEAK_DEATHS">Italy!$M$38</definedName>
+    <definedName name="PEAK_DEATHS_AT">Austria!$M$36</definedName>
+    <definedName name="PEAK_DEATHS_UK">UK!$M$43</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -229,7 +238,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -325,6 +334,9 @@
   </si>
   <si>
     <t>https://experience.arcgis.com/experience/09f821667ce64bf7be6f9f87457ed9aa</t>
+  </si>
+  <si>
+    <t>% of peak</t>
   </si>
 </sst>
 </file>
@@ -440,7 +452,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -501,6 +513,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -831,8 +846,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179688576"/>
-        <c:axId val="179674496"/>
+        <c:axId val="70902912"/>
+        <c:axId val="70888832"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1046,11 +1061,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179671424"/>
-        <c:axId val="179672960"/>
+        <c:axId val="70885760"/>
+        <c:axId val="70887296"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179671424"/>
+        <c:axId val="70885760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,13 +1083,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179672960"/>
+        <c:crossAx val="70887296"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179672960"/>
+        <c:axId val="70887296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1089,24 +1104,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179671424"/>
+        <c:crossAx val="70885760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179674496"/>
+        <c:axId val="70888832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179688576"/>
+        <c:crossAx val="70902912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="179688576"/>
+        <c:axId val="70902912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1114,7 +1129,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="179674496"/>
+        <c:crossAx val="70888832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1129,7 +1144,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1486,11 +1501,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181295360"/>
-        <c:axId val="181301248"/>
+        <c:axId val="178182400"/>
+        <c:axId val="178188288"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="181295360"/>
+        <c:axId val="178182400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1498,13 +1513,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181301248"/>
+        <c:crossAx val="178188288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181301248"/>
+        <c:axId val="178188288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1533,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181295360"/>
+        <c:crossAx val="178182400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1527,7 +1542,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000477" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000477" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1928,14 +1943,17 @@
                 <c:pt idx="54">
                   <c:v>175925</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>178972</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181439488"/>
-        <c:axId val="181437952"/>
+        <c:axId val="178568192"/>
+        <c:axId val="178566656"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2227,17 +2245,20 @@
                 <c:pt idx="54">
                   <c:v>1.9778016814610354E-2</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.9515720968083006E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181426432"/>
-        <c:axId val="181436416"/>
+        <c:axId val="178555136"/>
+        <c:axId val="178565120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181426432"/>
+        <c:axId val="178555136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,13 +2266,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181436416"/>
+        <c:crossAx val="178565120"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181436416"/>
+        <c:axId val="178565120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,24 +2286,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181426432"/>
+        <c:crossAx val="178555136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181437952"/>
+        <c:axId val="178566656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181439488"/>
+        <c:crossAx val="178568192"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="181439488"/>
+        <c:axId val="178568192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2311,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="181437952"/>
+        <c:crossAx val="178566656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2305,7 +2326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2707,17 +2728,20 @@
                 <c:pt idx="54">
                   <c:v>61725</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>50708</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181455488"/>
-        <c:axId val="181477760"/>
+        <c:axId val="178580096"/>
+        <c:axId val="178602368"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="181455488"/>
+        <c:axId val="178580096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2725,13 +2749,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181477760"/>
+        <c:crossAx val="178602368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181477760"/>
+        <c:axId val="178602368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2745,7 +2769,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181455488"/>
+        <c:crossAx val="178580096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2754,7 +2778,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3152,17 +3176,20 @@
                 <c:pt idx="54">
                   <c:v>3491</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>3047</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181493120"/>
-        <c:axId val="181507200"/>
+        <c:axId val="178613632"/>
+        <c:axId val="178623616"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="181493120"/>
+        <c:axId val="178613632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,13 +3197,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181507200"/>
+        <c:crossAx val="178623616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181507200"/>
+        <c:axId val="178623616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3217,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181493120"/>
+        <c:crossAx val="178613632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3199,7 +3226,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3600,14 +3627,17 @@
                 <c:pt idx="54">
                   <c:v>23227</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>23660</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181628928"/>
-        <c:axId val="181627136"/>
+        <c:axId val="180318208"/>
+        <c:axId val="180316416"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -3899,17 +3929,20 @@
                 <c:pt idx="54">
                   <c:v>2.5646959071878063E-2</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3492163338111993E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181603328"/>
-        <c:axId val="181625600"/>
+        <c:axId val="180292608"/>
+        <c:axId val="180314880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181603328"/>
+        <c:axId val="180292608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,13 +3950,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181625600"/>
+        <c:crossAx val="180314880"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181625600"/>
+        <c:axId val="180314880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3938,24 +3971,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181603328"/>
+        <c:crossAx val="180292608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181627136"/>
+        <c:axId val="180316416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181628928"/>
+        <c:crossAx val="180318208"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="181628928"/>
+        <c:axId val="180318208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +3996,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="181627136"/>
+        <c:crossAx val="180316416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -3978,7 +4011,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4379,17 +4412,20 @@
                 <c:pt idx="54">
                   <c:v>482</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>433</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181636480"/>
-        <c:axId val="181642368"/>
+        <c:axId val="180325760"/>
+        <c:axId val="180335744"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="181636480"/>
+        <c:axId val="180325760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4397,13 +4433,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181642368"/>
+        <c:crossAx val="180335744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181642368"/>
+        <c:axId val="180335744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4417,7 +4453,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181636480"/>
+        <c:crossAx val="180325760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4426,7 +4462,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000477" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000477" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4457,6 +4493,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -4772,8 +4809,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181577216"/>
-        <c:axId val="181575680"/>
+        <c:axId val="178697728"/>
+        <c:axId val="178696192"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5011,11 +5048,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181568256"/>
-        <c:axId val="181569792"/>
+        <c:axId val="178688768"/>
+        <c:axId val="178690304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181568256"/>
+        <c:axId val="178688768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5033,13 +5070,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181569792"/>
+        <c:crossAx val="178690304"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181569792"/>
+        <c:axId val="178690304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5053,24 +5090,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181568256"/>
+        <c:crossAx val="178688768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181575680"/>
+        <c:axId val="178696192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181577216"/>
+        <c:crossAx val="178697728"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="181577216"/>
+        <c:axId val="178697728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5078,7 +5115,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="181575680"/>
+        <c:crossAx val="178696192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5086,13 +5123,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000477" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000477" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5118,6 +5156,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5420,11 +5459,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181678848"/>
-        <c:axId val="181680384"/>
+        <c:axId val="180425472"/>
+        <c:axId val="180427008"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="181678848"/>
+        <c:axId val="180425472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5432,13 +5471,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181680384"/>
+        <c:crossAx val="180427008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181680384"/>
+        <c:axId val="180427008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5452,7 +5491,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181678848"/>
+        <c:crossAx val="180425472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5461,7 +5500,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5487,6 +5526,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -5804,11 +5844,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182138368"/>
-        <c:axId val="182139904"/>
+        <c:axId val="180438528"/>
+        <c:axId val="180440064"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="182138368"/>
+        <c:axId val="180438528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5816,13 +5856,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182139904"/>
+        <c:crossAx val="180440064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="182139904"/>
+        <c:axId val="180440064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5836,7 +5876,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182138368"/>
+        <c:crossAx val="180438528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5845,7 +5885,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000477" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000477" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5876,6 +5916,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -6161,8 +6202,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182083968"/>
-        <c:axId val="182082176"/>
+        <c:axId val="180515200"/>
+        <c:axId val="180513408"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6367,11 +6408,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="182078848"/>
-        <c:axId val="182080640"/>
+        <c:axId val="180510080"/>
+        <c:axId val="180511872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="182078848"/>
+        <c:axId val="180510080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6389,13 +6430,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182080640"/>
+        <c:crossAx val="180511872"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182080640"/>
+        <c:axId val="180511872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -6410,24 +6451,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182078848"/>
+        <c:crossAx val="180510080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182082176"/>
+        <c:axId val="180513408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182083968"/>
+        <c:crossAx val="180515200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="182083968"/>
+        <c:axId val="180515200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6435,7 +6476,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="182082176"/>
+        <c:crossAx val="180513408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6443,13 +6484,14 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000466" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000466" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000477" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000477" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6772,11 +6814,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179213056"/>
-        <c:axId val="179214592"/>
+        <c:axId val="69575424"/>
+        <c:axId val="69576960"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179213056"/>
+        <c:axId val="69575424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6784,13 +6826,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179214592"/>
+        <c:crossAx val="69576960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179214592"/>
+        <c:axId val="69576960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -6806,7 +6848,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179213056"/>
+        <c:crossAx val="69575424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6815,7 +6857,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000004" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000004" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000411" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000411" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6841,6 +6883,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -7161,11 +7204,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="182094464"/>
-        <c:axId val="182096256"/>
+        <c:axId val="180525696"/>
+        <c:axId val="180527488"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="182094464"/>
+        <c:axId val="180525696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7173,13 +7216,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182096256"/>
+        <c:crossAx val="180527488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="182096256"/>
+        <c:axId val="180527488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7193,7 +7236,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="182094464"/>
+        <c:crossAx val="180525696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7202,7 +7245,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000488" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000488" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7528,11 +7571,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179222784"/>
-        <c:axId val="179646464"/>
+        <c:axId val="69585152"/>
+        <c:axId val="176685056"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179222784"/>
+        <c:axId val="69585152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7540,13 +7583,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179646464"/>
+        <c:crossAx val="176685056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179646464"/>
+        <c:axId val="176685056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7560,7 +7603,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179222784"/>
+        <c:crossAx val="69585152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7569,7 +7612,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7895,8 +7938,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180020352"/>
-        <c:axId val="180002176"/>
+        <c:axId val="176743552"/>
+        <c:axId val="176725376"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8104,11 +8147,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="179999104"/>
-        <c:axId val="180000640"/>
+        <c:axId val="176722304"/>
+        <c:axId val="176723840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="179999104"/>
+        <c:axId val="176722304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8126,13 +8169,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="180000640"/>
+        <c:crossAx val="176723840"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180000640"/>
+        <c:axId val="176723840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -8147,24 +8190,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179999104"/>
+        <c:crossAx val="176722304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180002176"/>
+        <c:axId val="176725376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180020352"/>
+        <c:crossAx val="176743552"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180020352"/>
+        <c:axId val="176743552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8172,7 +8215,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180002176"/>
+        <c:crossAx val="176725376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8187,7 +8230,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8510,11 +8553,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180560256"/>
-        <c:axId val="180561792"/>
+        <c:axId val="177021312"/>
+        <c:axId val="177022848"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180560256"/>
+        <c:axId val="177021312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8522,13 +8565,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180561792"/>
+        <c:crossAx val="177022848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180561792"/>
+        <c:axId val="177022848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8542,7 +8585,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180560256"/>
+        <c:crossAx val="177021312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8551,7 +8594,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8907,8 +8950,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181041408"/>
-        <c:axId val="181039872"/>
+        <c:axId val="68192512"/>
+        <c:axId val="68190976"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9155,11 +9198,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181024256"/>
-        <c:axId val="181025792"/>
+        <c:axId val="68175360"/>
+        <c:axId val="68176896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181024256"/>
+        <c:axId val="68175360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9177,13 +9220,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181025792"/>
+        <c:crossAx val="68176896"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181025792"/>
+        <c:axId val="68176896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -9198,24 +9241,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181024256"/>
+        <c:crossAx val="68175360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181039872"/>
+        <c:axId val="68190976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181041408"/>
+        <c:crossAx val="68192512"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="181041408"/>
+        <c:axId val="68192512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9223,7 +9266,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="181039872"/>
+        <c:crossAx val="68190976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9238,7 +9281,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -9592,11 +9635,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181046272"/>
-        <c:axId val="181224192"/>
+        <c:axId val="68201856"/>
+        <c:axId val="70843008"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="181046272"/>
+        <c:axId val="68201856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9604,13 +9647,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181224192"/>
+        <c:crossAx val="70843008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181224192"/>
+        <c:axId val="70843008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9624,7 +9667,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181046272"/>
+        <c:crossAx val="68201856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9633,7 +9676,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000422" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000422" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000433" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000433" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9986,11 +10029,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181159040"/>
-        <c:axId val="181160576"/>
+        <c:axId val="178066560"/>
+        <c:axId val="178068096"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="181159040"/>
+        <c:axId val="178066560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9998,13 +10041,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181160576"/>
+        <c:crossAx val="178068096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="181160576"/>
+        <c:axId val="178068096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10018,7 +10061,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181159040"/>
+        <c:crossAx val="178066560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10027,7 +10070,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10353,8 +10396,8 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="181276672"/>
-        <c:axId val="181258496"/>
+        <c:axId val="178163712"/>
+        <c:axId val="178153728"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -10583,11 +10626,11 @@
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="181222400"/>
-        <c:axId val="181256960"/>
+        <c:axId val="178142208"/>
+        <c:axId val="178152192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="181222400"/>
+        <c:axId val="178142208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10605,13 +10648,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="181256960"/>
+        <c:crossAx val="178152192"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="181256960"/>
+        <c:axId val="178152192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10625,24 +10668,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="181222400"/>
+        <c:crossAx val="178142208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="181258496"/>
+        <c:axId val="178153728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="181276672"/>
+        <c:crossAx val="178163712"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="181276672"/>
+        <c:axId val="178163712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10650,7 +10693,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="181258496"/>
+        <c:crossAx val="178153728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -10665,7 +10708,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000444" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000444" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000455" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000455" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11891,8 +11934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E50" sqref="E50"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E157" sqref="E157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -14509,6 +14552,15 @@
       </c>
       <c r="B156" s="21">
         <v>43940</v>
+      </c>
+      <c r="C156" s="2">
+        <v>1356541</v>
+      </c>
+      <c r="D156" s="2">
+        <v>178972</v>
+      </c>
+      <c r="E156" s="2">
+        <v>23660</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -15301,10 +15353,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:AE50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S49" sqref="S49"/>
+      <selection activeCell="AD48" sqref="AD48:AE61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15320,9 +15372,10 @@
     <col min="11" max="11" width="1.140625" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="30" max="31" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5">
+    <row r="1" spans="1:31" ht="28.5">
       <c r="A1" s="24" t="s">
         <v>9</v>
       </c>
@@ -15344,7 +15397,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -15366,8 +15419,12 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="AD3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="26"/>
+    </row>
+    <row r="4" spans="1:31" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -15408,8 +15465,14 @@
       <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="AD4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="8">
         <v>43899</v>
       </c>
@@ -15432,7 +15495,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:31">
       <c r="A7" s="8">
         <v>43900</v>
       </c>
@@ -15470,8 +15533,16 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="AD7" s="1">
+        <f>H7/PEAK_CASES_AT</f>
+        <v>5.0949050949050952E-2</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>M7/PEAK_DEATHS_AT</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="8">
         <v>43901</v>
       </c>
@@ -15509,8 +15580,16 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="AD8" s="1">
+        <f>H8/PEAK_CASES_AT</f>
+        <v>6.3936063936063936E-2</v>
+      </c>
+      <c r="AE8" s="1">
+        <f>M8/PEAK_DEATHS_AT</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="8">
         <v>43902</v>
       </c>
@@ -15550,8 +15629,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="AD9" s="1">
+        <f>H9/PEAK_CASES_AT</f>
+        <v>0.11488511488511488</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>M9/PEAK_DEATHS_AT</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="8">
         <v>43903</v>
       </c>
@@ -15592,8 +15679,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="AD10" s="1">
+        <f>H10/PEAK_CASES_AT</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="AE10" s="1">
+        <f>M10/PEAK_DEATHS_AT</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="8">
         <v>43904</v>
       </c>
@@ -15638,8 +15733,16 @@
         <v>0</v>
       </c>
       <c r="O11" s="16"/>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="AD11" s="1">
+        <f>H11/PEAK_CASES_AT</f>
+        <v>0.15084915084915085</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>M11/PEAK_DEATHS_AT</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="8">
         <v>43905</v>
       </c>
@@ -15684,8 +15787,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="AD12" s="1">
+        <f>H12/PEAK_CASES_AT</f>
+        <v>0.2047952047952048</v>
+      </c>
+      <c r="AE12" s="1">
+        <f>M12/PEAK_DEATHS_AT</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="8">
         <v>43906</v>
       </c>
@@ -15736,8 +15847,16 @@
         <f t="shared" ref="O13:O26" si="7">SUM(N9:N13)/5</f>
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="AD13" s="1">
+        <f>H13/PEAK_CASES_AT</f>
+        <v>0.15584415584415584</v>
+      </c>
+      <c r="AE13" s="1">
+        <f>M13/PEAK_DEATHS_AT</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="8">
         <v>43907</v>
       </c>
@@ -15788,8 +15907,16 @@
         <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="AD14" s="1">
+        <f>H14/PEAK_CASES_AT</f>
+        <v>0.31568431568431571</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>M14/PEAK_DEATHS_AT</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="8">
         <v>43908</v>
       </c>
@@ -15840,8 +15967,16 @@
         <f t="shared" si="7"/>
         <v>0.46666666666666662</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="AD15" s="1">
+        <f>H15/PEAK_CASES_AT</f>
+        <v>0.31368631368631367</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>M15/PEAK_DEATHS_AT</f>
+        <v>3.3333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="8">
         <v>43909</v>
       </c>
@@ -15892,8 +16027,16 @@
         <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="AD16" s="1">
+        <f>H16/PEAK_CASES_AT</f>
+        <v>0.36663336663336665</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>M16/PEAK_DEATHS_AT</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="8">
         <v>43910</v>
       </c>
@@ -15944,8 +16087,16 @@
         <f t="shared" si="7"/>
         <v>0.56666666666666665</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="AD17" s="1">
+        <f>H17/PEAK_CASES_AT</f>
+        <v>0.37462537462537465</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>M17/PEAK_DEATHS_AT</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="8">
         <v>43911</v>
       </c>
@@ -15996,8 +16147,16 @@
         <f t="shared" si="7"/>
         <v>0.23333333333333331</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="AD18" s="1">
+        <f>H18/PEAK_CASES_AT</f>
+        <v>0.4255744255744256</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>M18/PEAK_DEATHS_AT</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="8">
         <v>43912</v>
       </c>
@@ -16048,8 +16207,16 @@
         <f t="shared" si="7"/>
         <v>0.43333333333333329</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="AD19" s="1">
+        <f>H19/PEAK_CASES_AT</f>
+        <v>0.42957042957042957</v>
+      </c>
+      <c r="AE19" s="1">
+        <f>M19/PEAK_DEATHS_AT</f>
+        <v>0.26666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="8">
         <v>43913</v>
       </c>
@@ -16100,8 +16267,16 @@
         <f t="shared" si="7"/>
         <v>0.42916666666666659</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="AD20" s="1">
+        <f>H20/PEAK_CASES_AT</f>
+        <v>0.6793206793206793</v>
+      </c>
+      <c r="AE20" s="1">
+        <f>M20/PEAK_DEATHS_AT</f>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="8">
         <v>43914</v>
       </c>
@@ -16152,8 +16327,16 @@
         <f t="shared" si="7"/>
         <v>0.39583333333333331</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="AD21" s="1">
+        <f>H21/PEAK_CASES_AT</f>
+        <v>0.95104895104895104</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>M21/PEAK_DEATHS_AT</f>
+        <v>0.23333333333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="8">
         <v>43915</v>
       </c>
@@ -16204,8 +16387,16 @@
         <f t="shared" si="7"/>
         <v>0.41726190476190472</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="AD22" s="1">
+        <f>H22/PEAK_CASES_AT</f>
+        <v>0.68331668331668327</v>
+      </c>
+      <c r="AE22" s="1">
+        <f>M22/PEAK_DEATHS_AT</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="8">
         <v>43916</v>
       </c>
@@ -16256,8 +16447,16 @@
         <f t="shared" si="7"/>
         <v>0.46672427035330255</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="AD23" s="1">
+        <f>H23/PEAK_CASES_AT</f>
+        <v>0.83716283716283713</v>
+      </c>
+      <c r="AE23" s="1">
+        <f>M23/PEAK_DEATHS_AT</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="8">
         <v>43917</v>
       </c>
@@ -16308,8 +16507,16 @@
         <f t="shared" si="7"/>
         <v>0.30345896423085361</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="AD24" s="1">
+        <f>H24/PEAK_CASES_AT</f>
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1">
+        <f>M24/PEAK_DEATHS_AT</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="8">
         <v>43918</v>
       </c>
@@ -16360,8 +16567,16 @@
         <f t="shared" si="7"/>
         <v>0.27544172285154322</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="AD25" s="1">
+        <f>H25/PEAK_CASES_AT</f>
+        <v>0.59540459540459545</v>
+      </c>
+      <c r="AE25" s="1">
+        <f>M25/PEAK_DEATHS_AT</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="8">
         <v>43919</v>
       </c>
@@ -16412,8 +16627,16 @@
         <f t="shared" si="7"/>
         <v>0.26171623265546484</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="AD26" s="1">
+        <f>H26/PEAK_CASES_AT</f>
+        <v>0.64035964035964033</v>
+      </c>
+      <c r="AE26" s="1">
+        <f>M26/PEAK_DEATHS_AT</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="8">
         <v>43920</v>
       </c>
@@ -16464,8 +16687,16 @@
         <f t="shared" ref="O27" si="31">SUM(N23:N27)/5</f>
         <v>0.29145045192456781</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="AD27" s="1">
+        <f>H27/PEAK_CASES_AT</f>
+        <v>0.74025974025974028</v>
+      </c>
+      <c r="AE27" s="1">
+        <f>M27/PEAK_DEATHS_AT</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="8">
         <v>43921</v>
       </c>
@@ -16516,8 +16747,16 @@
         <f t="shared" ref="O28" si="38">SUM(N24:N28)/5</f>
         <v>0.21235845670354031</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="AD28" s="1">
+        <f>H28/PEAK_CASES_AT</f>
+        <v>0.59640359640359641</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>M28/PEAK_DEATHS_AT</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="8">
         <v>43922</v>
       </c>
@@ -16568,8 +16807,16 @@
         <f t="shared" ref="O29" si="46">SUM(N25:N29)/5</f>
         <v>0.2037487628259893</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="AD29" s="1">
+        <f>H29/PEAK_CASES_AT</f>
+        <v>0.50749250749250752</v>
+      </c>
+      <c r="AE29" s="1">
+        <f>M29/PEAK_DEATHS_AT</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="8">
         <v>43923</v>
       </c>
@@ -16620,8 +16867,16 @@
         <f t="shared" ref="O30" si="54">SUM(N26:N30)/5</f>
         <v>0.18570436036968324</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="AD30" s="1">
+        <f>H30/PEAK_CASES_AT</f>
+        <v>0.48451548451548454</v>
+      </c>
+      <c r="AE30" s="1">
+        <f>M30/PEAK_DEATHS_AT</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="8">
         <v>43924</v>
       </c>
@@ -16672,8 +16927,16 @@
         <f t="shared" ref="O31" si="62">SUM(N27:N31)/5</f>
         <v>0.14542141174719628</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="AD31" s="1">
+        <f>H31/PEAK_CASES_AT</f>
+        <v>0.41558441558441561</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>M31/PEAK_DEATHS_AT</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="8">
         <v>43925</v>
       </c>
@@ -16724,8 +16987,16 @@
         <f t="shared" ref="O32" si="70">SUM(N28:N32)/5</f>
         <v>0.1156871924780933</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="AD32" s="1">
+        <f>H32/PEAK_CASES_AT</f>
+        <v>0.28171828171828173</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>M32/PEAK_DEATHS_AT</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="8">
         <v>43926</v>
       </c>
@@ -16776,8 +17047,16 @@
         <f t="shared" ref="O33" si="78">SUM(N29:N33)/5</f>
         <v>9.8004994150733674E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="AD33" s="1">
+        <f>H33/PEAK_CASES_AT</f>
+        <v>0.24175824175824176</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>M33/PEAK_DEATHS_AT</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="8">
         <v>43927</v>
       </c>
@@ -16828,8 +17107,16 @@
         <f t="shared" ref="O34" si="86">SUM(N30:N34)/5</f>
         <v>8.5566268660537584E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="AD34" s="1">
+        <f>H34/PEAK_CASES_AT</f>
+        <v>0.29870129870129869</v>
+      </c>
+      <c r="AE34" s="1">
+        <f>M34/PEAK_DEATHS_AT</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="8">
         <v>43928</v>
       </c>
@@ -16880,8 +17167,16 @@
         <f t="shared" ref="O35" si="94">SUM(N31:N35)/5</f>
         <v>9.0037003405244898E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="AD35" s="1">
+        <f>H35/PEAK_CASES_AT</f>
+        <v>0.3126873126873127</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>M35/PEAK_DEATHS_AT</f>
+        <v>0.76666666666666672</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="8">
         <v>43929</v>
       </c>
@@ -16932,8 +17227,16 @@
         <f t="shared" ref="O36" si="102">SUM(N32:N36)/5</f>
         <v>0.10207013358183503</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="AD36" s="1">
+        <f>H36/PEAK_CASES_AT</f>
+        <v>0.33266733266733267</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>M36/PEAK_DEATHS_AT</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="8">
         <v>43930</v>
       </c>
@@ -16984,8 +17287,16 @@
         <f t="shared" ref="O37" si="110">SUM(N33:N37)/5</f>
         <v>9.6758778270479698E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="AD37" s="1">
+        <f>H37/PEAK_CASES_AT</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="AE37" s="1">
+        <f>M37/PEAK_DEATHS_AT</f>
+        <v>0.73333333333333328</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="8">
         <v>43931</v>
       </c>
@@ -17036,8 +17347,16 @@
         <f t="shared" ref="O38" si="118">SUM(N34:N38)/5</f>
         <v>9.3675126001480272E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="AD38" s="1">
+        <f>H38/PEAK_CASES_AT</f>
+        <v>0.35364635364635366</v>
+      </c>
+      <c r="AE38" s="1">
+        <f>M38/PEAK_DEATHS_AT</f>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="8">
         <v>43932</v>
       </c>
@@ -17088,8 +17407,16 @@
         <f t="shared" ref="O39" si="126">SUM(N35:N39)/5</f>
         <v>8.9274117949356621E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="AD39" s="1">
+        <f>H39/PEAK_CASES_AT</f>
+        <v>0.28371628371628371</v>
+      </c>
+      <c r="AE39" s="1">
+        <f>M39/PEAK_DEATHS_AT</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="8">
         <v>43933</v>
       </c>
@@ -17140,8 +17467,16 @@
         <f t="shared" ref="O40" si="133">SUM(N36:N40)/5</f>
         <v>7.6080160571423014E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="AD40" s="1">
+        <f>H40/PEAK_CASES_AT</f>
+        <v>0.16883116883116883</v>
+      </c>
+      <c r="AE40" s="1">
+        <f>M40/PEAK_DEATHS_AT</f>
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="8">
         <v>43934</v>
       </c>
@@ -17192,8 +17527,16 @@
         <f t="shared" ref="O41" si="141">SUM(N37:N41)/5</f>
         <v>6.1674516832445916E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="AD41" s="1">
+        <f>H41/PEAK_CASES_AT</f>
+        <v>5.3946053946053944E-2</v>
+      </c>
+      <c r="AE41" s="1">
+        <f>M41/PEAK_DEATHS_AT</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="8">
         <v>43935</v>
       </c>
@@ -17244,8 +17587,16 @@
         <f t="shared" ref="O42" si="149">SUM(N38:N42)/5</f>
         <v>5.425295288914285E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="AD42" s="1">
+        <f>H42/PEAK_CASES_AT</f>
+        <v>0.15984015984015984</v>
+      </c>
+      <c r="AE42" s="1">
+        <f>M42/PEAK_DEATHS_AT</f>
+        <v>0.53333333333333333</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="8">
         <v>43936</v>
       </c>
@@ -17296,8 +17647,16 @@
         <f t="shared" ref="O43" si="157">SUM(N39:N43)/5</f>
         <v>4.2669266448464874E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="AD43" s="1">
+        <f>H43/PEAK_CASES_AT</f>
+        <v>0.16183816183816183</v>
+      </c>
+      <c r="AE43" s="1">
+        <f>M43/PEAK_DEATHS_AT</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="8">
         <v>43937</v>
       </c>
@@ -17348,8 +17707,16 @@
         <f t="shared" ref="O44" si="165">SUM(N40:N44)/5</f>
         <v>4.0035399481878772E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="AD44" s="1">
+        <f>H44/PEAK_CASES_AT</f>
+        <v>0.12987012987012986</v>
+      </c>
+      <c r="AE44" s="1">
+        <f>M44/PEAK_DEATHS_AT</f>
+        <v>0.56666666666666665</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="8">
         <v>43938</v>
       </c>
@@ -17400,8 +17767,16 @@
         <f t="shared" ref="O45" si="173">SUM(N41:N45)/5</f>
         <v>4.2564168389745881E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="AD45" s="1">
+        <f>H45/PEAK_CASES_AT</f>
+        <v>0.1018981018981019</v>
+      </c>
+      <c r="AE45" s="1">
+        <f>M45/PEAK_DEATHS_AT</f>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="8">
         <v>43939</v>
       </c>
@@ -17452,8 +17827,16 @@
         <f t="shared" ref="O46" si="181">SUM(N42:N46)/5</f>
         <v>3.7846899579669649E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="AD46" s="1">
+        <f>H46/PEAK_CASES_AT</f>
+        <v>8.3916083916083919E-2</v>
+      </c>
+      <c r="AE46" s="1">
+        <f>M46/PEAK_DEATHS_AT</f>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="8">
         <v>43940</v>
       </c>
@@ -17504,8 +17887,16 @@
         <f t="shared" ref="O47" si="189">SUM(N43:N47)/5</f>
         <v>3.3214452823363813E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="AD47" s="1">
+        <f>H47/PEAK_CASES_AT</f>
+        <v>5.8941058941058944E-2</v>
+      </c>
+      <c r="AE47" s="1">
+        <f>M47/PEAK_DEATHS_AT</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="8">
         <v>43941</v>
       </c>
@@ -17539,11 +17930,12 @@
       <c r="O50" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P1" r:id="rId1"/>
@@ -17557,10 +17949,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R52" sqref="R52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17576,9 +17968,10 @@
     <col min="11" max="11" width="1.140625" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="30" max="31" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5">
+    <row r="1" spans="1:31" ht="28.5">
       <c r="A1" s="24" t="s">
         <v>10</v>
       </c>
@@ -17600,7 +17993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -17622,8 +18015,12 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="AD3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="26"/>
+    </row>
+    <row r="4" spans="1:31" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -17664,8 +18061,14 @@
       <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="AD4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="8">
         <v>43894</v>
       </c>
@@ -17689,7 +18092,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:31">
       <c r="A7" s="8">
         <v>43895</v>
       </c>
@@ -17727,8 +18130,16 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="AD7" s="1">
+        <f>H7/PEAK_CASES_UK</f>
+        <v>3.4558230618592328E-3</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>M7/PEAK_DEATHS_UK</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="8">
         <v>43896</v>
       </c>
@@ -17766,8 +18177,16 @@
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="AD8" s="1">
+        <f>H8/PEAK_CASES_UK</f>
+        <v>5.5293168989747725E-3</v>
+      </c>
+      <c r="AE8" s="1">
+        <f>M8/PEAK_DEATHS_UK</f>
+        <v>1.0204081632653062E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="8">
         <v>43897</v>
       </c>
@@ -17808,8 +18227,16 @@
         <v>1</v>
       </c>
       <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="AD9" s="1">
+        <f>H9/PEAK_CASES_UK</f>
+        <v>4.9533463886649006E-3</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>M9/PEAK_DEATHS_UK</f>
+        <v>1.0204081632653062E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="8">
         <v>43898</v>
       </c>
@@ -17850,8 +18277,16 @@
         <v>0</v>
       </c>
       <c r="O10" s="16"/>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="AD10" s="1">
+        <f>H10/PEAK_CASES_UK</f>
+        <v>7.7180048381522868E-3</v>
+      </c>
+      <c r="AE10" s="1">
+        <f>M10/PEAK_DEATHS_UK</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="8">
         <v>43899</v>
       </c>
@@ -17899,8 +18334,16 @@
         <f t="shared" ref="O11:O17" si="8">SUM(N7:N11)/5</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="AD11" s="1">
+        <f>H11/PEAK_CASES_UK</f>
+        <v>5.5293168989747725E-3</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>M11/PEAK_DEATHS_UK</f>
+        <v>3.0612244897959182E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="8">
         <v>43900</v>
       </c>
@@ -17948,8 +18391,16 @@
         <f t="shared" si="8"/>
         <v>0.54</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="AD12" s="1">
+        <f>H12/PEAK_CASES_UK</f>
+        <v>7.142034327842414E-3</v>
+      </c>
+      <c r="AE12" s="1">
+        <f>M12/PEAK_DEATHS_UK</f>
+        <v>1.0204081632653062E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="8">
         <v>43901</v>
       </c>
@@ -17997,8 +18448,16 @@
         <f t="shared" si="8"/>
         <v>0.60666666666666669</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="AD13" s="1">
+        <f>H13/PEAK_CASES_UK</f>
+        <v>8.8699458587720315E-3</v>
+      </c>
+      <c r="AE13" s="1">
+        <f>M13/PEAK_DEATHS_UK</f>
+        <v>2.0408163265306124E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="8">
         <v>43902</v>
       </c>
@@ -18046,8 +18505,16 @@
         <f t="shared" si="8"/>
         <v>0.45666666666666667</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="AD14" s="1">
+        <f>H14/PEAK_CASES_UK</f>
+        <v>1.4975233268056675E-2</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>M14/PEAK_DEATHS_UK</f>
+        <v>2.0408163265306124E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="8">
         <v>43903</v>
       </c>
@@ -18095,8 +18562,16 @@
         <f t="shared" si="8"/>
         <v>0.47666666666666668</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="AD15" s="1">
+        <f>H15/PEAK_CASES_UK</f>
+        <v>2.3960373228890681E-2</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>M15/PEAK_DEATHS_UK</f>
+        <v>1.0204081632653062E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="8">
         <v>43904</v>
       </c>
@@ -18144,8 +18619,16 @@
         <f t="shared" si="8"/>
         <v>0.35848484848484852</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="AD16" s="1">
+        <f>H16/PEAK_CASES_UK</f>
+        <v>3.9396382905195253E-2</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>M16/PEAK_DEATHS_UK</f>
+        <v>1.020408163265306E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="8">
         <v>43905</v>
       </c>
@@ -18193,8 +18676,16 @@
         <f t="shared" si="8"/>
         <v>0.45181818181818184</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="AD17" s="1">
+        <f>H17/PEAK_CASES_UK</f>
+        <v>2.8913719617555581E-2</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>M17/PEAK_DEATHS_UK</f>
+        <v>1.4285714285714285E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="8">
         <v>43906</v>
       </c>
@@ -18242,8 +18733,16 @@
         <f t="shared" ref="O18:O31" si="15">SUM(N14:N18)/5</f>
         <v>0.49943722943722946</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="AD18" s="1">
+        <f>H18/PEAK_CASES_UK</f>
+        <v>1.7509503513420111E-2</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>M18/PEAK_DEATHS_UK</f>
+        <v>2.0408163265306121E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="8">
         <v>43907</v>
       </c>
@@ -18291,8 +18790,16 @@
         <f t="shared" si="15"/>
         <v>0.50761904761904764</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="AD19" s="1">
+        <f>H19/PEAK_CASES_UK</f>
+        <v>4.6883999539223592E-2</v>
+      </c>
+      <c r="AE19" s="1">
+        <f>M19/PEAK_DEATHS_UK</f>
+        <v>1.6326530612244899E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="8">
         <v>43908</v>
       </c>
@@ -18340,8 +18847,16 @@
         <f t="shared" si="15"/>
         <v>0.58057679409792085</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="AD20" s="1">
+        <f>H20/PEAK_CASES_UK</f>
+        <v>7.7871212993894712E-2</v>
+      </c>
+      <c r="AE20" s="1">
+        <f>M20/PEAK_DEATHS_UK</f>
+        <v>3.3673469387755103E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="8">
         <v>43909</v>
       </c>
@@ -18389,8 +18904,16 @@
         <f t="shared" si="15"/>
         <v>0.47568168920281606</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="AD21" s="1">
+        <f>H21/PEAK_CASES_UK</f>
+        <v>7.4069807625849554E-2</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>M21/PEAK_DEATHS_UK</f>
+        <v>4.0816326530612242E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="8">
         <v>43910</v>
       </c>
@@ -18438,8 +18961,16 @@
         <f t="shared" si="15"/>
         <v>0.38818168920281598</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="AD22" s="1">
+        <f>H22/PEAK_CASES_UK</f>
+        <v>8.2248588872249742E-2</v>
+      </c>
+      <c r="AE22" s="1">
+        <f>M22/PEAK_DEATHS_UK</f>
+        <v>3.3673469387755103E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="8">
         <v>43911</v>
       </c>
@@ -18487,8 +19018,16 @@
         <f t="shared" si="15"/>
         <v>0.33717281107529379</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="AD23" s="1">
+        <f>H23/PEAK_CASES_UK</f>
+        <v>0.11922589563414353</v>
+      </c>
+      <c r="AE23" s="1">
+        <f>M23/PEAK_DEATHS_UK</f>
+        <v>5.7142857142857141E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="8">
         <v>43912</v>
       </c>
@@ -18536,8 +19075,16 @@
         <f t="shared" si="15"/>
         <v>0.32019270963167301</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="AD24" s="1">
+        <f>H24/PEAK_CASES_UK</f>
+        <v>7.6604077871212997E-2</v>
+      </c>
+      <c r="AE24" s="1">
+        <f>M24/PEAK_DEATHS_UK</f>
+        <v>4.8979591836734691E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="8">
         <v>43913</v>
       </c>
@@ -18588,8 +19135,16 @@
         <f t="shared" si="15"/>
         <v>0.2656691268538674</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="AD25" s="1">
+        <f>H25/PEAK_CASES_UK</f>
+        <v>0.11139269669392927</v>
+      </c>
+      <c r="AE25" s="1">
+        <f>M25/PEAK_DEATHS_UK</f>
+        <v>5.5102040816326532E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="8">
         <v>43914</v>
       </c>
@@ -18641,8 +19196,16 @@
         <f t="shared" si="15"/>
         <v>0.24068634843825315</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="AD26" s="1">
+        <f>H26/PEAK_CASES_UK</f>
+        <v>0.1643819836424375</v>
+      </c>
+      <c r="AE26" s="1">
+        <f>M26/PEAK_DEATHS_UK</f>
+        <v>8.8775510204081629E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="8">
         <v>43915</v>
       </c>
@@ -18694,8 +19257,16 @@
         <f t="shared" si="15"/>
         <v>0.21523216202435108</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="AD27" s="1">
+        <f>H27/PEAK_CASES_UK</f>
+        <v>0.16726183619398688</v>
+      </c>
+      <c r="AE27" s="1">
+        <f>M27/PEAK_DEATHS_UK</f>
+        <v>4.3877551020408162E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="8">
         <v>43916</v>
       </c>
@@ -18747,8 +19318,16 @@
         <f t="shared" si="15"/>
         <v>0.2005574764037934</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="AD28" s="1">
+        <f>H28/PEAK_CASES_UK</f>
+        <v>0.24524824328994355</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>M28/PEAK_DEATHS_UK</f>
+        <v>0.11530612244897959</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="8">
         <v>43917</v>
       </c>
@@ -18800,8 +19379,16 @@
         <f t="shared" si="15"/>
         <v>0.22198551745106312</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="AD29" s="1">
+        <f>H29/PEAK_CASES_UK</f>
+        <v>0.33233498444879622</v>
+      </c>
+      <c r="AE29" s="1">
+        <f>M29/PEAK_DEATHS_UK</f>
+        <v>0.1846938775510204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="8">
         <v>43918</v>
       </c>
@@ -18853,8 +19440,16 @@
         <f t="shared" si="15"/>
         <v>0.25206255269597705</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="AD30" s="1">
+        <f>H30/PEAK_CASES_UK</f>
+        <v>0.29328418384978688</v>
+      </c>
+      <c r="AE30" s="1">
+        <f>M30/PEAK_DEATHS_UK</f>
+        <v>0.26530612244897961</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="8">
         <v>43919</v>
       </c>
@@ -18906,8 +19501,16 @@
         <f t="shared" si="15"/>
         <v>0.24114286262816109</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="AD31" s="1">
+        <f>H31/PEAK_CASES_UK</f>
+        <v>0.28026725031678379</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>M31/PEAK_DEATHS_UK</f>
+        <v>0.21326530612244898</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="8">
         <v>43920</v>
       </c>
@@ -18959,8 +19562,16 @@
         <f t="shared" ref="O32" si="40">SUM(N28:N32)/5</f>
         <v>0.2500796766207819</v>
       </c>
-    </row>
-    <row r="33" spans="1:15">
+      <c r="AD32" s="1">
+        <f>H32/PEAK_CASES_UK</f>
+        <v>0.30169335330031105</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>M32/PEAK_DEATHS_UK</f>
+        <v>0.18367346938775511</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="8">
         <v>43921</v>
       </c>
@@ -19012,8 +19623,16 @@
         <f t="shared" ref="O33:O34" si="48">SUM(N29:N33)/5</f>
         <v>0.25559684426496571</v>
       </c>
-    </row>
-    <row r="34" spans="1:15">
+      <c r="AD33" s="1">
+        <f>H33/PEAK_CASES_UK</f>
+        <v>0.34661905310448105</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>M33/PEAK_DEATHS_UK</f>
+        <v>0.38877551020408163</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="8">
         <v>43922</v>
       </c>
@@ -19065,8 +19684,16 @@
         <f t="shared" si="48"/>
         <v>0.25590727652980599</v>
       </c>
-    </row>
-    <row r="35" spans="1:15">
+      <c r="AD34" s="1">
+        <f>H34/PEAK_CASES_UK</f>
+        <v>0.49809929731597741</v>
+      </c>
+      <c r="AE34" s="1">
+        <f>M34/PEAK_DEATHS_UK</f>
+        <v>0.57448979591836735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="8">
         <v>43923</v>
       </c>
@@ -19118,8 +19745,16 @@
         <f t="shared" ref="O35" si="56">SUM(N31:N35)/5</f>
         <v>0.23578043132532106</v>
       </c>
-    </row>
-    <row r="36" spans="1:15">
+      <c r="AD35" s="1">
+        <f>H35/PEAK_CASES_UK</f>
+        <v>0.48888376915101944</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>M35/PEAK_DEATHS_UK</f>
+        <v>0.58061224489795915</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="8">
         <v>43924</v>
       </c>
@@ -19171,8 +19806,16 @@
         <f t="shared" ref="O36" si="64">SUM(N32:N36)/5</f>
         <v>0.24159309916092253</v>
       </c>
-    </row>
-    <row r="37" spans="1:15">
+      <c r="AD36" s="1">
+        <f>H36/PEAK_CASES_UK</f>
+        <v>0.51261375417578625</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>M36/PEAK_DEATHS_UK</f>
+        <v>0.69795918367346943</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="8">
         <v>43925</v>
       </c>
@@ -19224,8 +19867,16 @@
         <f t="shared" ref="O37" si="72">SUM(N33:N37)/5</f>
         <v>0.25155591772182462</v>
       </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="AD37" s="1">
+        <f>H37/PEAK_CASES_UK</f>
+        <v>0.43024997120147446</v>
+      </c>
+      <c r="AE37" s="1">
+        <f>M37/PEAK_DEATHS_UK</f>
+        <v>0.72244897959183674</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="8">
         <v>43926</v>
       </c>
@@ -19277,8 +19928,16 @@
         <f t="shared" ref="O38" si="80">SUM(N34:N38)/5</f>
         <v>0.22614051792628054</v>
       </c>
-    </row>
-    <row r="39" spans="1:15">
+      <c r="AD38" s="1">
+        <f>H38/PEAK_CASES_UK</f>
+        <v>0.67999078447183503</v>
+      </c>
+      <c r="AE38" s="1">
+        <f>M38/PEAK_DEATHS_UK</f>
+        <v>0.63163265306122451</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="8">
         <v>43927</v>
       </c>
@@ -19330,8 +19989,16 @@
         <f t="shared" ref="O39" si="88">SUM(N35:N39)/5</f>
         <v>0.18108353955480522</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="AD39" s="1">
+        <f>H39/PEAK_CASES_UK</f>
+        <v>0.43796797603962678</v>
+      </c>
+      <c r="AE39" s="1">
+        <f>M39/PEAK_DEATHS_UK</f>
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="8">
         <v>43928</v>
       </c>
@@ -19383,8 +20050,16 @@
         <f t="shared" ref="O40" si="96">SUM(N36:N40)/5</f>
         <v>0.16195658391492782</v>
       </c>
-    </row>
-    <row r="41" spans="1:15">
+      <c r="AD40" s="1">
+        <f>H40/PEAK_CASES_UK</f>
+        <v>0.41861536689321505</v>
+      </c>
+      <c r="AE40" s="1">
+        <f>M40/PEAK_DEATHS_UK</f>
+        <v>0.80204081632653057</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="8">
         <v>43929</v>
       </c>
@@ -19436,8 +20111,16 @@
         <f t="shared" ref="O41" si="104">SUM(N37:N41)/5</f>
         <v>0.14558279781665645</v>
       </c>
-    </row>
-    <row r="42" spans="1:15">
+      <c r="AD41" s="1">
+        <f>H41/PEAK_CASES_UK</f>
+        <v>0.63713857850478051</v>
+      </c>
+      <c r="AE41" s="1">
+        <f>M41/PEAK_DEATHS_UK</f>
+        <v>0.95714285714285718</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="8">
         <v>43930</v>
       </c>
@@ -19489,8 +20172,16 @@
         <f t="shared" ref="O42" si="112">SUM(N38:N42)/5</f>
         <v>0.13113141019941588</v>
       </c>
-    </row>
-    <row r="43" spans="1:15">
+      <c r="AD42" s="1">
+        <f>H42/PEAK_CASES_UK</f>
+        <v>0.49579541527473792</v>
+      </c>
+      <c r="AE42" s="1">
+        <f>M42/PEAK_DEATHS_UK</f>
+        <v>0.8989795918367347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="8">
         <v>43931</v>
       </c>
@@ -19542,8 +20233,16 @@
         <f t="shared" ref="O43" si="120">SUM(N39:N43)/5</f>
         <v>0.12699505260532029</v>
       </c>
-    </row>
-    <row r="44" spans="1:15">
+      <c r="AD43" s="1">
+        <f>H43/PEAK_CASES_UK</f>
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <f>M43/PEAK_DEATHS_UK</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="8">
         <v>43932</v>
       </c>
@@ -19595,8 +20294,16 @@
         <f t="shared" ref="O44" si="128">SUM(N40:N44)/5</f>
         <v>0.12958516086397426</v>
       </c>
-    </row>
-    <row r="45" spans="1:15">
+      <c r="AD44" s="1">
+        <f>H44/PEAK_CASES_UK</f>
+        <v>0.60281073609031222</v>
+      </c>
+      <c r="AE44" s="1">
+        <f>M44/PEAK_DEATHS_UK</f>
+        <v>0.93571428571428572</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="8">
         <v>43933</v>
       </c>
@@ -19648,8 +20355,16 @@
         <f t="shared" ref="O45" si="136">SUM(N41:N45)/5</f>
         <v>0.11525434504083605</v>
       </c>
-    </row>
-    <row r="46" spans="1:15">
+      <c r="AD45" s="1">
+        <f>H45/PEAK_CASES_UK</f>
+        <v>0.60914641170372075</v>
+      </c>
+      <c r="AE45" s="1">
+        <f>M45/PEAK_DEATHS_UK</f>
+        <v>0.75204081632653064</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="8">
         <v>43934</v>
       </c>
@@ -19701,8 +20416,16 @@
         <f t="shared" ref="O46" si="144">SUM(N42:N46)/5</f>
         <v>9.8307859010108786E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:15">
+      <c r="AD46" s="1">
+        <f>H46/PEAK_CASES_UK</f>
+        <v>0.50017279115309299</v>
+      </c>
+      <c r="AE46" s="1">
+        <f>M46/PEAK_DEATHS_UK</f>
+        <v>0.73163265306122449</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
       <c r="A47" s="8">
         <v>43935</v>
       </c>
@@ -19754,8 +20477,16 @@
         <f t="shared" ref="O47" si="152">SUM(N43:N47)/5</f>
         <v>8.7215130407992086E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:15">
+      <c r="AD47" s="1">
+        <f>H47/PEAK_CASES_UK</f>
+        <v>0.6049994240294897</v>
+      </c>
+      <c r="AE47" s="1">
+        <f>M47/PEAK_DEATHS_UK</f>
+        <v>0.79387755102040813</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="8">
         <v>43936</v>
       </c>
@@ -19807,8 +20538,16 @@
         <f t="shared" ref="O48" si="160">SUM(N44:N48)/5</f>
         <v>7.5218809394454092E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="AD48" s="1">
+        <f>H48/PEAK_CASES_UK</f>
+        <v>0.53023845179126827</v>
+      </c>
+      <c r="AE48" s="1">
+        <f>M48/PEAK_DEATHS_UK</f>
+        <v>0.77653061224489794</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="8">
         <v>43937</v>
       </c>
@@ -19860,8 +20599,16 @@
         <f t="shared" ref="O49" si="168">SUM(N45:N49)/5</f>
         <v>6.8127522406921409E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="AD49" s="1">
+        <f>H49/PEAK_CASES_UK</f>
+        <v>0.53185116922013598</v>
+      </c>
+      <c r="AE49" s="1">
+        <f>M49/PEAK_DEATHS_UK</f>
+        <v>0.87857142857142856</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="8">
         <v>43938</v>
       </c>
@@ -19913,8 +20660,16 @@
         <f t="shared" ref="O50" si="176">SUM(N46:N50)/5</f>
         <v>6.5539784909560653E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="AD50" s="1">
+        <f>H50/PEAK_CASES_UK</f>
+        <v>0.64497177744499479</v>
+      </c>
+      <c r="AE50" s="1">
+        <f>M50/PEAK_DEATHS_UK</f>
+        <v>0.86428571428571432</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" s="8">
         <v>43939</v>
       </c>
@@ -19966,8 +20721,16 @@
         <f t="shared" ref="O51" si="184">SUM(N47:N51)/5</f>
         <v>6.421119349657127E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="AD51" s="1">
+        <f>H51/PEAK_CASES_UK</f>
+        <v>0.63644741389240866</v>
+      </c>
+      <c r="AE51" s="1">
+        <f>M51/PEAK_DEATHS_UK</f>
+        <v>0.90612244897959182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="8">
         <v>43940</v>
       </c>
@@ -20019,8 +20782,16 @@
         <f t="shared" ref="O52" si="192">SUM(N48:N52)/5</f>
         <v>5.8184755799104648E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="AD52" s="1">
+        <f>H52/PEAK_CASES_UK</f>
+        <v>0.67388549706255041</v>
+      </c>
+      <c r="AE52" s="1">
+        <f>M52/PEAK_DEATHS_UK</f>
+        <v>0.60816326530612241</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" s="8">
         <v>43941</v>
       </c>
@@ -20033,7 +20804,7 @@
       <c r="N53" s="1"/>
       <c r="O53" s="16"/>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:31">
       <c r="A54" s="8">
         <v>43942</v>
       </c>
@@ -20046,7 +20817,7 @@
       <c r="N54" s="1"/>
       <c r="O54" s="16"/>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:31">
       <c r="A55" s="8">
         <v>43943</v>
       </c>
@@ -20060,11 +20831,12 @@
       <c r="O55" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="L3:O3"/>
     <mergeCell ref="G3:J3"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P1" r:id="rId1"/>
@@ -20078,10 +20850,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:O61"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20098,9 +20870,10 @@
     <col min="12" max="12" width="8.85546875" style="2"/>
     <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="30" max="31" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5">
+    <row r="1" spans="1:31" ht="28.5">
       <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
@@ -20122,7 +20895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -20144,8 +20917,12 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="AD3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="26"/>
+    </row>
+    <row r="4" spans="1:31" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -20186,8 +20963,14 @@
       <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="AD4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="8">
         <v>43885</v>
       </c>
@@ -20218,7 +21001,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:31">
       <c r="A7" s="8">
         <v>43886</v>
       </c>
@@ -20259,8 +21042,16 @@
         <v>0.4285714285714286</v>
       </c>
       <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="AD7" s="1">
+        <f>H7/PEAK_CASES</f>
+        <v>1.4183315540643587E-2</v>
+      </c>
+      <c r="AE7" s="1">
+        <f>M7/PEAK_DEATHS</f>
+        <v>3.0959752321981426E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="8">
         <v>43887</v>
       </c>
@@ -20301,8 +21092,16 @@
         <v>0.19999999999999996</v>
       </c>
       <c r="O8" s="16"/>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="AD8" s="1">
+        <f>H8/PEAK_CASES</f>
+        <v>1.1895684001830106E-2</v>
+      </c>
+      <c r="AE8" s="1">
+        <f>M8/PEAK_DEATHS</f>
+        <v>2.0639834881320948E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
       <c r="A9" s="8">
         <v>43888</v>
       </c>
@@ -20343,8 +21142,16 @@
         <v>0.41666666666666674</v>
       </c>
       <c r="O9" s="16"/>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="AD9" s="1">
+        <f>H9/PEAK_CASES</f>
+        <v>3.8127192313558031E-2</v>
+      </c>
+      <c r="AE9" s="1">
+        <f>M9/PEAK_DEATHS</f>
+        <v>5.1599587203302374E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
       <c r="A10" s="8">
         <v>43889</v>
       </c>
@@ -20392,8 +21199,16 @@
         <f t="shared" ref="O10:O26" si="7">SUM(N6:N10)/5</f>
         <v>0.25610644257703086</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="AD10" s="1">
+        <f>H10/PEAK_CASES</f>
+        <v>3.6297087082507243E-2</v>
+      </c>
+      <c r="AE10" s="1">
+        <f>M10/PEAK_DEATHS</f>
+        <v>4.1279669762641896E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
       <c r="A11" s="8">
         <v>43890</v>
       </c>
@@ -20441,8 +21256,16 @@
         <f t="shared" si="7"/>
         <v>0.332296918767507</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="AD11" s="1">
+        <f>H11/PEAK_CASES</f>
+        <v>3.6602104621015707E-2</v>
+      </c>
+      <c r="AE11" s="1">
+        <f>M11/PEAK_DEATHS</f>
+        <v>8.2559339525283791E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
       <c r="A12" s="8">
         <v>43891</v>
       </c>
@@ -20490,8 +21313,16 @@
         <f t="shared" si="7"/>
         <v>0.28106539167391092</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="AD12" s="1">
+        <f>H12/PEAK_CASES</f>
+        <v>8.6319963397895383E-2</v>
+      </c>
+      <c r="AE12" s="1">
+        <f>M12/PEAK_DEATHS</f>
+        <v>5.1599587203302374E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
       <c r="A13" s="8">
         <v>43892</v>
       </c>
@@ -20539,8 +21370,16 @@
         <f t="shared" si="7"/>
         <v>0.34694774461508737</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="AD13" s="1">
+        <f>H13/PEAK_CASES</f>
+        <v>5.2157999084947386E-2</v>
+      </c>
+      <c r="AE13" s="1">
+        <f>M13/PEAK_DEATHS</f>
+        <v>1.8575851393188854E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
       <c r="A14" s="8">
         <v>43893</v>
       </c>
@@ -20588,8 +21427,16 @@
         <f t="shared" si="7"/>
         <v>0.36746056512790787</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="AD14" s="1">
+        <f>H14/PEAK_CASES</f>
+        <v>7.1069086472472162E-2</v>
+      </c>
+      <c r="AE14" s="1">
+        <f>M14/PEAK_DEATHS</f>
+        <v>2.7863777089783281E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
       <c r="A15" s="8">
         <v>43894</v>
       </c>
@@ -20637,8 +21484,16 @@
         <f t="shared" si="7"/>
         <v>0.39128781754786318</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="AD15" s="1">
+        <f>H15/PEAK_CASES</f>
+        <v>8.9522647552234255E-2</v>
+      </c>
+      <c r="AE15" s="1">
+        <f>M15/PEAK_DEATHS</f>
+        <v>2.8895768833849329E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
       <c r="A16" s="8">
         <v>43895</v>
       </c>
@@ -20686,8 +21541,16 @@
         <f t="shared" si="7"/>
         <v>0.39173285537607855</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="AD16" s="1">
+        <f>H16/PEAK_CASES</f>
+        <v>0.1172792435565045</v>
+      </c>
+      <c r="AE16" s="1">
+        <f>M16/PEAK_DEATHS</f>
+        <v>4.2311661506707947E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
       <c r="A17" s="8">
         <v>43896</v>
       </c>
@@ -20735,8 +21598,16 @@
         <f t="shared" si="7"/>
         <v>0.42346631297160514</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="AD17" s="1">
+        <f>H17/PEAK_CASES</f>
+        <v>0.11865182247979258</v>
+      </c>
+      <c r="AE17" s="1">
+        <f>M17/PEAK_DEATHS</f>
+        <v>5.0567595459236329E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" s="8">
         <v>43897</v>
       </c>
@@ -20784,8 +21655,16 @@
         <f t="shared" si="7"/>
         <v>0.35413218338068253</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="AD18" s="1">
+        <f>H18/PEAK_CASES</f>
+        <v>0.19017843526002745</v>
+      </c>
+      <c r="AE18" s="1">
+        <f>M18/PEAK_DEATHS</f>
+        <v>3.7151702786377708E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
       <c r="A19" s="8">
         <v>43898</v>
       </c>
@@ -20833,8 +21712,16 @@
         <f t="shared" si="7"/>
         <v>0.36444911966328408</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="AD19" s="1">
+        <f>H19/PEAK_CASES</f>
+        <v>0.22754308372731433</v>
+      </c>
+      <c r="AE19" s="1">
+        <f>M19/PEAK_DEATHS</f>
+        <v>0.13725490196078433</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" s="8">
         <v>43899</v>
       </c>
@@ -20885,8 +21772,16 @@
         <f t="shared" si="7"/>
         <v>0.34656850819479129</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="AD20" s="1">
+        <f>H20/PEAK_CASES</f>
+        <v>0.27405825834985514</v>
+      </c>
+      <c r="AE20" s="1">
+        <f>M20/PEAK_DEATHS</f>
+        <v>0.1001031991744066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
       <c r="A21" s="8">
         <v>43900</v>
       </c>
@@ -20937,8 +21832,16 @@
         <f t="shared" si="7"/>
         <v>0.34250318856054895</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="AD21" s="1">
+        <f>H21/PEAK_CASES</f>
+        <v>0.14900106756138479</v>
+      </c>
+      <c r="AE21" s="1">
+        <f>M21/PEAK_DEATHS</f>
+        <v>0.17337461300309598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
       <c r="A22" s="8">
         <v>43901</v>
       </c>
@@ -20989,8 +21892,16 @@
         <f t="shared" si="7"/>
         <v>0.33841058565653559</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="AD22" s="1">
+        <f>H22/PEAK_CASES</f>
+        <v>0.3527527832850389</v>
+      </c>
+      <c r="AE22" s="1">
+        <f>M22/PEAK_DEATHS</f>
+        <v>0.20227038183694532</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
       <c r="A23" s="8">
         <v>43902</v>
       </c>
@@ -21041,8 +21952,16 @@
         <f t="shared" si="7"/>
         <v>0.34756973836432287</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="AD23" s="1">
+        <f>H23/PEAK_CASES</f>
+        <v>0.40430074729296933</v>
+      </c>
+      <c r="AE23" s="1">
+        <f>M23/PEAK_DEATHS</f>
+        <v>0.19504643962848298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
       <c r="A24" s="8">
         <v>43903</v>
       </c>
@@ -21093,8 +22012,16 @@
         <f t="shared" si="7"/>
         <v>0.28261924666076432</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="AD24" s="1">
+        <f>H24/PEAK_CASES</f>
+        <v>0.38843983529052922</v>
+      </c>
+      <c r="AE24" s="1">
+        <f>M24/PEAK_DEATHS</f>
+        <v>0.25799793601651189</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
       <c r="A25" s="8">
         <v>43904</v>
       </c>
@@ -21145,8 +22072,16 @@
         <f t="shared" si="7"/>
         <v>0.25725991172175416</v>
       </c>
-    </row>
-    <row r="26" spans="1:15">
+      <c r="AD25" s="1">
+        <f>H25/PEAK_CASES</f>
+        <v>0.53332316608204977</v>
+      </c>
+      <c r="AE25" s="1">
+        <f>M25/PEAK_DEATHS</f>
+        <v>0.18059855521155832</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
       <c r="A26" s="8">
         <v>43905</v>
       </c>
@@ -21197,8 +22132,16 @@
         <f t="shared" si="7"/>
         <v>0.2357653592526415</v>
       </c>
-    </row>
-    <row r="27" spans="1:15">
+      <c r="AD26" s="1">
+        <f>H26/PEAK_CASES</f>
+        <v>0.54750648162269333</v>
+      </c>
+      <c r="AE26" s="1">
+        <f>M26/PEAK_DEATHS</f>
+        <v>0.37977296181630549</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
       <c r="A27" s="8">
         <v>43906</v>
       </c>
@@ -21249,8 +22192,16 @@
         <f t="shared" ref="O27:O39" si="14">SUM(N23:N27)/5</f>
         <v>0.21222659945066527</v>
       </c>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="AD27" s="1">
+        <f>H27/PEAK_CASES</f>
+        <v>0.49306085099893243</v>
+      </c>
+      <c r="AE27" s="1">
+        <f>M27/PEAK_DEATHS</f>
+        <v>0.36016511867905054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
       <c r="A28" s="8">
         <v>43907</v>
       </c>
@@ -21301,8 +22252,16 @@
         <f t="shared" si="14"/>
         <v>0.19849327343896336</v>
       </c>
-    </row>
-    <row r="29" spans="1:15">
+      <c r="AD28" s="1">
+        <f>H28/PEAK_CASES</f>
+        <v>0.53774592039042246</v>
+      </c>
+      <c r="AE28" s="1">
+        <f>M28/PEAK_DEATHS</f>
+        <v>0.35603715170278638</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" s="8">
         <v>43908</v>
       </c>
@@ -21353,8 +22312,16 @@
         <f t="shared" si="14"/>
         <v>0.1872351296681812</v>
       </c>
-    </row>
-    <row r="30" spans="1:15">
+      <c r="AD29" s="1">
+        <f>H29/PEAK_CASES</f>
+        <v>0.6416043922525545</v>
+      </c>
+      <c r="AE29" s="1">
+        <f>M29/PEAK_DEATHS</f>
+        <v>0.49019607843137253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
       <c r="A30" s="8">
         <v>43909</v>
       </c>
@@ -21405,8 +22372,16 @@
         <f t="shared" si="14"/>
         <v>0.18826596453195843</v>
       </c>
-    </row>
-    <row r="31" spans="1:15">
+      <c r="AD30" s="1">
+        <f>H30/PEAK_CASES</f>
+        <v>0.81165166997102334</v>
+      </c>
+      <c r="AE30" s="1">
+        <f>M30/PEAK_DEATHS</f>
+        <v>0.44066047471620229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
       <c r="A31" s="8">
         <v>43910</v>
       </c>
@@ -21457,8 +22432,16 @@
         <f t="shared" si="14"/>
         <v>0.17401851644922101</v>
       </c>
-    </row>
-    <row r="32" spans="1:15">
+      <c r="AD31" s="1">
+        <f>H31/PEAK_CASES</f>
+        <v>0.91291749275583345</v>
+      </c>
+      <c r="AE31" s="1">
+        <f>M31/PEAK_DEATHS</f>
+        <v>0.6470588235294118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
       <c r="A32" s="8">
         <v>43911</v>
       </c>
@@ -21509,8 +22492,16 @@
         <f t="shared" si="14"/>
         <v>0.17476898039931182</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="AD32" s="1">
+        <f>H32/PEAK_CASES</f>
+        <v>1</v>
+      </c>
+      <c r="AE32" s="1">
+        <f>M32/PEAK_DEATHS</f>
+        <v>0.81836945304437569</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
       <c r="A33" s="8">
         <v>43912</v>
       </c>
@@ -21561,8 +22552,16 @@
         <f t="shared" si="14"/>
         <v>0.16977938631152184</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="AD33" s="1">
+        <f>H33/PEAK_CASES</f>
+        <v>0.84794875705353057</v>
+      </c>
+      <c r="AE33" s="1">
+        <f>M33/PEAK_DEATHS</f>
+        <v>0.67182662538699689</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
       <c r="A34" s="8">
         <v>43913</v>
       </c>
@@ -21613,8 +22612,16 @@
         <f t="shared" si="14"/>
         <v>0.15377526036419259</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="AD34" s="1">
+        <f>H34/PEAK_CASES</f>
+        <v>0.7303644959585176</v>
+      </c>
+      <c r="AE34" s="1">
+        <f>M34/PEAK_DEATHS</f>
+        <v>0.62022703818369451</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
       <c r="A35" s="8">
         <v>43914</v>
       </c>
@@ -21665,8 +22672,16 @@
         <f t="shared" si="14"/>
         <v>0.14955115098570282</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="AD35" s="1">
+        <f>H35/PEAK_CASES</f>
+        <v>0.80051852981546434</v>
+      </c>
+      <c r="AE35" s="1">
+        <f>M35/PEAK_DEATHS</f>
+        <v>0.76676986584107332</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
       <c r="A36" s="8">
         <v>43915</v>
       </c>
@@ -21717,8 +22732,16 @@
         <f t="shared" si="14"/>
         <v>0.13275228266630018</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="AD36" s="1">
+        <f>H36/PEAK_CASES</f>
+        <v>0.79457068781454931</v>
+      </c>
+      <c r="AE36" s="1">
+        <f>M36/PEAK_DEATHS</f>
+        <v>0.70485036119711042</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
       <c r="A37" s="8">
         <v>43916</v>
       </c>
@@ -21769,8 +22792,16 @@
         <f t="shared" si="14"/>
         <v>0.11106324002938668</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="AD37" s="1">
+        <f>H37/PEAK_CASES</f>
+        <v>0.93838645722129022</v>
+      </c>
+      <c r="AE37" s="1">
+        <f>M37/PEAK_DEATHS</f>
+        <v>0.68317853457172339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
       <c r="A38" s="8">
         <v>43917</v>
       </c>
@@ -21821,8 +22852,16 @@
         <f t="shared" si="14"/>
         <v>0.10781424028639167</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="AD38" s="1">
+        <f>H38/PEAK_CASES</f>
+        <v>0.90879975598596918</v>
+      </c>
+      <c r="AE38" s="1">
+        <f>M38/PEAK_DEATHS</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
       <c r="A39" s="8">
         <v>43918</v>
       </c>
@@ -21873,8 +22912,16 @@
         <f t="shared" si="14"/>
         <v>0.1053296440075961</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="AD39" s="1">
+        <f>H39/PEAK_CASES</f>
+        <v>0.91108738752478269</v>
+      </c>
+      <c r="AE39" s="1">
+        <f>M39/PEAK_DEATHS</f>
+        <v>0.91744066047471617</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
       <c r="A40" s="8">
         <v>43919</v>
       </c>
@@ -21925,8 +22972,16 @@
         <f t="shared" ref="O40" si="22">SUM(N36:N40)/5</f>
         <v>9.5962092781701619E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="AD40" s="1">
+        <f>H40/PEAK_CASES</f>
+        <v>0.79563824919932891</v>
+      </c>
+      <c r="AE40" s="1">
+        <f>M40/PEAK_DEATHS</f>
+        <v>0.7801857585139319</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
       <c r="A41" s="8">
         <v>43920</v>
       </c>
@@ -21977,8 +23032,16 @@
         <f t="shared" ref="O41" si="29">SUM(N37:N41)/5</f>
         <v>9.0999099952427581E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="AD41" s="1">
+        <f>H41/PEAK_CASES</f>
+        <v>0.61766051547964007</v>
+      </c>
+      <c r="AE41" s="1">
+        <f>M41/PEAK_DEATHS</f>
+        <v>0.83797729618163053</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
       <c r="A42" s="8">
         <v>43921</v>
       </c>
@@ -22029,8 +23092,16 @@
         <f t="shared" ref="O42" si="36">SUM(N38:N42)/5</f>
         <v>8.7795064797732136E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="AD42" s="1">
+        <f>H42/PEAK_CASES</f>
+        <v>0.64556962025316456</v>
+      </c>
+      <c r="AE42" s="1">
+        <f>M42/PEAK_DEATHS</f>
+        <v>0.86377708978328172</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
       <c r="A43" s="8">
         <v>43922</v>
       </c>
@@ -22081,8 +23152,16 @@
         <f t="shared" ref="O43" si="43">SUM(N39:N43)/5</f>
         <v>7.5758997059809111E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="AD43" s="1">
+        <f>H43/PEAK_CASES</f>
+        <v>0.70184535610797616</v>
+      </c>
+      <c r="AE43" s="1">
+        <f>M43/PEAK_DEATHS</f>
+        <v>0.75025799793601655</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
       <c r="A44" s="8">
         <v>43923</v>
       </c>
@@ -22133,8 +23212,16 @@
         <f t="shared" ref="O44:O45" si="51">SUM(N40:N44)/5</f>
         <v>6.7847806630759025E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="AD44" s="1">
+        <f>H44/PEAK_CASES</f>
+        <v>0.71191093487875556</v>
+      </c>
+      <c r="AE44" s="1">
+        <f>M44/PEAK_DEATHS</f>
+        <v>0.78431372549019607</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
       <c r="A45" s="8">
         <v>43924</v>
       </c>
@@ -22185,8 +23272,16 @@
         <f t="shared" si="51"/>
         <v>6.3772204590191839E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="AD45" s="1">
+        <f>H45/PEAK_CASES</f>
+        <v>0.69925270703065423</v>
+      </c>
+      <c r="AE45" s="1">
+        <f>M45/PEAK_DEATHS</f>
+        <v>0.79050567595459231</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
       <c r="A46" s="8">
         <v>43925</v>
       </c>
@@ -22237,8 +23332,16 @@
         <f t="shared" ref="O46" si="59">SUM(N42:N46)/5</f>
         <v>5.7983169093109542E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" s="2" customFormat="1">
+      <c r="AD46" s="1">
+        <f>H46/PEAK_CASES</f>
+        <v>0.73280463626658532</v>
+      </c>
+      <c r="AE46" s="1">
+        <f>M46/PEAK_DEATHS</f>
+        <v>0.70278637770897834</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31" s="2" customFormat="1">
       <c r="A47" s="8">
         <v>43926</v>
       </c>
@@ -22291,8 +23394,16 @@
         <v>5.0375976944255239E-2</v>
       </c>
       <c r="P47"/>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="AD47" s="1">
+        <f>H47/PEAK_CASES</f>
+        <v>0.65822784810126578</v>
+      </c>
+      <c r="AE47" s="1">
+        <f>M47/PEAK_DEATHS</f>
+        <v>0.54179566563467496</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
       <c r="A48" s="8">
         <v>43927</v>
       </c>
@@ -22343,8 +23454,16 @@
         <f t="shared" ref="O48:O49" si="75">SUM(N44:N48)/5</f>
         <v>4.6683134699393003E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:15">
+      <c r="AD48" s="1">
+        <f>H48/PEAK_CASES</f>
+        <v>0.54887906054598135</v>
+      </c>
+      <c r="AE48" s="1">
+        <f>M48/PEAK_DEATHS</f>
+        <v>0.65634674922600622</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
       <c r="A49" s="8">
         <v>43928</v>
       </c>
@@ -22395,8 +23514,16 @@
         <f t="shared" si="75"/>
         <v>4.243961370118203E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:15">
+      <c r="AD49" s="1">
+        <f>H49/PEAK_CASES</f>
+        <v>0.4634741497636114</v>
+      </c>
+      <c r="AE49" s="1">
+        <f>M49/PEAK_DEATHS</f>
+        <v>0.62332301341589269</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
       <c r="A50" s="8">
         <v>43929</v>
       </c>
@@ -22447,8 +23574,16 @@
         <f t="shared" ref="O50" si="83">SUM(N46:N50)/5</f>
         <v>3.7759099772570123E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:15">
+      <c r="AD50" s="1">
+        <f>H50/PEAK_CASES</f>
+        <v>0.58502363885923436</v>
+      </c>
+      <c r="AE50" s="1">
+        <f>M50/PEAK_DEATHS</f>
+        <v>0.55933952528379771</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
       <c r="A51" s="8">
         <v>43930</v>
       </c>
@@ -22499,8 +23634,16 @@
         <f t="shared" ref="O51" si="91">SUM(N47:N51)/5</f>
         <v>3.5386551015182691E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:15">
+      <c r="AD51" s="1">
+        <f>H51/PEAK_CASES</f>
+        <v>0.64114686594479187</v>
+      </c>
+      <c r="AE51" s="1">
+        <f>M51/PEAK_DEATHS</f>
+        <v>0.62951496388028894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
       <c r="A52" s="8">
         <v>43931</v>
       </c>
@@ -22551,8 +23694,16 @@
         <f t="shared" ref="O52" si="99">SUM(N48:N52)/5</f>
         <v>3.4788168520767514E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:15">
+      <c r="AD52" s="1">
+        <f>H52/PEAK_CASES</f>
+        <v>0.60256214732347113</v>
+      </c>
+      <c r="AE52" s="1">
+        <f>M52/PEAK_DEATHS</f>
+        <v>0.58823529411764708</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
       <c r="A53" s="8">
         <v>43932</v>
       </c>
@@ -22603,8 +23754,16 @@
         <f t="shared" ref="O53" si="107">SUM(N49:N53)/5</f>
         <v>3.3349609979653305E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:15">
+      <c r="AD53" s="1">
+        <f>H53/PEAK_CASES</f>
+        <v>0.71587616287936562</v>
+      </c>
+      <c r="AE53" s="1">
+        <f>M53/PEAK_DEATHS</f>
+        <v>0.63880288957688336</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
       <c r="A54" s="8">
         <v>43933</v>
       </c>
@@ -22655,8 +23814,16 @@
         <f t="shared" ref="O54" si="115">SUM(N50:N54)/5</f>
         <v>3.046636789787658E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:15">
+      <c r="AD54" s="1">
+        <f>H54/PEAK_CASES</f>
+        <v>0.62406588378831784</v>
+      </c>
+      <c r="AE54" s="1">
+        <f>M54/PEAK_DEATHS</f>
+        <v>0.44478844169246645</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
       <c r="A55" s="8">
         <v>43934</v>
       </c>
@@ -22707,8 +23874,16 @@
         <f t="shared" ref="O55" si="123">SUM(N51:N55)/5</f>
         <v>2.9825908142586365E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:15">
+      <c r="AD55" s="1">
+        <f>H55/PEAK_CASES</f>
+        <v>0.48086014945859384</v>
+      </c>
+      <c r="AE55" s="1">
+        <f>M55/PEAK_DEATHS</f>
+        <v>0.58410732714138291</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
       <c r="A56" s="8">
         <v>43935</v>
       </c>
@@ -22759,8 +23934,16 @@
         <f t="shared" ref="O56" si="131">SUM(N52:N56)/5</f>
         <v>2.8804374958674828E-2</v>
       </c>
-    </row>
-    <row r="57" spans="1:15">
+      <c r="AD56" s="1">
+        <f>H56/PEAK_CASES</f>
+        <v>0.45325606222357784</v>
+      </c>
+      <c r="AE56" s="1">
+        <f>M56/PEAK_DEATHS</f>
+        <v>0.62125902992776061</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
       <c r="A57" s="8">
         <v>43936</v>
       </c>
@@ -22811,8 +23994,16 @@
         <f t="shared" ref="O57" si="139">SUM(N53:N57)/5</f>
         <v>2.8054964881733469E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:15">
+      <c r="AD57" s="1">
+        <f>H57/PEAK_CASES</f>
+        <v>0.40674088760103705</v>
+      </c>
+      <c r="AE57" s="1">
+        <f>M57/PEAK_DEATHS</f>
+        <v>0.59649122807017541</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
       <c r="A58" s="8">
         <v>43937</v>
       </c>
@@ -22863,8 +24054,16 @@
         <f t="shared" ref="O58" si="147">SUM(N54:N58)/5</f>
         <v>2.6337982041083619E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:15">
+      <c r="AD58" s="1">
+        <f>H58/PEAK_CASES</f>
+        <v>0.57739820039652279</v>
+      </c>
+      <c r="AE58" s="1">
+        <f>M58/PEAK_DEATHS</f>
+        <v>0.54179566563467496</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
       <c r="A59" s="8">
         <v>43938</v>
       </c>
@@ -22915,8 +24114,16 @@
         <f>SUM(N55:N59)/5</f>
         <v>2.7097393018087688E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:15">
+      <c r="AD59" s="1">
+        <f>H59/PEAK_CASES</f>
+        <v>0.53271313100503281</v>
+      </c>
+      <c r="AE59" s="1">
+        <f>M59/PEAK_DEATHS</f>
+        <v>0.59339525283797734</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
       <c r="A60" s="8">
         <v>43939</v>
       </c>
@@ -22928,11 +24135,11 @@
         <v>1305833</v>
       </c>
       <c r="D60" s="2">
-        <f t="shared" ref="D60:D61" si="148">C60-C59</f>
+        <f t="shared" ref="D60" si="148">C60-C59</f>
         <v>61725</v>
       </c>
       <c r="E60" s="11">
-        <f t="shared" ref="E60:E61" si="149">H60/D60</f>
+        <f t="shared" ref="E60" si="149">H60/D60</f>
         <v>5.6557310652085864E-2</v>
       </c>
       <c r="G60" s="2">
@@ -22940,15 +24147,15 @@
         <v>175925</v>
       </c>
       <c r="H60" s="3">
-        <f t="shared" ref="H60:H61" si="150">G60-G59</f>
+        <f t="shared" ref="H60" si="150">G60-G59</f>
         <v>3491</v>
       </c>
       <c r="I60" s="1">
-        <f t="shared" ref="I60:I61" si="151">G60/G59-1</f>
+        <f t="shared" ref="I60" si="151">G60/G59-1</f>
         <v>2.0245427235928037E-2</v>
       </c>
       <c r="J60" s="16">
-        <f t="shared" ref="J60:J61" si="152">SUM(I56:I60)/5</f>
+        <f t="shared" ref="J60" si="152">SUM(I56:I60)/5</f>
         <v>1.9778016814610354E-2</v>
       </c>
       <c r="L60" s="2">
@@ -22956,30 +24163,87 @@
         <v>23227</v>
       </c>
       <c r="M60">
-        <f t="shared" ref="M60:M61" si="153">L60-L59</f>
+        <f t="shared" ref="M60" si="153">L60-L59</f>
         <v>482</v>
       </c>
       <c r="N60" s="1">
-        <f t="shared" ref="N60:N61" si="154">L60/L59-1</f>
+        <f t="shared" ref="N60" si="154">L60/L59-1</f>
         <v>2.1191470652890843E-2</v>
       </c>
       <c r="O60" s="16">
-        <f t="shared" ref="O60:O61" si="155">SUM(N56:N60)/5</f>
+        <f t="shared" ref="O60" si="155">SUM(N56:N60)/5</f>
         <v>2.5646959071878063E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:15">
+      <c r="AD60" s="1">
+        <f>H60/PEAK_CASES</f>
+        <v>0.53240811346652428</v>
+      </c>
+      <c r="AE60" s="1">
+        <f>M60/PEAK_DEATHS</f>
+        <v>0.49742002063983487</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
       <c r="A61" s="8">
         <v>43940</v>
       </c>
       <c r="B61" s="13">
         <v>41</v>
       </c>
-      <c r="H61" s="3"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="16"/>
-    </row>
-    <row r="62" spans="1:15">
+      <c r="C61" s="2">
+        <f>Data!C156</f>
+        <v>1356541</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" ref="D61" si="156">C61-C60</f>
+        <v>50708</v>
+      </c>
+      <c r="E61" s="11">
+        <f t="shared" ref="E61" si="157">H61/D61</f>
+        <v>6.0089137808629803E-2</v>
+      </c>
+      <c r="G61" s="2">
+        <f>Data!D156</f>
+        <v>178972</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" ref="H61" si="158">G61-G60</f>
+        <v>3047</v>
+      </c>
+      <c r="I61" s="1">
+        <f t="shared" ref="I61" si="159">G61/G60-1</f>
+        <v>1.731988063095069E-2</v>
+      </c>
+      <c r="J61" s="16">
+        <f t="shared" ref="J61" si="160">SUM(I57:I61)/5</f>
+        <v>1.9515720968083006E-2</v>
+      </c>
+      <c r="L61" s="2">
+        <f>Data!E156</f>
+        <v>23660</v>
+      </c>
+      <c r="M61">
+        <f t="shared" ref="M61" si="161">L61-L60</f>
+        <v>433</v>
+      </c>
+      <c r="N61" s="1">
+        <f t="shared" ref="N61" si="162">L61/L60-1</f>
+        <v>1.864209755887547E-2</v>
+      </c>
+      <c r="O61" s="16">
+        <f t="shared" ref="O61" si="163">SUM(N57:N61)/5</f>
+        <v>2.3492163338111993E-2</v>
+      </c>
+      <c r="AD61" s="1">
+        <f>H61/PEAK_CASES</f>
+        <v>0.46469421991764526</v>
+      </c>
+      <c r="AE61" s="1">
+        <f>M61/PEAK_DEATHS</f>
+        <v>0.44685242518059853</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
       <c r="A62" s="8">
         <v>43941</v>
       </c>
@@ -22990,7 +24254,7 @@
       <c r="N62" s="1"/>
       <c r="O62" s="16"/>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:31">
       <c r="A63" s="8">
         <v>43942</v>
       </c>
@@ -23001,7 +24265,7 @@
       <c r="N63" s="1"/>
       <c r="O63" s="16"/>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:31">
       <c r="A64" s="8">
         <v>43943</v>
       </c>
@@ -23013,11 +24277,12 @@
       <c r="O64" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P1" r:id="rId1"/>
@@ -23031,10 +24296,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P55"/>
+  <dimension ref="A1:AE55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D56" sqref="D56"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AD8" sqref="AD8:AE52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23050,9 +24315,10 @@
     <col min="11" max="11" width="1.140625" customWidth="1"/>
     <col min="15" max="15" width="7.7109375" style="19" customWidth="1"/>
     <col min="16" max="16" width="3.7109375" customWidth="1"/>
+    <col min="30" max="31" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="28.5">
+    <row r="1" spans="1:31" ht="28.5">
       <c r="A1" s="24" t="s">
         <v>30</v>
       </c>
@@ -23074,7 +24340,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1">
+    <row r="3" spans="1:31" ht="15.75" thickBot="1">
       <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
@@ -23096,8 +24362,12 @@
       <c r="M3" s="25"/>
       <c r="N3" s="25"/>
       <c r="O3" s="25"/>
-    </row>
-    <row r="4" spans="1:16" s="6" customFormat="1">
+      <c r="AD3" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE3" s="26"/>
+    </row>
+    <row r="4" spans="1:31" s="6" customFormat="1">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -23138,8 +24408,14 @@
       <c r="O4" s="18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="AD4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
       <c r="A6" s="8">
         <v>43894</v>
       </c>
@@ -23163,7 +24439,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="16"/>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:31">
       <c r="A7" s="8">
         <v>43895</v>
       </c>
@@ -23197,8 +24473,16 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="16"/>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="AD7" s="1" t="e">
+        <f>H7/PEAK_CASES_SE</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="AE7" s="1" t="e">
+        <f>M7/PEAK_DEATHS_SE</f>
+        <v>#NAME?</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
       <c r="A8" s="8">
         <v>43896</v>
       </c>
@@ -23233,7 +24517,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="16"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:31">
       <c r="A9" s="8">
         <v>43897</v>
       </c>
@@ -23268,7 +24552,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:31">
       <c r="A10" s="8">
         <v>43898</v>
       </c>
@@ -23303,7 +24587,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="16"/>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:31">
       <c r="A11" s="8">
         <v>43899</v>
       </c>
@@ -23342,7 +24626,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:31">
       <c r="A12" s="8">
         <v>43900</v>
       </c>
@@ -23381,7 +24665,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:31">
       <c r="A13" s="8">
         <v>43901</v>
       </c>
@@ -23420,7 +24704,7 @@
       <c r="N13" s="1"/>
       <c r="O13" s="16"/>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:31">
       <c r="A14" s="8">
         <v>43902</v>
       </c>
@@ -23462,7 +24746,7 @@
       </c>
       <c r="O14" s="16"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:31">
       <c r="A15" s="8">
         <v>43903</v>
       </c>
@@ -23504,7 +24788,7 @@
       </c>
       <c r="O15" s="16"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:31">
       <c r="A16" s="8">
         <v>43904</v>
       </c>
@@ -25065,11 +26349,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="G3:J3"/>
     <mergeCell ref="L3:O3"/>
+    <mergeCell ref="AD3:AE3"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="P1" r:id="rId1"/>

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -873,14 +873,23 @@
                 <c:pt idx="45">
                   <c:v>14963</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>15038</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>15069</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>15175</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192738432"/>
-        <c:axId val="192720256"/>
+        <c:axId val="178655232"/>
+        <c:axId val="176081152"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1093,17 +1102,26 @@
                 <c:pt idx="45">
                   <c:v>4.9868307327949335E-3</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.6945491281471198E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4.1644689237181022E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>4.5935300952944279E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="192717184"/>
-        <c:axId val="192718720"/>
+        <c:axId val="176065536"/>
+        <c:axId val="176079616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192717184"/>
+        <c:axId val="176065536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,15 +1139,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192718720"/>
+        <c:crossAx val="176079616"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192718720"/>
+        <c:axId val="176079616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -1142,24 +1161,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192717184"/>
+        <c:crossAx val="176065536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192720256"/>
+        <c:axId val="176081152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192738432"/>
+        <c:crossAx val="178655232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="192738432"/>
+        <c:axId val="178655232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1167,7 +1186,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="192720256"/>
+        <c:crossAx val="176081152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1182,7 +1201,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1566,17 +1585,26 @@
                 <c:pt idx="50">
                   <c:v>638</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>768</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>813</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>413</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203266304"/>
-        <c:axId val="203272192"/>
+        <c:axId val="191340928"/>
+        <c:axId val="191342464"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="203266304"/>
+        <c:axId val="191340928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1584,13 +1612,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203272192"/>
+        <c:crossAx val="191342464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203272192"/>
+        <c:axId val="191342464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1632,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203266304"/>
+        <c:crossAx val="191340928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1613,7 +1641,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2050,14 +2078,23 @@
                 <c:pt idx="59">
                   <c:v>189973</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>192994</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>195351</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>197675</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203353088"/>
-        <c:axId val="203351552"/>
+        <c:axId val="191759488"/>
+        <c:axId val="191425920"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2354,17 +2391,26 @@
                 <c:pt idx="59">
                   <c:v>1.6907057090253388E-2</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.6225114596378067E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.5077598549268758E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.4302834881280051E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="203340032"/>
-        <c:axId val="203350016"/>
+        <c:axId val="191422848"/>
+        <c:axId val="191424384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203340032"/>
+        <c:axId val="191422848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2372,15 +2418,16 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203350016"/>
+        <c:crossAx val="191424384"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203350016"/>
+        <c:axId val="191424384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.5"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -2393,24 +2440,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203340032"/>
+        <c:crossAx val="191422848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203351552"/>
+        <c:axId val="191425920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203353088"/>
+        <c:crossAx val="191759488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="203353088"/>
+        <c:axId val="191759488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2418,7 +2465,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="203351552"/>
+        <c:crossAx val="191425920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2433,7 +2480,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2871,17 +2918,26 @@
                 <c:pt idx="59">
                   <c:v>66658</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>62447</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>65387</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>49916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203426432"/>
-        <c:axId val="203460992"/>
+        <c:axId val="191787776"/>
+        <c:axId val="191789312"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="203426432"/>
+        <c:axId val="191787776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2889,13 +2945,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203460992"/>
+        <c:crossAx val="191789312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203460992"/>
+        <c:axId val="191789312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2909,7 +2965,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203426432"/>
+        <c:crossAx val="191787776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2918,7 +2974,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3352,17 +3408,26 @@
                 <c:pt idx="59">
                   <c:v>2646</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>3021</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2357</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2324</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203476352"/>
-        <c:axId val="203486336"/>
+        <c:axId val="191809024"/>
+        <c:axId val="191810560"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="203476352"/>
+        <c:axId val="191809024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3370,13 +3435,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203486336"/>
+        <c:crossAx val="191810560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203486336"/>
+        <c:axId val="191810560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3390,7 +3455,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203476352"/>
+        <c:crossAx val="191809024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3399,7 +3464,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3836,14 +3901,23 @@
                 <c:pt idx="59">
                   <c:v>25549</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>25969</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>26384</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>26644</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203538432"/>
-        <c:axId val="203536640"/>
+        <c:axId val="191870848"/>
+        <c:axId val="191869312"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4134,17 +4208,26 @@
                 <c:pt idx="59">
                   <c:v>2.2684876090967476E-2</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.1298213018606633E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.0475653814544525E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.9118946684283631E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="203512832"/>
-        <c:axId val="203535104"/>
+        <c:axId val="191845504"/>
+        <c:axId val="191847040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203512832"/>
+        <c:axId val="191845504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4152,15 +4235,16 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203535104"/>
+        <c:crossAx val="191847040"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203535104"/>
+        <c:axId val="191847040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.6000000000000002"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -4173,24 +4257,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203512832"/>
+        <c:crossAx val="191845504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203536640"/>
+        <c:axId val="191869312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203538432"/>
+        <c:crossAx val="191870848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="203538432"/>
+        <c:axId val="191870848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4198,7 +4282,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="203536640"/>
+        <c:crossAx val="191869312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -4213,7 +4297,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4650,17 +4734,26 @@
                 <c:pt idx="59">
                   <c:v>464</c:v>
                 </c:pt>
+                <c:pt idx="60">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>260</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203545984"/>
-        <c:axId val="203551872"/>
+        <c:axId val="191886848"/>
+        <c:axId val="191888384"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="203545984"/>
+        <c:axId val="191886848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4668,13 +4761,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203551872"/>
+        <c:crossAx val="191888384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203551872"/>
+        <c:axId val="191888384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4688,7 +4781,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203545984"/>
+        <c:crossAx val="191886848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4697,7 +4790,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5080,14 +5173,20 @@
                 <c:pt idx="50">
                   <c:v>16755</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>17567</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18177</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203937280"/>
-        <c:axId val="203935744"/>
+        <c:axId val="192155008"/>
+        <c:axId val="192153472"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -5330,17 +5429,23 @@
                 <c:pt idx="50">
                   <c:v>4.2590839204246507E-2</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.2933224912794658E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.2294621523002042E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="203928320"/>
-        <c:axId val="203929856"/>
+        <c:axId val="192010880"/>
+        <c:axId val="192151936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203928320"/>
+        <c:axId val="192010880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5358,15 +5463,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203929856"/>
+        <c:crossAx val="192151936"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203929856"/>
+        <c:axId val="192151936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.6000000000000002"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -5378,24 +5484,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203928320"/>
+        <c:crossAx val="192010880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203935744"/>
+        <c:axId val="192153472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203937280"/>
+        <c:crossAx val="192155008"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="203937280"/>
+        <c:axId val="192155008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5403,7 +5509,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="203935744"/>
+        <c:crossAx val="192153472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -5418,7 +5524,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -5750,11 +5856,11 @@
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="204096256"/>
-        <c:axId val="204097792"/>
+        <c:axId val="192166528"/>
+        <c:axId val="192180608"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="204096256"/>
+        <c:axId val="192166528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5762,13 +5868,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204097792"/>
+        <c:crossAx val="192180608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="204097792"/>
+        <c:axId val="192180608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5782,7 +5888,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204096256"/>
+        <c:crossAx val="192166528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5791,7 +5897,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6171,17 +6277,23 @@
                 <c:pt idx="50">
                   <c:v>751</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>812</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>610</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="204109312"/>
-        <c:axId val="204110848"/>
+        <c:axId val="192187776"/>
+        <c:axId val="192210048"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="204109312"/>
+        <c:axId val="192187776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6189,13 +6301,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204110848"/>
+        <c:crossAx val="192210048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="204110848"/>
+        <c:axId val="192210048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6209,7 +6321,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204109312"/>
+        <c:crossAx val="192187776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6218,7 +6330,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -6571,14 +6683,20 @@
                 <c:pt idx="45">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>2152</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2192</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203993472"/>
-        <c:axId val="203991680"/>
+        <c:axId val="192070784"/>
+        <c:axId val="192064896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -6785,17 +6903,23 @@
                 <c:pt idx="45">
                   <c:v>6.1802850865535497E-2</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.3882398107969182E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.5211204723552232E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="203988352"/>
-        <c:axId val="203990144"/>
+        <c:axId val="192061824"/>
+        <c:axId val="192063360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203988352"/>
+        <c:axId val="192061824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6813,15 +6937,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203990144"/>
+        <c:crossAx val="192063360"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203990144"/>
+        <c:axId val="192063360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000018"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -6834,24 +6959,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203988352"/>
+        <c:crossAx val="192061824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203991680"/>
+        <c:axId val="192064896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203993472"/>
+        <c:crossAx val="192070784"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="203993472"/>
+        <c:axId val="192070784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6859,7 +6984,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="203991680"/>
+        <c:crossAx val="192064896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -6874,7 +6999,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7224,17 +7349,26 @@
                 <c:pt idx="45">
                   <c:v>4041</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>6851</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8403</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6542</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192660224"/>
-        <c:axId val="192661760"/>
+        <c:axId val="178674304"/>
+        <c:axId val="178684288"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="192660224"/>
+        <c:axId val="178674304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7242,13 +7376,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192661760"/>
+        <c:crossAx val="178684288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="192661760"/>
+        <c:axId val="178684288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="12000"/>
@@ -7264,7 +7398,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192660224"/>
+        <c:crossAx val="178674304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7273,7 +7407,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000005" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000005" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -7656,17 +7790,23 @@
                 <c:pt idx="50">
                   <c:v>84</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>40</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="204008064"/>
-        <c:axId val="204009856"/>
+        <c:axId val="192081280"/>
+        <c:axId val="192230528"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="204008064"/>
+        <c:axId val="192081280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7674,13 +7814,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204009856"/>
+        <c:crossAx val="192230528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="204009856"/>
+        <c:axId val="192230528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7694,7 +7834,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="204008064"/>
+        <c:crossAx val="192081280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7703,7 +7843,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8056,17 +8196,26 @@
                 <c:pt idx="45">
                   <c:v>74</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>106</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="192669952"/>
-        <c:axId val="192745472"/>
+        <c:axId val="178699648"/>
+        <c:axId val="178709632"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="192669952"/>
+        <c:axId val="178699648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8074,13 +8223,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="192745472"/>
+        <c:crossAx val="178709632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="192745472"/>
+        <c:axId val="178709632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8094,7 +8243,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192669952"/>
+        <c:crossAx val="178699648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8103,7 +8252,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -8456,14 +8605,23 @@
                 <c:pt idx="45">
                   <c:v>522</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>530</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>542</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="193856640"/>
-        <c:axId val="192793984"/>
+        <c:axId val="189850752"/>
+        <c:axId val="189836672"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -8670,17 +8828,26 @@
                 <c:pt idx="45">
                   <c:v>3.5158225145378426E-2</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.0030533474373029E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.7670323094200304E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.6367180631730332E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="192790912"/>
-        <c:axId val="192792448"/>
+        <c:axId val="189833600"/>
+        <c:axId val="189835136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="192790912"/>
+        <c:axId val="189833600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8698,15 +8865,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192792448"/>
+        <c:crossAx val="189835136"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="192792448"/>
+        <c:axId val="189835136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.8"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -8719,24 +8887,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="192790912"/>
+        <c:crossAx val="189833600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192793984"/>
+        <c:axId val="189836672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193856640"/>
+        <c:crossAx val="189850752"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="193856640"/>
+        <c:axId val="189850752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8744,7 +8912,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="192793984"/>
+        <c:crossAx val="189836672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -8759,7 +8927,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9109,17 +9277,26 @@
                 <c:pt idx="45">
                   <c:v>12</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="193872256"/>
-        <c:axId val="193873792"/>
+        <c:axId val="189865344"/>
+        <c:axId val="189867136"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="193872256"/>
+        <c:axId val="189865344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9127,13 +9304,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="193873792"/>
+        <c:crossAx val="189867136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="193873792"/>
+        <c:axId val="189867136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9147,7 +9324,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="193872256"/>
+        <c:crossAx val="189865344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9156,7 +9333,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -9539,14 +9716,23 @@
                 <c:pt idx="50">
                   <c:v>138078</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>143464</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>148377</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>152840</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="194287872"/>
-        <c:axId val="194286336"/>
+        <c:axId val="189974016"/>
+        <c:axId val="189972480"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -9792,17 +9978,26 @@
                 <c:pt idx="50">
                   <c:v>4.2658140705787231E-2</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.0471962442763951E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.8102507737674172E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5082577851356093E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="194270720"/>
-        <c:axId val="194272256"/>
+        <c:axId val="189969152"/>
+        <c:axId val="189970688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="194270720"/>
+        <c:axId val="189969152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9820,15 +10015,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="194272256"/>
+        <c:crossAx val="189970688"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="194272256"/>
+        <c:axId val="189970688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.4"/>
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
@@ -9841,24 +10037,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="194270720"/>
+        <c:crossAx val="189969152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="194286336"/>
+        <c:axId val="189972480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="194287872"/>
+        <c:crossAx val="189974016"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="194287872"/>
+        <c:axId val="189974016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9866,7 +10062,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="194286336"/>
+        <c:crossAx val="189972480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -9881,7 +10077,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -10262,17 +10458,26 @@
                 <c:pt idx="50">
                   <c:v>14629</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>18401</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>73614</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>25577</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="194292736"/>
-        <c:axId val="203186944"/>
+        <c:axId val="189979648"/>
+        <c:axId val="190133760"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="194292736"/>
+        <c:axId val="189979648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10280,13 +10485,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203186944"/>
+        <c:crossAx val="190133760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203186944"/>
+        <c:axId val="190133760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10300,7 +10505,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="194292736"/>
+        <c:crossAx val="189979648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10309,7 +10514,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000522" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000522" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -10689,17 +10894,26 @@
                 <c:pt idx="50">
                   <c:v>4583</c:v>
                 </c:pt>
+                <c:pt idx="51">
+                  <c:v>5386</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4913</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>4463</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203134080"/>
-        <c:axId val="203135616"/>
+        <c:axId val="190173568"/>
+        <c:axId val="190175104"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="203134080"/>
+        <c:axId val="190173568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10707,13 +10921,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203135616"/>
+        <c:crossAx val="190175104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="203135616"/>
+        <c:axId val="190175104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10727,7 +10941,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203134080"/>
+        <c:crossAx val="190173568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10736,7 +10950,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11089,14 +11303,23 @@
                 <c:pt idx="45">
                   <c:v>18738</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>19506</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>20319</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>20732</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="203243520"/>
-        <c:axId val="203237632"/>
+        <c:axId val="191309696"/>
+        <c:axId val="191308160"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -11318,17 +11541,26 @@
                 <c:pt idx="45">
                   <c:v>4.550401072827083E-2</c:v>
                 </c:pt>
+                <c:pt idx="46">
+                  <c:v>4.2545726054322115E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.9796785992840214E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7194596800634035E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="203222016"/>
-        <c:axId val="203236096"/>
+        <c:axId val="191304832"/>
+        <c:axId val="191306368"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="203222016"/>
+        <c:axId val="191304832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11346,15 +11578,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203236096"/>
+        <c:crossAx val="191306368"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="203236096"/>
+        <c:axId val="191306368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="0.70000000000000018"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -11366,24 +11599,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="203222016"/>
+        <c:crossAx val="191304832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203237632"/>
+        <c:axId val="191308160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="203243520"/>
+        <c:crossAx val="191309696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="203243520"/>
+        <c:axId val="191309696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11391,7 +11624,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="203237632"/>
+        <c:crossAx val="191308160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -11406,7 +11639,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000544" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000544" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -11424,8 +11657,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11507,15 +11740,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>59055</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>102870</xdr:rowOff>
+      <xdr:colOff>379095</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>93346</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11717,13 +11950,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>7619</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11806,14 +12039,14 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>131445</xdr:rowOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>55245</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12075,8 +12308,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12202,8 +12435,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12285,15 +12518,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>15239</xdr:rowOff>
+      <xdr:colOff>106680</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>388620</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12632,8 +12865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H229"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C226" sqref="C226"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13540,6 +13773,15 @@
       <c r="B54" s="21">
         <v>43945</v>
       </c>
+      <c r="C54" s="2">
+        <v>444222</v>
+      </c>
+      <c r="D54" s="2">
+        <v>143464</v>
+      </c>
+      <c r="E54" s="2">
+        <v>19506</v>
+      </c>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
@@ -13548,6 +13790,15 @@
       <c r="B55" s="21">
         <v>43946</v>
       </c>
+      <c r="C55" s="2">
+        <v>517836</v>
+      </c>
+      <c r="D55" s="2">
+        <v>148377</v>
+      </c>
+      <c r="E55" s="2">
+        <v>20319</v>
+      </c>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
@@ -13556,6 +13807,15 @@
       <c r="B56" s="21">
         <v>43947</v>
       </c>
+      <c r="C56" s="2">
+        <v>543413</v>
+      </c>
+      <c r="D56" s="2">
+        <v>152840</v>
+      </c>
+      <c r="E56" s="2">
+        <v>20732</v>
+      </c>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
@@ -14453,6 +14713,18 @@
       <c r="B106" s="21">
         <v>43945</v>
       </c>
+      <c r="C106" s="2">
+        <v>212686</v>
+      </c>
+      <c r="D106" s="2">
+        <v>15038</v>
+      </c>
+      <c r="E106" s="2">
+        <v>530</v>
+      </c>
+      <c r="F106" s="2">
+        <v>11872</v>
+      </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
@@ -14461,6 +14733,18 @@
       <c r="B107" s="21">
         <v>43946</v>
       </c>
+      <c r="C107" s="2">
+        <v>221089</v>
+      </c>
+      <c r="D107" s="2">
+        <v>15069</v>
+      </c>
+      <c r="E107" s="2">
+        <v>536</v>
+      </c>
+      <c r="F107" s="2">
+        <v>12103</v>
+      </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
@@ -14469,6 +14753,18 @@
       <c r="B108" s="21">
         <v>43947</v>
       </c>
+      <c r="C108" s="2">
+        <v>227631</v>
+      </c>
+      <c r="D108" s="2">
+        <v>15175</v>
+      </c>
+      <c r="E108" s="2">
+        <v>542</v>
+      </c>
+      <c r="F108" s="2">
+        <v>12282</v>
+      </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
@@ -15500,6 +15796,15 @@
       <c r="B171" s="21">
         <v>43945</v>
       </c>
+      <c r="C171" s="2">
+        <v>1642356</v>
+      </c>
+      <c r="D171" s="2">
+        <v>192994</v>
+      </c>
+      <c r="E171" s="2">
+        <v>25969</v>
+      </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
@@ -15508,6 +15813,15 @@
       <c r="B172" s="21">
         <v>43946</v>
       </c>
+      <c r="C172" s="2">
+        <v>1707743</v>
+      </c>
+      <c r="D172" s="2">
+        <v>195351</v>
+      </c>
+      <c r="E172" s="2">
+        <v>26384</v>
+      </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
@@ -15516,6 +15830,15 @@
       <c r="B173" s="21">
         <v>43947</v>
       </c>
+      <c r="C173" s="2">
+        <v>1757659</v>
+      </c>
+      <c r="D173" s="2">
+        <v>197675</v>
+      </c>
+      <c r="E173" s="2">
+        <v>26644</v>
+      </c>
     </row>
     <row r="176" spans="1:8">
       <c r="A176" t="s">
@@ -16394,6 +16717,12 @@
       <c r="B227" s="21">
         <v>43945</v>
       </c>
+      <c r="D227" s="2">
+        <v>17567</v>
+      </c>
+      <c r="E227" s="2">
+        <v>2152</v>
+      </c>
     </row>
     <row r="228" spans="1:6">
       <c r="A228" t="s">
@@ -16401,6 +16730,12 @@
       </c>
       <c r="B228" s="21">
         <v>43946</v>
+      </c>
+      <c r="D228" s="2">
+        <v>18177</v>
+      </c>
+      <c r="E228" s="2">
+        <v>2192</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -16428,8 +16763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE58" sqref="AE58"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AE60" sqref="AE60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -19202,9 +19537,58 @@
       <c r="B52" s="13">
         <v>39</v>
       </c>
-      <c r="H52" s="3"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="16"/>
+      <c r="C52" s="2">
+        <f>Data!C106</f>
+        <v>212686</v>
+      </c>
+      <c r="D52" s="2">
+        <f t="shared" ref="D52" si="189">C52-C51</f>
+        <v>6851</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" ref="E52" si="190">H52/D52</f>
+        <v>1.0947306962487227E-2</v>
+      </c>
+      <c r="G52" s="2">
+        <f>Data!D106</f>
+        <v>15038</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" ref="H52" si="191">G52-G51</f>
+        <v>75</v>
+      </c>
+      <c r="I52" s="1">
+        <f t="shared" ref="I52" si="192">G52/G51-1</f>
+        <v>5.012363830782629E-3</v>
+      </c>
+      <c r="J52" s="16">
+        <f t="shared" ref="J52" si="193">SUM(I46:I52)/7</f>
+        <v>4.6945491281471198E-3</v>
+      </c>
+      <c r="L52">
+        <f>Data!E106</f>
+        <v>530</v>
+      </c>
+      <c r="M52">
+        <f t="shared" ref="M52" si="194">L52-L51</f>
+        <v>8</v>
+      </c>
+      <c r="N52" s="1">
+        <f t="shared" ref="N52" si="195">L52/L51-1</f>
+        <v>1.5325670498084198E-2</v>
+      </c>
+      <c r="O52" s="16">
+        <f t="shared" ref="O52" si="196">SUM(N46:N52)/7</f>
+        <v>3.0030533474373029E-2</v>
+      </c>
+      <c r="AD52" s="1">
+        <f t="shared" ref="AD52" si="197">H52/PEAK_CASES_AT</f>
+        <v>7.4925074925074928E-2</v>
+      </c>
+      <c r="AE52" s="1">
+        <f t="shared" ref="AE52" si="198">M52/PEAK_DEATHS_AT</f>
+        <v>0.26666666666666666</v>
+      </c>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="8">
@@ -19213,9 +19597,58 @@
       <c r="B53" s="13">
         <v>40</v>
       </c>
-      <c r="H53" s="3"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="16"/>
+      <c r="C53" s="2">
+        <f>Data!C107</f>
+        <v>221089</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D53:D54" si="199">C53-C52</f>
+        <v>8403</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" ref="E53:E54" si="200">H53/D53</f>
+        <v>3.6891586338212543E-3</v>
+      </c>
+      <c r="G53" s="2">
+        <f>Data!D107</f>
+        <v>15069</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" ref="H53:H54" si="201">G53-G52</f>
+        <v>31</v>
+      </c>
+      <c r="I53" s="1">
+        <f t="shared" ref="I53:I54" si="202">G53/G52-1</f>
+        <v>2.0614443410027494E-3</v>
+      </c>
+      <c r="J53" s="16">
+        <f t="shared" ref="J53:J54" si="203">SUM(I47:I53)/7</f>
+        <v>4.1644689237181022E-3</v>
+      </c>
+      <c r="L53">
+        <f>Data!E107</f>
+        <v>536</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M54" si="204">L53-L52</f>
+        <v>6</v>
+      </c>
+      <c r="N53" s="1">
+        <f t="shared" ref="N53:N54" si="205">L53/L52-1</f>
+        <v>1.132075471698113E-2</v>
+      </c>
+      <c r="O53" s="16">
+        <f t="shared" ref="O53:O54" si="206">SUM(N47:N53)/7</f>
+        <v>2.7670323094200304E-2</v>
+      </c>
+      <c r="AD53" s="1">
+        <f t="shared" ref="AD53:AD54" si="207">H53/PEAK_CASES_AT</f>
+        <v>3.0969030969030968E-2</v>
+      </c>
+      <c r="AE53" s="1">
+        <f t="shared" ref="AE53:AE54" si="208">M53/PEAK_DEATHS_AT</f>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="54" spans="1:31">
       <c r="A54" s="8">
@@ -19224,9 +19657,58 @@
       <c r="B54" s="13">
         <v>41</v>
       </c>
-      <c r="H54" s="3"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="16"/>
+      <c r="C54" s="2">
+        <f>Data!C108</f>
+        <v>227631</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="199"/>
+        <v>6542</v>
+      </c>
+      <c r="E54" s="11">
+        <f t="shared" si="200"/>
+        <v>1.6202996025680219E-2</v>
+      </c>
+      <c r="G54" s="2">
+        <f>Data!D108</f>
+        <v>15175</v>
+      </c>
+      <c r="H54" s="3">
+        <f t="shared" si="201"/>
+        <v>106</v>
+      </c>
+      <c r="I54" s="1">
+        <f t="shared" si="202"/>
+        <v>7.0343088459752234E-3</v>
+      </c>
+      <c r="J54" s="16">
+        <f t="shared" si="203"/>
+        <v>4.5935300952944279E-3</v>
+      </c>
+      <c r="L54">
+        <f>Data!E108</f>
+        <v>542</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="204"/>
+        <v>6</v>
+      </c>
+      <c r="N54" s="1">
+        <f t="shared" si="205"/>
+        <v>1.1194029850746245E-2</v>
+      </c>
+      <c r="O54" s="16">
+        <f t="shared" si="206"/>
+        <v>2.6367180631730332E-2</v>
+      </c>
+      <c r="AD54" s="1">
+        <f t="shared" si="207"/>
+        <v>0.10589410589410589</v>
+      </c>
+      <c r="AE54" s="1">
+        <f t="shared" si="208"/>
+        <v>0.2</v>
+      </c>
     </row>
     <row r="55" spans="1:31">
       <c r="A55" s="8">
@@ -19283,8 +19765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="AG77" sqref="AG77"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L61" sqref="L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22355,10 +22837,58 @@
         <f t="shared" si="16"/>
         <v>32</v>
       </c>
-      <c r="H57" s="3"/>
-      <c r="L57" s="2"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="16"/>
+      <c r="C57" s="2">
+        <f>Data!C54</f>
+        <v>444222</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" ref="D57:D59" si="191">C57-C56</f>
+        <v>18401</v>
+      </c>
+      <c r="E57" s="11">
+        <f t="shared" ref="E57:E59" si="192">H57/D57</f>
+        <v>0.29270148361502091</v>
+      </c>
+      <c r="G57" s="2">
+        <f>Data!D54</f>
+        <v>143464</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" ref="H57:H59" si="193">G57-G56</f>
+        <v>5386</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" ref="I57:I59" si="194">G57/G56-1</f>
+        <v>3.9006938107446487E-2</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" ref="J57:J59" si="195">SUM(I51:I57)/7</f>
+        <v>4.0471962442763951E-2</v>
+      </c>
+      <c r="L57" s="2">
+        <f>Data!E54</f>
+        <v>19506</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57:M59" si="196">L57-L56</f>
+        <v>768</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" ref="N57:N59" si="197">L57/L56-1</f>
+        <v>4.0986231187960298E-2</v>
+      </c>
+      <c r="O57" s="16">
+        <f t="shared" ref="O57:O59" si="198">SUM(N51:N57)/7</f>
+        <v>4.2545726054322115E-2</v>
+      </c>
+      <c r="AD57" s="1">
+        <f t="shared" ref="AD57:AD59" si="199">H57/PEAK_CASES_UK</f>
+        <v>0.62043543370579424</v>
+      </c>
+      <c r="AE57" s="1">
+        <f t="shared" ref="AE57:AE59" si="200">M57/PEAK_DEATHS_UK</f>
+        <v>0.78367346938775506</v>
+      </c>
     </row>
     <row r="58" spans="1:31">
       <c r="A58" s="8">
@@ -22368,10 +22898,58 @@
         <f t="shared" si="16"/>
         <v>33</v>
       </c>
-      <c r="H58" s="3"/>
-      <c r="L58" s="2"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="16"/>
+      <c r="C58" s="2">
+        <f>Data!C55</f>
+        <v>517836</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="191"/>
+        <v>73614</v>
+      </c>
+      <c r="E58" s="11">
+        <f t="shared" si="192"/>
+        <v>6.6740022278370961E-2</v>
+      </c>
+      <c r="G58" s="2">
+        <f>Data!D55</f>
+        <v>148377</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="193"/>
+        <v>4913</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="194"/>
+        <v>3.4245525009758637E-2</v>
+      </c>
+      <c r="J58" s="16">
+        <f t="shared" si="195"/>
+        <v>3.8102507737674172E-2</v>
+      </c>
+      <c r="L58" s="2">
+        <f>Data!E55</f>
+        <v>20319</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="196"/>
+        <v>813</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="197"/>
+        <v>4.1679483235927517E-2</v>
+      </c>
+      <c r="O58" s="16">
+        <f t="shared" si="198"/>
+        <v>3.9796785992840214E-2</v>
+      </c>
+      <c r="AD58" s="1">
+        <f t="shared" si="199"/>
+        <v>0.56594862343048036</v>
+      </c>
+      <c r="AE58" s="1">
+        <f t="shared" si="200"/>
+        <v>0.82959183673469383</v>
+      </c>
     </row>
     <row r="59" spans="1:31">
       <c r="A59" s="8">
@@ -22381,10 +22959,58 @@
         <f t="shared" si="16"/>
         <v>34</v>
       </c>
-      <c r="H59" s="3"/>
-      <c r="L59" s="2"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="16"/>
+      <c r="C59" s="2">
+        <f>Data!C56</f>
+        <v>543413</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" si="191"/>
+        <v>25577</v>
+      </c>
+      <c r="E59" s="11">
+        <f t="shared" si="192"/>
+        <v>0.17449270829260663</v>
+      </c>
+      <c r="G59" s="2">
+        <f>Data!D56</f>
+        <v>152840</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="193"/>
+        <v>4463</v>
+      </c>
+      <c r="I59" s="1">
+        <f t="shared" si="194"/>
+        <v>3.007878579564216E-2</v>
+      </c>
+      <c r="J59" s="16">
+        <f t="shared" si="195"/>
+        <v>3.5082577851356093E-2</v>
+      </c>
+      <c r="L59" s="2">
+        <f>Data!E56</f>
+        <v>20732</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="196"/>
+        <v>413</v>
+      </c>
+      <c r="N59" s="1">
+        <f t="shared" si="197"/>
+        <v>2.0325803435208512E-2</v>
+      </c>
+      <c r="O59" s="16">
+        <f t="shared" si="198"/>
+        <v>3.7194596800634035E-2</v>
+      </c>
+      <c r="AD59" s="1">
+        <f t="shared" si="199"/>
+        <v>0.51411127750259189</v>
+      </c>
+      <c r="AE59" s="1">
+        <f t="shared" si="200"/>
+        <v>0.42142857142857143</v>
+      </c>
     </row>
     <row r="60" spans="1:31">
       <c r="A60" s="8">
@@ -22443,8 +23069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="AE71" sqref="AE71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26054,9 +26680,58 @@
       <c r="B66" s="13">
         <v>46</v>
       </c>
-      <c r="H66" s="3"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="16"/>
+      <c r="C66" s="2">
+        <f>Data!C171</f>
+        <v>1642356</v>
+      </c>
+      <c r="D66" s="2">
+        <f t="shared" ref="D66:D68" si="156">C66-C65</f>
+        <v>62447</v>
+      </c>
+      <c r="E66" s="11">
+        <f t="shared" ref="E66:E68" si="157">H66/D66</f>
+        <v>4.8377023716111266E-2</v>
+      </c>
+      <c r="G66" s="2">
+        <f>Data!D171</f>
+        <v>192994</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" ref="H66:H68" si="158">G66-G65</f>
+        <v>3021</v>
+      </c>
+      <c r="I66" s="1">
+        <f t="shared" ref="I66:I68" si="159">G66/G65-1</f>
+        <v>1.5902259794812856E-2</v>
+      </c>
+      <c r="J66" s="16">
+        <f t="shared" ref="J66:J68" si="160">SUM(I60:I66)/7</f>
+        <v>1.6225114596378067E-2</v>
+      </c>
+      <c r="L66" s="2">
+        <f>Data!E171</f>
+        <v>25969</v>
+      </c>
+      <c r="M66">
+        <f t="shared" ref="M66:M68" si="161">L66-L65</f>
+        <v>420</v>
+      </c>
+      <c r="N66" s="1">
+        <f t="shared" ref="N66:N68" si="162">L66/L65-1</f>
+        <v>1.6438999569454715E-2</v>
+      </c>
+      <c r="O66" s="16">
+        <f t="shared" ref="O66:O68" si="163">SUM(N58:N64)/7</f>
+        <v>2.1298213018606633E-2</v>
+      </c>
+      <c r="AD66" s="1">
+        <f t="shared" ref="AD66:AD68" si="164">H66/PEAK_CASES</f>
+        <v>0.4607289919170352</v>
+      </c>
+      <c r="AE66" s="1">
+        <f t="shared" ref="AE66:AE68" si="165">M66/PEAK_DEATHS</f>
+        <v>0.43343653250773995</v>
+      </c>
     </row>
     <row r="67" spans="1:31">
       <c r="A67" s="8">
@@ -26065,9 +26740,58 @@
       <c r="B67" s="13">
         <v>47</v>
       </c>
-      <c r="H67" s="3"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="16"/>
+      <c r="C67" s="2">
+        <f>Data!C172</f>
+        <v>1707743</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" si="156"/>
+        <v>65387</v>
+      </c>
+      <c r="E67" s="11">
+        <f t="shared" si="157"/>
+        <v>3.6046920641717772E-2</v>
+      </c>
+      <c r="G67" s="2">
+        <f>Data!D172</f>
+        <v>195351</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="158"/>
+        <v>2357</v>
+      </c>
+      <c r="I67" s="1">
+        <f t="shared" si="159"/>
+        <v>1.2212814906162883E-2</v>
+      </c>
+      <c r="J67" s="16">
+        <f t="shared" si="160"/>
+        <v>1.5077598549268758E-2</v>
+      </c>
+      <c r="L67" s="2">
+        <f>Data!E172</f>
+        <v>26384</v>
+      </c>
+      <c r="M67">
+        <f t="shared" si="161"/>
+        <v>415</v>
+      </c>
+      <c r="N67" s="1">
+        <f t="shared" si="162"/>
+        <v>1.5980592244599245E-2</v>
+      </c>
+      <c r="O67" s="16">
+        <f t="shared" si="163"/>
+        <v>2.0475653814544525E-2</v>
+      </c>
+      <c r="AD67" s="1">
+        <f t="shared" si="164"/>
+        <v>0.35946316913222509</v>
+      </c>
+      <c r="AE67" s="1">
+        <f t="shared" si="165"/>
+        <v>0.42827657378740969</v>
+      </c>
     </row>
     <row r="68" spans="1:31">
       <c r="A68" s="8">
@@ -26076,9 +26800,58 @@
       <c r="B68" s="13">
         <v>48</v>
       </c>
-      <c r="H68" s="3"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="16"/>
+      <c r="C68" s="2">
+        <f>Data!C173</f>
+        <v>1757659</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" si="156"/>
+        <v>49916</v>
+      </c>
+      <c r="E68" s="11">
+        <f t="shared" si="157"/>
+        <v>4.6558217805913939E-2</v>
+      </c>
+      <c r="G68" s="2">
+        <f>Data!D173</f>
+        <v>197675</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="158"/>
+        <v>2324</v>
+      </c>
+      <c r="I68" s="1">
+        <f t="shared" si="159"/>
+        <v>1.1896534955029736E-2</v>
+      </c>
+      <c r="J68" s="16">
+        <f t="shared" si="160"/>
+        <v>1.4302834881280051E-2</v>
+      </c>
+      <c r="L68" s="2">
+        <f>Data!E173</f>
+        <v>26644</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="161"/>
+        <v>260</v>
+      </c>
+      <c r="N68" s="1">
+        <f t="shared" si="162"/>
+        <v>9.8544572468162173E-3</v>
+      </c>
+      <c r="O68" s="16">
+        <f t="shared" si="163"/>
+        <v>1.9118946684283631E-2</v>
+      </c>
+      <c r="AD68" s="1">
+        <f t="shared" si="164"/>
+        <v>0.35443037974683544</v>
+      </c>
+      <c r="AE68" s="1">
+        <f t="shared" si="165"/>
+        <v>0.26831785345717235</v>
+      </c>
     </row>
     <row r="69" spans="1:31">
       <c r="A69" s="8">
@@ -26141,8 +26914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AE62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Z58" sqref="Z58"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="AF61" sqref="AF61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28456,16 +29229,100 @@
       <c r="A57" s="8">
         <v>43945</v>
       </c>
+      <c r="C57" s="2">
+        <f>Data!C227</f>
+        <v>0</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" ref="D57:D59" si="30">C57-C56</f>
+        <v>0</v>
+      </c>
+      <c r="G57" s="2">
+        <f>Data!D227</f>
+        <v>17567</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" ref="H57:H59" si="31">G57-G56</f>
+        <v>812</v>
+      </c>
+      <c r="I57" s="1">
+        <f t="shared" ref="I57:I59" si="32">G57/G56-1</f>
+        <v>4.8463145329752377E-2</v>
+      </c>
+      <c r="J57" s="16">
+        <f t="shared" ref="J57:J59" si="33">SUM(I49:I55)/7</f>
+        <v>4.2933224912794658E-2</v>
+      </c>
+      <c r="L57" s="2">
+        <f>Data!E227</f>
+        <v>2152</v>
+      </c>
+      <c r="M57">
+        <f t="shared" ref="M57:M59" si="34">L57-L56</f>
+        <v>131</v>
+      </c>
+      <c r="N57" s="1">
+        <f t="shared" ref="N57:N59" si="35">L57/L56-1</f>
+        <v>6.4819396338446245E-2</v>
+      </c>
+      <c r="O57" s="16">
+        <f t="shared" ref="O57:O59" si="36">SUM(N51:N57)/7</f>
+        <v>6.3882398107969182E-2</v>
+      </c>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="8">
         <v>43946</v>
       </c>
+      <c r="C58" s="2">
+        <f>Data!C228</f>
+        <v>0</v>
+      </c>
+      <c r="D58" s="2">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="2">
+        <f>Data!D228</f>
+        <v>18177</v>
+      </c>
+      <c r="H58" s="3">
+        <f t="shared" si="31"/>
+        <v>610</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="32"/>
+        <v>3.472419878180677E-2</v>
+      </c>
+      <c r="J58" s="16">
+        <f t="shared" si="33"/>
+        <v>4.2294621523002042E-2</v>
+      </c>
+      <c r="L58" s="2">
+        <f>Data!E228</f>
+        <v>2192</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="34"/>
+        <v>40</v>
+      </c>
+      <c r="N58" s="1">
+        <f t="shared" si="35"/>
+        <v>1.8587360594795488E-2</v>
+      </c>
+      <c r="O58" s="16">
+        <f t="shared" si="36"/>
+        <v>5.5211204723552232E-2</v>
+      </c>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="8">
         <v>43947</v>
       </c>
+      <c r="H59" s="3"/>
+      <c r="L59" s="2"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="16"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="8">

--- a/data/covid-stats.xlsx
+++ b/data/covid-stats.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450"/>
+    <workbookView xWindow="390" yWindow="60" windowWidth="31620" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="6" r:id="rId1"/>
@@ -885,14 +885,17 @@
                 <c:pt idx="49">
                   <c:v>15239</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>15286</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="175247360"/>
-        <c:axId val="69585152"/>
+        <c:axId val="175902720"/>
+        <c:axId val="173328640"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1117,17 +1120,20 @@
                 <c:pt idx="49">
                   <c:v>4.6224965317917767E-3</c:v>
                 </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.5305882307990087E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="69569536"/>
-        <c:axId val="69583616"/>
+        <c:axId val="173313024"/>
+        <c:axId val="173327104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="69569536"/>
+        <c:axId val="173313024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,13 +1151,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="69583616"/>
+        <c:crossAx val="173327104"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="69583616"/>
+        <c:axId val="173327104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -1167,24 +1173,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="69569536"/>
+        <c:crossAx val="173313024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="69585152"/>
+        <c:axId val="173328640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="175247360"/>
+        <c:crossAx val="175902720"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="175247360"/>
+        <c:axId val="175902720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1192,7 +1198,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="69585152"/>
+        <c:crossAx val="173328640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -1207,7 +1213,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -1603,17 +1609,20 @@
                 <c:pt idx="54">
                   <c:v>360</c:v>
                 </c:pt>
+                <c:pt idx="55">
+                  <c:v>586</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="179814784"/>
-        <c:axId val="179816320"/>
+        <c:axId val="181256576"/>
+        <c:axId val="181258112"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="179814784"/>
+        <c:axId val="181256576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,13 +1630,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179816320"/>
+        <c:crossAx val="181258112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="179816320"/>
+        <c:axId val="181258112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1641,7 +1650,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="179814784"/>
+        <c:crossAx val="181256576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1650,7 +1659,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000006" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000006" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000611" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000611" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2099,14 +2108,17 @@
                 <c:pt idx="63">
                   <c:v>199414</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>201505</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180225152"/>
-        <c:axId val="180153728"/>
+        <c:axId val="190063744"/>
+        <c:axId val="190057856"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2415,17 +2427,20 @@
                 <c:pt idx="63">
                   <c:v>1.3758826953499646E-2</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3105590334789419E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180150656"/>
-        <c:axId val="180152192"/>
+        <c:axId val="190054784"/>
+        <c:axId val="190056320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180150656"/>
+        <c:axId val="190054784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,13 +2448,13 @@
         <c:numFmt formatCode="d/m" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180152192"/>
+        <c:crossAx val="190056320"/>
         <c:crosses val="autoZero"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="180152192"/>
+        <c:axId val="190056320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.5"/>
@@ -2455,24 +2470,24 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180150656"/>
+        <c:crossAx val="190054784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180153728"/>
+        <c:axId val="190057856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="r"/>
         <c:numFmt formatCode="#,##0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180225152"/>
+        <c:crossAx val="190063744"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:dateAx>
-        <c:axId val="180225152"/>
+        <c:axId val="190063744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2495,7 @@
         <c:axPos val="b"/>
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="180153728"/>
+        <c:crossAx val="190057856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
@@ -2495,7 +2510,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
   <c:userShapes r:id="rId1"/>
@@ -2945,17 +2960,20 @@
                 <c:pt idx="63">
                   <c:v>32003</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>57272</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180257536"/>
-        <c:axId val="180259072"/>
+        <c:axId val="190096128"/>
+        <c:axId val="190097664"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180257536"/>
+        <c:axId val="190096128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2963,13 +2981,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180259072"/>
+        <c:crossAx val="190097664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180259072"/>
+        <c:axId val="190097664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2983,7 +3001,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180257536"/>
+        <c:crossAx val="190096128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2992,7 +3010,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000555" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000555" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000566" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000566" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3438,17 +3456,20 @@
                 <c:pt idx="63">
                   <c:v>1739</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>2091</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180278784"/>
-        <c:axId val="180280320"/>
+        <c:axId val="190117376"/>
+        <c:axId val="190118912"/>
       </c:barChart>
       <c:dateAx>
-        <c:axId val="180278784"/>
+        <c:axId val="190117376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3456,13 +3477,13 @@
         <c:numFmt formatCode="dd\-mmm" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180280320"/>
+        <c:crossAx val="190118912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="180280320"/>
+        <c:axId val="190118912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3476,7 +3497,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="180278784"/>
+        <c:crossAx val="190117376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3485,7 +3506,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000577" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000577" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000588" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000588" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3934,14 +3955,17 @@
                 <c:pt idx="63">
                   <c:v>26977</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>27359</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:gapWidth val="75"/>
         <c:overlap val="-25"/>
-        <c:axId val="180340608"/>
-        <c:axId val="180339072"/>
+        <c:axId val="190183296"/>
+        <c:axId val="190181760"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -4244,17 +4268,20 @@
                 <c:pt idx="63">
                   <c:v>1.8374535483099117E-2</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.7119158295662081E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="1"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="180311168"/>
-        <c:axId val="180312704"/>
+        <c:axId val="190157952"/>
+        <c:axId val="190159488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="180311168"/>
+        <c:axId val="190157952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         